--- a/Covid_19_Dataset_and_References/References/44.xlsx
+++ b/Covid_19_Dataset_and_References/References/44.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="435">
   <si>
     <t>Doi</t>
   </si>
@@ -1831,6 +1831,735 @@
   </si>
   <si>
     <t>[Alexis K.%Okoh%alexis.okoh@rwjbh.org%0,  Christoph%Sossou%NULL%0,  Christoph%Sossou%NULL%0,  Neha S.%Dangayach%NULL%0,  Sherin%Meledathu%NULL%0,  Oluwakemi%Phillips%NULL%0,  Corinne%Raczek%NULL%0,  Michael%Patti%NULL%0,  Nathan%Kang%NULL%0,  Sameer A.%Hirji%NULL%0,  Charles%Cathcart%NULL%0,  Christian%Engell%NULL%0,  Marc%Cohen%NULL%0,  Sandhya%Nagarakanti%NULL%0,  Eliahu%Bishburg%NULL%0,  Harpreet S.%Grewal%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Previous studies have shown that Coronavirus Disease 2019 (COVID-19) patients with underlying comorbidities can have worse outcomes.
+ However, the effect of hypertension on outcomes of COVID-19 patients remains unclear.
+Research question
+id="Par2"&gt;The aim of this study was to explore the effect of hypertension on the outcomes of patients with COVID-19 by using propensity score–matching (PSM) analysis.
+Study design and methods
+id="Par3"&gt;Participants enrolled in this study were patients with COVID-19 who had been hospitalized at the Central Hospital of Wuhan, China.
+ Chronic comorbidities and laboratory and radiological data were reviewed; patient outcomes and lengths of stay were obtained from discharge records.
+ We used the Cox proportional-hazard model (CPHM) to analyze the effect of hypertension on these patients’ outcomes and PSM analysis to further validate the abovementioned effect.
+Results
+id="Par4"&gt;A total of 226 patients with COVID-19 were enrolled in this study, of whom 176 survived and 50 died.
+ The proportion of patients with hypertension among non-survivors was higher than that among survivors (26.70% vs.
+ 74.00%; P &amp;lt; 0.001).
+ Results obtained via CPHM showed that hypertension could increase risk of mortality in COVID-19 patients (hazard ratio 3.317; 95% CI [1.709–6.440]; P &amp;lt; 0.001).
+ Increased D-dimer levels and higher ratio of neutrophils to lymphocytes (N/L) were also found to increase these patients’ mortality risk.
+ After matching on propensity score, we still came to similar conclusions.
+ After we applied the same method in critically ill patients, we found that hypertension also increased risk of death in patients with severe COVID-19.
+Conclusion
+id="Par5"&gt;Hypertension, increased D-dimer and the ratio of neutrophil to lymphocyte increased mortality in patients with COVID-19, with hypertension in particular.
+</t>
+  </si>
+  <si>
+    <t>[Qing%Yang%NULL%0,   Ying%Zhou%NULL%0,   Xinrong%Wang%NULL%0,   Shan%Gao%NULL%0,   Yang%Xiao%NULL%0,   Weiming%Zhang%NULL%0,   Yi%Hu%huyizxyy@163.com%0,   Yafei%Wang%wyf_527@163.com%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Since December 2019, the outbreak of COVID-19 caused a large number of hospital admissions in China.
+ Many patients with COVID-19 have symptoms of acute respiratory distress syndrome, even are in danger of death.
+ This is the first study to evaluate dynamic changes of D-Dimer and Neutrophil-Lymphocyte Count Ratio (NLR) as a prognostic utility in patients with COVID-19 for clinical use.
+Methods
+id="Par2"&gt;In a retrospective study, we collected data from 349 hospitalized patients who diagnosed as the infection of the COVID-19 in Wuhan Pulmonary Hospital.
+ We used ROC curves and Cox regression analysis to explore critical value (optimal cut-off point associated with Youden index) and prognostic role of dynamic changes of D-Dimer and NLR.
+Results
+id="Par3"&gt;Three hundred forty-nine participants were enrolled in this study and the mortality rate of the patients with laboratory diagnosed COVID-19 was 14.9%.
+ The initial and peak value of D-Dimer and NLR in deceased patients were higher statistically compared with survivors (P &amp;lt; 0.001).
+ There was a more significant upward trend of D-Dimer and NLR during hospitalization in the deceased patients, initial D-Dimer and NLR were lower than the peak tests (MD) -25.23, 95% CI: − 31.81- -18.64, P &amp;lt; 0.001; (MD) -43.73, 95% CI:-59.28- -31.17, P &amp;lt; 0.001. The test showed a stronger correlation between hospitalization days, PCT and peak D-Dimer than initial D-Dimer.
+ The areas under the ROC curves of peak D-Dimer and peak NLR tests were higher than the initial tests (0.94(95%CI: 0.90–0.98) vs.
+ 0.80 (95% CI: 0.73–0.87); 0.93 (95%CI:0.90–0.96) vs.
+ 0.86 (95%CI:0.82–0.91).
+ The critical value of initial D-Dimer, peak D-Dimer, initial NLR and peak NLR was 0.73 mg/L, 3.78 mg/L,7.13 and 14.31 respectively.
+ 35 (10.03%) patients were intubated.
+ In the intubated patients, initial and peak D-Dimer and NLR were much higher than non-intubated patients (P &amp;lt; 0.001).
+ The critical value of initial D-Dimer, peak D-Dimer, initial NLR and peak NLR in prognosticate of intubation was 0.73 mg/L, 12.75 mg/L,7.28 and 27.55. The multivariable Cox regression analysis showed that age (HR 1.04, 95% CI 1.00–1.07, P = 0.01), the peak D-Dimer (HR 1.03, 95% CI 1.01–1.04, P &amp;lt; 0.001) were prognostic factors for COVID-19 patients’ death.
+Conclusions
+id="Par4"&gt;To dynamically observe the ratio of D-Dimer and NLR was more valuable during the prognosis of COVID-19. The rising trend in D-Dimer and NLR, or the test results higher than the critical values may indicate a risk of death for participants with COVID-19.
+</t>
+  </si>
+  <si>
+    <t>[Wenjing%Ye%yewenjing@xinhuamed.com.cn%0,   Guoxi%Chen%4799082@qq.com%0,   Xiaopan%Li%xiaopanli0224@126.com%0,   Xing%Lan%474137452@qq.com%0,   Chen%Ji%c.ji.3@warwick.ac.uk%0,   Min%Hou%min-hou710@hotmail.com%0,   Di%Zhang%zhangdizhangdi1234@163.com%0,   Guangwang%Zeng%785663609@qq.com%0,   Yaling%Wang%953822402@qq.com%0,   Cheng%Xu%xucheng112358@126.com%0,   Weiwei%Lu%luweiwei100@126.com%0,   Ruolin%Cui%crlqwerty@163.com%0,   Yuyang%Cai%caiyuyang@sjtu.edu.cn%0,   Hai%Huang%1220775601@qq.com%0,   Ling%Yang%yangling01@xinhuamed.com.cn%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Data from the UK COVID-19 outbreak are emerging, and there are ongoing concerns about a disproportionate effect on ethnic minorities.
+ There is very limited information on COVID-19 in the over-80s, and the rates of hospital-onset infections are unknown.
+Methods
+id="Par2"&gt;This was a retrospective cohort study from electronic case records of the first 450 patients admitted to our hospital with PCR-confirmed COVID-19, 77% of the total inpatient caseload to date.
+ Demographic, clinical and biochemical data were extracted.
+ The primary endpoint was death during the index hospital admission.
+ The characteristics of all patients, those over 80 years of age and those with hospital-onset COVID-19 were examined.
+Results
+id="Par3"&gt;The median (IQR) age was 72 (56, 83), with 150 (33%) over 80 years old and 60% male.
+ Presenting clinical and biochemical features were consistent with those reported elsewhere.
+ The ethnic breakdown of patients admitted was similar to that of our underlying local population.
+ Inpatient mortality was high at 38%.
+Conclusions
+id="Par5"&gt;Inpatient mortality was high, especially among the over-80s, who are more likely to present atypically.
+ The ethnic composition of our caseload was similar to the underlying population.
+ While a significant number of patients acquired COVID-19 while already in hospital, their outcomes were no worse.
+</t>
+  </si>
+  <si>
+    <t>[Simon E.%Brill%simon.brill@nhs.net%0,   Hannah C.%Jarvis%NULL%0,   Hannah C.%Jarvis%NULL%0,   Ezgi%Ozcan%NULL%0,   Thomas L. P.%Burns%NULL%0,   Rabia A.%Warraich%NULL%0,   Lisa J.%Amani%NULL%0,   Amina%Jaffer%NULL%0,   Stephanie%Paget%NULL%0,   Anand%Sivaramakrishnan%NULL%0,   Dean D.%Creer%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction
+In the current study, we evaluated factors that increase the coronavirus disease (COVID-19) patient death rate by analyzing the data from two cohort hospitals.
+ In addition, we studied whether underlying neurological diseases are risk factors for death.
+Methods
+id="Par2"&gt;In this retrospective cohort study, we included 103 adult inpatients (aged ≥ 18 years).
+ We evaluated differences in demographic data between surviving and non-surviving COVID-19 patients.
+Results
+id="Par3"&gt;In a multivariate logistic analysis, age and the presence of chronic lung disease and Alzheimer’s dementia (AD) were the only significant parameters for predicting COVID-19 non-survival (p &amp;lt; 0.05).
+ However, hypertension, coronary vascular disease, dyslipidemia, chronic kidney disease, diabetes, and history of taking angiotensin II receptor blockers (ARBs) or angiotensin-converting enzyme (ACE) inhibitors, as well as nonsteroidal anti-inflammatory drugs (NSAIDs), were not significantly associated with the death of COVID-19 patients.
+ The optimal cutoff value obtained from the maximum Youden index was 70 (sensitivity, 80.77%; specificity, 61.04%), and the odds ratio of non-survival increased 1.055 fold for every year of age.
+Conclusions
+id="Par4"&gt;Clinicians should closely monitor and manage the symptoms of COVID-19 patients who are over the age of 70 years or have chronic lung disease or AD.
+</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%0,   Ju-Hyun%Kim%NULL%0,   Jin-Sung%Park%NULL%0,   Min Cheol%Chang%wheel633@ynu.ac.kr%0,   Donghwi%Park%bdome@hanmail.net%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+There are currently rare satisfactory markers for predicting the death of patients with coronavirus disease 2019 (COVID-19).
+ The aim of this study is to establish a model based on the combination of serum cytokines and lymphocyte subsets for predicting the prognosis of the disease.
+Methods
+id="Par2"&gt;A total of 739 participants with COVID-19 were enrolled at Tongji Hospital from February to April 2020 and classified into fatal (n = 51) and survived (n = 688) groups according to the patient’s outcome.
+ Cytokine profile and lymphocyte subset analysis was performed simultaneously.
+Results
+id="Par3"&gt;The fatal patients exhibited a significant lower number of lymphocytes including B cells, CD4+ T cells, CD8+ T cells, and NK cells and remarkably higher concentrations of cytokines including interleukin-2 receptor, interleukin-6, interleukin-8, and tumor necrosis factor-α on admission compared with the survived subjects.
+ A model based on the combination of interleukin-8 and the numbers of CD4+ T cells and NK cells showed a good performance in predicting the death of patients with COVID-19. When the threshold of 0.075 was used, the sensitivity and specificity of the prediction model were 90.20% and 90.26%, respectively.
+ Meanwhile, interleukin-8 was found to have a potential value in predicting the length of hospital stay until death.
+Conclusions
+id="Par4"&gt;Significant increase of cytokines and decrease of lymphocyte subsets are found positively correlated with in-hospital death.
+ A model based on the combination of three markers provides an attractive approach to predict the prognosis of COVID-19.
+Electronic supplementary material
+The online version of this article (10.1007/s10875-020-00821-7) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Ying%Luo%NULL%0,   Liyan%Mao%NULL%0,   Xu%Yuan%NULL%0,   Ying%Xue%NULL%0,   Qun%Lin%NULL%0,   Guoxing%Tang%NULL%0,   Huijuan%Song%NULL%0,   Feng%Wang%fengwang@tjh.tjmu.edu.cn%0,   Ziyong%Sun%zysun@tjh.tjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+New York City emerged as an epicenter of the coronavirus disease 2019 (COVID-19) pandemic.
+Objective
+id="Par2"&gt;To describe the clinical characteristics and risk factors associated with mortality in a large patient population in the USA.
+Design
+id="Par3"&gt;Retrospective cohort study.
+Participants
+id="Par4"&gt;6493 patients who had laboratory-confirmed COVID-19 with clinical outcomes between March 13 and April 17, 2020, who were seen in one of the 8 hospitals and/or over 400 ambulatory practices in the New York City metropolitan area
+Main Measures
+id="Par5"&gt;Clinical characteristics and risk factors associated with in-hospital mortality.
+Key Results
+id="Par6"&gt;A total of 858 of 6493 (13.2%) patients in our total cohort died: 52/2785 (1.9%) ambulatory patients and 806/3708 (21.7%) hospitalized patients.
+ Cox proportional hazard regression modeling showed an increased risk of in-hospital mortality associated with age older than 50 years (hazard ratio [HR] 2.34, CI 1.47–3.71), systolic blood pressure less than 90 mmHg (HR 1.38, CI 1.06–1.80), a respiratory rate greater than 24 per min (HR 1.43, CI 1.13–1.83), peripheral oxygen saturation less than 92% (HR 2.12, CI 1.56–2.88), estimated glomerular filtration rate less than 60 mL/min/1.73m2 (HR 1.80, CI 1.60–2.02), IL-6 greater than 100 pg/mL (HR 1.50, CI 1.12–2.03), D-dimer greater than 2 mcg/mL (HR 1.19, CI 1.02–1.39), and troponin greater than 0.03 ng/mL (HR 1.40, CI 1.23–1.62).
+ Decreased risk of in-hospital mortality was associated with female sex (HR 0.84, CI 0.77–0.90), African American race (HR 0.78 CI 0.65–0.95), and hydroxychloroquine use (HR 0.53, CI 0.41–0.67).
+Conclusions
+id="Par7"&gt;Among patients with COVID-19, older age, male sex, hypotension, tachypnea, hypoxia, impaired renal function, elevated D-dimer, and elevated troponin were associated with increased in-hospital mortality and hydroxychloroquine use was associated with decreased in-hospital mortality.
+Electronic supplementary material
+The online version of this article (10.1007/s11606-020-05983-z) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Takahisa%Mikami%NULL%0,   Hirotaka%Miyashita%NULL%0,   Takayuki%Yamada%NULL%0,   Matthew%Harrington%NULL%0,   Daniel%Steinberg%NULL%0,   Andrew%Dunn%NULL%0,   Evan%Siau%Evan.Siau@mountsinai.org%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+The purpose of this study is to report the clinical features and outcomes of Black/African American (AA) and Latino Hispanic patients with Coronavirus disease 2019 (COVID-19) hospitalized in an inter-city hospital in the state of New Jersey.
+Methods
+id="Par2"&gt;This is a retrospective cohort study of AA and Latino Hispanic patients with COVID-19 admitted to a 665-bed quaternary care, teaching hospital located in Newark, New Jersey.
+ The study included patients who had completed hospitalization between March 10, 2020, and April 10, 2020. We reviewed demographics, socioeconomic variables and incidence of in-hospital mortality and morbidity.
+ Logistic regression was used to identify predictor of in-hospital death.
+Results
+id="Par3"&gt;Out of 416 patients, 251 (60%) had completed hospitalization as of April 10, 2020. The incidence of In-hospital mortality was 38.6% (n = 97).
+ Most common symptoms at initial presentation were dyspnea 39% (n = 162) followed by cough 38%(n = 156) and fever 34% (n = 143).
+ Patients were in the highest quartile for population’s density, number of housing units and disproportionately fell into the lowest median income quartile for the state of New Jersey.
+ The incidence of septic shock, acute kidney injury (AKI) requiring hemodialysis and admission to an intensive care unit (ICU) was 24% (n = 59), 21% (n = 52), 33% (n = 82) respectively.
+ Independent predictors of in-hospital mortality were older age, lower serum Hemoglobin &amp;lt; 10 mg/dl, elevated serum Ferritin and Creatinine phosphokinase levels &amp;gt; 1200 U/L and &amp;gt; 1000 U/L.
+Conclusions
+id="Par4"&gt;Findings from an inter-city hospital’s experience with COVID-19 among underserved minority populations showed that, more than one of every three patients were at risk for in-hospital death or morbidity.
+ Older age and elevated inflammatory markers at presentation were associated with in-hospital death.
+</t>
+  </si>
+  <si>
+    <t>[Alexis K.%Okoh%alexis.okoh@rwjbh.org%0,   Christoph%Sossou%NULL%0,   Christoph%Sossou%NULL%0,   Neha S.%Dangayach%NULL%0,   Sherin%Meledathu%NULL%0,   Oluwakemi%Phillips%NULL%0,   Corinne%Raczek%NULL%0,   Michael%Patti%NULL%0,   Nathan%Kang%NULL%0,   Sameer A.%Hirji%NULL%0,   Charles%Cathcart%NULL%0,   Christian%Engell%NULL%0,   Marc%Cohen%NULL%0,   Sandhya%Nagarakanti%NULL%0,   Eliahu%Bishburg%NULL%0,   Harpreet S.%Grewal%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Previous studies have shown that Coronavirus Disease 2019 (COVID-19) patients with underlying comorbidities can have worse outcomes.
+ However, the effect of hypertension on outcomes of COVID-19 patients remains unclear.
+Research question
+The aim of this study was to explore the effect of hypertension on the outcomes of patients with COVID-19 by using propensity score–matching (PSM) analysis.
+Study design and methods
+id="Par3"&gt;Participants enrolled in this study were patients with COVID-19 who had been hospitalized at the Central Hospital of Wuhan, China.
+ Chronic comorbidities and laboratory and radiological data were reviewed; patient outcomes and lengths of stay were obtained from discharge records.
+ We used the Cox proportional-hazard model (CPHM) to analyze the effect of hypertension on these patients’ outcomes and PSM analysis to further validate the abovementioned effect.
+Results
+id="Par4"&gt;A total of 226 patients with COVID-19 were enrolled in this study, of whom 176 survived and 50 died.
+ The proportion of patients with hypertension among non-survivors was higher than that among survivors (26.70% vs.
+ 74.00%; P &amp;lt; 0.001).
+ Results obtained via CPHM showed that hypertension could increase risk of mortality in COVID-19 patients (hazard ratio 3.317; 95% CI [1.709–6.440]; P &amp;lt; 0.001).
+ Increased D-dimer levels and higher ratio of neutrophils to lymphocytes (N/L) were also found to increase these patients’ mortality risk.
+ After matching on propensity score, we still came to similar conclusions.
+ After we applied the same method in critically ill patients, we found that hypertension also increased risk of death in patients with severe COVID-19.
+Conclusion
+id="Par5"&gt;Hypertension, increased D-dimer and the ratio of neutrophil to lymphocyte increased mortality in patients with COVID-19, with hypertension in particular.
+</t>
+  </si>
+  <si>
+    <t>[Qing%Yang%NULL%0,    Ying%Zhou%NULL%0,    Xinrong%Wang%NULL%0,    Shan%Gao%NULL%0,    Yang%Xiao%NULL%0,    Weiming%Zhang%NULL%0,    Yi%Hu%huyizxyy@163.com%0,    Yafei%Wang%wyf_527@163.com%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Since December 2019, the outbreak of COVID-19 caused a large number of hospital admissions in China.
+ Many patients with COVID-19 have symptoms of acute respiratory distress syndrome, even are in danger of death.
+ This is the first study to evaluate dynamic changes of D-Dimer and Neutrophil-Lymphocyte Count Ratio (NLR) as a prognostic utility in patients with COVID-19 for clinical use.
+Methods
+In a retrospective study, we collected data from 349 hospitalized patients who diagnosed as the infection of the COVID-19 in Wuhan Pulmonary Hospital.
+ We used ROC curves and Cox regression analysis to explore critical value (optimal cut-off point associated with Youden index) and prognostic role of dynamic changes of D-Dimer and NLR.
+Results
+id="Par3"&gt;Three hundred forty-nine participants were enrolled in this study and the mortality rate of the patients with laboratory diagnosed COVID-19 was 14.9%.
+ The initial and peak value of D-Dimer and NLR in deceased patients were higher statistically compared with survivors (P &amp;lt; 0.001).
+ There was a more significant upward trend of D-Dimer and NLR during hospitalization in the deceased patients, initial D-Dimer and NLR were lower than the peak tests (MD) -25.23, 95% CI: − 31.81- -18.64, P &amp;lt; 0.001; (MD) -43.73, 95% CI:-59.28- -31.17, P &amp;lt; 0.001. The test showed a stronger correlation between hospitalization days, PCT and peak D-Dimer than initial D-Dimer.
+ The areas under the ROC curves of peak D-Dimer and peak NLR tests were higher than the initial tests (0.94(95%CI: 0.90–0.98) vs.
+ 0.80 (95% CI: 0.73–0.87); 0.93 (95%CI:0.90–0.96) vs.
+ 0.86 (95%CI:0.82–0.91).
+ The critical value of initial D-Dimer, peak D-Dimer, initial NLR and peak NLR was 0.73 mg/L, 3.78 mg/L,7.13 and 14.31 respectively.
+ 35 (10.03%) patients were intubated.
+ In the intubated patients, initial and peak D-Dimer and NLR were much higher than non-intubated patients (P &amp;lt; 0.001).
+ The critical value of initial D-Dimer, peak D-Dimer, initial NLR and peak NLR in prognosticate of intubation was 0.73 mg/L, 12.75 mg/L,7.28 and 27.55. The multivariable Cox regression analysis showed that age (HR 1.04, 95% CI 1.00–1.07, P = 0.01), the peak D-Dimer (HR 1.03, 95% CI 1.01–1.04, P &amp;lt; 0.001) were prognostic factors for COVID-19 patients’ death.
+Conclusions
+id="Par4"&gt;To dynamically observe the ratio of D-Dimer and NLR was more valuable during the prognosis of COVID-19. The rising trend in D-Dimer and NLR, or the test results higher than the critical values may indicate a risk of death for participants with COVID-19.
+</t>
+  </si>
+  <si>
+    <t>[Wenjing%Ye%yewenjing@xinhuamed.com.cn%0,    Guoxi%Chen%4799082@qq.com%0,    Xiaopan%Li%xiaopanli0224@126.com%0,    Xing%Lan%474137452@qq.com%0,    Chen%Ji%c.ji.3@warwick.ac.uk%0,    Min%Hou%min-hou710@hotmail.com%0,    Di%Zhang%zhangdizhangdi1234@163.com%0,    Guangwang%Zeng%785663609@qq.com%0,    Yaling%Wang%953822402@qq.com%0,    Cheng%Xu%xucheng112358@126.com%0,    Weiwei%Lu%luweiwei100@126.com%0,    Ruolin%Cui%crlqwerty@163.com%0,    Yuyang%Cai%caiyuyang@sjtu.edu.cn%0,    Hai%Huang%1220775601@qq.com%0,    Ling%Yang%yangling01@xinhuamed.com.cn%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Data from the UK COVID-19 outbreak are emerging, and there are ongoing concerns about a disproportionate effect on ethnic minorities.
+ There is very limited information on COVID-19 in the over-80s, and the rates of hospital-onset infections are unknown.
+Methods
+This was a retrospective cohort study from electronic case records of the first 450 patients admitted to our hospital with PCR-confirmed COVID-19, 77% of the total inpatient caseload to date.
+ Demographic, clinical and biochemical data were extracted.
+ The primary endpoint was death during the index hospital admission.
+ The characteristics of all patients, those over 80 years of age and those with hospital-onset COVID-19 were examined.
+Results
+id="Par3"&gt;The median (IQR) age was 72 (56, 83), with 150 (33%) over 80 years old and 60% male.
+ Presenting clinical and biochemical features were consistent with those reported elsewhere.
+ The ethnic breakdown of patients admitted was similar to that of our underlying local population.
+ Inpatient mortality was high at 38%.
+Conclusions
+id="Par5"&gt;Inpatient mortality was high, especially among the over-80s, who are more likely to present atypically.
+ The ethnic composition of our caseload was similar to the underlying population.
+ While a significant number of patients acquired COVID-19 while already in hospital, their outcomes were no worse.
+</t>
+  </si>
+  <si>
+    <t>[Simon E.%Brill%simon.brill@nhs.net%0,    Hannah C.%Jarvis%NULL%0,    Hannah C.%Jarvis%NULL%0,    Ezgi%Ozcan%NULL%0,    Thomas L. P.%Burns%NULL%0,    Rabia A.%Warraich%NULL%0,    Lisa J.%Amani%NULL%0,    Amina%Jaffer%NULL%0,    Stephanie%Paget%NULL%0,    Anand%Sivaramakrishnan%NULL%0,    Dean D.%Creer%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction
+In the current study, we evaluated factors that increase the coronavirus disease (COVID-19) patient death rate by analyzing the data from two cohort hospitals.
+ In addition, we studied whether underlying neurological diseases are risk factors for death.
+Methods
+In this retrospective cohort study, we included 103 adult inpatients (aged ≥ 18 years).
+ We evaluated differences in demographic data between surviving and non-surviving COVID-19 patients.
+Results
+id="Par3"&gt;In a multivariate logistic analysis, age and the presence of chronic lung disease and Alzheimer’s dementia (AD) were the only significant parameters for predicting COVID-19 non-survival (p &amp;lt; 0.05).
+ However, hypertension, coronary vascular disease, dyslipidemia, chronic kidney disease, diabetes, and history of taking angiotensin II receptor blockers (ARBs) or angiotensin-converting enzyme (ACE) inhibitors, as well as nonsteroidal anti-inflammatory drugs (NSAIDs), were not significantly associated with the death of COVID-19 patients.
+ The optimal cutoff value obtained from the maximum Youden index was 70 (sensitivity, 80.77%; specificity, 61.04%), and the odds ratio of non-survival increased 1.055 fold for every year of age.
+Conclusions
+id="Par4"&gt;Clinicians should closely monitor and manage the symptoms of COVID-19 patients who are over the age of 70 years or have chronic lung disease or AD.
+</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%0,    Ju-Hyun%Kim%NULL%0,    Jin-Sung%Park%NULL%0,    Min Cheol%Chang%wheel633@ynu.ac.kr%0,    Donghwi%Park%bdome@hanmail.net%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+There are currently rare satisfactory markers for predicting the death of patients with coronavirus disease 2019 (COVID-19).
+ The aim of this study is to establish a model based on the combination of serum cytokines and lymphocyte subsets for predicting the prognosis of the disease.
+Methods
+A total of 739 participants with COVID-19 were enrolled at Tongji Hospital from February to April 2020 and classified into fatal (n = 51) and survived (n = 688) groups according to the patient’s outcome.
+ Cytokine profile and lymphocyte subset analysis was performed simultaneously.
+Results
+id="Par3"&gt;The fatal patients exhibited a significant lower number of lymphocytes including B cells, CD4+ T cells, CD8+ T cells, and NK cells and remarkably higher concentrations of cytokines including interleukin-2 receptor, interleukin-6, interleukin-8, and tumor necrosis factor-α on admission compared with the survived subjects.
+ A model based on the combination of interleukin-8 and the numbers of CD4+ T cells and NK cells showed a good performance in predicting the death of patients with COVID-19. When the threshold of 0.075 was used, the sensitivity and specificity of the prediction model were 90.20% and 90.26%, respectively.
+ Meanwhile, interleukin-8 was found to have a potential value in predicting the length of hospital stay until death.
+Conclusions
+id="Par4"&gt;Significant increase of cytokines and decrease of lymphocyte subsets are found positively correlated with in-hospital death.
+ A model based on the combination of three markers provides an attractive approach to predict the prognosis of COVID-19.
+Electronic supplementary material
+The online version of this article (10.1007/s10875-020-00821-7) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Ying%Luo%NULL%0,    Liyan%Mao%NULL%0,    Xu%Yuan%NULL%0,    Ying%Xue%NULL%0,    Qun%Lin%NULL%0,    Guoxing%Tang%NULL%0,    Huijuan%Song%NULL%0,    Feng%Wang%fengwang@tjh.tjmu.edu.cn%0,    Ziyong%Sun%zysun@tjh.tjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+New York City emerged as an epicenter of the coronavirus disease 2019 (COVID-19) pandemic.
+Objective
+To describe the clinical characteristics and risk factors associated with mortality in a large patient population in the USA.
+Design
+id="Par3"&gt;Retrospective cohort study.
+Participants
+id="Par4"&gt;6493 patients who had laboratory-confirmed COVID-19 with clinical outcomes between March 13 and April 17, 2020, who were seen in one of the 8 hospitals and/or over 400 ambulatory practices in the New York City metropolitan area
+Main Measures
+id="Par5"&gt;Clinical characteristics and risk factors associated with in-hospital mortality.
+Key Results
+id="Par6"&gt;A total of 858 of 6493 (13.2%) patients in our total cohort died: 52/2785 (1.9%) ambulatory patients and 806/3708 (21.7%) hospitalized patients.
+ Cox proportional hazard regression modeling showed an increased risk of in-hospital mortality associated with age older than 50 years (hazard ratio [HR] 2.34, CI 1.47–3.71), systolic blood pressure less than 90 mmHg (HR 1.38, CI 1.06–1.80), a respiratory rate greater than 24 per min (HR 1.43, CI 1.13–1.83), peripheral oxygen saturation less than 92% (HR 2.12, CI 1.56–2.88), estimated glomerular filtration rate less than 60 mL/min/1.73m2 (HR 1.80, CI 1.60–2.02), IL-6 greater than 100 pg/mL (HR 1.50, CI 1.12–2.03), D-dimer greater than 2 mcg/mL (HR 1.19, CI 1.02–1.39), and troponin greater than 0.03 ng/mL (HR 1.40, CI 1.23–1.62).
+ Decreased risk of in-hospital mortality was associated with female sex (HR 0.84, CI 0.77–0.90), African American race (HR 0.78 CI 0.65–0.95), and hydroxychloroquine use (HR 0.53, CI 0.41–0.67).
+Conclusions
+id="Par7"&gt;Among patients with COVID-19, older age, male sex, hypotension, tachypnea, hypoxia, impaired renal function, elevated D-dimer, and elevated troponin were associated with increased in-hospital mortality and hydroxychloroquine use was associated with decreased in-hospital mortality.
+Electronic supplementary material
+The online version of this article (10.1007/s11606-020-05983-z) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Takahisa%Mikami%NULL%0,    Hirotaka%Miyashita%NULL%0,    Takayuki%Yamada%NULL%0,    Matthew%Harrington%NULL%0,    Daniel%Steinberg%NULL%0,    Andrew%Dunn%NULL%0,    Evan%Siau%Evan.Siau@mountsinai.org%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+The purpose of this study is to report the clinical features and outcomes of Black/African American (AA) and Latino Hispanic patients with Coronavirus disease 2019 (COVID-19) hospitalized in an inter-city hospital in the state of New Jersey.
+Methods
+This is a retrospective cohort study of AA and Latino Hispanic patients with COVID-19 admitted to a 665-bed quaternary care, teaching hospital located in Newark, New Jersey.
+ The study included patients who had completed hospitalization between March 10, 2020, and April 10, 2020. We reviewed demographics, socioeconomic variables and incidence of in-hospital mortality and morbidity.
+ Logistic regression was used to identify predictor of in-hospital death.
+Results
+id="Par3"&gt;Out of 416 patients, 251 (60%) had completed hospitalization as of April 10, 2020. The incidence of In-hospital mortality was 38.6% (n = 97).
+ Most common symptoms at initial presentation were dyspnea 39% (n = 162) followed by cough 38%(n = 156) and fever 34% (n = 143).
+ Patients were in the highest quartile for population’s density, number of housing units and disproportionately fell into the lowest median income quartile for the state of New Jersey.
+ The incidence of septic shock, acute kidney injury (AKI) requiring hemodialysis and admission to an intensive care unit (ICU) was 24% (n = 59), 21% (n = 52), 33% (n = 82) respectively.
+ Independent predictors of in-hospital mortality were older age, lower serum Hemoglobin &amp;lt; 10 mg/dl, elevated serum Ferritin and Creatinine phosphokinase levels &amp;gt; 1200 U/L and &amp;gt; 1000 U/L.
+Conclusions
+id="Par4"&gt;Findings from an inter-city hospital’s experience with COVID-19 among underserved minority populations showed that, more than one of every three patients were at risk for in-hospital death or morbidity.
+ Older age and elevated inflammatory markers at presentation were associated with in-hospital death.
+</t>
+  </si>
+  <si>
+    <t>[Alexis K.%Okoh%alexis.okoh@rwjbh.org%0,    Christoph%Sossou%NULL%0,    Christoph%Sossou%NULL%0,    Neha S.%Dangayach%NULL%0,    Sherin%Meledathu%NULL%0,    Oluwakemi%Phillips%NULL%0,    Corinne%Raczek%NULL%0,    Michael%Patti%NULL%0,    Nathan%Kang%NULL%0,    Sameer A.%Hirji%NULL%0,    Charles%Cathcart%NULL%0,    Christian%Engell%NULL%0,    Marc%Cohen%NULL%0,    Sandhya%Nagarakanti%NULL%0,    Eliahu%Bishburg%NULL%0,    Harpreet S.%Grewal%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Previous studies have shown that Coronavirus Disease 2019 (COVID-19) patients with underlying comorbidities can have worse outcomes.
+ However, the effect of hypertension on outcomes of COVID-19 patients remains unclear.
+Research question
+The aim of this study was to explore the effect of hypertension on the outcomes of patients with COVID-19 by using propensity score–matching (PSM) analysis.
+Study design and methods
+Participants enrolled in this study were patients with COVID-19 who had been hospitalized at the Central Hospital of Wuhan, China.
+ Chronic comorbidities and laboratory and radiological data were reviewed; patient outcomes and lengths of stay were obtained from discharge records.
+ We used the Cox proportional-hazard model (CPHM) to analyze the effect of hypertension on these patients’ outcomes and PSM analysis to further validate the abovementioned effect.
+Results
+id="Par4"&gt;A total of 226 patients with COVID-19 were enrolled in this study, of whom 176 survived and 50 died.
+ The proportion of patients with hypertension among non-survivors was higher than that among survivors (26.70% vs.
+ 74.00%; P &amp;lt; 0.001).
+ Results obtained via CPHM showed that hypertension could increase risk of mortality in COVID-19 patients (hazard ratio 3.317; 95% CI [1.709–6.440]; P &amp;lt; 0.001).
+ Increased D-dimer levels and higher ratio of neutrophils to lymphocytes (N/L) were also found to increase these patients’ mortality risk.
+ After matching on propensity score, we still came to similar conclusions.
+ After we applied the same method in critically ill patients, we found that hypertension also increased risk of death in patients with severe COVID-19.
+Conclusion
+id="Par5"&gt;Hypertension, increased D-dimer and the ratio of neutrophil to lymphocyte increased mortality in patients with COVID-19, with hypertension in particular.
+</t>
+  </si>
+  <si>
+    <t>[Qing%Yang%NULL%0,     Ying%Zhou%NULL%0,     Xinrong%Wang%NULL%0,     Shan%Gao%NULL%0,     Yang%Xiao%NULL%0,     Weiming%Zhang%NULL%0,     Yi%Hu%huyizxyy@163.com%0,     Yafei%Wang%wyf_527@163.com%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Since December 2019, the outbreak of COVID-19 caused a large number of hospital admissions in China.
+ Many patients with COVID-19 have symptoms of acute respiratory distress syndrome, even are in danger of death.
+ This is the first study to evaluate dynamic changes of D-Dimer and Neutrophil-Lymphocyte Count Ratio (NLR) as a prognostic utility in patients with COVID-19 for clinical use.
+Methods
+In a retrospective study, we collected data from 349 hospitalized patients who diagnosed as the infection of the COVID-19 in Wuhan Pulmonary Hospital.
+ We used ROC curves and Cox regression analysis to explore critical value (optimal cut-off point associated with Youden index) and prognostic role of dynamic changes of D-Dimer and NLR.
+Results
+Three hundred forty-nine participants were enrolled in this study and the mortality rate of the patients with laboratory diagnosed COVID-19 was 14.9%.
+ The initial and peak value of D-Dimer and NLR in deceased patients were higher statistically compared with survivors (P &amp;lt; 0.001).
+ There was a more significant upward trend of D-Dimer and NLR during hospitalization in the deceased patients, initial D-Dimer and NLR were lower than the peak tests (MD) -25.23, 95% CI: − 31.81- -18.64, P &amp;lt; 0.001; (MD) -43.73, 95% CI:-59.28- -31.17, P &amp;lt; 0.001. The test showed a stronger correlation between hospitalization days, PCT and peak D-Dimer than initial D-Dimer.
+ The areas under the ROC curves of peak D-Dimer and peak NLR tests were higher than the initial tests (0.94(95%CI: 0.90–0.98) vs.
+ 0.80 (95% CI: 0.73–0.87); 0.93 (95%CI:0.90–0.96) vs.
+ 0.86 (95%CI:0.82–0.91).
+ The critical value of initial D-Dimer, peak D-Dimer, initial NLR and peak NLR was 0.73 mg/L, 3.78 mg/L,7.13 and 14.31 respectively.
+ 35 (10.03%) patients were intubated.
+ In the intubated patients, initial and peak D-Dimer and NLR were much higher than non-intubated patients (P &amp;lt; 0.001).
+ The critical value of initial D-Dimer, peak D-Dimer, initial NLR and peak NLR in prognosticate of intubation was 0.73 mg/L, 12.75 mg/L,7.28 and 27.55. The multivariable Cox regression analysis showed that age (HR 1.04, 95% CI 1.00–1.07, P = 0.01), the peak D-Dimer (HR 1.03, 95% CI 1.01–1.04, P &amp;lt; 0.001) were prognostic factors for COVID-19 patients’ death.
+Conclusions
+id="Par4"&gt;To dynamically observe the ratio of D-Dimer and NLR was more valuable during the prognosis of COVID-19. The rising trend in D-Dimer and NLR, or the test results higher than the critical values may indicate a risk of death for participants with COVID-19.
+</t>
+  </si>
+  <si>
+    <t>[Wenjing%Ye%yewenjing@xinhuamed.com.cn%0,     Guoxi%Chen%4799082@qq.com%0,     Xiaopan%Li%xiaopanli0224@126.com%0,     Xing%Lan%474137452@qq.com%0,     Chen%Ji%c.ji.3@warwick.ac.uk%0,     Min%Hou%min-hou710@hotmail.com%0,     Di%Zhang%zhangdizhangdi1234@163.com%0,     Guangwang%Zeng%785663609@qq.com%0,     Yaling%Wang%953822402@qq.com%0,     Cheng%Xu%xucheng112358@126.com%0,     Weiwei%Lu%luweiwei100@126.com%0,     Ruolin%Cui%crlqwerty@163.com%0,     Yuyang%Cai%caiyuyang@sjtu.edu.cn%0,     Hai%Huang%1220775601@qq.com%0,     Ling%Yang%yangling01@xinhuamed.com.cn%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Data from the UK COVID-19 outbreak are emerging, and there are ongoing concerns about a disproportionate effect on ethnic minorities.
+ There is very limited information on COVID-19 in the over-80s, and the rates of hospital-onset infections are unknown.
+Methods
+This was a retrospective cohort study from electronic case records of the first 450 patients admitted to our hospital with PCR-confirmed COVID-19, 77% of the total inpatient caseload to date.
+ Demographic, clinical and biochemical data were extracted.
+ The primary endpoint was death during the index hospital admission.
+ The characteristics of all patients, those over 80 years of age and those with hospital-onset COVID-19 were examined.
+Results
+The median (IQR) age was 72 (56, 83), with 150 (33%) over 80 years old and 60% male.
+ Presenting clinical and biochemical features were consistent with those reported elsewhere.
+ The ethnic breakdown of patients admitted was similar to that of our underlying local population.
+ Inpatient mortality was high at 38%.
+Conclusions
+id="Par5"&gt;Inpatient mortality was high, especially among the over-80s, who are more likely to present atypically.
+ The ethnic composition of our caseload was similar to the underlying population.
+ While a significant number of patients acquired COVID-19 while already in hospital, their outcomes were no worse.
+</t>
+  </si>
+  <si>
+    <t>[Simon E.%Brill%simon.brill@nhs.net%0,     Hannah C.%Jarvis%NULL%0,     Hannah C.%Jarvis%NULL%0,     Ezgi%Ozcan%NULL%0,     Thomas L. P.%Burns%NULL%0,     Rabia A.%Warraich%NULL%0,     Lisa J.%Amani%NULL%0,     Amina%Jaffer%NULL%0,     Stephanie%Paget%NULL%0,     Anand%Sivaramakrishnan%NULL%0,     Dean D.%Creer%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction
+In the current study, we evaluated factors that increase the coronavirus disease (COVID-19) patient death rate by analyzing the data from two cohort hospitals.
+ In addition, we studied whether underlying neurological diseases are risk factors for death.
+Methods
+In this retrospective cohort study, we included 103 adult inpatients (aged ≥ 18 years).
+ We evaluated differences in demographic data between surviving and non-surviving COVID-19 patients.
+Results
+In a multivariate logistic analysis, age and the presence of chronic lung disease and Alzheimer’s dementia (AD) were the only significant parameters for predicting COVID-19 non-survival (p &amp;lt; 0.05).
+ However, hypertension, coronary vascular disease, dyslipidemia, chronic kidney disease, diabetes, and history of taking angiotensin II receptor blockers (ARBs) or angiotensin-converting enzyme (ACE) inhibitors, as well as nonsteroidal anti-inflammatory drugs (NSAIDs), were not significantly associated with the death of COVID-19 patients.
+ The optimal cutoff value obtained from the maximum Youden index was 70 (sensitivity, 80.77%; specificity, 61.04%), and the odds ratio of non-survival increased 1.055 fold for every year of age.
+Conclusions
+id="Par4"&gt;Clinicians should closely monitor and manage the symptoms of COVID-19 patients who are over the age of 70 years or have chronic lung disease or AD.
+</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%0,     Ju-Hyun%Kim%NULL%0,     Jin-Sung%Park%NULL%0,     Min Cheol%Chang%wheel633@ynu.ac.kr%0,     Donghwi%Park%bdome@hanmail.net%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+There are currently rare satisfactory markers for predicting the death of patients with coronavirus disease 2019 (COVID-19).
+ The aim of this study is to establish a model based on the combination of serum cytokines and lymphocyte subsets for predicting the prognosis of the disease.
+Methods
+A total of 739 participants with COVID-19 were enrolled at Tongji Hospital from February to April 2020 and classified into fatal (n = 51) and survived (n = 688) groups according to the patient’s outcome.
+ Cytokine profile and lymphocyte subset analysis was performed simultaneously.
+Results
+The fatal patients exhibited a significant lower number of lymphocytes including B cells, CD4+ T cells, CD8+ T cells, and NK cells and remarkably higher concentrations of cytokines including interleukin-2 receptor, interleukin-6, interleukin-8, and tumor necrosis factor-α on admission compared with the survived subjects.
+ A model based on the combination of interleukin-8 and the numbers of CD4+ T cells and NK cells showed a good performance in predicting the death of patients with COVID-19. When the threshold of 0.075 was used, the sensitivity and specificity of the prediction model were 90.20% and 90.26%, respectively.
+ Meanwhile, interleukin-8 was found to have a potential value in predicting the length of hospital stay until death.
+Conclusions
+id="Par4"&gt;Significant increase of cytokines and decrease of lymphocyte subsets are found positively correlated with in-hospital death.
+ A model based on the combination of three markers provides an attractive approach to predict the prognosis of COVID-19.
+Electronic supplementary material
+The online version of this article (10.1007/s10875-020-00821-7) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Ying%Luo%NULL%0,     Liyan%Mao%NULL%0,     Xu%Yuan%NULL%0,     Ying%Xue%NULL%0,     Qun%Lin%NULL%0,     Guoxing%Tang%NULL%0,     Huijuan%Song%NULL%0,     Feng%Wang%fengwang@tjh.tjmu.edu.cn%0,     Ziyong%Sun%zysun@tjh.tjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+New York City emerged as an epicenter of the coronavirus disease 2019 (COVID-19) pandemic.
+Objective
+To describe the clinical characteristics and risk factors associated with mortality in a large patient population in the USA.
+Design
+Retrospective cohort study.
+Participants
+id="Par4"&gt;6493 patients who had laboratory-confirmed COVID-19 with clinical outcomes between March 13 and April 17, 2020, who were seen in one of the 8 hospitals and/or over 400 ambulatory practices in the New York City metropolitan area
+Main Measures
+id="Par5"&gt;Clinical characteristics and risk factors associated with in-hospital mortality.
+Key Results
+id="Par6"&gt;A total of 858 of 6493 (13.2%) patients in our total cohort died: 52/2785 (1.9%) ambulatory patients and 806/3708 (21.7%) hospitalized patients.
+ Cox proportional hazard regression modeling showed an increased risk of in-hospital mortality associated with age older than 50 years (hazard ratio [HR] 2.34, CI 1.47–3.71), systolic blood pressure less than 90 mmHg (HR 1.38, CI 1.06–1.80), a respiratory rate greater than 24 per min (HR 1.43, CI 1.13–1.83), peripheral oxygen saturation less than 92% (HR 2.12, CI 1.56–2.88), estimated glomerular filtration rate less than 60 mL/min/1.73m2 (HR 1.80, CI 1.60–2.02), IL-6 greater than 100 pg/mL (HR 1.50, CI 1.12–2.03), D-dimer greater than 2 mcg/mL (HR 1.19, CI 1.02–1.39), and troponin greater than 0.03 ng/mL (HR 1.40, CI 1.23–1.62).
+ Decreased risk of in-hospital mortality was associated with female sex (HR 0.84, CI 0.77–0.90), African American race (HR 0.78 CI 0.65–0.95), and hydroxychloroquine use (HR 0.53, CI 0.41–0.67).
+Conclusions
+id="Par7"&gt;Among patients with COVID-19, older age, male sex, hypotension, tachypnea, hypoxia, impaired renal function, elevated D-dimer, and elevated troponin were associated with increased in-hospital mortality and hydroxychloroquine use was associated with decreased in-hospital mortality.
+Electronic supplementary material
+The online version of this article (10.1007/s11606-020-05983-z) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Takahisa%Mikami%NULL%0,     Hirotaka%Miyashita%NULL%0,     Takayuki%Yamada%NULL%0,     Matthew%Harrington%NULL%0,     Daniel%Steinberg%NULL%0,     Andrew%Dunn%NULL%0,     Evan%Siau%Evan.Siau@mountsinai.org%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+The purpose of this study is to report the clinical features and outcomes of Black/African American (AA) and Latino Hispanic patients with Coronavirus disease 2019 (COVID-19) hospitalized in an inter-city hospital in the state of New Jersey.
+Methods
+This is a retrospective cohort study of AA and Latino Hispanic patients with COVID-19 admitted to a 665-bed quaternary care, teaching hospital located in Newark, New Jersey.
+ The study included patients who had completed hospitalization between March 10, 2020, and April 10, 2020. We reviewed demographics, socioeconomic variables and incidence of in-hospital mortality and morbidity.
+ Logistic regression was used to identify predictor of in-hospital death.
+Results
+Out of 416 patients, 251 (60%) had completed hospitalization as of April 10, 2020. The incidence of In-hospital mortality was 38.6% (n = 97).
+ Most common symptoms at initial presentation were dyspnea 39% (n = 162) followed by cough 38%(n = 156) and fever 34% (n = 143).
+ Patients were in the highest quartile for population’s density, number of housing units and disproportionately fell into the lowest median income quartile for the state of New Jersey.
+ The incidence of septic shock, acute kidney injury (AKI) requiring hemodialysis and admission to an intensive care unit (ICU) was 24% (n = 59), 21% (n = 52), 33% (n = 82) respectively.
+ Independent predictors of in-hospital mortality were older age, lower serum Hemoglobin &amp;lt; 10 mg/dl, elevated serum Ferritin and Creatinine phosphokinase levels &amp;gt; 1200 U/L and &amp;gt; 1000 U/L.
+Conclusions
+id="Par4"&gt;Findings from an inter-city hospital’s experience with COVID-19 among underserved minority populations showed that, more than one of every three patients were at risk for in-hospital death or morbidity.
+ Older age and elevated inflammatory markers at presentation were associated with in-hospital death.
+</t>
+  </si>
+  <si>
+    <t>[Alexis K.%Okoh%alexis.okoh@rwjbh.org%0,     Christoph%Sossou%NULL%0,     Christoph%Sossou%NULL%0,     Neha S.%Dangayach%NULL%0,     Sherin%Meledathu%NULL%0,     Oluwakemi%Phillips%NULL%0,     Corinne%Raczek%NULL%0,     Michael%Patti%NULL%0,     Nathan%Kang%NULL%0,     Sameer A.%Hirji%NULL%0,     Charles%Cathcart%NULL%0,     Christian%Engell%NULL%0,     Marc%Cohen%NULL%0,     Sandhya%Nagarakanti%NULL%0,     Eliahu%Bishburg%NULL%0,     Harpreet S.%Grewal%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Previous studies have shown that Coronavirus Disease 2019 (COVID-19) patients with underlying comorbidities can have worse outcomes.
+ However, the effect of hypertension on outcomes of COVID-19 patients remains unclear.
+Research question
+The aim of this study was to explore the effect of hypertension on the outcomes of patients with COVID-19 by using propensity score–matching (PSM) analysis.
+Study design and methods
+Participants enrolled in this study were patients with COVID-19 who had been hospitalized at the Central Hospital of Wuhan, China.
+ Chronic comorbidities and laboratory and radiological data were reviewed; patient outcomes and lengths of stay were obtained from discharge records.
+ We used the Cox proportional-hazard model (CPHM) to analyze the effect of hypertension on these patients’ outcomes and PSM analysis to further validate the abovementioned effect.
+Results
+A total of 226 patients with COVID-19 were enrolled in this study, of whom 176 survived and 50 died.
+ The proportion of patients with hypertension among non-survivors was higher than that among survivors (26.70% vs.
+ 74.00%; P &amp;lt; 0.001).
+ Results obtained via CPHM showed that hypertension could increase risk of mortality in COVID-19 patients (hazard ratio 3.317; 95% CI [1.709–6.440]; P &amp;lt; 0.001).
+ Increased D-dimer levels and higher ratio of neutrophils to lymphocytes (N/L) were also found to increase these patients’ mortality risk.
+ After matching on propensity score, we still came to similar conclusions.
+ After we applied the same method in critically ill patients, we found that hypertension also increased risk of death in patients with severe COVID-19.
+Conclusion
+id="Par5"&gt;Hypertension, increased D-dimer and the ratio of neutrophil to lymphocyte increased mortality in patients with COVID-19, with hypertension in particular.
+</t>
+  </si>
+  <si>
+    <t>[Qing%Yang%NULL%0,      Ying%Zhou%NULL%0,      Xinrong%Wang%NULL%0,      Shan%Gao%NULL%0,      Yang%Xiao%NULL%0,      Weiming%Zhang%NULL%0,      Yi%Hu%huyizxyy@163.com%0,      Yafei%Wang%wyf_527@163.com%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Since December 2019, the outbreak of COVID-19 caused a large number of hospital admissions in China.
+ Many patients with COVID-19 have symptoms of acute respiratory distress syndrome, even are in danger of death.
+ This is the first study to evaluate dynamic changes of D-Dimer and Neutrophil-Lymphocyte Count Ratio (NLR) as a prognostic utility in patients with COVID-19 for clinical use.
+Methods
+In a retrospective study, we collected data from 349 hospitalized patients who diagnosed as the infection of the COVID-19 in Wuhan Pulmonary Hospital.
+ We used ROC curves and Cox regression analysis to explore critical value (optimal cut-off point associated with Youden index) and prognostic role of dynamic changes of D-Dimer and NLR.
+Results
+Three hundred forty-nine participants were enrolled in this study and the mortality rate of the patients with laboratory diagnosed COVID-19 was 14.9%.
+ The initial and peak value of D-Dimer and NLR in deceased patients were higher statistically compared with survivors (P &amp;lt; 0.001).
+ There was a more significant upward trend of D-Dimer and NLR during hospitalization in the deceased patients, initial D-Dimer and NLR were lower than the peak tests (MD) -25.23, 95% CI: − 31.81- -18.64, P &amp;lt; 0.001; (MD) -43.73, 95% CI:-59.28- -31.17, P &amp;lt; 0.001. The test showed a stronger correlation between hospitalization days, PCT and peak D-Dimer than initial D-Dimer.
+ The areas under the ROC curves of peak D-Dimer and peak NLR tests were higher than the initial tests (0.94(95%CI: 0.90–0.98) vs.
+ 0.80 (95% CI: 0.73–0.87); 0.93 (95%CI:0.90–0.96) vs.
+ 0.86 (95%CI:0.82–0.91).
+ The critical value of initial D-Dimer, peak D-Dimer, initial NLR and peak NLR was 0.73 mg/L, 3.78 mg/L,7.13 and 14.31 respectively.
+ 35 (10.03%) patients were intubated.
+ In the intubated patients, initial and peak D-Dimer and NLR were much higher than non-intubated patients (P &amp;lt; 0.001).
+ The critical value of initial D-Dimer, peak D-Dimer, initial NLR and peak NLR in prognosticate of intubation was 0.73 mg/L, 12.75 mg/L,7.28 and 27.55. The multivariable Cox regression analysis showed that age (HR 1.04, 95% CI 1.00–1.07, P = 0.01), the peak D-Dimer (HR 1.03, 95% CI 1.01–1.04, P &amp;lt; 0.001) were prognostic factors for COVID-19 patients’ death.
+Conclusions
+To dynamically observe the ratio of D-Dimer and NLR was more valuable during the prognosis of COVID-19. The rising trend in D-Dimer and NLR, or the test results higher than the critical values may indicate a risk of death for participants with COVID-19.
+</t>
+  </si>
+  <si>
+    <t>[Wenjing%Ye%yewenjing@xinhuamed.com.cn%0,      Guoxi%Chen%4799082@qq.com%0,      Xiaopan%Li%xiaopanli0224@126.com%0,      Xing%Lan%474137452@qq.com%0,      Chen%Ji%c.ji.3@warwick.ac.uk%0,      Min%Hou%min-hou710@hotmail.com%0,      Di%Zhang%zhangdizhangdi1234@163.com%0,      Guangwang%Zeng%785663609@qq.com%0,      Yaling%Wang%953822402@qq.com%0,      Cheng%Xu%xucheng112358@126.com%0,      Weiwei%Lu%luweiwei100@126.com%0,      Ruolin%Cui%crlqwerty@163.com%0,      Yuyang%Cai%caiyuyang@sjtu.edu.cn%0,      Hai%Huang%1220775601@qq.com%0,      Ling%Yang%yangling01@xinhuamed.com.cn%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Data from the UK COVID-19 outbreak are emerging, and there are ongoing concerns about a disproportionate effect on ethnic minorities.
+ There is very limited information on COVID-19 in the over-80s, and the rates of hospital-onset infections are unknown.
+Methods
+This was a retrospective cohort study from electronic case records of the first 450 patients admitted to our hospital with PCR-confirmed COVID-19, 77% of the total inpatient caseload to date.
+ Demographic, clinical and biochemical data were extracted.
+ The primary endpoint was death during the index hospital admission.
+ The characteristics of all patients, those over 80 years of age and those with hospital-onset COVID-19 were examined.
+Results
+The median (IQR) age was 72 (56, 83), with 150 (33%) over 80 years old and 60% male.
+ Presenting clinical and biochemical features were consistent with those reported elsewhere.
+ The ethnic breakdown of patients admitted was similar to that of our underlying local population.
+ Inpatient mortality was high at 38%.
+Conclusions
+Inpatient mortality was high, especially among the over-80s, who are more likely to present atypically.
+ The ethnic composition of our caseload was similar to the underlying population.
+ While a significant number of patients acquired COVID-19 while already in hospital, their outcomes were no worse.
+</t>
+  </si>
+  <si>
+    <t>[Simon E.%Brill%simon.brill@nhs.net%0,      Hannah C.%Jarvis%NULL%0,      Hannah C.%Jarvis%NULL%0,      Ezgi%Ozcan%NULL%0,      Thomas L. P.%Burns%NULL%0,      Rabia A.%Warraich%NULL%0,      Lisa J.%Amani%NULL%0,      Amina%Jaffer%NULL%0,      Stephanie%Paget%NULL%0,      Anand%Sivaramakrishnan%NULL%0,      Dean D.%Creer%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction
+In the current study, we evaluated factors that increase the coronavirus disease (COVID-19) patient death rate by analyzing the data from two cohort hospitals.
+ In addition, we studied whether underlying neurological diseases are risk factors for death.
+Methods
+In this retrospective cohort study, we included 103 adult inpatients (aged ≥ 18 years).
+ We evaluated differences in demographic data between surviving and non-surviving COVID-19 patients.
+Results
+In a multivariate logistic analysis, age and the presence of chronic lung disease and Alzheimer’s dementia (AD) were the only significant parameters for predicting COVID-19 non-survival (p &amp;lt; 0.05).
+ However, hypertension, coronary vascular disease, dyslipidemia, chronic kidney disease, diabetes, and history of taking angiotensin II receptor blockers (ARBs) or angiotensin-converting enzyme (ACE) inhibitors, as well as nonsteroidal anti-inflammatory drugs (NSAIDs), were not significantly associated with the death of COVID-19 patients.
+ The optimal cutoff value obtained from the maximum Youden index was 70 (sensitivity, 80.77%; specificity, 61.04%), and the odds ratio of non-survival increased 1.055 fold for every year of age.
+Conclusions
+Clinicians should closely monitor and manage the symptoms of COVID-19 patients who are over the age of 70 years or have chronic lung disease or AD.
+</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%0,      Ju-Hyun%Kim%NULL%0,      Jin-Sung%Park%NULL%0,      Min Cheol%Chang%wheel633@ynu.ac.kr%0,      Donghwi%Park%bdome@hanmail.net%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+There are currently rare satisfactory markers for predicting the death of patients with coronavirus disease 2019 (COVID-19).
+ The aim of this study is to establish a model based on the combination of serum cytokines and lymphocyte subsets for predicting the prognosis of the disease.
+Methods
+A total of 739 participants with COVID-19 were enrolled at Tongji Hospital from February to April 2020 and classified into fatal (n = 51) and survived (n = 688) groups according to the patient’s outcome.
+ Cytokine profile and lymphocyte subset analysis was performed simultaneously.
+Results
+The fatal patients exhibited a significant lower number of lymphocytes including B cells, CD4+ T cells, CD8+ T cells, and NK cells and remarkably higher concentrations of cytokines including interleukin-2 receptor, interleukin-6, interleukin-8, and tumor necrosis factor-α on admission compared with the survived subjects.
+ A model based on the combination of interleukin-8 and the numbers of CD4+ T cells and NK cells showed a good performance in predicting the death of patients with COVID-19. When the threshold of 0.075 was used, the sensitivity and specificity of the prediction model were 90.20% and 90.26%, respectively.
+ Meanwhile, interleukin-8 was found to have a potential value in predicting the length of hospital stay until death.
+Conclusions
+Significant increase of cytokines and decrease of lymphocyte subsets are found positively correlated with in-hospital death.
+ A model based on the combination of three markers provides an attractive approach to predict the prognosis of COVID-19.
+Electronic supplementary material
+The online version of this article (10.1007/s10875-020-00821-7) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Ying%Luo%NULL%0,      Liyan%Mao%NULL%0,      Xu%Yuan%NULL%0,      Ying%Xue%NULL%0,      Qun%Lin%NULL%0,      Guoxing%Tang%NULL%0,      Huijuan%Song%NULL%0,      Feng%Wang%fengwang@tjh.tjmu.edu.cn%0,      Ziyong%Sun%zysun@tjh.tjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+New York City emerged as an epicenter of the coronavirus disease 2019 (COVID-19) pandemic.
+Objective
+To describe the clinical characteristics and risk factors associated with mortality in a large patient population in the USA.
+Design
+Retrospective cohort study.
+Participants
+6493 patients who had laboratory-confirmed COVID-19 with clinical outcomes between March 13 and April 17, 2020, who were seen in one of the 8 hospitals and/or over 400 ambulatory practices in the New York City metropolitan area
+Main Measures
+id="Par5"&gt;Clinical characteristics and risk factors associated with in-hospital mortality.
+Key Results
+id="Par6"&gt;A total of 858 of 6493 (13.2%) patients in our total cohort died: 52/2785 (1.9%) ambulatory patients and 806/3708 (21.7%) hospitalized patients.
+ Cox proportional hazard regression modeling showed an increased risk of in-hospital mortality associated with age older than 50 years (hazard ratio [HR] 2.34, CI 1.47–3.71), systolic blood pressure less than 90 mmHg (HR 1.38, CI 1.06–1.80), a respiratory rate greater than 24 per min (HR 1.43, CI 1.13–1.83), peripheral oxygen saturation less than 92% (HR 2.12, CI 1.56–2.88), estimated glomerular filtration rate less than 60 mL/min/1.73m2 (HR 1.80, CI 1.60–2.02), IL-6 greater than 100 pg/mL (HR 1.50, CI 1.12–2.03), D-dimer greater than 2 mcg/mL (HR 1.19, CI 1.02–1.39), and troponin greater than 0.03 ng/mL (HR 1.40, CI 1.23–1.62).
+ Decreased risk of in-hospital mortality was associated with female sex (HR 0.84, CI 0.77–0.90), African American race (HR 0.78 CI 0.65–0.95), and hydroxychloroquine use (HR 0.53, CI 0.41–0.67).
+Conclusions
+id="Par7"&gt;Among patients with COVID-19, older age, male sex, hypotension, tachypnea, hypoxia, impaired renal function, elevated D-dimer, and elevated troponin were associated with increased in-hospital mortality and hydroxychloroquine use was associated with decreased in-hospital mortality.
+Electronic supplementary material
+The online version of this article (10.1007/s11606-020-05983-z) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Takahisa%Mikami%NULL%0,      Hirotaka%Miyashita%NULL%0,      Takayuki%Yamada%NULL%0,      Matthew%Harrington%NULL%0,      Daniel%Steinberg%NULL%0,      Andrew%Dunn%NULL%0,      Evan%Siau%Evan.Siau@mountsinai.org%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+The purpose of this study is to report the clinical features and outcomes of Black/African American (AA) and Latino Hispanic patients with Coronavirus disease 2019 (COVID-19) hospitalized in an inter-city hospital in the state of New Jersey.
+Methods
+This is a retrospective cohort study of AA and Latino Hispanic patients with COVID-19 admitted to a 665-bed quaternary care, teaching hospital located in Newark, New Jersey.
+ The study included patients who had completed hospitalization between March 10, 2020, and April 10, 2020. We reviewed demographics, socioeconomic variables and incidence of in-hospital mortality and morbidity.
+ Logistic regression was used to identify predictor of in-hospital death.
+Results
+Out of 416 patients, 251 (60%) had completed hospitalization as of April 10, 2020. The incidence of In-hospital mortality was 38.6% (n = 97).
+ Most common symptoms at initial presentation were dyspnea 39% (n = 162) followed by cough 38%(n = 156) and fever 34% (n = 143).
+ Patients were in the highest quartile for population’s density, number of housing units and disproportionately fell into the lowest median income quartile for the state of New Jersey.
+ The incidence of septic shock, acute kidney injury (AKI) requiring hemodialysis and admission to an intensive care unit (ICU) was 24% (n = 59), 21% (n = 52), 33% (n = 82) respectively.
+ Independent predictors of in-hospital mortality were older age, lower serum Hemoglobin &amp;lt; 10 mg/dl, elevated serum Ferritin and Creatinine phosphokinase levels &amp;gt; 1200 U/L and &amp;gt; 1000 U/L.
+Conclusions
+Findings from an inter-city hospital’s experience with COVID-19 among underserved minority populations showed that, more than one of every three patients were at risk for in-hospital death or morbidity.
+ Older age and elevated inflammatory markers at presentation were associated with in-hospital death.
+</t>
+  </si>
+  <si>
+    <t>[Alexis K.%Okoh%alexis.okoh@rwjbh.org%0,      Christoph%Sossou%NULL%0,      Christoph%Sossou%NULL%0,      Neha S.%Dangayach%NULL%0,      Sherin%Meledathu%NULL%0,      Oluwakemi%Phillips%NULL%0,      Corinne%Raczek%NULL%0,      Michael%Patti%NULL%0,      Nathan%Kang%NULL%0,      Sameer A.%Hirji%NULL%0,      Charles%Cathcart%NULL%0,      Christian%Engell%NULL%0,      Marc%Cohen%NULL%0,      Sandhya%Nagarakanti%NULL%0,      Eliahu%Bishburg%NULL%0,      Harpreet S.%Grewal%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Previous studies have shown that Coronavirus Disease 2019 (COVID-19) patients with underlying comorbidities can have worse outcomes.
+ However, the effect of hypertension on outcomes of COVID-19 patients remains unclear.
+Research question
+The aim of this study was to explore the effect of hypertension on the outcomes of patients with COVID-19 by using propensity score–matching (PSM) analysis.
+Study design and methods
+Participants enrolled in this study were patients with COVID-19 who had been hospitalized at the Central Hospital of Wuhan, China.
+ Chronic comorbidities and laboratory and radiological data were reviewed; patient outcomes and lengths of stay were obtained from discharge records.
+ We used the Cox proportional-hazard model (CPHM) to analyze the effect of hypertension on these patients’ outcomes and PSM analysis to further validate the abovementioned effect.
+Results
+A total of 226 patients with COVID-19 were enrolled in this study, of whom 176 survived and 50 died.
+ The proportion of patients with hypertension among non-survivors was higher than that among survivors (26.70% vs.
+ 74.00%; P &amp;lt; 0.001).
+ Results obtained via CPHM showed that hypertension could increase risk of mortality in COVID-19 patients (hazard ratio 3.317; 95% CI [1.709–6.440]; P &amp;lt; 0.001).
+ Increased D-dimer levels and higher ratio of neutrophils to lymphocytes (N/L) were also found to increase these patients’ mortality risk.
+ After matching on propensity score, we still came to similar conclusions.
+ After we applied the same method in critically ill patients, we found that hypertension also increased risk of death in patients with severe COVID-19.
+Conclusion
+Hypertension, increased D-dimer and the ratio of neutrophil to lymphocyte increased mortality in patients with COVID-19, with hypertension in particular.
+</t>
+  </si>
+  <si>
+    <t>[Qing%Yang%NULL%0,       Ying%Zhou%NULL%0,       Xinrong%Wang%NULL%0,       Shan%Gao%NULL%0,       Yang%Xiao%NULL%0,       Weiming%Zhang%NULL%0,       Yi%Hu%huyizxyy@163.com%0,       Yafei%Wang%wyf_527@163.com%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+New York City emerged as an epicenter of the coronavirus disease 2019 (COVID-19) pandemic.
+Objective
+To describe the clinical characteristics and risk factors associated with mortality in a large patient population in the USA.
+Design
+Retrospective cohort study.
+Participants
+6493 patients who had laboratory-confirmed COVID-19 with clinical outcomes between March 13 and April 17, 2020, who were seen in one of the 8 hospitals and/or over 400 ambulatory practices in the New York City metropolitan area
+Main Measures
+Clinical characteristics and risk factors associated with in-hospital mortality.
+Key Results
+id="Par6"&gt;A total of 858 of 6493 (13.2%) patients in our total cohort died: 52/2785 (1.9%) ambulatory patients and 806/3708 (21.7%) hospitalized patients.
+ Cox proportional hazard regression modeling showed an increased risk of in-hospital mortality associated with age older than 50 years (hazard ratio [HR] 2.34, CI 1.47–3.71), systolic blood pressure less than 90 mmHg (HR 1.38, CI 1.06–1.80), a respiratory rate greater than 24 per min (HR 1.43, CI 1.13–1.83), peripheral oxygen saturation less than 92% (HR 2.12, CI 1.56–2.88), estimated glomerular filtration rate less than 60 mL/min/1.73m2 (HR 1.80, CI 1.60–2.02), IL-6 greater than 100 pg/mL (HR 1.50, CI 1.12–2.03), D-dimer greater than 2 mcg/mL (HR 1.19, CI 1.02–1.39), and troponin greater than 0.03 ng/mL (HR 1.40, CI 1.23–1.62).
+ Decreased risk of in-hospital mortality was associated with female sex (HR 0.84, CI 0.77–0.90), African American race (HR 0.78 CI 0.65–0.95), and hydroxychloroquine use (HR 0.53, CI 0.41–0.67).
+Conclusions
+id="Par7"&gt;Among patients with COVID-19, older age, male sex, hypotension, tachypnea, hypoxia, impaired renal function, elevated D-dimer, and elevated troponin were associated with increased in-hospital mortality and hydroxychloroquine use was associated with decreased in-hospital mortality.
+Electronic supplementary material
+The online version of this article (10.1007/s11606-020-05983-z) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Takahisa%Mikami%NULL%0,       Hirotaka%Miyashita%NULL%0,       Takayuki%Yamada%NULL%0,       Matthew%Harrington%NULL%0,       Daniel%Steinberg%NULL%0,       Andrew%Dunn%NULL%0,       Evan%Siau%Evan.Siau@mountsinai.org%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+New York City emerged as an epicenter of the coronavirus disease 2019 (COVID-19) pandemic.
+Objective
+To describe the clinical characteristics and risk factors associated with mortality in a large patient population in the USA.
+Design
+Retrospective cohort study.
+Participants
+6493 patients who had laboratory-confirmed COVID-19 with clinical outcomes between March 13 and April 17, 2020, who were seen in one of the 8 hospitals and/or over 400 ambulatory practices in the New York City metropolitan area
+Main Measures
+Clinical characteristics and risk factors associated with in-hospital mortality.
+Key Results
+A total of 858 of 6493 (13.2%) patients in our total cohort died: 52/2785 (1.9%) ambulatory patients and 806/3708 (21.7%) hospitalized patients.
+ Cox proportional hazard regression modeling showed an increased risk of in-hospital mortality associated with age older than 50 years (hazard ratio [HR] 2.34, CI 1.47–3.71), systolic blood pressure less than 90 mmHg (HR 1.38, CI 1.06–1.80), a respiratory rate greater than 24 per min (HR 1.43, CI 1.13–1.83), peripheral oxygen saturation less than 92% (HR 2.12, CI 1.56–2.88), estimated glomerular filtration rate less than 60 mL/min/1.73m2 (HR 1.80, CI 1.60–2.02), IL-6 greater than 100 pg/mL (HR 1.50, CI 1.12–2.03), D-dimer greater than 2 mcg/mL (HR 1.19, CI 1.02–1.39), and troponin greater than 0.03 ng/mL (HR 1.40, CI 1.23–1.62).
+ Decreased risk of in-hospital mortality was associated with female sex (HR 0.84, CI 0.77–0.90), African American race (HR 0.78 CI 0.65–0.95), and hydroxychloroquine use (HR 0.53, CI 0.41–0.67).
+Conclusions
+id="Par7"&gt;Among patients with COVID-19, older age, male sex, hypotension, tachypnea, hypoxia, impaired renal function, elevated D-dimer, and elevated troponin were associated with increased in-hospital mortality and hydroxychloroquine use was associated with decreased in-hospital mortality.
+Electronic supplementary material
+The online version of this article (10.1007/s11606-020-05983-z) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Takahisa%Mikami%NULL%0,        Hirotaka%Miyashita%NULL%0,        Takayuki%Yamada%NULL%0,        Matthew%Harrington%NULL%0,        Daniel%Steinberg%NULL%0,        Andrew%Dunn%NULL%0,        Evan%Siau%Evan.Siau@mountsinai.org%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+New York City emerged as an epicenter of the coronavirus disease 2019 (COVID-19) pandemic.
+Objective
+To describe the clinical characteristics and risk factors associated with mortality in a large patient population in the USA.
+Design
+Retrospective cohort study.
+Participants
+6493 patients who had laboratory-confirmed COVID-19 with clinical outcomes between March 13 and April 17, 2020, who were seen in one of the 8 hospitals and/or over 400 ambulatory practices in the New York City metropolitan area
+Main Measures
+Clinical characteristics and risk factors associated with in-hospital mortality.
+Key Results
+A total of 858 of 6493 (13.2%) patients in our total cohort died: 52/2785 (1.9%) ambulatory patients and 806/3708 (21.7%) hospitalized patients.
+ Cox proportional hazard regression modeling showed an increased risk of in-hospital mortality associated with age older than 50 years (hazard ratio [HR] 2.34, CI 1.47–3.71), systolic blood pressure less than 90 mmHg (HR 1.38, CI 1.06–1.80), a respiratory rate greater than 24 per min (HR 1.43, CI 1.13–1.83), peripheral oxygen saturation less than 92% (HR 2.12, CI 1.56–2.88), estimated glomerular filtration rate less than 60 mL/min/1.73m2 (HR 1.80, CI 1.60–2.02), IL-6 greater than 100 pg/mL (HR 1.50, CI 1.12–2.03), D-dimer greater than 2 mcg/mL (HR 1.19, CI 1.02–1.39), and troponin greater than 0.03 ng/mL (HR 1.40, CI 1.23–1.62).
+ Decreased risk of in-hospital mortality was associated with female sex (HR 0.84, CI 0.77–0.90), African American race (HR 0.78 CI 0.65–0.95), and hydroxychloroquine use (HR 0.53, CI 0.41–0.67).
+Conclusions
+Among patients with COVID-19, older age, male sex, hypotension, tachypnea, hypoxia, impaired renal function, elevated D-dimer, and elevated troponin were associated with increased in-hospital mortality and hydroxychloroquine use was associated with decreased in-hospital mortality.
+Electronic supplementary material
+The online version of this article (10.1007/s11606-020-05983-z) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Takahisa%Mikami%NULL%0,         Hirotaka%Miyashita%NULL%0,         Takayuki%Yamada%NULL%0,         Matthew%Harrington%NULL%0,         Daniel%Steinberg%NULL%0,         Andrew%Dunn%NULL%0,         Evan%Siau%Evan.Siau@mountsinai.org%0]</t>
   </si>
 </sst>
 </file>
@@ -2504,10 +3233,10 @@
         <v>127</v>
       </c>
       <c r="D15" t="s">
-        <v>128</v>
+        <v>427</v>
       </c>
       <c r="E15" t="s">
-        <v>326</v>
+        <v>428</v>
       </c>
       <c r="F15" t="s">
         <v>130</v>
@@ -2556,10 +3285,10 @@
         <v>136</v>
       </c>
       <c r="D17" t="s">
-        <v>137</v>
+        <v>415</v>
       </c>
       <c r="E17" t="s">
-        <v>328</v>
+        <v>416</v>
       </c>
       <c r="F17" t="s">
         <v>139</v>
@@ -2790,10 +3519,10 @@
         <v>171</v>
       </c>
       <c r="D26" t="s">
-        <v>172</v>
+        <v>417</v>
       </c>
       <c r="E26" t="s">
-        <v>339</v>
+        <v>418</v>
       </c>
       <c r="F26" t="s">
         <v>174</v>
@@ -3232,10 +3961,10 @@
         <v>244</v>
       </c>
       <c r="D43" t="s">
-        <v>245</v>
+        <v>419</v>
       </c>
       <c r="E43" t="s">
-        <v>357</v>
+        <v>420</v>
       </c>
       <c r="F43" t="s">
         <v>247</v>
@@ -3518,10 +4247,10 @@
         <v>287</v>
       </c>
       <c r="D54" t="s">
-        <v>288</v>
+        <v>421</v>
       </c>
       <c r="E54" t="s">
-        <v>366</v>
+        <v>422</v>
       </c>
       <c r="F54" t="s">
         <v>290</v>
@@ -3596,10 +4325,10 @@
         <v>301</v>
       </c>
       <c r="D57" t="s">
-        <v>302</v>
+        <v>433</v>
       </c>
       <c r="E57" t="s">
-        <v>369</v>
+        <v>434</v>
       </c>
       <c r="F57" t="s">
         <v>304</v>
@@ -3622,10 +4351,10 @@
         <v>305</v>
       </c>
       <c r="D58" t="s">
-        <v>306</v>
+        <v>425</v>
       </c>
       <c r="E58" t="s">
-        <v>370</v>
+        <v>426</v>
       </c>
       <c r="F58" t="s">
         <v>308</v>

--- a/Covid_19_Dataset_and_References/References/44.xlsx
+++ b/Covid_19_Dataset_and_References/References/44.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="371">
   <si>
     <t>Doi</t>
   </si>
@@ -1831,735 +1831,6 @@
   </si>
   <si>
     <t>[Alexis K.%Okoh%alexis.okoh@rwjbh.org%0,  Christoph%Sossou%NULL%0,  Christoph%Sossou%NULL%0,  Neha S.%Dangayach%NULL%0,  Sherin%Meledathu%NULL%0,  Oluwakemi%Phillips%NULL%0,  Corinne%Raczek%NULL%0,  Michael%Patti%NULL%0,  Nathan%Kang%NULL%0,  Sameer A.%Hirji%NULL%0,  Charles%Cathcart%NULL%0,  Christian%Engell%NULL%0,  Marc%Cohen%NULL%0,  Sandhya%Nagarakanti%NULL%0,  Eliahu%Bishburg%NULL%0,  Harpreet S.%Grewal%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Previous studies have shown that Coronavirus Disease 2019 (COVID-19) patients with underlying comorbidities can have worse outcomes.
- However, the effect of hypertension on outcomes of COVID-19 patients remains unclear.
-Research question
-id="Par2"&gt;The aim of this study was to explore the effect of hypertension on the outcomes of patients with COVID-19 by using propensity score–matching (PSM) analysis.
-Study design and methods
-id="Par3"&gt;Participants enrolled in this study were patients with COVID-19 who had been hospitalized at the Central Hospital of Wuhan, China.
- Chronic comorbidities and laboratory and radiological data were reviewed; patient outcomes and lengths of stay were obtained from discharge records.
- We used the Cox proportional-hazard model (CPHM) to analyze the effect of hypertension on these patients’ outcomes and PSM analysis to further validate the abovementioned effect.
-Results
-id="Par4"&gt;A total of 226 patients with COVID-19 were enrolled in this study, of whom 176 survived and 50 died.
- The proportion of patients with hypertension among non-survivors was higher than that among survivors (26.70% vs.
- 74.00%; P &amp;lt; 0.001).
- Results obtained via CPHM showed that hypertension could increase risk of mortality in COVID-19 patients (hazard ratio 3.317; 95% CI [1.709–6.440]; P &amp;lt; 0.001).
- Increased D-dimer levels and higher ratio of neutrophils to lymphocytes (N/L) were also found to increase these patients’ mortality risk.
- After matching on propensity score, we still came to similar conclusions.
- After we applied the same method in critically ill patients, we found that hypertension also increased risk of death in patients with severe COVID-19.
-Conclusion
-id="Par5"&gt;Hypertension, increased D-dimer and the ratio of neutrophil to lymphocyte increased mortality in patients with COVID-19, with hypertension in particular.
-</t>
-  </si>
-  <si>
-    <t>[Qing%Yang%NULL%0,   Ying%Zhou%NULL%0,   Xinrong%Wang%NULL%0,   Shan%Gao%NULL%0,   Yang%Xiao%NULL%0,   Weiming%Zhang%NULL%0,   Yi%Hu%huyizxyy@163.com%0,   Yafei%Wang%wyf_527@163.com%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Since December 2019, the outbreak of COVID-19 caused a large number of hospital admissions in China.
- Many patients with COVID-19 have symptoms of acute respiratory distress syndrome, even are in danger of death.
- This is the first study to evaluate dynamic changes of D-Dimer and Neutrophil-Lymphocyte Count Ratio (NLR) as a prognostic utility in patients with COVID-19 for clinical use.
-Methods
-id="Par2"&gt;In a retrospective study, we collected data from 349 hospitalized patients who diagnosed as the infection of the COVID-19 in Wuhan Pulmonary Hospital.
- We used ROC curves and Cox regression analysis to explore critical value (optimal cut-off point associated with Youden index) and prognostic role of dynamic changes of D-Dimer and NLR.
-Results
-id="Par3"&gt;Three hundred forty-nine participants were enrolled in this study and the mortality rate of the patients with laboratory diagnosed COVID-19 was 14.9%.
- The initial and peak value of D-Dimer and NLR in deceased patients were higher statistically compared with survivors (P &amp;lt; 0.001).
- There was a more significant upward trend of D-Dimer and NLR during hospitalization in the deceased patients, initial D-Dimer and NLR were lower than the peak tests (MD) -25.23, 95% CI: − 31.81- -18.64, P &amp;lt; 0.001; (MD) -43.73, 95% CI:-59.28- -31.17, P &amp;lt; 0.001. The test showed a stronger correlation between hospitalization days, PCT and peak D-Dimer than initial D-Dimer.
- The areas under the ROC curves of peak D-Dimer and peak NLR tests were higher than the initial tests (0.94(95%CI: 0.90–0.98) vs.
- 0.80 (95% CI: 0.73–0.87); 0.93 (95%CI:0.90–0.96) vs.
- 0.86 (95%CI:0.82–0.91).
- The critical value of initial D-Dimer, peak D-Dimer, initial NLR and peak NLR was 0.73 mg/L, 3.78 mg/L,7.13 and 14.31 respectively.
- 35 (10.03%) patients were intubated.
- In the intubated patients, initial and peak D-Dimer and NLR were much higher than non-intubated patients (P &amp;lt; 0.001).
- The critical value of initial D-Dimer, peak D-Dimer, initial NLR and peak NLR in prognosticate of intubation was 0.73 mg/L, 12.75 mg/L,7.28 and 27.55. The multivariable Cox regression analysis showed that age (HR 1.04, 95% CI 1.00–1.07, P = 0.01), the peak D-Dimer (HR 1.03, 95% CI 1.01–1.04, P &amp;lt; 0.001) were prognostic factors for COVID-19 patients’ death.
-Conclusions
-id="Par4"&gt;To dynamically observe the ratio of D-Dimer and NLR was more valuable during the prognosis of COVID-19. The rising trend in D-Dimer and NLR, or the test results higher than the critical values may indicate a risk of death for participants with COVID-19.
-</t>
-  </si>
-  <si>
-    <t>[Wenjing%Ye%yewenjing@xinhuamed.com.cn%0,   Guoxi%Chen%4799082@qq.com%0,   Xiaopan%Li%xiaopanli0224@126.com%0,   Xing%Lan%474137452@qq.com%0,   Chen%Ji%c.ji.3@warwick.ac.uk%0,   Min%Hou%min-hou710@hotmail.com%0,   Di%Zhang%zhangdizhangdi1234@163.com%0,   Guangwang%Zeng%785663609@qq.com%0,   Yaling%Wang%953822402@qq.com%0,   Cheng%Xu%xucheng112358@126.com%0,   Weiwei%Lu%luweiwei100@126.com%0,   Ruolin%Cui%crlqwerty@163.com%0,   Yuyang%Cai%caiyuyang@sjtu.edu.cn%0,   Hai%Huang%1220775601@qq.com%0,   Ling%Yang%yangling01@xinhuamed.com.cn%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Data from the UK COVID-19 outbreak are emerging, and there are ongoing concerns about a disproportionate effect on ethnic minorities.
- There is very limited information on COVID-19 in the over-80s, and the rates of hospital-onset infections are unknown.
-Methods
-id="Par2"&gt;This was a retrospective cohort study from electronic case records of the first 450 patients admitted to our hospital with PCR-confirmed COVID-19, 77% of the total inpatient caseload to date.
- Demographic, clinical and biochemical data were extracted.
- The primary endpoint was death during the index hospital admission.
- The characteristics of all patients, those over 80 years of age and those with hospital-onset COVID-19 were examined.
-Results
-id="Par3"&gt;The median (IQR) age was 72 (56, 83), with 150 (33%) over 80 years old and 60% male.
- Presenting clinical and biochemical features were consistent with those reported elsewhere.
- The ethnic breakdown of patients admitted was similar to that of our underlying local population.
- Inpatient mortality was high at 38%.
-Conclusions
-id="Par5"&gt;Inpatient mortality was high, especially among the over-80s, who are more likely to present atypically.
- The ethnic composition of our caseload was similar to the underlying population.
- While a significant number of patients acquired COVID-19 while already in hospital, their outcomes were no worse.
-</t>
-  </si>
-  <si>
-    <t>[Simon E.%Brill%simon.brill@nhs.net%0,   Hannah C.%Jarvis%NULL%0,   Hannah C.%Jarvis%NULL%0,   Ezgi%Ozcan%NULL%0,   Thomas L. P.%Burns%NULL%0,   Rabia A.%Warraich%NULL%0,   Lisa J.%Amani%NULL%0,   Amina%Jaffer%NULL%0,   Stephanie%Paget%NULL%0,   Anand%Sivaramakrishnan%NULL%0,   Dean D.%Creer%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Introduction
-In the current study, we evaluated factors that increase the coronavirus disease (COVID-19) patient death rate by analyzing the data from two cohort hospitals.
- In addition, we studied whether underlying neurological diseases are risk factors for death.
-Methods
-id="Par2"&gt;In this retrospective cohort study, we included 103 adult inpatients (aged ≥ 18 years).
- We evaluated differences in demographic data between surviving and non-surviving COVID-19 patients.
-Results
-id="Par3"&gt;In a multivariate logistic analysis, age and the presence of chronic lung disease and Alzheimer’s dementia (AD) were the only significant parameters for predicting COVID-19 non-survival (p &amp;lt; 0.05).
- However, hypertension, coronary vascular disease, dyslipidemia, chronic kidney disease, diabetes, and history of taking angiotensin II receptor blockers (ARBs) or angiotensin-converting enzyme (ACE) inhibitors, as well as nonsteroidal anti-inflammatory drugs (NSAIDs), were not significantly associated with the death of COVID-19 patients.
- The optimal cutoff value obtained from the maximum Youden index was 70 (sensitivity, 80.77%; specificity, 61.04%), and the odds ratio of non-survival increased 1.055 fold for every year of age.
-Conclusions
-id="Par4"&gt;Clinicians should closely monitor and manage the symptoms of COVID-19 patients who are over the age of 70 years or have chronic lung disease or AD.
-</t>
-  </si>
-  <si>
-    <t>[Jong-moon%Hwang%NULL%0,   Ju-Hyun%Kim%NULL%0,   Jin-Sung%Park%NULL%0,   Min Cheol%Chang%wheel633@ynu.ac.kr%0,   Donghwi%Park%bdome@hanmail.net%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-There are currently rare satisfactory markers for predicting the death of patients with coronavirus disease 2019 (COVID-19).
- The aim of this study is to establish a model based on the combination of serum cytokines and lymphocyte subsets for predicting the prognosis of the disease.
-Methods
-id="Par2"&gt;A total of 739 participants with COVID-19 were enrolled at Tongji Hospital from February to April 2020 and classified into fatal (n = 51) and survived (n = 688) groups according to the patient’s outcome.
- Cytokine profile and lymphocyte subset analysis was performed simultaneously.
-Results
-id="Par3"&gt;The fatal patients exhibited a significant lower number of lymphocytes including B cells, CD4+ T cells, CD8+ T cells, and NK cells and remarkably higher concentrations of cytokines including interleukin-2 receptor, interleukin-6, interleukin-8, and tumor necrosis factor-α on admission compared with the survived subjects.
- A model based on the combination of interleukin-8 and the numbers of CD4+ T cells and NK cells showed a good performance in predicting the death of patients with COVID-19. When the threshold of 0.075 was used, the sensitivity and specificity of the prediction model were 90.20% and 90.26%, respectively.
- Meanwhile, interleukin-8 was found to have a potential value in predicting the length of hospital stay until death.
-Conclusions
-id="Par4"&gt;Significant increase of cytokines and decrease of lymphocyte subsets are found positively correlated with in-hospital death.
- A model based on the combination of three markers provides an attractive approach to predict the prognosis of COVID-19.
-Electronic supplementary material
-The online version of this article (10.1007/s10875-020-00821-7) contains supplementary material, which is available to authorized users.
-</t>
-  </si>
-  <si>
-    <t>[Ying%Luo%NULL%0,   Liyan%Mao%NULL%0,   Xu%Yuan%NULL%0,   Ying%Xue%NULL%0,   Qun%Lin%NULL%0,   Guoxing%Tang%NULL%0,   Huijuan%Song%NULL%0,   Feng%Wang%fengwang@tjh.tjmu.edu.cn%0,   Ziyong%Sun%zysun@tjh.tjmu.edu.cn%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-New York City emerged as an epicenter of the coronavirus disease 2019 (COVID-19) pandemic.
-Objective
-id="Par2"&gt;To describe the clinical characteristics and risk factors associated with mortality in a large patient population in the USA.
-Design
-id="Par3"&gt;Retrospective cohort study.
-Participants
-id="Par4"&gt;6493 patients who had laboratory-confirmed COVID-19 with clinical outcomes between March 13 and April 17, 2020, who were seen in one of the 8 hospitals and/or over 400 ambulatory practices in the New York City metropolitan area
-Main Measures
-id="Par5"&gt;Clinical characteristics and risk factors associated with in-hospital mortality.
-Key Results
-id="Par6"&gt;A total of 858 of 6493 (13.2%) patients in our total cohort died: 52/2785 (1.9%) ambulatory patients and 806/3708 (21.7%) hospitalized patients.
- Cox proportional hazard regression modeling showed an increased risk of in-hospital mortality associated with age older than 50 years (hazard ratio [HR] 2.34, CI 1.47–3.71), systolic blood pressure less than 90 mmHg (HR 1.38, CI 1.06–1.80), a respiratory rate greater than 24 per min (HR 1.43, CI 1.13–1.83), peripheral oxygen saturation less than 92% (HR 2.12, CI 1.56–2.88), estimated glomerular filtration rate less than 60 mL/min/1.73m2 (HR 1.80, CI 1.60–2.02), IL-6 greater than 100 pg/mL (HR 1.50, CI 1.12–2.03), D-dimer greater than 2 mcg/mL (HR 1.19, CI 1.02–1.39), and troponin greater than 0.03 ng/mL (HR 1.40, CI 1.23–1.62).
- Decreased risk of in-hospital mortality was associated with female sex (HR 0.84, CI 0.77–0.90), African American race (HR 0.78 CI 0.65–0.95), and hydroxychloroquine use (HR 0.53, CI 0.41–0.67).
-Conclusions
-id="Par7"&gt;Among patients with COVID-19, older age, male sex, hypotension, tachypnea, hypoxia, impaired renal function, elevated D-dimer, and elevated troponin were associated with increased in-hospital mortality and hydroxychloroquine use was associated with decreased in-hospital mortality.
-Electronic supplementary material
-The online version of this article (10.1007/s11606-020-05983-z) contains supplementary material, which is available to authorized users.
-</t>
-  </si>
-  <si>
-    <t>[Takahisa%Mikami%NULL%0,   Hirotaka%Miyashita%NULL%0,   Takayuki%Yamada%NULL%0,   Matthew%Harrington%NULL%0,   Daniel%Steinberg%NULL%0,   Andrew%Dunn%NULL%0,   Evan%Siau%Evan.Siau@mountsinai.org%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-The purpose of this study is to report the clinical features and outcomes of Black/African American (AA) and Latino Hispanic patients with Coronavirus disease 2019 (COVID-19) hospitalized in an inter-city hospital in the state of New Jersey.
-Methods
-id="Par2"&gt;This is a retrospective cohort study of AA and Latino Hispanic patients with COVID-19 admitted to a 665-bed quaternary care, teaching hospital located in Newark, New Jersey.
- The study included patients who had completed hospitalization between March 10, 2020, and April 10, 2020. We reviewed demographics, socioeconomic variables and incidence of in-hospital mortality and morbidity.
- Logistic regression was used to identify predictor of in-hospital death.
-Results
-id="Par3"&gt;Out of 416 patients, 251 (60%) had completed hospitalization as of April 10, 2020. The incidence of In-hospital mortality was 38.6% (n = 97).
- Most common symptoms at initial presentation were dyspnea 39% (n = 162) followed by cough 38%(n = 156) and fever 34% (n = 143).
- Patients were in the highest quartile for population’s density, number of housing units and disproportionately fell into the lowest median income quartile for the state of New Jersey.
- The incidence of septic shock, acute kidney injury (AKI) requiring hemodialysis and admission to an intensive care unit (ICU) was 24% (n = 59), 21% (n = 52), 33% (n = 82) respectively.
- Independent predictors of in-hospital mortality were older age, lower serum Hemoglobin &amp;lt; 10 mg/dl, elevated serum Ferritin and Creatinine phosphokinase levels &amp;gt; 1200 U/L and &amp;gt; 1000 U/L.
-Conclusions
-id="Par4"&gt;Findings from an inter-city hospital’s experience with COVID-19 among underserved minority populations showed that, more than one of every three patients were at risk for in-hospital death or morbidity.
- Older age and elevated inflammatory markers at presentation were associated with in-hospital death.
-</t>
-  </si>
-  <si>
-    <t>[Alexis K.%Okoh%alexis.okoh@rwjbh.org%0,   Christoph%Sossou%NULL%0,   Christoph%Sossou%NULL%0,   Neha S.%Dangayach%NULL%0,   Sherin%Meledathu%NULL%0,   Oluwakemi%Phillips%NULL%0,   Corinne%Raczek%NULL%0,   Michael%Patti%NULL%0,   Nathan%Kang%NULL%0,   Sameer A.%Hirji%NULL%0,   Charles%Cathcart%NULL%0,   Christian%Engell%NULL%0,   Marc%Cohen%NULL%0,   Sandhya%Nagarakanti%NULL%0,   Eliahu%Bishburg%NULL%0,   Harpreet S.%Grewal%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Previous studies have shown that Coronavirus Disease 2019 (COVID-19) patients with underlying comorbidities can have worse outcomes.
- However, the effect of hypertension on outcomes of COVID-19 patients remains unclear.
-Research question
-The aim of this study was to explore the effect of hypertension on the outcomes of patients with COVID-19 by using propensity score–matching (PSM) analysis.
-Study design and methods
-id="Par3"&gt;Participants enrolled in this study were patients with COVID-19 who had been hospitalized at the Central Hospital of Wuhan, China.
- Chronic comorbidities and laboratory and radiological data were reviewed; patient outcomes and lengths of stay were obtained from discharge records.
- We used the Cox proportional-hazard model (CPHM) to analyze the effect of hypertension on these patients’ outcomes and PSM analysis to further validate the abovementioned effect.
-Results
-id="Par4"&gt;A total of 226 patients with COVID-19 were enrolled in this study, of whom 176 survived and 50 died.
- The proportion of patients with hypertension among non-survivors was higher than that among survivors (26.70% vs.
- 74.00%; P &amp;lt; 0.001).
- Results obtained via CPHM showed that hypertension could increase risk of mortality in COVID-19 patients (hazard ratio 3.317; 95% CI [1.709–6.440]; P &amp;lt; 0.001).
- Increased D-dimer levels and higher ratio of neutrophils to lymphocytes (N/L) were also found to increase these patients’ mortality risk.
- After matching on propensity score, we still came to similar conclusions.
- After we applied the same method in critically ill patients, we found that hypertension also increased risk of death in patients with severe COVID-19.
-Conclusion
-id="Par5"&gt;Hypertension, increased D-dimer and the ratio of neutrophil to lymphocyte increased mortality in patients with COVID-19, with hypertension in particular.
-</t>
-  </si>
-  <si>
-    <t>[Qing%Yang%NULL%0,    Ying%Zhou%NULL%0,    Xinrong%Wang%NULL%0,    Shan%Gao%NULL%0,    Yang%Xiao%NULL%0,    Weiming%Zhang%NULL%0,    Yi%Hu%huyizxyy@163.com%0,    Yafei%Wang%wyf_527@163.com%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Since December 2019, the outbreak of COVID-19 caused a large number of hospital admissions in China.
- Many patients with COVID-19 have symptoms of acute respiratory distress syndrome, even are in danger of death.
- This is the first study to evaluate dynamic changes of D-Dimer and Neutrophil-Lymphocyte Count Ratio (NLR) as a prognostic utility in patients with COVID-19 for clinical use.
-Methods
-In a retrospective study, we collected data from 349 hospitalized patients who diagnosed as the infection of the COVID-19 in Wuhan Pulmonary Hospital.
- We used ROC curves and Cox regression analysis to explore critical value (optimal cut-off point associated with Youden index) and prognostic role of dynamic changes of D-Dimer and NLR.
-Results
-id="Par3"&gt;Three hundred forty-nine participants were enrolled in this study and the mortality rate of the patients with laboratory diagnosed COVID-19 was 14.9%.
- The initial and peak value of D-Dimer and NLR in deceased patients were higher statistically compared with survivors (P &amp;lt; 0.001).
- There was a more significant upward trend of D-Dimer and NLR during hospitalization in the deceased patients, initial D-Dimer and NLR were lower than the peak tests (MD) -25.23, 95% CI: − 31.81- -18.64, P &amp;lt; 0.001; (MD) -43.73, 95% CI:-59.28- -31.17, P &amp;lt; 0.001. The test showed a stronger correlation between hospitalization days, PCT and peak D-Dimer than initial D-Dimer.
- The areas under the ROC curves of peak D-Dimer and peak NLR tests were higher than the initial tests (0.94(95%CI: 0.90–0.98) vs.
- 0.80 (95% CI: 0.73–0.87); 0.93 (95%CI:0.90–0.96) vs.
- 0.86 (95%CI:0.82–0.91).
- The critical value of initial D-Dimer, peak D-Dimer, initial NLR and peak NLR was 0.73 mg/L, 3.78 mg/L,7.13 and 14.31 respectively.
- 35 (10.03%) patients were intubated.
- In the intubated patients, initial and peak D-Dimer and NLR were much higher than non-intubated patients (P &amp;lt; 0.001).
- The critical value of initial D-Dimer, peak D-Dimer, initial NLR and peak NLR in prognosticate of intubation was 0.73 mg/L, 12.75 mg/L,7.28 and 27.55. The multivariable Cox regression analysis showed that age (HR 1.04, 95% CI 1.00–1.07, P = 0.01), the peak D-Dimer (HR 1.03, 95% CI 1.01–1.04, P &amp;lt; 0.001) were prognostic factors for COVID-19 patients’ death.
-Conclusions
-id="Par4"&gt;To dynamically observe the ratio of D-Dimer and NLR was more valuable during the prognosis of COVID-19. The rising trend in D-Dimer and NLR, or the test results higher than the critical values may indicate a risk of death for participants with COVID-19.
-</t>
-  </si>
-  <si>
-    <t>[Wenjing%Ye%yewenjing@xinhuamed.com.cn%0,    Guoxi%Chen%4799082@qq.com%0,    Xiaopan%Li%xiaopanli0224@126.com%0,    Xing%Lan%474137452@qq.com%0,    Chen%Ji%c.ji.3@warwick.ac.uk%0,    Min%Hou%min-hou710@hotmail.com%0,    Di%Zhang%zhangdizhangdi1234@163.com%0,    Guangwang%Zeng%785663609@qq.com%0,    Yaling%Wang%953822402@qq.com%0,    Cheng%Xu%xucheng112358@126.com%0,    Weiwei%Lu%luweiwei100@126.com%0,    Ruolin%Cui%crlqwerty@163.com%0,    Yuyang%Cai%caiyuyang@sjtu.edu.cn%0,    Hai%Huang%1220775601@qq.com%0,    Ling%Yang%yangling01@xinhuamed.com.cn%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Data from the UK COVID-19 outbreak are emerging, and there are ongoing concerns about a disproportionate effect on ethnic minorities.
- There is very limited information on COVID-19 in the over-80s, and the rates of hospital-onset infections are unknown.
-Methods
-This was a retrospective cohort study from electronic case records of the first 450 patients admitted to our hospital with PCR-confirmed COVID-19, 77% of the total inpatient caseload to date.
- Demographic, clinical and biochemical data were extracted.
- The primary endpoint was death during the index hospital admission.
- The characteristics of all patients, those over 80 years of age and those with hospital-onset COVID-19 were examined.
-Results
-id="Par3"&gt;The median (IQR) age was 72 (56, 83), with 150 (33%) over 80 years old and 60% male.
- Presenting clinical and biochemical features were consistent with those reported elsewhere.
- The ethnic breakdown of patients admitted was similar to that of our underlying local population.
- Inpatient mortality was high at 38%.
-Conclusions
-id="Par5"&gt;Inpatient mortality was high, especially among the over-80s, who are more likely to present atypically.
- The ethnic composition of our caseload was similar to the underlying population.
- While a significant number of patients acquired COVID-19 while already in hospital, their outcomes were no worse.
-</t>
-  </si>
-  <si>
-    <t>[Simon E.%Brill%simon.brill@nhs.net%0,    Hannah C.%Jarvis%NULL%0,    Hannah C.%Jarvis%NULL%0,    Ezgi%Ozcan%NULL%0,    Thomas L. P.%Burns%NULL%0,    Rabia A.%Warraich%NULL%0,    Lisa J.%Amani%NULL%0,    Amina%Jaffer%NULL%0,    Stephanie%Paget%NULL%0,    Anand%Sivaramakrishnan%NULL%0,    Dean D.%Creer%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Introduction
-In the current study, we evaluated factors that increase the coronavirus disease (COVID-19) patient death rate by analyzing the data from two cohort hospitals.
- In addition, we studied whether underlying neurological diseases are risk factors for death.
-Methods
-In this retrospective cohort study, we included 103 adult inpatients (aged ≥ 18 years).
- We evaluated differences in demographic data between surviving and non-surviving COVID-19 patients.
-Results
-id="Par3"&gt;In a multivariate logistic analysis, age and the presence of chronic lung disease and Alzheimer’s dementia (AD) were the only significant parameters for predicting COVID-19 non-survival (p &amp;lt; 0.05).
- However, hypertension, coronary vascular disease, dyslipidemia, chronic kidney disease, diabetes, and history of taking angiotensin II receptor blockers (ARBs) or angiotensin-converting enzyme (ACE) inhibitors, as well as nonsteroidal anti-inflammatory drugs (NSAIDs), were not significantly associated with the death of COVID-19 patients.
- The optimal cutoff value obtained from the maximum Youden index was 70 (sensitivity, 80.77%; specificity, 61.04%), and the odds ratio of non-survival increased 1.055 fold for every year of age.
-Conclusions
-id="Par4"&gt;Clinicians should closely monitor and manage the symptoms of COVID-19 patients who are over the age of 70 years or have chronic lung disease or AD.
-</t>
-  </si>
-  <si>
-    <t>[Jong-moon%Hwang%NULL%0,    Ju-Hyun%Kim%NULL%0,    Jin-Sung%Park%NULL%0,    Min Cheol%Chang%wheel633@ynu.ac.kr%0,    Donghwi%Park%bdome@hanmail.net%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-There are currently rare satisfactory markers for predicting the death of patients with coronavirus disease 2019 (COVID-19).
- The aim of this study is to establish a model based on the combination of serum cytokines and lymphocyte subsets for predicting the prognosis of the disease.
-Methods
-A total of 739 participants with COVID-19 were enrolled at Tongji Hospital from February to April 2020 and classified into fatal (n = 51) and survived (n = 688) groups according to the patient’s outcome.
- Cytokine profile and lymphocyte subset analysis was performed simultaneously.
-Results
-id="Par3"&gt;The fatal patients exhibited a significant lower number of lymphocytes including B cells, CD4+ T cells, CD8+ T cells, and NK cells and remarkably higher concentrations of cytokines including interleukin-2 receptor, interleukin-6, interleukin-8, and tumor necrosis factor-α on admission compared with the survived subjects.
- A model based on the combination of interleukin-8 and the numbers of CD4+ T cells and NK cells showed a good performance in predicting the death of patients with COVID-19. When the threshold of 0.075 was used, the sensitivity and specificity of the prediction model were 90.20% and 90.26%, respectively.
- Meanwhile, interleukin-8 was found to have a potential value in predicting the length of hospital stay until death.
-Conclusions
-id="Par4"&gt;Significant increase of cytokines and decrease of lymphocyte subsets are found positively correlated with in-hospital death.
- A model based on the combination of three markers provides an attractive approach to predict the prognosis of COVID-19.
-Electronic supplementary material
-The online version of this article (10.1007/s10875-020-00821-7) contains supplementary material, which is available to authorized users.
-</t>
-  </si>
-  <si>
-    <t>[Ying%Luo%NULL%0,    Liyan%Mao%NULL%0,    Xu%Yuan%NULL%0,    Ying%Xue%NULL%0,    Qun%Lin%NULL%0,    Guoxing%Tang%NULL%0,    Huijuan%Song%NULL%0,    Feng%Wang%fengwang@tjh.tjmu.edu.cn%0,    Ziyong%Sun%zysun@tjh.tjmu.edu.cn%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-New York City emerged as an epicenter of the coronavirus disease 2019 (COVID-19) pandemic.
-Objective
-To describe the clinical characteristics and risk factors associated with mortality in a large patient population in the USA.
-Design
-id="Par3"&gt;Retrospective cohort study.
-Participants
-id="Par4"&gt;6493 patients who had laboratory-confirmed COVID-19 with clinical outcomes between March 13 and April 17, 2020, who were seen in one of the 8 hospitals and/or over 400 ambulatory practices in the New York City metropolitan area
-Main Measures
-id="Par5"&gt;Clinical characteristics and risk factors associated with in-hospital mortality.
-Key Results
-id="Par6"&gt;A total of 858 of 6493 (13.2%) patients in our total cohort died: 52/2785 (1.9%) ambulatory patients and 806/3708 (21.7%) hospitalized patients.
- Cox proportional hazard regression modeling showed an increased risk of in-hospital mortality associated with age older than 50 years (hazard ratio [HR] 2.34, CI 1.47–3.71), systolic blood pressure less than 90 mmHg (HR 1.38, CI 1.06–1.80), a respiratory rate greater than 24 per min (HR 1.43, CI 1.13–1.83), peripheral oxygen saturation less than 92% (HR 2.12, CI 1.56–2.88), estimated glomerular filtration rate less than 60 mL/min/1.73m2 (HR 1.80, CI 1.60–2.02), IL-6 greater than 100 pg/mL (HR 1.50, CI 1.12–2.03), D-dimer greater than 2 mcg/mL (HR 1.19, CI 1.02–1.39), and troponin greater than 0.03 ng/mL (HR 1.40, CI 1.23–1.62).
- Decreased risk of in-hospital mortality was associated with female sex (HR 0.84, CI 0.77–0.90), African American race (HR 0.78 CI 0.65–0.95), and hydroxychloroquine use (HR 0.53, CI 0.41–0.67).
-Conclusions
-id="Par7"&gt;Among patients with COVID-19, older age, male sex, hypotension, tachypnea, hypoxia, impaired renal function, elevated D-dimer, and elevated troponin were associated with increased in-hospital mortality and hydroxychloroquine use was associated with decreased in-hospital mortality.
-Electronic supplementary material
-The online version of this article (10.1007/s11606-020-05983-z) contains supplementary material, which is available to authorized users.
-</t>
-  </si>
-  <si>
-    <t>[Takahisa%Mikami%NULL%0,    Hirotaka%Miyashita%NULL%0,    Takayuki%Yamada%NULL%0,    Matthew%Harrington%NULL%0,    Daniel%Steinberg%NULL%0,    Andrew%Dunn%NULL%0,    Evan%Siau%Evan.Siau@mountsinai.org%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-The purpose of this study is to report the clinical features and outcomes of Black/African American (AA) and Latino Hispanic patients with Coronavirus disease 2019 (COVID-19) hospitalized in an inter-city hospital in the state of New Jersey.
-Methods
-This is a retrospective cohort study of AA and Latino Hispanic patients with COVID-19 admitted to a 665-bed quaternary care, teaching hospital located in Newark, New Jersey.
- The study included patients who had completed hospitalization between March 10, 2020, and April 10, 2020. We reviewed demographics, socioeconomic variables and incidence of in-hospital mortality and morbidity.
- Logistic regression was used to identify predictor of in-hospital death.
-Results
-id="Par3"&gt;Out of 416 patients, 251 (60%) had completed hospitalization as of April 10, 2020. The incidence of In-hospital mortality was 38.6% (n = 97).
- Most common symptoms at initial presentation were dyspnea 39% (n = 162) followed by cough 38%(n = 156) and fever 34% (n = 143).
- Patients were in the highest quartile for population’s density, number of housing units and disproportionately fell into the lowest median income quartile for the state of New Jersey.
- The incidence of septic shock, acute kidney injury (AKI) requiring hemodialysis and admission to an intensive care unit (ICU) was 24% (n = 59), 21% (n = 52), 33% (n = 82) respectively.
- Independent predictors of in-hospital mortality were older age, lower serum Hemoglobin &amp;lt; 10 mg/dl, elevated serum Ferritin and Creatinine phosphokinase levels &amp;gt; 1200 U/L and &amp;gt; 1000 U/L.
-Conclusions
-id="Par4"&gt;Findings from an inter-city hospital’s experience with COVID-19 among underserved minority populations showed that, more than one of every three patients were at risk for in-hospital death or morbidity.
- Older age and elevated inflammatory markers at presentation were associated with in-hospital death.
-</t>
-  </si>
-  <si>
-    <t>[Alexis K.%Okoh%alexis.okoh@rwjbh.org%0,    Christoph%Sossou%NULL%0,    Christoph%Sossou%NULL%0,    Neha S.%Dangayach%NULL%0,    Sherin%Meledathu%NULL%0,    Oluwakemi%Phillips%NULL%0,    Corinne%Raczek%NULL%0,    Michael%Patti%NULL%0,    Nathan%Kang%NULL%0,    Sameer A.%Hirji%NULL%0,    Charles%Cathcart%NULL%0,    Christian%Engell%NULL%0,    Marc%Cohen%NULL%0,    Sandhya%Nagarakanti%NULL%0,    Eliahu%Bishburg%NULL%0,    Harpreet S.%Grewal%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Previous studies have shown that Coronavirus Disease 2019 (COVID-19) patients with underlying comorbidities can have worse outcomes.
- However, the effect of hypertension on outcomes of COVID-19 patients remains unclear.
-Research question
-The aim of this study was to explore the effect of hypertension on the outcomes of patients with COVID-19 by using propensity score–matching (PSM) analysis.
-Study design and methods
-Participants enrolled in this study were patients with COVID-19 who had been hospitalized at the Central Hospital of Wuhan, China.
- Chronic comorbidities and laboratory and radiological data were reviewed; patient outcomes and lengths of stay were obtained from discharge records.
- We used the Cox proportional-hazard model (CPHM) to analyze the effect of hypertension on these patients’ outcomes and PSM analysis to further validate the abovementioned effect.
-Results
-id="Par4"&gt;A total of 226 patients with COVID-19 were enrolled in this study, of whom 176 survived and 50 died.
- The proportion of patients with hypertension among non-survivors was higher than that among survivors (26.70% vs.
- 74.00%; P &amp;lt; 0.001).
- Results obtained via CPHM showed that hypertension could increase risk of mortality in COVID-19 patients (hazard ratio 3.317; 95% CI [1.709–6.440]; P &amp;lt; 0.001).
- Increased D-dimer levels and higher ratio of neutrophils to lymphocytes (N/L) were also found to increase these patients’ mortality risk.
- After matching on propensity score, we still came to similar conclusions.
- After we applied the same method in critically ill patients, we found that hypertension also increased risk of death in patients with severe COVID-19.
-Conclusion
-id="Par5"&gt;Hypertension, increased D-dimer and the ratio of neutrophil to lymphocyte increased mortality in patients with COVID-19, with hypertension in particular.
-</t>
-  </si>
-  <si>
-    <t>[Qing%Yang%NULL%0,     Ying%Zhou%NULL%0,     Xinrong%Wang%NULL%0,     Shan%Gao%NULL%0,     Yang%Xiao%NULL%0,     Weiming%Zhang%NULL%0,     Yi%Hu%huyizxyy@163.com%0,     Yafei%Wang%wyf_527@163.com%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Since December 2019, the outbreak of COVID-19 caused a large number of hospital admissions in China.
- Many patients with COVID-19 have symptoms of acute respiratory distress syndrome, even are in danger of death.
- This is the first study to evaluate dynamic changes of D-Dimer and Neutrophil-Lymphocyte Count Ratio (NLR) as a prognostic utility in patients with COVID-19 for clinical use.
-Methods
-In a retrospective study, we collected data from 349 hospitalized patients who diagnosed as the infection of the COVID-19 in Wuhan Pulmonary Hospital.
- We used ROC curves and Cox regression analysis to explore critical value (optimal cut-off point associated with Youden index) and prognostic role of dynamic changes of D-Dimer and NLR.
-Results
-Three hundred forty-nine participants were enrolled in this study and the mortality rate of the patients with laboratory diagnosed COVID-19 was 14.9%.
- The initial and peak value of D-Dimer and NLR in deceased patients were higher statistically compared with survivors (P &amp;lt; 0.001).
- There was a more significant upward trend of D-Dimer and NLR during hospitalization in the deceased patients, initial D-Dimer and NLR were lower than the peak tests (MD) -25.23, 95% CI: − 31.81- -18.64, P &amp;lt; 0.001; (MD) -43.73, 95% CI:-59.28- -31.17, P &amp;lt; 0.001. The test showed a stronger correlation between hospitalization days, PCT and peak D-Dimer than initial D-Dimer.
- The areas under the ROC curves of peak D-Dimer and peak NLR tests were higher than the initial tests (0.94(95%CI: 0.90–0.98) vs.
- 0.80 (95% CI: 0.73–0.87); 0.93 (95%CI:0.90–0.96) vs.
- 0.86 (95%CI:0.82–0.91).
- The critical value of initial D-Dimer, peak D-Dimer, initial NLR and peak NLR was 0.73 mg/L, 3.78 mg/L,7.13 and 14.31 respectively.
- 35 (10.03%) patients were intubated.
- In the intubated patients, initial and peak D-Dimer and NLR were much higher than non-intubated patients (P &amp;lt; 0.001).
- The critical value of initial D-Dimer, peak D-Dimer, initial NLR and peak NLR in prognosticate of intubation was 0.73 mg/L, 12.75 mg/L,7.28 and 27.55. The multivariable Cox regression analysis showed that age (HR 1.04, 95% CI 1.00–1.07, P = 0.01), the peak D-Dimer (HR 1.03, 95% CI 1.01–1.04, P &amp;lt; 0.001) were prognostic factors for COVID-19 patients’ death.
-Conclusions
-id="Par4"&gt;To dynamically observe the ratio of D-Dimer and NLR was more valuable during the prognosis of COVID-19. The rising trend in D-Dimer and NLR, or the test results higher than the critical values may indicate a risk of death for participants with COVID-19.
-</t>
-  </si>
-  <si>
-    <t>[Wenjing%Ye%yewenjing@xinhuamed.com.cn%0,     Guoxi%Chen%4799082@qq.com%0,     Xiaopan%Li%xiaopanli0224@126.com%0,     Xing%Lan%474137452@qq.com%0,     Chen%Ji%c.ji.3@warwick.ac.uk%0,     Min%Hou%min-hou710@hotmail.com%0,     Di%Zhang%zhangdizhangdi1234@163.com%0,     Guangwang%Zeng%785663609@qq.com%0,     Yaling%Wang%953822402@qq.com%0,     Cheng%Xu%xucheng112358@126.com%0,     Weiwei%Lu%luweiwei100@126.com%0,     Ruolin%Cui%crlqwerty@163.com%0,     Yuyang%Cai%caiyuyang@sjtu.edu.cn%0,     Hai%Huang%1220775601@qq.com%0,     Ling%Yang%yangling01@xinhuamed.com.cn%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Data from the UK COVID-19 outbreak are emerging, and there are ongoing concerns about a disproportionate effect on ethnic minorities.
- There is very limited information on COVID-19 in the over-80s, and the rates of hospital-onset infections are unknown.
-Methods
-This was a retrospective cohort study from electronic case records of the first 450 patients admitted to our hospital with PCR-confirmed COVID-19, 77% of the total inpatient caseload to date.
- Demographic, clinical and biochemical data were extracted.
- The primary endpoint was death during the index hospital admission.
- The characteristics of all patients, those over 80 years of age and those with hospital-onset COVID-19 were examined.
-Results
-The median (IQR) age was 72 (56, 83), with 150 (33%) over 80 years old and 60% male.
- Presenting clinical and biochemical features were consistent with those reported elsewhere.
- The ethnic breakdown of patients admitted was similar to that of our underlying local population.
- Inpatient mortality was high at 38%.
-Conclusions
-id="Par5"&gt;Inpatient mortality was high, especially among the over-80s, who are more likely to present atypically.
- The ethnic composition of our caseload was similar to the underlying population.
- While a significant number of patients acquired COVID-19 while already in hospital, their outcomes were no worse.
-</t>
-  </si>
-  <si>
-    <t>[Simon E.%Brill%simon.brill@nhs.net%0,     Hannah C.%Jarvis%NULL%0,     Hannah C.%Jarvis%NULL%0,     Ezgi%Ozcan%NULL%0,     Thomas L. P.%Burns%NULL%0,     Rabia A.%Warraich%NULL%0,     Lisa J.%Amani%NULL%0,     Amina%Jaffer%NULL%0,     Stephanie%Paget%NULL%0,     Anand%Sivaramakrishnan%NULL%0,     Dean D.%Creer%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Introduction
-In the current study, we evaluated factors that increase the coronavirus disease (COVID-19) patient death rate by analyzing the data from two cohort hospitals.
- In addition, we studied whether underlying neurological diseases are risk factors for death.
-Methods
-In this retrospective cohort study, we included 103 adult inpatients (aged ≥ 18 years).
- We evaluated differences in demographic data between surviving and non-surviving COVID-19 patients.
-Results
-In a multivariate logistic analysis, age and the presence of chronic lung disease and Alzheimer’s dementia (AD) were the only significant parameters for predicting COVID-19 non-survival (p &amp;lt; 0.05).
- However, hypertension, coronary vascular disease, dyslipidemia, chronic kidney disease, diabetes, and history of taking angiotensin II receptor blockers (ARBs) or angiotensin-converting enzyme (ACE) inhibitors, as well as nonsteroidal anti-inflammatory drugs (NSAIDs), were not significantly associated with the death of COVID-19 patients.
- The optimal cutoff value obtained from the maximum Youden index was 70 (sensitivity, 80.77%; specificity, 61.04%), and the odds ratio of non-survival increased 1.055 fold for every year of age.
-Conclusions
-id="Par4"&gt;Clinicians should closely monitor and manage the symptoms of COVID-19 patients who are over the age of 70 years or have chronic lung disease or AD.
-</t>
-  </si>
-  <si>
-    <t>[Jong-moon%Hwang%NULL%0,     Ju-Hyun%Kim%NULL%0,     Jin-Sung%Park%NULL%0,     Min Cheol%Chang%wheel633@ynu.ac.kr%0,     Donghwi%Park%bdome@hanmail.net%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-There are currently rare satisfactory markers for predicting the death of patients with coronavirus disease 2019 (COVID-19).
- The aim of this study is to establish a model based on the combination of serum cytokines and lymphocyte subsets for predicting the prognosis of the disease.
-Methods
-A total of 739 participants with COVID-19 were enrolled at Tongji Hospital from February to April 2020 and classified into fatal (n = 51) and survived (n = 688) groups according to the patient’s outcome.
- Cytokine profile and lymphocyte subset analysis was performed simultaneously.
-Results
-The fatal patients exhibited a significant lower number of lymphocytes including B cells, CD4+ T cells, CD8+ T cells, and NK cells and remarkably higher concentrations of cytokines including interleukin-2 receptor, interleukin-6, interleukin-8, and tumor necrosis factor-α on admission compared with the survived subjects.
- A model based on the combination of interleukin-8 and the numbers of CD4+ T cells and NK cells showed a good performance in predicting the death of patients with COVID-19. When the threshold of 0.075 was used, the sensitivity and specificity of the prediction model were 90.20% and 90.26%, respectively.
- Meanwhile, interleukin-8 was found to have a potential value in predicting the length of hospital stay until death.
-Conclusions
-id="Par4"&gt;Significant increase of cytokines and decrease of lymphocyte subsets are found positively correlated with in-hospital death.
- A model based on the combination of three markers provides an attractive approach to predict the prognosis of COVID-19.
-Electronic supplementary material
-The online version of this article (10.1007/s10875-020-00821-7) contains supplementary material, which is available to authorized users.
-</t>
-  </si>
-  <si>
-    <t>[Ying%Luo%NULL%0,     Liyan%Mao%NULL%0,     Xu%Yuan%NULL%0,     Ying%Xue%NULL%0,     Qun%Lin%NULL%0,     Guoxing%Tang%NULL%0,     Huijuan%Song%NULL%0,     Feng%Wang%fengwang@tjh.tjmu.edu.cn%0,     Ziyong%Sun%zysun@tjh.tjmu.edu.cn%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-New York City emerged as an epicenter of the coronavirus disease 2019 (COVID-19) pandemic.
-Objective
-To describe the clinical characteristics and risk factors associated with mortality in a large patient population in the USA.
-Design
-Retrospective cohort study.
-Participants
-id="Par4"&gt;6493 patients who had laboratory-confirmed COVID-19 with clinical outcomes between March 13 and April 17, 2020, who were seen in one of the 8 hospitals and/or over 400 ambulatory practices in the New York City metropolitan area
-Main Measures
-id="Par5"&gt;Clinical characteristics and risk factors associated with in-hospital mortality.
-Key Results
-id="Par6"&gt;A total of 858 of 6493 (13.2%) patients in our total cohort died: 52/2785 (1.9%) ambulatory patients and 806/3708 (21.7%) hospitalized patients.
- Cox proportional hazard regression modeling showed an increased risk of in-hospital mortality associated with age older than 50 years (hazard ratio [HR] 2.34, CI 1.47–3.71), systolic blood pressure less than 90 mmHg (HR 1.38, CI 1.06–1.80), a respiratory rate greater than 24 per min (HR 1.43, CI 1.13–1.83), peripheral oxygen saturation less than 92% (HR 2.12, CI 1.56–2.88), estimated glomerular filtration rate less than 60 mL/min/1.73m2 (HR 1.80, CI 1.60–2.02), IL-6 greater than 100 pg/mL (HR 1.50, CI 1.12–2.03), D-dimer greater than 2 mcg/mL (HR 1.19, CI 1.02–1.39), and troponin greater than 0.03 ng/mL (HR 1.40, CI 1.23–1.62).
- Decreased risk of in-hospital mortality was associated with female sex (HR 0.84, CI 0.77–0.90), African American race (HR 0.78 CI 0.65–0.95), and hydroxychloroquine use (HR 0.53, CI 0.41–0.67).
-Conclusions
-id="Par7"&gt;Among patients with COVID-19, older age, male sex, hypotension, tachypnea, hypoxia, impaired renal function, elevated D-dimer, and elevated troponin were associated with increased in-hospital mortality and hydroxychloroquine use was associated with decreased in-hospital mortality.
-Electronic supplementary material
-The online version of this article (10.1007/s11606-020-05983-z) contains supplementary material, which is available to authorized users.
-</t>
-  </si>
-  <si>
-    <t>[Takahisa%Mikami%NULL%0,     Hirotaka%Miyashita%NULL%0,     Takayuki%Yamada%NULL%0,     Matthew%Harrington%NULL%0,     Daniel%Steinberg%NULL%0,     Andrew%Dunn%NULL%0,     Evan%Siau%Evan.Siau@mountsinai.org%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-The purpose of this study is to report the clinical features and outcomes of Black/African American (AA) and Latino Hispanic patients with Coronavirus disease 2019 (COVID-19) hospitalized in an inter-city hospital in the state of New Jersey.
-Methods
-This is a retrospective cohort study of AA and Latino Hispanic patients with COVID-19 admitted to a 665-bed quaternary care, teaching hospital located in Newark, New Jersey.
- The study included patients who had completed hospitalization between March 10, 2020, and April 10, 2020. We reviewed demographics, socioeconomic variables and incidence of in-hospital mortality and morbidity.
- Logistic regression was used to identify predictor of in-hospital death.
-Results
-Out of 416 patients, 251 (60%) had completed hospitalization as of April 10, 2020. The incidence of In-hospital mortality was 38.6% (n = 97).
- Most common symptoms at initial presentation were dyspnea 39% (n = 162) followed by cough 38%(n = 156) and fever 34% (n = 143).
- Patients were in the highest quartile for population’s density, number of housing units and disproportionately fell into the lowest median income quartile for the state of New Jersey.
- The incidence of septic shock, acute kidney injury (AKI) requiring hemodialysis and admission to an intensive care unit (ICU) was 24% (n = 59), 21% (n = 52), 33% (n = 82) respectively.
- Independent predictors of in-hospital mortality were older age, lower serum Hemoglobin &amp;lt; 10 mg/dl, elevated serum Ferritin and Creatinine phosphokinase levels &amp;gt; 1200 U/L and &amp;gt; 1000 U/L.
-Conclusions
-id="Par4"&gt;Findings from an inter-city hospital’s experience with COVID-19 among underserved minority populations showed that, more than one of every three patients were at risk for in-hospital death or morbidity.
- Older age and elevated inflammatory markers at presentation were associated with in-hospital death.
-</t>
-  </si>
-  <si>
-    <t>[Alexis K.%Okoh%alexis.okoh@rwjbh.org%0,     Christoph%Sossou%NULL%0,     Christoph%Sossou%NULL%0,     Neha S.%Dangayach%NULL%0,     Sherin%Meledathu%NULL%0,     Oluwakemi%Phillips%NULL%0,     Corinne%Raczek%NULL%0,     Michael%Patti%NULL%0,     Nathan%Kang%NULL%0,     Sameer A.%Hirji%NULL%0,     Charles%Cathcart%NULL%0,     Christian%Engell%NULL%0,     Marc%Cohen%NULL%0,     Sandhya%Nagarakanti%NULL%0,     Eliahu%Bishburg%NULL%0,     Harpreet S.%Grewal%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Previous studies have shown that Coronavirus Disease 2019 (COVID-19) patients with underlying comorbidities can have worse outcomes.
- However, the effect of hypertension on outcomes of COVID-19 patients remains unclear.
-Research question
-The aim of this study was to explore the effect of hypertension on the outcomes of patients with COVID-19 by using propensity score–matching (PSM) analysis.
-Study design and methods
-Participants enrolled in this study were patients with COVID-19 who had been hospitalized at the Central Hospital of Wuhan, China.
- Chronic comorbidities and laboratory and radiological data were reviewed; patient outcomes and lengths of stay were obtained from discharge records.
- We used the Cox proportional-hazard model (CPHM) to analyze the effect of hypertension on these patients’ outcomes and PSM analysis to further validate the abovementioned effect.
-Results
-A total of 226 patients with COVID-19 were enrolled in this study, of whom 176 survived and 50 died.
- The proportion of patients with hypertension among non-survivors was higher than that among survivors (26.70% vs.
- 74.00%; P &amp;lt; 0.001).
- Results obtained via CPHM showed that hypertension could increase risk of mortality in COVID-19 patients (hazard ratio 3.317; 95% CI [1.709–6.440]; P &amp;lt; 0.001).
- Increased D-dimer levels and higher ratio of neutrophils to lymphocytes (N/L) were also found to increase these patients’ mortality risk.
- After matching on propensity score, we still came to similar conclusions.
- After we applied the same method in critically ill patients, we found that hypertension also increased risk of death in patients with severe COVID-19.
-Conclusion
-id="Par5"&gt;Hypertension, increased D-dimer and the ratio of neutrophil to lymphocyte increased mortality in patients with COVID-19, with hypertension in particular.
-</t>
-  </si>
-  <si>
-    <t>[Qing%Yang%NULL%0,      Ying%Zhou%NULL%0,      Xinrong%Wang%NULL%0,      Shan%Gao%NULL%0,      Yang%Xiao%NULL%0,      Weiming%Zhang%NULL%0,      Yi%Hu%huyizxyy@163.com%0,      Yafei%Wang%wyf_527@163.com%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Since December 2019, the outbreak of COVID-19 caused a large number of hospital admissions in China.
- Many patients with COVID-19 have symptoms of acute respiratory distress syndrome, even are in danger of death.
- This is the first study to evaluate dynamic changes of D-Dimer and Neutrophil-Lymphocyte Count Ratio (NLR) as a prognostic utility in patients with COVID-19 for clinical use.
-Methods
-In a retrospective study, we collected data from 349 hospitalized patients who diagnosed as the infection of the COVID-19 in Wuhan Pulmonary Hospital.
- We used ROC curves and Cox regression analysis to explore critical value (optimal cut-off point associated with Youden index) and prognostic role of dynamic changes of D-Dimer and NLR.
-Results
-Three hundred forty-nine participants were enrolled in this study and the mortality rate of the patients with laboratory diagnosed COVID-19 was 14.9%.
- The initial and peak value of D-Dimer and NLR in deceased patients were higher statistically compared with survivors (P &amp;lt; 0.001).
- There was a more significant upward trend of D-Dimer and NLR during hospitalization in the deceased patients, initial D-Dimer and NLR were lower than the peak tests (MD) -25.23, 95% CI: − 31.81- -18.64, P &amp;lt; 0.001; (MD) -43.73, 95% CI:-59.28- -31.17, P &amp;lt; 0.001. The test showed a stronger correlation between hospitalization days, PCT and peak D-Dimer than initial D-Dimer.
- The areas under the ROC curves of peak D-Dimer and peak NLR tests were higher than the initial tests (0.94(95%CI: 0.90–0.98) vs.
- 0.80 (95% CI: 0.73–0.87); 0.93 (95%CI:0.90–0.96) vs.
- 0.86 (95%CI:0.82–0.91).
- The critical value of initial D-Dimer, peak D-Dimer, initial NLR and peak NLR was 0.73 mg/L, 3.78 mg/L,7.13 and 14.31 respectively.
- 35 (10.03%) patients were intubated.
- In the intubated patients, initial and peak D-Dimer and NLR were much higher than non-intubated patients (P &amp;lt; 0.001).
- The critical value of initial D-Dimer, peak D-Dimer, initial NLR and peak NLR in prognosticate of intubation was 0.73 mg/L, 12.75 mg/L,7.28 and 27.55. The multivariable Cox regression analysis showed that age (HR 1.04, 95% CI 1.00–1.07, P = 0.01), the peak D-Dimer (HR 1.03, 95% CI 1.01–1.04, P &amp;lt; 0.001) were prognostic factors for COVID-19 patients’ death.
-Conclusions
-To dynamically observe the ratio of D-Dimer and NLR was more valuable during the prognosis of COVID-19. The rising trend in D-Dimer and NLR, or the test results higher than the critical values may indicate a risk of death for participants with COVID-19.
-</t>
-  </si>
-  <si>
-    <t>[Wenjing%Ye%yewenjing@xinhuamed.com.cn%0,      Guoxi%Chen%4799082@qq.com%0,      Xiaopan%Li%xiaopanli0224@126.com%0,      Xing%Lan%474137452@qq.com%0,      Chen%Ji%c.ji.3@warwick.ac.uk%0,      Min%Hou%min-hou710@hotmail.com%0,      Di%Zhang%zhangdizhangdi1234@163.com%0,      Guangwang%Zeng%785663609@qq.com%0,      Yaling%Wang%953822402@qq.com%0,      Cheng%Xu%xucheng112358@126.com%0,      Weiwei%Lu%luweiwei100@126.com%0,      Ruolin%Cui%crlqwerty@163.com%0,      Yuyang%Cai%caiyuyang@sjtu.edu.cn%0,      Hai%Huang%1220775601@qq.com%0,      Ling%Yang%yangling01@xinhuamed.com.cn%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Data from the UK COVID-19 outbreak are emerging, and there are ongoing concerns about a disproportionate effect on ethnic minorities.
- There is very limited information on COVID-19 in the over-80s, and the rates of hospital-onset infections are unknown.
-Methods
-This was a retrospective cohort study from electronic case records of the first 450 patients admitted to our hospital with PCR-confirmed COVID-19, 77% of the total inpatient caseload to date.
- Demographic, clinical and biochemical data were extracted.
- The primary endpoint was death during the index hospital admission.
- The characteristics of all patients, those over 80 years of age and those with hospital-onset COVID-19 were examined.
-Results
-The median (IQR) age was 72 (56, 83), with 150 (33%) over 80 years old and 60% male.
- Presenting clinical and biochemical features were consistent with those reported elsewhere.
- The ethnic breakdown of patients admitted was similar to that of our underlying local population.
- Inpatient mortality was high at 38%.
-Conclusions
-Inpatient mortality was high, especially among the over-80s, who are more likely to present atypically.
- The ethnic composition of our caseload was similar to the underlying population.
- While a significant number of patients acquired COVID-19 while already in hospital, their outcomes were no worse.
-</t>
-  </si>
-  <si>
-    <t>[Simon E.%Brill%simon.brill@nhs.net%0,      Hannah C.%Jarvis%NULL%0,      Hannah C.%Jarvis%NULL%0,      Ezgi%Ozcan%NULL%0,      Thomas L. P.%Burns%NULL%0,      Rabia A.%Warraich%NULL%0,      Lisa J.%Amani%NULL%0,      Amina%Jaffer%NULL%0,      Stephanie%Paget%NULL%0,      Anand%Sivaramakrishnan%NULL%0,      Dean D.%Creer%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Introduction
-In the current study, we evaluated factors that increase the coronavirus disease (COVID-19) patient death rate by analyzing the data from two cohort hospitals.
- In addition, we studied whether underlying neurological diseases are risk factors for death.
-Methods
-In this retrospective cohort study, we included 103 adult inpatients (aged ≥ 18 years).
- We evaluated differences in demographic data between surviving and non-surviving COVID-19 patients.
-Results
-In a multivariate logistic analysis, age and the presence of chronic lung disease and Alzheimer’s dementia (AD) were the only significant parameters for predicting COVID-19 non-survival (p &amp;lt; 0.05).
- However, hypertension, coronary vascular disease, dyslipidemia, chronic kidney disease, diabetes, and history of taking angiotensin II receptor blockers (ARBs) or angiotensin-converting enzyme (ACE) inhibitors, as well as nonsteroidal anti-inflammatory drugs (NSAIDs), were not significantly associated with the death of COVID-19 patients.
- The optimal cutoff value obtained from the maximum Youden index was 70 (sensitivity, 80.77%; specificity, 61.04%), and the odds ratio of non-survival increased 1.055 fold for every year of age.
-Conclusions
-Clinicians should closely monitor and manage the symptoms of COVID-19 patients who are over the age of 70 years or have chronic lung disease or AD.
-</t>
-  </si>
-  <si>
-    <t>[Jong-moon%Hwang%NULL%0,      Ju-Hyun%Kim%NULL%0,      Jin-Sung%Park%NULL%0,      Min Cheol%Chang%wheel633@ynu.ac.kr%0,      Donghwi%Park%bdome@hanmail.net%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-There are currently rare satisfactory markers for predicting the death of patients with coronavirus disease 2019 (COVID-19).
- The aim of this study is to establish a model based on the combination of serum cytokines and lymphocyte subsets for predicting the prognosis of the disease.
-Methods
-A total of 739 participants with COVID-19 were enrolled at Tongji Hospital from February to April 2020 and classified into fatal (n = 51) and survived (n = 688) groups according to the patient’s outcome.
- Cytokine profile and lymphocyte subset analysis was performed simultaneously.
-Results
-The fatal patients exhibited a significant lower number of lymphocytes including B cells, CD4+ T cells, CD8+ T cells, and NK cells and remarkably higher concentrations of cytokines including interleukin-2 receptor, interleukin-6, interleukin-8, and tumor necrosis factor-α on admission compared with the survived subjects.
- A model based on the combination of interleukin-8 and the numbers of CD4+ T cells and NK cells showed a good performance in predicting the death of patients with COVID-19. When the threshold of 0.075 was used, the sensitivity and specificity of the prediction model were 90.20% and 90.26%, respectively.
- Meanwhile, interleukin-8 was found to have a potential value in predicting the length of hospital stay until death.
-Conclusions
-Significant increase of cytokines and decrease of lymphocyte subsets are found positively correlated with in-hospital death.
- A model based on the combination of three markers provides an attractive approach to predict the prognosis of COVID-19.
-Electronic supplementary material
-The online version of this article (10.1007/s10875-020-00821-7) contains supplementary material, which is available to authorized users.
-</t>
-  </si>
-  <si>
-    <t>[Ying%Luo%NULL%0,      Liyan%Mao%NULL%0,      Xu%Yuan%NULL%0,      Ying%Xue%NULL%0,      Qun%Lin%NULL%0,      Guoxing%Tang%NULL%0,      Huijuan%Song%NULL%0,      Feng%Wang%fengwang@tjh.tjmu.edu.cn%0,      Ziyong%Sun%zysun@tjh.tjmu.edu.cn%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-New York City emerged as an epicenter of the coronavirus disease 2019 (COVID-19) pandemic.
-Objective
-To describe the clinical characteristics and risk factors associated with mortality in a large patient population in the USA.
-Design
-Retrospective cohort study.
-Participants
-6493 patients who had laboratory-confirmed COVID-19 with clinical outcomes between March 13 and April 17, 2020, who were seen in one of the 8 hospitals and/or over 400 ambulatory practices in the New York City metropolitan area
-Main Measures
-id="Par5"&gt;Clinical characteristics and risk factors associated with in-hospital mortality.
-Key Results
-id="Par6"&gt;A total of 858 of 6493 (13.2%) patients in our total cohort died: 52/2785 (1.9%) ambulatory patients and 806/3708 (21.7%) hospitalized patients.
- Cox proportional hazard regression modeling showed an increased risk of in-hospital mortality associated with age older than 50 years (hazard ratio [HR] 2.34, CI 1.47–3.71), systolic blood pressure less than 90 mmHg (HR 1.38, CI 1.06–1.80), a respiratory rate greater than 24 per min (HR 1.43, CI 1.13–1.83), peripheral oxygen saturation less than 92% (HR 2.12, CI 1.56–2.88), estimated glomerular filtration rate less than 60 mL/min/1.73m2 (HR 1.80, CI 1.60–2.02), IL-6 greater than 100 pg/mL (HR 1.50, CI 1.12–2.03), D-dimer greater than 2 mcg/mL (HR 1.19, CI 1.02–1.39), and troponin greater than 0.03 ng/mL (HR 1.40, CI 1.23–1.62).
- Decreased risk of in-hospital mortality was associated with female sex (HR 0.84, CI 0.77–0.90), African American race (HR 0.78 CI 0.65–0.95), and hydroxychloroquine use (HR 0.53, CI 0.41–0.67).
-Conclusions
-id="Par7"&gt;Among patients with COVID-19, older age, male sex, hypotension, tachypnea, hypoxia, impaired renal function, elevated D-dimer, and elevated troponin were associated with increased in-hospital mortality and hydroxychloroquine use was associated with decreased in-hospital mortality.
-Electronic supplementary material
-The online version of this article (10.1007/s11606-020-05983-z) contains supplementary material, which is available to authorized users.
-</t>
-  </si>
-  <si>
-    <t>[Takahisa%Mikami%NULL%0,      Hirotaka%Miyashita%NULL%0,      Takayuki%Yamada%NULL%0,      Matthew%Harrington%NULL%0,      Daniel%Steinberg%NULL%0,      Andrew%Dunn%NULL%0,      Evan%Siau%Evan.Siau@mountsinai.org%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-The purpose of this study is to report the clinical features and outcomes of Black/African American (AA) and Latino Hispanic patients with Coronavirus disease 2019 (COVID-19) hospitalized in an inter-city hospital in the state of New Jersey.
-Methods
-This is a retrospective cohort study of AA and Latino Hispanic patients with COVID-19 admitted to a 665-bed quaternary care, teaching hospital located in Newark, New Jersey.
- The study included patients who had completed hospitalization between March 10, 2020, and April 10, 2020. We reviewed demographics, socioeconomic variables and incidence of in-hospital mortality and morbidity.
- Logistic regression was used to identify predictor of in-hospital death.
-Results
-Out of 416 patients, 251 (60%) had completed hospitalization as of April 10, 2020. The incidence of In-hospital mortality was 38.6% (n = 97).
- Most common symptoms at initial presentation were dyspnea 39% (n = 162) followed by cough 38%(n = 156) and fever 34% (n = 143).
- Patients were in the highest quartile for population’s density, number of housing units and disproportionately fell into the lowest median income quartile for the state of New Jersey.
- The incidence of septic shock, acute kidney injury (AKI) requiring hemodialysis and admission to an intensive care unit (ICU) was 24% (n = 59), 21% (n = 52), 33% (n = 82) respectively.
- Independent predictors of in-hospital mortality were older age, lower serum Hemoglobin &amp;lt; 10 mg/dl, elevated serum Ferritin and Creatinine phosphokinase levels &amp;gt; 1200 U/L and &amp;gt; 1000 U/L.
-Conclusions
-Findings from an inter-city hospital’s experience with COVID-19 among underserved minority populations showed that, more than one of every three patients were at risk for in-hospital death or morbidity.
- Older age and elevated inflammatory markers at presentation were associated with in-hospital death.
-</t>
-  </si>
-  <si>
-    <t>[Alexis K.%Okoh%alexis.okoh@rwjbh.org%0,      Christoph%Sossou%NULL%0,      Christoph%Sossou%NULL%0,      Neha S.%Dangayach%NULL%0,      Sherin%Meledathu%NULL%0,      Oluwakemi%Phillips%NULL%0,      Corinne%Raczek%NULL%0,      Michael%Patti%NULL%0,      Nathan%Kang%NULL%0,      Sameer A.%Hirji%NULL%0,      Charles%Cathcart%NULL%0,      Christian%Engell%NULL%0,      Marc%Cohen%NULL%0,      Sandhya%Nagarakanti%NULL%0,      Eliahu%Bishburg%NULL%0,      Harpreet S.%Grewal%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Previous studies have shown that Coronavirus Disease 2019 (COVID-19) patients with underlying comorbidities can have worse outcomes.
- However, the effect of hypertension on outcomes of COVID-19 patients remains unclear.
-Research question
-The aim of this study was to explore the effect of hypertension on the outcomes of patients with COVID-19 by using propensity score–matching (PSM) analysis.
-Study design and methods
-Participants enrolled in this study were patients with COVID-19 who had been hospitalized at the Central Hospital of Wuhan, China.
- Chronic comorbidities and laboratory and radiological data were reviewed; patient outcomes and lengths of stay were obtained from discharge records.
- We used the Cox proportional-hazard model (CPHM) to analyze the effect of hypertension on these patients’ outcomes and PSM analysis to further validate the abovementioned effect.
-Results
-A total of 226 patients with COVID-19 were enrolled in this study, of whom 176 survived and 50 died.
- The proportion of patients with hypertension among non-survivors was higher than that among survivors (26.70% vs.
- 74.00%; P &amp;lt; 0.001).
- Results obtained via CPHM showed that hypertension could increase risk of mortality in COVID-19 patients (hazard ratio 3.317; 95% CI [1.709–6.440]; P &amp;lt; 0.001).
- Increased D-dimer levels and higher ratio of neutrophils to lymphocytes (N/L) were also found to increase these patients’ mortality risk.
- After matching on propensity score, we still came to similar conclusions.
- After we applied the same method in critically ill patients, we found that hypertension also increased risk of death in patients with severe COVID-19.
-Conclusion
-Hypertension, increased D-dimer and the ratio of neutrophil to lymphocyte increased mortality in patients with COVID-19, with hypertension in particular.
-</t>
-  </si>
-  <si>
-    <t>[Qing%Yang%NULL%0,       Ying%Zhou%NULL%0,       Xinrong%Wang%NULL%0,       Shan%Gao%NULL%0,       Yang%Xiao%NULL%0,       Weiming%Zhang%NULL%0,       Yi%Hu%huyizxyy@163.com%0,       Yafei%Wang%wyf_527@163.com%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-New York City emerged as an epicenter of the coronavirus disease 2019 (COVID-19) pandemic.
-Objective
-To describe the clinical characteristics and risk factors associated with mortality in a large patient population in the USA.
-Design
-Retrospective cohort study.
-Participants
-6493 patients who had laboratory-confirmed COVID-19 with clinical outcomes between March 13 and April 17, 2020, who were seen in one of the 8 hospitals and/or over 400 ambulatory practices in the New York City metropolitan area
-Main Measures
-Clinical characteristics and risk factors associated with in-hospital mortality.
-Key Results
-id="Par6"&gt;A total of 858 of 6493 (13.2%) patients in our total cohort died: 52/2785 (1.9%) ambulatory patients and 806/3708 (21.7%) hospitalized patients.
- Cox proportional hazard regression modeling showed an increased risk of in-hospital mortality associated with age older than 50 years (hazard ratio [HR] 2.34, CI 1.47–3.71), systolic blood pressure less than 90 mmHg (HR 1.38, CI 1.06–1.80), a respiratory rate greater than 24 per min (HR 1.43, CI 1.13–1.83), peripheral oxygen saturation less than 92% (HR 2.12, CI 1.56–2.88), estimated glomerular filtration rate less than 60 mL/min/1.73m2 (HR 1.80, CI 1.60–2.02), IL-6 greater than 100 pg/mL (HR 1.50, CI 1.12–2.03), D-dimer greater than 2 mcg/mL (HR 1.19, CI 1.02–1.39), and troponin greater than 0.03 ng/mL (HR 1.40, CI 1.23–1.62).
- Decreased risk of in-hospital mortality was associated with female sex (HR 0.84, CI 0.77–0.90), African American race (HR 0.78 CI 0.65–0.95), and hydroxychloroquine use (HR 0.53, CI 0.41–0.67).
-Conclusions
-id="Par7"&gt;Among patients with COVID-19, older age, male sex, hypotension, tachypnea, hypoxia, impaired renal function, elevated D-dimer, and elevated troponin were associated with increased in-hospital mortality and hydroxychloroquine use was associated with decreased in-hospital mortality.
-Electronic supplementary material
-The online version of this article (10.1007/s11606-020-05983-z) contains supplementary material, which is available to authorized users.
-</t>
-  </si>
-  <si>
-    <t>[Takahisa%Mikami%NULL%0,       Hirotaka%Miyashita%NULL%0,       Takayuki%Yamada%NULL%0,       Matthew%Harrington%NULL%0,       Daniel%Steinberg%NULL%0,       Andrew%Dunn%NULL%0,       Evan%Siau%Evan.Siau@mountsinai.org%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-New York City emerged as an epicenter of the coronavirus disease 2019 (COVID-19) pandemic.
-Objective
-To describe the clinical characteristics and risk factors associated with mortality in a large patient population in the USA.
-Design
-Retrospective cohort study.
-Participants
-6493 patients who had laboratory-confirmed COVID-19 with clinical outcomes between March 13 and April 17, 2020, who were seen in one of the 8 hospitals and/or over 400 ambulatory practices in the New York City metropolitan area
-Main Measures
-Clinical characteristics and risk factors associated with in-hospital mortality.
-Key Results
-A total of 858 of 6493 (13.2%) patients in our total cohort died: 52/2785 (1.9%) ambulatory patients and 806/3708 (21.7%) hospitalized patients.
- Cox proportional hazard regression modeling showed an increased risk of in-hospital mortality associated with age older than 50 years (hazard ratio [HR] 2.34, CI 1.47–3.71), systolic blood pressure less than 90 mmHg (HR 1.38, CI 1.06–1.80), a respiratory rate greater than 24 per min (HR 1.43, CI 1.13–1.83), peripheral oxygen saturation less than 92% (HR 2.12, CI 1.56–2.88), estimated glomerular filtration rate less than 60 mL/min/1.73m2 (HR 1.80, CI 1.60–2.02), IL-6 greater than 100 pg/mL (HR 1.50, CI 1.12–2.03), D-dimer greater than 2 mcg/mL (HR 1.19, CI 1.02–1.39), and troponin greater than 0.03 ng/mL (HR 1.40, CI 1.23–1.62).
- Decreased risk of in-hospital mortality was associated with female sex (HR 0.84, CI 0.77–0.90), African American race (HR 0.78 CI 0.65–0.95), and hydroxychloroquine use (HR 0.53, CI 0.41–0.67).
-Conclusions
-id="Par7"&gt;Among patients with COVID-19, older age, male sex, hypotension, tachypnea, hypoxia, impaired renal function, elevated D-dimer, and elevated troponin were associated with increased in-hospital mortality and hydroxychloroquine use was associated with decreased in-hospital mortality.
-Electronic supplementary material
-The online version of this article (10.1007/s11606-020-05983-z) contains supplementary material, which is available to authorized users.
-</t>
-  </si>
-  <si>
-    <t>[Takahisa%Mikami%NULL%0,        Hirotaka%Miyashita%NULL%0,        Takayuki%Yamada%NULL%0,        Matthew%Harrington%NULL%0,        Daniel%Steinberg%NULL%0,        Andrew%Dunn%NULL%0,        Evan%Siau%Evan.Siau@mountsinai.org%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-New York City emerged as an epicenter of the coronavirus disease 2019 (COVID-19) pandemic.
-Objective
-To describe the clinical characteristics and risk factors associated with mortality in a large patient population in the USA.
-Design
-Retrospective cohort study.
-Participants
-6493 patients who had laboratory-confirmed COVID-19 with clinical outcomes between March 13 and April 17, 2020, who were seen in one of the 8 hospitals and/or over 400 ambulatory practices in the New York City metropolitan area
-Main Measures
-Clinical characteristics and risk factors associated with in-hospital mortality.
-Key Results
-A total of 858 of 6493 (13.2%) patients in our total cohort died: 52/2785 (1.9%) ambulatory patients and 806/3708 (21.7%) hospitalized patients.
- Cox proportional hazard regression modeling showed an increased risk of in-hospital mortality associated with age older than 50 years (hazard ratio [HR] 2.34, CI 1.47–3.71), systolic blood pressure less than 90 mmHg (HR 1.38, CI 1.06–1.80), a respiratory rate greater than 24 per min (HR 1.43, CI 1.13–1.83), peripheral oxygen saturation less than 92% (HR 2.12, CI 1.56–2.88), estimated glomerular filtration rate less than 60 mL/min/1.73m2 (HR 1.80, CI 1.60–2.02), IL-6 greater than 100 pg/mL (HR 1.50, CI 1.12–2.03), D-dimer greater than 2 mcg/mL (HR 1.19, CI 1.02–1.39), and troponin greater than 0.03 ng/mL (HR 1.40, CI 1.23–1.62).
- Decreased risk of in-hospital mortality was associated with female sex (HR 0.84, CI 0.77–0.90), African American race (HR 0.78 CI 0.65–0.95), and hydroxychloroquine use (HR 0.53, CI 0.41–0.67).
-Conclusions
-Among patients with COVID-19, older age, male sex, hypotension, tachypnea, hypoxia, impaired renal function, elevated D-dimer, and elevated troponin were associated with increased in-hospital mortality and hydroxychloroquine use was associated with decreased in-hospital mortality.
-Electronic supplementary material
-The online version of this article (10.1007/s11606-020-05983-z) contains supplementary material, which is available to authorized users.
-</t>
-  </si>
-  <si>
-    <t>[Takahisa%Mikami%NULL%0,         Hirotaka%Miyashita%NULL%0,         Takayuki%Yamada%NULL%0,         Matthew%Harrington%NULL%0,         Daniel%Steinberg%NULL%0,         Andrew%Dunn%NULL%0,         Evan%Siau%Evan.Siau@mountsinai.org%0]</t>
   </si>
 </sst>
 </file>
@@ -3233,10 +2504,10 @@
         <v>127</v>
       </c>
       <c r="D15" t="s">
-        <v>427</v>
+        <v>128</v>
       </c>
       <c r="E15" t="s">
-        <v>428</v>
+        <v>326</v>
       </c>
       <c r="F15" t="s">
         <v>130</v>
@@ -3285,10 +2556,10 @@
         <v>136</v>
       </c>
       <c r="D17" t="s">
-        <v>415</v>
+        <v>137</v>
       </c>
       <c r="E17" t="s">
-        <v>416</v>
+        <v>328</v>
       </c>
       <c r="F17" t="s">
         <v>139</v>
@@ -3519,10 +2790,10 @@
         <v>171</v>
       </c>
       <c r="D26" t="s">
-        <v>417</v>
+        <v>172</v>
       </c>
       <c r="E26" t="s">
-        <v>418</v>
+        <v>339</v>
       </c>
       <c r="F26" t="s">
         <v>174</v>
@@ -3961,10 +3232,10 @@
         <v>244</v>
       </c>
       <c r="D43" t="s">
-        <v>419</v>
+        <v>245</v>
       </c>
       <c r="E43" t="s">
-        <v>420</v>
+        <v>357</v>
       </c>
       <c r="F43" t="s">
         <v>247</v>
@@ -4247,10 +3518,10 @@
         <v>287</v>
       </c>
       <c r="D54" t="s">
-        <v>421</v>
+        <v>288</v>
       </c>
       <c r="E54" t="s">
-        <v>422</v>
+        <v>366</v>
       </c>
       <c r="F54" t="s">
         <v>290</v>
@@ -4325,10 +3596,10 @@
         <v>301</v>
       </c>
       <c r="D57" t="s">
-        <v>433</v>
+        <v>302</v>
       </c>
       <c r="E57" t="s">
-        <v>434</v>
+        <v>369</v>
       </c>
       <c r="F57" t="s">
         <v>304</v>
@@ -4351,10 +3622,10 @@
         <v>305</v>
       </c>
       <c r="D58" t="s">
-        <v>425</v>
+        <v>306</v>
       </c>
       <c r="E58" t="s">
-        <v>426</v>
+        <v>370</v>
       </c>
       <c r="F58" t="s">
         <v>308</v>

--- a/Covid_19_Dataset_and_References/References/44.xlsx
+++ b/Covid_19_Dataset_and_References/References/44.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="429">
   <si>
     <t>Doi</t>
   </si>
@@ -1831,6 +1831,180 @@
   </si>
   <si>
     <t>[Alexis K.%Okoh%alexis.okoh@rwjbh.org%0,  Christoph%Sossou%NULL%0,  Christoph%Sossou%NULL%0,  Neha S.%Dangayach%NULL%0,  Sherin%Meledathu%NULL%0,  Oluwakemi%Phillips%NULL%0,  Corinne%Raczek%NULL%0,  Michael%Patti%NULL%0,  Nathan%Kang%NULL%0,  Sameer A.%Hirji%NULL%0,  Charles%Cathcart%NULL%0,  Christian%Engell%NULL%0,  Marc%Cohen%NULL%0,  Sandhya%Nagarakanti%NULL%0,  Eliahu%Bishburg%NULL%0,  Harpreet S.%Grewal%NULL%0]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%0,   Lian%Yang%NULL%0,   Yuncheng%Li%NULL%1,   Bo%Liang%NULL%0,   Lin%Li%NULL%1,   Tianhe%Ye%NULL%0,   Lingli%Li%NULL%0,   Dehan%Liu%NULL%1,   Shan%Gui%NULL%0,   Yu%Hu%NULL%0,   Chuansheng%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,  Becker%L.B.%coreGivesNoEmail%0,  Chelico%J.D.%coreGivesNoEmail%0,  Cohen%S.L.%coreGivesNoEmail%0,  Cookingham%J.%coreGivesNoEmail%0,  Coppa%K.%coreGivesNoEmail%0,  Crawford%J.M.%coreGivesNoEmail%0,  Davidson%K.W.%coreGivesNoEmail%0,  Diefenbach%M.A.%coreGivesNoEmail%0,  Dominello%A.J.%coreGivesNoEmail%0,  Duer-Hefele%J.%coreGivesNoEmail%0,  Falzon%L.%coreGivesNoEmail%0,  Gitlin%J.%coreGivesNoEmail%0,  Hajizadeh%N.%coreGivesNoEmail%0,  Harvin%T.G.%coreGivesNoEmail%0,  Hirsch%J.S.%coreGivesNoEmail%0,  Hirschwerk%D.A.%coreGivesNoEmail%0,  Kim%E.J.%coreGivesNoEmail%0,  Kozel%Z.M.%coreGivesNoEmail%0,  Marrast%L.M.%coreGivesNoEmail%0,  McGinn%T.%coreGivesNoEmail%0,  Mogavero%J.N.%coreGivesNoEmail%0,  Narasimhan%M.%coreGivesNoEmail%0,  Osorio%G.A.%coreGivesNoEmail%0,  Qiu%M.%coreGivesNoEmail%0,  Richardson%S.%coreGivesNoEmail%0,  Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Mario%Rivera-Izquierdo%NULL%0,   María%del Carmen Valero-Ubierna%NULL%2,   María%del Carmen Valero-Ubierna%NULL%0,   Juan Luis%R-delAmo%NULL%1,   Miguel Ángel%Fernández-García%NULL%1,   Silvia%Martínez-Diz%NULL%1,   Arezu%Tahery-Mahmoud%NULL%1,   Marta%Rodríguez-Camacho%NULL%1,   Ana Belén%Gámiz-Molina%NULL%1,   Nicolás%Barba-Gyengo%NULL%1,   Pablo%Gámez-Baeza%NULL%1,   Celia%Cabrero-Rodríguez%NULL%1,   Pedro Antonio%Guirado-Ruiz%NULL%1,   Divina Tatiana%Martín-Romero%NULL%1,   Antonio Jesús%Láinez-Ramos-Bossini%NULL%1,   María Rosa%Sánchez-Pérez%NULL%1,   José%Mancera-Romero%NULL%1,   Miguel%García-Martín%NULL%1,   Luis Miguel%Martín-delosReyes%NULL%1,   Virginia%Martínez-Ruiz%NULL%2,   Virginia%Martínez-Ruiz%NULL%0,   Pablo%Lardelli-Claret%NULL%1,   Eladio%Jiménez-Mejías%NULL%1,   Muhammad%Adrish%NULL%0,   Muhammad%Adrish%NULL%0,   NULL%NULL%NULL%0,   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,   Kun%Yang%NULL%2,   Kun%Yang%NULL%0,   Wenxia%Wang%NULL%2,   Wenxia%Wang%NULL%0,   Lingyu%Jiang%NULL%2,   Lingyu%Jiang%NULL%0,   Jianxin%Song%songsingsjx@sina.com%2,   Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[Grace%Salacup%salacupg@einstein.edu%0,   Kevin Bryan%Lo%NULL%0,   Kevin Bryan%Lo%NULL%0,   Fahad%Gul%NULL%0,   Eric%Peterson%NULL%0,   Robert%De Joy%NULL%0,   Ruchika%Bhargav%NULL%0,   Jerald%Pelayo%NULL%0,   Jeri%Albano%NULL%0,   Zurab%Azmaiparashvili%NULL%0,   Sadia%Benzaquen%NULL%0,   Gabriel%Patarroyo‐Aponte%NULL%0,   Janani%Rangaswami%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yufeng%Shang%NULL%0,   Tao%Liu%NULL%0,   Yongchang%Wei%NULL%1,   Jingfeng%Li%NULL%1,   Liang%Shao%NULL%1,   Minghui%Liu%NULL%1,   Yongxi%Zhang%NULL%0,   Zhigang%Zhao%NULL%1,   Haibo%Xu%NULL%2,   Zhiyong%Peng%NULL%0,   Fuling%Zhou%zhoufuling@whu.edu.cn%1,   Xinghuan%Wang%wangxinghuan@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,   Mu%Qin%qinmuae@163.com%0,   Yuli%Cai%NULL%0,   Tao%Liu%NULL%0,   Bo%Shen%NULL%0,   Fan%Yang%NULL%0,   Sheng%Cao%NULL%0,   Xu%Liu%NULL%0,   Xu%Liu%NULL%0,   Yaozu%Xiang%NULL%0,   Qinyan%Zhao%NULL%0,   He%Huang%huanghe1977@whu.edu.cn%0,   Bo%Yang%yybb112@whu.edu.cn%0,   Congxin%Huang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rita de Cássia Menezes%Soares%NULL%0,   Larissa Rodrigues%Mattos%NULL%1,   Letícia Martins%Raposo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,   Ruoqi%Ning%NULL%1,   Yu%Tao%NULL%0,   Chong%Yu%NULL%1,   Xiaoyan%Deng%NULL%1,   Caili%Zhao%NULL%1,   Silu%Meng%NULL%1,   Fangxu%Tang%89650793@qq.com%1,   Dong%Xu%89650793@qq.com%0,   Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Kun%Wang%NULL%0,   Peiyuan%Zuo%NULL%1,   Yuwei%Liu%NULL%1,   Meng%Zhang%NULL%0,   Xiaofang%Zhao%NULL%1,   Songpu%Xie%NULL%1,   Hao%Zhang%NULL%1,   Xinglin%Chen%NULL%1,   Chengyun%Liu%chengyunliu@hust.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Bo%XU%NULL%0,   Cun-yu%FAN%NULL%1,   An-lu%WANG%NULL%1,   Yi-long%ZOU%NULL%1,   Yi-han%YU%NULL%1,   Cong%HE%NULL%1,   Wen-guang%XIA%NULL%1,   Ji-xian%ZHANG%NULL%1,   Qing%MIAO%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xisheng%Yan%NULL%0,   Fen%Li%NULL%0,   Xiao%Wang%NULL%0,   Jie%Yan%NULL%0,   Fen%Zhu%NULL%0,   Shifan%Tang%NULL%0,   Yingzhong%Deng%NULL%0,   Hua%Wang%NULL%0,   Rui%Chen%NULL%0,   Zhili%Yu%NULL%0,   Yaping%Li%NULL%0,   Jingzhou%Shang%NULL%0,   Lingjun%Zeng%NULL%0,   Jie%Zhao%NULL%0,   Chaokun%Guan%NULL%0,   Qiaomei%Liu%NULL%0,   Haifeng%Chen%NULL%0,   Wei%Gong%NULL%0,   Xin%Huang%NULL%0,   Yu‐Jiao%Zhang%NULL%0,   Jianguang%Liu%NULL%0,   Xiaoyan%Dong%NULL%0,   Wen%Zheng%zhengwen12@mails.jlu.edu.cn%0,   Shaoping%Nie%spnie@126.com%0,   Dongsheng%Li%dongshengli196809@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qing%Yang%NULL%0,   Ying%Zhou%NULL%0,   Xinrong%Wang%NULL%1,   Shan%Gao%NULL%1,   Yang%Xiao%NULL%0,   Weiming%Zhang%NULL%1,   Yi%Hu%huyizxyy@163.com%0,   Yafei%Wang%wyf_527@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,   Qingyu%Yang%NULL%1,   Yaxin%Wang%NULL%0,   Yongran%Wu%NULL%0,   Jiqian%Xu%NULL%0,   Yuan%Yu%NULL%0,   You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wenjing%Ye%yewenjing@xinhuamed.com.cn%0,   Guoxi%Chen%4799082@qq.com%1,   Xiaopan%Li%xiaopanli0224@126.com%1,   Xing%Lan%474137452@qq.com%1,   Chen%Ji%c.ji.3@warwick.ac.uk%1,   Min%Hou%min-hou710@hotmail.com%1,   Di%Zhang%zhangdizhangdi1234@163.com%1,   Guangwang%Zeng%785663609@qq.com%1,   Yaling%Wang%953822402@qq.com%1,   Cheng%Xu%xucheng112358@126.com%1,   Weiwei%Lu%luweiwei100@126.com%1,   Ruolin%Cui%crlqwerty@163.com%1,   Yuyang%Cai%caiyuyang@sjtu.edu.cn%1,   Hai%Huang%1220775601@qq.com%1,   Ling%Yang%yangling01@xinhuamed.com.cn%1]</t>
+  </si>
+  <si>
+    <t>[Caizheng%Yu%NULL%0,   Qing%Lei%NULL%1,   Wenkai%Li%NULL%1,   Xiong%Wang%NULL%0,   Wei%Liu%NULL%0,   Xionglin%Fan%NULL%1,   Wengang%Li%228907211@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,   Ting%Yu%NULL%0,   Ronghui%Du%NULL%0,   Guohui%Fan%NULL%0,   Ying%Liu%NULL%0,   Zhibo%Liu%NULL%0,   Jie%Xiang%NULL%0,   Yeming%Wang%NULL%0,   Bin%Song%NULL%0,   Xiaoying%Gu%NULL%0,   Lulu%Guan%NULL%0,   Yuan%Wei%NULL%0,   Hui%Li%NULL%0,   Xudong%Wu%NULL%0,   Jiuyang%Xu%NULL%0,   Shengjin%Tu%NULL%0,   Yi%Zhang%NULL%0,   Hua%Chen%NULL%0,   Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Moran%Amit%NULL%0,   Alex%Sorkin%NULL%1,   Jacob%Chen%NULL%1,   Barak%Cohen%NULL%2,   Barak%Cohen%NULL%0,   Dana%Karol%NULL%2,   Dana%Karol%NULL%0,   Avishai M%Tsur%NULL%1,   Shaul%Lev%NULL%2,   Shaul%Lev%NULL%0,   Tal%Rozenblat%NULL%1,   Ayana%Dvir%NULL%2,   Ayana%Dvir%NULL%0,   Geva%Landau%NULL%1,   Lidar%Fridrich%NULL%2,   Lidar%Fridrich%NULL%0,   Elon%Glassberg%NULL%1,   Shani%Kesari%NULL%1,   Sigal%Sviri%NULL%1,   Ram%Gelman%NULL%1,   Asaf%Miller%NULL%1,   Danny%Epstein%NULL%1,   Ronny%Ben-Avi%NULL%2,   Ronny%Ben-Avi%NULL%0,   Moshe%Matan%NULL%1,   Daniel J.%Jakobson%NULL%2,   Daniel J.%Jakobson%NULL%0,   Tarif%Bader%NULL%2,   Tarif%Bader%NULL%0,   David%Dahan%NULL%2,   David%Dahan%NULL%0,   Daniel A.%King%NULL%1,   Anat%Ben-Ari%NULL%1,   Arie%Soroksky%NULL%1,   Alon%Bar%NULL%2,   Alon%Bar%NULL%0,   Noam%Fink%NULL%1,   Pierre%Singer%NULL%1,   Avi%Benov%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,   John R%Adler%NULL%3,   Muhammad Sohaib%Asghar%NULL%2,   Muhammad Sohaib%Asghar%NULL%0,   Syed Jawad%Haider Kazmi%NULL%1,   Noman%Ahmed Khan%NULL%1,   Mohammed%Akram%NULL%1,   Salman%Ahmed Khan%NULL%1,   Uzma%Rasheed%NULL%1,   Maira%Hassan%NULL%1,   Gul Muhammad%Memon%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pedro%Baqui%NULL%0,   Ioana%Bica%NULL%1,   Valerio%Marra%marra@cosmo-ufes.org%1,   Ari%Ercole%NULL%1,   Mihaela%van der Schaar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anesi%Adriano%coreGivesNoEmail%0,  Bettinardi%Alessandra%coreGivesNoEmail%2,  Bonetti%Graziella%coreGivesNoEmail%2,  Borrelli%Gianluca%coreGivesNoEmail%2,  Fiordalisi%Gianfranco%coreGivesNoEmail%2,  Lippi%Giuseppe%coreGivesNoEmail%0,  Manelli%Filippo%coreGivesNoEmail%2,  Marino%Antonio%coreGivesNoEmail%2,  Menolfi%Annamaria%coreGivesNoEmail%2,  Patroni%Andrea%coreGivesNoEmail%2,  Saggini%Sara%coreGivesNoEmail%2,  Volpi%Roberta%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Andrea%Borghesi%NULL%0,   Angelo%Zigliani%NULL%1,   Salvatore%Golemi%NULL%1,   Nicola%Carapella%NULL%1,   Patrizia%Maculotti%NULL%1,   Davide%Farina%NULL%1,   Roberto%Maroldi%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Alberto M.%Borobia%NULL%0,   Antonio J.%Carcas%NULL%2,   Antonio J.%Carcas%NULL%0,   Francisco%Arnalich%NULL%1,   Rodolfo%Álvarez-Sala%NULL%2,   Rodolfo%Álvarez-Sala%NULL%0,   Jaime%Monserrat-Villatoro%NULL%1,   Manuel%Quintana%NULL%1,   Juan Carlos%Figueira%NULL%1,   Rosario M.%Torres Santos-Olmo%NULL%1,   Julio%García-Rodríguez%NULL%2,   Julio%García-Rodríguez%NULL%0,   Alberto%Martín-Vega%NULL%1,   Antonio%Buño%NULL%1,   Elena%Ramírez%NULL%1,   Gonzalo%Martínez-Alés%NULL%2,   Gonzalo%Martínez-Alés%NULL%0,   Nicolás%García-Arenzana%NULL%1,   M. Concepción%Núñez%NULL%2,   M. Concepción%Núñez%NULL%0,   Milagros%Martí-de-Gracia%NULL%1,   Francisco%Moreno Ramos%NULL%1,   Francisco%Reinoso-Barbero%NULL%1,   Alejandro%Martin-Quiros%NULL%1,   Angélica%Rivera Núñez%NULL%1,   Jesús%Mingorance%NULL%1,   Carlos J.%Carpio Segura%NULL%2,   Carlos J.%Carpio Segura%NULL%0,   Daniel%Prieto Arribas%NULL%1,   Esther%Rey Cuevas%NULL%1,   Concepción%Prados Sánchez%NULL%1,   Juan J.%Rios%NULL%1,   Miguel A.%Hernán%NULL%1,   Jesús%Frías%NULL%1,   José R.%Arribas%NULL%1,   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simon E.%Brill%simon.brill@nhs.net%0,   Hannah C.%Jarvis%NULL%0,   Hannah C.%Jarvis%NULL%0,   Ezgi%Ozcan%NULL%0,   Thomas L. P.%Burns%NULL%0,   Rabia A.%Warraich%NULL%0,   Lisa J.%Amani%NULL%0,   Amina%Jaffer%NULL%0,   Stephanie%Paget%NULL%0,   Anand%Sivaramakrishnan%NULL%0,   Dean D.%Creer%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,   Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,   Wenlin%Cheng%NULL%0,   Lei%Yu%NULL%0,   Ya-Kun%Liu%NULL%0,   Xiaoyong%Hu%NULL%0,   Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[B.%Carter%NULL%0,   J.T.%Collins%NULL%1,   F.%Barlow-Pay%NULL%1,   F.%Rickard%NULL%1,   E.%Bruce%NULL%1,   A.%Verduri%NULL%1,   T.J.%Quinn%NULL%1,   E.%Mitchell%NULL%1,   A.%Price%NULL%1,   A.%Vilches-Moraga%NULL%1,   M.J.%Stechman%NULL%1,   R.%Short%NULL%1,   A.%Einarsson%NULL%1,   P.%Braude%NULL%1,   S.%Moug%NULL%1,   P.K.%Myint%NULL%1,   J.%Hewitt%NULL%1,   L.%Pearce%NULL%1,   K.%McCarthy%NULL%1,   C.%Davey%NULL%1,   S.%Jones%NULL%1,   K.%Lunstone%NULL%1,   A.%Cavenagh%NULL%1,   C.%Silver%NULL%1,   T.%Telford%NULL%1,   R.%Simmons%NULL%1,   M.%Holloway%NULL%1,   J.%Hesford%NULL%1,   T.%El Jichi Mutasem%NULL%1,   S.%Singh%NULL%1,   D.%Paxton%NULL%1,   W.%Harris%NULL%1,   N.%Galbraith%NULL%1,   E.%Bhatti%NULL%1,   J.%Edwards%NULL%1,   S.%Duffy%NULL%1,   J.%Kelly%NULL%1,   C.%Murphy%NULL%1,   C.%Bisset%NULL%1,   R.%Alexander%NULL%1,   M.%Garcia%NULL%1,   S.%Sangani%NULL%1,   T.%Kneen%NULL%1,   T.%Lee%NULL%1,   A.%McGovern%NULL%1,   G.%Guaraldi%NULL%1,   E.%Clini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fuyang%Chen%NULL%0,   Wenwu%Sun%NULL%1,   Shengrong%Sun%NULL%1,   Zhiyu%Li%lizhiyu@whu.edu.cn%1,   Zhong%Wang%zhongwangchn@whu.edu.cn%1,   Li%Yu%yuliwhzxyy@163.com%2,   Li%Yu%yuliwhzxyy@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,   Ling%Sang%NULL%0,   Mei%Jiang%NULL%1,   Zhaowei%Yang%NULL%1,   Nan%Jia%NULL%1,   Wanyi%Fu%NULL%1,   Jiaxing%Xie%NULL%1,   Weijie%Guan%NULL%0,   Wenhua%Liang%NULL%0,   Zhengyi%Ni%NULL%1,   Yu%Hu%NULL%0,   Lei%Liu%NULL%0,   Hong%Shan%NULL%0,   Chunliang%Lei%NULL%1,   Yixiang%Peng%NULL%1,   Li%Wei%NULL%0,   Yong%Liu%NULL%0,   Yahua%Hu%NULL%1,   Peng%Peng%NULL%0,   Jianming%Wang%NULL%0,   Jiyang%Liu%NULL%1,   Zhong%Chen%NULL%0,   Gang%Li%NULL%0,   Zhijian%Zheng%NULL%1,   Shaoqin%Qiu%NULL%1,   Jie%Luo%NULL%0,   Changjiang%Ye%NULL%1,   Shaoyong%Zhu%NULL%1,   Jinping%Zheng%NULL%1,   Nuofu%Zhang%NULL%1,   Yimin%Li%NULL%1,   Jianxing%He%NULL%1,   Jing%Li%NULL%2,   Shiyue%Li%NULL%0,   Nanshan%Zhong%NULL%0,   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,   Di%Wu%NULL%0,   Huilong%Chen%NULL%0,   Weiming%Yan%NULL%0,   Danlei%Yang%NULL%0,   Guang%Chen%NULL%0,   Ke%Ma%NULL%0,   Dong%Xu%NULL%0,   Haijing%Yu%NULL%0,   Hongwu%Wang%NULL%0,   Tao%Wang%NULL%0,   Wei%Guo%NULL%0,   Jia%Chen%NULL%0,   Chen%Ding%NULL%0,   Xiaoping%Zhang%NULL%0,   Jiaquan%Huang%NULL%0,   Meifang%Han%NULL%0,   Shusheng%Li%NULL%0,   Xiaoping%Luo%NULL%0,   Jianping%Zhao%NULL%0,   Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anying%Cheng%NULL%0,   Liu%Hu%NULL%1,   Yiru%Wang%NULL%1,   Luyan%Huang%NULL%1,   Lingxi%Zhao%NULL%1,   Congcong%Zhang%NULL%1,   Xiyue%Liu%NULL%1,   Ranran%Xu%NULL%1,   Feng%Liu%NULL%1,   Jinping%Li%NULL%1,   Dawei%Ye%NULL%1,   Tao%Wang%NULL%0,   Yongman%Lv%lvyongman@126.com%1,   Qingquan%Liu%qqliutj@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Fabio%Ciceri%ciceri.fabio@hsr.it%0,   Antonella%Castagna%NULL%0,   Patrizia%Rovere-Querini%NULL%1,   Francesco%De Cobelli%NULL%1,   Annalisa%Ruggeri%NULL%1,   Laura%Galli%NULL%1,   Caterina%Conte%NULL%0,   Rebecca%De Lorenzo%NULL%1,   Andrea%Poli%NULL%1,   Alberto%Ambrosio%NULL%1,   Carlo%Signorelli%NULL%1,   Eleonora%Bossi%NULL%1,   Maria%Fazio%NULL%1,   Cristina%Tresoldi%NULL%1,   Sergio%Colombo%NULL%1,   Giacomo%Monti%NULL%0,   Efgeny%Fominskiy%NULL%1,   Stefano%Franchini%NULL%1,   Marzia%Spessot%NULL%1,   Carlo%Martinenghi%NULL%1,   Michele%Carlucci%NULL%1,   Luigi%Beretta%NULL%0,   Anna Maria%Scandroglio%NULL%1,   Massimo%Clementi%NULL%1,   Massimo%Locatelli%NULL%1,   Moreno%Tresoldi%NULL%1,   Paolo%Scarpellini%NULL%1,   Gianvito%Martino%NULL%1,   Emanuele%Bosi%NULL%1,   Lorenzo%Dagna%NULL%0,   Adriano%Lazzarin%NULL%1,   Giovanni%Landoni%NULL%0,   Alberto%Zangrillo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,   Wei%Liu%NULL%0,   Kui%Liu%NULL%0,   Yuan-Yuan%Fang%NULL%0,   Jin%Shang%NULL%0,   Ling%Zhou%NULL%0,   Ke%Wang%NULL%0,   Fan%Leng%NULL%0,   Shuang%Wei%NULL%0,   Lei%Chen%NULL%0,   Hui-Guo%Liu%NULL%0,   Pei-Fang%Wei%NULL%0,   Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,   Li-Rong%Liang%NULL%0,   Cheng-Qing%Yang%NULL%0,   Wen%Wang%NULL%0,   Tan-Ze%Cao%NULL%0,   Ming%Li%NULL%0,   Guang-Yun%Guo%NULL%0,   Juan%Du%NULL%0,   Chun-Lan%Zheng%NULL%0,   Qi%Zhu%NULL%0,   Ming%Hu%NULL%0,   Xu-Yan%Li%NULL%0,   Peng%Peng%NULL%0,   Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shan%Gao%NULL%0,   Fang%Jiang%NULL%0,   Wei%Jin%NULL%1,   Yuan%Shi%NULL%1,   Leilei%Yang%NULL%1,   Yanqiong%Xia%NULL%1,   Linyan%Jia%NULL%1,   Bo%Wang%NULL%0,   Han%Lin%NULL%1,   Yin%Cai%NULL%1,   Zhengyuan%Xia%NULL%0,   Jian%Peng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pedro David%Wendel Garcia%pedrodavid.wendelgarcia@usz.ch%0,   Thierry%Fumeaux%thierry.fumeaux@ghol.ch%1,   Philippe%Guerci%NULL%1,   Dorothea Monika%Heuberger%dorotheamonika.heuberger@usz.ch%1,   Jonathan%Montomoli%NULL%1,   Ferran%Roche-Campo%NULL%1,   Reto Andreas%Schuepbach%reto.schuepbach@usz.ch%1,   Matthias Peter%Hilty%matthias.hilty@usz.ch%1,   Mario%Alfaro Farias%NULL%1,   Antoni%Margarit%NULL%1,   Gerardo%Vizmanos-Lamotte%NULL%1,   Thomas%Tschoellitsch%NULL%1,   Jens%Meier%NULL%1,   Francesco S.%Cardona%NULL%1,   Josef%Skola%NULL%1,   Lenka%Horakova%NULL%1,   Hernan%Aguirre-Bermeo%NULL%1,   Janina%Apolo%NULL%1,   Emmanuel%Novy%NULL%1,   Marie-Reine%Losser%NULL%1,   Geoffrey%Jurkolow%NULL%1,   Gauthier%Delahaye%NULL%1,   Sascha%David%NULL%1,   Tobias%Welte%NULL%0,   Tobias%Wengenmayer%NULL%1,   Dawid L.%Staudacher%NULL%1,   Theodoros%Aslanidis%NULL%1,   Barna%Babik%NULL%1,   Anita%Korsos%NULL%1,   Janos%Gal%NULL%1,   Hermann%Csaba%NULL%1,   Abele%Donati%NULL%1,   Andrea%Carsetti%NULL%1,   Fabrizio%Turrini%NULL%1,   Maria Sole%Simonini%NULL%1,   Roberto%Ceriani%NULL%1,   Martina%Murrone%NULL%1,   Emanuele%Rezoagli%NULL%1,   Giovanni%Vitale%NULL%1,   Alberto%Fogagnolo%NULL%1,   Savino%Spadaro%NULL%1,   Maddalena Alessandra%Wu%NULL%1,   Chiara%Cogliati%NULL%0,   Riccardo%Colombo%NULL%0,   Emanuele%Catena%NULL%1,   Francesca%Facondini%NULL%1,   Antonella%Potalivo%NULL%1,   Gianfilippo%Gangitano%NULL%1,   Tiziana%Perin%NULL%1,   Maria Grazia%Bocci%NULL%1,   Massimo%Antonelli%NULL%1,   Diederik%Gommers%NULL%1,   Can%Ince%NULL%1,   Eric%Mayor-Vázquez%NULL%1,   Maria%Cruz%NULL%1,   Martin%Delgado%NULL%1,   Raquel Rodriguez%Garcia%NULL%1,   Jorge%Gamez Zapata%NULL%1,   Begoña%Zalba-Etayo%NULL%1,   Herminia%Lozano-Gomez%NULL%1,   Pedro%Castro%NULL%0,   Adrian%Tellez%NULL%1,   Adriana%Jacas%NULL%0,   Guido%Muñoz%NULL%0,   Rut%Andrea%NULL%0,   Jose%Ortiz%NULL%1,   Eduard%Quintana%NULL%0,   Irene%Rovira%NULL%0,   Enric%Reverter%NULL%0,   Javier%Fernandez%NULL%1,   Miquel%Ferrer%NULL%0,   Joan R.%Badia%NULL%1,   Arantxa%Lander Azcona%NULL%1,   Jesus Escos%Orta%NULL%1,   Philipp%Bühler%NULL%1,   Silvio%Brugger%NULL%1,   Daniel%Hofmaenner%NULL%1,   Simone%Unseld%NULL%1,   Frank%Ruschitzka%NULL%0,   Mallory%Moret-Bochatay%NULL%1,   Bernd%Yuen%NULL%1,   Thomas%Hillermann%NULL%1,   Hatem%Ksouri%NULL%1,   Govind Oliver%Sridharan%NULL%1,   Anette%Ristic%NULL%1,   Michael%Sepulcri%NULL%1,   Miodrag%Filipovic%NULL%1,   Urs%Pietsch%NULL%1,   Petra%Salomon%NULL%1,   Iris%Drvaric%NULL%1,   Peter%Schott%NULL%1,   Severin%Urech%NULL%1,   Adriana%Lambert%NULL%1,   Lukas%Merki%NULL%1,   Marcus%Laube%NULL%1,   Frank%Hillgaertner%NULL%1,   Marianne%Sieber%NULL%1,   Alexander%Dullenkopf%NULL%1,   Lina%Petersen%NULL%1,   Serge%Grazioli%NULL%1,   Peter C.%Rimensberger%NULL%1,   Isabelle%Fleisch%NULL%1,   Jerome%Lavanchy%NULL%1,   Katharina%Marquardt%NULL%1,   Karim%Shaikh%NULL%1,   Hermann%Redecker%NULL%1,   Michael%Stephan%NULL%1,   Jan%Brem%NULL%1,   Bjarte%Rogdo%NULL%1,   Andre%Birkenmaier%NULL%1,   Friederike%Meyer zu Bentrup%NULL%1,   Patricia%Fodor%NULL%1,   Pascal%Locher%NULL%1,   Giovanni%Camen%NULL%1,   Martin%Siegemund%NULL%1,   Nuria%Zellweger%NULL%1,   Marie-Madlen%Jeitziner%NULL%1,   Beatrice%Jenni-Moser%NULL%1,   Christian%Bürkle%NULL%1,   Gian-Reto%Kleger%NULL%1,   Marilene%Franchitti Laurent%NULL%1,   Jean-Christophe%Laurent%NULL%1,   Tomislav%Gaspert%NULL%1,   Marija%Jovic%NULL%1,   Michael%Studhalter%NULL%1,   Christoph%Haberthuer%NULL%1,   Roger F.%Lussman%NULL%1,   Daniela%Selz%NULL%1,   Didier%Naon%NULL%1,   Romano%Mauri%NULL%0,   Samuele%Ceruti%NULL%1,   Julien%Marrel%NULL%1,   Mirko%Brenni%NULL%1,   Rolf%Ensner%NULL%1,   Nadine%Gehring%NULL%1,   Antje%Heise%NULL%1,   Tobias%Huebner%NULL%1,   Thomas A.%Neff%NULL%1,   Sara%Cereghetti%NULL%1,   Filippo%Boroli%NULL%1,   Jerome%Pugin%NULL%1,   Nandor%Marczin%NULL%1,   Joyce%Wong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Warren%Gavin%NULL%0,   Elliott%Campbell%NULL%1,   Syed-Adeel%Zaidi%NULL%1,   Neha%Gavin%NULL%1,   Lana%Dbeibo%NULL%1,   Cole%Beeler%NULL%1,   Kari%Kuebler%NULL%1,   Ahmed%Abdel-Rahman%NULL%1,   Mark%Luetkemeyer%NULL%1,   Areeba%Kara%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Vijay%Gayam%vgayam@interfaithmedical.com%0,   Muchi Ditah%Chobufo%NULL%2,   Muchi Ditah%Chobufo%NULL%0,   Mohamed A.%Merghani%NULL%2,   Mohamed A.%Merghani%NULL%0,   Shristi%Lamichhane%NULL%1,   Pavani Reddy%Garlapati%NULL%1,   Mark K.%Adler%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cao%Y%coreGivesNoEmail%0,  Imam%Z%coreGivesNoEmail%1,  Lippi%G%coreGivesNoEmail%1,  Oran%DP%coreGivesNoEmail%1,  Shi%S%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Hai%Hu%huhai@wchscu.cn%0,   Ni%Yao%NULL%2,   Ni%Yao%NULL%0,   Yanru%Qiu%NULL%1,   John H.%Burton%NULL%2,   John H.%Burton%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jiaofeng%Huang%NULL%0,   Aiguo%Cheng%NULL%1,   Rahul%Kumar%NULL%1,   Yingying%Fang%NULL%2,   Yingying%Fang%NULL%0,   Gongping%Chen%NULL%1,   Yueyong%Zhu%NULL%1,   Su%Lin%sumer5129@fjmu.edu.cn%0,   Su%Lin%sumer5129@fjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%0,   Ju-Hyun%Kim%NULL%0,   Jin-Sung%Park%NULL%0,   Min Cheol%Chang%wheel633@ynu.ac.kr%0,   Donghwi%Park%bdome@hanmail.net%0]</t>
+  </si>
+  <si>
+    <t>[K.%Khalil%NULL%0,   K.%Agbontaen%NULL%1,   D.%McNally%NULL%1,   A.%Love%NULL%1,   S.%Mandalia%NULL%1,   W.%Banya%NULL%1,   E.%Starren%NULL%1,   R.%Dhunnookchand%NULL%1,   H.%Farne%NULL%1,   R.%Morton%NULL%1,   G.%Davies%NULL%1,   O.%Orhan%NULL%1,   D%Lai%NULL%1,   M.%Nelson%NULL%1,   P.L.%Shah%NULL%1,   J.L.%Garner%Justin.garner@chelwest.nhs.uk%1]</t>
+  </si>
+  <si>
+    <t>[Eyal%Klang%NULL%0,   Gassan%Kassim%NULL%1,   Shelly%Soffer%soffer.shelly@gmail.com%1,   Robert%Freeman%NULL%2,   Robert%Freeman%NULL%0,   Matthew A.%Levin%NULL%0,   Matthew A.%Levin%NULL%0,   David L.%Reich%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sandeep%Krishnan%NULL%0,   Kinjal%Patel%NULL%1,   Ronak%Desai%NULL%1,   Anupam%Sule%NULL%1,   Peter%Paik%NULL%1,   Ashley%Miller%NULL%1,   Alicia%Barclay%NULL%1,   Adam%Cassella%NULL%1,   Jon%Lucaj%NULL%1,   Yvonne%Royster%NULL%1,   Joffer%Hakim%NULL%1,   Zulfiqar%Ahmed%NULL%1,   Farhad%Ghoddoussi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Manisha%Bhutani%null%0,    David M.%Foureau%null%1,    Shebli%Atrash%null%1,    Peter M.%Voorhees%null%1,    Saad Z.%Usmani%null%1,  Manisha%Bhutani%null%0,  David M.%Foureau%null%1,  Shebli%Atrash%null%1,  Peter M.%Voorhees%null%1,  Saad Z.%Usmani%null%1]</t>
+  </si>
+  <si>
+    <t>[Wil%Lieberman-Cribbin%NULL%0,   Joseph%Rapp%NULL%1,   Naomi%Alpert%NULL%1,   Stephanie%Tuminello%NULL%1,   Emanuela%Taioli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Q.%Liu%NULL%0,   N. C.%Song%NULL%1,   Z. K.%Zheng%NULL%1,   J. S.%Li%NULL%1,   S. K.%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hui%Long%NULL%0,   Lan%Nie%NULL%1,   Xiaochen%Xiang%NULL%1,   Huan%Li%NULL%0,   Xiaoli%Zhang%NULL%0,   Xiaozhi%Fu%NULL%1,   Hongwei%Ren%NULL%1,   Wanxin%Liu%NULL%1,   Qiang%Wang%wangqiang@wust.edu.cn%0,   Qingming%Wu%wuhe9224@sina.com%2,   Qingming%Wu%wuhe9224@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaomin%Luo%luoxiaomin04@163.com%0,   Wei%Zhou%NULL%3,   Xiaojie%Yan%NULL%1,   Tangxi%Guo%NULL%1,   Benchao%Wang%NULL%1,   Hongxia%Xia%NULL%1,   Lu%Ye%NULL%1,   Jun%Xiong%NULL%1,   Zongping%Jiang%NULL%1,   Yu%Liu%NULL%3,   Bicheng%Zhang%NULL%1,   Weize%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ying%Luo%NULL%0,   Liyan%Mao%NULL%2,   Xu%Yuan%NULL%2,   Ying%Xue%NULL%2,   Qun%Lin%NULL%2,   Guoxing%Tang%NULL%2,   Huijuan%Song%NULL%2,   Feng%Wang%fengwang@tjh.tjmu.edu.cn%2,   Ziyong%Sun%zysun@tjh.tjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ying%Luo%NULL%0,   Ying%Xue%NULL%0,   Liyan%Mao%NULL%0,   Xu%Yuan%NULL%0,   Qun%Lin%NULL%0,   Guoxing%Tang%NULL%0,   Huijuan%Song%NULL%0,   Feng%Wang%NULL%0,   Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chiara%Masetti%NULL%0,   Elena%Generali%NULL%1,   Francesca%Colapietro%NULL%1,   Antonio%Voza%NULL%1,   Maurizio%Cecconi%NULL%0,   Antonio%Messina%NULL%1,   Paolo%Omodei%NULL%1,   Claudio%Angelini%NULL%1,   Michele%Ciccarelli%NULL%1,   Salvatore%Badalamenti%NULL%1,   G. Walter%Canonica%NULL%1,   Ana%Lleo%ana.lleo@humanitas.it%1,   Alessio%Aghemo%NULL%2,   Alessio%Aghemo%NULL%0,   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Takahisa%Mikami%NULL%0,   Hirotaka%Miyashita%NULL%1,   Takayuki%Yamada%NULL%1,   Matthew%Harrington%NULL%1,   Daniel%Steinberg%NULL%1,   Andrew%Dunn%NULL%1,   Evan%Siau%Evan.Siau@mountsinai.org%1]</t>
+  </si>
+  <si>
+    <t>[Alexis K.%Okoh%alexis.okoh@rwjbh.org%0,   Christoph%Sossou%NULL%2,   Christoph%Sossou%NULL%0,   Neha S.%Dangayach%NULL%1,   Sherin%Meledathu%NULL%1,   Oluwakemi%Phillips%NULL%1,   Corinne%Raczek%NULL%1,   Michael%Patti%NULL%1,   Nathan%Kang%NULL%1,   Sameer A.%Hirji%NULL%1,   Charles%Cathcart%NULL%1,   Christian%Engell%NULL%1,   Marc%Cohen%NULL%1,   Sandhya%Nagarakanti%NULL%1,   Eliahu%Bishburg%NULL%1,   Harpreet S.%Grewal%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2154,6 +2328,9 @@
       <c r="H1" t="s">
         <v>70</v>
       </c>
+      <c r="I1" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -2169,7 +2346,7 @@
         <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>310</v>
+        <v>372</v>
       </c>
       <c r="F2" t="s">
         <v>74</v>
@@ -2179,6 +2356,9 @@
       </c>
       <c r="H2" t="s">
         <v>76</v>
+      </c>
+      <c r="I2" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="3">
@@ -2195,16 +2375,19 @@
         <v>312</v>
       </c>
       <c r="E3" t="s">
-        <v>313</v>
+        <v>374</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="G3" t="s">
-        <v>314</v>
+        <v>69</v>
       </c>
       <c r="H3" t="s">
         <v>77</v>
+      </c>
+      <c r="I3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4">
@@ -2221,7 +2404,7 @@
         <v>79</v>
       </c>
       <c r="E4" t="s">
-        <v>315</v>
+        <v>375</v>
       </c>
       <c r="F4" t="s">
         <v>81</v>
@@ -2231,6 +2414,9 @@
       </c>
       <c r="H4" t="s">
         <v>82</v>
+      </c>
+      <c r="I4" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="5">
@@ -2247,7 +2433,7 @@
         <v>84</v>
       </c>
       <c r="E5" t="s">
-        <v>316</v>
+        <v>376</v>
       </c>
       <c r="F5" t="s">
         <v>86</v>
@@ -2257,6 +2443,9 @@
       </c>
       <c r="H5" t="s">
         <v>87</v>
+      </c>
+      <c r="I5" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="6">
@@ -2273,7 +2462,7 @@
         <v>89</v>
       </c>
       <c r="E6" t="s">
-        <v>317</v>
+        <v>378</v>
       </c>
       <c r="F6" t="s">
         <v>91</v>
@@ -2283,6 +2472,9 @@
       </c>
       <c r="H6" t="s">
         <v>92</v>
+      </c>
+      <c r="I6" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="7">
@@ -2302,13 +2494,16 @@
         <v>67</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="G7" t="s">
-        <v>314</v>
+        <v>69</v>
       </c>
       <c r="H7" t="s">
         <v>77</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="8">
@@ -2325,7 +2520,7 @@
         <v>94</v>
       </c>
       <c r="E8" t="s">
-        <v>319</v>
+        <v>379</v>
       </c>
       <c r="F8" t="s">
         <v>96</v>
@@ -2335,6 +2530,9 @@
       </c>
       <c r="H8" t="s">
         <v>97</v>
+      </c>
+      <c r="I8" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="9">
@@ -2351,7 +2549,7 @@
         <v>99</v>
       </c>
       <c r="E9" t="s">
-        <v>320</v>
+        <v>381</v>
       </c>
       <c r="F9" t="s">
         <v>101</v>
@@ -2361,6 +2559,9 @@
       </c>
       <c r="H9" t="s">
         <v>102</v>
+      </c>
+      <c r="I9" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="10">
@@ -2377,7 +2578,7 @@
         <v>104</v>
       </c>
       <c r="E10" t="s">
-        <v>321</v>
+        <v>382</v>
       </c>
       <c r="F10" t="s">
         <v>106</v>
@@ -2387,6 +2588,9 @@
       </c>
       <c r="H10" t="s">
         <v>107</v>
+      </c>
+      <c r="I10" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="11">
@@ -2403,7 +2607,7 @@
         <v>109</v>
       </c>
       <c r="E11" t="s">
-        <v>322</v>
+        <v>383</v>
       </c>
       <c r="F11" t="s">
         <v>111</v>
@@ -2413,6 +2617,9 @@
       </c>
       <c r="H11" t="s">
         <v>112</v>
+      </c>
+      <c r="I11" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="12">
@@ -2429,7 +2636,7 @@
         <v>114</v>
       </c>
       <c r="E12" t="s">
-        <v>323</v>
+        <v>384</v>
       </c>
       <c r="F12" t="s">
         <v>116</v>
@@ -2439,6 +2646,9 @@
       </c>
       <c r="H12" t="s">
         <v>77</v>
+      </c>
+      <c r="I12" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="13">
@@ -2455,7 +2665,7 @@
         <v>118</v>
       </c>
       <c r="E13" t="s">
-        <v>324</v>
+        <v>385</v>
       </c>
       <c r="F13" t="s">
         <v>120</v>
@@ -2465,6 +2675,9 @@
       </c>
       <c r="H13" t="s">
         <v>121</v>
+      </c>
+      <c r="I13" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="14">
@@ -2481,7 +2694,7 @@
         <v>123</v>
       </c>
       <c r="E14" t="s">
-        <v>325</v>
+        <v>386</v>
       </c>
       <c r="F14" t="s">
         <v>125</v>
@@ -2491,6 +2704,9 @@
       </c>
       <c r="H14" t="s">
         <v>126</v>
+      </c>
+      <c r="I14" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="15">
@@ -2507,7 +2723,7 @@
         <v>128</v>
       </c>
       <c r="E15" t="s">
-        <v>326</v>
+        <v>387</v>
       </c>
       <c r="F15" t="s">
         <v>130</v>
@@ -2517,6 +2733,9 @@
       </c>
       <c r="H15" t="s">
         <v>131</v>
+      </c>
+      <c r="I15" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="16">
@@ -2533,7 +2752,7 @@
         <v>133</v>
       </c>
       <c r="E16" t="s">
-        <v>327</v>
+        <v>388</v>
       </c>
       <c r="F16" t="s">
         <v>135</v>
@@ -2543,6 +2762,9 @@
       </c>
       <c r="H16" t="s">
         <v>112</v>
+      </c>
+      <c r="I16" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="17">
@@ -2559,7 +2781,7 @@
         <v>137</v>
       </c>
       <c r="E17" t="s">
-        <v>328</v>
+        <v>389</v>
       </c>
       <c r="F17" t="s">
         <v>139</v>
@@ -2569,6 +2791,9 @@
       </c>
       <c r="H17" t="s">
         <v>140</v>
+      </c>
+      <c r="I17" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="18">
@@ -2585,7 +2810,7 @@
         <v>142</v>
       </c>
       <c r="E18" t="s">
-        <v>329</v>
+        <v>390</v>
       </c>
       <c r="F18" t="s">
         <v>144</v>
@@ -2595,6 +2820,9 @@
       </c>
       <c r="H18" t="s">
         <v>77</v>
+      </c>
+      <c r="I18" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="19">
@@ -2611,7 +2839,7 @@
         <v>146</v>
       </c>
       <c r="E19" t="s">
-        <v>330</v>
+        <v>391</v>
       </c>
       <c r="F19" t="s">
         <v>148</v>
@@ -2621,6 +2849,9 @@
       </c>
       <c r="H19" t="s">
         <v>77</v>
+      </c>
+      <c r="I19" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="20">
@@ -2637,7 +2868,7 @@
         <v>150</v>
       </c>
       <c r="E20" t="s">
-        <v>331</v>
+        <v>392</v>
       </c>
       <c r="F20" t="s">
         <v>152</v>
@@ -2647,6 +2878,9 @@
       </c>
       <c r="H20" t="s">
         <v>107</v>
+      </c>
+      <c r="I20" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="21">
@@ -2663,7 +2897,7 @@
         <v>154</v>
       </c>
       <c r="E21" t="s">
-        <v>332</v>
+        <v>393</v>
       </c>
       <c r="F21" t="s">
         <v>156</v>
@@ -2673,6 +2907,9 @@
       </c>
       <c r="H21" t="s">
         <v>157</v>
+      </c>
+      <c r="I21" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="22">
@@ -2689,7 +2926,7 @@
         <v>159</v>
       </c>
       <c r="E22" t="s">
-        <v>333</v>
+        <v>394</v>
       </c>
       <c r="F22" t="s">
         <v>161</v>
@@ -2699,6 +2936,9 @@
       </c>
       <c r="H22" t="s">
         <v>77</v>
+      </c>
+      <c r="I22" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="23">
@@ -2715,16 +2955,19 @@
         <v>335</v>
       </c>
       <c r="E23" t="s">
-        <v>336</v>
+        <v>395</v>
       </c>
       <c r="F23" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="G23" t="s">
-        <v>314</v>
+        <v>69</v>
       </c>
       <c r="H23" t="s">
         <v>77</v>
+      </c>
+      <c r="I23" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="24">
@@ -2741,7 +2984,7 @@
         <v>163</v>
       </c>
       <c r="E24" t="s">
-        <v>337</v>
+        <v>396</v>
       </c>
       <c r="F24" t="s">
         <v>165</v>
@@ -2751,6 +2994,9 @@
       </c>
       <c r="H24" t="s">
         <v>76</v>
+      </c>
+      <c r="I24" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="25">
@@ -2767,7 +3013,7 @@
         <v>167</v>
       </c>
       <c r="E25" t="s">
-        <v>338</v>
+        <v>397</v>
       </c>
       <c r="F25" t="s">
         <v>169</v>
@@ -2777,6 +3023,9 @@
       </c>
       <c r="H25" t="s">
         <v>170</v>
+      </c>
+      <c r="I25" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="26">
@@ -2793,7 +3042,7 @@
         <v>172</v>
       </c>
       <c r="E26" t="s">
-        <v>339</v>
+        <v>398</v>
       </c>
       <c r="F26" t="s">
         <v>174</v>
@@ -2803,6 +3052,9 @@
       </c>
       <c r="H26" t="s">
         <v>175</v>
+      </c>
+      <c r="I26" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="27">
@@ -2819,7 +3071,7 @@
         <v>177</v>
       </c>
       <c r="E27" t="s">
-        <v>340</v>
+        <v>399</v>
       </c>
       <c r="F27" t="s">
         <v>179</v>
@@ -2829,6 +3081,9 @@
       </c>
       <c r="H27" t="s">
         <v>77</v>
+      </c>
+      <c r="I27" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="28">
@@ -2845,7 +3100,7 @@
         <v>181</v>
       </c>
       <c r="E28" t="s">
-        <v>341</v>
+        <v>400</v>
       </c>
       <c r="F28" t="s">
         <v>183</v>
@@ -2855,6 +3110,9 @@
       </c>
       <c r="H28" t="s">
         <v>184</v>
+      </c>
+      <c r="I28" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="29">
@@ -2871,7 +3129,7 @@
         <v>84</v>
       </c>
       <c r="E29" t="s">
-        <v>342</v>
+        <v>401</v>
       </c>
       <c r="F29" t="s">
         <v>187</v>
@@ -2881,6 +3139,9 @@
       </c>
       <c r="H29" t="s">
         <v>188</v>
+      </c>
+      <c r="I29" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="30">
@@ -2897,7 +3158,7 @@
         <v>190</v>
       </c>
       <c r="E30" t="s">
-        <v>343</v>
+        <v>402</v>
       </c>
       <c r="F30" t="s">
         <v>192</v>
@@ -2907,6 +3168,9 @@
       </c>
       <c r="H30" t="s">
         <v>76</v>
+      </c>
+      <c r="I30" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="31">
@@ -2923,7 +3187,7 @@
         <v>194</v>
       </c>
       <c r="E31" t="s">
-        <v>344</v>
+        <v>403</v>
       </c>
       <c r="F31" t="s">
         <v>196</v>
@@ -2933,6 +3197,9 @@
       </c>
       <c r="H31" t="s">
         <v>197</v>
+      </c>
+      <c r="I31" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="32">
@@ -2949,7 +3216,7 @@
         <v>199</v>
       </c>
       <c r="E32" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="F32" t="s">
         <v>201</v>
@@ -2959,6 +3226,9 @@
       </c>
       <c r="H32" t="s">
         <v>202</v>
+      </c>
+      <c r="I32" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="33">
@@ -2975,7 +3245,7 @@
         <v>204</v>
       </c>
       <c r="E33" t="s">
-        <v>346</v>
+        <v>405</v>
       </c>
       <c r="F33" t="s">
         <v>206</v>
@@ -2985,6 +3255,9 @@
       </c>
       <c r="H33" t="s">
         <v>207</v>
+      </c>
+      <c r="I33" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="34">
@@ -3001,7 +3274,7 @@
         <v>209</v>
       </c>
       <c r="E34" t="s">
-        <v>347</v>
+        <v>406</v>
       </c>
       <c r="F34" t="s">
         <v>211</v>
@@ -3011,6 +3284,9 @@
       </c>
       <c r="H34" t="s">
         <v>77</v>
+      </c>
+      <c r="I34" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="35">
@@ -3027,7 +3303,7 @@
         <v>213</v>
       </c>
       <c r="E35" t="s">
-        <v>348</v>
+        <v>407</v>
       </c>
       <c r="F35" t="s">
         <v>215</v>
@@ -3037,6 +3313,9 @@
       </c>
       <c r="H35" t="s">
         <v>216</v>
+      </c>
+      <c r="I35" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="36">
@@ -3053,7 +3332,7 @@
         <v>218</v>
       </c>
       <c r="E36" t="s">
-        <v>349</v>
+        <v>408</v>
       </c>
       <c r="F36" t="s">
         <v>220</v>
@@ -3063,6 +3342,9 @@
       </c>
       <c r="H36" t="s">
         <v>221</v>
+      </c>
+      <c r="I36" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="37">
@@ -3079,7 +3361,7 @@
         <v>223</v>
       </c>
       <c r="E37" t="s">
-        <v>350</v>
+        <v>409</v>
       </c>
       <c r="F37" t="s">
         <v>225</v>
@@ -3089,6 +3371,9 @@
       </c>
       <c r="H37" t="s">
         <v>140</v>
+      </c>
+      <c r="I37" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="38">
@@ -3105,7 +3390,7 @@
         <v>227</v>
       </c>
       <c r="E38" t="s">
-        <v>351</v>
+        <v>410</v>
       </c>
       <c r="F38" t="s">
         <v>229</v>
@@ -3115,6 +3400,9 @@
       </c>
       <c r="H38" t="s">
         <v>77</v>
+      </c>
+      <c r="I38" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="39">
@@ -3131,7 +3419,7 @@
         <v>231</v>
       </c>
       <c r="E39" t="s">
-        <v>352</v>
+        <v>411</v>
       </c>
       <c r="F39" t="s">
         <v>233</v>
@@ -3141,6 +3429,9 @@
       </c>
       <c r="H39" t="s">
         <v>234</v>
+      </c>
+      <c r="I39" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="40">
@@ -3157,16 +3448,19 @@
         <v>64</v>
       </c>
       <c r="E40" t="s">
-        <v>354</v>
+        <v>412</v>
       </c>
       <c r="F40" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="G40" t="s">
-        <v>314</v>
+        <v>69</v>
       </c>
       <c r="H40" t="s">
         <v>77</v>
+      </c>
+      <c r="I40" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="41">
@@ -3183,7 +3477,7 @@
         <v>236</v>
       </c>
       <c r="E41" t="s">
-        <v>355</v>
+        <v>413</v>
       </c>
       <c r="F41" t="s">
         <v>238</v>
@@ -3193,6 +3487,9 @@
       </c>
       <c r="H41" t="s">
         <v>112</v>
+      </c>
+      <c r="I41" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="42">
@@ -3209,7 +3506,7 @@
         <v>240</v>
       </c>
       <c r="E42" t="s">
-        <v>356</v>
+        <v>414</v>
       </c>
       <c r="F42" t="s">
         <v>242</v>
@@ -3219,6 +3516,9 @@
       </c>
       <c r="H42" t="s">
         <v>243</v>
+      </c>
+      <c r="I42" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="43">
@@ -3235,7 +3535,7 @@
         <v>245</v>
       </c>
       <c r="E43" t="s">
-        <v>357</v>
+        <v>415</v>
       </c>
       <c r="F43" t="s">
         <v>247</v>
@@ -3245,6 +3545,9 @@
       </c>
       <c r="H43" t="s">
         <v>248</v>
+      </c>
+      <c r="I43" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="44">
@@ -3261,7 +3564,7 @@
         <v>84</v>
       </c>
       <c r="E44" t="s">
-        <v>358</v>
+        <v>416</v>
       </c>
       <c r="F44" t="s">
         <v>251</v>
@@ -3271,6 +3574,9 @@
       </c>
       <c r="H44" t="s">
         <v>252</v>
+      </c>
+      <c r="I44" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="45">
@@ -3287,7 +3593,7 @@
         <v>254</v>
       </c>
       <c r="E45" t="s">
-        <v>359</v>
+        <v>417</v>
       </c>
       <c r="F45" t="s">
         <v>256</v>
@@ -3297,6 +3603,9 @@
       </c>
       <c r="H45" t="s">
         <v>257</v>
+      </c>
+      <c r="I45" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="46">
@@ -3313,7 +3622,7 @@
         <v>84</v>
       </c>
       <c r="E46" t="s">
-        <v>360</v>
+        <v>418</v>
       </c>
       <c r="F46" t="s">
         <v>260</v>
@@ -3323,6 +3632,9 @@
       </c>
       <c r="H46" t="s">
         <v>261</v>
+      </c>
+      <c r="I46" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="47">
@@ -3350,6 +3662,9 @@
       <c r="H47" t="s">
         <v>216</v>
       </c>
+      <c r="I47" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
@@ -3365,7 +3680,7 @@
         <v>266</v>
       </c>
       <c r="E48" t="s">
-        <v>361</v>
+        <v>419</v>
       </c>
       <c r="F48" t="s">
         <v>49</v>
@@ -3375,6 +3690,9 @@
       </c>
       <c r="H48" t="s">
         <v>269</v>
+      </c>
+      <c r="I48" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="49">
@@ -3391,7 +3709,7 @@
         <v>84</v>
       </c>
       <c r="E49" t="s">
-        <v>362</v>
+        <v>420</v>
       </c>
       <c r="F49" t="s">
         <v>272</v>
@@ -3401,6 +3719,9 @@
       </c>
       <c r="H49" t="s">
         <v>77</v>
+      </c>
+      <c r="I49" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="50">
@@ -3417,7 +3738,7 @@
         <v>274</v>
       </c>
       <c r="E50" t="s">
-        <v>363</v>
+        <v>421</v>
       </c>
       <c r="F50" t="s">
         <v>276</v>
@@ -3427,6 +3748,9 @@
       </c>
       <c r="H50" t="s">
         <v>277</v>
+      </c>
+      <c r="I50" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="51">
@@ -3443,7 +3767,7 @@
         <v>279</v>
       </c>
       <c r="E51" t="s">
-        <v>364</v>
+        <v>422</v>
       </c>
       <c r="F51" t="s">
         <v>281</v>
@@ -3453,6 +3777,9 @@
       </c>
       <c r="H51" t="s">
         <v>282</v>
+      </c>
+      <c r="I51" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="52">
@@ -3480,6 +3807,9 @@
       <c r="H52" t="s">
         <v>77</v>
       </c>
+      <c r="I52" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
@@ -3495,7 +3825,7 @@
         <v>284</v>
       </c>
       <c r="E53" t="s">
-        <v>365</v>
+        <v>423</v>
       </c>
       <c r="F53" t="s">
         <v>286</v>
@@ -3505,6 +3835,9 @@
       </c>
       <c r="H53" t="s">
         <v>77</v>
+      </c>
+      <c r="I53" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="54">
@@ -3521,7 +3854,7 @@
         <v>288</v>
       </c>
       <c r="E54" t="s">
-        <v>366</v>
+        <v>424</v>
       </c>
       <c r="F54" t="s">
         <v>290</v>
@@ -3531,6 +3864,9 @@
       </c>
       <c r="H54" t="s">
         <v>291</v>
+      </c>
+      <c r="I54" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="55">
@@ -3547,7 +3883,7 @@
         <v>293</v>
       </c>
       <c r="E55" t="s">
-        <v>367</v>
+        <v>425</v>
       </c>
       <c r="F55" t="s">
         <v>295</v>
@@ -3557,6 +3893,9 @@
       </c>
       <c r="H55" t="s">
         <v>140</v>
+      </c>
+      <c r="I55" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="56">
@@ -3573,7 +3912,7 @@
         <v>297</v>
       </c>
       <c r="E56" t="s">
-        <v>368</v>
+        <v>426</v>
       </c>
       <c r="F56" t="s">
         <v>299</v>
@@ -3583,6 +3922,9 @@
       </c>
       <c r="H56" t="s">
         <v>300</v>
+      </c>
+      <c r="I56" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="57">
@@ -3599,7 +3941,7 @@
         <v>302</v>
       </c>
       <c r="E57" t="s">
-        <v>369</v>
+        <v>427</v>
       </c>
       <c r="F57" t="s">
         <v>304</v>
@@ -3609,6 +3951,9 @@
       </c>
       <c r="H57" t="s">
         <v>175</v>
+      </c>
+      <c r="I57" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="58">
@@ -3625,7 +3970,7 @@
         <v>306</v>
       </c>
       <c r="E58" t="s">
-        <v>370</v>
+        <v>428</v>
       </c>
       <c r="F58" t="s">
         <v>308</v>
@@ -3635,6 +3980,9 @@
       </c>
       <c r="H58" t="s">
         <v>309</v>
+      </c>
+      <c r="I58" t="s">
+        <v>377</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/44.xlsx
+++ b/Covid_19_Dataset_and_References/References/44.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Desktop\2023USRAResearch\CovidClef2023\covidClef2023\Covid_19_Dataset_and_References\References\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB3CE0C-DAAC-4555-88A2-888D71E12149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="540">
   <si>
     <t>Doi</t>
   </si>
@@ -235,9 +242,6 @@
  The clinical data in other centers is limited.
  This study aims to explore the feasible parameters which could be used in clinical practice to predict the prognosis in hospitalized patients with severe coronavirus disease-19 (COVID-19).
 </t>
-  </si>
-  <si>
-    <t>[Feng%Pan%NULL%0, Lian%Yang%NULL%1, Yuncheng%Li%NULL%1, Bo%Liang%NULL%1, Lin%Li%NULL%1, Tianhe%Ye%NULL%1, Lingli%Li%NULL%1, Dehan%Liu%NULL%1, Shan%Gui%NULL%1, Yu%Hu%NULL%2, Chuansheng%Zheng%NULL%1]</t>
   </si>
   <si>
     <t>PMC7294915</t>
@@ -267,9 +271,6 @@
 </t>
   </si>
   <si>
-    <t>[Mario%Rivera-Izquierdo%NULL%0, María%del Carmen Valero-Ubierna%NULL%2, María%del Carmen Valero-Ubierna%NULL%0, Juan Luis%R-delAmo%NULL%1, Miguel Ángel%Fernández-García%NULL%1, Silvia%Martínez-Diz%NULL%1, Arezu%Tahery-Mahmoud%NULL%1, Marta%Rodríguez-Camacho%NULL%1, Ana Belén%Gámiz-Molina%NULL%1, Nicolás%Barba-Gyengo%NULL%1, Pablo%Gámez-Baeza%NULL%1, Celia%Cabrero-Rodríguez%NULL%1, Pedro Antonio%Guirado-Ruiz%NULL%1, Divina Tatiana%Martín-Romero%NULL%1, Antonio Jesús%Láinez-Ramos-Bossini%NULL%1, María Rosa%Sánchez-Pérez%NULL%1, José%Mancera-Romero%NULL%1, Miguel%García-Martín%NULL%1, Luis Miguel%Martín-delosReyes%NULL%1, Virginia%Martínez-Ruiz%NULL%2, Virginia%Martínez-Ruiz%NULL%0, Pablo%Lardelli-Claret%NULL%1, Eladio%Jiménez-Mejías%NULL%1, Muhammad%Adrish%NULL%2, Muhammad%Adrish%NULL%0, NULL%NULL%NULL%0, NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
     <t>PMC7316360</t>
   </si>
   <si>
@@ -280,9 +281,6 @@
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>[Qiurong%Ruan%NULL%0, Kun%Yang%NULL%2, Kun%Yang%NULL%0, Wenxia%Wang%NULL%2, Wenxia%Wang%NULL%0, Lingyu%Jiang%NULL%2, Lingyu%Jiang%NULL%0, Jianxin%Song%songsingsjx@sina.com%2, Jianxin%Song%songsingsjx@sina.com%0]</t>
   </si>
   <si>
     <t>PMC7080116</t>
@@ -315,9 +313,6 @@
  Requirement of mechanical ventilation, vasopressor use, and CRRT/HD was associated significantly with inpatient mortality.
  Higher baseline CRP was significantly associated with inpatient death.
 </t>
-  </si>
-  <si>
-    <t>[Grace%Salacup%salacupg@einstein.edu%0, Kevin Bryan%Lo%NULL%2, Kevin Bryan%Lo%NULL%0, Fahad%Gul%NULL%1, Eric%Peterson%NULL%1, Robert%De Joy%NULL%1, Ruchika%Bhargav%NULL%1, Jerald%Pelayo%NULL%1, Jeri%Albano%NULL%1, Zurab%Azmaiparashvili%NULL%1, Sadia%Benzaquen%NULL%1, Gabriel%Patarroyo‐Aponte%NULL%1, Janani%Rangaswami%NULL%1]</t>
   </si>
   <si>
     <t>PMC7361748</t>
@@ -356,9 +351,6 @@
 </t>
   </si>
   <si>
-    <t>[Yufeng%Shang%NULL%0, Tao%Liu%NULL%0, Yongchang%Wei%NULL%1, Jingfeng%Li%NULL%1, Liang%Shao%NULL%1, Minghui%Liu%NULL%1, Yongxi%Zhang%NULL%1, Zhigang%Zhao%NULL%1, Haibo%Xu%NULL%1, Zhiyong%Peng%NULL%1, Fuling%Zhou%zhoufuling@whu.edu.cn%1, Xinghuan%Wang%wangxinghuan@whu.edu.cn%1]</t>
-  </si>
-  <si>
     <t>PMC7332889</t>
   </si>
   <si>
@@ -386,9 +378,6 @@
 </t>
   </si>
   <si>
-    <t>[Shaobo%Shi%NULL%0, Mu%Qin%qinmuae@163.com%0, Yuli%Cai%NULL%0, Tao%Liu%NULL%0, Bo%Shen%NULL%0, Fan%Yang%NULL%0, Sheng%Cao%NULL%0, Xu%Liu%NULL%0, Xu%Liu%NULL%0, Yaozu%Xiang%NULL%0, Qinyan%Zhao%NULL%0, He%Huang%huanghe1977@whu.edu.cn%0, Bo%Yang%yybb112@whu.edu.cn%0, Congxin%Huang%NULL%0]</t>
-  </si>
-  <si>
     <t>PMC7239100</t>
   </si>
   <si>
@@ -409,9 +398,6 @@
  Our study provided evidence that older age, male gender, Asian, indigenous or unknown race, comorbidities (smoking, kidney disease, obesity, pulmonary disease, diabetes, and cardiovascular disease), as well as fever and shortness of breath increased the risk of hospitalization.
  For death outcome in hospitalized patients, only older age and shortness of breath increased the risk.
 </t>
-  </si>
-  <si>
-    <t>[Rita de Cássia Menezes%Soares%NULL%0, Larissa Rodrigues%Mattos%NULL%1, Letícia Martins%Raposo%NULL%1]</t>
   </si>
   <si>
     <t>PMC7470570</t>
@@ -451,9 +437,6 @@
 </t>
   </si>
   <si>
-    <t>[Haiying%Sun%NULL%0, Ruoqi%Ning%NULL%1, Yu%Tao%NULL%1, Chong%Yu%NULL%1, Xiaoyan%Deng%NULL%1, Caili%Zhao%NULL%1, Silu%Meng%NULL%1, Fangxu%Tang%89650793@qq.com%1, Dong%Xu%89650793@qq.com%3, Dong%Xu%89650793@qq.com%0]</t>
-  </si>
-  <si>
     <t>PMC7267277</t>
   </si>
   <si>
@@ -476,9 +459,6 @@
 Conclusions
 We developed two predictive models for the in-hospital mortality of patients with COVID-19 in Wuhan and validated in patients from another center.
 </t>
-  </si>
-  <si>
-    <t>[Kun%Wang%NULL%0, Peiyuan%Zuo%NULL%1, Yuwei%Liu%NULL%1, Meng%Zhang%NULL%1, Xiaofang%Zhao%NULL%1, Songpu%Xie%NULL%1, Hao%Zhang%NULL%1, Xinglin%Chen%NULL%1, Chengyun%Liu%chengyunliu@hust.edu.cn%1]</t>
   </si>
   <si>
     <t>PMC7197616</t>
@@ -506,9 +486,6 @@
 </t>
   </si>
   <si>
-    <t>[Bo%XU%NULL%0, Cun-yu%FAN%NULL%1, An-lu%WANG%NULL%1, Yi-long%ZOU%NULL%1, Yi-han%YU%NULL%1, Cong%HE%NULL%1, Wen-guang%XIA%NULL%1, Ji-xian%ZHANG%NULL%1, Qing%MIAO%NULL%1]</t>
-  </si>
-  <si>
     <t>PMC7166040</t>
   </si>
   <si>
@@ -534,9 +511,6 @@
  In multivariate logistic regression analysis, after adjusting for confounding factors, NLR  more than 11.75 was significantly correlated with all‐cause in‐hospital mortality (odds ratio = 44.351; 95% confidence interval = 4.627‐425.088).
  These results suggest that the NLR at hospital admission is associated with in‐hospital mortality among patients with COVID‐19. Therefore, the NLR appears to be a significant prognostic biomarker of outcomes in critically ill patients with COVID‐19. However, further investigation is needed to validate this relationship with data collected prospectively.
 </t>
-  </si>
-  <si>
-    <t>[Xisheng%Yan%NULL%0, Fen%Li%NULL%1, Xiao%Wang%NULL%0, Jie%Yan%NULL%0, Fen%Zhu%NULL%1, Shifan%Tang%NULL%1, Yingzhong%Deng%NULL%1, Hua%Wang%NULL%1, Rui%Chen%NULL%1, Zhili%Yu%NULL%1, Yaping%Li%NULL%1, Jingzhou%Shang%NULL%1, Lingjun%Zeng%NULL%1, Jie%Zhao%NULL%1, Chaokun%Guan%NULL%1, Qiaomei%Liu%NULL%1, Haifeng%Chen%NULL%1, Wei%Gong%NULL%1, Xin%Huang%NULL%1, Yu‐Jiao%Zhang%NULL%1, Jianguang%Liu%NULL%1, Xiaoyan%Dong%NULL%1, Wen%Zheng%zhengwen12@mails.jlu.edu.cn%1, Shaoping%Nie%spnie@126.com%1, Dongsheng%Li%dongshengli196809@163.com%1]</t>
   </si>
   <si>
     <t>PMC7283791</t>
@@ -570,9 +544,6 @@
 </t>
   </si>
   <si>
-    <t>[Qing%Yang%NULL%0, Ying%Zhou%NULL%1, Xinrong%Wang%NULL%1, Shan%Gao%NULL%0, Yang%Xiao%NULL%1, Weiming%Zhang%NULL%1, Yi%Hu%huyizxyy@163.com%1, Yafei%Wang%wyf_527@163.com%1]</t>
-  </si>
-  <si>
     <t>PMC7336415</t>
   </si>
   <si>
@@ -599,9 +570,6 @@
 Thrombocytopenia is common in patients with COVID‐19, and it is associated with increased risk of in‐hospital mortality.
  The lower the platelet count, the higher the mortality becomes.
 </t>
-  </si>
-  <si>
-    <t>[Xiaobo%Yang%NULL%0, Qingyu%Yang%NULL%1, Yaxin%Wang%NULL%0, Yongran%Wu%NULL%0, Jiqian%Xu%NULL%0, Yuan%Yu%NULL%0, You%Shang%NULL%0]</t>
   </si>
   <si>
     <t>PMC9906135</t>
@@ -633,9 +601,6 @@
 </t>
   </si>
   <si>
-    <t>[Wenjing%Ye%yewenjing@xinhuamed.com.cn%0, Guoxi%Chen%4799082@qq.com%1, Xiaopan%Li%xiaopanli0224@126.com%1, Xing%Lan%474137452@qq.com%1, Chen%Ji%c.ji.3@warwick.ac.uk%1, Min%Hou%min-hou710@hotmail.com%1, Di%Zhang%zhangdizhangdi1234@163.com%1, Guangwang%Zeng%785663609@qq.com%1, Yaling%Wang%953822402@qq.com%1, Cheng%Xu%xucheng112358@126.com%1, Weiwei%Lu%luweiwei100@126.com%1, Ruolin%Cui%crlqwerty@163.com%1, Yuyang%Cai%caiyuyang@sjtu.edu.cn%1, Hai%Huang%1220775601@qq.com%1, Ling%Yang%yangling01@xinhuamed.com.cn%1]</t>
-  </si>
-  <si>
     <t>PMC7332531</t>
   </si>
   <si>
@@ -661,9 +626,6 @@
 The independent risk factors for COVID-19 mortality included older age, male sex, history of diabetes, lymphopenia, and increased procalcitonin, which could help clinicians to identify patients with poor prognosis at an earlier stage.
  The COVID-19 mortality risk score model may assist clinicians in reducing COVID-19–related mortality by implementing better strategies for more effective use of limited medical resources.
 </t>
-  </si>
-  <si>
-    <t>[Caizheng%Yu%NULL%0, Qing%Lei%NULL%1, Wenkai%Li%NULL%1, Xiong%Wang%NULL%1, Wei%Liu%NULL%0, Xionglin%Fan%NULL%1, Wengang%Li%228907211@qq.com%1]</t>
   </si>
   <si>
     <t>PMC7250782</t>
@@ -692,9 +654,6 @@
 </t>
   </si>
   <si>
-    <t>[Fei%Zhou%NULL%0, Ting%Yu%NULL%0, Ronghui%Du%NULL%1, Guohui%Fan%NULL%1, Ying%Liu%NULL%1, Zhibo%Liu%NULL%1, Jie%Xiang%NULL%1, Yeming%Wang%NULL%1, Bin%Song%NULL%1, Xiaoying%Gu%NULL%1, Lulu%Guan%NULL%1, Yuan%Wei%NULL%1, Hui%Li%NULL%1, Xudong%Wu%NULL%1, Jiuyang%Xu%NULL%0, Shengjin%Tu%NULL%1, Yi%Zhang%NULL%1, Hua%Chen%NULL%1, Bin%Cao%NULL%1]</t>
-  </si>
-  <si>
     <t>PMC7270627</t>
   </si>
   <si>
@@ -714,9 +673,6 @@
 </t>
   </si>
   <si>
-    <t>[Moran%Amit%NULL%0, Alex%Sorkin%NULL%1, Jacob%Chen%NULL%1, Barak%Cohen%NULL%2, Barak%Cohen%NULL%0, Dana%Karol%NULL%2, Dana%Karol%NULL%0, Avishai M%Tsur%NULL%1, Shaul%Lev%NULL%2, Shaul%Lev%NULL%0, Tal%Rozenblat%NULL%1, Ayana%Dvir%NULL%2, Ayana%Dvir%NULL%0, Geva%Landau%NULL%1, Lidar%Fridrich%NULL%2, Lidar%Fridrich%NULL%0, Elon%Glassberg%NULL%1, Shani%Kesari%NULL%1, Sigal%Sviri%NULL%1, Ram%Gelman%NULL%1, Asaf%Miller%NULL%1, Danny%Epstein%NULL%1, Ronny%Ben-Avi%NULL%2, Ronny%Ben-Avi%NULL%0, Moshe%Matan%NULL%1, Daniel J.%Jakobson%NULL%2, Daniel J.%Jakobson%NULL%0, Tarif%Bader%NULL%2, Tarif%Bader%NULL%0, David%Dahan%NULL%2, David%Dahan%NULL%0, Daniel A.%King%NULL%1, Anat%Ben-Ari%NULL%1, Arie%Soroksky%NULL%1, Alon%Bar%NULL%2, Alon%Bar%NULL%0, Noam%Fink%NULL%1, Pierre%Singer%NULL%1, Avi%Benov%NULL%1]</t>
-  </si>
-  <si>
     <t>PMC7408944</t>
   </si>
   <si>
@@ -724,9 +680,6 @@
   </si>
   <si>
     <t>Background and objective</t>
-  </si>
-  <si>
-    <t>[Alexander%Muacevic%NULL%0, John R%Adler%NULL%1, Muhammad Sohaib%Asghar%NULL%2, Muhammad Sohaib%Asghar%NULL%0, Syed Jawad%Haider Kazmi%NULL%1, Noman%Ahmed Khan%NULL%1, Mohammed%Akram%NULL%1, Salman%Ahmed Khan%NULL%1, Uzma%Rasheed%NULL%1, Maira%Hassan%NULL%1, Gul Muhammad%Memon%NULL%1]</t>
   </si>
   <si>
     <t>PMC7372235</t>
@@ -765,9 +718,6 @@
 </t>
   </si>
   <si>
-    <t>[Pedro%Baqui%NULL%0, Ioana%Bica%NULL%1, Valerio%Marra%marra@cosmo-ufes.org%1, Ari%Ercole%NULL%1, Mihaela%van der Schaar%NULL%1]</t>
-  </si>
-  <si>
     <t>PMC7332269</t>
   </si>
   <si>
@@ -778,9 +728,6 @@
               •
 Brixia score is a new chest X-ray scoring system designed for COVID-19 pneumonia.
 </t>
-  </si>
-  <si>
-    <t>[Andrea%Borghesi%NULL%0, Angelo%Zigliani%NULL%1, Salvatore%Golemi%NULL%1, Nicola%Carapella%NULL%1, Patrizia%Maculotti%NULL%1, Davide%Farina%NULL%1, Roberto%Maroldi%NULL%1]</t>
   </si>
   <si>
     <t>PMC7207134</t>
@@ -804,9 +751,6 @@
  Conclusions: We provide a description of the first large cohort of hospitalized patients with COVID-19 in Europe.
  Advanced age, male sex, the presence of comorbidities and abnormal laboratory values were more common among the patients with fatal outcomes.
 </t>
-  </si>
-  <si>
-    <t>[Alberto M.%Borobia%NULL%0, Antonio J.%Carcas%NULL%2, Antonio J.%Carcas%NULL%0, Francisco%Arnalich%NULL%1, Rodolfo%Álvarez-Sala%NULL%2, Rodolfo%Álvarez-Sala%NULL%0, Jaime%Monserrat-Villatoro%NULL%1, Manuel%Quintana%NULL%1, Juan Carlos%Figueira%NULL%1, Rosario M.%Torres Santos-Olmo%NULL%1, Julio%García-Rodríguez%NULL%2, Julio%García-Rodríguez%NULL%0, Alberto%Martín-Vega%NULL%1, Antonio%Buño%NULL%1, Elena%Ramírez%NULL%1, Gonzalo%Martínez-Alés%NULL%2, Gonzalo%Martínez-Alés%NULL%0, Nicolás%García-Arenzana%NULL%1, M. Concepción%Núñez%NULL%2, M. Concepción%Núñez%NULL%0, Milagros%Martí-de-Gracia%NULL%1, Francisco%Moreno Ramos%NULL%1, Francisco%Reinoso-Barbero%NULL%1, Alejandro%Martin-Quiros%NULL%1, Angélica%Rivera Núñez%NULL%1, Jesús%Mingorance%NULL%1, Carlos J.%Carpio Segura%NULL%2, Carlos J.%Carpio Segura%NULL%0, Daniel%Prieto Arribas%NULL%1, Esther%Rey Cuevas%NULL%1, Concepción%Prados Sánchez%NULL%1, Juan J.%Rios%NULL%1, Miguel A.%Hernán%NULL%1, Jesús%Frías%NULL%1, José R.%Arribas%NULL%1, NULL%NULL%NULL%0]</t>
   </si>
   <si>
     <t>PMC7356883</t>
@@ -836,9 +780,6 @@
  The ethnic composition of our caseload was similar to the underlying population.
  While a significant number of patients acquired COVID-19 while already in hospital, their outcomes were no worse.
 </t>
-  </si>
-  <si>
-    <t>[Simon E.%Brill%simon.brill@nhs.net%0, Hannah C.%Jarvis%NULL%2, Hannah C.%Jarvis%NULL%0, Ezgi%Ozcan%NULL%1, Thomas L. P.%Burns%NULL%1, Rabia A.%Warraich%NULL%1, Lisa J.%Amani%NULL%1, Amina%Jaffer%NULL%1, Stephanie%Paget%NULL%1, Anand%Sivaramakrishnan%NULL%1, Dean D.%Creer%NULL%1]</t>
   </si>
   <si>
     <t>PMC7315690</t>
@@ -878,9 +819,6 @@
 </t>
   </si>
   <si>
-    <t>[Jianlei%Cao%NULL%0, Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%1, Wenlin%Cheng%NULL%1, Lei%Yu%NULL%1, Ya-Kun%Liu%NULL%1, Xiaoyong%Hu%NULL%1, Qiang%Liu%NULL%1]</t>
-  </si>
-  <si>
     <t>PMC7184479</t>
   </si>
   <si>
@@ -907,9 +845,6 @@
 </t>
   </si>
   <si>
-    <t>[B.%Carter%NULL%0, J.T.%Collins%NULL%1, F.%Barlow-Pay%NULL%1, F.%Rickard%NULL%1, E.%Bruce%NULL%1, A.%Verduri%NULL%1, T.J.%Quinn%NULL%1, E.%Mitchell%NULL%1, A.%Price%NULL%1, A.%Vilches-Moraga%NULL%1, M.J.%Stechman%NULL%1, R.%Short%NULL%1, A.%Einarsson%NULL%1, P.%Braude%NULL%1, S.%Moug%NULL%1, P.K.%Myint%NULL%1, J.%Hewitt%NULL%1, L.%Pearce%NULL%1, K.%McCarthy%NULL%1, C.%Davey%NULL%1, S.%Jones%NULL%1, K.%Lunstone%NULL%1, A.%Cavenagh%NULL%1, C.%Silver%NULL%1, T.%Telford%NULL%1, R.%Simmons%NULL%1, M.%Holloway%NULL%1, J.%Hesford%NULL%1, T.%El Jichi Mutasem%NULL%1, S.%Singh%NULL%1, D.%Paxton%NULL%1, W.%Harris%NULL%1, N.%Galbraith%NULL%1, E.%Bhatti%NULL%1, J.%Edwards%NULL%1, S.%Duffy%NULL%1, J.%Kelly%NULL%1, C.%Murphy%NULL%1, C.%Bisset%NULL%1, R.%Alexander%NULL%1, M.%Garcia%NULL%1, S.%Sangani%NULL%1, T.%Kneen%NULL%1, T.%Lee%NULL%1, A.%McGovern%NULL%1, G.%Guaraldi%NULL%1, E.%Clini%NULL%1]</t>
-  </si>
-  <si>
     <t>PMC7372282</t>
   </si>
   <si>
@@ -917,9 +852,6 @@
   </si>
   <si>
     <t>Clinical characteristics and risk factors for mortality among inpatients with COVID‐19 in Wuhan, China</t>
-  </si>
-  <si>
-    <t>[Fuyang%Chen%NULL%0, Wenwu%Sun%NULL%1, Shengrong%Sun%NULL%1, Zhiyu%Li%lizhiyu@whu.edu.cn%1, Zhong%Wang%zhongwangchn@whu.edu.cn%1, Li%Yu%yuliwhzxyy@163.com%2, Li%Yu%yuliwhzxyy@163.com%0]</t>
   </si>
   <si>
     <t>PMC7300688</t>
@@ -949,9 +881,6 @@
 Hematologic and immunologic impairment showed a significantly different profile between survivors and nonsurvivors in patients with COVID-19 with different severity.
  The longitudinal variations in these biomarkers could serve to predict recovery or fatal outcome.
 </t>
-  </si>
-  <si>
-    <t>[Ruchong%Chen%NULL%0, Ling%Sang%NULL%0, Mei%Jiang%NULL%1, Zhaowei%Yang%NULL%1, Nan%Jia%NULL%1, Wanyi%Fu%NULL%1, Jiaxing%Xie%NULL%1, Weijie%Guan%NULL%0, Wenhua%Liang%NULL%0, Zhengyi%Ni%NULL%1, Yu%Hu%NULL%0, Lei%Liu%NULL%1, Hong%Shan%NULL%1, Chunliang%Lei%NULL%1, Yixiang%Peng%NULL%1, Li%Wei%NULL%1, Yong%Liu%NULL%1, Yahua%Hu%NULL%1, Peng%Peng%NULL%2, Jianming%Wang%NULL%1, Jiyang%Liu%NULL%1, Zhong%Chen%NULL%1, Gang%Li%NULL%1, Zhijian%Zheng%NULL%1, Shaoqin%Qiu%NULL%1, Jie%Luo%NULL%1, Changjiang%Ye%NULL%1, Shaoyong%Zhu%NULL%1, Jinping%Zheng%NULL%1, Nuofu%Zhang%NULL%1, Yimin%Li%NULL%1, Jianxing%He%NULL%1, Jing%Li%NULL%1, Shiyue%Li%NULL%0, Nanshan%Zhong%NULL%0, NULL%NULL%NULL%0]</t>
   </si>
   <si>
     <t>PMC7212968</t>
@@ -988,9 +917,6 @@
 </t>
   </si>
   <si>
-    <t>[Tao%Chen%NULL%0, Di%Wu%NULL%1, Huilong%Chen%NULL%1, Weiming%Yan%NULL%1, Danlei%Yang%NULL%1, Guang%Chen%NULL%1, Ke%Ma%NULL%1, Dong%Xu%NULL%0, Haijing%Yu%NULL%1, Hongwu%Wang%NULL%1, Tao%Wang%NULL%0, Wei%Guo%NULL%1, Jia%Chen%NULL%1, Chen%Ding%NULL%1, Xiaoping%Zhang%NULL%1, Jiaquan%Huang%NULL%1, Meifang%Han%NULL%1, Shusheng%Li%NULL%1, Xiaoping%Luo%NULL%1, Jianping%Zhao%NULL%1, Qin%Ning%NULL%1]</t>
-  </si>
-  <si>
     <t>PMC7190011</t>
   </si>
   <si>
@@ -1004,9 +930,6 @@
               •
               Initial blood urea nitrogen (BUN) and D-dimer levels were associated with mortality in COVID-19 patients.
 </t>
-  </si>
-  <si>
-    <t>[Anying%Cheng%NULL%0, Liu%Hu%NULL%1, Yiru%Wang%NULL%1, Luyan%Huang%NULL%1, Lingxi%Zhao%NULL%1, Congcong%Zhang%NULL%1, Xiyue%Liu%NULL%1, Ranran%Xu%NULL%1, Feng%Liu%NULL%1, Jinping%Li%NULL%1, Dawei%Ye%NULL%1, Tao%Wang%NULL%0, Yongman%Lv%lvyongman@126.com%1, Qingquan%Liu%qqliutj@163.com%0]</t>
   </si>
   <si>
     <t>PMC7377803</t>
@@ -1036,9 +959,6 @@
 Conclusion
 In a large cohort of COVID-19 patients of European origin, main risk factors for mortality were older age, comorbidities, low lymphocyte count and high RALE.
 </t>
-  </si>
-  <si>
-    <t>[Fabio%Ciceri%ciceri.fabio@hsr.it%0, Antonella%Castagna%NULL%1, Patrizia%Rovere-Querini%NULL%1, Francesco%De Cobelli%NULL%1, Annalisa%Ruggeri%NULL%1, Laura%Galli%NULL%1, Caterina%Conte%NULL%1, Rebecca%De Lorenzo%NULL%1, Andrea%Poli%NULL%1, Alberto%Ambrosio%NULL%1, Carlo%Signorelli%NULL%1, Eleonora%Bossi%NULL%1, Maria%Fazio%NULL%1, Cristina%Tresoldi%NULL%1, Sergio%Colombo%NULL%1, Giacomo%Monti%NULL%1, Efgeny%Fominskiy%NULL%1, Stefano%Franchini%NULL%1, Marzia%Spessot%NULL%1, Carlo%Martinenghi%NULL%1, Michele%Carlucci%NULL%1, Luigi%Beretta%NULL%1, Anna Maria%Scandroglio%NULL%1, Massimo%Clementi%NULL%1, Massimo%Locatelli%NULL%1, Moreno%Tresoldi%NULL%1, Paolo%Scarpellini%NULL%1, Gianvito%Martino%NULL%1, Emanuele%Bosi%NULL%1, Lorenzo%Dagna%NULL%1, Adriano%Lazzarin%NULL%1, Giovanni%Landoni%NULL%1, Alberto%Zangrillo%NULL%1]</t>
   </si>
   <si>
     <t>PMC7289745</t>
@@ -1095,9 +1015,6 @@
 </t>
   </si>
   <si>
-    <t>[Yan%Deng%NULL%0, Wei%Liu%NULL%0, Kui%Liu%NULL%0, Yuan-Yuan%Fang%NULL%1, Jin%Shang%NULL%1, Ling%Zhou%NULL%1, Ke%Wang%NULL%0, Fan%Leng%NULL%1, Shuang%Wei%NULL%1, Lei%Chen%NULL%1, Hui-Guo%Liu%NULL%1, Pei-Fang%Wei%NULL%0, Pei-Fang%Wei%NULL%0]</t>
-  </si>
-  <si>
     <t>PMC7289311</t>
   </si>
   <si>
@@ -1105,9 +1022,6 @@
   </si>
   <si>
     <t>The aim of this study was to identify factors associated with the death of patients with COVID-19 pneumonia caused by the novel coronavirus SARS-CoV-2.</t>
-  </si>
-  <si>
-    <t>[Rong-Hui%Du%NULL%0, Li-Rong%Liang%NULL%1, Cheng-Qing%Yang%NULL%1, Wen%Wang%NULL%1, Tan-Ze%Cao%NULL%1, Ming%Li%NULL%1, Guang-Yun%Guo%NULL%1, Juan%Du%NULL%1, Chun-Lan%Zheng%NULL%1, Qi%Zhu%NULL%1, Ming%Hu%NULL%0, Xu-Yan%Li%NULL%1, Peng%Peng%NULL%0, Huan-Zhong%Shi%NULL%1]</t>
   </si>
   <si>
     <t>PMC7144257</t>
@@ -1135,9 +1049,6 @@
  The survival curve analysis showed that higher C-reactive protein (≥5mg/L) plus any other abnormalities of lymphocyte, blood urea nitrogen or lactate dehydrogenase significantly predicted poor prognosis of COVID-19 infected elderly patients.
  This study revealed that the risk factors for the death in these elderly patients included comorbidities, increased levels of C-reactive protein and blood urea nitrogen, and lymphopenia during hospitalization.
 </t>
-  </si>
-  <si>
-    <t>[Shan%Gao%NULL%0, Fang%Jiang%NULL%1, Wei%Jin%NULL%1, Yuan%Shi%NULL%1, Leilei%Yang%NULL%1, Yanqiong%Xia%NULL%1, Linyan%Jia%NULL%1, Bo%Wang%NULL%0, Han%Lin%NULL%1, Yin%Cai%NULL%1, Zhengyuan%Xia%NULL%1, Jian%Peng%NULL%1]</t>
   </si>
   <si>
     <t>PMC7377843</t>
@@ -1170,9 +1081,6 @@
 </t>
   </si>
   <si>
-    <t>[Pedro David%Wendel Garcia%pedrodavid.wendelgarcia@usz.ch%0, Thierry%Fumeaux%thierry.fumeaux@ghol.ch%1, Philippe%Guerci%NULL%1, Dorothea Monika%Heuberger%dorotheamonika.heuberger@usz.ch%1, Jonathan%Montomoli%NULL%1, Ferran%Roche-Campo%NULL%1, Reto Andreas%Schuepbach%reto.schuepbach@usz.ch%1, Matthias Peter%Hilty%matthias.hilty@usz.ch%1, Mario%Alfaro Farias%NULL%1, Antoni%Margarit%NULL%1, Gerardo%Vizmanos-Lamotte%NULL%1, Thomas%Tschoellitsch%NULL%1, Jens%Meier%NULL%1, Francesco S.%Cardona%NULL%1, Josef%Skola%NULL%1, Lenka%Horakova%NULL%1, Hernan%Aguirre-Bermeo%NULL%1, Janina%Apolo%NULL%1, Emmanuel%Novy%NULL%1, Marie-Reine%Losser%NULL%1, Geoffrey%Jurkolow%NULL%1, Gauthier%Delahaye%NULL%1, Sascha%David%NULL%1, Tobias%Welte%NULL%1, Tobias%Wengenmayer%NULL%1, Dawid L.%Staudacher%NULL%1, Theodoros%Aslanidis%NULL%1, Barna%Babik%NULL%1, Anita%Korsos%NULL%1, Janos%Gal%NULL%1, Hermann%Csaba%NULL%1, Abele%Donati%NULL%1, Andrea%Carsetti%NULL%1, Fabrizio%Turrini%NULL%1, Maria Sole%Simonini%NULL%1, Roberto%Ceriani%NULL%1, Martina%Murrone%NULL%1, Emanuele%Rezoagli%NULL%1, Giovanni%Vitale%NULL%1, Alberto%Fogagnolo%NULL%1, Savino%Spadaro%NULL%1, Maddalena Alessandra%Wu%NULL%1, Chiara%Cogliati%NULL%0, Riccardo%Colombo%NULL%0, Emanuele%Catena%NULL%1, Francesca%Facondini%NULL%1, Antonella%Potalivo%NULL%1, Gianfilippo%Gangitano%NULL%1, Tiziana%Perin%NULL%1, Maria Grazia%Bocci%NULL%1, Massimo%Antonelli%NULL%1, Diederik%Gommers%NULL%1, Can%Ince%NULL%1, Eric%Mayor-Vázquez%NULL%1, Maria%Cruz%NULL%1, Martin%Delgado%NULL%1, Raquel Rodriguez%Garcia%NULL%1, Jorge%Gamez Zapata%NULL%1, Begoña%Zalba-Etayo%NULL%1, Herminia%Lozano-Gomez%NULL%1, Pedro%Castro%NULL%1, Adrian%Tellez%NULL%1, Adriana%Jacas%NULL%1, Guido%Muñoz%NULL%1, Rut%Andrea%NULL%1, Jose%Ortiz%NULL%1, Eduard%Quintana%NULL%1, Irene%Rovira%NULL%1, Enric%Reverter%NULL%1, Javier%Fernandez%NULL%1, Miquel%Ferrer%NULL%1, Joan R.%Badia%NULL%1, Arantxa%Lander Azcona%NULL%1, Jesus Escos%Orta%NULL%1, Philipp%Bühler%NULL%1, Silvio%Brugger%NULL%1, Daniel%Hofmaenner%NULL%1, Simone%Unseld%NULL%1, Frank%Ruschitzka%NULL%1, Mallory%Moret-Bochatay%NULL%1, Bernd%Yuen%NULL%1, Thomas%Hillermann%NULL%1, Hatem%Ksouri%NULL%1, Govind Oliver%Sridharan%NULL%1, Anette%Ristic%NULL%1, Michael%Sepulcri%NULL%1, Miodrag%Filipovic%NULL%1, Urs%Pietsch%NULL%1, Petra%Salomon%NULL%1, Iris%Drvaric%NULL%1, Peter%Schott%NULL%1, Severin%Urech%NULL%1, Adriana%Lambert%NULL%1, Lukas%Merki%NULL%1, Marcus%Laube%NULL%1, Frank%Hillgaertner%NULL%1, Marianne%Sieber%NULL%1, Alexander%Dullenkopf%NULL%1, Lina%Petersen%NULL%1, Serge%Grazioli%NULL%1, Peter C.%Rimensberger%NULL%1, Isabelle%Fleisch%NULL%1, Jerome%Lavanchy%NULL%1, Katharina%Marquardt%NULL%1, Karim%Shaikh%NULL%1, Hermann%Redecker%NULL%1, Michael%Stephan%NULL%1, Jan%Brem%NULL%1, Bjarte%Rogdo%NULL%1, Andre%Birkenmaier%NULL%1, Friederike%Meyer zu Bentrup%NULL%1, Patricia%Fodor%NULL%1, Pascal%Locher%NULL%1, Giovanni%Camen%NULL%1, Martin%Siegemund%NULL%1, Nuria%Zellweger%NULL%1, Marie-Madlen%Jeitziner%NULL%1, Beatrice%Jenni-Moser%NULL%1, Christian%Bürkle%NULL%1, Gian-Reto%Kleger%NULL%1, Marilene%Franchitti Laurent%NULL%1, Jean-Christophe%Laurent%NULL%1, Tomislav%Gaspert%NULL%1, Marija%Jovic%NULL%1, Michael%Studhalter%NULL%1, Christoph%Haberthuer%NULL%1, Roger F.%Lussman%NULL%1, Daniela%Selz%NULL%1, Didier%Naon%NULL%1, Romano%Mauri%NULL%0, Samuele%Ceruti%NULL%0, Julien%Marrel%NULL%1, Mirko%Brenni%NULL%1, Rolf%Ensner%NULL%1, Nadine%Gehring%NULL%1, Antje%Heise%NULL%1, Tobias%Huebner%NULL%1, Thomas A.%Neff%NULL%1, Sara%Cereghetti%NULL%1, Filippo%Boroli%NULL%1, Jerome%Pugin%NULL%1, Nandor%Marczin%NULL%1, Joyce%Wong%NULL%1]</t>
-  </si>
-  <si>
     <t>PMC7338015</t>
   </si>
   <si>
@@ -1199,9 +1107,6 @@
 </t>
   </si>
   <si>
-    <t>[Warren%Gavin%NULL%0, Elliott%Campbell%NULL%1, Syed-Adeel%Zaidi%NULL%1, Neha%Gavin%NULL%1, Lana%Dbeibo%NULL%1, Cole%Beeler%NULL%1, Kari%Kuebler%NULL%1, Ahmed%Abdel-Rahman%NULL%1, Mark%Luetkemeyer%NULL%1, Areeba%Kara%NULL%1]</t>
-  </si>
-  <si>
     <t>PMC7345482</t>
   </si>
   <si>
@@ -1224,9 +1129,6 @@
  Cough, shortness of breath, fever/chills, gastrointestinal symptoms, and myalgia were the predominant presentation among AAs hospitalized with COVID‐19 infection.
  Advanced age, higher body mass index, elevated serum ferritin, C‐reactive protein, and D‐dimers are independent predictors of mortality among hospitalized AAs with COVID‐19 infection.
 </t>
-  </si>
-  <si>
-    <t>[Vijay%Gayam%vgayam@interfaithmedical.com%0, Muchi Ditah%Chobufo%NULL%2, Muchi Ditah%Chobufo%NULL%0, Mohamed A.%Merghani%NULL%2, Mohamed A.%Merghani%NULL%0, Shristi%Lamichhane%NULL%1, Pavani Reddy%Garlapati%NULL%1, Mark K.%Adler%NULL%1]</t>
   </si>
   <si>
     <t>PMC7405133</t>
@@ -1255,9 +1157,6 @@
 To our knowledge, this study was the first exploration on rapid scoring systems for critically ill patients with COVID‐19. The REMS could provide emergency clinicians with an effective adjunct risk stratification tool for critically ill patients with COVID‐19, especially for the patients aged &amp;lt;65 years.
  The effectiveness of REMS for screening these patients is attributed to its high negative predictive value.
 </t>
-  </si>
-  <si>
-    <t>[Hai%Hu%huhai@wchscu.cn%0, Ni%Yao%NULL%2, Ni%Yao%NULL%0, Yanru%Qiu%NULL%1, John H.%Burton%NULL%2, John H.%Burton%NULL%0]</t>
   </si>
   <si>
     <t>PMC7264631</t>
@@ -1286,9 +1185,6 @@
 </t>
   </si>
   <si>
-    <t>[Jiaofeng%Huang%NULL%0, Aiguo%Cheng%NULL%1, Rahul%Kumar%NULL%1, Yingying%Fang%NULL%2, Yingying%Fang%NULL%0, Gongping%Chen%NULL%1, Yueyong%Zhu%NULL%1, Su%Lin%sumer5129@fjmu.edu.cn%2, Su%Lin%sumer5129@fjmu.edu.cn%0]</t>
-  </si>
-  <si>
     <t>PMC7273060</t>
   </si>
   <si>
@@ -1313,9 +1209,6 @@
 </t>
   </si>
   <si>
-    <t>[Jong-moon%Hwang%NULL%0, Ju-Hyun%Kim%NULL%1, Jin-Sung%Park%NULL%1, Min Cheol%Chang%wheel633@ynu.ac.kr%1, Donghwi%Park%bdome@hanmail.net%1]</t>
-  </si>
-  <si>
     <t>PMC7342552</t>
   </si>
   <si>
@@ -1323,9 +1216,6 @@
   </si>
   <si>
     <t>Clinical characteristics and 28-day mortality of medical patients admitted with COVID-19 to a central London teaching hospital</t>
-  </si>
-  <si>
-    <t>[K.%Khalil%NULL%0, K.%Agbontaen%NULL%1, D.%McNally%NULL%1, A.%Love%NULL%1, S.%Mandalia%NULL%1, W.%Banya%NULL%1, E.%Starren%NULL%1, R.%Dhunnookchand%NULL%1, H.%Farne%NULL%1, R.%Morton%NULL%1, G.%Davies%NULL%1, O.%Orhan%NULL%1, D%Lai%NULL%1, M.%Nelson%NULL%1, P.L.%Shah%NULL%1, J.L.%Garner%Justin.garner@chelwest.nhs.uk%1]</t>
   </si>
   <si>
     <t>PMC7299867</t>
@@ -1354,9 +1244,6 @@
 </t>
   </si>
   <si>
-    <t>[Eyal%Klang%NULL%0, Gassan%Kassim%NULL%1, Shelly%Soffer%soffer.shelly@gmail.com%1, Robert%Freeman%NULL%2, Robert%Freeman%NULL%0, Matthew A.%Levin%NULL%2, Matthew A.%Levin%NULL%0, David L.%Reich%NULL%1]</t>
-  </si>
-  <si>
     <t>PMC7283736</t>
   </si>
   <si>
@@ -1364,9 +1251,6 @@
   </si>
   <si>
     <t>Clinical comorbidities, characteristics, and outcomes of mechanically ventilated patients in the State of Michigan with SARS-CoV-2 pneumonia</t>
-  </si>
-  <si>
-    <t>[Sandeep%Krishnan%NULL%0, Kinjal%Patel%NULL%1, Ronak%Desai%NULL%1, Anupam%Sule%NULL%1, Peter%Paik%NULL%1, Ashley%Miller%NULL%1, Alicia%Barclay%NULL%1, Adam%Cassella%NULL%1, Jon%Lucaj%NULL%1, Yvonne%Royster%NULL%1, Joffer%Hakim%NULL%1, Zulfiqar%Ahmed%NULL%1, Farhad%Ghoddoussi%NULL%1]</t>
   </si>
   <si>
     <t>PMC7369577</t>
@@ -1394,9 +1278,6 @@
 </t>
   </si>
   <si>
-    <t>[ Manisha%Bhutani%null%0,  David M.%Foureau%null%1,  Shebli%Atrash%null%1,  Peter M.%Voorhees%null%1,  Saad Z.%Usmani%null%1]</t>
-  </si>
-  <si>
     <t>Springer</t>
   </si>
   <si>
@@ -1404,9 +1285,6 @@
   </si>
   <si>
     <t>The Impact of Asthma on Mortality in Patients With COVID-19</t>
-  </si>
-  <si>
-    <t>[Wil%Lieberman-Cribbin%NULL%0, Joseph%Rapp%NULL%1, Naomi%Alpert%NULL%1, Stephanie%Tuminello%NULL%1, Emanuela%Taioli%NULL%1]</t>
   </si>
   <si>
     <t>PMC7832045</t>
@@ -1422,9 +1300,6 @@
  The combined prediction model was developed by these factors with a sensitivity of 100.0% and specificity of 97.2%.
  In conclusion, decreased Lymr, elevated BUN, and raised DD were found to be in association with death outcomes in critically ill patients with COVID-19. A scoring system was developed to predict the clinical outcome of these patients.
 </t>
-  </si>
-  <si>
-    <t>[Q.%Liu%NULL%0, N. C.%Song%NULL%1, Z. K.%Zheng%NULL%1, J. S.%Li%NULL%1, S. K.%Li%NULL%1]</t>
   </si>
   <si>
     <t>PMC7343973</t>
@@ -1450,9 +1325,6 @@
  Coagulation dysfunction is more likely to occur in severe and critically ill patients.
  DD and PT could be used as the significant indicators in predicting the mortality of COVID-19.
 </t>
-  </si>
-  <si>
-    <t>[Hui%Long%NULL%0, Lan%Nie%NULL%1, Xiaochen%Xiang%NULL%1, Huan%Li%NULL%1, Xiaoli%Zhang%NULL%0, Xiaozhi%Fu%NULL%1, Hongwei%Ren%NULL%1, Wanxin%Liu%NULL%1, Qiang%Wang%wangqiang@wust.edu.cn%1, Qingming%Wu%wuhe9224@sina.com%2, Qingming%Wu%wuhe9224@sina.com%0]</t>
   </si>
   <si>
     <t>PMC7301188</t>
@@ -1482,9 +1354,6 @@
 </t>
   </si>
   <si>
-    <t>[Xiaomin%Luo%luoxiaomin04@163.com%0, Wei%Zhou%NULL%1, Xiaojie%Yan%NULL%1, Tangxi%Guo%NULL%1, Benchao%Wang%NULL%1, Hongxia%Xia%NULL%1, Lu%Ye%NULL%1, Jun%Xiong%NULL%1, Zongping%Jiang%NULL%1, Yu%Liu%NULL%1, Bicheng%Zhang%NULL%1, Weize%Yang%NULL%1]</t>
-  </si>
-  <si>
     <t>PMC7314209</t>
   </si>
   <si>
@@ -1509,9 +1378,6 @@
 </t>
   </si>
   <si>
-    <t>[Ying%Luo%NULL%0, Liyan%Mao%NULL%2, Xu%Yuan%NULL%2, Ying%Xue%NULL%2, Qun%Lin%NULL%2, Guoxing%Tang%NULL%2, Huijuan%Song%NULL%2, Feng%Wang%fengwang@tjh.tjmu.edu.cn%2, Ziyong%Sun%zysun@tjh.tjmu.edu.cn%2]</t>
-  </si>
-  <si>
     <t>PMC7357264</t>
   </si>
   <si>
@@ -1523,9 +1389,6 @@
   <si>
     <t xml:space="preserve">Background: The predictive value of prealbumin for the prognosis of coronavirus disease 2019 (COVID-19) has not been extensively investigated.
 </t>
-  </si>
-  <si>
-    <t>[Ying%Luo%NULL%0, Ying%Xue%NULL%0, Liyan%Mao%NULL%0, Xu%Yuan%NULL%0, Qun%Lin%NULL%0, Guoxing%Tang%NULL%0, Huijuan%Song%NULL%0, Feng%Wang%NULL%0, Ziyong%Sun%NULL%0]</t>
   </si>
   <si>
     <t>PMC7333015</t>
@@ -1551,9 +1414,6 @@
 In‐hospital mortality of patients with COVID‐19 presenting with mild symptoms is high and is associated with older age, platelet count and ferritin levels.
  Identifying early predictors of outcome can be useful in the clinical practice to better stratify and manage patients with COVID‐19.
 </t>
-  </si>
-  <si>
-    <t>[Chiara%Masetti%NULL%0, Elena%Generali%NULL%1, Francesca%Colapietro%NULL%1, Antonio%Voza%NULL%1, Maurizio%Cecconi%NULL%1, Antonio%Messina%NULL%1, Paolo%Omodei%NULL%1, Claudio%Angelini%NULL%1, Michele%Ciccarelli%NULL%1, Salvatore%Badalamenti%NULL%1, G. Walter%Canonica%NULL%1, Ana%Lleo%ana.lleo@humanitas.it%1, Alessio%Aghemo%NULL%2, Alessio%Aghemo%NULL%0, NULL%NULL%NULL%0]</t>
   </si>
   <si>
     <t>PMC7323076</t>
@@ -1586,9 +1446,6 @@
 </t>
   </si>
   <si>
-    <t>[Takahisa%Mikami%NULL%0, Hirotaka%Miyashita%NULL%1, Takayuki%Yamada%NULL%1, Matthew%Harrington%NULL%1, Daniel%Steinberg%NULL%1, Andrew%Dunn%NULL%1, Evan%Siau%Evan.Siau@mountsinai.org%1]</t>
-  </si>
-  <si>
     <t>PMC7325642</t>
   </si>
   <si>
@@ -1613,16 +1470,10 @@
 </t>
   </si>
   <si>
-    <t>[Alexis K.%Okoh%alexis.okoh@rwjbh.org%0, Christoph%Sossou%NULL%2, Christoph%Sossou%NULL%0, Neha S.%Dangayach%NULL%1, Sherin%Meledathu%NULL%1, Oluwakemi%Phillips%NULL%1, Corinne%Raczek%NULL%1, Michael%Patti%NULL%1, Nathan%Kang%NULL%1, Sameer A.%Hirji%NULL%1, Charles%Cathcart%NULL%1, Christian%Engell%NULL%1, Marc%Cohen%NULL%1, Sandhya%Nagarakanti%NULL%1, Eliahu%Bishburg%NULL%1, Harpreet S.%Grewal%NULL%1]</t>
-  </si>
-  <si>
     <t>PMC7286208</t>
   </si>
   <si>
     <t>2020-06-02</t>
-  </si>
-  <si>
-    <t>[Feng%Pan%NULL%0,  Lian%Yang%NULL%0,  Yuncheng%Li%NULL%0,  Bo%Liang%NULL%0,  Lin%Li%NULL%0,  Tianhe%Ye%NULL%0,  Lingli%Li%NULL%0,  Dehan%Liu%NULL%0,  Shan%Gui%NULL%0,  Yu%Hu%NULL%0,  Chuansheng%Zheng%NULL%0]</t>
   </si>
   <si>
     <t>Presenting characteristics, comorbidities, and outcomes among 5700 patients hospitalized with COVID-19 in the New York City area</t>
@@ -1649,67 +1500,7 @@
 \n\n\n\n\n\n\n\nConclusions and Relevance:  This case series provides characteristics and early outcomes of sequentially hospitalized patients with confirmed COVID-19 in the New York City area</t>
   </si>
   <si>
-    <t>[Barnaby%D.P.%coreGivesNoEmail%0, Becker%L.B.%coreGivesNoEmail%0, Chelico%J.D.%coreGivesNoEmail%0, Cohen%S.L.%coreGivesNoEmail%0, Cookingham%J.%coreGivesNoEmail%0, Coppa%K.%coreGivesNoEmail%0, Crawford%J.M.%coreGivesNoEmail%0, Davidson%K.W.%coreGivesNoEmail%0, Diefenbach%M.A.%coreGivesNoEmail%0, Dominello%A.J.%coreGivesNoEmail%0, Duer-Hefele%J.%coreGivesNoEmail%0, Falzon%L.%coreGivesNoEmail%0, Gitlin%J.%coreGivesNoEmail%0, Hajizadeh%N.%coreGivesNoEmail%0, Harvin%T.G.%coreGivesNoEmail%0, Hirsch%J.S.%coreGivesNoEmail%0, Hirschwerk%D.A.%coreGivesNoEmail%0, Kim%E.J.%coreGivesNoEmail%0, Kozel%Z.M.%coreGivesNoEmail%0, Marrast%L.M.%coreGivesNoEmail%0, McGinn%T.%coreGivesNoEmail%0, Mogavero%J.N.%coreGivesNoEmail%0, Narasimhan%M.%coreGivesNoEmail%0, Osorio%G.A.%coreGivesNoEmail%0, Qiu%M.%coreGivesNoEmail%0, Richardson%S.%coreGivesNoEmail%0, Zanos%T.P.%coreGivesNoEmail%0]</t>
-  </si>
-  <si>
-    <t>CORE</t>
-  </si>
-  <si>
-    <t>[Mario%Rivera-Izquierdo%NULL%0,  María%del Carmen Valero-Ubierna%NULL%0,  María%del Carmen Valero-Ubierna%NULL%0,  Juan Luis%R-delAmo%NULL%0,  Miguel Ángel%Fernández-García%NULL%0,  Silvia%Martínez-Diz%NULL%0,  Arezu%Tahery-Mahmoud%NULL%0,  Marta%Rodríguez-Camacho%NULL%0,  Ana Belén%Gámiz-Molina%NULL%0,  Nicolás%Barba-Gyengo%NULL%0,  Pablo%Gámez-Baeza%NULL%0,  Celia%Cabrero-Rodríguez%NULL%0,  Pedro Antonio%Guirado-Ruiz%NULL%0,  Divina Tatiana%Martín-Romero%NULL%0,  Antonio Jesús%Láinez-Ramos-Bossini%NULL%0,  María Rosa%Sánchez-Pérez%NULL%0,  José%Mancera-Romero%NULL%0,  Miguel%García-Martín%NULL%0,  Luis Miguel%Martín-delosReyes%NULL%0,  Virginia%Martínez-Ruiz%NULL%0,  Virginia%Martínez-Ruiz%NULL%0,  Pablo%Lardelli-Claret%NULL%0,  Eladio%Jiménez-Mejías%NULL%0,  Muhammad%Adrish%NULL%0,  Muhammad%Adrish%NULL%0,  NULL%NULL%NULL%0,  NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Qiurong%Ruan%NULL%0,  Kun%Yang%NULL%0,  Kun%Yang%NULL%0,  Wenxia%Wang%NULL%0,  Wenxia%Wang%NULL%0,  Lingyu%Jiang%NULL%0,  Lingyu%Jiang%NULL%0,  Jianxin%Song%songsingsjx@sina.com%0,  Jianxin%Song%songsingsjx@sina.com%0]</t>
-  </si>
-  <si>
-    <t>[Grace%Salacup%salacupg@einstein.edu%0,  Kevin Bryan%Lo%NULL%0,  Kevin Bryan%Lo%NULL%0,  Fahad%Gul%NULL%0,  Eric%Peterson%NULL%0,  Robert%De Joy%NULL%0,  Ruchika%Bhargav%NULL%0,  Jerald%Pelayo%NULL%0,  Jeri%Albano%NULL%0,  Zurab%Azmaiparashvili%NULL%0,  Sadia%Benzaquen%NULL%0,  Gabriel%Patarroyo‐Aponte%NULL%0,  Janani%Rangaswami%NULL%0]</t>
-  </si>
-  <si>
     <t>Demographics, comorbidities and outcomes in hospitalized Covid-19 patients in rural southwest Georgia</t>
-  </si>
-  <si>
-    <t>[Yufeng%Shang%NULL%0,  Tao%Liu%NULL%0,  Yongchang%Wei%NULL%0,  Jingfeng%Li%NULL%0,  Liang%Shao%NULL%0,  Minghui%Liu%NULL%0,  Yongxi%Zhang%NULL%0,  Zhigang%Zhao%NULL%0,  Haibo%Xu%NULL%0,  Zhiyong%Peng%NULL%0,  Fuling%Zhou%zhoufuling@whu.edu.cn%0,  Xinghuan%Wang%wangxinghuan@whu.edu.cn%0]</t>
-  </si>
-  <si>
-    <t>[Shaobo%Shi%NULL%0,  Mu%Qin%qinmuae@163.com%0,  Yuli%Cai%NULL%0,  Tao%Liu%NULL%0,  Bo%Shen%NULL%0,  Fan%Yang%NULL%0,  Sheng%Cao%NULL%0,  Xu%Liu%NULL%0,  Xu%Liu%NULL%0,  Yaozu%Xiang%NULL%0,  Qinyan%Zhao%NULL%0,  He%Huang%huanghe1977@whu.edu.cn%0,  Bo%Yang%yybb112@whu.edu.cn%0,  Congxin%Huang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Rita de Cássia Menezes%Soares%NULL%0,  Larissa Rodrigues%Mattos%NULL%0,  Letícia Martins%Raposo%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Haiying%Sun%NULL%0,  Ruoqi%Ning%NULL%0,  Yu%Tao%NULL%0,  Chong%Yu%NULL%0,  Xiaoyan%Deng%NULL%0,  Caili%Zhao%NULL%0,  Silu%Meng%NULL%0,  Fangxu%Tang%89650793@qq.com%0,  Dong%Xu%89650793@qq.com%0,  Dong%Xu%89650793@qq.com%0]</t>
-  </si>
-  <si>
-    <t>[Kun%Wang%NULL%0,  Peiyuan%Zuo%NULL%0,  Yuwei%Liu%NULL%0,  Meng%Zhang%NULL%0,  Xiaofang%Zhao%NULL%0,  Songpu%Xie%NULL%0,  Hao%Zhang%NULL%0,  Xinglin%Chen%NULL%0,  Chengyun%Liu%chengyunliu@hust.edu.cn%0]</t>
-  </si>
-  <si>
-    <t>[Bo%XU%NULL%0,  Cun-yu%FAN%NULL%0,  An-lu%WANG%NULL%0,  Yi-long%ZOU%NULL%0,  Yi-han%YU%NULL%0,  Cong%HE%NULL%0,  Wen-guang%XIA%NULL%0,  Ji-xian%ZHANG%NULL%0,  Qing%MIAO%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Xisheng%Yan%NULL%0,  Fen%Li%NULL%0,  Xiao%Wang%NULL%0,  Jie%Yan%NULL%0,  Fen%Zhu%NULL%0,  Shifan%Tang%NULL%0,  Yingzhong%Deng%NULL%0,  Hua%Wang%NULL%0,  Rui%Chen%NULL%0,  Zhili%Yu%NULL%0,  Yaping%Li%NULL%0,  Jingzhou%Shang%NULL%0,  Lingjun%Zeng%NULL%0,  Jie%Zhao%NULL%0,  Chaokun%Guan%NULL%0,  Qiaomei%Liu%NULL%0,  Haifeng%Chen%NULL%0,  Wei%Gong%NULL%0,  Xin%Huang%NULL%0,  Yu‐Jiao%Zhang%NULL%0,  Jianguang%Liu%NULL%0,  Xiaoyan%Dong%NULL%0,  Wen%Zheng%zhengwen12@mails.jlu.edu.cn%0,  Shaoping%Nie%spnie@126.com%0,  Dongsheng%Li%dongshengli196809@163.com%0]</t>
-  </si>
-  <si>
-    <t>[Qing%Yang%NULL%0,  Ying%Zhou%NULL%0,  Xinrong%Wang%NULL%0,  Shan%Gao%NULL%0,  Yang%Xiao%NULL%0,  Weiming%Zhang%NULL%0,  Yi%Hu%huyizxyy@163.com%0,  Yafei%Wang%wyf_527@163.com%0]</t>
-  </si>
-  <si>
-    <t>[Xiaobo%Yang%NULL%0,  Qingyu%Yang%NULL%0,  Yaxin%Wang%NULL%0,  Yongran%Wu%NULL%0,  Jiqian%Xu%NULL%0,  Yuan%Yu%NULL%0,  You%Shang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Wenjing%Ye%yewenjing@xinhuamed.com.cn%0,  Guoxi%Chen%4799082@qq.com%0,  Xiaopan%Li%xiaopanli0224@126.com%0,  Xing%Lan%474137452@qq.com%0,  Chen%Ji%c.ji.3@warwick.ac.uk%0,  Min%Hou%min-hou710@hotmail.com%0,  Di%Zhang%zhangdizhangdi1234@163.com%0,  Guangwang%Zeng%785663609@qq.com%0,  Yaling%Wang%953822402@qq.com%0,  Cheng%Xu%xucheng112358@126.com%0,  Weiwei%Lu%luweiwei100@126.com%0,  Ruolin%Cui%crlqwerty@163.com%0,  Yuyang%Cai%caiyuyang@sjtu.edu.cn%0,  Hai%Huang%1220775601@qq.com%0,  Ling%Yang%yangling01@xinhuamed.com.cn%0]</t>
-  </si>
-  <si>
-    <t>[Caizheng%Yu%NULL%0,  Qing%Lei%NULL%0,  Wenkai%Li%NULL%0,  Xiong%Wang%NULL%0,  Wei%Liu%NULL%0,  Xionglin%Fan%NULL%0,  Wengang%Li%228907211@qq.com%0]</t>
-  </si>
-  <si>
-    <t>[Fei%Zhou%NULL%0,  Ting%Yu%NULL%0,  Ronghui%Du%NULL%0,  Guohui%Fan%NULL%0,  Ying%Liu%NULL%0,  Zhibo%Liu%NULL%0,  Jie%Xiang%NULL%0,  Yeming%Wang%NULL%0,  Bin%Song%NULL%0,  Xiaoying%Gu%NULL%0,  Lulu%Guan%NULL%0,  Yuan%Wei%NULL%0,  Hui%Li%NULL%0,  Xudong%Wu%NULL%0,  Jiuyang%Xu%NULL%0,  Shengjin%Tu%NULL%0,  Yi%Zhang%NULL%0,  Hua%Chen%NULL%0,  Bin%Cao%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Moran%Amit%NULL%0,  Alex%Sorkin%NULL%0,  Jacob%Chen%NULL%0,  Barak%Cohen%NULL%0,  Barak%Cohen%NULL%0,  Dana%Karol%NULL%0,  Dana%Karol%NULL%0,  Avishai M%Tsur%NULL%0,  Shaul%Lev%NULL%0,  Shaul%Lev%NULL%0,  Tal%Rozenblat%NULL%0,  Ayana%Dvir%NULL%0,  Ayana%Dvir%NULL%0,  Geva%Landau%NULL%0,  Lidar%Fridrich%NULL%0,  Lidar%Fridrich%NULL%0,  Elon%Glassberg%NULL%0,  Shani%Kesari%NULL%0,  Sigal%Sviri%NULL%0,  Ram%Gelman%NULL%0,  Asaf%Miller%NULL%0,  Danny%Epstein%NULL%0,  Ronny%Ben-Avi%NULL%0,  Ronny%Ben-Avi%NULL%0,  Moshe%Matan%NULL%0,  Daniel J.%Jakobson%NULL%0,  Daniel J.%Jakobson%NULL%0,  Tarif%Bader%NULL%0,  Tarif%Bader%NULL%0,  David%Dahan%NULL%0,  David%Dahan%NULL%0,  Daniel A.%King%NULL%0,  Anat%Ben-Ari%NULL%0,  Arie%Soroksky%NULL%0,  Alon%Bar%NULL%0,  Alon%Bar%NULL%0,  Noam%Fink%NULL%0,  Pierre%Singer%NULL%0,  Avi%Benov%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Alexander%Muacevic%NULL%0,  John R%Adler%NULL%0,  Muhammad Sohaib%Asghar%NULL%0,  Muhammad Sohaib%Asghar%NULL%0,  Syed Jawad%Haider Kazmi%NULL%0,  Noman%Ahmed Khan%NULL%0,  Mohammed%Akram%NULL%0,  Salman%Ahmed Khan%NULL%0,  Uzma%Rasheed%NULL%0,  Maira%Hassan%NULL%0,  Gul Muhammad%Memon%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Pedro%Baqui%NULL%0,  Ioana%Bica%NULL%0,  Valerio%Marra%marra@cosmo-ufes.org%0,  Ari%Ercole%NULL%0,  Mihaela%van der Schaar%NULL%0]</t>
   </si>
   <si>
     <t>Laboratory predictors of death from coronavirus disease 2019 (COVID-19) in the area of Valcamonica, Italy</t>
@@ -1728,313 +1519,865 @@
   Conclusions The most important laboratory abnormalities described here in a subset of European COVID-19 patients residing in Valcamonica are highly predictive of in-hospital death and may be useful for guiding risk assessment and clinical decision-making</t>
   </si>
   <si>
-    <t>[Anesi%Adriano%coreGivesNoEmail%0, Bettinardi%Alessandra%coreGivesNoEmail%0, Bonetti%Graziella%coreGivesNoEmail%0, Borrelli%Gianluca%coreGivesNoEmail%0, Fiordalisi%Gianfranco%coreGivesNoEmail%0, Lippi%Giuseppe%coreGivesNoEmail%0, Manelli%Filippo%coreGivesNoEmail%0, Marino%Antonio%coreGivesNoEmail%0, Menolfi%Annamaria%coreGivesNoEmail%0, Patroni%Andrea%coreGivesNoEmail%0, Saggini%Sara%coreGivesNoEmail%0, Volpi%Roberta%coreGivesNoEmail%0]</t>
-  </si>
-  <si>
-    <t>[Andrea%Borghesi%NULL%0,  Angelo%Zigliani%NULL%0,  Salvatore%Golemi%NULL%0,  Nicola%Carapella%NULL%0,  Patrizia%Maculotti%NULL%0,  Davide%Farina%NULL%0,  Roberto%Maroldi%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Alberto M.%Borobia%NULL%0,  Antonio J.%Carcas%NULL%0,  Antonio J.%Carcas%NULL%0,  Francisco%Arnalich%NULL%0,  Rodolfo%Álvarez-Sala%NULL%0,  Rodolfo%Álvarez-Sala%NULL%0,  Jaime%Monserrat-Villatoro%NULL%0,  Manuel%Quintana%NULL%0,  Juan Carlos%Figueira%NULL%0,  Rosario M.%Torres Santos-Olmo%NULL%0,  Julio%García-Rodríguez%NULL%0,  Julio%García-Rodríguez%NULL%0,  Alberto%Martín-Vega%NULL%0,  Antonio%Buño%NULL%0,  Elena%Ramírez%NULL%0,  Gonzalo%Martínez-Alés%NULL%0,  Gonzalo%Martínez-Alés%NULL%0,  Nicolás%García-Arenzana%NULL%0,  M. Concepción%Núñez%NULL%0,  M. Concepción%Núñez%NULL%0,  Milagros%Martí-de-Gracia%NULL%0,  Francisco%Moreno Ramos%NULL%0,  Francisco%Reinoso-Barbero%NULL%0,  Alejandro%Martin-Quiros%NULL%0,  Angélica%Rivera Núñez%NULL%0,  Jesús%Mingorance%NULL%0,  Carlos J.%Carpio Segura%NULL%0,  Carlos J.%Carpio Segura%NULL%0,  Daniel%Prieto Arribas%NULL%0,  Esther%Rey Cuevas%NULL%0,  Concepción%Prados Sánchez%NULL%0,  Juan J.%Rios%NULL%0,  Miguel A.%Hernán%NULL%0,  Jesús%Frías%NULL%0,  José R.%Arribas%NULL%0,  NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Simon E.%Brill%simon.brill@nhs.net%0,  Hannah C.%Jarvis%NULL%0,  Hannah C.%Jarvis%NULL%0,  Ezgi%Ozcan%NULL%0,  Thomas L. P.%Burns%NULL%0,  Rabia A.%Warraich%NULL%0,  Lisa J.%Amani%NULL%0,  Amina%Jaffer%NULL%0,  Stephanie%Paget%NULL%0,  Anand%Sivaramakrishnan%NULL%0,  Dean D.%Creer%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Jianlei%Cao%NULL%0,  Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,  Wenlin%Cheng%NULL%0,  Lei%Yu%NULL%0,  Ya-Kun%Liu%NULL%0,  Xiaoyong%Hu%NULL%0,  Qiang%Liu%NULL%0]</t>
-  </si>
-  <si>
-    <t>[B.%Carter%NULL%0,  J.T.%Collins%NULL%0,  F.%Barlow-Pay%NULL%0,  F.%Rickard%NULL%0,  E.%Bruce%NULL%0,  A.%Verduri%NULL%0,  T.J.%Quinn%NULL%0,  E.%Mitchell%NULL%0,  A.%Price%NULL%0,  A.%Vilches-Moraga%NULL%0,  M.J.%Stechman%NULL%0,  R.%Short%NULL%0,  A.%Einarsson%NULL%0,  P.%Braude%NULL%0,  S.%Moug%NULL%0,  P.K.%Myint%NULL%0,  J.%Hewitt%NULL%0,  L.%Pearce%NULL%0,  K.%McCarthy%NULL%0,  C.%Davey%NULL%0,  S.%Jones%NULL%0,  K.%Lunstone%NULL%0,  A.%Cavenagh%NULL%0,  C.%Silver%NULL%0,  T.%Telford%NULL%0,  R.%Simmons%NULL%0,  M.%Holloway%NULL%0,  J.%Hesford%NULL%0,  T.%El Jichi Mutasem%NULL%0,  S.%Singh%NULL%0,  D.%Paxton%NULL%0,  W.%Harris%NULL%0,  N.%Galbraith%NULL%0,  E.%Bhatti%NULL%0,  J.%Edwards%NULL%0,  S.%Duffy%NULL%0,  J.%Kelly%NULL%0,  C.%Murphy%NULL%0,  C.%Bisset%NULL%0,  R.%Alexander%NULL%0,  M.%Garcia%NULL%0,  S.%Sangani%NULL%0,  T.%Kneen%NULL%0,  T.%Lee%NULL%0,  A.%McGovern%NULL%0,  G.%Guaraldi%NULL%0,  E.%Clini%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Fuyang%Chen%NULL%0,  Wenwu%Sun%NULL%0,  Shengrong%Sun%NULL%0,  Zhiyu%Li%lizhiyu@whu.edu.cn%0,  Zhong%Wang%zhongwangchn@whu.edu.cn%0,  Li%Yu%yuliwhzxyy@163.com%0,  Li%Yu%yuliwhzxyy@163.com%0]</t>
-  </si>
-  <si>
-    <t>[Ruchong%Chen%NULL%0,  Ling%Sang%NULL%0,  Mei%Jiang%NULL%0,  Zhaowei%Yang%NULL%0,  Nan%Jia%NULL%0,  Wanyi%Fu%NULL%0,  Jiaxing%Xie%NULL%0,  Weijie%Guan%NULL%0,  Wenhua%Liang%NULL%0,  Zhengyi%Ni%NULL%0,  Yu%Hu%NULL%0,  Lei%Liu%NULL%0,  Hong%Shan%NULL%0,  Chunliang%Lei%NULL%0,  Yixiang%Peng%NULL%0,  Li%Wei%NULL%0,  Yong%Liu%NULL%0,  Yahua%Hu%NULL%0,  Peng%Peng%NULL%0,  Jianming%Wang%NULL%0,  Jiyang%Liu%NULL%0,  Zhong%Chen%NULL%0,  Gang%Li%NULL%0,  Zhijian%Zheng%NULL%0,  Shaoqin%Qiu%NULL%0,  Jie%Luo%NULL%0,  Changjiang%Ye%NULL%0,  Shaoyong%Zhu%NULL%0,  Jinping%Zheng%NULL%0,  Nuofu%Zhang%NULL%0,  Yimin%Li%NULL%0,  Jianxing%He%NULL%0,  Jing%Li%NULL%0,  Shiyue%Li%NULL%0,  Nanshan%Zhong%NULL%0,  NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Tao%Chen%NULL%0,  Di%Wu%NULL%0,  Huilong%Chen%NULL%0,  Weiming%Yan%NULL%0,  Danlei%Yang%NULL%0,  Guang%Chen%NULL%0,  Ke%Ma%NULL%0,  Dong%Xu%NULL%0,  Haijing%Yu%NULL%0,  Hongwu%Wang%NULL%0,  Tao%Wang%NULL%0,  Wei%Guo%NULL%0,  Jia%Chen%NULL%0,  Chen%Ding%NULL%0,  Xiaoping%Zhang%NULL%0,  Jiaquan%Huang%NULL%0,  Meifang%Han%NULL%0,  Shusheng%Li%NULL%0,  Xiaoping%Luo%NULL%0,  Jianping%Zhao%NULL%0,  Qin%Ning%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Anying%Cheng%NULL%0,  Liu%Hu%NULL%0,  Yiru%Wang%NULL%0,  Luyan%Huang%NULL%0,  Lingxi%Zhao%NULL%0,  Congcong%Zhang%NULL%0,  Xiyue%Liu%NULL%0,  Ranran%Xu%NULL%0,  Feng%Liu%NULL%0,  Jinping%Li%NULL%0,  Dawei%Ye%NULL%0,  Tao%Wang%NULL%0,  Yongman%Lv%lvyongman@126.com%0,  Qingquan%Liu%qqliutj@163.com%0]</t>
-  </si>
-  <si>
-    <t>[Fabio%Ciceri%ciceri.fabio@hsr.it%0,  Antonella%Castagna%NULL%0,  Patrizia%Rovere-Querini%NULL%0,  Francesco%De Cobelli%NULL%0,  Annalisa%Ruggeri%NULL%0,  Laura%Galli%NULL%0,  Caterina%Conte%NULL%0,  Rebecca%De Lorenzo%NULL%0,  Andrea%Poli%NULL%0,  Alberto%Ambrosio%NULL%0,  Carlo%Signorelli%NULL%0,  Eleonora%Bossi%NULL%0,  Maria%Fazio%NULL%0,  Cristina%Tresoldi%NULL%0,  Sergio%Colombo%NULL%0,  Giacomo%Monti%NULL%0,  Efgeny%Fominskiy%NULL%0,  Stefano%Franchini%NULL%0,  Marzia%Spessot%NULL%0,  Carlo%Martinenghi%NULL%0,  Michele%Carlucci%NULL%0,  Luigi%Beretta%NULL%0,  Anna Maria%Scandroglio%NULL%0,  Massimo%Clementi%NULL%0,  Massimo%Locatelli%NULL%0,  Moreno%Tresoldi%NULL%0,  Paolo%Scarpellini%NULL%0,  Gianvito%Martino%NULL%0,  Emanuele%Bosi%NULL%0,  Lorenzo%Dagna%NULL%0,  Adriano%Lazzarin%NULL%0,  Giovanni%Landoni%NULL%0,  Alberto%Zangrillo%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Yan%Deng%NULL%0,  Wei%Liu%NULL%0,  Kui%Liu%NULL%0,  Yuan-Yuan%Fang%NULL%0,  Jin%Shang%NULL%0,  Ling%Zhou%NULL%0,  Ke%Wang%NULL%0,  Fan%Leng%NULL%0,  Shuang%Wei%NULL%0,  Lei%Chen%NULL%0,  Hui-Guo%Liu%NULL%0,  Pei-Fang%Wei%NULL%0,  Pei-Fang%Wei%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Rong-Hui%Du%NULL%0,  Li-Rong%Liang%NULL%0,  Cheng-Qing%Yang%NULL%0,  Wen%Wang%NULL%0,  Tan-Ze%Cao%NULL%0,  Ming%Li%NULL%0,  Guang-Yun%Guo%NULL%0,  Juan%Du%NULL%0,  Chun-Lan%Zheng%NULL%0,  Qi%Zhu%NULL%0,  Ming%Hu%NULL%0,  Xu-Yan%Li%NULL%0,  Peng%Peng%NULL%0,  Huan-Zhong%Shi%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Shan%Gao%NULL%0,  Fang%Jiang%NULL%0,  Wei%Jin%NULL%0,  Yuan%Shi%NULL%0,  Leilei%Yang%NULL%0,  Yanqiong%Xia%NULL%0,  Linyan%Jia%NULL%0,  Bo%Wang%NULL%0,  Han%Lin%NULL%0,  Yin%Cai%NULL%0,  Zhengyuan%Xia%NULL%0,  Jian%Peng%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Pedro David%Wendel Garcia%pedrodavid.wendelgarcia@usz.ch%0,  Thierry%Fumeaux%thierry.fumeaux@ghol.ch%0,  Philippe%Guerci%NULL%0,  Dorothea Monika%Heuberger%dorotheamonika.heuberger@usz.ch%0,  Jonathan%Montomoli%NULL%0,  Ferran%Roche-Campo%NULL%0,  Reto Andreas%Schuepbach%reto.schuepbach@usz.ch%0,  Matthias Peter%Hilty%matthias.hilty@usz.ch%0,  Mario%Alfaro Farias%NULL%0,  Antoni%Margarit%NULL%0,  Gerardo%Vizmanos-Lamotte%NULL%0,  Thomas%Tschoellitsch%NULL%0,  Jens%Meier%NULL%0,  Francesco S.%Cardona%NULL%0,  Josef%Skola%NULL%0,  Lenka%Horakova%NULL%0,  Hernan%Aguirre-Bermeo%NULL%0,  Janina%Apolo%NULL%0,  Emmanuel%Novy%NULL%0,  Marie-Reine%Losser%NULL%0,  Geoffrey%Jurkolow%NULL%0,  Gauthier%Delahaye%NULL%0,  Sascha%David%NULL%0,  Tobias%Welte%NULL%0,  Tobias%Wengenmayer%NULL%0,  Dawid L.%Staudacher%NULL%0,  Theodoros%Aslanidis%NULL%0,  Barna%Babik%NULL%0,  Anita%Korsos%NULL%0,  Janos%Gal%NULL%0,  Hermann%Csaba%NULL%0,  Abele%Donati%NULL%0,  Andrea%Carsetti%NULL%0,  Fabrizio%Turrini%NULL%0,  Maria Sole%Simonini%NULL%0,  Roberto%Ceriani%NULL%0,  Martina%Murrone%NULL%0,  Emanuele%Rezoagli%NULL%0,  Giovanni%Vitale%NULL%0,  Alberto%Fogagnolo%NULL%0,  Savino%Spadaro%NULL%0,  Maddalena Alessandra%Wu%NULL%0,  Chiara%Cogliati%NULL%0,  Riccardo%Colombo%NULL%0,  Emanuele%Catena%NULL%0,  Francesca%Facondini%NULL%0,  Antonella%Potalivo%NULL%0,  Gianfilippo%Gangitano%NULL%0,  Tiziana%Perin%NULL%0,  Maria Grazia%Bocci%NULL%0,  Massimo%Antonelli%NULL%0,  Diederik%Gommers%NULL%0,  Can%Ince%NULL%0,  Eric%Mayor-Vázquez%NULL%0,  Maria%Cruz%NULL%0,  Martin%Delgado%NULL%0,  Raquel Rodriguez%Garcia%NULL%0,  Jorge%Gamez Zapata%NULL%0,  Begoña%Zalba-Etayo%NULL%0,  Herminia%Lozano-Gomez%NULL%0,  Pedro%Castro%NULL%0,  Adrian%Tellez%NULL%0,  Adriana%Jacas%NULL%0,  Guido%Muñoz%NULL%0,  Rut%Andrea%NULL%0,  Jose%Ortiz%NULL%0,  Eduard%Quintana%NULL%0,  Irene%Rovira%NULL%0,  Enric%Reverter%NULL%0,  Javier%Fernandez%NULL%0,  Miquel%Ferrer%NULL%0,  Joan R.%Badia%NULL%0,  Arantxa%Lander Azcona%NULL%0,  Jesus Escos%Orta%NULL%0,  Philipp%Bühler%NULL%0,  Silvio%Brugger%NULL%0,  Daniel%Hofmaenner%NULL%0,  Simone%Unseld%NULL%0,  Frank%Ruschitzka%NULL%0,  Mallory%Moret-Bochatay%NULL%0,  Bernd%Yuen%NULL%0,  Thomas%Hillermann%NULL%0,  Hatem%Ksouri%NULL%0,  Govind Oliver%Sridharan%NULL%0,  Anette%Ristic%NULL%0,  Michael%Sepulcri%NULL%0,  Miodrag%Filipovic%NULL%0,  Urs%Pietsch%NULL%0,  Petra%Salomon%NULL%0,  Iris%Drvaric%NULL%0,  Peter%Schott%NULL%0,  Severin%Urech%NULL%0,  Adriana%Lambert%NULL%0,  Lukas%Merki%NULL%0,  Marcus%Laube%NULL%0,  Frank%Hillgaertner%NULL%0,  Marianne%Sieber%NULL%0,  Alexander%Dullenkopf%NULL%0,  Lina%Petersen%NULL%0,  Serge%Grazioli%NULL%0,  Peter C.%Rimensberger%NULL%0,  Isabelle%Fleisch%NULL%0,  Jerome%Lavanchy%NULL%0,  Katharina%Marquardt%NULL%0,  Karim%Shaikh%NULL%0,  Hermann%Redecker%NULL%0,  Michael%Stephan%NULL%0,  Jan%Brem%NULL%0,  Bjarte%Rogdo%NULL%0,  Andre%Birkenmaier%NULL%0,  Friederike%Meyer zu Bentrup%NULL%0,  Patricia%Fodor%NULL%0,  Pascal%Locher%NULL%0,  Giovanni%Camen%NULL%0,  Martin%Siegemund%NULL%0,  Nuria%Zellweger%NULL%0,  Marie-Madlen%Jeitziner%NULL%0,  Beatrice%Jenni-Moser%NULL%0,  Christian%Bürkle%NULL%0,  Gian-Reto%Kleger%NULL%0,  Marilene%Franchitti Laurent%NULL%0,  Jean-Christophe%Laurent%NULL%0,  Tomislav%Gaspert%NULL%0,  Marija%Jovic%NULL%0,  Michael%Studhalter%NULL%0,  Christoph%Haberthuer%NULL%0,  Roger F.%Lussman%NULL%0,  Daniela%Selz%NULL%0,  Didier%Naon%NULL%0,  Romano%Mauri%NULL%0,  Samuele%Ceruti%NULL%0,  Julien%Marrel%NULL%0,  Mirko%Brenni%NULL%0,  Rolf%Ensner%NULL%0,  Nadine%Gehring%NULL%0,  Antje%Heise%NULL%0,  Tobias%Huebner%NULL%0,  Thomas A.%Neff%NULL%0,  Sara%Cereghetti%NULL%0,  Filippo%Boroli%NULL%0,  Jerome%Pugin%NULL%0,  Nandor%Marczin%NULL%0,  Joyce%Wong%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Warren%Gavin%NULL%0,  Elliott%Campbell%NULL%0,  Syed-Adeel%Zaidi%NULL%0,  Neha%Gavin%NULL%0,  Lana%Dbeibo%NULL%0,  Cole%Beeler%NULL%0,  Kari%Kuebler%NULL%0,  Ahmed%Abdel-Rahman%NULL%0,  Mark%Luetkemeyer%NULL%0,  Areeba%Kara%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Vijay%Gayam%vgayam@interfaithmedical.com%0,  Muchi Ditah%Chobufo%NULL%0,  Muchi Ditah%Chobufo%NULL%0,  Mohamed A.%Merghani%NULL%0,  Mohamed A.%Merghani%NULL%0,  Shristi%Lamichhane%NULL%0,  Pavani Reddy%Garlapati%NULL%0,  Mark K.%Adler%NULL%0]</t>
-  </si>
-  <si>
     <t>Is it all in the heart? Myocardial injury as major predictor of mortality among hospitalized COVID\u201019 patients</t>
   </si>
   <si>
-    <t>[Cao%Y%coreGivesNoEmail%0, Imam%Z%coreGivesNoEmail%0, Lippi%G%coreGivesNoEmail%0, Oran%DP%coreGivesNoEmail%0, Shi%S%coreGivesNoEmail%0]</t>
-  </si>
-  <si>
-    <t>[Hai%Hu%huhai@wchscu.cn%0,  Ni%Yao%NULL%0,  Ni%Yao%NULL%0,  Yanru%Qiu%NULL%0,  John H.%Burton%NULL%0,  John H.%Burton%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Jiaofeng%Huang%NULL%0,  Aiguo%Cheng%NULL%0,  Rahul%Kumar%NULL%0,  Yingying%Fang%NULL%0,  Yingying%Fang%NULL%0,  Gongping%Chen%NULL%0,  Yueyong%Zhu%NULL%0,  Su%Lin%sumer5129@fjmu.edu.cn%0,  Su%Lin%sumer5129@fjmu.edu.cn%0]</t>
-  </si>
-  <si>
-    <t>[Jong-moon%Hwang%NULL%0,  Ju-Hyun%Kim%NULL%0,  Jin-Sung%Park%NULL%0,  Min Cheol%Chang%wheel633@ynu.ac.kr%0,  Donghwi%Park%bdome@hanmail.net%0]</t>
-  </si>
-  <si>
-    <t>[K.%Khalil%NULL%0,  K.%Agbontaen%NULL%0,  D.%McNally%NULL%0,  A.%Love%NULL%0,  S.%Mandalia%NULL%0,  W.%Banya%NULL%0,  E.%Starren%NULL%0,  R.%Dhunnookchand%NULL%0,  H.%Farne%NULL%0,  R.%Morton%NULL%0,  G.%Davies%NULL%0,  O.%Orhan%NULL%0,  D%Lai%NULL%0,  M.%Nelson%NULL%0,  P.L.%Shah%NULL%0,  J.L.%Garner%Justin.garner@chelwest.nhs.uk%0]</t>
-  </si>
-  <si>
-    <t>[Eyal%Klang%NULL%0,  Gassan%Kassim%NULL%0,  Shelly%Soffer%soffer.shelly@gmail.com%0,  Robert%Freeman%NULL%0,  Robert%Freeman%NULL%0,  Matthew A.%Levin%NULL%0,  Matthew A.%Levin%NULL%0,  David L.%Reich%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Sandeep%Krishnan%NULL%0,  Kinjal%Patel%NULL%0,  Ronak%Desai%NULL%0,  Anupam%Sule%NULL%0,  Peter%Paik%NULL%0,  Ashley%Miller%NULL%0,  Alicia%Barclay%NULL%0,  Adam%Cassella%NULL%0,  Jon%Lucaj%NULL%0,  Yvonne%Royster%NULL%0,  Joffer%Hakim%NULL%0,  Zulfiqar%Ahmed%NULL%0,  Farhad%Ghoddoussi%NULL%0]</t>
-  </si>
-  <si>
-    <t>[ Manisha%Bhutani%null%0,   David M.%Foureau%null%0,   Shebli%Atrash%null%0,   Peter M.%Voorhees%null%0,   Saad Z.%Usmani%null%0]</t>
-  </si>
-  <si>
-    <t>[Wil%Lieberman-Cribbin%NULL%0,  Joseph%Rapp%NULL%0,  Naomi%Alpert%NULL%0,  Stephanie%Tuminello%NULL%0,  Emanuela%Taioli%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Q.%Liu%NULL%0,  N. C.%Song%NULL%0,  Z. K.%Zheng%NULL%0,  J. S.%Li%NULL%0,  S. K.%Li%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Hui%Long%NULL%0,  Lan%Nie%NULL%0,  Xiaochen%Xiang%NULL%0,  Huan%Li%NULL%0,  Xiaoli%Zhang%NULL%0,  Xiaozhi%Fu%NULL%0,  Hongwei%Ren%NULL%0,  Wanxin%Liu%NULL%0,  Qiang%Wang%wangqiang@wust.edu.cn%0,  Qingming%Wu%wuhe9224@sina.com%0,  Qingming%Wu%wuhe9224@sina.com%0]</t>
-  </si>
-  <si>
-    <t>[Xiaomin%Luo%luoxiaomin04@163.com%0,  Wei%Zhou%NULL%0,  Xiaojie%Yan%NULL%0,  Tangxi%Guo%NULL%0,  Benchao%Wang%NULL%0,  Hongxia%Xia%NULL%0,  Lu%Ye%NULL%0,  Jun%Xiong%NULL%0,  Zongping%Jiang%NULL%0,  Yu%Liu%NULL%0,  Bicheng%Zhang%NULL%0,  Weize%Yang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Ying%Luo%NULL%0,  Liyan%Mao%NULL%0,  Xu%Yuan%NULL%0,  Ying%Xue%NULL%0,  Qun%Lin%NULL%0,  Guoxing%Tang%NULL%0,  Huijuan%Song%NULL%0,  Feng%Wang%fengwang@tjh.tjmu.edu.cn%0,  Ziyong%Sun%zysun@tjh.tjmu.edu.cn%0]</t>
-  </si>
-  <si>
-    <t>[Ying%Luo%NULL%0,  Ying%Xue%NULL%0,  Liyan%Mao%NULL%0,  Xu%Yuan%NULL%0,  Qun%Lin%NULL%0,  Guoxing%Tang%NULL%0,  Huijuan%Song%NULL%0,  Feng%Wang%NULL%0,  Ziyong%Sun%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Chiara%Masetti%NULL%0,  Elena%Generali%NULL%0,  Francesca%Colapietro%NULL%0,  Antonio%Voza%NULL%0,  Maurizio%Cecconi%NULL%0,  Antonio%Messina%NULL%0,  Paolo%Omodei%NULL%0,  Claudio%Angelini%NULL%0,  Michele%Ciccarelli%NULL%0,  Salvatore%Badalamenti%NULL%0,  G. Walter%Canonica%NULL%0,  Ana%Lleo%ana.lleo@humanitas.it%0,  Alessio%Aghemo%NULL%0,  Alessio%Aghemo%NULL%0,  NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Takahisa%Mikami%NULL%0,  Hirotaka%Miyashita%NULL%0,  Takayuki%Yamada%NULL%0,  Matthew%Harrington%NULL%0,  Daniel%Steinberg%NULL%0,  Andrew%Dunn%NULL%0,  Evan%Siau%Evan.Siau@mountsinai.org%0]</t>
-  </si>
-  <si>
-    <t>[Alexis K.%Okoh%alexis.okoh@rwjbh.org%0,  Christoph%Sossou%NULL%0,  Christoph%Sossou%NULL%0,  Neha S.%Dangayach%NULL%0,  Sherin%Meledathu%NULL%0,  Oluwakemi%Phillips%NULL%0,  Corinne%Raczek%NULL%0,  Michael%Patti%NULL%0,  Nathan%Kang%NULL%0,  Sameer A.%Hirji%NULL%0,  Charles%Cathcart%NULL%0,  Christian%Engell%NULL%0,  Marc%Cohen%NULL%0,  Sandhya%Nagarakanti%NULL%0,  Eliahu%Bishburg%NULL%0,  Harpreet S.%Grewal%NULL%0]</t>
-  </si>
-  <si>
     <t>Other found locations</t>
   </si>
   <si>
-    <t>[Feng%Pan%NULL%0,   Lian%Yang%NULL%0,   Yuncheng%Li%NULL%1,   Bo%Liang%NULL%0,   Lin%Li%NULL%1,   Tianhe%Ye%NULL%0,   Lingli%Li%NULL%0,   Dehan%Liu%NULL%1,   Shan%Gui%NULL%0,   Yu%Hu%NULL%0,   Chuansheng%Zheng%NULL%0]</t>
-  </si>
-  <si>
     <t>_PMC</t>
   </si>
   <si>
-    <t>[Barnaby%D.P.%coreGivesNoEmail%0,  Becker%L.B.%coreGivesNoEmail%0,  Chelico%J.D.%coreGivesNoEmail%0,  Cohen%S.L.%coreGivesNoEmail%0,  Cookingham%J.%coreGivesNoEmail%0,  Coppa%K.%coreGivesNoEmail%0,  Crawford%J.M.%coreGivesNoEmail%0,  Davidson%K.W.%coreGivesNoEmail%0,  Diefenbach%M.A.%coreGivesNoEmail%0,  Dominello%A.J.%coreGivesNoEmail%0,  Duer-Hefele%J.%coreGivesNoEmail%0,  Falzon%L.%coreGivesNoEmail%0,  Gitlin%J.%coreGivesNoEmail%0,  Hajizadeh%N.%coreGivesNoEmail%0,  Harvin%T.G.%coreGivesNoEmail%0,  Hirsch%J.S.%coreGivesNoEmail%0,  Hirschwerk%D.A.%coreGivesNoEmail%0,  Kim%E.J.%coreGivesNoEmail%0,  Kozel%Z.M.%coreGivesNoEmail%0,  Marrast%L.M.%coreGivesNoEmail%0,  McGinn%T.%coreGivesNoEmail%0,  Mogavero%J.N.%coreGivesNoEmail%0,  Narasimhan%M.%coreGivesNoEmail%0,  Osorio%G.A.%coreGivesNoEmail%0,  Qiu%M.%coreGivesNoEmail%0,  Richardson%S.%coreGivesNoEmail%0,  Zanos%T.P.%coreGivesNoEmail%0]</t>
-  </si>
-  <si>
-    <t>[Mario%Rivera-Izquierdo%NULL%0,   María%del Carmen Valero-Ubierna%NULL%2,   María%del Carmen Valero-Ubierna%NULL%0,   Juan Luis%R-delAmo%NULL%1,   Miguel Ángel%Fernández-García%NULL%1,   Silvia%Martínez-Diz%NULL%1,   Arezu%Tahery-Mahmoud%NULL%1,   Marta%Rodríguez-Camacho%NULL%1,   Ana Belén%Gámiz-Molina%NULL%1,   Nicolás%Barba-Gyengo%NULL%1,   Pablo%Gámez-Baeza%NULL%1,   Celia%Cabrero-Rodríguez%NULL%1,   Pedro Antonio%Guirado-Ruiz%NULL%1,   Divina Tatiana%Martín-Romero%NULL%1,   Antonio Jesús%Láinez-Ramos-Bossini%NULL%1,   María Rosa%Sánchez-Pérez%NULL%1,   José%Mancera-Romero%NULL%1,   Miguel%García-Martín%NULL%1,   Luis Miguel%Martín-delosReyes%NULL%1,   Virginia%Martínez-Ruiz%NULL%2,   Virginia%Martínez-Ruiz%NULL%0,   Pablo%Lardelli-Claret%NULL%1,   Eladio%Jiménez-Mejías%NULL%1,   Muhammad%Adrish%NULL%0,   Muhammad%Adrish%NULL%0,   NULL%NULL%NULL%0,   NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Qiurong%Ruan%NULL%0,   Kun%Yang%NULL%2,   Kun%Yang%NULL%0,   Wenxia%Wang%NULL%2,   Wenxia%Wang%NULL%0,   Lingyu%Jiang%NULL%2,   Lingyu%Jiang%NULL%0,   Jianxin%Song%songsingsjx@sina.com%2,   Jianxin%Song%songsingsjx@sina.com%0]</t>
-  </si>
-  <si>
     <t>_PMC_Springer</t>
   </si>
   <si>
-    <t>[Grace%Salacup%salacupg@einstein.edu%0,   Kevin Bryan%Lo%NULL%0,   Kevin Bryan%Lo%NULL%0,   Fahad%Gul%NULL%0,   Eric%Peterson%NULL%0,   Robert%De Joy%NULL%0,   Ruchika%Bhargav%NULL%0,   Jerald%Pelayo%NULL%0,   Jeri%Albano%NULL%0,   Zurab%Azmaiparashvili%NULL%0,   Sadia%Benzaquen%NULL%0,   Gabriel%Patarroyo‐Aponte%NULL%0,   Janani%Rangaswami%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Yufeng%Shang%NULL%0,   Tao%Liu%NULL%0,   Yongchang%Wei%NULL%1,   Jingfeng%Li%NULL%1,   Liang%Shao%NULL%1,   Minghui%Liu%NULL%1,   Yongxi%Zhang%NULL%0,   Zhigang%Zhao%NULL%1,   Haibo%Xu%NULL%2,   Zhiyong%Peng%NULL%0,   Fuling%Zhou%zhoufuling@whu.edu.cn%1,   Xinghuan%Wang%wangxinghuan@whu.edu.cn%0]</t>
-  </si>
-  <si>
     <t>_PMC_elsevier</t>
   </si>
   <si>
-    <t>[Shaobo%Shi%NULL%0,   Mu%Qin%qinmuae@163.com%0,   Yuli%Cai%NULL%0,   Tao%Liu%NULL%0,   Bo%Shen%NULL%0,   Fan%Yang%NULL%0,   Sheng%Cao%NULL%0,   Xu%Liu%NULL%0,   Xu%Liu%NULL%0,   Yaozu%Xiang%NULL%0,   Qinyan%Zhao%NULL%0,   He%Huang%huanghe1977@whu.edu.cn%0,   Bo%Yang%yybb112@whu.edu.cn%0,   Congxin%Huang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Rita de Cássia Menezes%Soares%NULL%0,   Larissa Rodrigues%Mattos%NULL%1,   Letícia Martins%Raposo%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Haiying%Sun%NULL%0,   Ruoqi%Ning%NULL%1,   Yu%Tao%NULL%0,   Chong%Yu%NULL%1,   Xiaoyan%Deng%NULL%1,   Caili%Zhao%NULL%1,   Silu%Meng%NULL%1,   Fangxu%Tang%89650793@qq.com%1,   Dong%Xu%89650793@qq.com%0,   Dong%Xu%89650793@qq.com%0]</t>
-  </si>
-  <si>
-    <t>[Kun%Wang%NULL%0,   Peiyuan%Zuo%NULL%1,   Yuwei%Liu%NULL%1,   Meng%Zhang%NULL%0,   Xiaofang%Zhao%NULL%1,   Songpu%Xie%NULL%1,   Hao%Zhang%NULL%1,   Xinglin%Chen%NULL%1,   Chengyun%Liu%chengyunliu@hust.edu.cn%1]</t>
-  </si>
-  <si>
-    <t>[Bo%XU%NULL%0,   Cun-yu%FAN%NULL%1,   An-lu%WANG%NULL%1,   Yi-long%ZOU%NULL%1,   Yi-han%YU%NULL%1,   Cong%HE%NULL%1,   Wen-guang%XIA%NULL%1,   Ji-xian%ZHANG%NULL%1,   Qing%MIAO%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Xisheng%Yan%NULL%0,   Fen%Li%NULL%0,   Xiao%Wang%NULL%0,   Jie%Yan%NULL%0,   Fen%Zhu%NULL%0,   Shifan%Tang%NULL%0,   Yingzhong%Deng%NULL%0,   Hua%Wang%NULL%0,   Rui%Chen%NULL%0,   Zhili%Yu%NULL%0,   Yaping%Li%NULL%0,   Jingzhou%Shang%NULL%0,   Lingjun%Zeng%NULL%0,   Jie%Zhao%NULL%0,   Chaokun%Guan%NULL%0,   Qiaomei%Liu%NULL%0,   Haifeng%Chen%NULL%0,   Wei%Gong%NULL%0,   Xin%Huang%NULL%0,   Yu‐Jiao%Zhang%NULL%0,   Jianguang%Liu%NULL%0,   Xiaoyan%Dong%NULL%0,   Wen%Zheng%zhengwen12@mails.jlu.edu.cn%0,   Shaoping%Nie%spnie@126.com%0,   Dongsheng%Li%dongshengli196809@163.com%0]</t>
-  </si>
-  <si>
-    <t>[Qing%Yang%NULL%0,   Ying%Zhou%NULL%0,   Xinrong%Wang%NULL%1,   Shan%Gao%NULL%1,   Yang%Xiao%NULL%0,   Weiming%Zhang%NULL%1,   Yi%Hu%huyizxyy@163.com%0,   Yafei%Wang%wyf_527@163.com%1]</t>
-  </si>
-  <si>
-    <t>[Xiaobo%Yang%NULL%0,   Qingyu%Yang%NULL%1,   Yaxin%Wang%NULL%0,   Yongran%Wu%NULL%0,   Jiqian%Xu%NULL%0,   Yuan%Yu%NULL%0,   You%Shang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Wenjing%Ye%yewenjing@xinhuamed.com.cn%0,   Guoxi%Chen%4799082@qq.com%1,   Xiaopan%Li%xiaopanli0224@126.com%1,   Xing%Lan%474137452@qq.com%1,   Chen%Ji%c.ji.3@warwick.ac.uk%1,   Min%Hou%min-hou710@hotmail.com%1,   Di%Zhang%zhangdizhangdi1234@163.com%1,   Guangwang%Zeng%785663609@qq.com%1,   Yaling%Wang%953822402@qq.com%1,   Cheng%Xu%xucheng112358@126.com%1,   Weiwei%Lu%luweiwei100@126.com%1,   Ruolin%Cui%crlqwerty@163.com%1,   Yuyang%Cai%caiyuyang@sjtu.edu.cn%1,   Hai%Huang%1220775601@qq.com%1,   Ling%Yang%yangling01@xinhuamed.com.cn%1]</t>
-  </si>
-  <si>
-    <t>[Caizheng%Yu%NULL%0,   Qing%Lei%NULL%1,   Wenkai%Li%NULL%1,   Xiong%Wang%NULL%0,   Wei%Liu%NULL%0,   Xionglin%Fan%NULL%1,   Wengang%Li%228907211@qq.com%1]</t>
-  </si>
-  <si>
-    <t>[Fei%Zhou%NULL%0,   Ting%Yu%NULL%0,   Ronghui%Du%NULL%0,   Guohui%Fan%NULL%0,   Ying%Liu%NULL%0,   Zhibo%Liu%NULL%0,   Jie%Xiang%NULL%0,   Yeming%Wang%NULL%0,   Bin%Song%NULL%0,   Xiaoying%Gu%NULL%0,   Lulu%Guan%NULL%0,   Yuan%Wei%NULL%0,   Hui%Li%NULL%0,   Xudong%Wu%NULL%0,   Jiuyang%Xu%NULL%0,   Shengjin%Tu%NULL%0,   Yi%Zhang%NULL%0,   Hua%Chen%NULL%0,   Bin%Cao%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Moran%Amit%NULL%0,   Alex%Sorkin%NULL%1,   Jacob%Chen%NULL%1,   Barak%Cohen%NULL%2,   Barak%Cohen%NULL%0,   Dana%Karol%NULL%2,   Dana%Karol%NULL%0,   Avishai M%Tsur%NULL%1,   Shaul%Lev%NULL%2,   Shaul%Lev%NULL%0,   Tal%Rozenblat%NULL%1,   Ayana%Dvir%NULL%2,   Ayana%Dvir%NULL%0,   Geva%Landau%NULL%1,   Lidar%Fridrich%NULL%2,   Lidar%Fridrich%NULL%0,   Elon%Glassberg%NULL%1,   Shani%Kesari%NULL%1,   Sigal%Sviri%NULL%1,   Ram%Gelman%NULL%1,   Asaf%Miller%NULL%1,   Danny%Epstein%NULL%1,   Ronny%Ben-Avi%NULL%2,   Ronny%Ben-Avi%NULL%0,   Moshe%Matan%NULL%1,   Daniel J.%Jakobson%NULL%2,   Daniel J.%Jakobson%NULL%0,   Tarif%Bader%NULL%2,   Tarif%Bader%NULL%0,   David%Dahan%NULL%2,   David%Dahan%NULL%0,   Daniel A.%King%NULL%1,   Anat%Ben-Ari%NULL%1,   Arie%Soroksky%NULL%1,   Alon%Bar%NULL%2,   Alon%Bar%NULL%0,   Noam%Fink%NULL%1,   Pierre%Singer%NULL%1,   Avi%Benov%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Alexander%Muacevic%NULL%0,   John R%Adler%NULL%3,   Muhammad Sohaib%Asghar%NULL%2,   Muhammad Sohaib%Asghar%NULL%0,   Syed Jawad%Haider Kazmi%NULL%1,   Noman%Ahmed Khan%NULL%1,   Mohammed%Akram%NULL%1,   Salman%Ahmed Khan%NULL%1,   Uzma%Rasheed%NULL%1,   Maira%Hassan%NULL%1,   Gul Muhammad%Memon%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Pedro%Baqui%NULL%0,   Ioana%Bica%NULL%1,   Valerio%Marra%marra@cosmo-ufes.org%1,   Ari%Ercole%NULL%1,   Mihaela%van der Schaar%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Anesi%Adriano%coreGivesNoEmail%0,  Bettinardi%Alessandra%coreGivesNoEmail%2,  Bonetti%Graziella%coreGivesNoEmail%2,  Borrelli%Gianluca%coreGivesNoEmail%2,  Fiordalisi%Gianfranco%coreGivesNoEmail%2,  Lippi%Giuseppe%coreGivesNoEmail%0,  Manelli%Filippo%coreGivesNoEmail%2,  Marino%Antonio%coreGivesNoEmail%2,  Menolfi%Annamaria%coreGivesNoEmail%2,  Patroni%Andrea%coreGivesNoEmail%2,  Saggini%Sara%coreGivesNoEmail%2,  Volpi%Roberta%coreGivesNoEmail%2]</t>
-  </si>
-  <si>
-    <t>[Andrea%Borghesi%NULL%0,   Angelo%Zigliani%NULL%1,   Salvatore%Golemi%NULL%1,   Nicola%Carapella%NULL%1,   Patrizia%Maculotti%NULL%1,   Davide%Farina%NULL%1,   Roberto%Maroldi%NULL%2]</t>
-  </si>
-  <si>
-    <t>[Alberto M.%Borobia%NULL%0,   Antonio J.%Carcas%NULL%2,   Antonio J.%Carcas%NULL%0,   Francisco%Arnalich%NULL%1,   Rodolfo%Álvarez-Sala%NULL%2,   Rodolfo%Álvarez-Sala%NULL%0,   Jaime%Monserrat-Villatoro%NULL%1,   Manuel%Quintana%NULL%1,   Juan Carlos%Figueira%NULL%1,   Rosario M.%Torres Santos-Olmo%NULL%1,   Julio%García-Rodríguez%NULL%2,   Julio%García-Rodríguez%NULL%0,   Alberto%Martín-Vega%NULL%1,   Antonio%Buño%NULL%1,   Elena%Ramírez%NULL%1,   Gonzalo%Martínez-Alés%NULL%2,   Gonzalo%Martínez-Alés%NULL%0,   Nicolás%García-Arenzana%NULL%1,   M. Concepción%Núñez%NULL%2,   M. Concepción%Núñez%NULL%0,   Milagros%Martí-de-Gracia%NULL%1,   Francisco%Moreno Ramos%NULL%1,   Francisco%Reinoso-Barbero%NULL%1,   Alejandro%Martin-Quiros%NULL%1,   Angélica%Rivera Núñez%NULL%1,   Jesús%Mingorance%NULL%1,   Carlos J.%Carpio Segura%NULL%2,   Carlos J.%Carpio Segura%NULL%0,   Daniel%Prieto Arribas%NULL%1,   Esther%Rey Cuevas%NULL%1,   Concepción%Prados Sánchez%NULL%1,   Juan J.%Rios%NULL%1,   Miguel A.%Hernán%NULL%1,   Jesús%Frías%NULL%1,   José R.%Arribas%NULL%1,   NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Simon E.%Brill%simon.brill@nhs.net%0,   Hannah C.%Jarvis%NULL%0,   Hannah C.%Jarvis%NULL%0,   Ezgi%Ozcan%NULL%0,   Thomas L. P.%Burns%NULL%0,   Rabia A.%Warraich%NULL%0,   Lisa J.%Amani%NULL%0,   Amina%Jaffer%NULL%0,   Stephanie%Paget%NULL%0,   Anand%Sivaramakrishnan%NULL%0,   Dean D.%Creer%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Jianlei%Cao%NULL%0,   Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,   Wenlin%Cheng%NULL%0,   Lei%Yu%NULL%0,   Ya-Kun%Liu%NULL%0,   Xiaoyong%Hu%NULL%0,   Qiang%Liu%NULL%0]</t>
-  </si>
-  <si>
-    <t>[B.%Carter%NULL%0,   J.T.%Collins%NULL%1,   F.%Barlow-Pay%NULL%1,   F.%Rickard%NULL%1,   E.%Bruce%NULL%1,   A.%Verduri%NULL%1,   T.J.%Quinn%NULL%1,   E.%Mitchell%NULL%1,   A.%Price%NULL%1,   A.%Vilches-Moraga%NULL%1,   M.J.%Stechman%NULL%1,   R.%Short%NULL%1,   A.%Einarsson%NULL%1,   P.%Braude%NULL%1,   S.%Moug%NULL%1,   P.K.%Myint%NULL%1,   J.%Hewitt%NULL%1,   L.%Pearce%NULL%1,   K.%McCarthy%NULL%1,   C.%Davey%NULL%1,   S.%Jones%NULL%1,   K.%Lunstone%NULL%1,   A.%Cavenagh%NULL%1,   C.%Silver%NULL%1,   T.%Telford%NULL%1,   R.%Simmons%NULL%1,   M.%Holloway%NULL%1,   J.%Hesford%NULL%1,   T.%El Jichi Mutasem%NULL%1,   S.%Singh%NULL%1,   D.%Paxton%NULL%1,   W.%Harris%NULL%1,   N.%Galbraith%NULL%1,   E.%Bhatti%NULL%1,   J.%Edwards%NULL%1,   S.%Duffy%NULL%1,   J.%Kelly%NULL%1,   C.%Murphy%NULL%1,   C.%Bisset%NULL%1,   R.%Alexander%NULL%1,   M.%Garcia%NULL%1,   S.%Sangani%NULL%1,   T.%Kneen%NULL%1,   T.%Lee%NULL%1,   A.%McGovern%NULL%1,   G.%Guaraldi%NULL%1,   E.%Clini%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Fuyang%Chen%NULL%0,   Wenwu%Sun%NULL%1,   Shengrong%Sun%NULL%1,   Zhiyu%Li%lizhiyu@whu.edu.cn%1,   Zhong%Wang%zhongwangchn@whu.edu.cn%1,   Li%Yu%yuliwhzxyy@163.com%2,   Li%Yu%yuliwhzxyy@163.com%0]</t>
-  </si>
-  <si>
-    <t>[Ruchong%Chen%NULL%0,   Ling%Sang%NULL%0,   Mei%Jiang%NULL%1,   Zhaowei%Yang%NULL%1,   Nan%Jia%NULL%1,   Wanyi%Fu%NULL%1,   Jiaxing%Xie%NULL%1,   Weijie%Guan%NULL%0,   Wenhua%Liang%NULL%0,   Zhengyi%Ni%NULL%1,   Yu%Hu%NULL%0,   Lei%Liu%NULL%0,   Hong%Shan%NULL%0,   Chunliang%Lei%NULL%1,   Yixiang%Peng%NULL%1,   Li%Wei%NULL%0,   Yong%Liu%NULL%0,   Yahua%Hu%NULL%1,   Peng%Peng%NULL%0,   Jianming%Wang%NULL%0,   Jiyang%Liu%NULL%1,   Zhong%Chen%NULL%0,   Gang%Li%NULL%0,   Zhijian%Zheng%NULL%1,   Shaoqin%Qiu%NULL%1,   Jie%Luo%NULL%0,   Changjiang%Ye%NULL%1,   Shaoyong%Zhu%NULL%1,   Jinping%Zheng%NULL%1,   Nuofu%Zhang%NULL%1,   Yimin%Li%NULL%1,   Jianxing%He%NULL%1,   Jing%Li%NULL%2,   Shiyue%Li%NULL%0,   Nanshan%Zhong%NULL%0,   NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Tao%Chen%NULL%0,   Di%Wu%NULL%0,   Huilong%Chen%NULL%0,   Weiming%Yan%NULL%0,   Danlei%Yang%NULL%0,   Guang%Chen%NULL%0,   Ke%Ma%NULL%0,   Dong%Xu%NULL%0,   Haijing%Yu%NULL%0,   Hongwu%Wang%NULL%0,   Tao%Wang%NULL%0,   Wei%Guo%NULL%0,   Jia%Chen%NULL%0,   Chen%Ding%NULL%0,   Xiaoping%Zhang%NULL%0,   Jiaquan%Huang%NULL%0,   Meifang%Han%NULL%0,   Shusheng%Li%NULL%0,   Xiaoping%Luo%NULL%0,   Jianping%Zhao%NULL%0,   Qin%Ning%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Anying%Cheng%NULL%0,   Liu%Hu%NULL%1,   Yiru%Wang%NULL%1,   Luyan%Huang%NULL%1,   Lingxi%Zhao%NULL%1,   Congcong%Zhang%NULL%1,   Xiyue%Liu%NULL%1,   Ranran%Xu%NULL%1,   Feng%Liu%NULL%1,   Jinping%Li%NULL%1,   Dawei%Ye%NULL%1,   Tao%Wang%NULL%0,   Yongman%Lv%lvyongman@126.com%1,   Qingquan%Liu%qqliutj@163.com%1]</t>
-  </si>
-  <si>
-    <t>[Fabio%Ciceri%ciceri.fabio@hsr.it%0,   Antonella%Castagna%NULL%0,   Patrizia%Rovere-Querini%NULL%1,   Francesco%De Cobelli%NULL%1,   Annalisa%Ruggeri%NULL%1,   Laura%Galli%NULL%1,   Caterina%Conte%NULL%0,   Rebecca%De Lorenzo%NULL%1,   Andrea%Poli%NULL%1,   Alberto%Ambrosio%NULL%1,   Carlo%Signorelli%NULL%1,   Eleonora%Bossi%NULL%1,   Maria%Fazio%NULL%1,   Cristina%Tresoldi%NULL%1,   Sergio%Colombo%NULL%1,   Giacomo%Monti%NULL%0,   Efgeny%Fominskiy%NULL%1,   Stefano%Franchini%NULL%1,   Marzia%Spessot%NULL%1,   Carlo%Martinenghi%NULL%1,   Michele%Carlucci%NULL%1,   Luigi%Beretta%NULL%0,   Anna Maria%Scandroglio%NULL%1,   Massimo%Clementi%NULL%1,   Massimo%Locatelli%NULL%1,   Moreno%Tresoldi%NULL%1,   Paolo%Scarpellini%NULL%1,   Gianvito%Martino%NULL%1,   Emanuele%Bosi%NULL%1,   Lorenzo%Dagna%NULL%0,   Adriano%Lazzarin%NULL%1,   Giovanni%Landoni%NULL%0,   Alberto%Zangrillo%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Yan%Deng%NULL%0,   Wei%Liu%NULL%0,   Kui%Liu%NULL%0,   Yuan-Yuan%Fang%NULL%0,   Jin%Shang%NULL%0,   Ling%Zhou%NULL%0,   Ke%Wang%NULL%0,   Fan%Leng%NULL%0,   Shuang%Wei%NULL%0,   Lei%Chen%NULL%0,   Hui-Guo%Liu%NULL%0,   Pei-Fang%Wei%NULL%0,   Pei-Fang%Wei%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Rong-Hui%Du%NULL%0,   Li-Rong%Liang%NULL%0,   Cheng-Qing%Yang%NULL%0,   Wen%Wang%NULL%0,   Tan-Ze%Cao%NULL%0,   Ming%Li%NULL%0,   Guang-Yun%Guo%NULL%0,   Juan%Du%NULL%0,   Chun-Lan%Zheng%NULL%0,   Qi%Zhu%NULL%0,   Ming%Hu%NULL%0,   Xu-Yan%Li%NULL%0,   Peng%Peng%NULL%0,   Huan-Zhong%Shi%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Shan%Gao%NULL%0,   Fang%Jiang%NULL%0,   Wei%Jin%NULL%1,   Yuan%Shi%NULL%1,   Leilei%Yang%NULL%1,   Yanqiong%Xia%NULL%1,   Linyan%Jia%NULL%1,   Bo%Wang%NULL%0,   Han%Lin%NULL%1,   Yin%Cai%NULL%1,   Zhengyuan%Xia%NULL%0,   Jian%Peng%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Pedro David%Wendel Garcia%pedrodavid.wendelgarcia@usz.ch%0,   Thierry%Fumeaux%thierry.fumeaux@ghol.ch%1,   Philippe%Guerci%NULL%1,   Dorothea Monika%Heuberger%dorotheamonika.heuberger@usz.ch%1,   Jonathan%Montomoli%NULL%1,   Ferran%Roche-Campo%NULL%1,   Reto Andreas%Schuepbach%reto.schuepbach@usz.ch%1,   Matthias Peter%Hilty%matthias.hilty@usz.ch%1,   Mario%Alfaro Farias%NULL%1,   Antoni%Margarit%NULL%1,   Gerardo%Vizmanos-Lamotte%NULL%1,   Thomas%Tschoellitsch%NULL%1,   Jens%Meier%NULL%1,   Francesco S.%Cardona%NULL%1,   Josef%Skola%NULL%1,   Lenka%Horakova%NULL%1,   Hernan%Aguirre-Bermeo%NULL%1,   Janina%Apolo%NULL%1,   Emmanuel%Novy%NULL%1,   Marie-Reine%Losser%NULL%1,   Geoffrey%Jurkolow%NULL%1,   Gauthier%Delahaye%NULL%1,   Sascha%David%NULL%1,   Tobias%Welte%NULL%0,   Tobias%Wengenmayer%NULL%1,   Dawid L.%Staudacher%NULL%1,   Theodoros%Aslanidis%NULL%1,   Barna%Babik%NULL%1,   Anita%Korsos%NULL%1,   Janos%Gal%NULL%1,   Hermann%Csaba%NULL%1,   Abele%Donati%NULL%1,   Andrea%Carsetti%NULL%1,   Fabrizio%Turrini%NULL%1,   Maria Sole%Simonini%NULL%1,   Roberto%Ceriani%NULL%1,   Martina%Murrone%NULL%1,   Emanuele%Rezoagli%NULL%1,   Giovanni%Vitale%NULL%1,   Alberto%Fogagnolo%NULL%1,   Savino%Spadaro%NULL%1,   Maddalena Alessandra%Wu%NULL%1,   Chiara%Cogliati%NULL%0,   Riccardo%Colombo%NULL%0,   Emanuele%Catena%NULL%1,   Francesca%Facondini%NULL%1,   Antonella%Potalivo%NULL%1,   Gianfilippo%Gangitano%NULL%1,   Tiziana%Perin%NULL%1,   Maria Grazia%Bocci%NULL%1,   Massimo%Antonelli%NULL%1,   Diederik%Gommers%NULL%1,   Can%Ince%NULL%1,   Eric%Mayor-Vázquez%NULL%1,   Maria%Cruz%NULL%1,   Martin%Delgado%NULL%1,   Raquel Rodriguez%Garcia%NULL%1,   Jorge%Gamez Zapata%NULL%1,   Begoña%Zalba-Etayo%NULL%1,   Herminia%Lozano-Gomez%NULL%1,   Pedro%Castro%NULL%0,   Adrian%Tellez%NULL%1,   Adriana%Jacas%NULL%0,   Guido%Muñoz%NULL%0,   Rut%Andrea%NULL%0,   Jose%Ortiz%NULL%1,   Eduard%Quintana%NULL%0,   Irene%Rovira%NULL%0,   Enric%Reverter%NULL%0,   Javier%Fernandez%NULL%1,   Miquel%Ferrer%NULL%0,   Joan R.%Badia%NULL%1,   Arantxa%Lander Azcona%NULL%1,   Jesus Escos%Orta%NULL%1,   Philipp%Bühler%NULL%1,   Silvio%Brugger%NULL%1,   Daniel%Hofmaenner%NULL%1,   Simone%Unseld%NULL%1,   Frank%Ruschitzka%NULL%0,   Mallory%Moret-Bochatay%NULL%1,   Bernd%Yuen%NULL%1,   Thomas%Hillermann%NULL%1,   Hatem%Ksouri%NULL%1,   Govind Oliver%Sridharan%NULL%1,   Anette%Ristic%NULL%1,   Michael%Sepulcri%NULL%1,   Miodrag%Filipovic%NULL%1,   Urs%Pietsch%NULL%1,   Petra%Salomon%NULL%1,   Iris%Drvaric%NULL%1,   Peter%Schott%NULL%1,   Severin%Urech%NULL%1,   Adriana%Lambert%NULL%1,   Lukas%Merki%NULL%1,   Marcus%Laube%NULL%1,   Frank%Hillgaertner%NULL%1,   Marianne%Sieber%NULL%1,   Alexander%Dullenkopf%NULL%1,   Lina%Petersen%NULL%1,   Serge%Grazioli%NULL%1,   Peter C.%Rimensberger%NULL%1,   Isabelle%Fleisch%NULL%1,   Jerome%Lavanchy%NULL%1,   Katharina%Marquardt%NULL%1,   Karim%Shaikh%NULL%1,   Hermann%Redecker%NULL%1,   Michael%Stephan%NULL%1,   Jan%Brem%NULL%1,   Bjarte%Rogdo%NULL%1,   Andre%Birkenmaier%NULL%1,   Friederike%Meyer zu Bentrup%NULL%1,   Patricia%Fodor%NULL%1,   Pascal%Locher%NULL%1,   Giovanni%Camen%NULL%1,   Martin%Siegemund%NULL%1,   Nuria%Zellweger%NULL%1,   Marie-Madlen%Jeitziner%NULL%1,   Beatrice%Jenni-Moser%NULL%1,   Christian%Bürkle%NULL%1,   Gian-Reto%Kleger%NULL%1,   Marilene%Franchitti Laurent%NULL%1,   Jean-Christophe%Laurent%NULL%1,   Tomislav%Gaspert%NULL%1,   Marija%Jovic%NULL%1,   Michael%Studhalter%NULL%1,   Christoph%Haberthuer%NULL%1,   Roger F.%Lussman%NULL%1,   Daniela%Selz%NULL%1,   Didier%Naon%NULL%1,   Romano%Mauri%NULL%0,   Samuele%Ceruti%NULL%1,   Julien%Marrel%NULL%1,   Mirko%Brenni%NULL%1,   Rolf%Ensner%NULL%1,   Nadine%Gehring%NULL%1,   Antje%Heise%NULL%1,   Tobias%Huebner%NULL%1,   Thomas A.%Neff%NULL%1,   Sara%Cereghetti%NULL%1,   Filippo%Boroli%NULL%1,   Jerome%Pugin%NULL%1,   Nandor%Marczin%NULL%1,   Joyce%Wong%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Warren%Gavin%NULL%0,   Elliott%Campbell%NULL%1,   Syed-Adeel%Zaidi%NULL%1,   Neha%Gavin%NULL%1,   Lana%Dbeibo%NULL%1,   Cole%Beeler%NULL%1,   Kari%Kuebler%NULL%1,   Ahmed%Abdel-Rahman%NULL%1,   Mark%Luetkemeyer%NULL%1,   Areeba%Kara%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Vijay%Gayam%vgayam@interfaithmedical.com%0,   Muchi Ditah%Chobufo%NULL%2,   Muchi Ditah%Chobufo%NULL%0,   Mohamed A.%Merghani%NULL%2,   Mohamed A.%Merghani%NULL%0,   Shristi%Lamichhane%NULL%1,   Pavani Reddy%Garlapati%NULL%1,   Mark K.%Adler%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Cao%Y%coreGivesNoEmail%0,  Imam%Z%coreGivesNoEmail%1,  Lippi%G%coreGivesNoEmail%1,  Oran%DP%coreGivesNoEmail%1,  Shi%S%coreGivesNoEmail%1]</t>
-  </si>
-  <si>
-    <t>[Hai%Hu%huhai@wchscu.cn%0,   Ni%Yao%NULL%2,   Ni%Yao%NULL%0,   Yanru%Qiu%NULL%1,   John H.%Burton%NULL%2,   John H.%Burton%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Jiaofeng%Huang%NULL%0,   Aiguo%Cheng%NULL%1,   Rahul%Kumar%NULL%1,   Yingying%Fang%NULL%2,   Yingying%Fang%NULL%0,   Gongping%Chen%NULL%1,   Yueyong%Zhu%NULL%1,   Su%Lin%sumer5129@fjmu.edu.cn%0,   Su%Lin%sumer5129@fjmu.edu.cn%0]</t>
-  </si>
-  <si>
-    <t>[Jong-moon%Hwang%NULL%0,   Ju-Hyun%Kim%NULL%0,   Jin-Sung%Park%NULL%0,   Min Cheol%Chang%wheel633@ynu.ac.kr%0,   Donghwi%Park%bdome@hanmail.net%0]</t>
-  </si>
-  <si>
-    <t>[K.%Khalil%NULL%0,   K.%Agbontaen%NULL%1,   D.%McNally%NULL%1,   A.%Love%NULL%1,   S.%Mandalia%NULL%1,   W.%Banya%NULL%1,   E.%Starren%NULL%1,   R.%Dhunnookchand%NULL%1,   H.%Farne%NULL%1,   R.%Morton%NULL%1,   G.%Davies%NULL%1,   O.%Orhan%NULL%1,   D%Lai%NULL%1,   M.%Nelson%NULL%1,   P.L.%Shah%NULL%1,   J.L.%Garner%Justin.garner@chelwest.nhs.uk%1]</t>
-  </si>
-  <si>
-    <t>[Eyal%Klang%NULL%0,   Gassan%Kassim%NULL%1,   Shelly%Soffer%soffer.shelly@gmail.com%1,   Robert%Freeman%NULL%2,   Robert%Freeman%NULL%0,   Matthew A.%Levin%NULL%0,   Matthew A.%Levin%NULL%0,   David L.%Reich%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Sandeep%Krishnan%NULL%0,   Kinjal%Patel%NULL%1,   Ronak%Desai%NULL%1,   Anupam%Sule%NULL%1,   Peter%Paik%NULL%1,   Ashley%Miller%NULL%1,   Alicia%Barclay%NULL%1,   Adam%Cassella%NULL%1,   Jon%Lucaj%NULL%1,   Yvonne%Royster%NULL%1,   Joffer%Hakim%NULL%1,   Zulfiqar%Ahmed%NULL%1,   Farhad%Ghoddoussi%NULL%1]</t>
-  </si>
-  <si>
-    <t>[ Manisha%Bhutani%null%0,    David M.%Foureau%null%1,    Shebli%Atrash%null%1,    Peter M.%Voorhees%null%1,    Saad Z.%Usmani%null%1,  Manisha%Bhutani%null%0,  David M.%Foureau%null%1,  Shebli%Atrash%null%1,  Peter M.%Voorhees%null%1,  Saad Z.%Usmani%null%1]</t>
-  </si>
-  <si>
-    <t>[Wil%Lieberman-Cribbin%NULL%0,   Joseph%Rapp%NULL%1,   Naomi%Alpert%NULL%1,   Stephanie%Tuminello%NULL%1,   Emanuela%Taioli%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Q.%Liu%NULL%0,   N. C.%Song%NULL%1,   Z. K.%Zheng%NULL%1,   J. S.%Li%NULL%1,   S. K.%Li%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Hui%Long%NULL%0,   Lan%Nie%NULL%1,   Xiaochen%Xiang%NULL%1,   Huan%Li%NULL%0,   Xiaoli%Zhang%NULL%0,   Xiaozhi%Fu%NULL%1,   Hongwei%Ren%NULL%1,   Wanxin%Liu%NULL%1,   Qiang%Wang%wangqiang@wust.edu.cn%0,   Qingming%Wu%wuhe9224@sina.com%2,   Qingming%Wu%wuhe9224@sina.com%0]</t>
-  </si>
-  <si>
-    <t>[Xiaomin%Luo%luoxiaomin04@163.com%0,   Wei%Zhou%NULL%3,   Xiaojie%Yan%NULL%1,   Tangxi%Guo%NULL%1,   Benchao%Wang%NULL%1,   Hongxia%Xia%NULL%1,   Lu%Ye%NULL%1,   Jun%Xiong%NULL%1,   Zongping%Jiang%NULL%1,   Yu%Liu%NULL%3,   Bicheng%Zhang%NULL%1,   Weize%Yang%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Ying%Luo%NULL%0,   Liyan%Mao%NULL%2,   Xu%Yuan%NULL%2,   Ying%Xue%NULL%2,   Qun%Lin%NULL%2,   Guoxing%Tang%NULL%2,   Huijuan%Song%NULL%2,   Feng%Wang%fengwang@tjh.tjmu.edu.cn%2,   Ziyong%Sun%zysun@tjh.tjmu.edu.cn%0]</t>
-  </si>
-  <si>
-    <t>[Ying%Luo%NULL%0,   Ying%Xue%NULL%0,   Liyan%Mao%NULL%0,   Xu%Yuan%NULL%0,   Qun%Lin%NULL%0,   Guoxing%Tang%NULL%0,   Huijuan%Song%NULL%0,   Feng%Wang%NULL%0,   Ziyong%Sun%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Chiara%Masetti%NULL%0,   Elena%Generali%NULL%1,   Francesca%Colapietro%NULL%1,   Antonio%Voza%NULL%1,   Maurizio%Cecconi%NULL%0,   Antonio%Messina%NULL%1,   Paolo%Omodei%NULL%1,   Claudio%Angelini%NULL%1,   Michele%Ciccarelli%NULL%1,   Salvatore%Badalamenti%NULL%1,   G. Walter%Canonica%NULL%1,   Ana%Lleo%ana.lleo@humanitas.it%1,   Alessio%Aghemo%NULL%2,   Alessio%Aghemo%NULL%0,   NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Takahisa%Mikami%NULL%0,   Hirotaka%Miyashita%NULL%1,   Takayuki%Yamada%NULL%1,   Matthew%Harrington%NULL%1,   Daniel%Steinberg%NULL%1,   Andrew%Dunn%NULL%1,   Evan%Siau%Evan.Siau@mountsinai.org%1]</t>
-  </si>
-  <si>
-    <t>[Alexis K.%Okoh%alexis.okoh@rwjbh.org%0,   Christoph%Sossou%NULL%2,   Christoph%Sossou%NULL%0,   Neha S.%Dangayach%NULL%1,   Sherin%Meledathu%NULL%1,   Oluwakemi%Phillips%NULL%1,   Corinne%Raczek%NULL%1,   Michael%Patti%NULL%1,   Nathan%Kang%NULL%1,   Sameer A.%Hirji%NULL%1,   Charles%Cathcart%NULL%1,   Christian%Engell%NULL%1,   Marc%Cohen%NULL%1,   Sandhya%Nagarakanti%NULL%1,   Eliahu%Bishburg%NULL%1,   Harpreet S.%Grewal%NULL%1]</t>
+    <t>[Feng%Pan%NULL%0,    Lian%Yang%NULL%0,    Yuncheng%Li%NULL%0,    Bo%Liang%NULL%0,    Lin%Li%NULL%0,    Tianhe%Ye%NULL%0,    Lingli%Li%NULL%0,    Dehan%Liu%NULL%0,    Shan%Gui%NULL%0,    Yu%Hu%NULL%0,    Chuansheng%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,   Becker%L.B.%coreGivesNoEmail%0,   Chelico%J.D.%coreGivesNoEmail%0,   Cohen%S.L.%coreGivesNoEmail%0,   Cookingham%J.%coreGivesNoEmail%0,   Coppa%K.%coreGivesNoEmail%0,   Crawford%J.M.%coreGivesNoEmail%0,   Davidson%K.W.%coreGivesNoEmail%0,   Diefenbach%M.A.%coreGivesNoEmail%0,   Dominello%A.J.%coreGivesNoEmail%0,   Duer-Hefele%J.%coreGivesNoEmail%0,   Falzon%L.%coreGivesNoEmail%0,   Gitlin%J.%coreGivesNoEmail%0,   Hajizadeh%N.%coreGivesNoEmail%0,   Harvin%T.G.%coreGivesNoEmail%0,   Hirsch%J.S.%coreGivesNoEmail%0,   Hirschwerk%D.A.%coreGivesNoEmail%0,   Kim%E.J.%coreGivesNoEmail%0,   Kozel%Z.M.%coreGivesNoEmail%0,   Marrast%L.M.%coreGivesNoEmail%0,   McGinn%T.%coreGivesNoEmail%0,   Mogavero%J.N.%coreGivesNoEmail%0,   Narasimhan%M.%coreGivesNoEmail%0,   Osorio%G.A.%coreGivesNoEmail%0,   Qiu%M.%coreGivesNoEmail%0,   Richardson%S.%coreGivesNoEmail%0,   Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Mario%Rivera-Izquierdo%NULL%0,    María%del Carmen Valero-Ubierna%NULL%0,    María%del Carmen Valero-Ubierna%NULL%0,    Juan Luis%R-delAmo%NULL%0,    Miguel Ángel%Fernández-García%NULL%0,    Silvia%Martínez-Diz%NULL%0,    Arezu%Tahery-Mahmoud%NULL%0,    Marta%Rodríguez-Camacho%NULL%0,    Ana Belén%Gámiz-Molina%NULL%0,    Nicolás%Barba-Gyengo%NULL%0,    Pablo%Gámez-Baeza%NULL%0,    Celia%Cabrero-Rodríguez%NULL%0,    Pedro Antonio%Guirado-Ruiz%NULL%0,    Divina Tatiana%Martín-Romero%NULL%0,    Antonio Jesús%Láinez-Ramos-Bossini%NULL%0,    María Rosa%Sánchez-Pérez%NULL%0,    José%Mancera-Romero%NULL%0,    Miguel%García-Martín%NULL%0,    Luis Miguel%Martín-delosReyes%NULL%0,    Virginia%Martínez-Ruiz%NULL%0,    Virginia%Martínez-Ruiz%NULL%0,    Pablo%Lardelli-Claret%NULL%0,    Eladio%Jiménez-Mejías%NULL%0,    Muhammad%Adrish%NULL%0,    Muhammad%Adrish%NULL%0,    NULL%NULL%NULL%0,    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,    Kun%Yang%NULL%0,    Kun%Yang%NULL%0,    Wenxia%Wang%NULL%0,    Wenxia%Wang%NULL%0,    Lingyu%Jiang%NULL%0,    Lingyu%Jiang%NULL%0,    Jianxin%Song%songsingsjx@sina.com%0,    Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Grace%Salacup%salacupg@einstein.edu%0,    Kevin Bryan%Lo%NULL%0,    Kevin Bryan%Lo%NULL%0,    Fahad%Gul%NULL%0,    Eric%Peterson%NULL%0,    Robert%De Joy%NULL%0,    Ruchika%Bhargav%NULL%0,    Jerald%Pelayo%NULL%0,    Jeri%Albano%NULL%0,    Zurab%Azmaiparashvili%NULL%0,    Sadia%Benzaquen%NULL%0,    Gabriel%Patarroyo‐Aponte%NULL%0,    Janani%Rangaswami%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yufeng%Shang%NULL%0,    Tao%Liu%NULL%0,    Yongchang%Wei%NULL%0,    Jingfeng%Li%NULL%0,    Liang%Shao%NULL%0,    Minghui%Liu%NULL%0,    Yongxi%Zhang%NULL%0,    Zhigang%Zhao%NULL%0,    Haibo%Xu%NULL%0,    Zhiyong%Peng%NULL%0,    Fuling%Zhou%zhoufuling@whu.edu.cn%0,    Xinghuan%Wang%wangxinghuan@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,    Mu%Qin%qinmuae@163.com%0,    Yuli%Cai%NULL%0,    Tao%Liu%NULL%0,    Bo%Shen%NULL%0,    Fan%Yang%NULL%0,    Sheng%Cao%NULL%0,    Xu%Liu%NULL%0,    Xu%Liu%NULL%0,    Yaozu%Xiang%NULL%0,    Qinyan%Zhao%NULL%0,    He%Huang%huanghe1977@whu.edu.cn%0,    Bo%Yang%yybb112@whu.edu.cn%0,    Congxin%Huang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rita de Cássia Menezes%Soares%NULL%0,    Larissa Rodrigues%Mattos%NULL%0,    Letícia Martins%Raposo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,    Ruoqi%Ning%NULL%0,    Yu%Tao%NULL%0,    Chong%Yu%NULL%0,    Xiaoyan%Deng%NULL%0,    Caili%Zhao%NULL%0,    Silu%Meng%NULL%0,    Fangxu%Tang%89650793@qq.com%0,    Dong%Xu%89650793@qq.com%0,    Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Kun%Wang%NULL%0,    Peiyuan%Zuo%NULL%0,    Yuwei%Liu%NULL%0,    Meng%Zhang%NULL%0,    Xiaofang%Zhao%NULL%0,    Songpu%Xie%NULL%0,    Hao%Zhang%NULL%0,    Xinglin%Chen%NULL%0,    Chengyun%Liu%chengyunliu@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Bo%XU%NULL%0,    Cun-yu%FAN%NULL%0,    An-lu%WANG%NULL%0,    Yi-long%ZOU%NULL%0,    Yi-han%YU%NULL%0,    Cong%HE%NULL%0,    Wen-guang%XIA%NULL%0,    Ji-xian%ZHANG%NULL%0,    Qing%MIAO%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xisheng%Yan%NULL%0,    Fen%Li%NULL%0,    Xiao%Wang%NULL%0,    Jie%Yan%NULL%0,    Fen%Zhu%NULL%0,    Shifan%Tang%NULL%0,    Yingzhong%Deng%NULL%0,    Hua%Wang%NULL%0,    Rui%Chen%NULL%0,    Zhili%Yu%NULL%0,    Yaping%Li%NULL%0,    Jingzhou%Shang%NULL%0,    Lingjun%Zeng%NULL%0,    Jie%Zhao%NULL%0,    Chaokun%Guan%NULL%0,    Qiaomei%Liu%NULL%0,    Haifeng%Chen%NULL%0,    Wei%Gong%NULL%0,    Xin%Huang%NULL%0,    Yu‐Jiao%Zhang%NULL%0,    Jianguang%Liu%NULL%0,    Xiaoyan%Dong%NULL%0,    Wen%Zheng%zhengwen12@mails.jlu.edu.cn%0,    Shaoping%Nie%spnie@126.com%0,    Dongsheng%Li%dongshengli196809@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qing%Yang%NULL%0,    Ying%Zhou%NULL%0,    Xinrong%Wang%NULL%0,    Shan%Gao%NULL%0,    Yang%Xiao%NULL%0,    Weiming%Zhang%NULL%0,    Yi%Hu%huyizxyy@163.com%0,    Yafei%Wang%wyf_527@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,    Qingyu%Yang%NULL%0,    Yaxin%Wang%NULL%0,    Yongran%Wu%NULL%0,    Jiqian%Xu%NULL%0,    Yuan%Yu%NULL%0,    You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wenjing%Ye%yewenjing@xinhuamed.com.cn%0,    Guoxi%Chen%4799082@qq.com%0,    Xiaopan%Li%xiaopanli0224@126.com%0,    Xing%Lan%474137452@qq.com%0,    Chen%Ji%c.ji.3@warwick.ac.uk%0,    Min%Hou%min-hou710@hotmail.com%0,    Di%Zhang%zhangdizhangdi1234@163.com%0,    Guangwang%Zeng%785663609@qq.com%0,    Yaling%Wang%953822402@qq.com%0,    Cheng%Xu%xucheng112358@126.com%0,    Weiwei%Lu%luweiwei100@126.com%0,    Ruolin%Cui%crlqwerty@163.com%0,    Yuyang%Cai%caiyuyang@sjtu.edu.cn%0,    Hai%Huang%1220775601@qq.com%0,    Ling%Yang%yangling01@xinhuamed.com.cn%0]</t>
+  </si>
+  <si>
+    <t>[Caizheng%Yu%NULL%0,    Qing%Lei%NULL%0,    Wenkai%Li%NULL%0,    Xiong%Wang%NULL%0,    Wei%Liu%NULL%0,    Xionglin%Fan%NULL%0,    Wengang%Li%228907211@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,    Ting%Yu%NULL%0,    Ronghui%Du%NULL%0,    Guohui%Fan%NULL%0,    Ying%Liu%NULL%0,    Zhibo%Liu%NULL%0,    Jie%Xiang%NULL%0,    Yeming%Wang%NULL%0,    Bin%Song%NULL%0,    Xiaoying%Gu%NULL%0,    Lulu%Guan%NULL%0,    Yuan%Wei%NULL%0,    Hui%Li%NULL%0,    Xudong%Wu%NULL%0,    Jiuyang%Xu%NULL%0,    Shengjin%Tu%NULL%0,    Yi%Zhang%NULL%0,    Hua%Chen%NULL%0,    Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Moran%Amit%NULL%0,    Alex%Sorkin%NULL%0,    Jacob%Chen%NULL%0,    Barak%Cohen%NULL%0,    Barak%Cohen%NULL%0,    Dana%Karol%NULL%0,    Dana%Karol%NULL%0,    Avishai M%Tsur%NULL%0,    Shaul%Lev%NULL%0,    Shaul%Lev%NULL%0,    Tal%Rozenblat%NULL%0,    Ayana%Dvir%NULL%0,    Ayana%Dvir%NULL%0,    Geva%Landau%NULL%0,    Lidar%Fridrich%NULL%0,    Lidar%Fridrich%NULL%0,    Elon%Glassberg%NULL%0,    Shani%Kesari%NULL%0,    Sigal%Sviri%NULL%0,    Ram%Gelman%NULL%0,    Asaf%Miller%NULL%0,    Danny%Epstein%NULL%0,    Ronny%Ben-Avi%NULL%0,    Ronny%Ben-Avi%NULL%0,    Moshe%Matan%NULL%0,    Daniel J.%Jakobson%NULL%0,    Daniel J.%Jakobson%NULL%0,    Tarif%Bader%NULL%0,    Tarif%Bader%NULL%0,    David%Dahan%NULL%0,    David%Dahan%NULL%0,    Daniel A.%King%NULL%0,    Anat%Ben-Ari%NULL%0,    Arie%Soroksky%NULL%0,    Alon%Bar%NULL%0,    Alon%Bar%NULL%0,    Noam%Fink%NULL%0,    Pierre%Singer%NULL%0,    Avi%Benov%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,    John R%Adler%NULL%0,    Muhammad Sohaib%Asghar%NULL%0,    Muhammad Sohaib%Asghar%NULL%0,    Syed Jawad%Haider Kazmi%NULL%0,    Noman%Ahmed Khan%NULL%0,    Mohammed%Akram%NULL%0,    Salman%Ahmed Khan%NULL%0,    Uzma%Rasheed%NULL%0,    Maira%Hassan%NULL%0,    Gul Muhammad%Memon%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pedro%Baqui%NULL%0,    Ioana%Bica%NULL%0,    Valerio%Marra%marra@cosmo-ufes.org%0,    Ari%Ercole%NULL%0,    Mihaela%van der Schaar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anesi%Adriano%coreGivesNoEmail%0,   Bettinardi%Alessandra%coreGivesNoEmail%0,   Bonetti%Graziella%coreGivesNoEmail%0,   Borrelli%Gianluca%coreGivesNoEmail%0,   Fiordalisi%Gianfranco%coreGivesNoEmail%0,   Lippi%Giuseppe%coreGivesNoEmail%0,   Manelli%Filippo%coreGivesNoEmail%0,   Marino%Antonio%coreGivesNoEmail%0,   Menolfi%Annamaria%coreGivesNoEmail%0,   Patroni%Andrea%coreGivesNoEmail%0,   Saggini%Sara%coreGivesNoEmail%0,   Volpi%Roberta%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Andrea%Borghesi%NULL%0,    Angelo%Zigliani%NULL%0,    Salvatore%Golemi%NULL%0,    Nicola%Carapella%NULL%0,    Patrizia%Maculotti%NULL%0,    Davide%Farina%NULL%0,    Roberto%Maroldi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alberto M.%Borobia%NULL%0,    Antonio J.%Carcas%NULL%0,    Antonio J.%Carcas%NULL%0,    Francisco%Arnalich%NULL%0,    Rodolfo%Álvarez-Sala%NULL%0,    Rodolfo%Álvarez-Sala%NULL%0,    Jaime%Monserrat-Villatoro%NULL%0,    Manuel%Quintana%NULL%0,    Juan Carlos%Figueira%NULL%0,    Rosario M.%Torres Santos-Olmo%NULL%0,    Julio%García-Rodríguez%NULL%0,    Julio%García-Rodríguez%NULL%0,    Alberto%Martín-Vega%NULL%0,    Antonio%Buño%NULL%0,    Elena%Ramírez%NULL%0,    Gonzalo%Martínez-Alés%NULL%0,    Gonzalo%Martínez-Alés%NULL%0,    Nicolás%García-Arenzana%NULL%0,    M. Concepción%Núñez%NULL%0,    M. Concepción%Núñez%NULL%0,    Milagros%Martí-de-Gracia%NULL%0,    Francisco%Moreno Ramos%NULL%0,    Francisco%Reinoso-Barbero%NULL%0,    Alejandro%Martin-Quiros%NULL%0,    Angélica%Rivera Núñez%NULL%0,    Jesús%Mingorance%NULL%0,    Carlos J.%Carpio Segura%NULL%0,    Carlos J.%Carpio Segura%NULL%0,    Daniel%Prieto Arribas%NULL%0,    Esther%Rey Cuevas%NULL%0,    Concepción%Prados Sánchez%NULL%0,    Juan J.%Rios%NULL%0,    Miguel A.%Hernán%NULL%0,    Jesús%Frías%NULL%0,    José R.%Arribas%NULL%0,    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simon E.%Brill%simon.brill@nhs.net%0,    Hannah C.%Jarvis%NULL%0,    Hannah C.%Jarvis%NULL%0,    Ezgi%Ozcan%NULL%0,    Thomas L. P.%Burns%NULL%0,    Rabia A.%Warraich%NULL%0,    Lisa J.%Amani%NULL%0,    Amina%Jaffer%NULL%0,    Stephanie%Paget%NULL%0,    Anand%Sivaramakrishnan%NULL%0,    Dean D.%Creer%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,    Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,    Wenlin%Cheng%NULL%0,    Lei%Yu%NULL%0,    Ya-Kun%Liu%NULL%0,    Xiaoyong%Hu%NULL%0,    Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[B.%Carter%NULL%0,    J.T.%Collins%NULL%0,    F.%Barlow-Pay%NULL%0,    F.%Rickard%NULL%0,    E.%Bruce%NULL%0,    A.%Verduri%NULL%0,    T.J.%Quinn%NULL%0,    E.%Mitchell%NULL%0,    A.%Price%NULL%0,    A.%Vilches-Moraga%NULL%0,    M.J.%Stechman%NULL%0,    R.%Short%NULL%0,    A.%Einarsson%NULL%0,    P.%Braude%NULL%0,    S.%Moug%NULL%0,    P.K.%Myint%NULL%0,    J.%Hewitt%NULL%0,    L.%Pearce%NULL%0,    K.%McCarthy%NULL%0,    C.%Davey%NULL%0,    S.%Jones%NULL%0,    K.%Lunstone%NULL%0,    A.%Cavenagh%NULL%0,    C.%Silver%NULL%0,    T.%Telford%NULL%0,    R.%Simmons%NULL%0,    M.%Holloway%NULL%0,    J.%Hesford%NULL%0,    T.%El Jichi Mutasem%NULL%0,    S.%Singh%NULL%0,    D.%Paxton%NULL%0,    W.%Harris%NULL%0,    N.%Galbraith%NULL%0,    E.%Bhatti%NULL%0,    J.%Edwards%NULL%0,    S.%Duffy%NULL%0,    J.%Kelly%NULL%0,    C.%Murphy%NULL%0,    C.%Bisset%NULL%0,    R.%Alexander%NULL%0,    M.%Garcia%NULL%0,    S.%Sangani%NULL%0,    T.%Kneen%NULL%0,    T.%Lee%NULL%0,    A.%McGovern%NULL%0,    G.%Guaraldi%NULL%0,    E.%Clini%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fuyang%Chen%NULL%0,    Wenwu%Sun%NULL%0,    Shengrong%Sun%NULL%0,    Zhiyu%Li%lizhiyu@whu.edu.cn%0,    Zhong%Wang%zhongwangchn@whu.edu.cn%0,    Li%Yu%yuliwhzxyy@163.com%0,    Li%Yu%yuliwhzxyy@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,    Ling%Sang%NULL%0,    Mei%Jiang%NULL%0,    Zhaowei%Yang%NULL%0,    Nan%Jia%NULL%0,    Wanyi%Fu%NULL%0,    Jiaxing%Xie%NULL%0,    Weijie%Guan%NULL%0,    Wenhua%Liang%NULL%0,    Zhengyi%Ni%NULL%0,    Yu%Hu%NULL%0,    Lei%Liu%NULL%0,    Hong%Shan%NULL%0,    Chunliang%Lei%NULL%0,    Yixiang%Peng%NULL%0,    Li%Wei%NULL%0,    Yong%Liu%NULL%0,    Yahua%Hu%NULL%0,    Peng%Peng%NULL%0,    Jianming%Wang%NULL%0,    Jiyang%Liu%NULL%0,    Zhong%Chen%NULL%0,    Gang%Li%NULL%0,    Zhijian%Zheng%NULL%0,    Shaoqin%Qiu%NULL%0,    Jie%Luo%NULL%0,    Changjiang%Ye%NULL%0,    Shaoyong%Zhu%NULL%0,    Jinping%Zheng%NULL%0,    Nuofu%Zhang%NULL%0,    Yimin%Li%NULL%0,    Jianxing%He%NULL%0,    Jing%Li%NULL%0,    Shiyue%Li%NULL%0,    Nanshan%Zhong%NULL%0,    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,    Di%Wu%NULL%0,    Huilong%Chen%NULL%0,    Weiming%Yan%NULL%0,    Danlei%Yang%NULL%0,    Guang%Chen%NULL%0,    Ke%Ma%NULL%0,    Dong%Xu%NULL%0,    Haijing%Yu%NULL%0,    Hongwu%Wang%NULL%0,    Tao%Wang%NULL%0,    Wei%Guo%NULL%0,    Jia%Chen%NULL%0,    Chen%Ding%NULL%0,    Xiaoping%Zhang%NULL%0,    Jiaquan%Huang%NULL%0,    Meifang%Han%NULL%0,    Shusheng%Li%NULL%0,    Xiaoping%Luo%NULL%0,    Jianping%Zhao%NULL%0,    Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anying%Cheng%NULL%0,    Liu%Hu%NULL%0,    Yiru%Wang%NULL%0,    Luyan%Huang%NULL%0,    Lingxi%Zhao%NULL%0,    Congcong%Zhang%NULL%0,    Xiyue%Liu%NULL%0,    Ranran%Xu%NULL%0,    Feng%Liu%NULL%0,    Jinping%Li%NULL%0,    Dawei%Ye%NULL%0,    Tao%Wang%NULL%0,    Yongman%Lv%lvyongman@126.com%0,    Qingquan%Liu%qqliutj@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fabio%Ciceri%ciceri.fabio@hsr.it%0,    Antonella%Castagna%NULL%0,    Patrizia%Rovere-Querini%NULL%0,    Francesco%De Cobelli%NULL%0,    Annalisa%Ruggeri%NULL%0,    Laura%Galli%NULL%0,    Caterina%Conte%NULL%0,    Rebecca%De Lorenzo%NULL%0,    Andrea%Poli%NULL%0,    Alberto%Ambrosio%NULL%0,    Carlo%Signorelli%NULL%0,    Eleonora%Bossi%NULL%0,    Maria%Fazio%NULL%0,    Cristina%Tresoldi%NULL%0,    Sergio%Colombo%NULL%0,    Giacomo%Monti%NULL%0,    Efgeny%Fominskiy%NULL%0,    Stefano%Franchini%NULL%0,    Marzia%Spessot%NULL%0,    Carlo%Martinenghi%NULL%0,    Michele%Carlucci%NULL%0,    Luigi%Beretta%NULL%0,    Anna Maria%Scandroglio%NULL%0,    Massimo%Clementi%NULL%0,    Massimo%Locatelli%NULL%0,    Moreno%Tresoldi%NULL%0,    Paolo%Scarpellini%NULL%0,    Gianvito%Martino%NULL%0,    Emanuele%Bosi%NULL%0,    Lorenzo%Dagna%NULL%0,    Adriano%Lazzarin%NULL%0,    Giovanni%Landoni%NULL%0,    Alberto%Zangrillo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,    Wei%Liu%NULL%0,    Kui%Liu%NULL%0,    Yuan-Yuan%Fang%NULL%0,    Jin%Shang%NULL%0,    Ling%Zhou%NULL%0,    Ke%Wang%NULL%0,    Fan%Leng%NULL%0,    Shuang%Wei%NULL%0,    Lei%Chen%NULL%0,    Hui-Guo%Liu%NULL%0,    Pei-Fang%Wei%NULL%0,    Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,    Li-Rong%Liang%NULL%0,    Cheng-Qing%Yang%NULL%0,    Wen%Wang%NULL%0,    Tan-Ze%Cao%NULL%0,    Ming%Li%NULL%0,    Guang-Yun%Guo%NULL%0,    Juan%Du%NULL%0,    Chun-Lan%Zheng%NULL%0,    Qi%Zhu%NULL%0,    Ming%Hu%NULL%0,    Xu-Yan%Li%NULL%0,    Peng%Peng%NULL%0,    Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shan%Gao%NULL%0,    Fang%Jiang%NULL%0,    Wei%Jin%NULL%0,    Yuan%Shi%NULL%0,    Leilei%Yang%NULL%0,    Yanqiong%Xia%NULL%0,    Linyan%Jia%NULL%0,    Bo%Wang%NULL%0,    Han%Lin%NULL%0,    Yin%Cai%NULL%0,    Zhengyuan%Xia%NULL%0,    Jian%Peng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pedro David%Wendel Garcia%pedrodavid.wendelgarcia@usz.ch%0,    Thierry%Fumeaux%thierry.fumeaux@ghol.ch%0,    Philippe%Guerci%NULL%0,    Dorothea Monika%Heuberger%dorotheamonika.heuberger@usz.ch%0,    Jonathan%Montomoli%NULL%0,    Ferran%Roche-Campo%NULL%0,    Reto Andreas%Schuepbach%reto.schuepbach@usz.ch%0,    Matthias Peter%Hilty%matthias.hilty@usz.ch%0,    Mario%Alfaro Farias%NULL%0,    Antoni%Margarit%NULL%0,    Gerardo%Vizmanos-Lamotte%NULL%0,    Thomas%Tschoellitsch%NULL%0,    Jens%Meier%NULL%0,    Francesco S.%Cardona%NULL%0,    Josef%Skola%NULL%0,    Lenka%Horakova%NULL%0,    Hernan%Aguirre-Bermeo%NULL%0,    Janina%Apolo%NULL%0,    Emmanuel%Novy%NULL%0,    Marie-Reine%Losser%NULL%0,    Geoffrey%Jurkolow%NULL%0,    Gauthier%Delahaye%NULL%0,    Sascha%David%NULL%0,    Tobias%Welte%NULL%0,    Tobias%Wengenmayer%NULL%0,    Dawid L.%Staudacher%NULL%0,    Theodoros%Aslanidis%NULL%0,    Barna%Babik%NULL%0,    Anita%Korsos%NULL%0,    Janos%Gal%NULL%0,    Hermann%Csaba%NULL%0,    Abele%Donati%NULL%0,    Andrea%Carsetti%NULL%0,    Fabrizio%Turrini%NULL%0,    Maria Sole%Simonini%NULL%0,    Roberto%Ceriani%NULL%0,    Martina%Murrone%NULL%0,    Emanuele%Rezoagli%NULL%0,    Giovanni%Vitale%NULL%0,    Alberto%Fogagnolo%NULL%0,    Savino%Spadaro%NULL%0,    Maddalena Alessandra%Wu%NULL%0,    Chiara%Cogliati%NULL%0,    Riccardo%Colombo%NULL%0,    Emanuele%Catena%NULL%0,    Francesca%Facondini%NULL%0,    Antonella%Potalivo%NULL%0,    Gianfilippo%Gangitano%NULL%0,    Tiziana%Perin%NULL%0,    Maria Grazia%Bocci%NULL%0,    Massimo%Antonelli%NULL%0,    Diederik%Gommers%NULL%0,    Can%Ince%NULL%0,    Eric%Mayor-Vázquez%NULL%0,    Maria%Cruz%NULL%0,    Martin%Delgado%NULL%0,    Raquel Rodriguez%Garcia%NULL%0,    Jorge%Gamez Zapata%NULL%0,    Begoña%Zalba-Etayo%NULL%0,    Herminia%Lozano-Gomez%NULL%0,    Pedro%Castro%NULL%0,    Adrian%Tellez%NULL%0,    Adriana%Jacas%NULL%0,    Guido%Muñoz%NULL%0,    Rut%Andrea%NULL%0,    Jose%Ortiz%NULL%0,    Eduard%Quintana%NULL%0,    Irene%Rovira%NULL%0,    Enric%Reverter%NULL%0,    Javier%Fernandez%NULL%0,    Miquel%Ferrer%NULL%0,    Joan R.%Badia%NULL%0,    Arantxa%Lander Azcona%NULL%0,    Jesus Escos%Orta%NULL%0,    Philipp%Bühler%NULL%0,    Silvio%Brugger%NULL%0,    Daniel%Hofmaenner%NULL%0,    Simone%Unseld%NULL%0,    Frank%Ruschitzka%NULL%0,    Mallory%Moret-Bochatay%NULL%0,    Bernd%Yuen%NULL%0,    Thomas%Hillermann%NULL%0,    Hatem%Ksouri%NULL%0,    Govind Oliver%Sridharan%NULL%0,    Anette%Ristic%NULL%0,    Michael%Sepulcri%NULL%0,    Miodrag%Filipovic%NULL%0,    Urs%Pietsch%NULL%0,    Petra%Salomon%NULL%0,    Iris%Drvaric%NULL%0,    Peter%Schott%NULL%0,    Severin%Urech%NULL%0,    Adriana%Lambert%NULL%0,    Lukas%Merki%NULL%0,    Marcus%Laube%NULL%0,    Frank%Hillgaertner%NULL%0,    Marianne%Sieber%NULL%0,    Alexander%Dullenkopf%NULL%0,    Lina%Petersen%NULL%0,    Serge%Grazioli%NULL%0,    Peter C.%Rimensberger%NULL%0,    Isabelle%Fleisch%NULL%0,    Jerome%Lavanchy%NULL%0,    Katharina%Marquardt%NULL%0,    Karim%Shaikh%NULL%0,    Hermann%Redecker%NULL%0,    Michael%Stephan%NULL%0,    Jan%Brem%NULL%0,    Bjarte%Rogdo%NULL%0,    Andre%Birkenmaier%NULL%0,    Friederike%Meyer zu Bentrup%NULL%0,    Patricia%Fodor%NULL%0,    Pascal%Locher%NULL%0,    Giovanni%Camen%NULL%0,    Martin%Siegemund%NULL%0,    Nuria%Zellweger%NULL%0,    Marie-Madlen%Jeitziner%NULL%0,    Beatrice%Jenni-Moser%NULL%0,    Christian%Bürkle%NULL%0,    Gian-Reto%Kleger%NULL%0,    Marilene%Franchitti Laurent%NULL%0,    Jean-Christophe%Laurent%NULL%0,    Tomislav%Gaspert%NULL%0,    Marija%Jovic%NULL%0,    Michael%Studhalter%NULL%0,    Christoph%Haberthuer%NULL%0,    Roger F.%Lussman%NULL%0,    Daniela%Selz%NULL%0,    Didier%Naon%NULL%0,    Romano%Mauri%NULL%0,    Samuele%Ceruti%NULL%0,    Julien%Marrel%NULL%0,    Mirko%Brenni%NULL%0,    Rolf%Ensner%NULL%0,    Nadine%Gehring%NULL%0,    Antje%Heise%NULL%0,    Tobias%Huebner%NULL%0,    Thomas A.%Neff%NULL%0,    Sara%Cereghetti%NULL%0,    Filippo%Boroli%NULL%0,    Jerome%Pugin%NULL%0,    Nandor%Marczin%NULL%0,    Joyce%Wong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Warren%Gavin%NULL%0,    Elliott%Campbell%NULL%0,    Syed-Adeel%Zaidi%NULL%0,    Neha%Gavin%NULL%0,    Lana%Dbeibo%NULL%0,    Cole%Beeler%NULL%0,    Kari%Kuebler%NULL%0,    Ahmed%Abdel-Rahman%NULL%0,    Mark%Luetkemeyer%NULL%0,    Areeba%Kara%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Vijay%Gayam%vgayam@interfaithmedical.com%0,    Muchi Ditah%Chobufo%NULL%0,    Muchi Ditah%Chobufo%NULL%0,    Mohamed A.%Merghani%NULL%0,    Mohamed A.%Merghani%NULL%0,    Shristi%Lamichhane%NULL%0,    Pavani Reddy%Garlapati%NULL%0,    Mark K.%Adler%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Cao%Y%coreGivesNoEmail%0,   Imam%Z%coreGivesNoEmail%0,   Lippi%G%coreGivesNoEmail%0,   Oran%DP%coreGivesNoEmail%0,   Shi%S%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Hai%Hu%huhai@wchscu.cn%0,    Ni%Yao%NULL%0,    Ni%Yao%NULL%0,    Yanru%Qiu%NULL%0,    John H.%Burton%NULL%0,    John H.%Burton%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jiaofeng%Huang%NULL%0,    Aiguo%Cheng%NULL%0,    Rahul%Kumar%NULL%0,    Yingying%Fang%NULL%0,    Yingying%Fang%NULL%0,    Gongping%Chen%NULL%0,    Yueyong%Zhu%NULL%0,    Su%Lin%sumer5129@fjmu.edu.cn%0,    Su%Lin%sumer5129@fjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%0,    Ju-Hyun%Kim%NULL%0,    Jin-Sung%Park%NULL%0,    Min Cheol%Chang%wheel633@ynu.ac.kr%0,    Donghwi%Park%bdome@hanmail.net%0]</t>
+  </si>
+  <si>
+    <t>[K.%Khalil%NULL%0,    K.%Agbontaen%NULL%0,    D.%McNally%NULL%0,    A.%Love%NULL%0,    S.%Mandalia%NULL%0,    W.%Banya%NULL%0,    E.%Starren%NULL%0,    R.%Dhunnookchand%NULL%0,    H.%Farne%NULL%0,    R.%Morton%NULL%0,    G.%Davies%NULL%0,    O.%Orhan%NULL%0,    D%Lai%NULL%0,    M.%Nelson%NULL%0,    P.L.%Shah%NULL%0,    J.L.%Garner%Justin.garner@chelwest.nhs.uk%0]</t>
+  </si>
+  <si>
+    <t>[Eyal%Klang%NULL%0,    Gassan%Kassim%NULL%0,    Shelly%Soffer%soffer.shelly@gmail.com%0,    Robert%Freeman%NULL%0,    Robert%Freeman%NULL%0,    Matthew A.%Levin%NULL%0,    Matthew A.%Levin%NULL%0,    David L.%Reich%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sandeep%Krishnan%NULL%0,    Kinjal%Patel%NULL%0,    Ronak%Desai%NULL%0,    Anupam%Sule%NULL%0,    Peter%Paik%NULL%0,    Ashley%Miller%NULL%0,    Alicia%Barclay%NULL%0,    Adam%Cassella%NULL%0,    Jon%Lucaj%NULL%0,    Yvonne%Royster%NULL%0,    Joffer%Hakim%NULL%0,    Zulfiqar%Ahmed%NULL%0,    Farhad%Ghoddoussi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Manisha%Bhutani%null%0,     David M.%Foureau%null%0,     Shebli%Atrash%null%0,     Peter M.%Voorhees%null%0,     Saad Z.%Usmani%null%0,   Manisha%Bhutani%null%0,   David M.%Foureau%null%0,   Shebli%Atrash%null%0,   Peter M.%Voorhees%null%0,   Saad Z.%Usmani%null%0]</t>
+  </si>
+  <si>
+    <t>[Wil%Lieberman-Cribbin%NULL%0,    Joseph%Rapp%NULL%0,    Naomi%Alpert%NULL%0,    Stephanie%Tuminello%NULL%0,    Emanuela%Taioli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Q.%Liu%NULL%0,    N. C.%Song%NULL%0,    Z. K.%Zheng%NULL%0,    J. S.%Li%NULL%0,    S. K.%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Long%NULL%0,    Lan%Nie%NULL%0,    Xiaochen%Xiang%NULL%0,    Huan%Li%NULL%0,    Xiaoli%Zhang%NULL%0,    Xiaozhi%Fu%NULL%0,    Hongwei%Ren%NULL%0,    Wanxin%Liu%NULL%0,    Qiang%Wang%wangqiang@wust.edu.cn%0,    Qingming%Wu%wuhe9224@sina.com%0,    Qingming%Wu%wuhe9224@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaomin%Luo%luoxiaomin04@163.com%0,    Wei%Zhou%NULL%0,    Xiaojie%Yan%NULL%0,    Tangxi%Guo%NULL%0,    Benchao%Wang%NULL%0,    Hongxia%Xia%NULL%0,    Lu%Ye%NULL%0,    Jun%Xiong%NULL%0,    Zongping%Jiang%NULL%0,    Yu%Liu%NULL%0,    Bicheng%Zhang%NULL%0,    Weize%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ying%Luo%NULL%0,    Liyan%Mao%NULL%0,    Xu%Yuan%NULL%0,    Ying%Xue%NULL%0,    Qun%Lin%NULL%0,    Guoxing%Tang%NULL%0,    Huijuan%Song%NULL%0,    Feng%Wang%fengwang@tjh.tjmu.edu.cn%0,    Ziyong%Sun%zysun@tjh.tjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ying%Luo%NULL%0,    Ying%Xue%NULL%0,    Liyan%Mao%NULL%0,    Xu%Yuan%NULL%0,    Qun%Lin%NULL%0,    Guoxing%Tang%NULL%0,    Huijuan%Song%NULL%0,    Feng%Wang%NULL%0,    Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chiara%Masetti%NULL%0,    Elena%Generali%NULL%0,    Francesca%Colapietro%NULL%0,    Antonio%Voza%NULL%0,    Maurizio%Cecconi%NULL%0,    Antonio%Messina%NULL%0,    Paolo%Omodei%NULL%0,    Claudio%Angelini%NULL%0,    Michele%Ciccarelli%NULL%0,    Salvatore%Badalamenti%NULL%0,    G. Walter%Canonica%NULL%0,    Ana%Lleo%ana.lleo@humanitas.it%0,    Alessio%Aghemo%NULL%0,    Alessio%Aghemo%NULL%0,    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Takahisa%Mikami%NULL%0,    Hirotaka%Miyashita%NULL%0,    Takayuki%Yamada%NULL%0,    Matthew%Harrington%NULL%0,    Daniel%Steinberg%NULL%0,    Andrew%Dunn%NULL%0,    Evan%Siau%Evan.Siau@mountsinai.org%0]</t>
+  </si>
+  <si>
+    <t>[Alexis K.%Okoh%alexis.okoh@rwjbh.org%0,    Christoph%Sossou%NULL%0,    Christoph%Sossou%NULL%0,    Neha S.%Dangayach%NULL%0,    Sherin%Meledathu%NULL%0,    Oluwakemi%Phillips%NULL%0,    Corinne%Raczek%NULL%0,    Michael%Patti%NULL%0,    Nathan%Kang%NULL%0,    Sameer A.%Hirji%NULL%0,    Charles%Cathcart%NULL%0,    Christian%Engell%NULL%0,    Marc%Cohen%NULL%0,    Sandhya%Nagarakanti%NULL%0,    Eliahu%Bishburg%NULL%0,    Harpreet S.%Grewal%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%0,     Lian%Yang%NULL%0,     Yuncheng%Li%NULL%0,     Bo%Liang%NULL%0,     Lin%Li%NULL%0,     Tianhe%Ye%NULL%0,     Lingli%Li%NULL%0,     Dehan%Liu%NULL%0,     Shan%Gui%NULL%0,     Yu%Hu%NULL%0,     Chuansheng%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,    Becker%L.B.%coreGivesNoEmail%0,    Chelico%J.D.%coreGivesNoEmail%0,    Cohen%S.L.%coreGivesNoEmail%0,    Cookingham%J.%coreGivesNoEmail%0,    Coppa%K.%coreGivesNoEmail%0,    Crawford%J.M.%coreGivesNoEmail%0,    Davidson%K.W.%coreGivesNoEmail%0,    Diefenbach%M.A.%coreGivesNoEmail%0,    Dominello%A.J.%coreGivesNoEmail%0,    Duer-Hefele%J.%coreGivesNoEmail%0,    Falzon%L.%coreGivesNoEmail%0,    Gitlin%J.%coreGivesNoEmail%0,    Hajizadeh%N.%coreGivesNoEmail%0,    Harvin%T.G.%coreGivesNoEmail%0,    Hirsch%J.S.%coreGivesNoEmail%0,    Hirschwerk%D.A.%coreGivesNoEmail%0,    Kim%E.J.%coreGivesNoEmail%0,    Kozel%Z.M.%coreGivesNoEmail%0,    Marrast%L.M.%coreGivesNoEmail%0,    McGinn%T.%coreGivesNoEmail%0,    Mogavero%J.N.%coreGivesNoEmail%0,    Narasimhan%M.%coreGivesNoEmail%0,    Osorio%G.A.%coreGivesNoEmail%0,    Qiu%M.%coreGivesNoEmail%0,    Richardson%S.%coreGivesNoEmail%0,    Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>CORE</t>
+  </si>
+  <si>
+    <t>[Mario%Rivera-Izquierdo%NULL%0,     María%del Carmen Valero-Ubierna%NULL%0,     María%del Carmen Valero-Ubierna%NULL%0,     Juan Luis%R-delAmo%NULL%0,     Miguel Ángel%Fernández-García%NULL%0,     Silvia%Martínez-Diz%NULL%0,     Arezu%Tahery-Mahmoud%NULL%0,     Marta%Rodríguez-Camacho%NULL%0,     Ana Belén%Gámiz-Molina%NULL%0,     Nicolás%Barba-Gyengo%NULL%0,     Pablo%Gámez-Baeza%NULL%0,     Celia%Cabrero-Rodríguez%NULL%0,     Pedro Antonio%Guirado-Ruiz%NULL%0,     Divina Tatiana%Martín-Romero%NULL%0,     Antonio Jesús%Láinez-Ramos-Bossini%NULL%0,     María Rosa%Sánchez-Pérez%NULL%0,     José%Mancera-Romero%NULL%0,     Miguel%García-Martín%NULL%0,     Luis Miguel%Martín-delosReyes%NULL%0,     Virginia%Martínez-Ruiz%NULL%0,     Virginia%Martínez-Ruiz%NULL%0,     Pablo%Lardelli-Claret%NULL%0,     Eladio%Jiménez-Mejías%NULL%0,     Muhammad%Adrish%NULL%0,     Muhammad%Adrish%NULL%0,     NULL%NULL%NULL%0,     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,     Kun%Yang%NULL%0,     Kun%Yang%NULL%0,     Wenxia%Wang%NULL%0,     Wenxia%Wang%NULL%0,     Lingyu%Jiang%NULL%0,     Lingyu%Jiang%NULL%0,     Jianxin%Song%songsingsjx@sina.com%0,     Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Grace%Salacup%salacupg@einstein.edu%0,     Kevin Bryan%Lo%NULL%0,     Kevin Bryan%Lo%NULL%0,     Fahad%Gul%NULL%0,     Eric%Peterson%NULL%0,     Robert%De Joy%NULL%0,     Ruchika%Bhargav%NULL%0,     Jerald%Pelayo%NULL%0,     Jeri%Albano%NULL%0,     Zurab%Azmaiparashvili%NULL%0,     Sadia%Benzaquen%NULL%0,     Gabriel%Patarroyo‐Aponte%NULL%0,     Janani%Rangaswami%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yufeng%Shang%NULL%0,     Tao%Liu%NULL%0,     Yongchang%Wei%NULL%0,     Jingfeng%Li%NULL%0,     Liang%Shao%NULL%0,     Minghui%Liu%NULL%0,     Yongxi%Zhang%NULL%0,     Zhigang%Zhao%NULL%0,     Haibo%Xu%NULL%0,     Zhiyong%Peng%NULL%0,     Fuling%Zhou%zhoufuling@whu.edu.cn%0,     Xinghuan%Wang%wangxinghuan@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,     Mu%Qin%qinmuae@163.com%0,     Yuli%Cai%NULL%0,     Tao%Liu%NULL%0,     Bo%Shen%NULL%0,     Fan%Yang%NULL%0,     Sheng%Cao%NULL%0,     Xu%Liu%NULL%0,     Xu%Liu%NULL%0,     Yaozu%Xiang%NULL%0,     Qinyan%Zhao%NULL%0,     He%Huang%huanghe1977@whu.edu.cn%0,     Bo%Yang%yybb112@whu.edu.cn%0,     Congxin%Huang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rita de Cássia Menezes%Soares%NULL%0,     Larissa Rodrigues%Mattos%NULL%0,     Letícia Martins%Raposo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,     Ruoqi%Ning%NULL%0,     Yu%Tao%NULL%0,     Chong%Yu%NULL%0,     Xiaoyan%Deng%NULL%0,     Caili%Zhao%NULL%0,     Silu%Meng%NULL%0,     Fangxu%Tang%89650793@qq.com%0,     Dong%Xu%89650793@qq.com%0,     Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Kun%Wang%NULL%0,     Peiyuan%Zuo%NULL%0,     Yuwei%Liu%NULL%0,     Meng%Zhang%NULL%0,     Xiaofang%Zhao%NULL%0,     Songpu%Xie%NULL%0,     Hao%Zhang%NULL%0,     Xinglin%Chen%NULL%0,     Chengyun%Liu%chengyunliu@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Bo%XU%NULL%0,     Cun-yu%FAN%NULL%0,     An-lu%WANG%NULL%0,     Yi-long%ZOU%NULL%0,     Yi-han%YU%NULL%0,     Cong%HE%NULL%0,     Wen-guang%XIA%NULL%0,     Ji-xian%ZHANG%NULL%0,     Qing%MIAO%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xisheng%Yan%NULL%0,     Fen%Li%NULL%0,     Xiao%Wang%NULL%0,     Jie%Yan%NULL%0,     Fen%Zhu%NULL%0,     Shifan%Tang%NULL%0,     Yingzhong%Deng%NULL%0,     Hua%Wang%NULL%0,     Rui%Chen%NULL%0,     Zhili%Yu%NULL%0,     Yaping%Li%NULL%0,     Jingzhou%Shang%NULL%0,     Lingjun%Zeng%NULL%0,     Jie%Zhao%NULL%0,     Chaokun%Guan%NULL%0,     Qiaomei%Liu%NULL%0,     Haifeng%Chen%NULL%0,     Wei%Gong%NULL%0,     Xin%Huang%NULL%0,     Yu‐Jiao%Zhang%NULL%0,     Jianguang%Liu%NULL%0,     Xiaoyan%Dong%NULL%0,     Wen%Zheng%zhengwen12@mails.jlu.edu.cn%0,     Shaoping%Nie%spnie@126.com%0,     Dongsheng%Li%dongshengli196809@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qing%Yang%NULL%0,     Ying%Zhou%NULL%0,     Xinrong%Wang%NULL%0,     Shan%Gao%NULL%0,     Yang%Xiao%NULL%0,     Weiming%Zhang%NULL%0,     Yi%Hu%huyizxyy@163.com%0,     Yafei%Wang%wyf_527@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,     Qingyu%Yang%NULL%0,     Yaxin%Wang%NULL%0,     Yongran%Wu%NULL%0,     Jiqian%Xu%NULL%0,     Yuan%Yu%NULL%0,     You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wenjing%Ye%yewenjing@xinhuamed.com.cn%0,     Guoxi%Chen%4799082@qq.com%0,     Xiaopan%Li%xiaopanli0224@126.com%0,     Xing%Lan%474137452@qq.com%0,     Chen%Ji%c.ji.3@warwick.ac.uk%0,     Min%Hou%min-hou710@hotmail.com%0,     Di%Zhang%zhangdizhangdi1234@163.com%0,     Guangwang%Zeng%785663609@qq.com%0,     Yaling%Wang%953822402@qq.com%0,     Cheng%Xu%xucheng112358@126.com%0,     Weiwei%Lu%luweiwei100@126.com%0,     Ruolin%Cui%crlqwerty@163.com%0,     Yuyang%Cai%caiyuyang@sjtu.edu.cn%0,     Hai%Huang%1220775601@qq.com%0,     Ling%Yang%yangling01@xinhuamed.com.cn%0]</t>
+  </si>
+  <si>
+    <t>[Caizheng%Yu%NULL%0,     Qing%Lei%NULL%0,     Wenkai%Li%NULL%0,     Xiong%Wang%NULL%0,     Wei%Liu%NULL%0,     Xionglin%Fan%NULL%0,     Wengang%Li%228907211@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,     Ting%Yu%NULL%0,     Ronghui%Du%NULL%0,     Guohui%Fan%NULL%0,     Ying%Liu%NULL%0,     Zhibo%Liu%NULL%0,     Jie%Xiang%NULL%0,     Yeming%Wang%NULL%0,     Bin%Song%NULL%0,     Xiaoying%Gu%NULL%0,     Lulu%Guan%NULL%0,     Yuan%Wei%NULL%0,     Hui%Li%NULL%0,     Xudong%Wu%NULL%0,     Jiuyang%Xu%NULL%0,     Shengjin%Tu%NULL%0,     Yi%Zhang%NULL%0,     Hua%Chen%NULL%0,     Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Moran%Amit%NULL%0,     Alex%Sorkin%NULL%0,     Jacob%Chen%NULL%0,     Barak%Cohen%NULL%0,     Barak%Cohen%NULL%0,     Dana%Karol%NULL%0,     Dana%Karol%NULL%0,     Avishai M%Tsur%NULL%0,     Shaul%Lev%NULL%0,     Shaul%Lev%NULL%0,     Tal%Rozenblat%NULL%0,     Ayana%Dvir%NULL%0,     Ayana%Dvir%NULL%0,     Geva%Landau%NULL%0,     Lidar%Fridrich%NULL%0,     Lidar%Fridrich%NULL%0,     Elon%Glassberg%NULL%0,     Shani%Kesari%NULL%0,     Sigal%Sviri%NULL%0,     Ram%Gelman%NULL%0,     Asaf%Miller%NULL%0,     Danny%Epstein%NULL%0,     Ronny%Ben-Avi%NULL%0,     Ronny%Ben-Avi%NULL%0,     Moshe%Matan%NULL%0,     Daniel J.%Jakobson%NULL%0,     Daniel J.%Jakobson%NULL%0,     Tarif%Bader%NULL%0,     Tarif%Bader%NULL%0,     David%Dahan%NULL%0,     David%Dahan%NULL%0,     Daniel A.%King%NULL%0,     Anat%Ben-Ari%NULL%0,     Arie%Soroksky%NULL%0,     Alon%Bar%NULL%0,     Alon%Bar%NULL%0,     Noam%Fink%NULL%0,     Pierre%Singer%NULL%0,     Avi%Benov%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,     John R%Adler%NULL%0,     Muhammad Sohaib%Asghar%NULL%0,     Muhammad Sohaib%Asghar%NULL%0,     Syed Jawad%Haider Kazmi%NULL%0,     Noman%Ahmed Khan%NULL%0,     Mohammed%Akram%NULL%0,     Salman%Ahmed Khan%NULL%0,     Uzma%Rasheed%NULL%0,     Maira%Hassan%NULL%0,     Gul Muhammad%Memon%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pedro%Baqui%NULL%0,     Ioana%Bica%NULL%0,     Valerio%Marra%marra@cosmo-ufes.org%0,     Ari%Ercole%NULL%0,     Mihaela%van der Schaar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anesi%Adriano%coreGivesNoEmail%0,    Bettinardi%Alessandra%coreGivesNoEmail%0,    Bonetti%Graziella%coreGivesNoEmail%0,    Borrelli%Gianluca%coreGivesNoEmail%0,    Fiordalisi%Gianfranco%coreGivesNoEmail%0,    Lippi%Giuseppe%coreGivesNoEmail%0,    Manelli%Filippo%coreGivesNoEmail%0,    Marino%Antonio%coreGivesNoEmail%0,    Menolfi%Annamaria%coreGivesNoEmail%0,    Patroni%Andrea%coreGivesNoEmail%0,    Saggini%Sara%coreGivesNoEmail%0,    Volpi%Roberta%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Andrea%Borghesi%NULL%0,     Angelo%Zigliani%NULL%0,     Salvatore%Golemi%NULL%0,     Nicola%Carapella%NULL%0,     Patrizia%Maculotti%NULL%0,     Davide%Farina%NULL%0,     Roberto%Maroldi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alberto M.%Borobia%NULL%0,     Antonio J.%Carcas%NULL%0,     Antonio J.%Carcas%NULL%0,     Francisco%Arnalich%NULL%0,     Rodolfo%Álvarez-Sala%NULL%0,     Rodolfo%Álvarez-Sala%NULL%0,     Jaime%Monserrat-Villatoro%NULL%0,     Manuel%Quintana%NULL%0,     Juan Carlos%Figueira%NULL%0,     Rosario M.%Torres Santos-Olmo%NULL%0,     Julio%García-Rodríguez%NULL%0,     Julio%García-Rodríguez%NULL%0,     Alberto%Martín-Vega%NULL%0,     Antonio%Buño%NULL%0,     Elena%Ramírez%NULL%0,     Gonzalo%Martínez-Alés%NULL%0,     Gonzalo%Martínez-Alés%NULL%0,     Nicolás%García-Arenzana%NULL%0,     M. Concepción%Núñez%NULL%0,     M. Concepción%Núñez%NULL%0,     Milagros%Martí-de-Gracia%NULL%0,     Francisco%Moreno Ramos%NULL%0,     Francisco%Reinoso-Barbero%NULL%0,     Alejandro%Martin-Quiros%NULL%0,     Angélica%Rivera Núñez%NULL%0,     Jesús%Mingorance%NULL%0,     Carlos J.%Carpio Segura%NULL%0,     Carlos J.%Carpio Segura%NULL%0,     Daniel%Prieto Arribas%NULL%0,     Esther%Rey Cuevas%NULL%0,     Concepción%Prados Sánchez%NULL%0,     Juan J.%Rios%NULL%0,     Miguel A.%Hernán%NULL%0,     Jesús%Frías%NULL%0,     José R.%Arribas%NULL%0,     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simon E.%Brill%simon.brill@nhs.net%0,     Hannah C.%Jarvis%NULL%0,     Hannah C.%Jarvis%NULL%0,     Ezgi%Ozcan%NULL%0,     Thomas L. P.%Burns%NULL%0,     Rabia A.%Warraich%NULL%0,     Lisa J.%Amani%NULL%0,     Amina%Jaffer%NULL%0,     Stephanie%Paget%NULL%0,     Anand%Sivaramakrishnan%NULL%0,     Dean D.%Creer%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,     Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,     Wenlin%Cheng%NULL%0,     Lei%Yu%NULL%0,     Ya-Kun%Liu%NULL%0,     Xiaoyong%Hu%NULL%0,     Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[B.%Carter%NULL%0,     J.T.%Collins%NULL%0,     F.%Barlow-Pay%NULL%0,     F.%Rickard%NULL%0,     E.%Bruce%NULL%0,     A.%Verduri%NULL%0,     T.J.%Quinn%NULL%0,     E.%Mitchell%NULL%0,     A.%Price%NULL%0,     A.%Vilches-Moraga%NULL%0,     M.J.%Stechman%NULL%0,     R.%Short%NULL%0,     A.%Einarsson%NULL%0,     P.%Braude%NULL%0,     S.%Moug%NULL%0,     P.K.%Myint%NULL%0,     J.%Hewitt%NULL%0,     L.%Pearce%NULL%0,     K.%McCarthy%NULL%0,     C.%Davey%NULL%0,     S.%Jones%NULL%0,     K.%Lunstone%NULL%0,     A.%Cavenagh%NULL%0,     C.%Silver%NULL%0,     T.%Telford%NULL%0,     R.%Simmons%NULL%0,     M.%Holloway%NULL%0,     J.%Hesford%NULL%0,     T.%El Jichi Mutasem%NULL%0,     S.%Singh%NULL%0,     D.%Paxton%NULL%0,     W.%Harris%NULL%0,     N.%Galbraith%NULL%0,     E.%Bhatti%NULL%0,     J.%Edwards%NULL%0,     S.%Duffy%NULL%0,     J.%Kelly%NULL%0,     C.%Murphy%NULL%0,     C.%Bisset%NULL%0,     R.%Alexander%NULL%0,     M.%Garcia%NULL%0,     S.%Sangani%NULL%0,     T.%Kneen%NULL%0,     T.%Lee%NULL%0,     A.%McGovern%NULL%0,     G.%Guaraldi%NULL%0,     E.%Clini%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fuyang%Chen%NULL%0,     Wenwu%Sun%NULL%0,     Shengrong%Sun%NULL%0,     Zhiyu%Li%lizhiyu@whu.edu.cn%0,     Zhong%Wang%zhongwangchn@whu.edu.cn%0,     Li%Yu%yuliwhzxyy@163.com%0,     Li%Yu%yuliwhzxyy@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,     Ling%Sang%NULL%0,     Mei%Jiang%NULL%0,     Zhaowei%Yang%NULL%0,     Nan%Jia%NULL%0,     Wanyi%Fu%NULL%0,     Jiaxing%Xie%NULL%0,     Weijie%Guan%NULL%0,     Wenhua%Liang%NULL%0,     Zhengyi%Ni%NULL%0,     Yu%Hu%NULL%0,     Lei%Liu%NULL%0,     Hong%Shan%NULL%0,     Chunliang%Lei%NULL%0,     Yixiang%Peng%NULL%0,     Li%Wei%NULL%0,     Yong%Liu%NULL%0,     Yahua%Hu%NULL%0,     Peng%Peng%NULL%0,     Jianming%Wang%NULL%0,     Jiyang%Liu%NULL%0,     Zhong%Chen%NULL%0,     Gang%Li%NULL%0,     Zhijian%Zheng%NULL%0,     Shaoqin%Qiu%NULL%0,     Jie%Luo%NULL%0,     Changjiang%Ye%NULL%0,     Shaoyong%Zhu%NULL%0,     Jinping%Zheng%NULL%0,     Nuofu%Zhang%NULL%0,     Yimin%Li%NULL%0,     Jianxing%He%NULL%0,     Jing%Li%NULL%0,     Shiyue%Li%NULL%0,     Nanshan%Zhong%NULL%0,     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,     Di%Wu%NULL%0,     Huilong%Chen%NULL%0,     Weiming%Yan%NULL%0,     Danlei%Yang%NULL%0,     Guang%Chen%NULL%0,     Ke%Ma%NULL%0,     Dong%Xu%NULL%0,     Haijing%Yu%NULL%0,     Hongwu%Wang%NULL%0,     Tao%Wang%NULL%0,     Wei%Guo%NULL%0,     Jia%Chen%NULL%0,     Chen%Ding%NULL%0,     Xiaoping%Zhang%NULL%0,     Jiaquan%Huang%NULL%0,     Meifang%Han%NULL%0,     Shusheng%Li%NULL%0,     Xiaoping%Luo%NULL%0,     Jianping%Zhao%NULL%0,     Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anying%Cheng%NULL%0,     Liu%Hu%NULL%0,     Yiru%Wang%NULL%0,     Luyan%Huang%NULL%0,     Lingxi%Zhao%NULL%0,     Congcong%Zhang%NULL%0,     Xiyue%Liu%NULL%0,     Ranran%Xu%NULL%0,     Feng%Liu%NULL%0,     Jinping%Li%NULL%0,     Dawei%Ye%NULL%0,     Tao%Wang%NULL%0,     Yongman%Lv%lvyongman@126.com%0,     Qingquan%Liu%qqliutj@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fabio%Ciceri%ciceri.fabio@hsr.it%0,     Antonella%Castagna%NULL%0,     Patrizia%Rovere-Querini%NULL%0,     Francesco%De Cobelli%NULL%0,     Annalisa%Ruggeri%NULL%0,     Laura%Galli%NULL%0,     Caterina%Conte%NULL%0,     Rebecca%De Lorenzo%NULL%0,     Andrea%Poli%NULL%0,     Alberto%Ambrosio%NULL%0,     Carlo%Signorelli%NULL%0,     Eleonora%Bossi%NULL%0,     Maria%Fazio%NULL%0,     Cristina%Tresoldi%NULL%0,     Sergio%Colombo%NULL%0,     Giacomo%Monti%NULL%0,     Efgeny%Fominskiy%NULL%0,     Stefano%Franchini%NULL%0,     Marzia%Spessot%NULL%0,     Carlo%Martinenghi%NULL%0,     Michele%Carlucci%NULL%0,     Luigi%Beretta%NULL%0,     Anna Maria%Scandroglio%NULL%0,     Massimo%Clementi%NULL%0,     Massimo%Locatelli%NULL%0,     Moreno%Tresoldi%NULL%0,     Paolo%Scarpellini%NULL%0,     Gianvito%Martino%NULL%0,     Emanuele%Bosi%NULL%0,     Lorenzo%Dagna%NULL%0,     Adriano%Lazzarin%NULL%0,     Giovanni%Landoni%NULL%0,     Alberto%Zangrillo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,     Wei%Liu%NULL%0,     Kui%Liu%NULL%0,     Yuan-Yuan%Fang%NULL%0,     Jin%Shang%NULL%0,     Ling%Zhou%NULL%0,     Ke%Wang%NULL%0,     Fan%Leng%NULL%0,     Shuang%Wei%NULL%0,     Lei%Chen%NULL%0,     Hui-Guo%Liu%NULL%0,     Pei-Fang%Wei%NULL%0,     Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,     Li-Rong%Liang%NULL%0,     Cheng-Qing%Yang%NULL%0,     Wen%Wang%NULL%0,     Tan-Ze%Cao%NULL%0,     Ming%Li%NULL%0,     Guang-Yun%Guo%NULL%0,     Juan%Du%NULL%0,     Chun-Lan%Zheng%NULL%0,     Qi%Zhu%NULL%0,     Ming%Hu%NULL%0,     Xu-Yan%Li%NULL%0,     Peng%Peng%NULL%0,     Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shan%Gao%NULL%0,     Fang%Jiang%NULL%0,     Wei%Jin%NULL%0,     Yuan%Shi%NULL%0,     Leilei%Yang%NULL%0,     Yanqiong%Xia%NULL%0,     Linyan%Jia%NULL%0,     Bo%Wang%NULL%0,     Han%Lin%NULL%0,     Yin%Cai%NULL%0,     Zhengyuan%Xia%NULL%0,     Jian%Peng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pedro David%Wendel Garcia%pedrodavid.wendelgarcia@usz.ch%0,     Thierry%Fumeaux%thierry.fumeaux@ghol.ch%0,     Philippe%Guerci%NULL%0,     Dorothea Monika%Heuberger%dorotheamonika.heuberger@usz.ch%0,     Jonathan%Montomoli%NULL%0,     Ferran%Roche-Campo%NULL%0,     Reto Andreas%Schuepbach%reto.schuepbach@usz.ch%0,     Matthias Peter%Hilty%matthias.hilty@usz.ch%0,     Mario%Alfaro Farias%NULL%0,     Antoni%Margarit%NULL%0,     Gerardo%Vizmanos-Lamotte%NULL%0,     Thomas%Tschoellitsch%NULL%0,     Jens%Meier%NULL%0,     Francesco S.%Cardona%NULL%0,     Josef%Skola%NULL%0,     Lenka%Horakova%NULL%0,     Hernan%Aguirre-Bermeo%NULL%0,     Janina%Apolo%NULL%0,     Emmanuel%Novy%NULL%0,     Marie-Reine%Losser%NULL%0,     Geoffrey%Jurkolow%NULL%0,     Gauthier%Delahaye%NULL%0,     Sascha%David%NULL%0,     Tobias%Welte%NULL%0,     Tobias%Wengenmayer%NULL%0,     Dawid L.%Staudacher%NULL%0,     Theodoros%Aslanidis%NULL%0,     Barna%Babik%NULL%0,     Anita%Korsos%NULL%0,     Janos%Gal%NULL%0,     Hermann%Csaba%NULL%0,     Abele%Donati%NULL%0,     Andrea%Carsetti%NULL%0,     Fabrizio%Turrini%NULL%0,     Maria Sole%Simonini%NULL%0,     Roberto%Ceriani%NULL%0,     Martina%Murrone%NULL%0,     Emanuele%Rezoagli%NULL%0,     Giovanni%Vitale%NULL%0,     Alberto%Fogagnolo%NULL%0,     Savino%Spadaro%NULL%0,     Maddalena Alessandra%Wu%NULL%0,     Chiara%Cogliati%NULL%0,     Riccardo%Colombo%NULL%0,     Emanuele%Catena%NULL%0,     Francesca%Facondini%NULL%0,     Antonella%Potalivo%NULL%0,     Gianfilippo%Gangitano%NULL%0,     Tiziana%Perin%NULL%0,     Maria Grazia%Bocci%NULL%0,     Massimo%Antonelli%NULL%0,     Diederik%Gommers%NULL%0,     Can%Ince%NULL%0,     Eric%Mayor-Vázquez%NULL%0,     Maria%Cruz%NULL%0,     Martin%Delgado%NULL%0,     Raquel Rodriguez%Garcia%NULL%0,     Jorge%Gamez Zapata%NULL%0,     Begoña%Zalba-Etayo%NULL%0,     Herminia%Lozano-Gomez%NULL%0,     Pedro%Castro%NULL%0,     Adrian%Tellez%NULL%0,     Adriana%Jacas%NULL%0,     Guido%Muñoz%NULL%0,     Rut%Andrea%NULL%0,     Jose%Ortiz%NULL%0,     Eduard%Quintana%NULL%0,     Irene%Rovira%NULL%0,     Enric%Reverter%NULL%0,     Javier%Fernandez%NULL%0,     Miquel%Ferrer%NULL%0,     Joan R.%Badia%NULL%0,     Arantxa%Lander Azcona%NULL%0,     Jesus Escos%Orta%NULL%0,     Philipp%Bühler%NULL%0,     Silvio%Brugger%NULL%0,     Daniel%Hofmaenner%NULL%0,     Simone%Unseld%NULL%0,     Frank%Ruschitzka%NULL%0,     Mallory%Moret-Bochatay%NULL%0,     Bernd%Yuen%NULL%0,     Thomas%Hillermann%NULL%0,     Hatem%Ksouri%NULL%0,     Govind Oliver%Sridharan%NULL%0,     Anette%Ristic%NULL%0,     Michael%Sepulcri%NULL%0,     Miodrag%Filipovic%NULL%0,     Urs%Pietsch%NULL%0,     Petra%Salomon%NULL%0,     Iris%Drvaric%NULL%0,     Peter%Schott%NULL%0,     Severin%Urech%NULL%0,     Adriana%Lambert%NULL%0,     Lukas%Merki%NULL%0,     Marcus%Laube%NULL%0,     Frank%Hillgaertner%NULL%0,     Marianne%Sieber%NULL%0,     Alexander%Dullenkopf%NULL%0,     Lina%Petersen%NULL%0,     Serge%Grazioli%NULL%0,     Peter C.%Rimensberger%NULL%0,     Isabelle%Fleisch%NULL%0,     Jerome%Lavanchy%NULL%0,     Katharina%Marquardt%NULL%0,     Karim%Shaikh%NULL%0,     Hermann%Redecker%NULL%0,     Michael%Stephan%NULL%0,     Jan%Brem%NULL%0,     Bjarte%Rogdo%NULL%0,     Andre%Birkenmaier%NULL%0,     Friederike%Meyer zu Bentrup%NULL%0,     Patricia%Fodor%NULL%0,     Pascal%Locher%NULL%0,     Giovanni%Camen%NULL%0,     Martin%Siegemund%NULL%0,     Nuria%Zellweger%NULL%0,     Marie-Madlen%Jeitziner%NULL%0,     Beatrice%Jenni-Moser%NULL%0,     Christian%Bürkle%NULL%0,     Gian-Reto%Kleger%NULL%0,     Marilene%Franchitti Laurent%NULL%0,     Jean-Christophe%Laurent%NULL%0,     Tomislav%Gaspert%NULL%0,     Marija%Jovic%NULL%0,     Michael%Studhalter%NULL%0,     Christoph%Haberthuer%NULL%0,     Roger F.%Lussman%NULL%0,     Daniela%Selz%NULL%0,     Didier%Naon%NULL%0,     Romano%Mauri%NULL%0,     Samuele%Ceruti%NULL%0,     Julien%Marrel%NULL%0,     Mirko%Brenni%NULL%0,     Rolf%Ensner%NULL%0,     Nadine%Gehring%NULL%0,     Antje%Heise%NULL%0,     Tobias%Huebner%NULL%0,     Thomas A.%Neff%NULL%0,     Sara%Cereghetti%NULL%0,     Filippo%Boroli%NULL%0,     Jerome%Pugin%NULL%0,     Nandor%Marczin%NULL%0,     Joyce%Wong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Warren%Gavin%NULL%0,     Elliott%Campbell%NULL%0,     Syed-Adeel%Zaidi%NULL%0,     Neha%Gavin%NULL%0,     Lana%Dbeibo%NULL%0,     Cole%Beeler%NULL%0,     Kari%Kuebler%NULL%0,     Ahmed%Abdel-Rahman%NULL%0,     Mark%Luetkemeyer%NULL%0,     Areeba%Kara%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Vijay%Gayam%vgayam@interfaithmedical.com%0,     Muchi Ditah%Chobufo%NULL%0,     Muchi Ditah%Chobufo%NULL%0,     Mohamed A.%Merghani%NULL%0,     Mohamed A.%Merghani%NULL%0,     Shristi%Lamichhane%NULL%0,     Pavani Reddy%Garlapati%NULL%0,     Mark K.%Adler%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Cao%Y%coreGivesNoEmail%0,    Imam%Z%coreGivesNoEmail%0,    Lippi%G%coreGivesNoEmail%0,    Oran%DP%coreGivesNoEmail%0,    Shi%S%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Hai%Hu%huhai@wchscu.cn%0,     Ni%Yao%NULL%0,     Ni%Yao%NULL%0,     Yanru%Qiu%NULL%0,     John H.%Burton%NULL%0,     John H.%Burton%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jiaofeng%Huang%NULL%0,     Aiguo%Cheng%NULL%0,     Rahul%Kumar%NULL%0,     Yingying%Fang%NULL%0,     Yingying%Fang%NULL%0,     Gongping%Chen%NULL%0,     Yueyong%Zhu%NULL%0,     Su%Lin%sumer5129@fjmu.edu.cn%0,     Su%Lin%sumer5129@fjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%0,     Ju-Hyun%Kim%NULL%0,     Jin-Sung%Park%NULL%0,     Min Cheol%Chang%wheel633@ynu.ac.kr%0,     Donghwi%Park%bdome@hanmail.net%0]</t>
+  </si>
+  <si>
+    <t>[K.%Khalil%NULL%0,     K.%Agbontaen%NULL%0,     D.%McNally%NULL%0,     A.%Love%NULL%0,     S.%Mandalia%NULL%0,     W.%Banya%NULL%0,     E.%Starren%NULL%0,     R.%Dhunnookchand%NULL%0,     H.%Farne%NULL%0,     R.%Morton%NULL%0,     G.%Davies%NULL%0,     O.%Orhan%NULL%0,     D%Lai%NULL%0,     M.%Nelson%NULL%0,     P.L.%Shah%NULL%0,     J.L.%Garner%Justin.garner@chelwest.nhs.uk%0]</t>
+  </si>
+  <si>
+    <t>[Eyal%Klang%NULL%0,     Gassan%Kassim%NULL%0,     Shelly%Soffer%soffer.shelly@gmail.com%0,     Robert%Freeman%NULL%0,     Robert%Freeman%NULL%0,     Matthew A.%Levin%NULL%0,     Matthew A.%Levin%NULL%0,     David L.%Reich%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sandeep%Krishnan%NULL%0,     Kinjal%Patel%NULL%0,     Ronak%Desai%NULL%0,     Anupam%Sule%NULL%0,     Peter%Paik%NULL%0,     Ashley%Miller%NULL%0,     Alicia%Barclay%NULL%0,     Adam%Cassella%NULL%0,     Jon%Lucaj%NULL%0,     Yvonne%Royster%NULL%0,     Joffer%Hakim%NULL%0,     Zulfiqar%Ahmed%NULL%0,     Farhad%Ghoddoussi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Manisha%Bhutani%null%0,      David M.%Foureau%null%0,      Shebli%Atrash%null%0,      Peter M.%Voorhees%null%0,      Saad Z.%Usmani%null%0,    Manisha%Bhutani%null%0,    David M.%Foureau%null%0,    Shebli%Atrash%null%0,    Peter M.%Voorhees%null%0,    Saad Z.%Usmani%null%0]</t>
+  </si>
+  <si>
+    <t>[Wil%Lieberman-Cribbin%NULL%0,     Joseph%Rapp%NULL%0,     Naomi%Alpert%NULL%0,     Stephanie%Tuminello%NULL%0,     Emanuela%Taioli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Q.%Liu%NULL%0,     N. C.%Song%NULL%0,     Z. K.%Zheng%NULL%0,     J. S.%Li%NULL%0,     S. K.%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Long%NULL%0,     Lan%Nie%NULL%0,     Xiaochen%Xiang%NULL%0,     Huan%Li%NULL%0,     Xiaoli%Zhang%NULL%0,     Xiaozhi%Fu%NULL%0,     Hongwei%Ren%NULL%0,     Wanxin%Liu%NULL%0,     Qiang%Wang%wangqiang@wust.edu.cn%0,     Qingming%Wu%wuhe9224@sina.com%0,     Qingming%Wu%wuhe9224@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaomin%Luo%luoxiaomin04@163.com%0,     Wei%Zhou%NULL%0,     Xiaojie%Yan%NULL%0,     Tangxi%Guo%NULL%0,     Benchao%Wang%NULL%0,     Hongxia%Xia%NULL%0,     Lu%Ye%NULL%0,     Jun%Xiong%NULL%0,     Zongping%Jiang%NULL%0,     Yu%Liu%NULL%0,     Bicheng%Zhang%NULL%0,     Weize%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ying%Luo%NULL%0,     Liyan%Mao%NULL%0,     Xu%Yuan%NULL%0,     Ying%Xue%NULL%0,     Qun%Lin%NULL%0,     Guoxing%Tang%NULL%0,     Huijuan%Song%NULL%0,     Feng%Wang%fengwang@tjh.tjmu.edu.cn%0,     Ziyong%Sun%zysun@tjh.tjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ying%Luo%NULL%0,     Ying%Xue%NULL%0,     Liyan%Mao%NULL%0,     Xu%Yuan%NULL%0,     Qun%Lin%NULL%0,     Guoxing%Tang%NULL%0,     Huijuan%Song%NULL%0,     Feng%Wang%NULL%0,     Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chiara%Masetti%NULL%0,     Elena%Generali%NULL%0,     Francesca%Colapietro%NULL%0,     Antonio%Voza%NULL%0,     Maurizio%Cecconi%NULL%0,     Antonio%Messina%NULL%0,     Paolo%Omodei%NULL%0,     Claudio%Angelini%NULL%0,     Michele%Ciccarelli%NULL%0,     Salvatore%Badalamenti%NULL%0,     G. Walter%Canonica%NULL%0,     Ana%Lleo%ana.lleo@humanitas.it%0,     Alessio%Aghemo%NULL%0,     Alessio%Aghemo%NULL%0,     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Takahisa%Mikami%NULL%0,     Hirotaka%Miyashita%NULL%0,     Takayuki%Yamada%NULL%0,     Matthew%Harrington%NULL%0,     Daniel%Steinberg%NULL%0,     Andrew%Dunn%NULL%0,     Evan%Siau%Evan.Siau@mountsinai.org%0]</t>
+  </si>
+  <si>
+    <t>[Alexis K.%Okoh%alexis.okoh@rwjbh.org%0,     Christoph%Sossou%NULL%0,     Christoph%Sossou%NULL%0,     Neha S.%Dangayach%NULL%0,     Sherin%Meledathu%NULL%0,     Oluwakemi%Phillips%NULL%0,     Corinne%Raczek%NULL%0,     Michael%Patti%NULL%0,     Nathan%Kang%NULL%0,     Sameer A.%Hirji%NULL%0,     Charles%Cathcart%NULL%0,     Christian%Engell%NULL%0,     Marc%Cohen%NULL%0,     Sandhya%Nagarakanti%NULL%0,     Eliahu%Bishburg%NULL%0,     Harpreet S.%Grewal%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%0,      Lian%Yang%NULL%0,      Yuncheng%Li%NULL%0,      Bo%Liang%NULL%0,      Lin%Li%NULL%0,      Tianhe%Ye%NULL%0,      Lingli%Li%NULL%0,      Dehan%Liu%NULL%0,      Shan%Gui%NULL%0,      Yu%Hu%NULL%0,      Chuansheng%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,     Becker%L.B.%coreGivesNoEmail%0,     Chelico%J.D.%coreGivesNoEmail%0,     Cohen%S.L.%coreGivesNoEmail%0,     Cookingham%J.%coreGivesNoEmail%0,     Coppa%K.%coreGivesNoEmail%0,     Crawford%J.M.%coreGivesNoEmail%0,     Davidson%K.W.%coreGivesNoEmail%0,     Diefenbach%M.A.%coreGivesNoEmail%0,     Dominello%A.J.%coreGivesNoEmail%0,     Duer-Hefele%J.%coreGivesNoEmail%0,     Falzon%L.%coreGivesNoEmail%0,     Gitlin%J.%coreGivesNoEmail%0,     Hajizadeh%N.%coreGivesNoEmail%0,     Harvin%T.G.%coreGivesNoEmail%0,     Hirsch%J.S.%coreGivesNoEmail%0,     Hirschwerk%D.A.%coreGivesNoEmail%0,     Kim%E.J.%coreGivesNoEmail%0,     Kozel%Z.M.%coreGivesNoEmail%0,     Marrast%L.M.%coreGivesNoEmail%0,     McGinn%T.%coreGivesNoEmail%0,     Mogavero%J.N.%coreGivesNoEmail%0,     Narasimhan%M.%coreGivesNoEmail%0,     Osorio%G.A.%coreGivesNoEmail%0,     Qiu%M.%coreGivesNoEmail%0,     Richardson%S.%coreGivesNoEmail%0,     Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Mario%Rivera-Izquierdo%NULL%0,      María%del Carmen Valero-Ubierna%NULL%0,      María%del Carmen Valero-Ubierna%NULL%0,      Juan Luis%R-delAmo%NULL%0,      Miguel Ángel%Fernández-García%NULL%0,      Silvia%Martínez-Diz%NULL%0,      Arezu%Tahery-Mahmoud%NULL%0,      Marta%Rodríguez-Camacho%NULL%0,      Ana Belén%Gámiz-Molina%NULL%0,      Nicolás%Barba-Gyengo%NULL%0,      Pablo%Gámez-Baeza%NULL%0,      Celia%Cabrero-Rodríguez%NULL%0,      Pedro Antonio%Guirado-Ruiz%NULL%0,      Divina Tatiana%Martín-Romero%NULL%0,      Antonio Jesús%Láinez-Ramos-Bossini%NULL%0,      María Rosa%Sánchez-Pérez%NULL%0,      José%Mancera-Romero%NULL%0,      Miguel%García-Martín%NULL%0,      Luis Miguel%Martín-delosReyes%NULL%0,      Virginia%Martínez-Ruiz%NULL%0,      Virginia%Martínez-Ruiz%NULL%0,      Pablo%Lardelli-Claret%NULL%0,      Eladio%Jiménez-Mejías%NULL%0,      Muhammad%Adrish%NULL%0,      Muhammad%Adrish%NULL%0,      NULL%NULL%NULL%0,      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,      Kun%Yang%NULL%0,      Kun%Yang%NULL%0,      Wenxia%Wang%NULL%0,      Wenxia%Wang%NULL%0,      Lingyu%Jiang%NULL%0,      Lingyu%Jiang%NULL%0,      Jianxin%Song%songsingsjx@sina.com%0,      Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Grace%Salacup%salacupg@einstein.edu%0,      Kevin Bryan%Lo%NULL%0,      Kevin Bryan%Lo%NULL%0,      Fahad%Gul%NULL%0,      Eric%Peterson%NULL%0,      Robert%De Joy%NULL%0,      Ruchika%Bhargav%NULL%0,      Jerald%Pelayo%NULL%0,      Jeri%Albano%NULL%0,      Zurab%Azmaiparashvili%NULL%0,      Sadia%Benzaquen%NULL%0,      Gabriel%Patarroyo‐Aponte%NULL%0,      Janani%Rangaswami%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yufeng%Shang%NULL%0,      Tao%Liu%NULL%0,      Yongchang%Wei%NULL%0,      Jingfeng%Li%NULL%0,      Liang%Shao%NULL%0,      Minghui%Liu%NULL%0,      Yongxi%Zhang%NULL%0,      Zhigang%Zhao%NULL%0,      Haibo%Xu%NULL%0,      Zhiyong%Peng%NULL%0,      Fuling%Zhou%zhoufuling@whu.edu.cn%0,      Xinghuan%Wang%wangxinghuan@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,      Mu%Qin%qinmuae@163.com%0,      Yuli%Cai%NULL%0,      Tao%Liu%NULL%0,      Bo%Shen%NULL%0,      Fan%Yang%NULL%0,      Sheng%Cao%NULL%0,      Xu%Liu%NULL%0,      Xu%Liu%NULL%0,      Yaozu%Xiang%NULL%0,      Qinyan%Zhao%NULL%0,      He%Huang%huanghe1977@whu.edu.cn%0,      Bo%Yang%yybb112@whu.edu.cn%0,      Congxin%Huang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rita de Cássia Menezes%Soares%NULL%0,      Larissa Rodrigues%Mattos%NULL%0,      Letícia Martins%Raposo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,      Ruoqi%Ning%NULL%0,      Yu%Tao%NULL%0,      Chong%Yu%NULL%0,      Xiaoyan%Deng%NULL%0,      Caili%Zhao%NULL%0,      Silu%Meng%NULL%0,      Fangxu%Tang%89650793@qq.com%0,      Dong%Xu%89650793@qq.com%0,      Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Kun%Wang%NULL%0,      Peiyuan%Zuo%NULL%0,      Yuwei%Liu%NULL%0,      Meng%Zhang%NULL%0,      Xiaofang%Zhao%NULL%0,      Songpu%Xie%NULL%0,      Hao%Zhang%NULL%0,      Xinglin%Chen%NULL%0,      Chengyun%Liu%chengyunliu@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Bo%XU%NULL%0,      Cun-yu%FAN%NULL%0,      An-lu%WANG%NULL%0,      Yi-long%ZOU%NULL%0,      Yi-han%YU%NULL%0,      Cong%HE%NULL%0,      Wen-guang%XIA%NULL%0,      Ji-xian%ZHANG%NULL%0,      Qing%MIAO%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xisheng%Yan%NULL%0,      Fen%Li%NULL%0,      Xiao%Wang%NULL%0,      Jie%Yan%NULL%0,      Fen%Zhu%NULL%0,      Shifan%Tang%NULL%0,      Yingzhong%Deng%NULL%0,      Hua%Wang%NULL%0,      Rui%Chen%NULL%0,      Zhili%Yu%NULL%0,      Yaping%Li%NULL%0,      Jingzhou%Shang%NULL%0,      Lingjun%Zeng%NULL%0,      Jie%Zhao%NULL%0,      Chaokun%Guan%NULL%0,      Qiaomei%Liu%NULL%0,      Haifeng%Chen%NULL%0,      Wei%Gong%NULL%0,      Xin%Huang%NULL%0,      Yu‐Jiao%Zhang%NULL%0,      Jianguang%Liu%NULL%0,      Xiaoyan%Dong%NULL%0,      Wen%Zheng%zhengwen12@mails.jlu.edu.cn%0,      Shaoping%Nie%spnie@126.com%0,      Dongsheng%Li%dongshengli196809@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qing%Yang%NULL%0,      Ying%Zhou%NULL%0,      Xinrong%Wang%NULL%0,      Shan%Gao%NULL%0,      Yang%Xiao%NULL%0,      Weiming%Zhang%NULL%0,      Yi%Hu%huyizxyy@163.com%0,      Yafei%Wang%wyf_527@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,      Qingyu%Yang%NULL%0,      Yaxin%Wang%NULL%0,      Yongran%Wu%NULL%0,      Jiqian%Xu%NULL%0,      Yuan%Yu%NULL%0,      You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wenjing%Ye%yewenjing@xinhuamed.com.cn%0,      Guoxi%Chen%4799082@qq.com%0,      Xiaopan%Li%xiaopanli0224@126.com%0,      Xing%Lan%474137452@qq.com%0,      Chen%Ji%c.ji.3@warwick.ac.uk%0,      Min%Hou%min-hou710@hotmail.com%0,      Di%Zhang%zhangdizhangdi1234@163.com%0,      Guangwang%Zeng%785663609@qq.com%0,      Yaling%Wang%953822402@qq.com%0,      Cheng%Xu%xucheng112358@126.com%0,      Weiwei%Lu%luweiwei100@126.com%0,      Ruolin%Cui%crlqwerty@163.com%0,      Yuyang%Cai%caiyuyang@sjtu.edu.cn%0,      Hai%Huang%1220775601@qq.com%0,      Ling%Yang%yangling01@xinhuamed.com.cn%0]</t>
+  </si>
+  <si>
+    <t>[Caizheng%Yu%NULL%0,      Qing%Lei%NULL%0,      Wenkai%Li%NULL%0,      Xiong%Wang%NULL%0,      Wei%Liu%NULL%0,      Xionglin%Fan%NULL%0,      Wengang%Li%228907211@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,      Ting%Yu%NULL%0,      Ronghui%Du%NULL%0,      Guohui%Fan%NULL%0,      Ying%Liu%NULL%0,      Zhibo%Liu%NULL%0,      Jie%Xiang%NULL%0,      Yeming%Wang%NULL%0,      Bin%Song%NULL%0,      Xiaoying%Gu%NULL%0,      Lulu%Guan%NULL%0,      Yuan%Wei%NULL%0,      Hui%Li%NULL%0,      Xudong%Wu%NULL%0,      Jiuyang%Xu%NULL%0,      Shengjin%Tu%NULL%0,      Yi%Zhang%NULL%0,      Hua%Chen%NULL%0,      Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Moran%Amit%NULL%0,      Alex%Sorkin%NULL%0,      Jacob%Chen%NULL%0,      Barak%Cohen%NULL%0,      Barak%Cohen%NULL%0,      Dana%Karol%NULL%0,      Dana%Karol%NULL%0,      Avishai M%Tsur%NULL%0,      Shaul%Lev%NULL%0,      Shaul%Lev%NULL%0,      Tal%Rozenblat%NULL%0,      Ayana%Dvir%NULL%0,      Ayana%Dvir%NULL%0,      Geva%Landau%NULL%0,      Lidar%Fridrich%NULL%0,      Lidar%Fridrich%NULL%0,      Elon%Glassberg%NULL%0,      Shani%Kesari%NULL%0,      Sigal%Sviri%NULL%0,      Ram%Gelman%NULL%0,      Asaf%Miller%NULL%0,      Danny%Epstein%NULL%0,      Ronny%Ben-Avi%NULL%0,      Ronny%Ben-Avi%NULL%0,      Moshe%Matan%NULL%0,      Daniel J.%Jakobson%NULL%0,      Daniel J.%Jakobson%NULL%0,      Tarif%Bader%NULL%0,      Tarif%Bader%NULL%0,      David%Dahan%NULL%0,      David%Dahan%NULL%0,      Daniel A.%King%NULL%0,      Anat%Ben-Ari%NULL%0,      Arie%Soroksky%NULL%0,      Alon%Bar%NULL%0,      Alon%Bar%NULL%0,      Noam%Fink%NULL%0,      Pierre%Singer%NULL%0,      Avi%Benov%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,      John R%Adler%NULL%0,      Muhammad Sohaib%Asghar%NULL%0,      Muhammad Sohaib%Asghar%NULL%0,      Syed Jawad%Haider Kazmi%NULL%0,      Noman%Ahmed Khan%NULL%0,      Mohammed%Akram%NULL%0,      Salman%Ahmed Khan%NULL%0,      Uzma%Rasheed%NULL%0,      Maira%Hassan%NULL%0,      Gul Muhammad%Memon%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pedro%Baqui%NULL%0,      Ioana%Bica%NULL%0,      Valerio%Marra%marra@cosmo-ufes.org%0,      Ari%Ercole%NULL%0,      Mihaela%van der Schaar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anesi%Adriano%coreGivesNoEmail%0,     Bettinardi%Alessandra%coreGivesNoEmail%0,     Bonetti%Graziella%coreGivesNoEmail%0,     Borrelli%Gianluca%coreGivesNoEmail%0,     Fiordalisi%Gianfranco%coreGivesNoEmail%0,     Lippi%Giuseppe%coreGivesNoEmail%0,     Manelli%Filippo%coreGivesNoEmail%0,     Marino%Antonio%coreGivesNoEmail%0,     Menolfi%Annamaria%coreGivesNoEmail%0,     Patroni%Andrea%coreGivesNoEmail%0,     Saggini%Sara%coreGivesNoEmail%0,     Volpi%Roberta%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Andrea%Borghesi%NULL%0,      Angelo%Zigliani%NULL%0,      Salvatore%Golemi%NULL%0,      Nicola%Carapella%NULL%0,      Patrizia%Maculotti%NULL%0,      Davide%Farina%NULL%0,      Roberto%Maroldi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alberto M.%Borobia%NULL%0,      Antonio J.%Carcas%NULL%0,      Antonio J.%Carcas%NULL%0,      Francisco%Arnalich%NULL%0,      Rodolfo%Álvarez-Sala%NULL%0,      Rodolfo%Álvarez-Sala%NULL%0,      Jaime%Monserrat-Villatoro%NULL%0,      Manuel%Quintana%NULL%0,      Juan Carlos%Figueira%NULL%0,      Rosario M.%Torres Santos-Olmo%NULL%0,      Julio%García-Rodríguez%NULL%0,      Julio%García-Rodríguez%NULL%0,      Alberto%Martín-Vega%NULL%0,      Antonio%Buño%NULL%0,      Elena%Ramírez%NULL%0,      Gonzalo%Martínez-Alés%NULL%0,      Gonzalo%Martínez-Alés%NULL%0,      Nicolás%García-Arenzana%NULL%0,      M. Concepción%Núñez%NULL%0,      M. Concepción%Núñez%NULL%0,      Milagros%Martí-de-Gracia%NULL%0,      Francisco%Moreno Ramos%NULL%0,      Francisco%Reinoso-Barbero%NULL%0,      Alejandro%Martin-Quiros%NULL%0,      Angélica%Rivera Núñez%NULL%0,      Jesús%Mingorance%NULL%0,      Carlos J.%Carpio Segura%NULL%0,      Carlos J.%Carpio Segura%NULL%0,      Daniel%Prieto Arribas%NULL%0,      Esther%Rey Cuevas%NULL%0,      Concepción%Prados Sánchez%NULL%0,      Juan J.%Rios%NULL%0,      Miguel A.%Hernán%NULL%0,      Jesús%Frías%NULL%0,      José R.%Arribas%NULL%0,      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simon E.%Brill%simon.brill@nhs.net%0,      Hannah C.%Jarvis%NULL%0,      Hannah C.%Jarvis%NULL%0,      Ezgi%Ozcan%NULL%0,      Thomas L. P.%Burns%NULL%0,      Rabia A.%Warraich%NULL%0,      Lisa J.%Amani%NULL%0,      Amina%Jaffer%NULL%0,      Stephanie%Paget%NULL%0,      Anand%Sivaramakrishnan%NULL%0,      Dean D.%Creer%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,      Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,      Wenlin%Cheng%NULL%0,      Lei%Yu%NULL%0,      Ya-Kun%Liu%NULL%0,      Xiaoyong%Hu%NULL%0,      Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[B.%Carter%NULL%0,      J.T.%Collins%NULL%0,      F.%Barlow-Pay%NULL%0,      F.%Rickard%NULL%0,      E.%Bruce%NULL%0,      A.%Verduri%NULL%0,      T.J.%Quinn%NULL%0,      E.%Mitchell%NULL%0,      A.%Price%NULL%0,      A.%Vilches-Moraga%NULL%0,      M.J.%Stechman%NULL%0,      R.%Short%NULL%0,      A.%Einarsson%NULL%0,      P.%Braude%NULL%0,      S.%Moug%NULL%0,      P.K.%Myint%NULL%0,      J.%Hewitt%NULL%0,      L.%Pearce%NULL%0,      K.%McCarthy%NULL%0,      C.%Davey%NULL%0,      S.%Jones%NULL%0,      K.%Lunstone%NULL%0,      A.%Cavenagh%NULL%0,      C.%Silver%NULL%0,      T.%Telford%NULL%0,      R.%Simmons%NULL%0,      M.%Holloway%NULL%0,      J.%Hesford%NULL%0,      T.%El Jichi Mutasem%NULL%0,      S.%Singh%NULL%0,      D.%Paxton%NULL%0,      W.%Harris%NULL%0,      N.%Galbraith%NULL%0,      E.%Bhatti%NULL%0,      J.%Edwards%NULL%0,      S.%Duffy%NULL%0,      J.%Kelly%NULL%0,      C.%Murphy%NULL%0,      C.%Bisset%NULL%0,      R.%Alexander%NULL%0,      M.%Garcia%NULL%0,      S.%Sangani%NULL%0,      T.%Kneen%NULL%0,      T.%Lee%NULL%0,      A.%McGovern%NULL%0,      G.%Guaraldi%NULL%0,      E.%Clini%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fuyang%Chen%NULL%0,      Wenwu%Sun%NULL%0,      Shengrong%Sun%NULL%0,      Zhiyu%Li%lizhiyu@whu.edu.cn%0,      Zhong%Wang%zhongwangchn@whu.edu.cn%0,      Li%Yu%yuliwhzxyy@163.com%0,      Li%Yu%yuliwhzxyy@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,      Ling%Sang%NULL%0,      Mei%Jiang%NULL%0,      Zhaowei%Yang%NULL%0,      Nan%Jia%NULL%0,      Wanyi%Fu%NULL%0,      Jiaxing%Xie%NULL%0,      Weijie%Guan%NULL%0,      Wenhua%Liang%NULL%0,      Zhengyi%Ni%NULL%0,      Yu%Hu%NULL%0,      Lei%Liu%NULL%0,      Hong%Shan%NULL%0,      Chunliang%Lei%NULL%0,      Yixiang%Peng%NULL%0,      Li%Wei%NULL%0,      Yong%Liu%NULL%0,      Yahua%Hu%NULL%0,      Peng%Peng%NULL%0,      Jianming%Wang%NULL%0,      Jiyang%Liu%NULL%0,      Zhong%Chen%NULL%0,      Gang%Li%NULL%0,      Zhijian%Zheng%NULL%0,      Shaoqin%Qiu%NULL%0,      Jie%Luo%NULL%0,      Changjiang%Ye%NULL%0,      Shaoyong%Zhu%NULL%0,      Jinping%Zheng%NULL%0,      Nuofu%Zhang%NULL%0,      Yimin%Li%NULL%0,      Jianxing%He%NULL%0,      Jing%Li%NULL%0,      Shiyue%Li%NULL%0,      Nanshan%Zhong%NULL%0,      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,      Di%Wu%NULL%0,      Huilong%Chen%NULL%0,      Weiming%Yan%NULL%0,      Danlei%Yang%NULL%0,      Guang%Chen%NULL%0,      Ke%Ma%NULL%0,      Dong%Xu%NULL%0,      Haijing%Yu%NULL%0,      Hongwu%Wang%NULL%0,      Tao%Wang%NULL%0,      Wei%Guo%NULL%0,      Jia%Chen%NULL%0,      Chen%Ding%NULL%0,      Xiaoping%Zhang%NULL%0,      Jiaquan%Huang%NULL%0,      Meifang%Han%NULL%0,      Shusheng%Li%NULL%0,      Xiaoping%Luo%NULL%0,      Jianping%Zhao%NULL%0,      Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anying%Cheng%NULL%0,      Liu%Hu%NULL%0,      Yiru%Wang%NULL%0,      Luyan%Huang%NULL%0,      Lingxi%Zhao%NULL%0,      Congcong%Zhang%NULL%0,      Xiyue%Liu%NULL%0,      Ranran%Xu%NULL%0,      Feng%Liu%NULL%0,      Jinping%Li%NULL%0,      Dawei%Ye%NULL%0,      Tao%Wang%NULL%0,      Yongman%Lv%lvyongman@126.com%0,      Qingquan%Liu%qqliutj@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fabio%Ciceri%ciceri.fabio@hsr.it%0,      Antonella%Castagna%NULL%0,      Patrizia%Rovere-Querini%NULL%0,      Francesco%De Cobelli%NULL%0,      Annalisa%Ruggeri%NULL%0,      Laura%Galli%NULL%0,      Caterina%Conte%NULL%0,      Rebecca%De Lorenzo%NULL%0,      Andrea%Poli%NULL%0,      Alberto%Ambrosio%NULL%0,      Carlo%Signorelli%NULL%0,      Eleonora%Bossi%NULL%0,      Maria%Fazio%NULL%0,      Cristina%Tresoldi%NULL%0,      Sergio%Colombo%NULL%0,      Giacomo%Monti%NULL%0,      Efgeny%Fominskiy%NULL%0,      Stefano%Franchini%NULL%0,      Marzia%Spessot%NULL%0,      Carlo%Martinenghi%NULL%0,      Michele%Carlucci%NULL%0,      Luigi%Beretta%NULL%0,      Anna Maria%Scandroglio%NULL%0,      Massimo%Clementi%NULL%0,      Massimo%Locatelli%NULL%0,      Moreno%Tresoldi%NULL%0,      Paolo%Scarpellini%NULL%0,      Gianvito%Martino%NULL%0,      Emanuele%Bosi%NULL%0,      Lorenzo%Dagna%NULL%0,      Adriano%Lazzarin%NULL%0,      Giovanni%Landoni%NULL%0,      Alberto%Zangrillo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,      Wei%Liu%NULL%0,      Kui%Liu%NULL%0,      Yuan-Yuan%Fang%NULL%0,      Jin%Shang%NULL%0,      Ling%Zhou%NULL%0,      Ke%Wang%NULL%0,      Fan%Leng%NULL%0,      Shuang%Wei%NULL%0,      Lei%Chen%NULL%0,      Hui-Guo%Liu%NULL%0,      Pei-Fang%Wei%NULL%0,      Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,      Li-Rong%Liang%NULL%0,      Cheng-Qing%Yang%NULL%0,      Wen%Wang%NULL%0,      Tan-Ze%Cao%NULL%0,      Ming%Li%NULL%0,      Guang-Yun%Guo%NULL%0,      Juan%Du%NULL%0,      Chun-Lan%Zheng%NULL%0,      Qi%Zhu%NULL%0,      Ming%Hu%NULL%0,      Xu-Yan%Li%NULL%0,      Peng%Peng%NULL%0,      Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shan%Gao%NULL%0,      Fang%Jiang%NULL%0,      Wei%Jin%NULL%0,      Yuan%Shi%NULL%0,      Leilei%Yang%NULL%0,      Yanqiong%Xia%NULL%0,      Linyan%Jia%NULL%0,      Bo%Wang%NULL%0,      Han%Lin%NULL%0,      Yin%Cai%NULL%0,      Zhengyuan%Xia%NULL%0,      Jian%Peng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pedro David%Wendel Garcia%pedrodavid.wendelgarcia@usz.ch%0,      Thierry%Fumeaux%thierry.fumeaux@ghol.ch%0,      Philippe%Guerci%NULL%0,      Dorothea Monika%Heuberger%dorotheamonika.heuberger@usz.ch%0,      Jonathan%Montomoli%NULL%0,      Ferran%Roche-Campo%NULL%0,      Reto Andreas%Schuepbach%reto.schuepbach@usz.ch%0,      Matthias Peter%Hilty%matthias.hilty@usz.ch%0,      Mario%Alfaro Farias%NULL%0,      Antoni%Margarit%NULL%0,      Gerardo%Vizmanos-Lamotte%NULL%0,      Thomas%Tschoellitsch%NULL%0,      Jens%Meier%NULL%0,      Francesco S.%Cardona%NULL%0,      Josef%Skola%NULL%0,      Lenka%Horakova%NULL%0,      Hernan%Aguirre-Bermeo%NULL%0,      Janina%Apolo%NULL%0,      Emmanuel%Novy%NULL%0,      Marie-Reine%Losser%NULL%0,      Geoffrey%Jurkolow%NULL%0,      Gauthier%Delahaye%NULL%0,      Sascha%David%NULL%0,      Tobias%Welte%NULL%0,      Tobias%Wengenmayer%NULL%0,      Dawid L.%Staudacher%NULL%0,      Theodoros%Aslanidis%NULL%0,      Barna%Babik%NULL%0,      Anita%Korsos%NULL%0,      Janos%Gal%NULL%0,      Hermann%Csaba%NULL%0,      Abele%Donati%NULL%0,      Andrea%Carsetti%NULL%0,      Fabrizio%Turrini%NULL%0,      Maria Sole%Simonini%NULL%0,      Roberto%Ceriani%NULL%0,      Martina%Murrone%NULL%0,      Emanuele%Rezoagli%NULL%0,      Giovanni%Vitale%NULL%0,      Alberto%Fogagnolo%NULL%0,      Savino%Spadaro%NULL%0,      Maddalena Alessandra%Wu%NULL%0,      Chiara%Cogliati%NULL%0,      Riccardo%Colombo%NULL%0,      Emanuele%Catena%NULL%0,      Francesca%Facondini%NULL%0,      Antonella%Potalivo%NULL%0,      Gianfilippo%Gangitano%NULL%0,      Tiziana%Perin%NULL%0,      Maria Grazia%Bocci%NULL%0,      Massimo%Antonelli%NULL%0,      Diederik%Gommers%NULL%0,      Can%Ince%NULL%0,      Eric%Mayor-Vázquez%NULL%0,      Maria%Cruz%NULL%0,      Martin%Delgado%NULL%0,      Raquel Rodriguez%Garcia%NULL%0,      Jorge%Gamez Zapata%NULL%0,      Begoña%Zalba-Etayo%NULL%0,      Herminia%Lozano-Gomez%NULL%0,      Pedro%Castro%NULL%0,      Adrian%Tellez%NULL%0,      Adriana%Jacas%NULL%0,      Guido%Muñoz%NULL%0,      Rut%Andrea%NULL%0,      Jose%Ortiz%NULL%0,      Eduard%Quintana%NULL%0,      Irene%Rovira%NULL%0,      Enric%Reverter%NULL%0,      Javier%Fernandez%NULL%0,      Miquel%Ferrer%NULL%0,      Joan R.%Badia%NULL%0,      Arantxa%Lander Azcona%NULL%0,      Jesus Escos%Orta%NULL%0,      Philipp%Bühler%NULL%0,      Silvio%Brugger%NULL%0,      Daniel%Hofmaenner%NULL%0,      Simone%Unseld%NULL%0,      Frank%Ruschitzka%NULL%0,      Mallory%Moret-Bochatay%NULL%0,      Bernd%Yuen%NULL%0,      Thomas%Hillermann%NULL%0,      Hatem%Ksouri%NULL%0,      Govind Oliver%Sridharan%NULL%0,      Anette%Ristic%NULL%0,      Michael%Sepulcri%NULL%0,      Miodrag%Filipovic%NULL%0,      Urs%Pietsch%NULL%0,      Petra%Salomon%NULL%0,      Iris%Drvaric%NULL%0,      Peter%Schott%NULL%0,      Severin%Urech%NULL%0,      Adriana%Lambert%NULL%0,      Lukas%Merki%NULL%0,      Marcus%Laube%NULL%0,      Frank%Hillgaertner%NULL%0,      Marianne%Sieber%NULL%0,      Alexander%Dullenkopf%NULL%0,      Lina%Petersen%NULL%0,      Serge%Grazioli%NULL%0,      Peter C.%Rimensberger%NULL%0,      Isabelle%Fleisch%NULL%0,      Jerome%Lavanchy%NULL%0,      Katharina%Marquardt%NULL%0,      Karim%Shaikh%NULL%0,      Hermann%Redecker%NULL%0,      Michael%Stephan%NULL%0,      Jan%Brem%NULL%0,      Bjarte%Rogdo%NULL%0,      Andre%Birkenmaier%NULL%0,      Friederike%Meyer zu Bentrup%NULL%0,      Patricia%Fodor%NULL%0,      Pascal%Locher%NULL%0,      Giovanni%Camen%NULL%0,      Martin%Siegemund%NULL%0,      Nuria%Zellweger%NULL%0,      Marie-Madlen%Jeitziner%NULL%0,      Beatrice%Jenni-Moser%NULL%0,      Christian%Bürkle%NULL%0,      Gian-Reto%Kleger%NULL%0,      Marilene%Franchitti Laurent%NULL%0,      Jean-Christophe%Laurent%NULL%0,      Tomislav%Gaspert%NULL%0,      Marija%Jovic%NULL%0,      Michael%Studhalter%NULL%0,      Christoph%Haberthuer%NULL%0,      Roger F.%Lussman%NULL%0,      Daniela%Selz%NULL%0,      Didier%Naon%NULL%0,      Romano%Mauri%NULL%0,      Samuele%Ceruti%NULL%0,      Julien%Marrel%NULL%0,      Mirko%Brenni%NULL%0,      Rolf%Ensner%NULL%0,      Nadine%Gehring%NULL%0,      Antje%Heise%NULL%0,      Tobias%Huebner%NULL%0,      Thomas A.%Neff%NULL%0,      Sara%Cereghetti%NULL%0,      Filippo%Boroli%NULL%0,      Jerome%Pugin%NULL%0,      Nandor%Marczin%NULL%0,      Joyce%Wong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Warren%Gavin%NULL%0,      Elliott%Campbell%NULL%0,      Syed-Adeel%Zaidi%NULL%0,      Neha%Gavin%NULL%0,      Lana%Dbeibo%NULL%0,      Cole%Beeler%NULL%0,      Kari%Kuebler%NULL%0,      Ahmed%Abdel-Rahman%NULL%0,      Mark%Luetkemeyer%NULL%0,      Areeba%Kara%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Vijay%Gayam%vgayam@interfaithmedical.com%0,      Muchi Ditah%Chobufo%NULL%0,      Muchi Ditah%Chobufo%NULL%0,      Mohamed A.%Merghani%NULL%0,      Mohamed A.%Merghani%NULL%0,      Shristi%Lamichhane%NULL%0,      Pavani Reddy%Garlapati%NULL%0,      Mark K.%Adler%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Cao%Y%coreGivesNoEmail%0,     Imam%Z%coreGivesNoEmail%0,     Lippi%G%coreGivesNoEmail%0,     Oran%DP%coreGivesNoEmail%0,     Shi%S%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Hai%Hu%huhai@wchscu.cn%0,      Ni%Yao%NULL%0,      Ni%Yao%NULL%0,      Yanru%Qiu%NULL%0,      John H.%Burton%NULL%0,      John H.%Burton%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jiaofeng%Huang%NULL%0,      Aiguo%Cheng%NULL%0,      Rahul%Kumar%NULL%0,      Yingying%Fang%NULL%0,      Yingying%Fang%NULL%0,      Gongping%Chen%NULL%0,      Yueyong%Zhu%NULL%0,      Su%Lin%sumer5129@fjmu.edu.cn%0,      Su%Lin%sumer5129@fjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%0,      Ju-Hyun%Kim%NULL%0,      Jin-Sung%Park%NULL%0,      Min Cheol%Chang%wheel633@ynu.ac.kr%0,      Donghwi%Park%bdome@hanmail.net%0]</t>
+  </si>
+  <si>
+    <t>[K.%Khalil%NULL%0,      K.%Agbontaen%NULL%0,      D.%McNally%NULL%0,      A.%Love%NULL%0,      S.%Mandalia%NULL%0,      W.%Banya%NULL%0,      E.%Starren%NULL%0,      R.%Dhunnookchand%NULL%0,      H.%Farne%NULL%0,      R.%Morton%NULL%0,      G.%Davies%NULL%0,      O.%Orhan%NULL%0,      D%Lai%NULL%0,      M.%Nelson%NULL%0,      P.L.%Shah%NULL%0,      J.L.%Garner%Justin.garner@chelwest.nhs.uk%0]</t>
+  </si>
+  <si>
+    <t>[Eyal%Klang%NULL%0,      Gassan%Kassim%NULL%0,      Shelly%Soffer%soffer.shelly@gmail.com%0,      Robert%Freeman%NULL%0,      Robert%Freeman%NULL%0,      Matthew A.%Levin%NULL%0,      Matthew A.%Levin%NULL%0,      David L.%Reich%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sandeep%Krishnan%NULL%0,      Kinjal%Patel%NULL%0,      Ronak%Desai%NULL%0,      Anupam%Sule%NULL%0,      Peter%Paik%NULL%0,      Ashley%Miller%NULL%0,      Alicia%Barclay%NULL%0,      Adam%Cassella%NULL%0,      Jon%Lucaj%NULL%0,      Yvonne%Royster%NULL%0,      Joffer%Hakim%NULL%0,      Zulfiqar%Ahmed%NULL%0,      Farhad%Ghoddoussi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Manisha%Bhutani%null%0,       David M.%Foureau%null%0,       Shebli%Atrash%null%0,       Peter M.%Voorhees%null%0,       Saad Z.%Usmani%null%0,     Manisha%Bhutani%null%0,     David M.%Foureau%null%0,     Shebli%Atrash%null%0,     Peter M.%Voorhees%null%0,     Saad Z.%Usmani%null%0]</t>
+  </si>
+  <si>
+    <t>[Wil%Lieberman-Cribbin%NULL%0,      Joseph%Rapp%NULL%0,      Naomi%Alpert%NULL%0,      Stephanie%Tuminello%NULL%0,      Emanuela%Taioli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Q.%Liu%NULL%0,      N. C.%Song%NULL%0,      Z. K.%Zheng%NULL%0,      J. S.%Li%NULL%0,      S. K.%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Long%NULL%0,      Lan%Nie%NULL%0,      Xiaochen%Xiang%NULL%0,      Huan%Li%NULL%0,      Xiaoli%Zhang%NULL%0,      Xiaozhi%Fu%NULL%0,      Hongwei%Ren%NULL%0,      Wanxin%Liu%NULL%0,      Qiang%Wang%wangqiang@wust.edu.cn%0,      Qingming%Wu%wuhe9224@sina.com%0,      Qingming%Wu%wuhe9224@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaomin%Luo%luoxiaomin04@163.com%0,      Wei%Zhou%NULL%0,      Xiaojie%Yan%NULL%0,      Tangxi%Guo%NULL%0,      Benchao%Wang%NULL%0,      Hongxia%Xia%NULL%0,      Lu%Ye%NULL%0,      Jun%Xiong%NULL%0,      Zongping%Jiang%NULL%0,      Yu%Liu%NULL%0,      Bicheng%Zhang%NULL%0,      Weize%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ying%Luo%NULL%0,      Liyan%Mao%NULL%0,      Xu%Yuan%NULL%0,      Ying%Xue%NULL%0,      Qun%Lin%NULL%0,      Guoxing%Tang%NULL%0,      Huijuan%Song%NULL%0,      Feng%Wang%fengwang@tjh.tjmu.edu.cn%0,      Ziyong%Sun%zysun@tjh.tjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ying%Luo%NULL%0,      Ying%Xue%NULL%0,      Liyan%Mao%NULL%0,      Xu%Yuan%NULL%0,      Qun%Lin%NULL%0,      Guoxing%Tang%NULL%0,      Huijuan%Song%NULL%0,      Feng%Wang%NULL%0,      Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chiara%Masetti%NULL%0,      Elena%Generali%NULL%0,      Francesca%Colapietro%NULL%0,      Antonio%Voza%NULL%0,      Maurizio%Cecconi%NULL%0,      Antonio%Messina%NULL%0,      Paolo%Omodei%NULL%0,      Claudio%Angelini%NULL%0,      Michele%Ciccarelli%NULL%0,      Salvatore%Badalamenti%NULL%0,      G. Walter%Canonica%NULL%0,      Ana%Lleo%ana.lleo@humanitas.it%0,      Alessio%Aghemo%NULL%0,      Alessio%Aghemo%NULL%0,      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Takahisa%Mikami%NULL%0,      Hirotaka%Miyashita%NULL%0,      Takayuki%Yamada%NULL%0,      Matthew%Harrington%NULL%0,      Daniel%Steinberg%NULL%0,      Andrew%Dunn%NULL%0,      Evan%Siau%Evan.Siau@mountsinai.org%0]</t>
+  </si>
+  <si>
+    <t>[Alexis K.%Okoh%alexis.okoh@rwjbh.org%0,      Christoph%Sossou%NULL%0,      Christoph%Sossou%NULL%0,      Neha S.%Dangayach%NULL%0,      Sherin%Meledathu%NULL%0,      Oluwakemi%Phillips%NULL%0,      Corinne%Raczek%NULL%0,      Michael%Patti%NULL%0,      Nathan%Kang%NULL%0,      Sameer A.%Hirji%NULL%0,      Charles%Cathcart%NULL%0,      Christian%Engell%NULL%0,      Marc%Cohen%NULL%0,      Sandhya%Nagarakanti%NULL%0,      Eliahu%Bishburg%NULL%0,      Harpreet S.%Grewal%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%0,       Lian%Yang%NULL%0,       Yuncheng%Li%NULL%0,       Bo%Liang%NULL%0,       Lin%Li%NULL%0,       Tianhe%Ye%NULL%0,       Lingli%Li%NULL%0,       Dehan%Liu%NULL%0,       Shan%Gui%NULL%0,       Yu%Hu%NULL%0,       Chuansheng%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,      Becker%L.B.%coreGivesNoEmail%0,      Chelico%J.D.%coreGivesNoEmail%0,      Cohen%S.L.%coreGivesNoEmail%0,      Cookingham%J.%coreGivesNoEmail%0,      Coppa%K.%coreGivesNoEmail%0,      Crawford%J.M.%coreGivesNoEmail%0,      Davidson%K.W.%coreGivesNoEmail%0,      Diefenbach%M.A.%coreGivesNoEmail%0,      Dominello%A.J.%coreGivesNoEmail%0,      Duer-Hefele%J.%coreGivesNoEmail%0,      Falzon%L.%coreGivesNoEmail%0,      Gitlin%J.%coreGivesNoEmail%0,      Hajizadeh%N.%coreGivesNoEmail%0,      Harvin%T.G.%coreGivesNoEmail%0,      Hirsch%J.S.%coreGivesNoEmail%0,      Hirschwerk%D.A.%coreGivesNoEmail%0,      Kim%E.J.%coreGivesNoEmail%0,      Kozel%Z.M.%coreGivesNoEmail%0,      Marrast%L.M.%coreGivesNoEmail%0,      McGinn%T.%coreGivesNoEmail%0,      Mogavero%J.N.%coreGivesNoEmail%0,      Narasimhan%M.%coreGivesNoEmail%0,      Osorio%G.A.%coreGivesNoEmail%0,      Qiu%M.%coreGivesNoEmail%0,      Richardson%S.%coreGivesNoEmail%0,      Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Mario%Rivera-Izquierdo%NULL%0,       María%del Carmen Valero-Ubierna%NULL%0,       María%del Carmen Valero-Ubierna%NULL%0,       Juan Luis%R-delAmo%NULL%0,       Miguel Ángel%Fernández-García%NULL%0,       Silvia%Martínez-Diz%NULL%0,       Arezu%Tahery-Mahmoud%NULL%0,       Marta%Rodríguez-Camacho%NULL%0,       Ana Belén%Gámiz-Molina%NULL%0,       Nicolás%Barba-Gyengo%NULL%0,       Pablo%Gámez-Baeza%NULL%0,       Celia%Cabrero-Rodríguez%NULL%0,       Pedro Antonio%Guirado-Ruiz%NULL%0,       Divina Tatiana%Martín-Romero%NULL%0,       Antonio Jesús%Láinez-Ramos-Bossini%NULL%0,       María Rosa%Sánchez-Pérez%NULL%0,       José%Mancera-Romero%NULL%0,       Miguel%García-Martín%NULL%0,       Luis Miguel%Martín-delosReyes%NULL%0,       Virginia%Martínez-Ruiz%NULL%0,       Virginia%Martínez-Ruiz%NULL%0,       Pablo%Lardelli-Claret%NULL%0,       Eladio%Jiménez-Mejías%NULL%0,       Muhammad%Adrish%NULL%0,       Muhammad%Adrish%NULL%0,       NULL%NULL%NULL%0,       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,       Kun%Yang%NULL%0,       Kun%Yang%NULL%0,       Wenxia%Wang%NULL%0,       Wenxia%Wang%NULL%0,       Lingyu%Jiang%NULL%0,       Lingyu%Jiang%NULL%0,       Jianxin%Song%songsingsjx@sina.com%0,       Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Grace%Salacup%salacupg@einstein.edu%0,       Kevin Bryan%Lo%NULL%0,       Kevin Bryan%Lo%NULL%0,       Fahad%Gul%NULL%0,       Eric%Peterson%NULL%0,       Robert%De Joy%NULL%0,       Ruchika%Bhargav%NULL%0,       Jerald%Pelayo%NULL%0,       Jeri%Albano%NULL%0,       Zurab%Azmaiparashvili%NULL%0,       Sadia%Benzaquen%NULL%0,       Gabriel%Patarroyo‐Aponte%NULL%0,       Janani%Rangaswami%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yufeng%Shang%NULL%0,       Tao%Liu%NULL%0,       Yongchang%Wei%NULL%0,       Jingfeng%Li%NULL%0,       Liang%Shao%NULL%0,       Minghui%Liu%NULL%0,       Yongxi%Zhang%NULL%0,       Zhigang%Zhao%NULL%0,       Haibo%Xu%NULL%0,       Zhiyong%Peng%NULL%0,       Fuling%Zhou%zhoufuling@whu.edu.cn%0,       Xinghuan%Wang%wangxinghuan@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,       Mu%Qin%qinmuae@163.com%0,       Yuli%Cai%NULL%0,       Tao%Liu%NULL%0,       Bo%Shen%NULL%0,       Fan%Yang%NULL%0,       Sheng%Cao%NULL%0,       Xu%Liu%NULL%0,       Xu%Liu%NULL%0,       Yaozu%Xiang%NULL%0,       Qinyan%Zhao%NULL%0,       He%Huang%huanghe1977@whu.edu.cn%0,       Bo%Yang%yybb112@whu.edu.cn%0,       Congxin%Huang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rita de Cássia Menezes%Soares%NULL%0,       Larissa Rodrigues%Mattos%NULL%0,       Letícia Martins%Raposo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,       Ruoqi%Ning%NULL%0,       Yu%Tao%NULL%0,       Chong%Yu%NULL%0,       Xiaoyan%Deng%NULL%0,       Caili%Zhao%NULL%0,       Silu%Meng%NULL%0,       Fangxu%Tang%89650793@qq.com%0,       Dong%Xu%89650793@qq.com%0,       Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Kun%Wang%NULL%0,       Peiyuan%Zuo%NULL%0,       Yuwei%Liu%NULL%0,       Meng%Zhang%NULL%0,       Xiaofang%Zhao%NULL%0,       Songpu%Xie%NULL%0,       Hao%Zhang%NULL%0,       Xinglin%Chen%NULL%0,       Chengyun%Liu%chengyunliu@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Bo%XU%NULL%0,       Cun-yu%FAN%NULL%0,       An-lu%WANG%NULL%0,       Yi-long%ZOU%NULL%0,       Yi-han%YU%NULL%0,       Cong%HE%NULL%0,       Wen-guang%XIA%NULL%0,       Ji-xian%ZHANG%NULL%0,       Qing%MIAO%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xisheng%Yan%NULL%0,       Fen%Li%NULL%0,       Xiao%Wang%NULL%0,       Jie%Yan%NULL%0,       Fen%Zhu%NULL%0,       Shifan%Tang%NULL%0,       Yingzhong%Deng%NULL%0,       Hua%Wang%NULL%0,       Rui%Chen%NULL%0,       Zhili%Yu%NULL%0,       Yaping%Li%NULL%0,       Jingzhou%Shang%NULL%0,       Lingjun%Zeng%NULL%0,       Jie%Zhao%NULL%0,       Chaokun%Guan%NULL%0,       Qiaomei%Liu%NULL%0,       Haifeng%Chen%NULL%0,       Wei%Gong%NULL%0,       Xin%Huang%NULL%0,       Yu‐Jiao%Zhang%NULL%0,       Jianguang%Liu%NULL%0,       Xiaoyan%Dong%NULL%0,       Wen%Zheng%zhengwen12@mails.jlu.edu.cn%0,       Shaoping%Nie%spnie@126.com%0,       Dongsheng%Li%dongshengli196809@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qing%Yang%NULL%0,       Ying%Zhou%NULL%0,       Xinrong%Wang%NULL%0,       Shan%Gao%NULL%0,       Yang%Xiao%NULL%0,       Weiming%Zhang%NULL%0,       Yi%Hu%huyizxyy@163.com%0,       Yafei%Wang%wyf_527@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,       Qingyu%Yang%NULL%0,       Yaxin%Wang%NULL%0,       Yongran%Wu%NULL%0,       Jiqian%Xu%NULL%0,       Yuan%Yu%NULL%0,       You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wenjing%Ye%yewenjing@xinhuamed.com.cn%0,       Guoxi%Chen%4799082@qq.com%0,       Xiaopan%Li%xiaopanli0224@126.com%0,       Xing%Lan%474137452@qq.com%0,       Chen%Ji%c.ji.3@warwick.ac.uk%0,       Min%Hou%min-hou710@hotmail.com%0,       Di%Zhang%zhangdizhangdi1234@163.com%0,       Guangwang%Zeng%785663609@qq.com%0,       Yaling%Wang%953822402@qq.com%0,       Cheng%Xu%xucheng112358@126.com%0,       Weiwei%Lu%luweiwei100@126.com%0,       Ruolin%Cui%crlqwerty@163.com%0,       Yuyang%Cai%caiyuyang@sjtu.edu.cn%0,       Hai%Huang%1220775601@qq.com%0,       Ling%Yang%yangling01@xinhuamed.com.cn%0]</t>
+  </si>
+  <si>
+    <t>[Caizheng%Yu%NULL%0,       Qing%Lei%NULL%0,       Wenkai%Li%NULL%0,       Xiong%Wang%NULL%0,       Wei%Liu%NULL%0,       Xionglin%Fan%NULL%0,       Wengang%Li%228907211@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,       Ting%Yu%NULL%0,       Ronghui%Du%NULL%0,       Guohui%Fan%NULL%0,       Ying%Liu%NULL%0,       Zhibo%Liu%NULL%0,       Jie%Xiang%NULL%0,       Yeming%Wang%NULL%0,       Bin%Song%NULL%0,       Xiaoying%Gu%NULL%0,       Lulu%Guan%NULL%0,       Yuan%Wei%NULL%0,       Hui%Li%NULL%0,       Xudong%Wu%NULL%0,       Jiuyang%Xu%NULL%0,       Shengjin%Tu%NULL%0,       Yi%Zhang%NULL%0,       Hua%Chen%NULL%0,       Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Moran%Amit%NULL%0,       Alex%Sorkin%NULL%0,       Jacob%Chen%NULL%0,       Barak%Cohen%NULL%0,       Barak%Cohen%NULL%0,       Dana%Karol%NULL%0,       Dana%Karol%NULL%0,       Avishai M%Tsur%NULL%0,       Shaul%Lev%NULL%0,       Shaul%Lev%NULL%0,       Tal%Rozenblat%NULL%0,       Ayana%Dvir%NULL%0,       Ayana%Dvir%NULL%0,       Geva%Landau%NULL%0,       Lidar%Fridrich%NULL%0,       Lidar%Fridrich%NULL%0,       Elon%Glassberg%NULL%0,       Shani%Kesari%NULL%0,       Sigal%Sviri%NULL%0,       Ram%Gelman%NULL%0,       Asaf%Miller%NULL%0,       Danny%Epstein%NULL%0,       Ronny%Ben-Avi%NULL%0,       Ronny%Ben-Avi%NULL%0,       Moshe%Matan%NULL%0,       Daniel J.%Jakobson%NULL%0,       Daniel J.%Jakobson%NULL%0,       Tarif%Bader%NULL%0,       Tarif%Bader%NULL%0,       David%Dahan%NULL%0,       David%Dahan%NULL%0,       Daniel A.%King%NULL%0,       Anat%Ben-Ari%NULL%0,       Arie%Soroksky%NULL%0,       Alon%Bar%NULL%0,       Alon%Bar%NULL%0,       Noam%Fink%NULL%0,       Pierre%Singer%NULL%0,       Avi%Benov%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,       John R%Adler%NULL%0,       Muhammad Sohaib%Asghar%NULL%0,       Muhammad Sohaib%Asghar%NULL%0,       Syed Jawad%Haider Kazmi%NULL%0,       Noman%Ahmed Khan%NULL%0,       Mohammed%Akram%NULL%0,       Salman%Ahmed Khan%NULL%0,       Uzma%Rasheed%NULL%0,       Maira%Hassan%NULL%0,       Gul Muhammad%Memon%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pedro%Baqui%NULL%0,       Ioana%Bica%NULL%0,       Valerio%Marra%marra@cosmo-ufes.org%0,       Ari%Ercole%NULL%0,       Mihaela%van der Schaar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anesi%Adriano%coreGivesNoEmail%0,      Bettinardi%Alessandra%coreGivesNoEmail%0,      Bonetti%Graziella%coreGivesNoEmail%0,      Borrelli%Gianluca%coreGivesNoEmail%0,      Fiordalisi%Gianfranco%coreGivesNoEmail%0,      Lippi%Giuseppe%coreGivesNoEmail%0,      Manelli%Filippo%coreGivesNoEmail%0,      Marino%Antonio%coreGivesNoEmail%0,      Menolfi%Annamaria%coreGivesNoEmail%0,      Patroni%Andrea%coreGivesNoEmail%0,      Saggini%Sara%coreGivesNoEmail%0,      Volpi%Roberta%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Andrea%Borghesi%NULL%0,       Angelo%Zigliani%NULL%0,       Salvatore%Golemi%NULL%0,       Nicola%Carapella%NULL%0,       Patrizia%Maculotti%NULL%0,       Davide%Farina%NULL%0,       Roberto%Maroldi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alberto M.%Borobia%NULL%0,       Antonio J.%Carcas%NULL%0,       Antonio J.%Carcas%NULL%0,       Francisco%Arnalich%NULL%0,       Rodolfo%Álvarez-Sala%NULL%0,       Rodolfo%Álvarez-Sala%NULL%0,       Jaime%Monserrat-Villatoro%NULL%0,       Manuel%Quintana%NULL%0,       Juan Carlos%Figueira%NULL%0,       Rosario M.%Torres Santos-Olmo%NULL%0,       Julio%García-Rodríguez%NULL%0,       Julio%García-Rodríguez%NULL%0,       Alberto%Martín-Vega%NULL%0,       Antonio%Buño%NULL%0,       Elena%Ramírez%NULL%0,       Gonzalo%Martínez-Alés%NULL%0,       Gonzalo%Martínez-Alés%NULL%0,       Nicolás%García-Arenzana%NULL%0,       M. Concepción%Núñez%NULL%0,       M. Concepción%Núñez%NULL%0,       Milagros%Martí-de-Gracia%NULL%0,       Francisco%Moreno Ramos%NULL%0,       Francisco%Reinoso-Barbero%NULL%0,       Alejandro%Martin-Quiros%NULL%0,       Angélica%Rivera Núñez%NULL%0,       Jesús%Mingorance%NULL%0,       Carlos J.%Carpio Segura%NULL%0,       Carlos J.%Carpio Segura%NULL%0,       Daniel%Prieto Arribas%NULL%0,       Esther%Rey Cuevas%NULL%0,       Concepción%Prados Sánchez%NULL%0,       Juan J.%Rios%NULL%0,       Miguel A.%Hernán%NULL%0,       Jesús%Frías%NULL%0,       José R.%Arribas%NULL%0,       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simon E.%Brill%simon.brill@nhs.net%0,       Hannah C.%Jarvis%NULL%0,       Hannah C.%Jarvis%NULL%0,       Ezgi%Ozcan%NULL%0,       Thomas L. P.%Burns%NULL%0,       Rabia A.%Warraich%NULL%0,       Lisa J.%Amani%NULL%0,       Amina%Jaffer%NULL%0,       Stephanie%Paget%NULL%0,       Anand%Sivaramakrishnan%NULL%0,       Dean D.%Creer%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,       Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,       Wenlin%Cheng%NULL%0,       Lei%Yu%NULL%0,       Ya-Kun%Liu%NULL%0,       Xiaoyong%Hu%NULL%0,       Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[B.%Carter%NULL%0,       J.T.%Collins%NULL%0,       F.%Barlow-Pay%NULL%0,       F.%Rickard%NULL%0,       E.%Bruce%NULL%0,       A.%Verduri%NULL%0,       T.J.%Quinn%NULL%0,       E.%Mitchell%NULL%0,       A.%Price%NULL%0,       A.%Vilches-Moraga%NULL%0,       M.J.%Stechman%NULL%0,       R.%Short%NULL%0,       A.%Einarsson%NULL%0,       P.%Braude%NULL%0,       S.%Moug%NULL%0,       P.K.%Myint%NULL%0,       J.%Hewitt%NULL%0,       L.%Pearce%NULL%0,       K.%McCarthy%NULL%0,       C.%Davey%NULL%0,       S.%Jones%NULL%0,       K.%Lunstone%NULL%0,       A.%Cavenagh%NULL%0,       C.%Silver%NULL%0,       T.%Telford%NULL%0,       R.%Simmons%NULL%0,       M.%Holloway%NULL%0,       J.%Hesford%NULL%0,       T.%El Jichi Mutasem%NULL%0,       S.%Singh%NULL%0,       D.%Paxton%NULL%0,       W.%Harris%NULL%0,       N.%Galbraith%NULL%0,       E.%Bhatti%NULL%0,       J.%Edwards%NULL%0,       S.%Duffy%NULL%0,       J.%Kelly%NULL%0,       C.%Murphy%NULL%0,       C.%Bisset%NULL%0,       R.%Alexander%NULL%0,       M.%Garcia%NULL%0,       S.%Sangani%NULL%0,       T.%Kneen%NULL%0,       T.%Lee%NULL%0,       A.%McGovern%NULL%0,       G.%Guaraldi%NULL%0,       E.%Clini%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fuyang%Chen%NULL%0,       Wenwu%Sun%NULL%0,       Shengrong%Sun%NULL%0,       Zhiyu%Li%lizhiyu@whu.edu.cn%0,       Zhong%Wang%zhongwangchn@whu.edu.cn%0,       Li%Yu%yuliwhzxyy@163.com%0,       Li%Yu%yuliwhzxyy@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,       Ling%Sang%NULL%0,       Mei%Jiang%NULL%0,       Zhaowei%Yang%NULL%0,       Nan%Jia%NULL%0,       Wanyi%Fu%NULL%0,       Jiaxing%Xie%NULL%0,       Weijie%Guan%NULL%0,       Wenhua%Liang%NULL%0,       Zhengyi%Ni%NULL%0,       Yu%Hu%NULL%0,       Lei%Liu%NULL%0,       Hong%Shan%NULL%0,       Chunliang%Lei%NULL%0,       Yixiang%Peng%NULL%0,       Li%Wei%NULL%0,       Yong%Liu%NULL%0,       Yahua%Hu%NULL%0,       Peng%Peng%NULL%0,       Jianming%Wang%NULL%0,       Jiyang%Liu%NULL%0,       Zhong%Chen%NULL%0,       Gang%Li%NULL%0,       Zhijian%Zheng%NULL%0,       Shaoqin%Qiu%NULL%0,       Jie%Luo%NULL%0,       Changjiang%Ye%NULL%0,       Shaoyong%Zhu%NULL%0,       Jinping%Zheng%NULL%0,       Nuofu%Zhang%NULL%0,       Yimin%Li%NULL%0,       Jianxing%He%NULL%0,       Jing%Li%NULL%0,       Shiyue%Li%NULL%0,       Nanshan%Zhong%NULL%0,       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,       Di%Wu%NULL%0,       Huilong%Chen%NULL%0,       Weiming%Yan%NULL%0,       Danlei%Yang%NULL%0,       Guang%Chen%NULL%0,       Ke%Ma%NULL%0,       Dong%Xu%NULL%0,       Haijing%Yu%NULL%0,       Hongwu%Wang%NULL%0,       Tao%Wang%NULL%0,       Wei%Guo%NULL%0,       Jia%Chen%NULL%0,       Chen%Ding%NULL%0,       Xiaoping%Zhang%NULL%0,       Jiaquan%Huang%NULL%0,       Meifang%Han%NULL%0,       Shusheng%Li%NULL%0,       Xiaoping%Luo%NULL%0,       Jianping%Zhao%NULL%0,       Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anying%Cheng%NULL%0,       Liu%Hu%NULL%0,       Yiru%Wang%NULL%0,       Luyan%Huang%NULL%0,       Lingxi%Zhao%NULL%0,       Congcong%Zhang%NULL%0,       Xiyue%Liu%NULL%0,       Ranran%Xu%NULL%0,       Feng%Liu%NULL%0,       Jinping%Li%NULL%0,       Dawei%Ye%NULL%0,       Tao%Wang%NULL%0,       Yongman%Lv%lvyongman@126.com%0,       Qingquan%Liu%qqliutj@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fabio%Ciceri%ciceri.fabio@hsr.it%0,       Antonella%Castagna%NULL%0,       Patrizia%Rovere-Querini%NULL%0,       Francesco%De Cobelli%NULL%0,       Annalisa%Ruggeri%NULL%0,       Laura%Galli%NULL%0,       Caterina%Conte%NULL%0,       Rebecca%De Lorenzo%NULL%0,       Andrea%Poli%NULL%0,       Alberto%Ambrosio%NULL%0,       Carlo%Signorelli%NULL%0,       Eleonora%Bossi%NULL%0,       Maria%Fazio%NULL%0,       Cristina%Tresoldi%NULL%0,       Sergio%Colombo%NULL%0,       Giacomo%Monti%NULL%0,       Efgeny%Fominskiy%NULL%0,       Stefano%Franchini%NULL%0,       Marzia%Spessot%NULL%0,       Carlo%Martinenghi%NULL%0,       Michele%Carlucci%NULL%0,       Luigi%Beretta%NULL%0,       Anna Maria%Scandroglio%NULL%0,       Massimo%Clementi%NULL%0,       Massimo%Locatelli%NULL%0,       Moreno%Tresoldi%NULL%0,       Paolo%Scarpellini%NULL%0,       Gianvito%Martino%NULL%0,       Emanuele%Bosi%NULL%0,       Lorenzo%Dagna%NULL%0,       Adriano%Lazzarin%NULL%0,       Giovanni%Landoni%NULL%0,       Alberto%Zangrillo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,       Wei%Liu%NULL%0,       Kui%Liu%NULL%0,       Yuan-Yuan%Fang%NULL%0,       Jin%Shang%NULL%0,       Ling%Zhou%NULL%0,       Ke%Wang%NULL%0,       Fan%Leng%NULL%0,       Shuang%Wei%NULL%0,       Lei%Chen%NULL%0,       Hui-Guo%Liu%NULL%0,       Pei-Fang%Wei%NULL%0,       Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,       Li-Rong%Liang%NULL%0,       Cheng-Qing%Yang%NULL%0,       Wen%Wang%NULL%0,       Tan-Ze%Cao%NULL%0,       Ming%Li%NULL%0,       Guang-Yun%Guo%NULL%0,       Juan%Du%NULL%0,       Chun-Lan%Zheng%NULL%0,       Qi%Zhu%NULL%0,       Ming%Hu%NULL%0,       Xu-Yan%Li%NULL%0,       Peng%Peng%NULL%0,       Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shan%Gao%NULL%0,       Fang%Jiang%NULL%0,       Wei%Jin%NULL%0,       Yuan%Shi%NULL%0,       Leilei%Yang%NULL%0,       Yanqiong%Xia%NULL%0,       Linyan%Jia%NULL%0,       Bo%Wang%NULL%0,       Han%Lin%NULL%0,       Yin%Cai%NULL%0,       Zhengyuan%Xia%NULL%0,       Jian%Peng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pedro David%Wendel Garcia%pedrodavid.wendelgarcia@usz.ch%0,       Thierry%Fumeaux%thierry.fumeaux@ghol.ch%0,       Philippe%Guerci%NULL%0,       Dorothea Monika%Heuberger%dorotheamonika.heuberger@usz.ch%0,       Jonathan%Montomoli%NULL%0,       Ferran%Roche-Campo%NULL%0,       Reto Andreas%Schuepbach%reto.schuepbach@usz.ch%0,       Matthias Peter%Hilty%matthias.hilty@usz.ch%0,       Mario%Alfaro Farias%NULL%0,       Antoni%Margarit%NULL%0,       Gerardo%Vizmanos-Lamotte%NULL%0,       Thomas%Tschoellitsch%NULL%0,       Jens%Meier%NULL%0,       Francesco S.%Cardona%NULL%0,       Josef%Skola%NULL%0,       Lenka%Horakova%NULL%0,       Hernan%Aguirre-Bermeo%NULL%0,       Janina%Apolo%NULL%0,       Emmanuel%Novy%NULL%0,       Marie-Reine%Losser%NULL%0,       Geoffrey%Jurkolow%NULL%0,       Gauthier%Delahaye%NULL%0,       Sascha%David%NULL%0,       Tobias%Welte%NULL%0,       Tobias%Wengenmayer%NULL%0,       Dawid L.%Staudacher%NULL%0,       Theodoros%Aslanidis%NULL%0,       Barna%Babik%NULL%0,       Anita%Korsos%NULL%0,       Janos%Gal%NULL%0,       Hermann%Csaba%NULL%0,       Abele%Donati%NULL%0,       Andrea%Carsetti%NULL%0,       Fabrizio%Turrini%NULL%0,       Maria Sole%Simonini%NULL%0,       Roberto%Ceriani%NULL%0,       Martina%Murrone%NULL%0,       Emanuele%Rezoagli%NULL%0,       Giovanni%Vitale%NULL%0,       Alberto%Fogagnolo%NULL%0,       Savino%Spadaro%NULL%0,       Maddalena Alessandra%Wu%NULL%0,       Chiara%Cogliati%NULL%0,       Riccardo%Colombo%NULL%0,       Emanuele%Catena%NULL%0,       Francesca%Facondini%NULL%0,       Antonella%Potalivo%NULL%0,       Gianfilippo%Gangitano%NULL%0,       Tiziana%Perin%NULL%0,       Maria Grazia%Bocci%NULL%0,       Massimo%Antonelli%NULL%0,       Diederik%Gommers%NULL%0,       Can%Ince%NULL%0,       Eric%Mayor-Vázquez%NULL%0,       Maria%Cruz%NULL%0,       Martin%Delgado%NULL%0,       Raquel Rodriguez%Garcia%NULL%0,       Jorge%Gamez Zapata%NULL%0,       Begoña%Zalba-Etayo%NULL%0,       Herminia%Lozano-Gomez%NULL%0,       Pedro%Castro%NULL%0,       Adrian%Tellez%NULL%0,       Adriana%Jacas%NULL%0,       Guido%Muñoz%NULL%0,       Rut%Andrea%NULL%0,       Jose%Ortiz%NULL%0,       Eduard%Quintana%NULL%0,       Irene%Rovira%NULL%0,       Enric%Reverter%NULL%0,       Javier%Fernandez%NULL%0,       Miquel%Ferrer%NULL%0,       Joan R.%Badia%NULL%0,       Arantxa%Lander Azcona%NULL%0,       Jesus Escos%Orta%NULL%0,       Philipp%Bühler%NULL%0,       Silvio%Brugger%NULL%0,       Daniel%Hofmaenner%NULL%0,       Simone%Unseld%NULL%0,       Frank%Ruschitzka%NULL%0,       Mallory%Moret-Bochatay%NULL%0,       Bernd%Yuen%NULL%0,       Thomas%Hillermann%NULL%0,       Hatem%Ksouri%NULL%0,       Govind Oliver%Sridharan%NULL%0,       Anette%Ristic%NULL%0,       Michael%Sepulcri%NULL%0,       Miodrag%Filipovic%NULL%0,       Urs%Pietsch%NULL%0,       Petra%Salomon%NULL%0,       Iris%Drvaric%NULL%0,       Peter%Schott%NULL%0,       Severin%Urech%NULL%0,       Adriana%Lambert%NULL%0,       Lukas%Merki%NULL%0,       Marcus%Laube%NULL%0,       Frank%Hillgaertner%NULL%0,       Marianne%Sieber%NULL%0,       Alexander%Dullenkopf%NULL%0,       Lina%Petersen%NULL%0,       Serge%Grazioli%NULL%0,       Peter C.%Rimensberger%NULL%0,       Isabelle%Fleisch%NULL%0,       Jerome%Lavanchy%NULL%0,       Katharina%Marquardt%NULL%0,       Karim%Shaikh%NULL%0,       Hermann%Redecker%NULL%0,       Michael%Stephan%NULL%0,       Jan%Brem%NULL%0,       Bjarte%Rogdo%NULL%0,       Andre%Birkenmaier%NULL%0,       Friederike%Meyer zu Bentrup%NULL%0,       Patricia%Fodor%NULL%0,       Pascal%Locher%NULL%0,       Giovanni%Camen%NULL%0,       Martin%Siegemund%NULL%0,       Nuria%Zellweger%NULL%0,       Marie-Madlen%Jeitziner%NULL%0,       Beatrice%Jenni-Moser%NULL%0,       Christian%Bürkle%NULL%0,       Gian-Reto%Kleger%NULL%0,       Marilene%Franchitti Laurent%NULL%0,       Jean-Christophe%Laurent%NULL%0,       Tomislav%Gaspert%NULL%0,       Marija%Jovic%NULL%0,       Michael%Studhalter%NULL%0,       Christoph%Haberthuer%NULL%0,       Roger F.%Lussman%NULL%0,       Daniela%Selz%NULL%0,       Didier%Naon%NULL%0,       Romano%Mauri%NULL%0,       Samuele%Ceruti%NULL%0,       Julien%Marrel%NULL%0,       Mirko%Brenni%NULL%0,       Rolf%Ensner%NULL%0,       Nadine%Gehring%NULL%0,       Antje%Heise%NULL%0,       Tobias%Huebner%NULL%0,       Thomas A.%Neff%NULL%0,       Sara%Cereghetti%NULL%0,       Filippo%Boroli%NULL%0,       Jerome%Pugin%NULL%0,       Nandor%Marczin%NULL%0,       Joyce%Wong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Warren%Gavin%NULL%0,       Elliott%Campbell%NULL%0,       Syed-Adeel%Zaidi%NULL%0,       Neha%Gavin%NULL%0,       Lana%Dbeibo%NULL%0,       Cole%Beeler%NULL%0,       Kari%Kuebler%NULL%0,       Ahmed%Abdel-Rahman%NULL%0,       Mark%Luetkemeyer%NULL%0,       Areeba%Kara%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Vijay%Gayam%vgayam@interfaithmedical.com%0,       Muchi Ditah%Chobufo%NULL%0,       Muchi Ditah%Chobufo%NULL%0,       Mohamed A.%Merghani%NULL%0,       Mohamed A.%Merghani%NULL%0,       Shristi%Lamichhane%NULL%0,       Pavani Reddy%Garlapati%NULL%0,       Mark K.%Adler%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Cao%Y%coreGivesNoEmail%0,      Imam%Z%coreGivesNoEmail%0,      Lippi%G%coreGivesNoEmail%0,      Oran%DP%coreGivesNoEmail%0,      Shi%S%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Hai%Hu%huhai@wchscu.cn%0,       Ni%Yao%NULL%0,       Ni%Yao%NULL%0,       Yanru%Qiu%NULL%0,       John H.%Burton%NULL%0,       John H.%Burton%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jiaofeng%Huang%NULL%0,       Aiguo%Cheng%NULL%0,       Rahul%Kumar%NULL%0,       Yingying%Fang%NULL%0,       Yingying%Fang%NULL%0,       Gongping%Chen%NULL%0,       Yueyong%Zhu%NULL%0,       Su%Lin%sumer5129@fjmu.edu.cn%0,       Su%Lin%sumer5129@fjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%0,       Ju-Hyun%Kim%NULL%0,       Jin-Sung%Park%NULL%0,       Min Cheol%Chang%wheel633@ynu.ac.kr%0,       Donghwi%Park%bdome@hanmail.net%0]</t>
+  </si>
+  <si>
+    <t>[K.%Khalil%NULL%0,       K.%Agbontaen%NULL%0,       D.%McNally%NULL%0,       A.%Love%NULL%0,       S.%Mandalia%NULL%0,       W.%Banya%NULL%0,       E.%Starren%NULL%0,       R.%Dhunnookchand%NULL%0,       H.%Farne%NULL%0,       R.%Morton%NULL%0,       G.%Davies%NULL%0,       O.%Orhan%NULL%0,       D%Lai%NULL%0,       M.%Nelson%NULL%0,       P.L.%Shah%NULL%0,       J.L.%Garner%Justin.garner@chelwest.nhs.uk%0]</t>
+  </si>
+  <si>
+    <t>[Eyal%Klang%NULL%0,       Gassan%Kassim%NULL%0,       Shelly%Soffer%soffer.shelly@gmail.com%0,       Robert%Freeman%NULL%0,       Robert%Freeman%NULL%0,       Matthew A.%Levin%NULL%0,       Matthew A.%Levin%NULL%0,       David L.%Reich%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sandeep%Krishnan%NULL%0,       Kinjal%Patel%NULL%0,       Ronak%Desai%NULL%0,       Anupam%Sule%NULL%0,       Peter%Paik%NULL%0,       Ashley%Miller%NULL%0,       Alicia%Barclay%NULL%0,       Adam%Cassella%NULL%0,       Jon%Lucaj%NULL%0,       Yvonne%Royster%NULL%0,       Joffer%Hakim%NULL%0,       Zulfiqar%Ahmed%NULL%0,       Farhad%Ghoddoussi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Manisha%Bhutani%null%0,        David M.%Foureau%null%0,        Shebli%Atrash%null%0,        Peter M.%Voorhees%null%0,        Saad Z.%Usmani%null%0,      Manisha%Bhutani%null%0,      David M.%Foureau%null%0,      Shebli%Atrash%null%0,      Peter M.%Voorhees%null%0,      Saad Z.%Usmani%null%0]</t>
+  </si>
+  <si>
+    <t>[Wil%Lieberman-Cribbin%NULL%0,       Joseph%Rapp%NULL%0,       Naomi%Alpert%NULL%0,       Stephanie%Tuminello%NULL%0,       Emanuela%Taioli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Q.%Liu%NULL%0,       N. C.%Song%NULL%0,       Z. K.%Zheng%NULL%0,       J. S.%Li%NULL%0,       S. K.%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Long%NULL%0,       Lan%Nie%NULL%0,       Xiaochen%Xiang%NULL%0,       Huan%Li%NULL%0,       Xiaoli%Zhang%NULL%0,       Xiaozhi%Fu%NULL%0,       Hongwei%Ren%NULL%0,       Wanxin%Liu%NULL%0,       Qiang%Wang%wangqiang@wust.edu.cn%0,       Qingming%Wu%wuhe9224@sina.com%0,       Qingming%Wu%wuhe9224@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaomin%Luo%luoxiaomin04@163.com%0,       Wei%Zhou%NULL%0,       Xiaojie%Yan%NULL%0,       Tangxi%Guo%NULL%0,       Benchao%Wang%NULL%0,       Hongxia%Xia%NULL%0,       Lu%Ye%NULL%0,       Jun%Xiong%NULL%0,       Zongping%Jiang%NULL%0,       Yu%Liu%NULL%0,       Bicheng%Zhang%NULL%0,       Weize%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ying%Luo%NULL%0,       Liyan%Mao%NULL%0,       Xu%Yuan%NULL%0,       Ying%Xue%NULL%0,       Qun%Lin%NULL%0,       Guoxing%Tang%NULL%0,       Huijuan%Song%NULL%0,       Feng%Wang%fengwang@tjh.tjmu.edu.cn%0,       Ziyong%Sun%zysun@tjh.tjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ying%Luo%NULL%0,       Ying%Xue%NULL%0,       Liyan%Mao%NULL%0,       Xu%Yuan%NULL%0,       Qun%Lin%NULL%0,       Guoxing%Tang%NULL%0,       Huijuan%Song%NULL%0,       Feng%Wang%NULL%0,       Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chiara%Masetti%NULL%0,       Elena%Generali%NULL%0,       Francesca%Colapietro%NULL%0,       Antonio%Voza%NULL%0,       Maurizio%Cecconi%NULL%0,       Antonio%Messina%NULL%0,       Paolo%Omodei%NULL%0,       Claudio%Angelini%NULL%0,       Michele%Ciccarelli%NULL%0,       Salvatore%Badalamenti%NULL%0,       G. Walter%Canonica%NULL%0,       Ana%Lleo%ana.lleo@humanitas.it%0,       Alessio%Aghemo%NULL%0,       Alessio%Aghemo%NULL%0,       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Takahisa%Mikami%NULL%0,       Hirotaka%Miyashita%NULL%0,       Takayuki%Yamada%NULL%0,       Matthew%Harrington%NULL%0,       Daniel%Steinberg%NULL%0,       Andrew%Dunn%NULL%0,       Evan%Siau%Evan.Siau@mountsinai.org%0]</t>
+  </si>
+  <si>
+    <t>[Alexis K.%Okoh%alexis.okoh@rwjbh.org%0,       Christoph%Sossou%NULL%0,       Christoph%Sossou%NULL%0,       Neha S.%Dangayach%NULL%0,       Sherin%Meledathu%NULL%0,       Oluwakemi%Phillips%NULL%0,       Corinne%Raczek%NULL%0,       Michael%Patti%NULL%0,       Nathan%Kang%NULL%0,       Sameer A.%Hirji%NULL%0,       Charles%Cathcart%NULL%0,       Christian%Engell%NULL%0,       Marc%Cohen%NULL%0,       Sandhya%Nagarakanti%NULL%0,       Eliahu%Bishburg%NULL%0,       Harpreet S.%Grewal%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%0,        Lian%Yang%NULL%0,        Yuncheng%Li%NULL%0,        Bo%Liang%NULL%0,        Lin%Li%NULL%0,        Tianhe%Ye%NULL%0,        Lingli%Li%NULL%0,        Dehan%Liu%NULL%0,        Shan%Gui%NULL%0,        Yu%Hu%NULL%0,        Chuansheng%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,       Becker%L.B.%coreGivesNoEmail%0,       Chelico%J.D.%coreGivesNoEmail%0,       Cohen%S.L.%coreGivesNoEmail%0,       Cookingham%J.%coreGivesNoEmail%0,       Coppa%K.%coreGivesNoEmail%0,       Crawford%J.M.%coreGivesNoEmail%0,       Davidson%K.W.%coreGivesNoEmail%0,       Diefenbach%M.A.%coreGivesNoEmail%0,       Dominello%A.J.%coreGivesNoEmail%0,       Duer-Hefele%J.%coreGivesNoEmail%0,       Falzon%L.%coreGivesNoEmail%0,       Gitlin%J.%coreGivesNoEmail%0,       Hajizadeh%N.%coreGivesNoEmail%0,       Harvin%T.G.%coreGivesNoEmail%0,       Hirsch%J.S.%coreGivesNoEmail%0,       Hirschwerk%D.A.%coreGivesNoEmail%0,       Kim%E.J.%coreGivesNoEmail%0,       Kozel%Z.M.%coreGivesNoEmail%0,       Marrast%L.M.%coreGivesNoEmail%0,       McGinn%T.%coreGivesNoEmail%0,       Mogavero%J.N.%coreGivesNoEmail%0,       Narasimhan%M.%coreGivesNoEmail%0,       Osorio%G.A.%coreGivesNoEmail%0,       Qiu%M.%coreGivesNoEmail%0,       Richardson%S.%coreGivesNoEmail%0,       Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Mario%Rivera-Izquierdo%NULL%0,        María%del Carmen Valero-Ubierna%NULL%0,        María%del Carmen Valero-Ubierna%NULL%0,        Juan Luis%R-delAmo%NULL%0,        Miguel Ángel%Fernández-García%NULL%0,        Silvia%Martínez-Diz%NULL%0,        Arezu%Tahery-Mahmoud%NULL%0,        Marta%Rodríguez-Camacho%NULL%0,        Ana Belén%Gámiz-Molina%NULL%0,        Nicolás%Barba-Gyengo%NULL%0,        Pablo%Gámez-Baeza%NULL%0,        Celia%Cabrero-Rodríguez%NULL%0,        Pedro Antonio%Guirado-Ruiz%NULL%0,        Divina Tatiana%Martín-Romero%NULL%0,        Antonio Jesús%Láinez-Ramos-Bossini%NULL%0,        María Rosa%Sánchez-Pérez%NULL%0,        José%Mancera-Romero%NULL%0,        Miguel%García-Martín%NULL%0,        Luis Miguel%Martín-delosReyes%NULL%0,        Virginia%Martínez-Ruiz%NULL%0,        Virginia%Martínez-Ruiz%NULL%0,        Pablo%Lardelli-Claret%NULL%0,        Eladio%Jiménez-Mejías%NULL%0,        Muhammad%Adrish%NULL%0,        Muhammad%Adrish%NULL%0,        NULL%NULL%NULL%0,        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,        Kun%Yang%NULL%0,        Kun%Yang%NULL%0,        Wenxia%Wang%NULL%0,        Wenxia%Wang%NULL%0,        Lingyu%Jiang%NULL%0,        Lingyu%Jiang%NULL%0,        Jianxin%Song%songsingsjx@sina.com%0,        Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Grace%Salacup%salacupg@einstein.edu%0,        Kevin Bryan%Lo%NULL%0,        Kevin Bryan%Lo%NULL%0,        Fahad%Gul%NULL%0,        Eric%Peterson%NULL%0,        Robert%De Joy%NULL%0,        Ruchika%Bhargav%NULL%0,        Jerald%Pelayo%NULL%0,        Jeri%Albano%NULL%0,        Zurab%Azmaiparashvili%NULL%0,        Sadia%Benzaquen%NULL%0,        Gabriel%Patarroyo‐Aponte%NULL%0,        Janani%Rangaswami%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yufeng%Shang%NULL%0,        Tao%Liu%NULL%0,        Yongchang%Wei%NULL%0,        Jingfeng%Li%NULL%0,        Liang%Shao%NULL%0,        Minghui%Liu%NULL%0,        Yongxi%Zhang%NULL%0,        Zhigang%Zhao%NULL%0,        Haibo%Xu%NULL%0,        Zhiyong%Peng%NULL%0,        Fuling%Zhou%zhoufuling@whu.edu.cn%0,        Xinghuan%Wang%wangxinghuan@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,        Mu%Qin%qinmuae@163.com%0,        Yuli%Cai%NULL%0,        Tao%Liu%NULL%0,        Bo%Shen%NULL%0,        Fan%Yang%NULL%0,        Sheng%Cao%NULL%0,        Xu%Liu%NULL%0,        Xu%Liu%NULL%0,        Yaozu%Xiang%NULL%0,        Qinyan%Zhao%NULL%0,        He%Huang%huanghe1977@whu.edu.cn%0,        Bo%Yang%yybb112@whu.edu.cn%0,        Congxin%Huang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rita de Cássia Menezes%Soares%NULL%0,        Larissa Rodrigues%Mattos%NULL%0,        Letícia Martins%Raposo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,        Ruoqi%Ning%NULL%0,        Yu%Tao%NULL%0,        Chong%Yu%NULL%0,        Xiaoyan%Deng%NULL%0,        Caili%Zhao%NULL%0,        Silu%Meng%NULL%0,        Fangxu%Tang%89650793@qq.com%0,        Dong%Xu%89650793@qq.com%0,        Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Kun%Wang%NULL%0,        Peiyuan%Zuo%NULL%0,        Yuwei%Liu%NULL%0,        Meng%Zhang%NULL%0,        Xiaofang%Zhao%NULL%0,        Songpu%Xie%NULL%0,        Hao%Zhang%NULL%0,        Xinglin%Chen%NULL%0,        Chengyun%Liu%chengyunliu@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Bo%XU%NULL%0,        Cun-yu%FAN%NULL%0,        An-lu%WANG%NULL%0,        Yi-long%ZOU%NULL%0,        Yi-han%YU%NULL%0,        Cong%HE%NULL%0,        Wen-guang%XIA%NULL%0,        Ji-xian%ZHANG%NULL%0,        Qing%MIAO%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xisheng%Yan%NULL%0,        Fen%Li%NULL%0,        Xiao%Wang%NULL%0,        Jie%Yan%NULL%0,        Fen%Zhu%NULL%0,        Shifan%Tang%NULL%0,        Yingzhong%Deng%NULL%0,        Hua%Wang%NULL%0,        Rui%Chen%NULL%0,        Zhili%Yu%NULL%0,        Yaping%Li%NULL%0,        Jingzhou%Shang%NULL%0,        Lingjun%Zeng%NULL%0,        Jie%Zhao%NULL%0,        Chaokun%Guan%NULL%0,        Qiaomei%Liu%NULL%0,        Haifeng%Chen%NULL%0,        Wei%Gong%NULL%0,        Xin%Huang%NULL%0,        Yu‐Jiao%Zhang%NULL%0,        Jianguang%Liu%NULL%0,        Xiaoyan%Dong%NULL%0,        Wen%Zheng%zhengwen12@mails.jlu.edu.cn%0,        Shaoping%Nie%spnie@126.com%0,        Dongsheng%Li%dongshengli196809@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qing%Yang%NULL%0,        Ying%Zhou%NULL%0,        Xinrong%Wang%NULL%0,        Shan%Gao%NULL%0,        Yang%Xiao%NULL%0,        Weiming%Zhang%NULL%0,        Yi%Hu%huyizxyy@163.com%0,        Yafei%Wang%wyf_527@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,        Qingyu%Yang%NULL%0,        Yaxin%Wang%NULL%0,        Yongran%Wu%NULL%0,        Jiqian%Xu%NULL%0,        Yuan%Yu%NULL%0,        You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wenjing%Ye%yewenjing@xinhuamed.com.cn%0,        Guoxi%Chen%4799082@qq.com%0,        Xiaopan%Li%xiaopanli0224@126.com%0,        Xing%Lan%474137452@qq.com%0,        Chen%Ji%c.ji.3@warwick.ac.uk%0,        Min%Hou%min-hou710@hotmail.com%0,        Di%Zhang%zhangdizhangdi1234@163.com%0,        Guangwang%Zeng%785663609@qq.com%0,        Yaling%Wang%953822402@qq.com%0,        Cheng%Xu%xucheng112358@126.com%0,        Weiwei%Lu%luweiwei100@126.com%0,        Ruolin%Cui%crlqwerty@163.com%0,        Yuyang%Cai%caiyuyang@sjtu.edu.cn%0,        Hai%Huang%1220775601@qq.com%0,        Ling%Yang%yangling01@xinhuamed.com.cn%0]</t>
+  </si>
+  <si>
+    <t>[Caizheng%Yu%NULL%0,        Qing%Lei%NULL%0,        Wenkai%Li%NULL%0,        Xiong%Wang%NULL%0,        Wei%Liu%NULL%0,        Xionglin%Fan%NULL%0,        Wengang%Li%228907211@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,        Ting%Yu%NULL%0,        Ronghui%Du%NULL%0,        Guohui%Fan%NULL%0,        Ying%Liu%NULL%0,        Zhibo%Liu%NULL%0,        Jie%Xiang%NULL%0,        Yeming%Wang%NULL%0,        Bin%Song%NULL%0,        Xiaoying%Gu%NULL%0,        Lulu%Guan%NULL%0,        Yuan%Wei%NULL%0,        Hui%Li%NULL%0,        Xudong%Wu%NULL%0,        Jiuyang%Xu%NULL%0,        Shengjin%Tu%NULL%0,        Yi%Zhang%NULL%0,        Hua%Chen%NULL%0,        Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Moran%Amit%NULL%0,        Alex%Sorkin%NULL%0,        Jacob%Chen%NULL%0,        Barak%Cohen%NULL%0,        Barak%Cohen%NULL%0,        Dana%Karol%NULL%0,        Dana%Karol%NULL%0,        Avishai M%Tsur%NULL%0,        Shaul%Lev%NULL%0,        Shaul%Lev%NULL%0,        Tal%Rozenblat%NULL%0,        Ayana%Dvir%NULL%0,        Ayana%Dvir%NULL%0,        Geva%Landau%NULL%0,        Lidar%Fridrich%NULL%0,        Lidar%Fridrich%NULL%0,        Elon%Glassberg%NULL%0,        Shani%Kesari%NULL%0,        Sigal%Sviri%NULL%0,        Ram%Gelman%NULL%0,        Asaf%Miller%NULL%0,        Danny%Epstein%NULL%0,        Ronny%Ben-Avi%NULL%0,        Ronny%Ben-Avi%NULL%0,        Moshe%Matan%NULL%0,        Daniel J.%Jakobson%NULL%0,        Daniel J.%Jakobson%NULL%0,        Tarif%Bader%NULL%0,        Tarif%Bader%NULL%0,        David%Dahan%NULL%0,        David%Dahan%NULL%0,        Daniel A.%King%NULL%0,        Anat%Ben-Ari%NULL%0,        Arie%Soroksky%NULL%0,        Alon%Bar%NULL%0,        Alon%Bar%NULL%0,        Noam%Fink%NULL%0,        Pierre%Singer%NULL%0,        Avi%Benov%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,        John R%Adler%NULL%0,        Muhammad Sohaib%Asghar%NULL%0,        Muhammad Sohaib%Asghar%NULL%0,        Syed Jawad%Haider Kazmi%NULL%0,        Noman%Ahmed Khan%NULL%0,        Mohammed%Akram%NULL%0,        Salman%Ahmed Khan%NULL%0,        Uzma%Rasheed%NULL%0,        Maira%Hassan%NULL%0,        Gul Muhammad%Memon%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pedro%Baqui%NULL%0,        Ioana%Bica%NULL%0,        Valerio%Marra%marra@cosmo-ufes.org%0,        Ari%Ercole%NULL%0,        Mihaela%van der Schaar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anesi%Adriano%coreGivesNoEmail%0,       Bettinardi%Alessandra%coreGivesNoEmail%0,       Bonetti%Graziella%coreGivesNoEmail%0,       Borrelli%Gianluca%coreGivesNoEmail%0,       Fiordalisi%Gianfranco%coreGivesNoEmail%0,       Lippi%Giuseppe%coreGivesNoEmail%0,       Manelli%Filippo%coreGivesNoEmail%0,       Marino%Antonio%coreGivesNoEmail%0,       Menolfi%Annamaria%coreGivesNoEmail%0,       Patroni%Andrea%coreGivesNoEmail%0,       Saggini%Sara%coreGivesNoEmail%0,       Volpi%Roberta%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Andrea%Borghesi%NULL%0,        Angelo%Zigliani%NULL%0,        Salvatore%Golemi%NULL%0,        Nicola%Carapella%NULL%0,        Patrizia%Maculotti%NULL%0,        Davide%Farina%NULL%0,        Roberto%Maroldi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alberto M.%Borobia%NULL%0,        Antonio J.%Carcas%NULL%0,        Antonio J.%Carcas%NULL%0,        Francisco%Arnalich%NULL%0,        Rodolfo%Álvarez-Sala%NULL%0,        Rodolfo%Álvarez-Sala%NULL%0,        Jaime%Monserrat-Villatoro%NULL%0,        Manuel%Quintana%NULL%0,        Juan Carlos%Figueira%NULL%0,        Rosario M.%Torres Santos-Olmo%NULL%0,        Julio%García-Rodríguez%NULL%0,        Julio%García-Rodríguez%NULL%0,        Alberto%Martín-Vega%NULL%0,        Antonio%Buño%NULL%0,        Elena%Ramírez%NULL%0,        Gonzalo%Martínez-Alés%NULL%0,        Gonzalo%Martínez-Alés%NULL%0,        Nicolás%García-Arenzana%NULL%0,        M. Concepción%Núñez%NULL%0,        M. Concepción%Núñez%NULL%0,        Milagros%Martí-de-Gracia%NULL%0,        Francisco%Moreno Ramos%NULL%0,        Francisco%Reinoso-Barbero%NULL%0,        Alejandro%Martin-Quiros%NULL%0,        Angélica%Rivera Núñez%NULL%0,        Jesús%Mingorance%NULL%0,        Carlos J.%Carpio Segura%NULL%0,        Carlos J.%Carpio Segura%NULL%0,        Daniel%Prieto Arribas%NULL%0,        Esther%Rey Cuevas%NULL%0,        Concepción%Prados Sánchez%NULL%0,        Juan J.%Rios%NULL%0,        Miguel A.%Hernán%NULL%0,        Jesús%Frías%NULL%0,        José R.%Arribas%NULL%0,        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simon E.%Brill%simon.brill@nhs.net%0,        Hannah C.%Jarvis%NULL%0,        Hannah C.%Jarvis%NULL%0,        Ezgi%Ozcan%NULL%0,        Thomas L. P.%Burns%NULL%0,        Rabia A.%Warraich%NULL%0,        Lisa J.%Amani%NULL%0,        Amina%Jaffer%NULL%0,        Stephanie%Paget%NULL%0,        Anand%Sivaramakrishnan%NULL%0,        Dean D.%Creer%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,        Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,        Wenlin%Cheng%NULL%0,        Lei%Yu%NULL%0,        Ya-Kun%Liu%NULL%0,        Xiaoyong%Hu%NULL%0,        Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[B.%Carter%NULL%0,        J.T.%Collins%NULL%0,        F.%Barlow-Pay%NULL%0,        F.%Rickard%NULL%0,        E.%Bruce%NULL%0,        A.%Verduri%NULL%0,        T.J.%Quinn%NULL%0,        E.%Mitchell%NULL%0,        A.%Price%NULL%0,        A.%Vilches-Moraga%NULL%0,        M.J.%Stechman%NULL%0,        R.%Short%NULL%0,        A.%Einarsson%NULL%0,        P.%Braude%NULL%0,        S.%Moug%NULL%0,        P.K.%Myint%NULL%0,        J.%Hewitt%NULL%0,        L.%Pearce%NULL%0,        K.%McCarthy%NULL%0,        C.%Davey%NULL%0,        S.%Jones%NULL%0,        K.%Lunstone%NULL%0,        A.%Cavenagh%NULL%0,        C.%Silver%NULL%0,        T.%Telford%NULL%0,        R.%Simmons%NULL%0,        M.%Holloway%NULL%0,        J.%Hesford%NULL%0,        T.%El Jichi Mutasem%NULL%0,        S.%Singh%NULL%0,        D.%Paxton%NULL%0,        W.%Harris%NULL%0,        N.%Galbraith%NULL%0,        E.%Bhatti%NULL%0,        J.%Edwards%NULL%0,        S.%Duffy%NULL%0,        J.%Kelly%NULL%0,        C.%Murphy%NULL%0,        C.%Bisset%NULL%0,        R.%Alexander%NULL%0,        M.%Garcia%NULL%0,        S.%Sangani%NULL%0,        T.%Kneen%NULL%0,        T.%Lee%NULL%0,        A.%McGovern%NULL%0,        G.%Guaraldi%NULL%0,        E.%Clini%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fuyang%Chen%NULL%0,        Wenwu%Sun%NULL%0,        Shengrong%Sun%NULL%0,        Zhiyu%Li%lizhiyu@whu.edu.cn%0,        Zhong%Wang%zhongwangchn@whu.edu.cn%0,        Li%Yu%yuliwhzxyy@163.com%0,        Li%Yu%yuliwhzxyy@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,        Ling%Sang%NULL%0,        Mei%Jiang%NULL%0,        Zhaowei%Yang%NULL%0,        Nan%Jia%NULL%0,        Wanyi%Fu%NULL%0,        Jiaxing%Xie%NULL%0,        Weijie%Guan%NULL%0,        Wenhua%Liang%NULL%0,        Zhengyi%Ni%NULL%0,        Yu%Hu%NULL%0,        Lei%Liu%NULL%0,        Hong%Shan%NULL%0,        Chunliang%Lei%NULL%0,        Yixiang%Peng%NULL%0,        Li%Wei%NULL%0,        Yong%Liu%NULL%0,        Yahua%Hu%NULL%0,        Peng%Peng%NULL%0,        Jianming%Wang%NULL%0,        Jiyang%Liu%NULL%0,        Zhong%Chen%NULL%0,        Gang%Li%NULL%0,        Zhijian%Zheng%NULL%0,        Shaoqin%Qiu%NULL%0,        Jie%Luo%NULL%0,        Changjiang%Ye%NULL%0,        Shaoyong%Zhu%NULL%0,        Jinping%Zheng%NULL%0,        Nuofu%Zhang%NULL%0,        Yimin%Li%NULL%0,        Jianxing%He%NULL%0,        Jing%Li%NULL%0,        Shiyue%Li%NULL%0,        Nanshan%Zhong%NULL%0,        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,        Di%Wu%NULL%0,        Huilong%Chen%NULL%0,        Weiming%Yan%NULL%0,        Danlei%Yang%NULL%0,        Guang%Chen%NULL%0,        Ke%Ma%NULL%0,        Dong%Xu%NULL%0,        Haijing%Yu%NULL%0,        Hongwu%Wang%NULL%0,        Tao%Wang%NULL%0,        Wei%Guo%NULL%0,        Jia%Chen%NULL%0,        Chen%Ding%NULL%0,        Xiaoping%Zhang%NULL%0,        Jiaquan%Huang%NULL%0,        Meifang%Han%NULL%0,        Shusheng%Li%NULL%0,        Xiaoping%Luo%NULL%0,        Jianping%Zhao%NULL%0,        Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anying%Cheng%NULL%0,        Liu%Hu%NULL%0,        Yiru%Wang%NULL%0,        Luyan%Huang%NULL%0,        Lingxi%Zhao%NULL%0,        Congcong%Zhang%NULL%0,        Xiyue%Liu%NULL%0,        Ranran%Xu%NULL%0,        Feng%Liu%NULL%0,        Jinping%Li%NULL%0,        Dawei%Ye%NULL%0,        Tao%Wang%NULL%0,        Yongman%Lv%lvyongman@126.com%0,        Qingquan%Liu%qqliutj@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fabio%Ciceri%ciceri.fabio@hsr.it%0,        Antonella%Castagna%NULL%0,        Patrizia%Rovere-Querini%NULL%0,        Francesco%De Cobelli%NULL%0,        Annalisa%Ruggeri%NULL%0,        Laura%Galli%NULL%0,        Caterina%Conte%NULL%0,        Rebecca%De Lorenzo%NULL%0,        Andrea%Poli%NULL%0,        Alberto%Ambrosio%NULL%0,        Carlo%Signorelli%NULL%0,        Eleonora%Bossi%NULL%0,        Maria%Fazio%NULL%0,        Cristina%Tresoldi%NULL%0,        Sergio%Colombo%NULL%0,        Giacomo%Monti%NULL%0,        Efgeny%Fominskiy%NULL%0,        Stefano%Franchini%NULL%0,        Marzia%Spessot%NULL%0,        Carlo%Martinenghi%NULL%0,        Michele%Carlucci%NULL%0,        Luigi%Beretta%NULL%0,        Anna Maria%Scandroglio%NULL%0,        Massimo%Clementi%NULL%0,        Massimo%Locatelli%NULL%0,        Moreno%Tresoldi%NULL%0,        Paolo%Scarpellini%NULL%0,        Gianvito%Martino%NULL%0,        Emanuele%Bosi%NULL%0,        Lorenzo%Dagna%NULL%0,        Adriano%Lazzarin%NULL%0,        Giovanni%Landoni%NULL%0,        Alberto%Zangrillo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,        Wei%Liu%NULL%0,        Kui%Liu%NULL%0,        Yuan-Yuan%Fang%NULL%0,        Jin%Shang%NULL%0,        Ling%Zhou%NULL%0,        Ke%Wang%NULL%0,        Fan%Leng%NULL%0,        Shuang%Wei%NULL%0,        Lei%Chen%NULL%0,        Hui-Guo%Liu%NULL%0,        Pei-Fang%Wei%NULL%0,        Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,        Li-Rong%Liang%NULL%0,        Cheng-Qing%Yang%NULL%0,        Wen%Wang%NULL%0,        Tan-Ze%Cao%NULL%0,        Ming%Li%NULL%0,        Guang-Yun%Guo%NULL%0,        Juan%Du%NULL%0,        Chun-Lan%Zheng%NULL%0,        Qi%Zhu%NULL%0,        Ming%Hu%NULL%0,        Xu-Yan%Li%NULL%0,        Peng%Peng%NULL%0,        Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shan%Gao%NULL%0,        Fang%Jiang%NULL%0,        Wei%Jin%NULL%0,        Yuan%Shi%NULL%0,        Leilei%Yang%NULL%0,        Yanqiong%Xia%NULL%0,        Linyan%Jia%NULL%0,        Bo%Wang%NULL%0,        Han%Lin%NULL%0,        Yin%Cai%NULL%0,        Zhengyuan%Xia%NULL%0,        Jian%Peng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pedro David%Wendel Garcia%pedrodavid.wendelgarcia@usz.ch%0,        Thierry%Fumeaux%thierry.fumeaux@ghol.ch%0,        Philippe%Guerci%NULL%0,        Dorothea Monika%Heuberger%dorotheamonika.heuberger@usz.ch%0,        Jonathan%Montomoli%NULL%0,        Ferran%Roche-Campo%NULL%0,        Reto Andreas%Schuepbach%reto.schuepbach@usz.ch%0,        Matthias Peter%Hilty%matthias.hilty@usz.ch%0,        Mario%Alfaro Farias%NULL%0,        Antoni%Margarit%NULL%0,        Gerardo%Vizmanos-Lamotte%NULL%0,        Thomas%Tschoellitsch%NULL%0,        Jens%Meier%NULL%0,        Francesco S.%Cardona%NULL%0,        Josef%Skola%NULL%0,        Lenka%Horakova%NULL%0,        Hernan%Aguirre-Bermeo%NULL%0,        Janina%Apolo%NULL%0,        Emmanuel%Novy%NULL%0,        Marie-Reine%Losser%NULL%0,        Geoffrey%Jurkolow%NULL%0,        Gauthier%Delahaye%NULL%0,        Sascha%David%NULL%0,        Tobias%Welte%NULL%0,        Tobias%Wengenmayer%NULL%0,        Dawid L.%Staudacher%NULL%0,        Theodoros%Aslanidis%NULL%0,        Barna%Babik%NULL%0,        Anita%Korsos%NULL%0,        Janos%Gal%NULL%0,        Hermann%Csaba%NULL%0,        Abele%Donati%NULL%0,        Andrea%Carsetti%NULL%0,        Fabrizio%Turrini%NULL%0,        Maria Sole%Simonini%NULL%0,        Roberto%Ceriani%NULL%0,        Martina%Murrone%NULL%0,        Emanuele%Rezoagli%NULL%0,        Giovanni%Vitale%NULL%0,        Alberto%Fogagnolo%NULL%0,        Savino%Spadaro%NULL%0,        Maddalena Alessandra%Wu%NULL%0,        Chiara%Cogliati%NULL%0,        Riccardo%Colombo%NULL%0,        Emanuele%Catena%NULL%0,        Francesca%Facondini%NULL%0,        Antonella%Potalivo%NULL%0,        Gianfilippo%Gangitano%NULL%0,        Tiziana%Perin%NULL%0,        Maria Grazia%Bocci%NULL%0,        Massimo%Antonelli%NULL%0,        Diederik%Gommers%NULL%0,        Can%Ince%NULL%0,        Eric%Mayor-Vázquez%NULL%0,        Maria%Cruz%NULL%0,        Martin%Delgado%NULL%0,        Raquel Rodriguez%Garcia%NULL%0,        Jorge%Gamez Zapata%NULL%0,        Begoña%Zalba-Etayo%NULL%0,        Herminia%Lozano-Gomez%NULL%0,        Pedro%Castro%NULL%0,        Adrian%Tellez%NULL%0,        Adriana%Jacas%NULL%0,        Guido%Muñoz%NULL%0,        Rut%Andrea%NULL%0,        Jose%Ortiz%NULL%0,        Eduard%Quintana%NULL%0,        Irene%Rovira%NULL%0,        Enric%Reverter%NULL%0,        Javier%Fernandez%NULL%0,        Miquel%Ferrer%NULL%0,        Joan R.%Badia%NULL%0,        Arantxa%Lander Azcona%NULL%0,        Jesus Escos%Orta%NULL%0,        Philipp%Bühler%NULL%0,        Silvio%Brugger%NULL%0,        Daniel%Hofmaenner%NULL%0,        Simone%Unseld%NULL%0,        Frank%Ruschitzka%NULL%0,        Mallory%Moret-Bochatay%NULL%0,        Bernd%Yuen%NULL%0,        Thomas%Hillermann%NULL%0,        Hatem%Ksouri%NULL%0,        Govind Oliver%Sridharan%NULL%0,        Anette%Ristic%NULL%0,        Michael%Sepulcri%NULL%0,        Miodrag%Filipovic%NULL%0,        Urs%Pietsch%NULL%0,        Petra%Salomon%NULL%0,        Iris%Drvaric%NULL%0,        Peter%Schott%NULL%0,        Severin%Urech%NULL%0,        Adriana%Lambert%NULL%0,        Lukas%Merki%NULL%0,        Marcus%Laube%NULL%0,        Frank%Hillgaertner%NULL%0,        Marianne%Sieber%NULL%0,        Alexander%Dullenkopf%NULL%0,        Lina%Petersen%NULL%0,        Serge%Grazioli%NULL%0,        Peter C.%Rimensberger%NULL%0,        Isabelle%Fleisch%NULL%0,        Jerome%Lavanchy%NULL%0,        Katharina%Marquardt%NULL%0,        Karim%Shaikh%NULL%0,        Hermann%Redecker%NULL%0,        Michael%Stephan%NULL%0,        Jan%Brem%NULL%0,        Bjarte%Rogdo%NULL%0,        Andre%Birkenmaier%NULL%0,        Friederike%Meyer zu Bentrup%NULL%0,        Patricia%Fodor%NULL%0,        Pascal%Locher%NULL%0,        Giovanni%Camen%NULL%0,        Martin%Siegemund%NULL%0,        Nuria%Zellweger%NULL%0,        Marie-Madlen%Jeitziner%NULL%0,        Beatrice%Jenni-Moser%NULL%0,        Christian%Bürkle%NULL%0,        Gian-Reto%Kleger%NULL%0,        Marilene%Franchitti Laurent%NULL%0,        Jean-Christophe%Laurent%NULL%0,        Tomislav%Gaspert%NULL%0,        Marija%Jovic%NULL%0,        Michael%Studhalter%NULL%0,        Christoph%Haberthuer%NULL%0,        Roger F.%Lussman%NULL%0,        Daniela%Selz%NULL%0,        Didier%Naon%NULL%0,        Romano%Mauri%NULL%0,        Samuele%Ceruti%NULL%0,        Julien%Marrel%NULL%0,        Mirko%Brenni%NULL%0,        Rolf%Ensner%NULL%0,        Nadine%Gehring%NULL%0,        Antje%Heise%NULL%0,        Tobias%Huebner%NULL%0,        Thomas A.%Neff%NULL%0,        Sara%Cereghetti%NULL%0,        Filippo%Boroli%NULL%0,        Jerome%Pugin%NULL%0,        Nandor%Marczin%NULL%0,        Joyce%Wong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Warren%Gavin%NULL%0,        Elliott%Campbell%NULL%0,        Syed-Adeel%Zaidi%NULL%0,        Neha%Gavin%NULL%0,        Lana%Dbeibo%NULL%0,        Cole%Beeler%NULL%0,        Kari%Kuebler%NULL%0,        Ahmed%Abdel-Rahman%NULL%0,        Mark%Luetkemeyer%NULL%0,        Areeba%Kara%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Vijay%Gayam%vgayam@interfaithmedical.com%0,        Muchi Ditah%Chobufo%NULL%0,        Muchi Ditah%Chobufo%NULL%0,        Mohamed A.%Merghani%NULL%0,        Mohamed A.%Merghani%NULL%0,        Shristi%Lamichhane%NULL%0,        Pavani Reddy%Garlapati%NULL%0,        Mark K.%Adler%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Cao%Y%coreGivesNoEmail%0,       Imam%Z%coreGivesNoEmail%0,       Lippi%G%coreGivesNoEmail%0,       Oran%DP%coreGivesNoEmail%0,       Shi%S%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Hai%Hu%huhai@wchscu.cn%0,        Ni%Yao%NULL%0,        Ni%Yao%NULL%0,        Yanru%Qiu%NULL%0,        John H.%Burton%NULL%0,        John H.%Burton%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jiaofeng%Huang%NULL%0,        Aiguo%Cheng%NULL%0,        Rahul%Kumar%NULL%0,        Yingying%Fang%NULL%0,        Yingying%Fang%NULL%0,        Gongping%Chen%NULL%0,        Yueyong%Zhu%NULL%0,        Su%Lin%sumer5129@fjmu.edu.cn%0,        Su%Lin%sumer5129@fjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%0,        Ju-Hyun%Kim%NULL%0,        Jin-Sung%Park%NULL%0,        Min Cheol%Chang%wheel633@ynu.ac.kr%0,        Donghwi%Park%bdome@hanmail.net%0]</t>
+  </si>
+  <si>
+    <t>[K.%Khalil%NULL%0,        K.%Agbontaen%NULL%0,        D.%McNally%NULL%0,        A.%Love%NULL%0,        S.%Mandalia%NULL%0,        W.%Banya%NULL%0,        E.%Starren%NULL%0,        R.%Dhunnookchand%NULL%0,        H.%Farne%NULL%0,        R.%Morton%NULL%0,        G.%Davies%NULL%0,        O.%Orhan%NULL%0,        D%Lai%NULL%0,        M.%Nelson%NULL%0,        P.L.%Shah%NULL%0,        J.L.%Garner%Justin.garner@chelwest.nhs.uk%0]</t>
+  </si>
+  <si>
+    <t>[Eyal%Klang%NULL%0,        Gassan%Kassim%NULL%0,        Shelly%Soffer%soffer.shelly@gmail.com%0,        Robert%Freeman%NULL%0,        Robert%Freeman%NULL%0,        Matthew A.%Levin%NULL%0,        Matthew A.%Levin%NULL%0,        David L.%Reich%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sandeep%Krishnan%NULL%0,        Kinjal%Patel%NULL%0,        Ronak%Desai%NULL%0,        Anupam%Sule%NULL%0,        Peter%Paik%NULL%0,        Ashley%Miller%NULL%0,        Alicia%Barclay%NULL%0,        Adam%Cassella%NULL%0,        Jon%Lucaj%NULL%0,        Yvonne%Royster%NULL%0,        Joffer%Hakim%NULL%0,        Zulfiqar%Ahmed%NULL%0,        Farhad%Ghoddoussi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Manisha%Bhutani%null%0,         David M.%Foureau%null%0,         Shebli%Atrash%null%0,         Peter M.%Voorhees%null%0,         Saad Z.%Usmani%null%0,       Manisha%Bhutani%null%0,       David M.%Foureau%null%0,       Shebli%Atrash%null%0,       Peter M.%Voorhees%null%0,       Saad Z.%Usmani%null%0]</t>
+  </si>
+  <si>
+    <t>[Wil%Lieberman-Cribbin%NULL%0,        Joseph%Rapp%NULL%0,        Naomi%Alpert%NULL%0,        Stephanie%Tuminello%NULL%0,        Emanuela%Taioli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Q.%Liu%NULL%0,        N. C.%Song%NULL%0,        Z. K.%Zheng%NULL%0,        J. S.%Li%NULL%0,        S. K.%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Long%NULL%0,        Lan%Nie%NULL%0,        Xiaochen%Xiang%NULL%0,        Huan%Li%NULL%0,        Xiaoli%Zhang%NULL%0,        Xiaozhi%Fu%NULL%0,        Hongwei%Ren%NULL%0,        Wanxin%Liu%NULL%0,        Qiang%Wang%wangqiang@wust.edu.cn%0,        Qingming%Wu%wuhe9224@sina.com%0,        Qingming%Wu%wuhe9224@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaomin%Luo%luoxiaomin04@163.com%0,        Wei%Zhou%NULL%0,        Xiaojie%Yan%NULL%0,        Tangxi%Guo%NULL%0,        Benchao%Wang%NULL%0,        Hongxia%Xia%NULL%0,        Lu%Ye%NULL%0,        Jun%Xiong%NULL%0,        Zongping%Jiang%NULL%0,        Yu%Liu%NULL%0,        Bicheng%Zhang%NULL%0,        Weize%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ying%Luo%NULL%0,        Liyan%Mao%NULL%0,        Xu%Yuan%NULL%0,        Ying%Xue%NULL%0,        Qun%Lin%NULL%0,        Guoxing%Tang%NULL%0,        Huijuan%Song%NULL%0,        Feng%Wang%fengwang@tjh.tjmu.edu.cn%0,        Ziyong%Sun%zysun@tjh.tjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ying%Luo%NULL%0,        Ying%Xue%NULL%0,        Liyan%Mao%NULL%0,        Xu%Yuan%NULL%0,        Qun%Lin%NULL%0,        Guoxing%Tang%NULL%0,        Huijuan%Song%NULL%0,        Feng%Wang%NULL%0,        Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chiara%Masetti%NULL%0,        Elena%Generali%NULL%0,        Francesca%Colapietro%NULL%0,        Antonio%Voza%NULL%0,        Maurizio%Cecconi%NULL%0,        Antonio%Messina%NULL%0,        Paolo%Omodei%NULL%0,        Claudio%Angelini%NULL%0,        Michele%Ciccarelli%NULL%0,        Salvatore%Badalamenti%NULL%0,        G. Walter%Canonica%NULL%0,        Ana%Lleo%ana.lleo@humanitas.it%0,        Alessio%Aghemo%NULL%0,        Alessio%Aghemo%NULL%0,        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Takahisa%Mikami%NULL%0,        Hirotaka%Miyashita%NULL%0,        Takayuki%Yamada%NULL%0,        Matthew%Harrington%NULL%0,        Daniel%Steinberg%NULL%0,        Andrew%Dunn%NULL%0,        Evan%Siau%Evan.Siau@mountsinai.org%0]</t>
+  </si>
+  <si>
+    <t>[Alexis K.%Okoh%alexis.okoh@rwjbh.org%0,        Christoph%Sossou%NULL%0,        Christoph%Sossou%NULL%0,        Neha S.%Dangayach%NULL%0,        Sherin%Meledathu%NULL%0,        Oluwakemi%Phillips%NULL%0,        Corinne%Raczek%NULL%0,        Michael%Patti%NULL%0,        Nathan%Kang%NULL%0,        Sameer A.%Hirji%NULL%0,        Charles%Cathcart%NULL%0,        Christian%Engell%NULL%0,        Marc%Cohen%NULL%0,        Sandhya%Nagarakanti%NULL%0,        Eliahu%Bishburg%NULL%0,        Harpreet S.%Grewal%NULL%0]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="yyyy mmmm"/>
-    <numFmt numFmtId="165" formatCode="yyyy mmmm d"/>
-    <numFmt numFmtId="166" formatCode="yyyy mmm d"/>
-    <numFmt numFmtId="167" formatCode="yyyy mmm"/>
+    <numFmt numFmtId="164" formatCode="yyyy\ mmmm"/>
+    <numFmt numFmtId="165" formatCode="yyyy\ mmmm\ d"/>
+    <numFmt numFmtId="166" formatCode="yyyy\ mmm\ d"/>
+    <numFmt numFmtId="167" formatCode="yyyy\ mmm"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -2044,7 +2387,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2054,53 +2397,56 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -2290,20 +2636,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2329,15 +2680,15 @@
         <v>70</v>
       </c>
       <c r="I1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>43952.0</v>
+        <v>43952</v>
       </c>
       <c r="C2" t="s">
         <v>71</v>
@@ -2346,146 +2697,146 @@
         <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>372</v>
+        <v>486</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" t="s">
         <v>75</v>
       </c>
-      <c r="H2" t="s">
-        <v>76</v>
-      </c>
       <c r="I2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>43977.0</v>
+        <v>43977</v>
       </c>
       <c r="C3" t="s">
-        <v>311</v>
+        <v>259</v>
       </c>
       <c r="D3" t="s">
-        <v>312</v>
+        <v>260</v>
       </c>
       <c r="E3" t="s">
-        <v>374</v>
+        <v>487</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>325</v>
       </c>
       <c r="H3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="5">
-        <v>44007.0</v>
+        <v>44007</v>
       </c>
       <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" t="s">
         <v>78</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>488</v>
+      </c>
+      <c r="F4" t="s">
         <v>79</v>
       </c>
-      <c r="E4" t="s">
-        <v>375</v>
-      </c>
-      <c r="F4" t="s">
-        <v>81</v>
-      </c>
       <c r="G4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I4" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="3">
-        <v>43952.0</v>
+        <v>43952</v>
       </c>
       <c r="C5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" t="s">
+        <v>489</v>
+      </c>
+      <c r="F5" t="s">
         <v>83</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" t="s">
         <v>84</v>
       </c>
-      <c r="E5" t="s">
-        <v>376</v>
-      </c>
-      <c r="F5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G5" t="s">
-        <v>75</v>
-      </c>
-      <c r="H5" t="s">
-        <v>87</v>
-      </c>
       <c r="I5" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="6">
-        <v>44197.0</v>
+        <v>44197</v>
       </c>
       <c r="C6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" t="s">
+        <v>490</v>
+      </c>
+      <c r="F6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" t="s">
         <v>88</v>
       </c>
-      <c r="D6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" t="s">
-        <v>378</v>
-      </c>
-      <c r="F6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H6" t="s">
-        <v>92</v>
-      </c>
       <c r="I6" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="6">
-        <v>44136.0</v>
+        <v>44136</v>
       </c>
       <c r="C7" t="s">
-        <v>318</v>
+        <v>261</v>
       </c>
       <c r="D7" t="s">
         <v>64</v>
@@ -2500,564 +2851,564 @@
         <v>69</v>
       </c>
       <c r="H7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="5">
-        <v>44015.0</v>
+        <v>44015</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E8" t="s">
-        <v>379</v>
+        <v>491</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H8" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I8" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="5">
-        <v>43989.0</v>
+        <v>43989</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E9" t="s">
-        <v>381</v>
+        <v>492</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="I9" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="6">
-        <v>44075.0</v>
+        <v>44075</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E10" t="s">
-        <v>382</v>
+        <v>493</v>
       </c>
       <c r="F10" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="G10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H10" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="I10" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="6">
-        <v>43983.0</v>
+        <v>43983</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D11" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E11" t="s">
-        <v>383</v>
+        <v>494</v>
       </c>
       <c r="F11" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="G11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H11" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="I11" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="5">
-        <v>44154.0</v>
+        <v>44154</v>
       </c>
       <c r="C12" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D12" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E12" t="s">
-        <v>384</v>
+        <v>495</v>
       </c>
       <c r="F12" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="G12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I12" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="6">
-        <v>44013.0</v>
+        <v>44013</v>
       </c>
       <c r="C13" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D13" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E13" t="s">
-        <v>385</v>
+        <v>496</v>
       </c>
       <c r="F13" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="G13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H13" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="I13" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="6">
-        <v>44136.0</v>
+        <v>44136</v>
       </c>
       <c r="C14" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D14" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="E14" t="s">
-        <v>386</v>
+        <v>497</v>
       </c>
       <c r="F14" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="G14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H14" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="I14" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="5">
-        <v>44018.0</v>
+        <v>44018</v>
       </c>
       <c r="C15" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="D15" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="E15" t="s">
-        <v>387</v>
+        <v>498</v>
       </c>
       <c r="F15" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="G15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H15" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="I15" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="6">
-        <v>43983.0</v>
+        <v>43983</v>
       </c>
       <c r="C16" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="D16" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="E16" t="s">
-        <v>388</v>
+        <v>499</v>
       </c>
       <c r="F16" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="G16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H16" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="I16" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="5">
-        <v>44015.0</v>
+        <v>44015</v>
       </c>
       <c r="C17" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="D17" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="E17" t="s">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="F17" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="G17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H17" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="I17" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="6">
-        <v>44044.0</v>
+        <v>44044</v>
       </c>
       <c r="C18" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="D18" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="E18" t="s">
-        <v>390</v>
+        <v>501</v>
       </c>
       <c r="F18" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I18" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="5">
-        <v>43918.0</v>
+        <v>43918</v>
       </c>
       <c r="C19" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="D19" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="E19" t="s">
-        <v>391</v>
+        <v>502</v>
       </c>
       <c r="F19" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="G19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I19" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="5">
-        <v>44030.0</v>
+        <v>44030</v>
       </c>
       <c r="C20" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="D20" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E20" t="s">
-        <v>392</v>
+        <v>503</v>
       </c>
       <c r="F20" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="G20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H20" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="I20" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="5">
-        <v>44002.0</v>
+        <v>44002</v>
       </c>
       <c r="C21" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D21" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E21" t="s">
-        <v>393</v>
+        <v>504</v>
       </c>
       <c r="F21" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="G21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H21" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="I21" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="6">
-        <v>44044.0</v>
+        <v>44044</v>
       </c>
       <c r="C22" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="D22" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="E22" t="s">
-        <v>394</v>
+        <v>505</v>
       </c>
       <c r="F22" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="G22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I22" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="5">
-        <v>44007.0</v>
+        <v>44007</v>
       </c>
       <c r="C23" t="s">
-        <v>334</v>
+        <v>262</v>
       </c>
       <c r="D23" t="s">
-        <v>335</v>
+        <v>263</v>
       </c>
       <c r="E23" t="s">
-        <v>395</v>
+        <v>506</v>
       </c>
       <c r="F23" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="G23" t="s">
-        <v>69</v>
+        <v>325</v>
       </c>
       <c r="H23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I23" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="6">
-        <v>44013.0</v>
+        <v>44013</v>
       </c>
       <c r="C24" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="D24" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="E24" t="s">
-        <v>396</v>
+        <v>507</v>
       </c>
       <c r="F24" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="G24" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" t="s">
         <v>75</v>
       </c>
-      <c r="H24" t="s">
-        <v>76</v>
-      </c>
       <c r="I24" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="5">
-        <v>43986.0</v>
+        <v>43986</v>
       </c>
       <c r="C25" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="D25" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="E25" t="s">
-        <v>397</v>
+        <v>508</v>
       </c>
       <c r="F25" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="G25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H25" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="I25" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="5">
-        <v>44007.0</v>
+        <v>44007</v>
       </c>
       <c r="C26" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="D26" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="E26" t="s">
-        <v>398</v>
+        <v>509</v>
       </c>
       <c r="F26" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="G26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H26" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="I26" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
@@ -3065,729 +3416,729 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="D27" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="E27" t="s">
-        <v>399</v>
+        <v>510</v>
       </c>
       <c r="F27" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="G27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I27" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="6">
-        <v>44105.0</v>
+        <v>44105</v>
       </c>
       <c r="C28" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="D28" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="E28" t="s">
-        <v>400</v>
+        <v>511</v>
       </c>
       <c r="F28" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="G28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H28" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="I28" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="6">
-        <v>43983.0</v>
+        <v>43983</v>
       </c>
       <c r="C29" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="D29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E29" t="s">
-        <v>401</v>
+        <v>512</v>
       </c>
       <c r="F29" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="G29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H29" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="I29" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B30" s="6">
-        <v>44013.0</v>
+        <v>44013</v>
       </c>
       <c r="C30" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="D30" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="E30" t="s">
-        <v>402</v>
+        <v>513</v>
       </c>
       <c r="F30" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="G30" t="s">
+        <v>74</v>
+      </c>
+      <c r="H30" t="s">
         <v>75</v>
       </c>
-      <c r="H30" t="s">
-        <v>76</v>
-      </c>
       <c r="I30" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B31" s="5">
-        <v>43916.0</v>
+        <v>43916</v>
       </c>
       <c r="C31" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="D31" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="E31" t="s">
-        <v>403</v>
+        <v>514</v>
       </c>
       <c r="F31" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="G31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H31" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="I31" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B32" s="6">
-        <v>44075.0</v>
+        <v>44075</v>
       </c>
       <c r="C32" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="D32" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="E32" t="s">
-        <v>404</v>
+        <v>515</v>
       </c>
       <c r="F32" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="G32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H32" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="I32" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B33" s="6">
-        <v>44044.0</v>
+        <v>44044</v>
       </c>
       <c r="C33" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="D33" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="E33" t="s">
-        <v>405</v>
+        <v>516</v>
       </c>
       <c r="F33" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="G33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H33" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="I33" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B34" s="5">
-        <v>43987.0</v>
+        <v>43987</v>
       </c>
       <c r="C34" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="D34" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="E34" t="s">
-        <v>406</v>
+        <v>517</v>
       </c>
       <c r="F34" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="G34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I34" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B35" s="8">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="C35" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="D35" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="E35" t="s">
-        <v>407</v>
+        <v>518</v>
       </c>
       <c r="F35" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="G35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H35" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="I35" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B36" s="5">
-        <v>44023.0</v>
+        <v>44023</v>
       </c>
       <c r="C36" t="s">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="D36" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="E36" t="s">
-        <v>408</v>
+        <v>519</v>
       </c>
       <c r="F36" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="G36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H36" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="I36" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B37" s="6">
-        <v>44044.0</v>
+        <v>44044</v>
       </c>
       <c r="C37" t="s">
-        <v>222</v>
+        <v>190</v>
       </c>
       <c r="D37" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="E37" t="s">
-        <v>409</v>
+        <v>520</v>
       </c>
       <c r="F37" t="s">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="G37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H37" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="I37" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B38" s="6">
-        <v>44228.0</v>
+        <v>44228</v>
       </c>
       <c r="C38" t="s">
-        <v>226</v>
+        <v>193</v>
       </c>
       <c r="D38" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="E38" t="s">
-        <v>410</v>
+        <v>521</v>
       </c>
       <c r="F38" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="G38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I38" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B39" s="6">
-        <v>44228.0</v>
+        <v>44228</v>
       </c>
       <c r="C39" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="D39" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="E39" t="s">
-        <v>411</v>
+        <v>522</v>
       </c>
       <c r="F39" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="G39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H39" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="I39" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B40" s="6">
-        <v>44228.0</v>
+        <v>44228</v>
       </c>
       <c r="C40" t="s">
-        <v>353</v>
+        <v>264</v>
       </c>
       <c r="D40" t="s">
         <v>64</v>
       </c>
       <c r="E40" t="s">
-        <v>412</v>
+        <v>523</v>
       </c>
       <c r="F40" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="G40" t="s">
-        <v>69</v>
+        <v>325</v>
       </c>
       <c r="H40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I40" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B41" s="6">
-        <v>43983.0</v>
+        <v>43983</v>
       </c>
       <c r="C41" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="D41" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="E41" t="s">
-        <v>413</v>
+        <v>524</v>
       </c>
       <c r="F41" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="G41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H41" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="I41" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B42" s="6">
-        <v>44105.0</v>
+        <v>44105</v>
       </c>
       <c r="C42" t="s">
-        <v>239</v>
+        <v>203</v>
       </c>
       <c r="D42" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c r="E42" t="s">
-        <v>414</v>
+        <v>525</v>
       </c>
       <c r="F42" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="G42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H42" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="I42" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B43" s="6">
-        <v>44075.0</v>
+        <v>44075</v>
       </c>
       <c r="C43" t="s">
-        <v>244</v>
+        <v>207</v>
       </c>
       <c r="D43" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="E43" t="s">
-        <v>415</v>
+        <v>526</v>
       </c>
       <c r="F43" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="G43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H43" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="I43" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B44" s="6">
-        <v>44075.0</v>
+        <v>44075</v>
       </c>
       <c r="C44" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="D44" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E44" t="s">
-        <v>416</v>
+        <v>527</v>
       </c>
       <c r="F44" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="G44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H44" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="I44" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B45" s="6">
-        <v>44075.0</v>
+        <v>44075</v>
       </c>
       <c r="C45" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
       <c r="D45" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="E45" t="s">
-        <v>417</v>
+        <v>528</v>
       </c>
       <c r="F45" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
       <c r="G45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H45" t="s">
-        <v>257</v>
+        <v>217</v>
       </c>
       <c r="I45" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B46" s="6">
-        <v>44166.0</v>
+        <v>44166</v>
       </c>
       <c r="C46" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
       <c r="D46" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E46" t="s">
-        <v>418</v>
+        <v>529</v>
       </c>
       <c r="F46" t="s">
-        <v>260</v>
+        <v>219</v>
       </c>
       <c r="G46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H46" t="s">
-        <v>261</v>
+        <v>220</v>
       </c>
       <c r="I46" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B47" s="6">
-        <v>44105.0</v>
+        <v>44105</v>
       </c>
       <c r="C47" t="s">
-        <v>262</v>
+        <v>221</v>
       </c>
       <c r="D47" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E47" t="s">
-        <v>263</v>
+        <v>222</v>
       </c>
       <c r="F47" t="s">
-        <v>264</v>
+        <v>223</v>
       </c>
       <c r="G47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H47" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="I47" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B48" s="6">
-        <v>43831.0</v>
+        <v>43831</v>
       </c>
       <c r="C48" t="s">
-        <v>265</v>
+        <v>224</v>
       </c>
       <c r="D48" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="E48" t="s">
-        <v>419</v>
+        <v>530</v>
       </c>
       <c r="F48" t="s">
         <v>49</v>
       </c>
       <c r="G48" t="s">
-        <v>268</v>
+        <v>226</v>
       </c>
       <c r="H48" t="s">
-        <v>269</v>
+        <v>227</v>
       </c>
       <c r="I48" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B49" s="6">
-        <v>44166.0</v>
+        <v>44166</v>
       </c>
       <c r="C49" t="s">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="D49" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E49" t="s">
-        <v>420</v>
+        <v>531</v>
       </c>
       <c r="F49" t="s">
-        <v>272</v>
+        <v>229</v>
       </c>
       <c r="G49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I49" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B50" s="5">
-        <v>44012.0</v>
+        <v>44012</v>
       </c>
       <c r="C50" t="s">
-        <v>273</v>
+        <v>230</v>
       </c>
       <c r="D50" t="s">
-        <v>274</v>
+        <v>231</v>
       </c>
       <c r="E50" t="s">
-        <v>421</v>
+        <v>532</v>
       </c>
       <c r="F50" t="s">
-        <v>276</v>
+        <v>232</v>
       </c>
       <c r="G50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H50" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="I50" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B51" s="5">
-        <v>43998.0</v>
+        <v>43998</v>
       </c>
       <c r="C51" t="s">
-        <v>278</v>
+        <v>234</v>
       </c>
       <c r="D51" t="s">
-        <v>279</v>
+        <v>235</v>
       </c>
       <c r="E51" t="s">
-        <v>422</v>
+        <v>533</v>
       </c>
       <c r="F51" t="s">
-        <v>281</v>
+        <v>236</v>
       </c>
       <c r="G51" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H51" t="s">
-        <v>282</v>
+        <v>237</v>
       </c>
       <c r="I51" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B52" s="5">
-        <v>44021.0</v>
+        <v>44021</v>
       </c>
       <c r="C52" t="s">
         <v>63</v>
@@ -3805,245 +4156,245 @@
         <v>69</v>
       </c>
       <c r="H52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I52" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B53" s="5">
-        <v>44154.0</v>
+        <v>44154</v>
       </c>
       <c r="C53" t="s">
-        <v>283</v>
+        <v>238</v>
       </c>
       <c r="D53" t="s">
-        <v>284</v>
+        <v>239</v>
       </c>
       <c r="E53" t="s">
-        <v>423</v>
+        <v>534</v>
       </c>
       <c r="F53" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="G53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I53" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B54" s="6">
-        <v>44105.0</v>
+        <v>44105</v>
       </c>
       <c r="C54" t="s">
-        <v>287</v>
+        <v>241</v>
       </c>
       <c r="D54" t="s">
-        <v>288</v>
+        <v>242</v>
       </c>
       <c r="E54" t="s">
-        <v>424</v>
+        <v>535</v>
       </c>
       <c r="F54" t="s">
-        <v>290</v>
+        <v>243</v>
       </c>
       <c r="G54" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H54" t="s">
-        <v>291</v>
+        <v>244</v>
       </c>
       <c r="I54" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B55" s="5">
-        <v>44008.0</v>
+        <v>44008</v>
       </c>
       <c r="C55" t="s">
-        <v>292</v>
+        <v>245</v>
       </c>
       <c r="D55" t="s">
-        <v>293</v>
+        <v>246</v>
       </c>
       <c r="E55" t="s">
-        <v>425</v>
+        <v>536</v>
       </c>
       <c r="F55" t="s">
-        <v>295</v>
+        <v>247</v>
       </c>
       <c r="G55" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H55" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="I55" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B56" s="6">
-        <v>44075.0</v>
+        <v>44075</v>
       </c>
       <c r="C56" t="s">
-        <v>296</v>
+        <v>248</v>
       </c>
       <c r="D56" t="s">
-        <v>297</v>
+        <v>249</v>
       </c>
       <c r="E56" t="s">
-        <v>426</v>
+        <v>537</v>
       </c>
       <c r="F56" t="s">
-        <v>299</v>
+        <v>250</v>
       </c>
       <c r="G56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H56" t="s">
-        <v>300</v>
+        <v>251</v>
       </c>
       <c r="I56" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B57" s="6">
-        <v>44197.0</v>
+        <v>44197</v>
       </c>
       <c r="C57" t="s">
-        <v>301</v>
+        <v>252</v>
       </c>
       <c r="D57" t="s">
-        <v>302</v>
+        <v>253</v>
       </c>
       <c r="E57" t="s">
-        <v>427</v>
+        <v>538</v>
       </c>
       <c r="F57" t="s">
-        <v>304</v>
+        <v>254</v>
       </c>
       <c r="G57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H57" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="I57" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B58" s="5">
-        <v>43992.0</v>
+        <v>43992</v>
       </c>
       <c r="C58" t="s">
-        <v>305</v>
+        <v>255</v>
       </c>
       <c r="D58" t="s">
-        <v>306</v>
+        <v>256</v>
       </c>
       <c r="E58" t="s">
-        <v>428</v>
+        <v>539</v>
       </c>
       <c r="F58" t="s">
-        <v>308</v>
+        <v>257</v>
       </c>
       <c r="G58" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H58" t="s">
-        <v>309</v>
+        <v>258</v>
       </c>
       <c r="I58" t="s">
-        <v>377</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2"/>
-    <hyperlink r:id="rId2" ref="A3"/>
-    <hyperlink r:id="rId3" ref="A4"/>
-    <hyperlink r:id="rId4" ref="A5"/>
-    <hyperlink r:id="rId5" ref="A6"/>
-    <hyperlink r:id="rId6" ref="A7"/>
-    <hyperlink r:id="rId7" ref="A8"/>
-    <hyperlink r:id="rId8" ref="A9"/>
-    <hyperlink r:id="rId9" ref="A10"/>
-    <hyperlink r:id="rId10" ref="A11"/>
-    <hyperlink r:id="rId11" ref="A12"/>
-    <hyperlink r:id="rId12" ref="A13"/>
-    <hyperlink r:id="rId13" ref="A14"/>
-    <hyperlink r:id="rId14" ref="A15"/>
-    <hyperlink r:id="rId15" ref="A16"/>
-    <hyperlink r:id="rId16" ref="A17"/>
-    <hyperlink r:id="rId17" ref="A18"/>
-    <hyperlink r:id="rId18" ref="A19"/>
-    <hyperlink r:id="rId19" ref="A20"/>
-    <hyperlink r:id="rId20" ref="A21"/>
-    <hyperlink r:id="rId21" ref="A22"/>
-    <hyperlink r:id="rId22" ref="A23"/>
-    <hyperlink r:id="rId23" ref="A24"/>
-    <hyperlink r:id="rId24" ref="A25"/>
-    <hyperlink r:id="rId25" ref="A26"/>
-    <hyperlink r:id="rId26" ref="A27"/>
-    <hyperlink r:id="rId27" ref="A28"/>
-    <hyperlink r:id="rId28" ref="A29"/>
-    <hyperlink r:id="rId29" ref="A30"/>
-    <hyperlink r:id="rId30" ref="A31"/>
-    <hyperlink r:id="rId31" ref="A32"/>
-    <hyperlink r:id="rId32" ref="A33"/>
-    <hyperlink r:id="rId33" ref="A34"/>
-    <hyperlink r:id="rId34" ref="A36"/>
-    <hyperlink r:id="rId35" ref="A37"/>
-    <hyperlink r:id="rId36" ref="A38"/>
-    <hyperlink r:id="rId37" ref="A39"/>
-    <hyperlink r:id="rId38" ref="A40"/>
-    <hyperlink r:id="rId39" ref="A41"/>
-    <hyperlink r:id="rId40" ref="A42"/>
-    <hyperlink r:id="rId41" ref="A43"/>
-    <hyperlink r:id="rId42" ref="A44"/>
-    <hyperlink r:id="rId43" ref="A45"/>
-    <hyperlink r:id="rId44" ref="A46"/>
-    <hyperlink r:id="rId45" ref="A47"/>
-    <hyperlink r:id="rId46" ref="A48"/>
-    <hyperlink r:id="rId47" ref="A49"/>
-    <hyperlink r:id="rId48" ref="A50"/>
-    <hyperlink r:id="rId49" ref="A51"/>
-    <hyperlink r:id="rId50" ref="A52"/>
-    <hyperlink r:id="rId51" ref="A53"/>
-    <hyperlink r:id="rId52" ref="A54"/>
-    <hyperlink r:id="rId53" ref="A55"/>
-    <hyperlink r:id="rId54" ref="A56"/>
-    <hyperlink r:id="rId55" ref="A57"/>
-    <hyperlink r:id="rId56" ref="A58"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="A23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="A24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="A25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="A26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="A27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="A28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="A29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="A30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="A31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="A32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="A33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="A34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="A36" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="A37" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="A38" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="A39" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="A40" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="A41" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="A42" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="A43" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="A44" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="A45" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="A46" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="A47" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="A48" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="A49" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="A50" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="A51" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="A52" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="A53" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="A54" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="A55" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="A56" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="A57" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="A58" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
   </hyperlinks>
-  <drawing r:id="rId57"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Covid_19_Dataset_and_References/References/44.xlsx
+++ b/Covid_19_Dataset_and_References/References/44.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2902" uniqueCount="653">
   <si>
     <t>Doi</t>
   </si>
@@ -2345,6 +2345,345 @@
   </si>
   <si>
     <t>[Alexis K.%Okoh%alexis.okoh@rwjbh.org%0,        Christoph%Sossou%NULL%0,        Christoph%Sossou%NULL%0,        Neha S.%Dangayach%NULL%0,        Sherin%Meledathu%NULL%0,        Oluwakemi%Phillips%NULL%0,        Corinne%Raczek%NULL%0,        Michael%Patti%NULL%0,        Nathan%Kang%NULL%0,        Sameer A.%Hirji%NULL%0,        Charles%Cathcart%NULL%0,        Christian%Engell%NULL%0,        Marc%Cohen%NULL%0,        Sandhya%Nagarakanti%NULL%0,        Eliahu%Bishburg%NULL%0,        Harpreet S.%Grewal%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%0,         Lian%Yang%NULL%0,         Yuncheng%Li%NULL%0,         Bo%Liang%NULL%0,         Lin%Li%NULL%0,         Tianhe%Ye%NULL%0,         Lingli%Li%NULL%0,         Dehan%Liu%NULL%0,         Shan%Gui%NULL%0,         Yu%Hu%NULL%0,         Chuansheng%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,        Becker%L.B.%coreGivesNoEmail%0,        Chelico%J.D.%coreGivesNoEmail%0,        Cohen%S.L.%coreGivesNoEmail%0,        Cookingham%J.%coreGivesNoEmail%0,        Coppa%K.%coreGivesNoEmail%0,        Crawford%J.M.%coreGivesNoEmail%0,        Davidson%K.W.%coreGivesNoEmail%0,        Diefenbach%M.A.%coreGivesNoEmail%0,        Dominello%A.J.%coreGivesNoEmail%0,        Duer-Hefele%J.%coreGivesNoEmail%0,        Falzon%L.%coreGivesNoEmail%0,        Gitlin%J.%coreGivesNoEmail%0,        Hajizadeh%N.%coreGivesNoEmail%0,        Harvin%T.G.%coreGivesNoEmail%0,        Hirsch%J.S.%coreGivesNoEmail%0,        Hirschwerk%D.A.%coreGivesNoEmail%0,        Kim%E.J.%coreGivesNoEmail%0,        Kozel%Z.M.%coreGivesNoEmail%0,        Marrast%L.M.%coreGivesNoEmail%0,        McGinn%T.%coreGivesNoEmail%0,        Mogavero%J.N.%coreGivesNoEmail%0,        Narasimhan%M.%coreGivesNoEmail%0,        Osorio%G.A.%coreGivesNoEmail%0,        Qiu%M.%coreGivesNoEmail%0,        Richardson%S.%coreGivesNoEmail%0,        Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Mario%Rivera-Izquierdo%NULL%0,         María%del Carmen Valero-Ubierna%NULL%0,         María%del Carmen Valero-Ubierna%NULL%0,         Juan Luis%R-delAmo%NULL%0,         Miguel Ángel%Fernández-García%NULL%0,         Silvia%Martínez-Diz%NULL%0,         Arezu%Tahery-Mahmoud%NULL%0,         Marta%Rodríguez-Camacho%NULL%0,         Ana Belén%Gámiz-Molina%NULL%0,         Nicolás%Barba-Gyengo%NULL%0,         Pablo%Gámez-Baeza%NULL%0,         Celia%Cabrero-Rodríguez%NULL%0,         Pedro Antonio%Guirado-Ruiz%NULL%0,         Divina Tatiana%Martín-Romero%NULL%0,         Antonio Jesús%Láinez-Ramos-Bossini%NULL%0,         María Rosa%Sánchez-Pérez%NULL%0,         José%Mancera-Romero%NULL%0,         Miguel%García-Martín%NULL%0,         Luis Miguel%Martín-delosReyes%NULL%0,         Virginia%Martínez-Ruiz%NULL%0,         Virginia%Martínez-Ruiz%NULL%0,         Pablo%Lardelli-Claret%NULL%0,         Eladio%Jiménez-Mejías%NULL%0,         Muhammad%Adrish%NULL%0,         Muhammad%Adrish%NULL%0,         NULL%NULL%NULL%0,         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,         Kun%Yang%NULL%0,         Kun%Yang%NULL%0,         Wenxia%Wang%NULL%0,         Wenxia%Wang%NULL%0,         Lingyu%Jiang%NULL%0,         Lingyu%Jiang%NULL%0,         Jianxin%Song%songsingsjx@sina.com%0,         Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Grace%Salacup%salacupg@einstein.edu%0,         Kevin Bryan%Lo%NULL%0,         Kevin Bryan%Lo%NULL%0,         Fahad%Gul%NULL%0,         Eric%Peterson%NULL%0,         Robert%De Joy%NULL%0,         Ruchika%Bhargav%NULL%0,         Jerald%Pelayo%NULL%0,         Jeri%Albano%NULL%0,         Zurab%Azmaiparashvili%NULL%0,         Sadia%Benzaquen%NULL%0,         Gabriel%Patarroyo‐Aponte%NULL%0,         Janani%Rangaswami%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yufeng%Shang%NULL%0,         Tao%Liu%NULL%0,         Yongchang%Wei%NULL%0,         Jingfeng%Li%NULL%0,         Liang%Shao%NULL%0,         Minghui%Liu%NULL%0,         Yongxi%Zhang%NULL%0,         Zhigang%Zhao%NULL%0,         Haibo%Xu%NULL%0,         Zhiyong%Peng%NULL%0,         Fuling%Zhou%zhoufuling@whu.edu.cn%0,         Xinghuan%Wang%wangxinghuan@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,         Mu%Qin%qinmuae@163.com%0,         Yuli%Cai%NULL%0,         Tao%Liu%NULL%0,         Bo%Shen%NULL%0,         Fan%Yang%NULL%0,         Sheng%Cao%NULL%0,         Xu%Liu%NULL%0,         Xu%Liu%NULL%0,         Yaozu%Xiang%NULL%0,         Qinyan%Zhao%NULL%0,         He%Huang%huanghe1977@whu.edu.cn%0,         Bo%Yang%yybb112@whu.edu.cn%0,         Congxin%Huang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rita de Cássia Menezes%Soares%NULL%0,         Larissa Rodrigues%Mattos%NULL%0,         Letícia Martins%Raposo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,         Ruoqi%Ning%NULL%0,         Yu%Tao%NULL%0,         Chong%Yu%NULL%0,         Xiaoyan%Deng%NULL%0,         Caili%Zhao%NULL%0,         Silu%Meng%NULL%0,         Fangxu%Tang%89650793@qq.com%0,         Dong%Xu%89650793@qq.com%0,         Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Kun%Wang%NULL%0,         Peiyuan%Zuo%NULL%0,         Yuwei%Liu%NULL%0,         Meng%Zhang%NULL%0,         Xiaofang%Zhao%NULL%0,         Songpu%Xie%NULL%0,         Hao%Zhang%NULL%0,         Xinglin%Chen%NULL%0,         Chengyun%Liu%chengyunliu@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Bo%XU%NULL%0,         Cun-yu%FAN%NULL%0,         An-lu%WANG%NULL%0,         Yi-long%ZOU%NULL%0,         Yi-han%YU%NULL%0,         Cong%HE%NULL%0,         Wen-guang%XIA%NULL%0,         Ji-xian%ZHANG%NULL%0,         Qing%MIAO%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xisheng%Yan%NULL%0,         Fen%Li%NULL%0,         Xiao%Wang%NULL%0,         Jie%Yan%NULL%0,         Fen%Zhu%NULL%0,         Shifan%Tang%NULL%0,         Yingzhong%Deng%NULL%0,         Hua%Wang%NULL%0,         Rui%Chen%NULL%0,         Zhili%Yu%NULL%0,         Yaping%Li%NULL%0,         Jingzhou%Shang%NULL%0,         Lingjun%Zeng%NULL%0,         Jie%Zhao%NULL%0,         Chaokun%Guan%NULL%0,         Qiaomei%Liu%NULL%0,         Haifeng%Chen%NULL%0,         Wei%Gong%NULL%0,         Xin%Huang%NULL%0,         Yu‐Jiao%Zhang%NULL%0,         Jianguang%Liu%NULL%0,         Xiaoyan%Dong%NULL%0,         Wen%Zheng%zhengwen12@mails.jlu.edu.cn%0,         Shaoping%Nie%spnie@126.com%0,         Dongsheng%Li%dongshengli196809@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qing%Yang%NULL%0,         Ying%Zhou%NULL%0,         Xinrong%Wang%NULL%0,         Shan%Gao%NULL%0,         Yang%Xiao%NULL%0,         Weiming%Zhang%NULL%0,         Yi%Hu%huyizxyy@163.com%0,         Yafei%Wang%wyf_527@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,         Qingyu%Yang%NULL%0,         Yaxin%Wang%NULL%0,         Yongran%Wu%NULL%0,         Jiqian%Xu%NULL%0,         Yuan%Yu%NULL%0,         You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wenjing%Ye%yewenjing@xinhuamed.com.cn%0,         Guoxi%Chen%4799082@qq.com%0,         Xiaopan%Li%xiaopanli0224@126.com%0,         Xing%Lan%474137452@qq.com%0,         Chen%Ji%c.ji.3@warwick.ac.uk%0,         Min%Hou%min-hou710@hotmail.com%0,         Di%Zhang%zhangdizhangdi1234@163.com%0,         Guangwang%Zeng%785663609@qq.com%0,         Yaling%Wang%953822402@qq.com%0,         Cheng%Xu%xucheng112358@126.com%0,         Weiwei%Lu%luweiwei100@126.com%0,         Ruolin%Cui%crlqwerty@163.com%0,         Yuyang%Cai%caiyuyang@sjtu.edu.cn%0,         Hai%Huang%1220775601@qq.com%0,         Ling%Yang%yangling01@xinhuamed.com.cn%0]</t>
+  </si>
+  <si>
+    <t>[Caizheng%Yu%NULL%0,         Qing%Lei%NULL%0,         Wenkai%Li%NULL%0,         Xiong%Wang%NULL%0,         Wei%Liu%NULL%0,         Xionglin%Fan%NULL%0,         Wengang%Li%228907211@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,         Ting%Yu%NULL%0,         Ronghui%Du%NULL%0,         Guohui%Fan%NULL%0,         Ying%Liu%NULL%0,         Zhibo%Liu%NULL%0,         Jie%Xiang%NULL%0,         Yeming%Wang%NULL%0,         Bin%Song%NULL%0,         Xiaoying%Gu%NULL%0,         Lulu%Guan%NULL%0,         Yuan%Wei%NULL%0,         Hui%Li%NULL%0,         Xudong%Wu%NULL%0,         Jiuyang%Xu%NULL%0,         Shengjin%Tu%NULL%0,         Yi%Zhang%NULL%0,         Hua%Chen%NULL%0,         Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Moran%Amit%NULL%0,         Alex%Sorkin%NULL%0,         Jacob%Chen%NULL%0,         Barak%Cohen%NULL%0,         Barak%Cohen%NULL%0,         Dana%Karol%NULL%0,         Dana%Karol%NULL%0,         Avishai M%Tsur%NULL%0,         Shaul%Lev%NULL%0,         Shaul%Lev%NULL%0,         Tal%Rozenblat%NULL%0,         Ayana%Dvir%NULL%0,         Ayana%Dvir%NULL%0,         Geva%Landau%NULL%0,         Lidar%Fridrich%NULL%0,         Lidar%Fridrich%NULL%0,         Elon%Glassberg%NULL%0,         Shani%Kesari%NULL%0,         Sigal%Sviri%NULL%0,         Ram%Gelman%NULL%0,         Asaf%Miller%NULL%0,         Danny%Epstein%NULL%0,         Ronny%Ben-Avi%NULL%0,         Ronny%Ben-Avi%NULL%0,         Moshe%Matan%NULL%0,         Daniel J.%Jakobson%NULL%0,         Daniel J.%Jakobson%NULL%0,         Tarif%Bader%NULL%0,         Tarif%Bader%NULL%0,         David%Dahan%NULL%0,         David%Dahan%NULL%0,         Daniel A.%King%NULL%0,         Anat%Ben-Ari%NULL%0,         Arie%Soroksky%NULL%0,         Alon%Bar%NULL%0,         Alon%Bar%NULL%0,         Noam%Fink%NULL%0,         Pierre%Singer%NULL%0,         Avi%Benov%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,         John R%Adler%NULL%0,         Muhammad Sohaib%Asghar%NULL%0,         Muhammad Sohaib%Asghar%NULL%0,         Syed Jawad%Haider Kazmi%NULL%0,         Noman%Ahmed Khan%NULL%0,         Mohammed%Akram%NULL%0,         Salman%Ahmed Khan%NULL%0,         Uzma%Rasheed%NULL%0,         Maira%Hassan%NULL%0,         Gul Muhammad%Memon%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pedro%Baqui%NULL%0,         Ioana%Bica%NULL%0,         Valerio%Marra%marra@cosmo-ufes.org%0,         Ari%Ercole%NULL%0,         Mihaela%van der Schaar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anesi%Adriano%coreGivesNoEmail%0,        Bettinardi%Alessandra%coreGivesNoEmail%0,        Bonetti%Graziella%coreGivesNoEmail%0,        Borrelli%Gianluca%coreGivesNoEmail%0,        Fiordalisi%Gianfranco%coreGivesNoEmail%0,        Lippi%Giuseppe%coreGivesNoEmail%0,        Manelli%Filippo%coreGivesNoEmail%0,        Marino%Antonio%coreGivesNoEmail%0,        Menolfi%Annamaria%coreGivesNoEmail%0,        Patroni%Andrea%coreGivesNoEmail%0,        Saggini%Sara%coreGivesNoEmail%0,        Volpi%Roberta%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Andrea%Borghesi%NULL%0,         Angelo%Zigliani%NULL%0,         Salvatore%Golemi%NULL%0,         Nicola%Carapella%NULL%0,         Patrizia%Maculotti%NULL%0,         Davide%Farina%NULL%0,         Roberto%Maroldi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alberto M.%Borobia%NULL%0,         Antonio J.%Carcas%NULL%0,         Antonio J.%Carcas%NULL%0,         Francisco%Arnalich%NULL%0,         Rodolfo%Álvarez-Sala%NULL%0,         Rodolfo%Álvarez-Sala%NULL%0,         Jaime%Monserrat-Villatoro%NULL%0,         Manuel%Quintana%NULL%0,         Juan Carlos%Figueira%NULL%0,         Rosario M.%Torres Santos-Olmo%NULL%0,         Julio%García-Rodríguez%NULL%0,         Julio%García-Rodríguez%NULL%0,         Alberto%Martín-Vega%NULL%0,         Antonio%Buño%NULL%0,         Elena%Ramírez%NULL%0,         Gonzalo%Martínez-Alés%NULL%0,         Gonzalo%Martínez-Alés%NULL%0,         Nicolás%García-Arenzana%NULL%0,         M. Concepción%Núñez%NULL%0,         M. Concepción%Núñez%NULL%0,         Milagros%Martí-de-Gracia%NULL%0,         Francisco%Moreno Ramos%NULL%0,         Francisco%Reinoso-Barbero%NULL%0,         Alejandro%Martin-Quiros%NULL%0,         Angélica%Rivera Núñez%NULL%0,         Jesús%Mingorance%NULL%0,         Carlos J.%Carpio Segura%NULL%0,         Carlos J.%Carpio Segura%NULL%0,         Daniel%Prieto Arribas%NULL%0,         Esther%Rey Cuevas%NULL%0,         Concepción%Prados Sánchez%NULL%0,         Juan J.%Rios%NULL%0,         Miguel A.%Hernán%NULL%0,         Jesús%Frías%NULL%0,         José R.%Arribas%NULL%0,         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simon E.%Brill%simon.brill@nhs.net%0,         Hannah C.%Jarvis%NULL%0,         Hannah C.%Jarvis%NULL%0,         Ezgi%Ozcan%NULL%0,         Thomas L. P.%Burns%NULL%0,         Rabia A.%Warraich%NULL%0,         Lisa J.%Amani%NULL%0,         Amina%Jaffer%NULL%0,         Stephanie%Paget%NULL%0,         Anand%Sivaramakrishnan%NULL%0,         Dean D.%Creer%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,         Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,         Wenlin%Cheng%NULL%0,         Lei%Yu%NULL%0,         Ya-Kun%Liu%NULL%0,         Xiaoyong%Hu%NULL%0,         Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[B.%Carter%NULL%0,         J.T.%Collins%NULL%0,         F.%Barlow-Pay%NULL%0,         F.%Rickard%NULL%0,         E.%Bruce%NULL%0,         A.%Verduri%NULL%0,         T.J.%Quinn%NULL%0,         E.%Mitchell%NULL%0,         A.%Price%NULL%0,         A.%Vilches-Moraga%NULL%0,         M.J.%Stechman%NULL%0,         R.%Short%NULL%0,         A.%Einarsson%NULL%0,         P.%Braude%NULL%0,         S.%Moug%NULL%0,         P.K.%Myint%NULL%0,         J.%Hewitt%NULL%0,         L.%Pearce%NULL%0,         K.%McCarthy%NULL%0,         C.%Davey%NULL%0,         S.%Jones%NULL%0,         K.%Lunstone%NULL%0,         A.%Cavenagh%NULL%0,         C.%Silver%NULL%0,         T.%Telford%NULL%0,         R.%Simmons%NULL%0,         M.%Holloway%NULL%0,         J.%Hesford%NULL%0,         T.%El Jichi Mutasem%NULL%0,         S.%Singh%NULL%0,         D.%Paxton%NULL%0,         W.%Harris%NULL%0,         N.%Galbraith%NULL%0,         E.%Bhatti%NULL%0,         J.%Edwards%NULL%0,         S.%Duffy%NULL%0,         J.%Kelly%NULL%0,         C.%Murphy%NULL%0,         C.%Bisset%NULL%0,         R.%Alexander%NULL%0,         M.%Garcia%NULL%0,         S.%Sangani%NULL%0,         T.%Kneen%NULL%0,         T.%Lee%NULL%0,         A.%McGovern%NULL%0,         G.%Guaraldi%NULL%0,         E.%Clini%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fuyang%Chen%NULL%0,         Wenwu%Sun%NULL%0,         Shengrong%Sun%NULL%0,         Zhiyu%Li%lizhiyu@whu.edu.cn%0,         Zhong%Wang%zhongwangchn@whu.edu.cn%0,         Li%Yu%yuliwhzxyy@163.com%0,         Li%Yu%yuliwhzxyy@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,         Ling%Sang%NULL%0,         Mei%Jiang%NULL%0,         Zhaowei%Yang%NULL%0,         Nan%Jia%NULL%0,         Wanyi%Fu%NULL%0,         Jiaxing%Xie%NULL%0,         Weijie%Guan%NULL%0,         Wenhua%Liang%NULL%0,         Zhengyi%Ni%NULL%0,         Yu%Hu%NULL%0,         Lei%Liu%NULL%0,         Hong%Shan%NULL%0,         Chunliang%Lei%NULL%0,         Yixiang%Peng%NULL%0,         Li%Wei%NULL%0,         Yong%Liu%NULL%0,         Yahua%Hu%NULL%0,         Peng%Peng%NULL%0,         Jianming%Wang%NULL%0,         Jiyang%Liu%NULL%0,         Zhong%Chen%NULL%0,         Gang%Li%NULL%0,         Zhijian%Zheng%NULL%0,         Shaoqin%Qiu%NULL%0,         Jie%Luo%NULL%0,         Changjiang%Ye%NULL%0,         Shaoyong%Zhu%NULL%0,         Jinping%Zheng%NULL%0,         Nuofu%Zhang%NULL%0,         Yimin%Li%NULL%0,         Jianxing%He%NULL%0,         Jing%Li%NULL%0,         Shiyue%Li%NULL%0,         Nanshan%Zhong%NULL%0,         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,         Di%Wu%NULL%0,         Huilong%Chen%NULL%0,         Weiming%Yan%NULL%0,         Danlei%Yang%NULL%0,         Guang%Chen%NULL%0,         Ke%Ma%NULL%0,         Dong%Xu%NULL%0,         Haijing%Yu%NULL%0,         Hongwu%Wang%NULL%0,         Tao%Wang%NULL%0,         Wei%Guo%NULL%0,         Jia%Chen%NULL%0,         Chen%Ding%NULL%0,         Xiaoping%Zhang%NULL%0,         Jiaquan%Huang%NULL%0,         Meifang%Han%NULL%0,         Shusheng%Li%NULL%0,         Xiaoping%Luo%NULL%0,         Jianping%Zhao%NULL%0,         Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anying%Cheng%NULL%0,         Liu%Hu%NULL%0,         Yiru%Wang%NULL%0,         Luyan%Huang%NULL%0,         Lingxi%Zhao%NULL%0,         Congcong%Zhang%NULL%0,         Xiyue%Liu%NULL%0,         Ranran%Xu%NULL%0,         Feng%Liu%NULL%0,         Jinping%Li%NULL%0,         Dawei%Ye%NULL%0,         Tao%Wang%NULL%0,         Yongman%Lv%lvyongman@126.com%0,         Qingquan%Liu%qqliutj@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fabio%Ciceri%ciceri.fabio@hsr.it%0,         Antonella%Castagna%NULL%0,         Patrizia%Rovere-Querini%NULL%0,         Francesco%De Cobelli%NULL%0,         Annalisa%Ruggeri%NULL%0,         Laura%Galli%NULL%0,         Caterina%Conte%NULL%0,         Rebecca%De Lorenzo%NULL%0,         Andrea%Poli%NULL%0,         Alberto%Ambrosio%NULL%0,         Carlo%Signorelli%NULL%0,         Eleonora%Bossi%NULL%0,         Maria%Fazio%NULL%0,         Cristina%Tresoldi%NULL%0,         Sergio%Colombo%NULL%0,         Giacomo%Monti%NULL%0,         Efgeny%Fominskiy%NULL%0,         Stefano%Franchini%NULL%0,         Marzia%Spessot%NULL%0,         Carlo%Martinenghi%NULL%0,         Michele%Carlucci%NULL%0,         Luigi%Beretta%NULL%0,         Anna Maria%Scandroglio%NULL%0,         Massimo%Clementi%NULL%0,         Massimo%Locatelli%NULL%0,         Moreno%Tresoldi%NULL%0,         Paolo%Scarpellini%NULL%0,         Gianvito%Martino%NULL%0,         Emanuele%Bosi%NULL%0,         Lorenzo%Dagna%NULL%0,         Adriano%Lazzarin%NULL%0,         Giovanni%Landoni%NULL%0,         Alberto%Zangrillo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,         Wei%Liu%NULL%0,         Kui%Liu%NULL%0,         Yuan-Yuan%Fang%NULL%0,         Jin%Shang%NULL%0,         Ling%Zhou%NULL%0,         Ke%Wang%NULL%0,         Fan%Leng%NULL%0,         Shuang%Wei%NULL%0,         Lei%Chen%NULL%0,         Hui-Guo%Liu%NULL%0,         Pei-Fang%Wei%NULL%0,         Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,         Li-Rong%Liang%NULL%0,         Cheng-Qing%Yang%NULL%0,         Wen%Wang%NULL%0,         Tan-Ze%Cao%NULL%0,         Ming%Li%NULL%0,         Guang-Yun%Guo%NULL%0,         Juan%Du%NULL%0,         Chun-Lan%Zheng%NULL%0,         Qi%Zhu%NULL%0,         Ming%Hu%NULL%0,         Xu-Yan%Li%NULL%0,         Peng%Peng%NULL%0,         Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shan%Gao%NULL%0,         Fang%Jiang%NULL%0,         Wei%Jin%NULL%0,         Yuan%Shi%NULL%0,         Leilei%Yang%NULL%0,         Yanqiong%Xia%NULL%0,         Linyan%Jia%NULL%0,         Bo%Wang%NULL%0,         Han%Lin%NULL%0,         Yin%Cai%NULL%0,         Zhengyuan%Xia%NULL%0,         Jian%Peng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pedro David%Wendel Garcia%pedrodavid.wendelgarcia@usz.ch%0,         Thierry%Fumeaux%thierry.fumeaux@ghol.ch%0,         Philippe%Guerci%NULL%0,         Dorothea Monika%Heuberger%dorotheamonika.heuberger@usz.ch%0,         Jonathan%Montomoli%NULL%0,         Ferran%Roche-Campo%NULL%0,         Reto Andreas%Schuepbach%reto.schuepbach@usz.ch%0,         Matthias Peter%Hilty%matthias.hilty@usz.ch%0,         Mario%Alfaro Farias%NULL%0,         Antoni%Margarit%NULL%0,         Gerardo%Vizmanos-Lamotte%NULL%0,         Thomas%Tschoellitsch%NULL%0,         Jens%Meier%NULL%0,         Francesco S.%Cardona%NULL%0,         Josef%Skola%NULL%0,         Lenka%Horakova%NULL%0,         Hernan%Aguirre-Bermeo%NULL%0,         Janina%Apolo%NULL%0,         Emmanuel%Novy%NULL%0,         Marie-Reine%Losser%NULL%0,         Geoffrey%Jurkolow%NULL%0,         Gauthier%Delahaye%NULL%0,         Sascha%David%NULL%0,         Tobias%Welte%NULL%0,         Tobias%Wengenmayer%NULL%0,         Dawid L.%Staudacher%NULL%0,         Theodoros%Aslanidis%NULL%0,         Barna%Babik%NULL%0,         Anita%Korsos%NULL%0,         Janos%Gal%NULL%0,         Hermann%Csaba%NULL%0,         Abele%Donati%NULL%0,         Andrea%Carsetti%NULL%0,         Fabrizio%Turrini%NULL%0,         Maria Sole%Simonini%NULL%0,         Roberto%Ceriani%NULL%0,         Martina%Murrone%NULL%0,         Emanuele%Rezoagli%NULL%0,         Giovanni%Vitale%NULL%0,         Alberto%Fogagnolo%NULL%0,         Savino%Spadaro%NULL%0,         Maddalena Alessandra%Wu%NULL%0,         Chiara%Cogliati%NULL%0,         Riccardo%Colombo%NULL%0,         Emanuele%Catena%NULL%0,         Francesca%Facondini%NULL%0,         Antonella%Potalivo%NULL%0,         Gianfilippo%Gangitano%NULL%0,         Tiziana%Perin%NULL%0,         Maria Grazia%Bocci%NULL%0,         Massimo%Antonelli%NULL%0,         Diederik%Gommers%NULL%0,         Can%Ince%NULL%0,         Eric%Mayor-Vázquez%NULL%0,         Maria%Cruz%NULL%0,         Martin%Delgado%NULL%0,         Raquel Rodriguez%Garcia%NULL%0,         Jorge%Gamez Zapata%NULL%0,         Begoña%Zalba-Etayo%NULL%0,         Herminia%Lozano-Gomez%NULL%0,         Pedro%Castro%NULL%0,         Adrian%Tellez%NULL%0,         Adriana%Jacas%NULL%0,         Guido%Muñoz%NULL%0,         Rut%Andrea%NULL%0,         Jose%Ortiz%NULL%0,         Eduard%Quintana%NULL%0,         Irene%Rovira%NULL%0,         Enric%Reverter%NULL%0,         Javier%Fernandez%NULL%0,         Miquel%Ferrer%NULL%0,         Joan R.%Badia%NULL%0,         Arantxa%Lander Azcona%NULL%0,         Jesus Escos%Orta%NULL%0,         Philipp%Bühler%NULL%0,         Silvio%Brugger%NULL%0,         Daniel%Hofmaenner%NULL%0,         Simone%Unseld%NULL%0,         Frank%Ruschitzka%NULL%0,         Mallory%Moret-Bochatay%NULL%0,         Bernd%Yuen%NULL%0,         Thomas%Hillermann%NULL%0,         Hatem%Ksouri%NULL%0,         Govind Oliver%Sridharan%NULL%0,         Anette%Ristic%NULL%0,         Michael%Sepulcri%NULL%0,         Miodrag%Filipovic%NULL%0,         Urs%Pietsch%NULL%0,         Petra%Salomon%NULL%0,         Iris%Drvaric%NULL%0,         Peter%Schott%NULL%0,         Severin%Urech%NULL%0,         Adriana%Lambert%NULL%0,         Lukas%Merki%NULL%0,         Marcus%Laube%NULL%0,         Frank%Hillgaertner%NULL%0,         Marianne%Sieber%NULL%0,         Alexander%Dullenkopf%NULL%0,         Lina%Petersen%NULL%0,         Serge%Grazioli%NULL%0,         Peter C.%Rimensberger%NULL%0,         Isabelle%Fleisch%NULL%0,         Jerome%Lavanchy%NULL%0,         Katharina%Marquardt%NULL%0,         Karim%Shaikh%NULL%0,         Hermann%Redecker%NULL%0,         Michael%Stephan%NULL%0,         Jan%Brem%NULL%0,         Bjarte%Rogdo%NULL%0,         Andre%Birkenmaier%NULL%0,         Friederike%Meyer zu Bentrup%NULL%0,         Patricia%Fodor%NULL%0,         Pascal%Locher%NULL%0,         Giovanni%Camen%NULL%0,         Martin%Siegemund%NULL%0,         Nuria%Zellweger%NULL%0,         Marie-Madlen%Jeitziner%NULL%0,         Beatrice%Jenni-Moser%NULL%0,         Christian%Bürkle%NULL%0,         Gian-Reto%Kleger%NULL%0,         Marilene%Franchitti Laurent%NULL%0,         Jean-Christophe%Laurent%NULL%0,         Tomislav%Gaspert%NULL%0,         Marija%Jovic%NULL%0,         Michael%Studhalter%NULL%0,         Christoph%Haberthuer%NULL%0,         Roger F.%Lussman%NULL%0,         Daniela%Selz%NULL%0,         Didier%Naon%NULL%0,         Romano%Mauri%NULL%0,         Samuele%Ceruti%NULL%0,         Julien%Marrel%NULL%0,         Mirko%Brenni%NULL%0,         Rolf%Ensner%NULL%0,         Nadine%Gehring%NULL%0,         Antje%Heise%NULL%0,         Tobias%Huebner%NULL%0,         Thomas A.%Neff%NULL%0,         Sara%Cereghetti%NULL%0,         Filippo%Boroli%NULL%0,         Jerome%Pugin%NULL%0,         Nandor%Marczin%NULL%0,         Joyce%Wong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Warren%Gavin%NULL%0,         Elliott%Campbell%NULL%0,         Syed-Adeel%Zaidi%NULL%0,         Neha%Gavin%NULL%0,         Lana%Dbeibo%NULL%0,         Cole%Beeler%NULL%0,         Kari%Kuebler%NULL%0,         Ahmed%Abdel-Rahman%NULL%0,         Mark%Luetkemeyer%NULL%0,         Areeba%Kara%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Vijay%Gayam%vgayam@interfaithmedical.com%0,         Muchi Ditah%Chobufo%NULL%0,         Muchi Ditah%Chobufo%NULL%0,         Mohamed A.%Merghani%NULL%0,         Mohamed A.%Merghani%NULL%0,         Shristi%Lamichhane%NULL%0,         Pavani Reddy%Garlapati%NULL%0,         Mark K.%Adler%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Cao%Y%coreGivesNoEmail%0,        Imam%Z%coreGivesNoEmail%0,        Lippi%G%coreGivesNoEmail%0,        Oran%DP%coreGivesNoEmail%0,        Shi%S%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Hai%Hu%huhai@wchscu.cn%0,         Ni%Yao%NULL%0,         Ni%Yao%NULL%0,         Yanru%Qiu%NULL%0,         John H.%Burton%NULL%0,         John H.%Burton%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jiaofeng%Huang%NULL%0,         Aiguo%Cheng%NULL%0,         Rahul%Kumar%NULL%0,         Yingying%Fang%NULL%0,         Yingying%Fang%NULL%0,         Gongping%Chen%NULL%0,         Yueyong%Zhu%NULL%0,         Su%Lin%sumer5129@fjmu.edu.cn%0,         Su%Lin%sumer5129@fjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%0,         Ju-Hyun%Kim%NULL%0,         Jin-Sung%Park%NULL%0,         Min Cheol%Chang%wheel633@ynu.ac.kr%0,         Donghwi%Park%bdome@hanmail.net%0]</t>
+  </si>
+  <si>
+    <t>[K.%Khalil%NULL%0,         K.%Agbontaen%NULL%0,         D.%McNally%NULL%0,         A.%Love%NULL%0,         S.%Mandalia%NULL%0,         W.%Banya%NULL%0,         E.%Starren%NULL%0,         R.%Dhunnookchand%NULL%0,         H.%Farne%NULL%0,         R.%Morton%NULL%0,         G.%Davies%NULL%0,         O.%Orhan%NULL%0,         D%Lai%NULL%0,         M.%Nelson%NULL%0,         P.L.%Shah%NULL%0,         J.L.%Garner%Justin.garner@chelwest.nhs.uk%0]</t>
+  </si>
+  <si>
+    <t>[Eyal%Klang%NULL%0,         Gassan%Kassim%NULL%0,         Shelly%Soffer%soffer.shelly@gmail.com%0,         Robert%Freeman%NULL%0,         Robert%Freeman%NULL%0,         Matthew A.%Levin%NULL%0,         Matthew A.%Levin%NULL%0,         David L.%Reich%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sandeep%Krishnan%NULL%0,         Kinjal%Patel%NULL%0,         Ronak%Desai%NULL%0,         Anupam%Sule%NULL%0,         Peter%Paik%NULL%0,         Ashley%Miller%NULL%0,         Alicia%Barclay%NULL%0,         Adam%Cassella%NULL%0,         Jon%Lucaj%NULL%0,         Yvonne%Royster%NULL%0,         Joffer%Hakim%NULL%0,         Zulfiqar%Ahmed%NULL%0,         Farhad%Ghoddoussi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Manisha%Bhutani%null%0,          David M.%Foureau%null%0,          Shebli%Atrash%null%0,          Peter M.%Voorhees%null%0,          Saad Z.%Usmani%null%0,        Manisha%Bhutani%null%0,        David M.%Foureau%null%0,        Shebli%Atrash%null%0,        Peter M.%Voorhees%null%0,        Saad Z.%Usmani%null%0]</t>
+  </si>
+  <si>
+    <t>[Wil%Lieberman-Cribbin%NULL%0,         Joseph%Rapp%NULL%0,         Naomi%Alpert%NULL%0,         Stephanie%Tuminello%NULL%0,         Emanuela%Taioli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Q.%Liu%NULL%0,         N. C.%Song%NULL%0,         Z. K.%Zheng%NULL%0,         J. S.%Li%NULL%0,         S. K.%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Long%NULL%0,         Lan%Nie%NULL%0,         Xiaochen%Xiang%NULL%0,         Huan%Li%NULL%0,         Xiaoli%Zhang%NULL%0,         Xiaozhi%Fu%NULL%0,         Hongwei%Ren%NULL%0,         Wanxin%Liu%NULL%0,         Qiang%Wang%wangqiang@wust.edu.cn%0,         Qingming%Wu%wuhe9224@sina.com%0,         Qingming%Wu%wuhe9224@sina.com%0]</t>
+  </si>
+  <si>
+    <t>"IL-6 and CD8+ T cell counts combined are an early predictor of in-hospital mortality of patients with COVID-19"</t>
+  </si>
+  <si>
+    <t>[Miao%Luo%xref no email%0, Jing%Liu%xref no email%0, Weiling%Jiang%xref no email%0, Shuang%Yue%xref no email%0, Huiguo%Liu%xref no email%0, Shuang%Wei%xref no email%0]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-05-22</t>
+  </si>
+  <si>
+    <t>[Xiaomin%Luo%luoxiaomin04@163.com%0,         Wei%Zhou%NULL%0,         Xiaojie%Yan%NULL%0,         Tangxi%Guo%NULL%0,         Benchao%Wang%NULL%0,         Hongxia%Xia%NULL%0,         Lu%Ye%NULL%0,         Jun%Xiong%NULL%0,         Zongping%Jiang%NULL%0,         Yu%Liu%NULL%0,         Bicheng%Zhang%NULL%0,         Weize%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ying%Luo%NULL%0,         Liyan%Mao%NULL%0,         Xu%Yuan%NULL%0,         Ying%Xue%NULL%0,         Qun%Lin%NULL%0,         Guoxing%Tang%NULL%0,         Huijuan%Song%NULL%0,         Feng%Wang%fengwang@tjh.tjmu.edu.cn%0,         Ziyong%Sun%zysun@tjh.tjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ying%Luo%NULL%0,         Ying%Xue%NULL%0,         Liyan%Mao%NULL%0,         Xu%Yuan%NULL%0,         Qun%Lin%NULL%0,         Guoxing%Tang%NULL%0,         Huijuan%Song%NULL%0,         Feng%Wang%NULL%0,         Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chiara%Masetti%NULL%0,         Elena%Generali%NULL%0,         Francesca%Colapietro%NULL%0,         Antonio%Voza%NULL%0,         Maurizio%Cecconi%NULL%0,         Antonio%Messina%NULL%0,         Paolo%Omodei%NULL%0,         Claudio%Angelini%NULL%0,         Michele%Ciccarelli%NULL%0,         Salvatore%Badalamenti%NULL%0,         G. Walter%Canonica%NULL%0,         Ana%Lleo%ana.lleo@humanitas.it%0,         Alessio%Aghemo%NULL%0,         Alessio%Aghemo%NULL%0,         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Takahisa%Mikami%NULL%0,         Hirotaka%Miyashita%NULL%0,         Takayuki%Yamada%NULL%0,         Matthew%Harrington%NULL%0,         Daniel%Steinberg%NULL%0,         Andrew%Dunn%NULL%0,         Evan%Siau%Evan.Siau@mountsinai.org%0]</t>
+  </si>
+  <si>
+    <t>[Alexis K.%Okoh%alexis.okoh@rwjbh.org%0,         Christoph%Sossou%NULL%0,         Christoph%Sossou%NULL%0,         Neha S.%Dangayach%NULL%0,         Sherin%Meledathu%NULL%0,         Oluwakemi%Phillips%NULL%0,         Corinne%Raczek%NULL%0,         Michael%Patti%NULL%0,         Nathan%Kang%NULL%0,         Sameer A.%Hirji%NULL%0,         Charles%Cathcart%NULL%0,         Christian%Engell%NULL%0,         Marc%Cohen%NULL%0,         Sandhya%Nagarakanti%NULL%0,         Eliahu%Bishburg%NULL%0,         Harpreet S.%Grewal%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%0,          Lian%Yang%NULL%0,          Yuncheng%Li%NULL%0,          Bo%Liang%NULL%0,          Lin%Li%NULL%0,          Tianhe%Ye%NULL%0,          Lingli%Li%NULL%0,          Dehan%Liu%NULL%0,          Shan%Gui%NULL%0,          Yu%Hu%NULL%0,          Chuansheng%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,         Becker%L.B.%coreGivesNoEmail%0,         Chelico%J.D.%coreGivesNoEmail%0,         Cohen%S.L.%coreGivesNoEmail%0,         Cookingham%J.%coreGivesNoEmail%0,         Coppa%K.%coreGivesNoEmail%0,         Crawford%J.M.%coreGivesNoEmail%0,         Davidson%K.W.%coreGivesNoEmail%0,         Diefenbach%M.A.%coreGivesNoEmail%0,         Dominello%A.J.%coreGivesNoEmail%0,         Duer-Hefele%J.%coreGivesNoEmail%0,         Falzon%L.%coreGivesNoEmail%0,         Gitlin%J.%coreGivesNoEmail%0,         Hajizadeh%N.%coreGivesNoEmail%0,         Harvin%T.G.%coreGivesNoEmail%0,         Hirsch%J.S.%coreGivesNoEmail%0,         Hirschwerk%D.A.%coreGivesNoEmail%0,         Kim%E.J.%coreGivesNoEmail%0,         Kozel%Z.M.%coreGivesNoEmail%0,         Marrast%L.M.%coreGivesNoEmail%0,         McGinn%T.%coreGivesNoEmail%0,         Mogavero%J.N.%coreGivesNoEmail%0,         Narasimhan%M.%coreGivesNoEmail%0,         Osorio%G.A.%coreGivesNoEmail%0,         Qiu%M.%coreGivesNoEmail%0,         Richardson%S.%coreGivesNoEmail%0,         Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Mario%Rivera-Izquierdo%NULL%0,          María%del Carmen Valero-Ubierna%NULL%0,          María%del Carmen Valero-Ubierna%NULL%0,          Juan Luis%R-delAmo%NULL%0,          Miguel Ángel%Fernández-García%NULL%0,          Silvia%Martínez-Diz%NULL%0,          Arezu%Tahery-Mahmoud%NULL%0,          Marta%Rodríguez-Camacho%NULL%0,          Ana Belén%Gámiz-Molina%NULL%0,          Nicolás%Barba-Gyengo%NULL%0,          Pablo%Gámez-Baeza%NULL%0,          Celia%Cabrero-Rodríguez%NULL%0,          Pedro Antonio%Guirado-Ruiz%NULL%0,          Divina Tatiana%Martín-Romero%NULL%0,          Antonio Jesús%Láinez-Ramos-Bossini%NULL%0,          María Rosa%Sánchez-Pérez%NULL%0,          José%Mancera-Romero%NULL%0,          Miguel%García-Martín%NULL%0,          Luis Miguel%Martín-delosReyes%NULL%0,          Virginia%Martínez-Ruiz%NULL%0,          Virginia%Martínez-Ruiz%NULL%0,          Pablo%Lardelli-Claret%NULL%0,          Eladio%Jiménez-Mejías%NULL%0,          Muhammad%Adrish%NULL%0,          Muhammad%Adrish%NULL%0,          NULL%NULL%NULL%0,          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,          Kun%Yang%NULL%0,          Kun%Yang%NULL%0,          Wenxia%Wang%NULL%0,          Wenxia%Wang%NULL%0,          Lingyu%Jiang%NULL%0,          Lingyu%Jiang%NULL%0,          Jianxin%Song%songsingsjx@sina.com%0,          Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Grace%Salacup%salacupg@einstein.edu%0,          Kevin Bryan%Lo%NULL%0,          Kevin Bryan%Lo%NULL%0,          Fahad%Gul%NULL%0,          Eric%Peterson%NULL%0,          Robert%De Joy%NULL%0,          Ruchika%Bhargav%NULL%0,          Jerald%Pelayo%NULL%0,          Jeri%Albano%NULL%0,          Zurab%Azmaiparashvili%NULL%0,          Sadia%Benzaquen%NULL%0,          Gabriel%Patarroyo‐Aponte%NULL%0,          Janani%Rangaswami%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yufeng%Shang%NULL%0,          Tao%Liu%NULL%0,          Yongchang%Wei%NULL%0,          Jingfeng%Li%NULL%0,          Liang%Shao%NULL%0,          Minghui%Liu%NULL%0,          Yongxi%Zhang%NULL%0,          Zhigang%Zhao%NULL%0,          Haibo%Xu%NULL%0,          Zhiyong%Peng%NULL%0,          Fuling%Zhou%zhoufuling@whu.edu.cn%0,          Xinghuan%Wang%wangxinghuan@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,          Mu%Qin%qinmuae@163.com%0,          Yuli%Cai%NULL%0,          Tao%Liu%NULL%0,          Bo%Shen%NULL%0,          Fan%Yang%NULL%0,          Sheng%Cao%NULL%0,          Xu%Liu%NULL%0,          Xu%Liu%NULL%0,          Yaozu%Xiang%NULL%0,          Qinyan%Zhao%NULL%0,          He%Huang%huanghe1977@whu.edu.cn%0,          Bo%Yang%yybb112@whu.edu.cn%0,          Congxin%Huang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rita de Cássia Menezes%Soares%NULL%0,          Larissa Rodrigues%Mattos%NULL%0,          Letícia Martins%Raposo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,          Ruoqi%Ning%NULL%0,          Yu%Tao%NULL%0,          Chong%Yu%NULL%0,          Xiaoyan%Deng%NULL%0,          Caili%Zhao%NULL%0,          Silu%Meng%NULL%0,          Fangxu%Tang%89650793@qq.com%0,          Dong%Xu%89650793@qq.com%0,          Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Kun%Wang%NULL%0,          Peiyuan%Zuo%NULL%0,          Yuwei%Liu%NULL%0,          Meng%Zhang%NULL%0,          Xiaofang%Zhao%NULL%0,          Songpu%Xie%NULL%0,          Hao%Zhang%NULL%0,          Xinglin%Chen%NULL%0,          Chengyun%Liu%chengyunliu@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Bo%XU%NULL%0,          Cun-yu%FAN%NULL%0,          An-lu%WANG%NULL%0,          Yi-long%ZOU%NULL%0,          Yi-han%YU%NULL%0,          Cong%HE%NULL%0,          Wen-guang%XIA%NULL%0,          Ji-xian%ZHANG%NULL%0,          Qing%MIAO%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xisheng%Yan%NULL%0,          Fen%Li%NULL%0,          Xiao%Wang%NULL%0,          Jie%Yan%NULL%0,          Fen%Zhu%NULL%0,          Shifan%Tang%NULL%0,          Yingzhong%Deng%NULL%0,          Hua%Wang%NULL%0,          Rui%Chen%NULL%0,          Zhili%Yu%NULL%0,          Yaping%Li%NULL%0,          Jingzhou%Shang%NULL%0,          Lingjun%Zeng%NULL%0,          Jie%Zhao%NULL%0,          Chaokun%Guan%NULL%0,          Qiaomei%Liu%NULL%0,          Haifeng%Chen%NULL%0,          Wei%Gong%NULL%0,          Xin%Huang%NULL%0,          Yu‐Jiao%Zhang%NULL%0,          Jianguang%Liu%NULL%0,          Xiaoyan%Dong%NULL%0,          Wen%Zheng%zhengwen12@mails.jlu.edu.cn%0,          Shaoping%Nie%spnie@126.com%0,          Dongsheng%Li%dongshengli196809@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qing%Yang%NULL%0,          Ying%Zhou%NULL%0,          Xinrong%Wang%NULL%0,          Shan%Gao%NULL%0,          Yang%Xiao%NULL%0,          Weiming%Zhang%NULL%0,          Yi%Hu%huyizxyy@163.com%0,          Yafei%Wang%wyf_527@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,          Qingyu%Yang%NULL%0,          Yaxin%Wang%NULL%0,          Yongran%Wu%NULL%0,          Jiqian%Xu%NULL%0,          Yuan%Yu%NULL%0,          You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wenjing%Ye%yewenjing@xinhuamed.com.cn%0,          Guoxi%Chen%4799082@qq.com%0,          Xiaopan%Li%xiaopanli0224@126.com%0,          Xing%Lan%474137452@qq.com%0,          Chen%Ji%c.ji.3@warwick.ac.uk%0,          Min%Hou%min-hou710@hotmail.com%0,          Di%Zhang%zhangdizhangdi1234@163.com%0,          Guangwang%Zeng%785663609@qq.com%0,          Yaling%Wang%953822402@qq.com%0,          Cheng%Xu%xucheng112358@126.com%0,          Weiwei%Lu%luweiwei100@126.com%0,          Ruolin%Cui%crlqwerty@163.com%0,          Yuyang%Cai%caiyuyang@sjtu.edu.cn%0,          Hai%Huang%1220775601@qq.com%0,          Ling%Yang%yangling01@xinhuamed.com.cn%0]</t>
+  </si>
+  <si>
+    <t>[Caizheng%Yu%NULL%0,          Qing%Lei%NULL%0,          Wenkai%Li%NULL%0,          Xiong%Wang%NULL%0,          Wei%Liu%NULL%0,          Xionglin%Fan%NULL%0,          Wengang%Li%228907211@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,          Ting%Yu%NULL%0,          Ronghui%Du%NULL%0,          Guohui%Fan%NULL%0,          Ying%Liu%NULL%0,          Zhibo%Liu%NULL%0,          Jie%Xiang%NULL%0,          Yeming%Wang%NULL%0,          Bin%Song%NULL%0,          Xiaoying%Gu%NULL%0,          Lulu%Guan%NULL%0,          Yuan%Wei%NULL%0,          Hui%Li%NULL%0,          Xudong%Wu%NULL%0,          Jiuyang%Xu%NULL%0,          Shengjin%Tu%NULL%0,          Yi%Zhang%NULL%0,          Hua%Chen%NULL%0,          Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Moran%Amit%NULL%0,          Alex%Sorkin%NULL%0,          Jacob%Chen%NULL%0,          Barak%Cohen%NULL%0,          Barak%Cohen%NULL%0,          Dana%Karol%NULL%0,          Dana%Karol%NULL%0,          Avishai M%Tsur%NULL%0,          Shaul%Lev%NULL%0,          Shaul%Lev%NULL%0,          Tal%Rozenblat%NULL%0,          Ayana%Dvir%NULL%0,          Ayana%Dvir%NULL%0,          Geva%Landau%NULL%0,          Lidar%Fridrich%NULL%0,          Lidar%Fridrich%NULL%0,          Elon%Glassberg%NULL%0,          Shani%Kesari%NULL%0,          Sigal%Sviri%NULL%0,          Ram%Gelman%NULL%0,          Asaf%Miller%NULL%0,          Danny%Epstein%NULL%0,          Ronny%Ben-Avi%NULL%0,          Ronny%Ben-Avi%NULL%0,          Moshe%Matan%NULL%0,          Daniel J.%Jakobson%NULL%0,          Daniel J.%Jakobson%NULL%0,          Tarif%Bader%NULL%0,          Tarif%Bader%NULL%0,          David%Dahan%NULL%0,          David%Dahan%NULL%0,          Daniel A.%King%NULL%0,          Anat%Ben-Ari%NULL%0,          Arie%Soroksky%NULL%0,          Alon%Bar%NULL%0,          Alon%Bar%NULL%0,          Noam%Fink%NULL%0,          Pierre%Singer%NULL%0,          Avi%Benov%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,          John R%Adler%NULL%0,          Muhammad Sohaib%Asghar%NULL%0,          Muhammad Sohaib%Asghar%NULL%0,          Syed Jawad%Haider Kazmi%NULL%0,          Noman%Ahmed Khan%NULL%0,          Mohammed%Akram%NULL%0,          Salman%Ahmed Khan%NULL%0,          Uzma%Rasheed%NULL%0,          Maira%Hassan%NULL%0,          Gul Muhammad%Memon%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pedro%Baqui%NULL%0,          Ioana%Bica%NULL%0,          Valerio%Marra%marra@cosmo-ufes.org%0,          Ari%Ercole%NULL%0,          Mihaela%van der Schaar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anesi%Adriano%coreGivesNoEmail%0,         Bettinardi%Alessandra%coreGivesNoEmail%0,         Bonetti%Graziella%coreGivesNoEmail%0,         Borrelli%Gianluca%coreGivesNoEmail%0,         Fiordalisi%Gianfranco%coreGivesNoEmail%0,         Lippi%Giuseppe%coreGivesNoEmail%0,         Manelli%Filippo%coreGivesNoEmail%0,         Marino%Antonio%coreGivesNoEmail%0,         Menolfi%Annamaria%coreGivesNoEmail%0,         Patroni%Andrea%coreGivesNoEmail%0,         Saggini%Sara%coreGivesNoEmail%0,         Volpi%Roberta%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Andrea%Borghesi%NULL%0,          Angelo%Zigliani%NULL%0,          Salvatore%Golemi%NULL%0,          Nicola%Carapella%NULL%0,          Patrizia%Maculotti%NULL%0,          Davide%Farina%NULL%0,          Roberto%Maroldi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alberto M.%Borobia%NULL%0,          Antonio J.%Carcas%NULL%0,          Antonio J.%Carcas%NULL%0,          Francisco%Arnalich%NULL%0,          Rodolfo%Álvarez-Sala%NULL%0,          Rodolfo%Álvarez-Sala%NULL%0,          Jaime%Monserrat-Villatoro%NULL%0,          Manuel%Quintana%NULL%0,          Juan Carlos%Figueira%NULL%0,          Rosario M.%Torres Santos-Olmo%NULL%0,          Julio%García-Rodríguez%NULL%0,          Julio%García-Rodríguez%NULL%0,          Alberto%Martín-Vega%NULL%0,          Antonio%Buño%NULL%0,          Elena%Ramírez%NULL%0,          Gonzalo%Martínez-Alés%NULL%0,          Gonzalo%Martínez-Alés%NULL%0,          Nicolás%García-Arenzana%NULL%0,          M. Concepción%Núñez%NULL%0,          M. Concepción%Núñez%NULL%0,          Milagros%Martí-de-Gracia%NULL%0,          Francisco%Moreno Ramos%NULL%0,          Francisco%Reinoso-Barbero%NULL%0,          Alejandro%Martin-Quiros%NULL%0,          Angélica%Rivera Núñez%NULL%0,          Jesús%Mingorance%NULL%0,          Carlos J.%Carpio Segura%NULL%0,          Carlos J.%Carpio Segura%NULL%0,          Daniel%Prieto Arribas%NULL%0,          Esther%Rey Cuevas%NULL%0,          Concepción%Prados Sánchez%NULL%0,          Juan J.%Rios%NULL%0,          Miguel A.%Hernán%NULL%0,          Jesús%Frías%NULL%0,          José R.%Arribas%NULL%0,          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simon E.%Brill%simon.brill@nhs.net%0,          Hannah C.%Jarvis%NULL%0,          Hannah C.%Jarvis%NULL%0,          Ezgi%Ozcan%NULL%0,          Thomas L. P.%Burns%NULL%0,          Rabia A.%Warraich%NULL%0,          Lisa J.%Amani%NULL%0,          Amina%Jaffer%NULL%0,          Stephanie%Paget%NULL%0,          Anand%Sivaramakrishnan%NULL%0,          Dean D.%Creer%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,          Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,          Wenlin%Cheng%NULL%0,          Lei%Yu%NULL%0,          Ya-Kun%Liu%NULL%0,          Xiaoyong%Hu%NULL%0,          Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[B.%Carter%NULL%0,          J.T.%Collins%NULL%0,          F.%Barlow-Pay%NULL%0,          F.%Rickard%NULL%0,          E.%Bruce%NULL%0,          A.%Verduri%NULL%0,          T.J.%Quinn%NULL%0,          E.%Mitchell%NULL%0,          A.%Price%NULL%0,          A.%Vilches-Moraga%NULL%0,          M.J.%Stechman%NULL%0,          R.%Short%NULL%0,          A.%Einarsson%NULL%0,          P.%Braude%NULL%0,          S.%Moug%NULL%0,          P.K.%Myint%NULL%0,          J.%Hewitt%NULL%0,          L.%Pearce%NULL%0,          K.%McCarthy%NULL%0,          C.%Davey%NULL%0,          S.%Jones%NULL%0,          K.%Lunstone%NULL%0,          A.%Cavenagh%NULL%0,          C.%Silver%NULL%0,          T.%Telford%NULL%0,          R.%Simmons%NULL%0,          M.%Holloway%NULL%0,          J.%Hesford%NULL%0,          T.%El Jichi Mutasem%NULL%0,          S.%Singh%NULL%0,          D.%Paxton%NULL%0,          W.%Harris%NULL%0,          N.%Galbraith%NULL%0,          E.%Bhatti%NULL%0,          J.%Edwards%NULL%0,          S.%Duffy%NULL%0,          J.%Kelly%NULL%0,          C.%Murphy%NULL%0,          C.%Bisset%NULL%0,          R.%Alexander%NULL%0,          M.%Garcia%NULL%0,          S.%Sangani%NULL%0,          T.%Kneen%NULL%0,          T.%Lee%NULL%0,          A.%McGovern%NULL%0,          G.%Guaraldi%NULL%0,          E.%Clini%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fuyang%Chen%NULL%0,          Wenwu%Sun%NULL%0,          Shengrong%Sun%NULL%0,          Zhiyu%Li%lizhiyu@whu.edu.cn%0,          Zhong%Wang%zhongwangchn@whu.edu.cn%0,          Li%Yu%yuliwhzxyy@163.com%0,          Li%Yu%yuliwhzxyy@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,          Ling%Sang%NULL%0,          Mei%Jiang%NULL%0,          Zhaowei%Yang%NULL%0,          Nan%Jia%NULL%0,          Wanyi%Fu%NULL%0,          Jiaxing%Xie%NULL%0,          Weijie%Guan%NULL%0,          Wenhua%Liang%NULL%0,          Zhengyi%Ni%NULL%0,          Yu%Hu%NULL%0,          Lei%Liu%NULL%0,          Hong%Shan%NULL%0,          Chunliang%Lei%NULL%0,          Yixiang%Peng%NULL%0,          Li%Wei%NULL%0,          Yong%Liu%NULL%0,          Yahua%Hu%NULL%0,          Peng%Peng%NULL%0,          Jianming%Wang%NULL%0,          Jiyang%Liu%NULL%0,          Zhong%Chen%NULL%0,          Gang%Li%NULL%0,          Zhijian%Zheng%NULL%0,          Shaoqin%Qiu%NULL%0,          Jie%Luo%NULL%0,          Changjiang%Ye%NULL%0,          Shaoyong%Zhu%NULL%0,          Jinping%Zheng%NULL%0,          Nuofu%Zhang%NULL%0,          Yimin%Li%NULL%0,          Jianxing%He%NULL%0,          Jing%Li%NULL%0,          Shiyue%Li%NULL%0,          Nanshan%Zhong%NULL%0,          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,          Di%Wu%NULL%0,          Huilong%Chen%NULL%0,          Weiming%Yan%NULL%0,          Danlei%Yang%NULL%0,          Guang%Chen%NULL%0,          Ke%Ma%NULL%0,          Dong%Xu%NULL%0,          Haijing%Yu%NULL%0,          Hongwu%Wang%NULL%0,          Tao%Wang%NULL%0,          Wei%Guo%NULL%0,          Jia%Chen%NULL%0,          Chen%Ding%NULL%0,          Xiaoping%Zhang%NULL%0,          Jiaquan%Huang%NULL%0,          Meifang%Han%NULL%0,          Shusheng%Li%NULL%0,          Xiaoping%Luo%NULL%0,          Jianping%Zhao%NULL%0,          Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anying%Cheng%NULL%0,          Liu%Hu%NULL%0,          Yiru%Wang%NULL%0,          Luyan%Huang%NULL%0,          Lingxi%Zhao%NULL%0,          Congcong%Zhang%NULL%0,          Xiyue%Liu%NULL%0,          Ranran%Xu%NULL%0,          Feng%Liu%NULL%0,          Jinping%Li%NULL%0,          Dawei%Ye%NULL%0,          Tao%Wang%NULL%0,          Yongman%Lv%lvyongman@126.com%0,          Qingquan%Liu%qqliutj@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fabio%Ciceri%ciceri.fabio@hsr.it%0,          Antonella%Castagna%NULL%0,          Patrizia%Rovere-Querini%NULL%0,          Francesco%De Cobelli%NULL%0,          Annalisa%Ruggeri%NULL%0,          Laura%Galli%NULL%0,          Caterina%Conte%NULL%0,          Rebecca%De Lorenzo%NULL%0,          Andrea%Poli%NULL%0,          Alberto%Ambrosio%NULL%0,          Carlo%Signorelli%NULL%0,          Eleonora%Bossi%NULL%0,          Maria%Fazio%NULL%0,          Cristina%Tresoldi%NULL%0,          Sergio%Colombo%NULL%0,          Giacomo%Monti%NULL%0,          Efgeny%Fominskiy%NULL%0,          Stefano%Franchini%NULL%0,          Marzia%Spessot%NULL%0,          Carlo%Martinenghi%NULL%0,          Michele%Carlucci%NULL%0,          Luigi%Beretta%NULL%0,          Anna Maria%Scandroglio%NULL%0,          Massimo%Clementi%NULL%0,          Massimo%Locatelli%NULL%0,          Moreno%Tresoldi%NULL%0,          Paolo%Scarpellini%NULL%0,          Gianvito%Martino%NULL%0,          Emanuele%Bosi%NULL%0,          Lorenzo%Dagna%NULL%0,          Adriano%Lazzarin%NULL%0,          Giovanni%Landoni%NULL%0,          Alberto%Zangrillo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,          Wei%Liu%NULL%0,          Kui%Liu%NULL%0,          Yuan-Yuan%Fang%NULL%0,          Jin%Shang%NULL%0,          Ling%Zhou%NULL%0,          Ke%Wang%NULL%0,          Fan%Leng%NULL%0,          Shuang%Wei%NULL%0,          Lei%Chen%NULL%0,          Hui-Guo%Liu%NULL%0,          Pei-Fang%Wei%NULL%0,          Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,          Li-Rong%Liang%NULL%0,          Cheng-Qing%Yang%NULL%0,          Wen%Wang%NULL%0,          Tan-Ze%Cao%NULL%0,          Ming%Li%NULL%0,          Guang-Yun%Guo%NULL%0,          Juan%Du%NULL%0,          Chun-Lan%Zheng%NULL%0,          Qi%Zhu%NULL%0,          Ming%Hu%NULL%0,          Xu-Yan%Li%NULL%0,          Peng%Peng%NULL%0,          Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shan%Gao%NULL%0,          Fang%Jiang%NULL%0,          Wei%Jin%NULL%0,          Yuan%Shi%NULL%0,          Leilei%Yang%NULL%0,          Yanqiong%Xia%NULL%0,          Linyan%Jia%NULL%0,          Bo%Wang%NULL%0,          Han%Lin%NULL%0,          Yin%Cai%NULL%0,          Zhengyuan%Xia%NULL%0,          Jian%Peng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pedro David%Wendel Garcia%pedrodavid.wendelgarcia@usz.ch%0,          Thierry%Fumeaux%thierry.fumeaux@ghol.ch%0,          Philippe%Guerci%NULL%0,          Dorothea Monika%Heuberger%dorotheamonika.heuberger@usz.ch%0,          Jonathan%Montomoli%NULL%0,          Ferran%Roche-Campo%NULL%0,          Reto Andreas%Schuepbach%reto.schuepbach@usz.ch%0,          Matthias Peter%Hilty%matthias.hilty@usz.ch%0,          Mario%Alfaro Farias%NULL%0,          Antoni%Margarit%NULL%0,          Gerardo%Vizmanos-Lamotte%NULL%0,          Thomas%Tschoellitsch%NULL%0,          Jens%Meier%NULL%0,          Francesco S.%Cardona%NULL%0,          Josef%Skola%NULL%0,          Lenka%Horakova%NULL%0,          Hernan%Aguirre-Bermeo%NULL%0,          Janina%Apolo%NULL%0,          Emmanuel%Novy%NULL%0,          Marie-Reine%Losser%NULL%0,          Geoffrey%Jurkolow%NULL%0,          Gauthier%Delahaye%NULL%0,          Sascha%David%NULL%0,          Tobias%Welte%NULL%0,          Tobias%Wengenmayer%NULL%0,          Dawid L.%Staudacher%NULL%0,          Theodoros%Aslanidis%NULL%0,          Barna%Babik%NULL%0,          Anita%Korsos%NULL%0,          Janos%Gal%NULL%0,          Hermann%Csaba%NULL%0,          Abele%Donati%NULL%0,          Andrea%Carsetti%NULL%0,          Fabrizio%Turrini%NULL%0,          Maria Sole%Simonini%NULL%0,          Roberto%Ceriani%NULL%0,          Martina%Murrone%NULL%0,          Emanuele%Rezoagli%NULL%0,          Giovanni%Vitale%NULL%0,          Alberto%Fogagnolo%NULL%0,          Savino%Spadaro%NULL%0,          Maddalena Alessandra%Wu%NULL%0,          Chiara%Cogliati%NULL%0,          Riccardo%Colombo%NULL%0,          Emanuele%Catena%NULL%0,          Francesca%Facondini%NULL%0,          Antonella%Potalivo%NULL%0,          Gianfilippo%Gangitano%NULL%0,          Tiziana%Perin%NULL%0,          Maria Grazia%Bocci%NULL%0,          Massimo%Antonelli%NULL%0,          Diederik%Gommers%NULL%0,          Can%Ince%NULL%0,          Eric%Mayor-Vázquez%NULL%0,          Maria%Cruz%NULL%0,          Martin%Delgado%NULL%0,          Raquel Rodriguez%Garcia%NULL%0,          Jorge%Gamez Zapata%NULL%0,          Begoña%Zalba-Etayo%NULL%0,          Herminia%Lozano-Gomez%NULL%0,          Pedro%Castro%NULL%0,          Adrian%Tellez%NULL%0,          Adriana%Jacas%NULL%0,          Guido%Muñoz%NULL%0,          Rut%Andrea%NULL%0,          Jose%Ortiz%NULL%0,          Eduard%Quintana%NULL%0,          Irene%Rovira%NULL%0,          Enric%Reverter%NULL%0,          Javier%Fernandez%NULL%0,          Miquel%Ferrer%NULL%0,          Joan R.%Badia%NULL%0,          Arantxa%Lander Azcona%NULL%0,          Jesus Escos%Orta%NULL%0,          Philipp%Bühler%NULL%0,          Silvio%Brugger%NULL%0,          Daniel%Hofmaenner%NULL%0,          Simone%Unseld%NULL%0,          Frank%Ruschitzka%NULL%0,          Mallory%Moret-Bochatay%NULL%0,          Bernd%Yuen%NULL%0,          Thomas%Hillermann%NULL%0,          Hatem%Ksouri%NULL%0,          Govind Oliver%Sridharan%NULL%0,          Anette%Ristic%NULL%0,          Michael%Sepulcri%NULL%0,          Miodrag%Filipovic%NULL%0,          Urs%Pietsch%NULL%0,          Petra%Salomon%NULL%0,          Iris%Drvaric%NULL%0,          Peter%Schott%NULL%0,          Severin%Urech%NULL%0,          Adriana%Lambert%NULL%0,          Lukas%Merki%NULL%0,          Marcus%Laube%NULL%0,          Frank%Hillgaertner%NULL%0,          Marianne%Sieber%NULL%0,          Alexander%Dullenkopf%NULL%0,          Lina%Petersen%NULL%0,          Serge%Grazioli%NULL%0,          Peter C.%Rimensberger%NULL%0,          Isabelle%Fleisch%NULL%0,          Jerome%Lavanchy%NULL%0,          Katharina%Marquardt%NULL%0,          Karim%Shaikh%NULL%0,          Hermann%Redecker%NULL%0,          Michael%Stephan%NULL%0,          Jan%Brem%NULL%0,          Bjarte%Rogdo%NULL%0,          Andre%Birkenmaier%NULL%0,          Friederike%Meyer zu Bentrup%NULL%0,          Patricia%Fodor%NULL%0,          Pascal%Locher%NULL%0,          Giovanni%Camen%NULL%0,          Martin%Siegemund%NULL%0,          Nuria%Zellweger%NULL%0,          Marie-Madlen%Jeitziner%NULL%0,          Beatrice%Jenni-Moser%NULL%0,          Christian%Bürkle%NULL%0,          Gian-Reto%Kleger%NULL%0,          Marilene%Franchitti Laurent%NULL%0,          Jean-Christophe%Laurent%NULL%0,          Tomislav%Gaspert%NULL%0,          Marija%Jovic%NULL%0,          Michael%Studhalter%NULL%0,          Christoph%Haberthuer%NULL%0,          Roger F.%Lussman%NULL%0,          Daniela%Selz%NULL%0,          Didier%Naon%NULL%0,          Romano%Mauri%NULL%0,          Samuele%Ceruti%NULL%0,          Julien%Marrel%NULL%0,          Mirko%Brenni%NULL%0,          Rolf%Ensner%NULL%0,          Nadine%Gehring%NULL%0,          Antje%Heise%NULL%0,          Tobias%Huebner%NULL%0,          Thomas A.%Neff%NULL%0,          Sara%Cereghetti%NULL%0,          Filippo%Boroli%NULL%0,          Jerome%Pugin%NULL%0,          Nandor%Marczin%NULL%0,          Joyce%Wong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Warren%Gavin%NULL%0,          Elliott%Campbell%NULL%0,          Syed-Adeel%Zaidi%NULL%0,          Neha%Gavin%NULL%0,          Lana%Dbeibo%NULL%0,          Cole%Beeler%NULL%0,          Kari%Kuebler%NULL%0,          Ahmed%Abdel-Rahman%NULL%0,          Mark%Luetkemeyer%NULL%0,          Areeba%Kara%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Vijay%Gayam%vgayam@interfaithmedical.com%0,          Muchi Ditah%Chobufo%NULL%0,          Muchi Ditah%Chobufo%NULL%0,          Mohamed A.%Merghani%NULL%0,          Mohamed A.%Merghani%NULL%0,          Shristi%Lamichhane%NULL%0,          Pavani Reddy%Garlapati%NULL%0,          Mark K.%Adler%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Cao%Y%coreGivesNoEmail%0,         Imam%Z%coreGivesNoEmail%0,         Lippi%G%coreGivesNoEmail%0,         Oran%DP%coreGivesNoEmail%0,         Shi%S%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Hai%Hu%huhai@wchscu.cn%0,          Ni%Yao%NULL%0,          Ni%Yao%NULL%0,          Yanru%Qiu%NULL%0,          John H.%Burton%NULL%0,          John H.%Burton%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jiaofeng%Huang%NULL%0,          Aiguo%Cheng%NULL%0,          Rahul%Kumar%NULL%0,          Yingying%Fang%NULL%0,          Yingying%Fang%NULL%0,          Gongping%Chen%NULL%0,          Yueyong%Zhu%NULL%0,          Su%Lin%sumer5129@fjmu.edu.cn%0,          Su%Lin%sumer5129@fjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%0,          Ju-Hyun%Kim%NULL%0,          Jin-Sung%Park%NULL%0,          Min Cheol%Chang%wheel633@ynu.ac.kr%0,          Donghwi%Park%bdome@hanmail.net%0]</t>
+  </si>
+  <si>
+    <t>[K.%Khalil%NULL%0,          K.%Agbontaen%NULL%0,          D.%McNally%NULL%0,          A.%Love%NULL%0,          S.%Mandalia%NULL%0,          W.%Banya%NULL%0,          E.%Starren%NULL%0,          R.%Dhunnookchand%NULL%0,          H.%Farne%NULL%0,          R.%Morton%NULL%0,          G.%Davies%NULL%0,          O.%Orhan%NULL%0,          D%Lai%NULL%0,          M.%Nelson%NULL%0,          P.L.%Shah%NULL%0,          J.L.%Garner%Justin.garner@chelwest.nhs.uk%0]</t>
+  </si>
+  <si>
+    <t>[Eyal%Klang%NULL%0,          Gassan%Kassim%NULL%0,          Shelly%Soffer%soffer.shelly@gmail.com%0,          Robert%Freeman%NULL%0,          Robert%Freeman%NULL%0,          Matthew A.%Levin%NULL%0,          Matthew A.%Levin%NULL%0,          David L.%Reich%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sandeep%Krishnan%NULL%0,          Kinjal%Patel%NULL%0,          Ronak%Desai%NULL%0,          Anupam%Sule%NULL%0,          Peter%Paik%NULL%0,          Ashley%Miller%NULL%0,          Alicia%Barclay%NULL%0,          Adam%Cassella%NULL%0,          Jon%Lucaj%NULL%0,          Yvonne%Royster%NULL%0,          Joffer%Hakim%NULL%0,          Zulfiqar%Ahmed%NULL%0,          Farhad%Ghoddoussi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Manisha%Bhutani%null%0,           David M.%Foureau%null%0,           Shebli%Atrash%null%0,           Peter M.%Voorhees%null%0,           Saad Z.%Usmani%null%0,         Manisha%Bhutani%null%0,         David M.%Foureau%null%0,         Shebli%Atrash%null%0,         Peter M.%Voorhees%null%0,         Saad Z.%Usmani%null%0]</t>
+  </si>
+  <si>
+    <t>[Wil%Lieberman-Cribbin%NULL%0,          Joseph%Rapp%NULL%0,          Naomi%Alpert%NULL%0,          Stephanie%Tuminello%NULL%0,          Emanuela%Taioli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Q.%Liu%NULL%0,          N. C.%Song%NULL%0,          Z. K.%Zheng%NULL%0,          J. S.%Li%NULL%0,          S. K.%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Long%NULL%0,          Lan%Nie%NULL%0,          Xiaochen%Xiang%NULL%0,          Huan%Li%NULL%0,          Xiaoli%Zhang%NULL%0,          Xiaozhi%Fu%NULL%0,          Hongwei%Ren%NULL%0,          Wanxin%Liu%NULL%0,          Qiang%Wang%wangqiang@wust.edu.cn%0,          Qingming%Wu%wuhe9224@sina.com%0,          Qingming%Wu%wuhe9224@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Miao%Luo%xref no email%0,  Jing%Liu%xref no email%0,  Weiling%Jiang%xref no email%0,  Shuang%Yue%xref no email%0,  Huiguo%Liu%xref no email%0,  Shuang%Wei%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Xiaomin%Luo%luoxiaomin04@163.com%0,          Wei%Zhou%NULL%0,          Xiaojie%Yan%NULL%0,          Tangxi%Guo%NULL%0,          Benchao%Wang%NULL%0,          Hongxia%Xia%NULL%0,          Lu%Ye%NULL%0,          Jun%Xiong%NULL%0,          Zongping%Jiang%NULL%0,          Yu%Liu%NULL%0,          Bicheng%Zhang%NULL%0,          Weize%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ying%Luo%NULL%0,          Liyan%Mao%NULL%0,          Xu%Yuan%NULL%0,          Ying%Xue%NULL%0,          Qun%Lin%NULL%0,          Guoxing%Tang%NULL%0,          Huijuan%Song%NULL%0,          Feng%Wang%fengwang@tjh.tjmu.edu.cn%0,          Ziyong%Sun%zysun@tjh.tjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ying%Luo%NULL%0,          Ying%Xue%NULL%0,          Liyan%Mao%NULL%0,          Xu%Yuan%NULL%0,          Qun%Lin%NULL%0,          Guoxing%Tang%NULL%0,          Huijuan%Song%NULL%0,          Feng%Wang%NULL%0,          Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chiara%Masetti%NULL%0,          Elena%Generali%NULL%0,          Francesca%Colapietro%NULL%0,          Antonio%Voza%NULL%0,          Maurizio%Cecconi%NULL%0,          Antonio%Messina%NULL%0,          Paolo%Omodei%NULL%0,          Claudio%Angelini%NULL%0,          Michele%Ciccarelli%NULL%0,          Salvatore%Badalamenti%NULL%0,          G. Walter%Canonica%NULL%0,          Ana%Lleo%ana.lleo@humanitas.it%0,          Alessio%Aghemo%NULL%0,          Alessio%Aghemo%NULL%0,          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Takahisa%Mikami%NULL%0,          Hirotaka%Miyashita%NULL%0,          Takayuki%Yamada%NULL%0,          Matthew%Harrington%NULL%0,          Daniel%Steinberg%NULL%0,          Andrew%Dunn%NULL%0,          Evan%Siau%Evan.Siau@mountsinai.org%0]</t>
+  </si>
+  <si>
+    <t>[Alexis K.%Okoh%alexis.okoh@rwjbh.org%0,          Christoph%Sossou%NULL%0,          Christoph%Sossou%NULL%0,          Neha S.%Dangayach%NULL%0,          Sherin%Meledathu%NULL%0,          Oluwakemi%Phillips%NULL%0,          Corinne%Raczek%NULL%0,          Michael%Patti%NULL%0,          Nathan%Kang%NULL%0,          Sameer A.%Hirji%NULL%0,          Charles%Cathcart%NULL%0,          Christian%Engell%NULL%0,          Marc%Cohen%NULL%0,          Sandhya%Nagarakanti%NULL%0,          Eliahu%Bishburg%NULL%0,          Harpreet S.%Grewal%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -2697,7 +3036,7 @@
         <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>486</v>
+        <v>598</v>
       </c>
       <c r="F2" t="s">
         <v>73</v>
@@ -2726,7 +3065,7 @@
         <v>260</v>
       </c>
       <c r="E3" t="s">
-        <v>487</v>
+        <v>599</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -2755,7 +3094,7 @@
         <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>488</v>
+        <v>600</v>
       </c>
       <c r="F4" t="s">
         <v>79</v>
@@ -2784,7 +3123,7 @@
         <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>489</v>
+        <v>601</v>
       </c>
       <c r="F5" t="s">
         <v>83</v>
@@ -2813,7 +3152,7 @@
         <v>86</v>
       </c>
       <c r="E6" t="s">
-        <v>490</v>
+        <v>602</v>
       </c>
       <c r="F6" t="s">
         <v>87</v>
@@ -2871,7 +3210,7 @@
         <v>90</v>
       </c>
       <c r="E8" t="s">
-        <v>491</v>
+        <v>603</v>
       </c>
       <c r="F8" t="s">
         <v>91</v>
@@ -2900,7 +3239,7 @@
         <v>94</v>
       </c>
       <c r="E9" t="s">
-        <v>492</v>
+        <v>604</v>
       </c>
       <c r="F9" t="s">
         <v>95</v>
@@ -2929,7 +3268,7 @@
         <v>98</v>
       </c>
       <c r="E10" t="s">
-        <v>493</v>
+        <v>605</v>
       </c>
       <c r="F10" t="s">
         <v>99</v>
@@ -2958,7 +3297,7 @@
         <v>102</v>
       </c>
       <c r="E11" t="s">
-        <v>494</v>
+        <v>606</v>
       </c>
       <c r="F11" t="s">
         <v>103</v>
@@ -2987,7 +3326,7 @@
         <v>106</v>
       </c>
       <c r="E12" t="s">
-        <v>495</v>
+        <v>607</v>
       </c>
       <c r="F12" t="s">
         <v>107</v>
@@ -3016,7 +3355,7 @@
         <v>109</v>
       </c>
       <c r="E13" t="s">
-        <v>496</v>
+        <v>608</v>
       </c>
       <c r="F13" t="s">
         <v>110</v>
@@ -3045,7 +3384,7 @@
         <v>113</v>
       </c>
       <c r="E14" t="s">
-        <v>497</v>
+        <v>609</v>
       </c>
       <c r="F14" t="s">
         <v>114</v>
@@ -3074,7 +3413,7 @@
         <v>117</v>
       </c>
       <c r="E15" t="s">
-        <v>498</v>
+        <v>610</v>
       </c>
       <c r="F15" t="s">
         <v>118</v>
@@ -3103,7 +3442,7 @@
         <v>121</v>
       </c>
       <c r="E16" t="s">
-        <v>499</v>
+        <v>611</v>
       </c>
       <c r="F16" t="s">
         <v>122</v>
@@ -3132,7 +3471,7 @@
         <v>124</v>
       </c>
       <c r="E17" t="s">
-        <v>500</v>
+        <v>612</v>
       </c>
       <c r="F17" t="s">
         <v>125</v>
@@ -3161,7 +3500,7 @@
         <v>128</v>
       </c>
       <c r="E18" t="s">
-        <v>501</v>
+        <v>613</v>
       </c>
       <c r="F18" t="s">
         <v>129</v>
@@ -3190,7 +3529,7 @@
         <v>131</v>
       </c>
       <c r="E19" t="s">
-        <v>502</v>
+        <v>614</v>
       </c>
       <c r="F19" t="s">
         <v>132</v>
@@ -3219,7 +3558,7 @@
         <v>134</v>
       </c>
       <c r="E20" t="s">
-        <v>503</v>
+        <v>615</v>
       </c>
       <c r="F20" t="s">
         <v>135</v>
@@ -3248,7 +3587,7 @@
         <v>137</v>
       </c>
       <c r="E21" t="s">
-        <v>504</v>
+        <v>616</v>
       </c>
       <c r="F21" t="s">
         <v>138</v>
@@ -3277,7 +3616,7 @@
         <v>141</v>
       </c>
       <c r="E22" t="s">
-        <v>505</v>
+        <v>617</v>
       </c>
       <c r="F22" t="s">
         <v>142</v>
@@ -3306,7 +3645,7 @@
         <v>263</v>
       </c>
       <c r="E23" t="s">
-        <v>506</v>
+        <v>618</v>
       </c>
       <c r="F23" t="s">
         <v>23</v>
@@ -3335,7 +3674,7 @@
         <v>144</v>
       </c>
       <c r="E24" t="s">
-        <v>507</v>
+        <v>619</v>
       </c>
       <c r="F24" t="s">
         <v>145</v>
@@ -3364,7 +3703,7 @@
         <v>147</v>
       </c>
       <c r="E25" t="s">
-        <v>508</v>
+        <v>620</v>
       </c>
       <c r="F25" t="s">
         <v>148</v>
@@ -3393,7 +3732,7 @@
         <v>151</v>
       </c>
       <c r="E26" t="s">
-        <v>509</v>
+        <v>621</v>
       </c>
       <c r="F26" t="s">
         <v>152</v>
@@ -3422,7 +3761,7 @@
         <v>155</v>
       </c>
       <c r="E27" t="s">
-        <v>510</v>
+        <v>622</v>
       </c>
       <c r="F27" t="s">
         <v>156</v>
@@ -3451,7 +3790,7 @@
         <v>158</v>
       </c>
       <c r="E28" t="s">
-        <v>511</v>
+        <v>623</v>
       </c>
       <c r="F28" t="s">
         <v>159</v>
@@ -3480,7 +3819,7 @@
         <v>82</v>
       </c>
       <c r="E29" t="s">
-        <v>512</v>
+        <v>624</v>
       </c>
       <c r="F29" t="s">
         <v>162</v>
@@ -3509,7 +3848,7 @@
         <v>165</v>
       </c>
       <c r="E30" t="s">
-        <v>513</v>
+        <v>625</v>
       </c>
       <c r="F30" t="s">
         <v>166</v>
@@ -3538,7 +3877,7 @@
         <v>168</v>
       </c>
       <c r="E31" t="s">
-        <v>514</v>
+        <v>626</v>
       </c>
       <c r="F31" t="s">
         <v>169</v>
@@ -3567,7 +3906,7 @@
         <v>172</v>
       </c>
       <c r="E32" t="s">
-        <v>515</v>
+        <v>627</v>
       </c>
       <c r="F32" t="s">
         <v>173</v>
@@ -3596,7 +3935,7 @@
         <v>176</v>
       </c>
       <c r="E33" t="s">
-        <v>516</v>
+        <v>628</v>
       </c>
       <c r="F33" t="s">
         <v>177</v>
@@ -3625,7 +3964,7 @@
         <v>180</v>
       </c>
       <c r="E34" t="s">
-        <v>517</v>
+        <v>629</v>
       </c>
       <c r="F34" t="s">
         <v>181</v>
@@ -3654,7 +3993,7 @@
         <v>183</v>
       </c>
       <c r="E35" t="s">
-        <v>518</v>
+        <v>630</v>
       </c>
       <c r="F35" t="s">
         <v>184</v>
@@ -3683,7 +4022,7 @@
         <v>187</v>
       </c>
       <c r="E36" t="s">
-        <v>519</v>
+        <v>631</v>
       </c>
       <c r="F36" t="s">
         <v>188</v>
@@ -3712,7 +4051,7 @@
         <v>191</v>
       </c>
       <c r="E37" t="s">
-        <v>520</v>
+        <v>632</v>
       </c>
       <c r="F37" t="s">
         <v>192</v>
@@ -3741,7 +4080,7 @@
         <v>194</v>
       </c>
       <c r="E38" t="s">
-        <v>521</v>
+        <v>633</v>
       </c>
       <c r="F38" t="s">
         <v>195</v>
@@ -3770,7 +4109,7 @@
         <v>197</v>
       </c>
       <c r="E39" t="s">
-        <v>522</v>
+        <v>634</v>
       </c>
       <c r="F39" t="s">
         <v>198</v>
@@ -3799,7 +4138,7 @@
         <v>64</v>
       </c>
       <c r="E40" t="s">
-        <v>523</v>
+        <v>635</v>
       </c>
       <c r="F40" t="s">
         <v>41</v>
@@ -3828,7 +4167,7 @@
         <v>201</v>
       </c>
       <c r="E41" t="s">
-        <v>524</v>
+        <v>636</v>
       </c>
       <c r="F41" t="s">
         <v>202</v>
@@ -3857,7 +4196,7 @@
         <v>204</v>
       </c>
       <c r="E42" t="s">
-        <v>525</v>
+        <v>637</v>
       </c>
       <c r="F42" t="s">
         <v>205</v>
@@ -3886,7 +4225,7 @@
         <v>208</v>
       </c>
       <c r="E43" t="s">
-        <v>526</v>
+        <v>638</v>
       </c>
       <c r="F43" t="s">
         <v>209</v>
@@ -3915,7 +4254,7 @@
         <v>82</v>
       </c>
       <c r="E44" t="s">
-        <v>527</v>
+        <v>639</v>
       </c>
       <c r="F44" t="s">
         <v>212</v>
@@ -3944,7 +4283,7 @@
         <v>215</v>
       </c>
       <c r="E45" t="s">
-        <v>528</v>
+        <v>640</v>
       </c>
       <c r="F45" t="s">
         <v>216</v>
@@ -3973,7 +4312,7 @@
         <v>82</v>
       </c>
       <c r="E46" t="s">
-        <v>529</v>
+        <v>641</v>
       </c>
       <c r="F46" t="s">
         <v>219</v>
@@ -4031,7 +4370,7 @@
         <v>225</v>
       </c>
       <c r="E48" t="s">
-        <v>530</v>
+        <v>642</v>
       </c>
       <c r="F48" t="s">
         <v>49</v>
@@ -4060,7 +4399,7 @@
         <v>82</v>
       </c>
       <c r="E49" t="s">
-        <v>531</v>
+        <v>643</v>
       </c>
       <c r="F49" t="s">
         <v>229</v>
@@ -4089,7 +4428,7 @@
         <v>231</v>
       </c>
       <c r="E50" t="s">
-        <v>532</v>
+        <v>644</v>
       </c>
       <c r="F50" t="s">
         <v>232</v>
@@ -4118,7 +4457,7 @@
         <v>235</v>
       </c>
       <c r="E51" t="s">
-        <v>533</v>
+        <v>645</v>
       </c>
       <c r="F51" t="s">
         <v>236</v>
@@ -4141,22 +4480,22 @@
         <v>44021</v>
       </c>
       <c r="C52" t="s">
-        <v>63</v>
+        <v>588</v>
       </c>
       <c r="D52" t="s">
         <v>64</v>
       </c>
       <c r="E52" t="s">
-        <v>67</v>
+        <v>646</v>
       </c>
       <c r="F52" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="G52" t="s">
-        <v>69</v>
+        <v>590</v>
       </c>
       <c r="H52" t="s">
-        <v>76</v>
+        <v>591</v>
       </c>
       <c r="I52" t="s">
         <v>82</v>
@@ -4176,7 +4515,7 @@
         <v>239</v>
       </c>
       <c r="E53" t="s">
-        <v>534</v>
+        <v>647</v>
       </c>
       <c r="F53" t="s">
         <v>240</v>
@@ -4205,7 +4544,7 @@
         <v>242</v>
       </c>
       <c r="E54" t="s">
-        <v>535</v>
+        <v>648</v>
       </c>
       <c r="F54" t="s">
         <v>243</v>
@@ -4234,7 +4573,7 @@
         <v>246</v>
       </c>
       <c r="E55" t="s">
-        <v>536</v>
+        <v>649</v>
       </c>
       <c r="F55" t="s">
         <v>247</v>
@@ -4263,7 +4602,7 @@
         <v>249</v>
       </c>
       <c r="E56" t="s">
-        <v>537</v>
+        <v>650</v>
       </c>
       <c r="F56" t="s">
         <v>250</v>
@@ -4292,7 +4631,7 @@
         <v>253</v>
       </c>
       <c r="E57" t="s">
-        <v>538</v>
+        <v>651</v>
       </c>
       <c r="F57" t="s">
         <v>254</v>
@@ -4321,7 +4660,7 @@
         <v>256</v>
       </c>
       <c r="E58" t="s">
-        <v>539</v>
+        <v>652</v>
       </c>
       <c r="F58" t="s">
         <v>257</v>

--- a/Covid_19_Dataset_and_References/References/44.xlsx
+++ b/Covid_19_Dataset_and_References/References/44.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2902" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3714" uniqueCount="764">
   <si>
     <t>Doi</t>
   </si>
@@ -2684,6 +2684,344 @@
   </si>
   <si>
     <t>[Alexis K.%Okoh%alexis.okoh@rwjbh.org%0,          Christoph%Sossou%NULL%0,          Christoph%Sossou%NULL%0,          Neha S.%Dangayach%NULL%0,          Sherin%Meledathu%NULL%0,          Oluwakemi%Phillips%NULL%0,          Corinne%Raczek%NULL%0,          Michael%Patti%NULL%0,          Nathan%Kang%NULL%0,          Sameer A.%Hirji%NULL%0,          Charles%Cathcart%NULL%0,          Christian%Engell%NULL%0,          Marc%Cohen%NULL%0,          Sandhya%Nagarakanti%NULL%0,          Eliahu%Bishburg%NULL%0,          Harpreet S.%Grewal%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%0,           Lian%Yang%NULL%0,           Yuncheng%Li%NULL%0,           Bo%Liang%NULL%0,           Lin%Li%NULL%0,           Tianhe%Ye%NULL%0,           Lingli%Li%NULL%0,           Dehan%Liu%NULL%0,           Shan%Gui%NULL%0,           Yu%Hu%NULL%0,           Chuansheng%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,          Becker%L.B.%coreGivesNoEmail%0,          Chelico%J.D.%coreGivesNoEmail%0,          Cohen%S.L.%coreGivesNoEmail%0,          Cookingham%J.%coreGivesNoEmail%0,          Coppa%K.%coreGivesNoEmail%0,          Crawford%J.M.%coreGivesNoEmail%0,          Davidson%K.W.%coreGivesNoEmail%0,          Diefenbach%M.A.%coreGivesNoEmail%0,          Dominello%A.J.%coreGivesNoEmail%0,          Duer-Hefele%J.%coreGivesNoEmail%0,          Falzon%L.%coreGivesNoEmail%0,          Gitlin%J.%coreGivesNoEmail%0,          Hajizadeh%N.%coreGivesNoEmail%0,          Harvin%T.G.%coreGivesNoEmail%0,          Hirsch%J.S.%coreGivesNoEmail%0,          Hirschwerk%D.A.%coreGivesNoEmail%0,          Kim%E.J.%coreGivesNoEmail%0,          Kozel%Z.M.%coreGivesNoEmail%0,          Marrast%L.M.%coreGivesNoEmail%0,          McGinn%T.%coreGivesNoEmail%0,          Mogavero%J.N.%coreGivesNoEmail%0,          Narasimhan%M.%coreGivesNoEmail%0,          Osorio%G.A.%coreGivesNoEmail%0,          Qiu%M.%coreGivesNoEmail%0,          Richardson%S.%coreGivesNoEmail%0,          Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Mario%Rivera-Izquierdo%NULL%0,           María%del Carmen Valero-Ubierna%NULL%0,           María%del Carmen Valero-Ubierna%NULL%0,           Juan Luis%R-delAmo%NULL%0,           Miguel Ángel%Fernández-García%NULL%0,           Silvia%Martínez-Diz%NULL%0,           Arezu%Tahery-Mahmoud%NULL%0,           Marta%Rodríguez-Camacho%NULL%0,           Ana Belén%Gámiz-Molina%NULL%0,           Nicolás%Barba-Gyengo%NULL%0,           Pablo%Gámez-Baeza%NULL%0,           Celia%Cabrero-Rodríguez%NULL%0,           Pedro Antonio%Guirado-Ruiz%NULL%0,           Divina Tatiana%Martín-Romero%NULL%0,           Antonio Jesús%Láinez-Ramos-Bossini%NULL%0,           María Rosa%Sánchez-Pérez%NULL%0,           José%Mancera-Romero%NULL%0,           Miguel%García-Martín%NULL%0,           Luis Miguel%Martín-delosReyes%NULL%0,           Virginia%Martínez-Ruiz%NULL%0,           Virginia%Martínez-Ruiz%NULL%0,           Pablo%Lardelli-Claret%NULL%0,           Eladio%Jiménez-Mejías%NULL%0,           Muhammad%Adrish%NULL%0,           Muhammad%Adrish%NULL%0,           NULL%NULL%NULL%0,           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,           Kun%Yang%NULL%0,           Kun%Yang%NULL%0,           Wenxia%Wang%NULL%0,           Wenxia%Wang%NULL%0,           Lingyu%Jiang%NULL%0,           Lingyu%Jiang%NULL%0,           Jianxin%Song%songsingsjx@sina.com%0,           Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Grace%Salacup%salacupg@einstein.edu%0,           Kevin Bryan%Lo%NULL%0,           Kevin Bryan%Lo%NULL%0,           Fahad%Gul%NULL%0,           Eric%Peterson%NULL%0,           Robert%De Joy%NULL%0,           Ruchika%Bhargav%NULL%0,           Jerald%Pelayo%NULL%0,           Jeri%Albano%NULL%0,           Zurab%Azmaiparashvili%NULL%0,           Sadia%Benzaquen%NULL%0,           Gabriel%Patarroyo‐Aponte%NULL%0,           Janani%Rangaswami%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yufeng%Shang%NULL%0,           Tao%Liu%NULL%0,           Yongchang%Wei%NULL%0,           Jingfeng%Li%NULL%0,           Liang%Shao%NULL%0,           Minghui%Liu%NULL%0,           Yongxi%Zhang%NULL%0,           Zhigang%Zhao%NULL%0,           Haibo%Xu%NULL%0,           Zhiyong%Peng%NULL%0,           Fuling%Zhou%zhoufuling@whu.edu.cn%0,           Xinghuan%Wang%wangxinghuan@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,           Mu%Qin%qinmuae@163.com%0,           Yuli%Cai%NULL%0,           Tao%Liu%NULL%0,           Bo%Shen%NULL%0,           Fan%Yang%NULL%0,           Sheng%Cao%NULL%0,           Xu%Liu%NULL%0,           Xu%Liu%NULL%0,           Yaozu%Xiang%NULL%0,           Qinyan%Zhao%NULL%0,           He%Huang%huanghe1977@whu.edu.cn%0,           Bo%Yang%yybb112@whu.edu.cn%0,           Congxin%Huang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rita de Cássia Menezes%Soares%NULL%0,           Larissa Rodrigues%Mattos%NULL%0,           Letícia Martins%Raposo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,           Ruoqi%Ning%NULL%0,           Yu%Tao%NULL%0,           Chong%Yu%NULL%0,           Xiaoyan%Deng%NULL%0,           Caili%Zhao%NULL%0,           Silu%Meng%NULL%0,           Fangxu%Tang%89650793@qq.com%0,           Dong%Xu%89650793@qq.com%0,           Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Kun%Wang%NULL%0,           Peiyuan%Zuo%NULL%0,           Yuwei%Liu%NULL%0,           Meng%Zhang%NULL%0,           Xiaofang%Zhao%NULL%0,           Songpu%Xie%NULL%0,           Hao%Zhang%NULL%0,           Xinglin%Chen%NULL%0,           Chengyun%Liu%chengyunliu@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Bo%XU%NULL%0,           Cun-yu%FAN%NULL%0,           An-lu%WANG%NULL%0,           Yi-long%ZOU%NULL%0,           Yi-han%YU%NULL%0,           Cong%HE%NULL%0,           Wen-guang%XIA%NULL%0,           Ji-xian%ZHANG%NULL%0,           Qing%MIAO%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xisheng%Yan%NULL%0,           Fen%Li%NULL%0,           Xiao%Wang%NULL%0,           Jie%Yan%NULL%0,           Fen%Zhu%NULL%0,           Shifan%Tang%NULL%0,           Yingzhong%Deng%NULL%0,           Hua%Wang%NULL%0,           Rui%Chen%NULL%0,           Zhili%Yu%NULL%0,           Yaping%Li%NULL%0,           Jingzhou%Shang%NULL%0,           Lingjun%Zeng%NULL%0,           Jie%Zhao%NULL%0,           Chaokun%Guan%NULL%0,           Qiaomei%Liu%NULL%0,           Haifeng%Chen%NULL%0,           Wei%Gong%NULL%0,           Xin%Huang%NULL%0,           Yu‐Jiao%Zhang%NULL%0,           Jianguang%Liu%NULL%0,           Xiaoyan%Dong%NULL%0,           Wen%Zheng%zhengwen12@mails.jlu.edu.cn%0,           Shaoping%Nie%spnie@126.com%0,           Dongsheng%Li%dongshengli196809@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qing%Yang%NULL%0,           Ying%Zhou%NULL%0,           Xinrong%Wang%NULL%0,           Shan%Gao%NULL%0,           Yang%Xiao%NULL%0,           Weiming%Zhang%NULL%0,           Yi%Hu%huyizxyy@163.com%0,           Yafei%Wang%wyf_527@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,           Qingyu%Yang%NULL%0,           Yaxin%Wang%NULL%0,           Yongran%Wu%NULL%0,           Jiqian%Xu%NULL%0,           Yuan%Yu%NULL%0,           You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wenjing%Ye%yewenjing@xinhuamed.com.cn%0,           Guoxi%Chen%4799082@qq.com%0,           Xiaopan%Li%xiaopanli0224@126.com%0,           Xing%Lan%474137452@qq.com%0,           Chen%Ji%c.ji.3@warwick.ac.uk%0,           Min%Hou%min-hou710@hotmail.com%0,           Di%Zhang%zhangdizhangdi1234@163.com%0,           Guangwang%Zeng%785663609@qq.com%0,           Yaling%Wang%953822402@qq.com%0,           Cheng%Xu%xucheng112358@126.com%0,           Weiwei%Lu%luweiwei100@126.com%0,           Ruolin%Cui%crlqwerty@163.com%0,           Yuyang%Cai%caiyuyang@sjtu.edu.cn%0,           Hai%Huang%1220775601@qq.com%0,           Ling%Yang%yangling01@xinhuamed.com.cn%0]</t>
+  </si>
+  <si>
+    <t>[Caizheng%Yu%NULL%0,           Qing%Lei%NULL%0,           Wenkai%Li%NULL%0,           Xiong%Wang%NULL%0,           Wei%Liu%NULL%0,           Xionglin%Fan%NULL%0,           Wengang%Li%228907211@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,           Ting%Yu%NULL%0,           Ronghui%Du%NULL%0,           Guohui%Fan%NULL%0,           Ying%Liu%NULL%0,           Zhibo%Liu%NULL%0,           Jie%Xiang%NULL%0,           Yeming%Wang%NULL%0,           Bin%Song%NULL%0,           Xiaoying%Gu%NULL%0,           Lulu%Guan%NULL%0,           Yuan%Wei%NULL%0,           Hui%Li%NULL%0,           Xudong%Wu%NULL%0,           Jiuyang%Xu%NULL%0,           Shengjin%Tu%NULL%0,           Yi%Zhang%NULL%0,           Hua%Chen%NULL%0,           Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Moran%Amit%NULL%0,           Alex%Sorkin%NULL%0,           Jacob%Chen%NULL%0,           Barak%Cohen%NULL%0,           Barak%Cohen%NULL%0,           Dana%Karol%NULL%0,           Dana%Karol%NULL%0,           Avishai M%Tsur%NULL%0,           Shaul%Lev%NULL%0,           Shaul%Lev%NULL%0,           Tal%Rozenblat%NULL%0,           Ayana%Dvir%NULL%0,           Ayana%Dvir%NULL%0,           Geva%Landau%NULL%0,           Lidar%Fridrich%NULL%0,           Lidar%Fridrich%NULL%0,           Elon%Glassberg%NULL%0,           Shani%Kesari%NULL%0,           Sigal%Sviri%NULL%0,           Ram%Gelman%NULL%0,           Asaf%Miller%NULL%0,           Danny%Epstein%NULL%0,           Ronny%Ben-Avi%NULL%0,           Ronny%Ben-Avi%NULL%0,           Moshe%Matan%NULL%0,           Daniel J.%Jakobson%NULL%0,           Daniel J.%Jakobson%NULL%0,           Tarif%Bader%NULL%0,           Tarif%Bader%NULL%0,           David%Dahan%NULL%0,           David%Dahan%NULL%0,           Daniel A.%King%NULL%0,           Anat%Ben-Ari%NULL%0,           Arie%Soroksky%NULL%0,           Alon%Bar%NULL%0,           Alon%Bar%NULL%0,           Noam%Fink%NULL%0,           Pierre%Singer%NULL%0,           Avi%Benov%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,           John R%Adler%NULL%0,           Muhammad Sohaib%Asghar%NULL%0,           Muhammad Sohaib%Asghar%NULL%0,           Syed Jawad%Haider Kazmi%NULL%0,           Noman%Ahmed Khan%NULL%0,           Mohammed%Akram%NULL%0,           Salman%Ahmed Khan%NULL%0,           Uzma%Rasheed%NULL%0,           Maira%Hassan%NULL%0,           Gul Muhammad%Memon%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pedro%Baqui%NULL%0,           Ioana%Bica%NULL%0,           Valerio%Marra%marra@cosmo-ufes.org%0,           Ari%Ercole%NULL%0,           Mihaela%van der Schaar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anesi%Adriano%coreGivesNoEmail%0,          Bettinardi%Alessandra%coreGivesNoEmail%0,          Bonetti%Graziella%coreGivesNoEmail%0,          Borrelli%Gianluca%coreGivesNoEmail%0,          Fiordalisi%Gianfranco%coreGivesNoEmail%0,          Lippi%Giuseppe%coreGivesNoEmail%0,          Manelli%Filippo%coreGivesNoEmail%0,          Marino%Antonio%coreGivesNoEmail%0,          Menolfi%Annamaria%coreGivesNoEmail%0,          Patroni%Andrea%coreGivesNoEmail%0,          Saggini%Sara%coreGivesNoEmail%0,          Volpi%Roberta%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Andrea%Borghesi%NULL%0,           Angelo%Zigliani%NULL%0,           Salvatore%Golemi%NULL%0,           Nicola%Carapella%NULL%0,           Patrizia%Maculotti%NULL%0,           Davide%Farina%NULL%0,           Roberto%Maroldi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alberto M.%Borobia%NULL%0,           Antonio J.%Carcas%NULL%0,           Antonio J.%Carcas%NULL%0,           Francisco%Arnalich%NULL%0,           Rodolfo%Álvarez-Sala%NULL%0,           Rodolfo%Álvarez-Sala%NULL%0,           Jaime%Monserrat-Villatoro%NULL%0,           Manuel%Quintana%NULL%0,           Juan Carlos%Figueira%NULL%0,           Rosario M.%Torres Santos-Olmo%NULL%0,           Julio%García-Rodríguez%NULL%0,           Julio%García-Rodríguez%NULL%0,           Alberto%Martín-Vega%NULL%0,           Antonio%Buño%NULL%0,           Elena%Ramírez%NULL%0,           Gonzalo%Martínez-Alés%NULL%0,           Gonzalo%Martínez-Alés%NULL%0,           Nicolás%García-Arenzana%NULL%0,           M. Concepción%Núñez%NULL%0,           M. Concepción%Núñez%NULL%0,           Milagros%Martí-de-Gracia%NULL%0,           Francisco%Moreno Ramos%NULL%0,           Francisco%Reinoso-Barbero%NULL%0,           Alejandro%Martin-Quiros%NULL%0,           Angélica%Rivera Núñez%NULL%0,           Jesús%Mingorance%NULL%0,           Carlos J.%Carpio Segura%NULL%0,           Carlos J.%Carpio Segura%NULL%0,           Daniel%Prieto Arribas%NULL%0,           Esther%Rey Cuevas%NULL%0,           Concepción%Prados Sánchez%NULL%0,           Juan J.%Rios%NULL%0,           Miguel A.%Hernán%NULL%0,           Jesús%Frías%NULL%0,           José R.%Arribas%NULL%0,           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simon E.%Brill%simon.brill@nhs.net%0,           Hannah C.%Jarvis%NULL%0,           Hannah C.%Jarvis%NULL%0,           Ezgi%Ozcan%NULL%0,           Thomas L. P.%Burns%NULL%0,           Rabia A.%Warraich%NULL%0,           Lisa J.%Amani%NULL%0,           Amina%Jaffer%NULL%0,           Stephanie%Paget%NULL%0,           Anand%Sivaramakrishnan%NULL%0,           Dean D.%Creer%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,           Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,           Wenlin%Cheng%NULL%0,           Lei%Yu%NULL%0,           Ya-Kun%Liu%NULL%0,           Xiaoyong%Hu%NULL%0,           Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[B.%Carter%NULL%0,           J.T.%Collins%NULL%0,           F.%Barlow-Pay%NULL%0,           F.%Rickard%NULL%0,           E.%Bruce%NULL%0,           A.%Verduri%NULL%0,           T.J.%Quinn%NULL%0,           E.%Mitchell%NULL%0,           A.%Price%NULL%0,           A.%Vilches-Moraga%NULL%0,           M.J.%Stechman%NULL%0,           R.%Short%NULL%0,           A.%Einarsson%NULL%0,           P.%Braude%NULL%0,           S.%Moug%NULL%0,           P.K.%Myint%NULL%0,           J.%Hewitt%NULL%0,           L.%Pearce%NULL%0,           K.%McCarthy%NULL%0,           C.%Davey%NULL%0,           S.%Jones%NULL%0,           K.%Lunstone%NULL%0,           A.%Cavenagh%NULL%0,           C.%Silver%NULL%0,           T.%Telford%NULL%0,           R.%Simmons%NULL%0,           M.%Holloway%NULL%0,           J.%Hesford%NULL%0,           T.%El Jichi Mutasem%NULL%0,           S.%Singh%NULL%0,           D.%Paxton%NULL%0,           W.%Harris%NULL%0,           N.%Galbraith%NULL%0,           E.%Bhatti%NULL%0,           J.%Edwards%NULL%0,           S.%Duffy%NULL%0,           J.%Kelly%NULL%0,           C.%Murphy%NULL%0,           C.%Bisset%NULL%0,           R.%Alexander%NULL%0,           M.%Garcia%NULL%0,           S.%Sangani%NULL%0,           T.%Kneen%NULL%0,           T.%Lee%NULL%0,           A.%McGovern%NULL%0,           G.%Guaraldi%NULL%0,           E.%Clini%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fuyang%Chen%NULL%0,           Wenwu%Sun%NULL%0,           Shengrong%Sun%NULL%0,           Zhiyu%Li%lizhiyu@whu.edu.cn%0,           Zhong%Wang%zhongwangchn@whu.edu.cn%0,           Li%Yu%yuliwhzxyy@163.com%0,           Li%Yu%yuliwhzxyy@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,           Ling%Sang%NULL%0,           Mei%Jiang%NULL%0,           Zhaowei%Yang%NULL%0,           Nan%Jia%NULL%0,           Wanyi%Fu%NULL%0,           Jiaxing%Xie%NULL%0,           Weijie%Guan%NULL%0,           Wenhua%Liang%NULL%0,           Zhengyi%Ni%NULL%0,           Yu%Hu%NULL%0,           Lei%Liu%NULL%0,           Hong%Shan%NULL%0,           Chunliang%Lei%NULL%0,           Yixiang%Peng%NULL%0,           Li%Wei%NULL%0,           Yong%Liu%NULL%0,           Yahua%Hu%NULL%0,           Peng%Peng%NULL%0,           Jianming%Wang%NULL%0,           Jiyang%Liu%NULL%0,           Zhong%Chen%NULL%0,           Gang%Li%NULL%0,           Zhijian%Zheng%NULL%0,           Shaoqin%Qiu%NULL%0,           Jie%Luo%NULL%0,           Changjiang%Ye%NULL%0,           Shaoyong%Zhu%NULL%0,           Jinping%Zheng%NULL%0,           Nuofu%Zhang%NULL%0,           Yimin%Li%NULL%0,           Jianxing%He%NULL%0,           Jing%Li%NULL%0,           Shiyue%Li%NULL%0,           Nanshan%Zhong%NULL%0,           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,           Di%Wu%NULL%0,           Huilong%Chen%NULL%0,           Weiming%Yan%NULL%0,           Danlei%Yang%NULL%0,           Guang%Chen%NULL%0,           Ke%Ma%NULL%0,           Dong%Xu%NULL%0,           Haijing%Yu%NULL%0,           Hongwu%Wang%NULL%0,           Tao%Wang%NULL%0,           Wei%Guo%NULL%0,           Jia%Chen%NULL%0,           Chen%Ding%NULL%0,           Xiaoping%Zhang%NULL%0,           Jiaquan%Huang%NULL%0,           Meifang%Han%NULL%0,           Shusheng%Li%NULL%0,           Xiaoping%Luo%NULL%0,           Jianping%Zhao%NULL%0,           Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anying%Cheng%NULL%0,           Liu%Hu%NULL%0,           Yiru%Wang%NULL%0,           Luyan%Huang%NULL%0,           Lingxi%Zhao%NULL%0,           Congcong%Zhang%NULL%0,           Xiyue%Liu%NULL%0,           Ranran%Xu%NULL%0,           Feng%Liu%NULL%0,           Jinping%Li%NULL%0,           Dawei%Ye%NULL%0,           Tao%Wang%NULL%0,           Yongman%Lv%lvyongman@126.com%0,           Qingquan%Liu%qqliutj@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fabio%Ciceri%ciceri.fabio@hsr.it%0,           Antonella%Castagna%NULL%0,           Patrizia%Rovere-Querini%NULL%0,           Francesco%De Cobelli%NULL%0,           Annalisa%Ruggeri%NULL%0,           Laura%Galli%NULL%0,           Caterina%Conte%NULL%0,           Rebecca%De Lorenzo%NULL%0,           Andrea%Poli%NULL%0,           Alberto%Ambrosio%NULL%0,           Carlo%Signorelli%NULL%0,           Eleonora%Bossi%NULL%0,           Maria%Fazio%NULL%0,           Cristina%Tresoldi%NULL%0,           Sergio%Colombo%NULL%0,           Giacomo%Monti%NULL%0,           Efgeny%Fominskiy%NULL%0,           Stefano%Franchini%NULL%0,           Marzia%Spessot%NULL%0,           Carlo%Martinenghi%NULL%0,           Michele%Carlucci%NULL%0,           Luigi%Beretta%NULL%0,           Anna Maria%Scandroglio%NULL%0,           Massimo%Clementi%NULL%0,           Massimo%Locatelli%NULL%0,           Moreno%Tresoldi%NULL%0,           Paolo%Scarpellini%NULL%0,           Gianvito%Martino%NULL%0,           Emanuele%Bosi%NULL%0,           Lorenzo%Dagna%NULL%0,           Adriano%Lazzarin%NULL%0,           Giovanni%Landoni%NULL%0,           Alberto%Zangrillo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,           Wei%Liu%NULL%0,           Kui%Liu%NULL%0,           Yuan-Yuan%Fang%NULL%0,           Jin%Shang%NULL%0,           Ling%Zhou%NULL%0,           Ke%Wang%NULL%0,           Fan%Leng%NULL%0,           Shuang%Wei%NULL%0,           Lei%Chen%NULL%0,           Hui-Guo%Liu%NULL%0,           Pei-Fang%Wei%NULL%0,           Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,           Li-Rong%Liang%NULL%0,           Cheng-Qing%Yang%NULL%0,           Wen%Wang%NULL%0,           Tan-Ze%Cao%NULL%0,           Ming%Li%NULL%0,           Guang-Yun%Guo%NULL%0,           Juan%Du%NULL%0,           Chun-Lan%Zheng%NULL%0,           Qi%Zhu%NULL%0,           Ming%Hu%NULL%0,           Xu-Yan%Li%NULL%0,           Peng%Peng%NULL%0,           Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shan%Gao%NULL%0,           Fang%Jiang%NULL%0,           Wei%Jin%NULL%0,           Yuan%Shi%NULL%0,           Leilei%Yang%NULL%0,           Yanqiong%Xia%NULL%0,           Linyan%Jia%NULL%0,           Bo%Wang%NULL%0,           Han%Lin%NULL%0,           Yin%Cai%NULL%0,           Zhengyuan%Xia%NULL%0,           Jian%Peng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pedro David%Wendel Garcia%pedrodavid.wendelgarcia@usz.ch%0,           Thierry%Fumeaux%thierry.fumeaux@ghol.ch%0,           Philippe%Guerci%NULL%0,           Dorothea Monika%Heuberger%dorotheamonika.heuberger@usz.ch%0,           Jonathan%Montomoli%NULL%0,           Ferran%Roche-Campo%NULL%0,           Reto Andreas%Schuepbach%reto.schuepbach@usz.ch%0,           Matthias Peter%Hilty%matthias.hilty@usz.ch%0,           Mario%Alfaro Farias%NULL%0,           Antoni%Margarit%NULL%0,           Gerardo%Vizmanos-Lamotte%NULL%0,           Thomas%Tschoellitsch%NULL%0,           Jens%Meier%NULL%0,           Francesco S.%Cardona%NULL%0,           Josef%Skola%NULL%0,           Lenka%Horakova%NULL%0,           Hernan%Aguirre-Bermeo%NULL%0,           Janina%Apolo%NULL%0,           Emmanuel%Novy%NULL%0,           Marie-Reine%Losser%NULL%0,           Geoffrey%Jurkolow%NULL%0,           Gauthier%Delahaye%NULL%0,           Sascha%David%NULL%0,           Tobias%Welte%NULL%0,           Tobias%Wengenmayer%NULL%0,           Dawid L.%Staudacher%NULL%0,           Theodoros%Aslanidis%NULL%0,           Barna%Babik%NULL%0,           Anita%Korsos%NULL%0,           Janos%Gal%NULL%0,           Hermann%Csaba%NULL%0,           Abele%Donati%NULL%0,           Andrea%Carsetti%NULL%0,           Fabrizio%Turrini%NULL%0,           Maria Sole%Simonini%NULL%0,           Roberto%Ceriani%NULL%0,           Martina%Murrone%NULL%0,           Emanuele%Rezoagli%NULL%0,           Giovanni%Vitale%NULL%0,           Alberto%Fogagnolo%NULL%0,           Savino%Spadaro%NULL%0,           Maddalena Alessandra%Wu%NULL%0,           Chiara%Cogliati%NULL%0,           Riccardo%Colombo%NULL%0,           Emanuele%Catena%NULL%0,           Francesca%Facondini%NULL%0,           Antonella%Potalivo%NULL%0,           Gianfilippo%Gangitano%NULL%0,           Tiziana%Perin%NULL%0,           Maria Grazia%Bocci%NULL%0,           Massimo%Antonelli%NULL%0,           Diederik%Gommers%NULL%0,           Can%Ince%NULL%0,           Eric%Mayor-Vázquez%NULL%0,           Maria%Cruz%NULL%0,           Martin%Delgado%NULL%0,           Raquel Rodriguez%Garcia%NULL%0,           Jorge%Gamez Zapata%NULL%0,           Begoña%Zalba-Etayo%NULL%0,           Herminia%Lozano-Gomez%NULL%0,           Pedro%Castro%NULL%0,           Adrian%Tellez%NULL%0,           Adriana%Jacas%NULL%0,           Guido%Muñoz%NULL%0,           Rut%Andrea%NULL%0,           Jose%Ortiz%NULL%0,           Eduard%Quintana%NULL%0,           Irene%Rovira%NULL%0,           Enric%Reverter%NULL%0,           Javier%Fernandez%NULL%0,           Miquel%Ferrer%NULL%0,           Joan R.%Badia%NULL%0,           Arantxa%Lander Azcona%NULL%0,           Jesus Escos%Orta%NULL%0,           Philipp%Bühler%NULL%0,           Silvio%Brugger%NULL%0,           Daniel%Hofmaenner%NULL%0,           Simone%Unseld%NULL%0,           Frank%Ruschitzka%NULL%0,           Mallory%Moret-Bochatay%NULL%0,           Bernd%Yuen%NULL%0,           Thomas%Hillermann%NULL%0,           Hatem%Ksouri%NULL%0,           Govind Oliver%Sridharan%NULL%0,           Anette%Ristic%NULL%0,           Michael%Sepulcri%NULL%0,           Miodrag%Filipovic%NULL%0,           Urs%Pietsch%NULL%0,           Petra%Salomon%NULL%0,           Iris%Drvaric%NULL%0,           Peter%Schott%NULL%0,           Severin%Urech%NULL%0,           Adriana%Lambert%NULL%0,           Lukas%Merki%NULL%0,           Marcus%Laube%NULL%0,           Frank%Hillgaertner%NULL%0,           Marianne%Sieber%NULL%0,           Alexander%Dullenkopf%NULL%0,           Lina%Petersen%NULL%0,           Serge%Grazioli%NULL%0,           Peter C.%Rimensberger%NULL%0,           Isabelle%Fleisch%NULL%0,           Jerome%Lavanchy%NULL%0,           Katharina%Marquardt%NULL%0,           Karim%Shaikh%NULL%0,           Hermann%Redecker%NULL%0,           Michael%Stephan%NULL%0,           Jan%Brem%NULL%0,           Bjarte%Rogdo%NULL%0,           Andre%Birkenmaier%NULL%0,           Friederike%Meyer zu Bentrup%NULL%0,           Patricia%Fodor%NULL%0,           Pascal%Locher%NULL%0,           Giovanni%Camen%NULL%0,           Martin%Siegemund%NULL%0,           Nuria%Zellweger%NULL%0,           Marie-Madlen%Jeitziner%NULL%0,           Beatrice%Jenni-Moser%NULL%0,           Christian%Bürkle%NULL%0,           Gian-Reto%Kleger%NULL%0,           Marilene%Franchitti Laurent%NULL%0,           Jean-Christophe%Laurent%NULL%0,           Tomislav%Gaspert%NULL%0,           Marija%Jovic%NULL%0,           Michael%Studhalter%NULL%0,           Christoph%Haberthuer%NULL%0,           Roger F.%Lussman%NULL%0,           Daniela%Selz%NULL%0,           Didier%Naon%NULL%0,           Romano%Mauri%NULL%0,           Samuele%Ceruti%NULL%0,           Julien%Marrel%NULL%0,           Mirko%Brenni%NULL%0,           Rolf%Ensner%NULL%0,           Nadine%Gehring%NULL%0,           Antje%Heise%NULL%0,           Tobias%Huebner%NULL%0,           Thomas A.%Neff%NULL%0,           Sara%Cereghetti%NULL%0,           Filippo%Boroli%NULL%0,           Jerome%Pugin%NULL%0,           Nandor%Marczin%NULL%0,           Joyce%Wong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Warren%Gavin%NULL%0,           Elliott%Campbell%NULL%0,           Syed-Adeel%Zaidi%NULL%0,           Neha%Gavin%NULL%0,           Lana%Dbeibo%NULL%0,           Cole%Beeler%NULL%0,           Kari%Kuebler%NULL%0,           Ahmed%Abdel-Rahman%NULL%0,           Mark%Luetkemeyer%NULL%0,           Areeba%Kara%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Vijay%Gayam%vgayam@interfaithmedical.com%0,           Muchi Ditah%Chobufo%NULL%0,           Muchi Ditah%Chobufo%NULL%0,           Mohamed A.%Merghani%NULL%0,           Mohamed A.%Merghani%NULL%0,           Shristi%Lamichhane%NULL%0,           Pavani Reddy%Garlapati%NULL%0,           Mark K.%Adler%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Cao%Y%coreGivesNoEmail%0,          Imam%Z%coreGivesNoEmail%0,          Lippi%G%coreGivesNoEmail%0,          Oran%DP%coreGivesNoEmail%0,          Shi%S%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Hai%Hu%huhai@wchscu.cn%0,           Ni%Yao%NULL%0,           Ni%Yao%NULL%0,           Yanru%Qiu%NULL%0,           John H.%Burton%NULL%0,           John H.%Burton%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jiaofeng%Huang%NULL%0,           Aiguo%Cheng%NULL%0,           Rahul%Kumar%NULL%0,           Yingying%Fang%NULL%0,           Yingying%Fang%NULL%0,           Gongping%Chen%NULL%0,           Yueyong%Zhu%NULL%0,           Su%Lin%sumer5129@fjmu.edu.cn%0,           Su%Lin%sumer5129@fjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%0,           Ju-Hyun%Kim%NULL%0,           Jin-Sung%Park%NULL%0,           Min Cheol%Chang%wheel633@ynu.ac.kr%0,           Donghwi%Park%bdome@hanmail.net%0]</t>
+  </si>
+  <si>
+    <t>[K.%Khalil%NULL%0,           K.%Agbontaen%NULL%0,           D.%McNally%NULL%0,           A.%Love%NULL%0,           S.%Mandalia%NULL%0,           W.%Banya%NULL%0,           E.%Starren%NULL%0,           R.%Dhunnookchand%NULL%0,           H.%Farne%NULL%0,           R.%Morton%NULL%0,           G.%Davies%NULL%0,           O.%Orhan%NULL%0,           D%Lai%NULL%0,           M.%Nelson%NULL%0,           P.L.%Shah%NULL%0,           J.L.%Garner%Justin.garner@chelwest.nhs.uk%0]</t>
+  </si>
+  <si>
+    <t>[Eyal%Klang%NULL%0,           Gassan%Kassim%NULL%0,           Shelly%Soffer%soffer.shelly@gmail.com%0,           Robert%Freeman%NULL%0,           Robert%Freeman%NULL%0,           Matthew A.%Levin%NULL%0,           Matthew A.%Levin%NULL%0,           David L.%Reich%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sandeep%Krishnan%NULL%0,           Kinjal%Patel%NULL%0,           Ronak%Desai%NULL%0,           Anupam%Sule%NULL%0,           Peter%Paik%NULL%0,           Ashley%Miller%NULL%0,           Alicia%Barclay%NULL%0,           Adam%Cassella%NULL%0,           Jon%Lucaj%NULL%0,           Yvonne%Royster%NULL%0,           Joffer%Hakim%NULL%0,           Zulfiqar%Ahmed%NULL%0,           Farhad%Ghoddoussi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Manisha%Bhutani%null%0,            David M.%Foureau%null%0,            Shebli%Atrash%null%0,            Peter M.%Voorhees%null%0,            Saad Z.%Usmani%null%0,          Manisha%Bhutani%null%0,          David M.%Foureau%null%0,          Shebli%Atrash%null%0,          Peter M.%Voorhees%null%0,          Saad Z.%Usmani%null%0]</t>
+  </si>
+  <si>
+    <t>[Wil%Lieberman-Cribbin%NULL%0,           Joseph%Rapp%NULL%0,           Naomi%Alpert%NULL%0,           Stephanie%Tuminello%NULL%0,           Emanuela%Taioli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Q.%Liu%NULL%0,           N. C.%Song%NULL%0,           Z. K.%Zheng%NULL%0,           J. S.%Li%NULL%0,           S. K.%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Long%NULL%0,           Lan%Nie%NULL%0,           Xiaochen%Xiang%NULL%0,           Huan%Li%NULL%0,           Xiaoli%Zhang%NULL%0,           Xiaozhi%Fu%NULL%0,           Hongwei%Ren%NULL%0,           Wanxin%Liu%NULL%0,           Qiang%Wang%wangqiang@wust.edu.cn%0,           Qingming%Wu%wuhe9224@sina.com%0,           Qingming%Wu%wuhe9224@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Miao%Luo%xref no email%0,   Jing%Liu%xref no email%0,   Weiling%Jiang%xref no email%0,   Shuang%Yue%xref no email%0,   Huiguo%Liu%xref no email%0,   Shuang%Wei%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Xiaomin%Luo%luoxiaomin04@163.com%0,           Wei%Zhou%NULL%0,           Xiaojie%Yan%NULL%0,           Tangxi%Guo%NULL%0,           Benchao%Wang%NULL%0,           Hongxia%Xia%NULL%0,           Lu%Ye%NULL%0,           Jun%Xiong%NULL%0,           Zongping%Jiang%NULL%0,           Yu%Liu%NULL%0,           Bicheng%Zhang%NULL%0,           Weize%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ying%Luo%NULL%0,           Liyan%Mao%NULL%0,           Xu%Yuan%NULL%0,           Ying%Xue%NULL%0,           Qun%Lin%NULL%0,           Guoxing%Tang%NULL%0,           Huijuan%Song%NULL%0,           Feng%Wang%fengwang@tjh.tjmu.edu.cn%0,           Ziyong%Sun%zysun@tjh.tjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ying%Luo%NULL%0,           Ying%Xue%NULL%0,           Liyan%Mao%NULL%0,           Xu%Yuan%NULL%0,           Qun%Lin%NULL%0,           Guoxing%Tang%NULL%0,           Huijuan%Song%NULL%0,           Feng%Wang%NULL%0,           Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chiara%Masetti%NULL%0,           Elena%Generali%NULL%0,           Francesca%Colapietro%NULL%0,           Antonio%Voza%NULL%0,           Maurizio%Cecconi%NULL%0,           Antonio%Messina%NULL%0,           Paolo%Omodei%NULL%0,           Claudio%Angelini%NULL%0,           Michele%Ciccarelli%NULL%0,           Salvatore%Badalamenti%NULL%0,           G. Walter%Canonica%NULL%0,           Ana%Lleo%ana.lleo@humanitas.it%0,           Alessio%Aghemo%NULL%0,           Alessio%Aghemo%NULL%0,           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Takahisa%Mikami%NULL%0,           Hirotaka%Miyashita%NULL%0,           Takayuki%Yamada%NULL%0,           Matthew%Harrington%NULL%0,           Daniel%Steinberg%NULL%0,           Andrew%Dunn%NULL%0,           Evan%Siau%Evan.Siau@mountsinai.org%0]</t>
+  </si>
+  <si>
+    <t>[Alexis K.%Okoh%alexis.okoh@rwjbh.org%0,           Christoph%Sossou%NULL%0,           Christoph%Sossou%NULL%0,           Neha S.%Dangayach%NULL%0,           Sherin%Meledathu%NULL%0,           Oluwakemi%Phillips%NULL%0,           Corinne%Raczek%NULL%0,           Michael%Patti%NULL%0,           Nathan%Kang%NULL%0,           Sameer A.%Hirji%NULL%0,           Charles%Cathcart%NULL%0,           Christian%Engell%NULL%0,           Marc%Cohen%NULL%0,           Sandhya%Nagarakanti%NULL%0,           Eliahu%Bishburg%NULL%0,           Harpreet S.%Grewal%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%0,            Lian%Yang%NULL%0,            Yuncheng%Li%NULL%0,            Bo%Liang%NULL%0,            Lin%Li%NULL%0,            Tianhe%Ye%NULL%0,            Lingli%Li%NULL%0,            Dehan%Liu%NULL%0,            Shan%Gui%NULL%0,            Yu%Hu%NULL%0,            Chuansheng%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,           Becker%L.B.%coreGivesNoEmail%0,           Chelico%J.D.%coreGivesNoEmail%0,           Cohen%S.L.%coreGivesNoEmail%0,           Cookingham%J.%coreGivesNoEmail%0,           Coppa%K.%coreGivesNoEmail%0,           Crawford%J.M.%coreGivesNoEmail%0,           Davidson%K.W.%coreGivesNoEmail%0,           Diefenbach%M.A.%coreGivesNoEmail%0,           Dominello%A.J.%coreGivesNoEmail%0,           Duer-Hefele%J.%coreGivesNoEmail%0,           Falzon%L.%coreGivesNoEmail%0,           Gitlin%J.%coreGivesNoEmail%0,           Hajizadeh%N.%coreGivesNoEmail%0,           Harvin%T.G.%coreGivesNoEmail%0,           Hirsch%J.S.%coreGivesNoEmail%0,           Hirschwerk%D.A.%coreGivesNoEmail%0,           Kim%E.J.%coreGivesNoEmail%0,           Kozel%Z.M.%coreGivesNoEmail%0,           Marrast%L.M.%coreGivesNoEmail%0,           McGinn%T.%coreGivesNoEmail%0,           Mogavero%J.N.%coreGivesNoEmail%0,           Narasimhan%M.%coreGivesNoEmail%0,           Osorio%G.A.%coreGivesNoEmail%0,           Qiu%M.%coreGivesNoEmail%0,           Richardson%S.%coreGivesNoEmail%0,           Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Mario%Rivera-Izquierdo%NULL%0,            María%del Carmen Valero-Ubierna%NULL%0,            María%del Carmen Valero-Ubierna%NULL%0,            Juan Luis%R-delAmo%NULL%0,            Miguel Ángel%Fernández-García%NULL%0,            Silvia%Martínez-Diz%NULL%0,            Arezu%Tahery-Mahmoud%NULL%0,            Marta%Rodríguez-Camacho%NULL%0,            Ana Belén%Gámiz-Molina%NULL%0,            Nicolás%Barba-Gyengo%NULL%0,            Pablo%Gámez-Baeza%NULL%0,            Celia%Cabrero-Rodríguez%NULL%0,            Pedro Antonio%Guirado-Ruiz%NULL%0,            Divina Tatiana%Martín-Romero%NULL%0,            Antonio Jesús%Láinez-Ramos-Bossini%NULL%0,            María Rosa%Sánchez-Pérez%NULL%0,            José%Mancera-Romero%NULL%0,            Miguel%García-Martín%NULL%0,            Luis Miguel%Martín-delosReyes%NULL%0,            Virginia%Martínez-Ruiz%NULL%0,            Virginia%Martínez-Ruiz%NULL%0,            Pablo%Lardelli-Claret%NULL%0,            Eladio%Jiménez-Mejías%NULL%0,            Muhammad%Adrish%NULL%0,            Muhammad%Adrish%NULL%0,            NULL%NULL%NULL%0,            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,            Kun%Yang%NULL%0,            Kun%Yang%NULL%0,            Wenxia%Wang%NULL%0,            Wenxia%Wang%NULL%0,            Lingyu%Jiang%NULL%0,            Lingyu%Jiang%NULL%0,            Jianxin%Song%songsingsjx@sina.com%0,            Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Grace%Salacup%salacupg@einstein.edu%0,            Kevin Bryan%Lo%NULL%0,            Kevin Bryan%Lo%NULL%0,            Fahad%Gul%NULL%0,            Eric%Peterson%NULL%0,            Robert%De Joy%NULL%0,            Ruchika%Bhargav%NULL%0,            Jerald%Pelayo%NULL%0,            Jeri%Albano%NULL%0,            Zurab%Azmaiparashvili%NULL%0,            Sadia%Benzaquen%NULL%0,            Gabriel%Patarroyo‐Aponte%NULL%0,            Janani%Rangaswami%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yufeng%Shang%NULL%0,            Tao%Liu%NULL%0,            Yongchang%Wei%NULL%0,            Jingfeng%Li%NULL%0,            Liang%Shao%NULL%0,            Minghui%Liu%NULL%0,            Yongxi%Zhang%NULL%0,            Zhigang%Zhao%NULL%0,            Haibo%Xu%NULL%0,            Zhiyong%Peng%NULL%0,            Fuling%Zhou%zhoufuling@whu.edu.cn%0,            Xinghuan%Wang%wangxinghuan@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,            Mu%Qin%qinmuae@163.com%0,            Yuli%Cai%NULL%0,            Tao%Liu%NULL%0,            Bo%Shen%NULL%0,            Fan%Yang%NULL%0,            Sheng%Cao%NULL%0,            Xu%Liu%NULL%0,            Xu%Liu%NULL%0,            Yaozu%Xiang%NULL%0,            Qinyan%Zhao%NULL%0,            He%Huang%huanghe1977@whu.edu.cn%0,            Bo%Yang%yybb112@whu.edu.cn%0,            Congxin%Huang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rita de Cássia Menezes%Soares%NULL%0,            Larissa Rodrigues%Mattos%NULL%0,            Letícia Martins%Raposo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,            Ruoqi%Ning%NULL%0,            Yu%Tao%NULL%0,            Chong%Yu%NULL%0,            Xiaoyan%Deng%NULL%0,            Caili%Zhao%NULL%0,            Silu%Meng%NULL%0,            Fangxu%Tang%89650793@qq.com%0,            Dong%Xu%89650793@qq.com%0,            Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Kun%Wang%NULL%0,            Peiyuan%Zuo%NULL%0,            Yuwei%Liu%NULL%0,            Meng%Zhang%NULL%0,            Xiaofang%Zhao%NULL%0,            Songpu%Xie%NULL%0,            Hao%Zhang%NULL%0,            Xinglin%Chen%NULL%0,            Chengyun%Liu%chengyunliu@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Bo%XU%NULL%0,            Cun-yu%FAN%NULL%0,            An-lu%WANG%NULL%0,            Yi-long%ZOU%NULL%0,            Yi-han%YU%NULL%0,            Cong%HE%NULL%0,            Wen-guang%XIA%NULL%0,            Ji-xian%ZHANG%NULL%0,            Qing%MIAO%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xisheng%Yan%NULL%0,            Fen%Li%NULL%0,            Xiao%Wang%NULL%0,            Jie%Yan%NULL%0,            Fen%Zhu%NULL%0,            Shifan%Tang%NULL%0,            Yingzhong%Deng%NULL%0,            Hua%Wang%NULL%0,            Rui%Chen%NULL%0,            Zhili%Yu%NULL%0,            Yaping%Li%NULL%0,            Jingzhou%Shang%NULL%0,            Lingjun%Zeng%NULL%0,            Jie%Zhao%NULL%0,            Chaokun%Guan%NULL%0,            Qiaomei%Liu%NULL%0,            Haifeng%Chen%NULL%0,            Wei%Gong%NULL%0,            Xin%Huang%NULL%0,            Yu‐Jiao%Zhang%NULL%0,            Jianguang%Liu%NULL%0,            Xiaoyan%Dong%NULL%0,            Wen%Zheng%zhengwen12@mails.jlu.edu.cn%0,            Shaoping%Nie%spnie@126.com%0,            Dongsheng%Li%dongshengli196809@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qing%Yang%NULL%0,            Ying%Zhou%NULL%0,            Xinrong%Wang%NULL%0,            Shan%Gao%NULL%0,            Yang%Xiao%NULL%0,            Weiming%Zhang%NULL%0,            Yi%Hu%huyizxyy@163.com%0,            Yafei%Wang%wyf_527@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,            Qingyu%Yang%NULL%0,            Yaxin%Wang%NULL%0,            Yongran%Wu%NULL%0,            Jiqian%Xu%NULL%0,            Yuan%Yu%NULL%0,            You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wenjing%Ye%yewenjing@xinhuamed.com.cn%0,            Guoxi%Chen%4799082@qq.com%0,            Xiaopan%Li%xiaopanli0224@126.com%0,            Xing%Lan%474137452@qq.com%0,            Chen%Ji%c.ji.3@warwick.ac.uk%0,            Min%Hou%min-hou710@hotmail.com%0,            Di%Zhang%zhangdizhangdi1234@163.com%0,            Guangwang%Zeng%785663609@qq.com%0,            Yaling%Wang%953822402@qq.com%0,            Cheng%Xu%xucheng112358@126.com%0,            Weiwei%Lu%luweiwei100@126.com%0,            Ruolin%Cui%crlqwerty@163.com%0,            Yuyang%Cai%caiyuyang@sjtu.edu.cn%0,            Hai%Huang%1220775601@qq.com%0,            Ling%Yang%yangling01@xinhuamed.com.cn%0]</t>
+  </si>
+  <si>
+    <t>[Caizheng%Yu%NULL%0,            Qing%Lei%NULL%0,            Wenkai%Li%NULL%0,            Xiong%Wang%NULL%0,            Wei%Liu%NULL%0,            Xionglin%Fan%NULL%0,            Wengang%Li%228907211@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,            Ting%Yu%NULL%0,            Ronghui%Du%NULL%0,            Guohui%Fan%NULL%0,            Ying%Liu%NULL%0,            Zhibo%Liu%NULL%0,            Jie%Xiang%NULL%0,            Yeming%Wang%NULL%0,            Bin%Song%NULL%0,            Xiaoying%Gu%NULL%0,            Lulu%Guan%NULL%0,            Yuan%Wei%NULL%0,            Hui%Li%NULL%0,            Xudong%Wu%NULL%0,            Jiuyang%Xu%NULL%0,            Shengjin%Tu%NULL%0,            Yi%Zhang%NULL%0,            Hua%Chen%NULL%0,            Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Moran%Amit%NULL%0,            Alex%Sorkin%NULL%0,            Jacob%Chen%NULL%0,            Barak%Cohen%NULL%0,            Barak%Cohen%NULL%0,            Dana%Karol%NULL%0,            Dana%Karol%NULL%0,            Avishai M%Tsur%NULL%0,            Shaul%Lev%NULL%0,            Shaul%Lev%NULL%0,            Tal%Rozenblat%NULL%0,            Ayana%Dvir%NULL%0,            Ayana%Dvir%NULL%0,            Geva%Landau%NULL%0,            Lidar%Fridrich%NULL%0,            Lidar%Fridrich%NULL%0,            Elon%Glassberg%NULL%0,            Shani%Kesari%NULL%0,            Sigal%Sviri%NULL%0,            Ram%Gelman%NULL%0,            Asaf%Miller%NULL%0,            Danny%Epstein%NULL%0,            Ronny%Ben-Avi%NULL%0,            Ronny%Ben-Avi%NULL%0,            Moshe%Matan%NULL%0,            Daniel J.%Jakobson%NULL%0,            Daniel J.%Jakobson%NULL%0,            Tarif%Bader%NULL%0,            Tarif%Bader%NULL%0,            David%Dahan%NULL%0,            David%Dahan%NULL%0,            Daniel A.%King%NULL%0,            Anat%Ben-Ari%NULL%0,            Arie%Soroksky%NULL%0,            Alon%Bar%NULL%0,            Alon%Bar%NULL%0,            Noam%Fink%NULL%0,            Pierre%Singer%NULL%0,            Avi%Benov%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,            John R%Adler%NULL%0,            Muhammad Sohaib%Asghar%NULL%0,            Muhammad Sohaib%Asghar%NULL%0,            Syed Jawad%Haider Kazmi%NULL%0,            Noman%Ahmed Khan%NULL%0,            Mohammed%Akram%NULL%0,            Salman%Ahmed Khan%NULL%0,            Uzma%Rasheed%NULL%0,            Maira%Hassan%NULL%0,            Gul Muhammad%Memon%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pedro%Baqui%NULL%0,            Ioana%Bica%NULL%0,            Valerio%Marra%marra@cosmo-ufes.org%0,            Ari%Ercole%NULL%0,            Mihaela%van der Schaar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anesi%Adriano%coreGivesNoEmail%0,           Bettinardi%Alessandra%coreGivesNoEmail%0,           Bonetti%Graziella%coreGivesNoEmail%0,           Borrelli%Gianluca%coreGivesNoEmail%0,           Fiordalisi%Gianfranco%coreGivesNoEmail%0,           Lippi%Giuseppe%coreGivesNoEmail%0,           Manelli%Filippo%coreGivesNoEmail%0,           Marino%Antonio%coreGivesNoEmail%0,           Menolfi%Annamaria%coreGivesNoEmail%0,           Patroni%Andrea%coreGivesNoEmail%0,           Saggini%Sara%coreGivesNoEmail%0,           Volpi%Roberta%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Andrea%Borghesi%NULL%0,            Angelo%Zigliani%NULL%0,            Salvatore%Golemi%NULL%0,            Nicola%Carapella%NULL%0,            Patrizia%Maculotti%NULL%0,            Davide%Farina%NULL%0,            Roberto%Maroldi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alberto M.%Borobia%NULL%0,            Antonio J.%Carcas%NULL%0,            Antonio J.%Carcas%NULL%0,            Francisco%Arnalich%NULL%0,            Rodolfo%Álvarez-Sala%NULL%0,            Rodolfo%Álvarez-Sala%NULL%0,            Jaime%Monserrat-Villatoro%NULL%0,            Manuel%Quintana%NULL%0,            Juan Carlos%Figueira%NULL%0,            Rosario M.%Torres Santos-Olmo%NULL%0,            Julio%García-Rodríguez%NULL%0,            Julio%García-Rodríguez%NULL%0,            Alberto%Martín-Vega%NULL%0,            Antonio%Buño%NULL%0,            Elena%Ramírez%NULL%0,            Gonzalo%Martínez-Alés%NULL%0,            Gonzalo%Martínez-Alés%NULL%0,            Nicolás%García-Arenzana%NULL%0,            M. Concepción%Núñez%NULL%0,            M. Concepción%Núñez%NULL%0,            Milagros%Martí-de-Gracia%NULL%0,            Francisco%Moreno Ramos%NULL%0,            Francisco%Reinoso-Barbero%NULL%0,            Alejandro%Martin-Quiros%NULL%0,            Angélica%Rivera Núñez%NULL%0,            Jesús%Mingorance%NULL%0,            Carlos J.%Carpio Segura%NULL%0,            Carlos J.%Carpio Segura%NULL%0,            Daniel%Prieto Arribas%NULL%0,            Esther%Rey Cuevas%NULL%0,            Concepción%Prados Sánchez%NULL%0,            Juan J.%Rios%NULL%0,            Miguel A.%Hernán%NULL%0,            Jesús%Frías%NULL%0,            José R.%Arribas%NULL%0,            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simon E.%Brill%simon.brill@nhs.net%0,            Hannah C.%Jarvis%NULL%0,            Hannah C.%Jarvis%NULL%0,            Ezgi%Ozcan%NULL%0,            Thomas L. P.%Burns%NULL%0,            Rabia A.%Warraich%NULL%0,            Lisa J.%Amani%NULL%0,            Amina%Jaffer%NULL%0,            Stephanie%Paget%NULL%0,            Anand%Sivaramakrishnan%NULL%0,            Dean D.%Creer%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,            Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,            Wenlin%Cheng%NULL%0,            Lei%Yu%NULL%0,            Ya-Kun%Liu%NULL%0,            Xiaoyong%Hu%NULL%0,            Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[B.%Carter%NULL%0,            J.T.%Collins%NULL%0,            F.%Barlow-Pay%NULL%0,            F.%Rickard%NULL%0,            E.%Bruce%NULL%0,            A.%Verduri%NULL%0,            T.J.%Quinn%NULL%0,            E.%Mitchell%NULL%0,            A.%Price%NULL%0,            A.%Vilches-Moraga%NULL%0,            M.J.%Stechman%NULL%0,            R.%Short%NULL%0,            A.%Einarsson%NULL%0,            P.%Braude%NULL%0,            S.%Moug%NULL%0,            P.K.%Myint%NULL%0,            J.%Hewitt%NULL%0,            L.%Pearce%NULL%0,            K.%McCarthy%NULL%0,            C.%Davey%NULL%0,            S.%Jones%NULL%0,            K.%Lunstone%NULL%0,            A.%Cavenagh%NULL%0,            C.%Silver%NULL%0,            T.%Telford%NULL%0,            R.%Simmons%NULL%0,            M.%Holloway%NULL%0,            J.%Hesford%NULL%0,            T.%El Jichi Mutasem%NULL%0,            S.%Singh%NULL%0,            D.%Paxton%NULL%0,            W.%Harris%NULL%0,            N.%Galbraith%NULL%0,            E.%Bhatti%NULL%0,            J.%Edwards%NULL%0,            S.%Duffy%NULL%0,            J.%Kelly%NULL%0,            C.%Murphy%NULL%0,            C.%Bisset%NULL%0,            R.%Alexander%NULL%0,            M.%Garcia%NULL%0,            S.%Sangani%NULL%0,            T.%Kneen%NULL%0,            T.%Lee%NULL%0,            A.%McGovern%NULL%0,            G.%Guaraldi%NULL%0,            E.%Clini%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fuyang%Chen%NULL%0,            Wenwu%Sun%NULL%0,            Shengrong%Sun%NULL%0,            Zhiyu%Li%lizhiyu@whu.edu.cn%0,            Zhong%Wang%zhongwangchn@whu.edu.cn%0,            Li%Yu%yuliwhzxyy@163.com%0,            Li%Yu%yuliwhzxyy@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,            Ling%Sang%NULL%0,            Mei%Jiang%NULL%0,            Zhaowei%Yang%NULL%0,            Nan%Jia%NULL%0,            Wanyi%Fu%NULL%0,            Jiaxing%Xie%NULL%0,            Weijie%Guan%NULL%0,            Wenhua%Liang%NULL%0,            Zhengyi%Ni%NULL%0,            Yu%Hu%NULL%0,            Lei%Liu%NULL%0,            Hong%Shan%NULL%0,            Chunliang%Lei%NULL%0,            Yixiang%Peng%NULL%0,            Li%Wei%NULL%0,            Yong%Liu%NULL%0,            Yahua%Hu%NULL%0,            Peng%Peng%NULL%0,            Jianming%Wang%NULL%0,            Jiyang%Liu%NULL%0,            Zhong%Chen%NULL%0,            Gang%Li%NULL%0,            Zhijian%Zheng%NULL%0,            Shaoqin%Qiu%NULL%0,            Jie%Luo%NULL%0,            Changjiang%Ye%NULL%0,            Shaoyong%Zhu%NULL%0,            Jinping%Zheng%NULL%0,            Nuofu%Zhang%NULL%0,            Yimin%Li%NULL%0,            Jianxing%He%NULL%0,            Jing%Li%NULL%0,            Shiyue%Li%NULL%0,            Nanshan%Zhong%NULL%0,            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,            Di%Wu%NULL%0,            Huilong%Chen%NULL%0,            Weiming%Yan%NULL%0,            Danlei%Yang%NULL%0,            Guang%Chen%NULL%0,            Ke%Ma%NULL%0,            Dong%Xu%NULL%0,            Haijing%Yu%NULL%0,            Hongwu%Wang%NULL%0,            Tao%Wang%NULL%0,            Wei%Guo%NULL%0,            Jia%Chen%NULL%0,            Chen%Ding%NULL%0,            Xiaoping%Zhang%NULL%0,            Jiaquan%Huang%NULL%0,            Meifang%Han%NULL%0,            Shusheng%Li%NULL%0,            Xiaoping%Luo%NULL%0,            Jianping%Zhao%NULL%0,            Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anying%Cheng%NULL%0,            Liu%Hu%NULL%0,            Yiru%Wang%NULL%0,            Luyan%Huang%NULL%0,            Lingxi%Zhao%NULL%0,            Congcong%Zhang%NULL%0,            Xiyue%Liu%NULL%0,            Ranran%Xu%NULL%0,            Feng%Liu%NULL%0,            Jinping%Li%NULL%0,            Dawei%Ye%NULL%0,            Tao%Wang%NULL%0,            Yongman%Lv%lvyongman@126.com%0,            Qingquan%Liu%qqliutj@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fabio%Ciceri%ciceri.fabio@hsr.it%0,            Antonella%Castagna%NULL%0,            Patrizia%Rovere-Querini%NULL%0,            Francesco%De Cobelli%NULL%0,            Annalisa%Ruggeri%NULL%0,            Laura%Galli%NULL%0,            Caterina%Conte%NULL%0,            Rebecca%De Lorenzo%NULL%0,            Andrea%Poli%NULL%0,            Alberto%Ambrosio%NULL%0,            Carlo%Signorelli%NULL%0,            Eleonora%Bossi%NULL%0,            Maria%Fazio%NULL%0,            Cristina%Tresoldi%NULL%0,            Sergio%Colombo%NULL%0,            Giacomo%Monti%NULL%0,            Efgeny%Fominskiy%NULL%0,            Stefano%Franchini%NULL%0,            Marzia%Spessot%NULL%0,            Carlo%Martinenghi%NULL%0,            Michele%Carlucci%NULL%0,            Luigi%Beretta%NULL%0,            Anna Maria%Scandroglio%NULL%0,            Massimo%Clementi%NULL%0,            Massimo%Locatelli%NULL%0,            Moreno%Tresoldi%NULL%0,            Paolo%Scarpellini%NULL%0,            Gianvito%Martino%NULL%0,            Emanuele%Bosi%NULL%0,            Lorenzo%Dagna%NULL%0,            Adriano%Lazzarin%NULL%0,            Giovanni%Landoni%NULL%0,            Alberto%Zangrillo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,            Wei%Liu%NULL%0,            Kui%Liu%NULL%0,            Yuan-Yuan%Fang%NULL%0,            Jin%Shang%NULL%0,            Ling%Zhou%NULL%0,            Ke%Wang%NULL%0,            Fan%Leng%NULL%0,            Shuang%Wei%NULL%0,            Lei%Chen%NULL%0,            Hui-Guo%Liu%NULL%0,            Pei-Fang%Wei%NULL%0,            Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,            Li-Rong%Liang%NULL%0,            Cheng-Qing%Yang%NULL%0,            Wen%Wang%NULL%0,            Tan-Ze%Cao%NULL%0,            Ming%Li%NULL%0,            Guang-Yun%Guo%NULL%0,            Juan%Du%NULL%0,            Chun-Lan%Zheng%NULL%0,            Qi%Zhu%NULL%0,            Ming%Hu%NULL%0,            Xu-Yan%Li%NULL%0,            Peng%Peng%NULL%0,            Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shan%Gao%NULL%0,            Fang%Jiang%NULL%0,            Wei%Jin%NULL%0,            Yuan%Shi%NULL%0,            Leilei%Yang%NULL%0,            Yanqiong%Xia%NULL%0,            Linyan%Jia%NULL%0,            Bo%Wang%NULL%0,            Han%Lin%NULL%0,            Yin%Cai%NULL%0,            Zhengyuan%Xia%NULL%0,            Jian%Peng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pedro David%Wendel Garcia%pedrodavid.wendelgarcia@usz.ch%0,            Thierry%Fumeaux%thierry.fumeaux@ghol.ch%0,            Philippe%Guerci%NULL%0,            Dorothea Monika%Heuberger%dorotheamonika.heuberger@usz.ch%0,            Jonathan%Montomoli%NULL%0,            Ferran%Roche-Campo%NULL%0,            Reto Andreas%Schuepbach%reto.schuepbach@usz.ch%0,            Matthias Peter%Hilty%matthias.hilty@usz.ch%0,            Mario%Alfaro Farias%NULL%0,            Antoni%Margarit%NULL%0,            Gerardo%Vizmanos-Lamotte%NULL%0,            Thomas%Tschoellitsch%NULL%0,            Jens%Meier%NULL%0,            Francesco S.%Cardona%NULL%0,            Josef%Skola%NULL%0,            Lenka%Horakova%NULL%0,            Hernan%Aguirre-Bermeo%NULL%0,            Janina%Apolo%NULL%0,            Emmanuel%Novy%NULL%0,            Marie-Reine%Losser%NULL%0,            Geoffrey%Jurkolow%NULL%0,            Gauthier%Delahaye%NULL%0,            Sascha%David%NULL%0,            Tobias%Welte%NULL%0,            Tobias%Wengenmayer%NULL%0,            Dawid L.%Staudacher%NULL%0,            Theodoros%Aslanidis%NULL%0,            Barna%Babik%NULL%0,            Anita%Korsos%NULL%0,            Janos%Gal%NULL%0,            Hermann%Csaba%NULL%0,            Abele%Donati%NULL%0,            Andrea%Carsetti%NULL%0,            Fabrizio%Turrini%NULL%0,            Maria Sole%Simonini%NULL%0,            Roberto%Ceriani%NULL%0,            Martina%Murrone%NULL%0,            Emanuele%Rezoagli%NULL%0,            Giovanni%Vitale%NULL%0,            Alberto%Fogagnolo%NULL%0,            Savino%Spadaro%NULL%0,            Maddalena Alessandra%Wu%NULL%0,            Chiara%Cogliati%NULL%0,            Riccardo%Colombo%NULL%0,            Emanuele%Catena%NULL%0,            Francesca%Facondini%NULL%0,            Antonella%Potalivo%NULL%0,            Gianfilippo%Gangitano%NULL%0,            Tiziana%Perin%NULL%0,            Maria Grazia%Bocci%NULL%0,            Massimo%Antonelli%NULL%0,            Diederik%Gommers%NULL%0,            Can%Ince%NULL%0,            Eric%Mayor-Vázquez%NULL%0,            Maria%Cruz%NULL%0,            Martin%Delgado%NULL%0,            Raquel Rodriguez%Garcia%NULL%0,            Jorge%Gamez Zapata%NULL%0,            Begoña%Zalba-Etayo%NULL%0,            Herminia%Lozano-Gomez%NULL%0,            Pedro%Castro%NULL%0,            Adrian%Tellez%NULL%0,            Adriana%Jacas%NULL%0,            Guido%Muñoz%NULL%0,            Rut%Andrea%NULL%0,            Jose%Ortiz%NULL%0,            Eduard%Quintana%NULL%0,            Irene%Rovira%NULL%0,            Enric%Reverter%NULL%0,            Javier%Fernandez%NULL%0,            Miquel%Ferrer%NULL%0,            Joan R.%Badia%NULL%0,            Arantxa%Lander Azcona%NULL%0,            Jesus Escos%Orta%NULL%0,            Philipp%Bühler%NULL%0,            Silvio%Brugger%NULL%0,            Daniel%Hofmaenner%NULL%0,            Simone%Unseld%NULL%0,            Frank%Ruschitzka%NULL%0,            Mallory%Moret-Bochatay%NULL%0,            Bernd%Yuen%NULL%0,            Thomas%Hillermann%NULL%0,            Hatem%Ksouri%NULL%0,            Govind Oliver%Sridharan%NULL%0,            Anette%Ristic%NULL%0,            Michael%Sepulcri%NULL%0,            Miodrag%Filipovic%NULL%0,            Urs%Pietsch%NULL%0,            Petra%Salomon%NULL%0,            Iris%Drvaric%NULL%0,            Peter%Schott%NULL%0,            Severin%Urech%NULL%0,            Adriana%Lambert%NULL%0,            Lukas%Merki%NULL%0,            Marcus%Laube%NULL%0,            Frank%Hillgaertner%NULL%0,            Marianne%Sieber%NULL%0,            Alexander%Dullenkopf%NULL%0,            Lina%Petersen%NULL%0,            Serge%Grazioli%NULL%0,            Peter C.%Rimensberger%NULL%0,            Isabelle%Fleisch%NULL%0,            Jerome%Lavanchy%NULL%0,            Katharina%Marquardt%NULL%0,            Karim%Shaikh%NULL%0,            Hermann%Redecker%NULL%0,            Michael%Stephan%NULL%0,            Jan%Brem%NULL%0,            Bjarte%Rogdo%NULL%0,            Andre%Birkenmaier%NULL%0,            Friederike%Meyer zu Bentrup%NULL%0,            Patricia%Fodor%NULL%0,            Pascal%Locher%NULL%0,            Giovanni%Camen%NULL%0,            Martin%Siegemund%NULL%0,            Nuria%Zellweger%NULL%0,            Marie-Madlen%Jeitziner%NULL%0,            Beatrice%Jenni-Moser%NULL%0,            Christian%Bürkle%NULL%0,            Gian-Reto%Kleger%NULL%0,            Marilene%Franchitti Laurent%NULL%0,            Jean-Christophe%Laurent%NULL%0,            Tomislav%Gaspert%NULL%0,            Marija%Jovic%NULL%0,            Michael%Studhalter%NULL%0,            Christoph%Haberthuer%NULL%0,            Roger F.%Lussman%NULL%0,            Daniela%Selz%NULL%0,            Didier%Naon%NULL%0,            Romano%Mauri%NULL%0,            Samuele%Ceruti%NULL%0,            Julien%Marrel%NULL%0,            Mirko%Brenni%NULL%0,            Rolf%Ensner%NULL%0,            Nadine%Gehring%NULL%0,            Antje%Heise%NULL%0,            Tobias%Huebner%NULL%0,            Thomas A.%Neff%NULL%0,            Sara%Cereghetti%NULL%0,            Filippo%Boroli%NULL%0,            Jerome%Pugin%NULL%0,            Nandor%Marczin%NULL%0,            Joyce%Wong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Warren%Gavin%NULL%0,            Elliott%Campbell%NULL%0,            Syed-Adeel%Zaidi%NULL%0,            Neha%Gavin%NULL%0,            Lana%Dbeibo%NULL%0,            Cole%Beeler%NULL%0,            Kari%Kuebler%NULL%0,            Ahmed%Abdel-Rahman%NULL%0,            Mark%Luetkemeyer%NULL%0,            Areeba%Kara%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Vijay%Gayam%vgayam@interfaithmedical.com%0,            Muchi Ditah%Chobufo%NULL%0,            Muchi Ditah%Chobufo%NULL%0,            Mohamed A.%Merghani%NULL%0,            Mohamed A.%Merghani%NULL%0,            Shristi%Lamichhane%NULL%0,            Pavani Reddy%Garlapati%NULL%0,            Mark K.%Adler%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Cao%Y%coreGivesNoEmail%0,           Imam%Z%coreGivesNoEmail%0,           Lippi%G%coreGivesNoEmail%0,           Oran%DP%coreGivesNoEmail%0,           Shi%S%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Hai%Hu%huhai@wchscu.cn%0,            Ni%Yao%NULL%0,            Ni%Yao%NULL%0,            Yanru%Qiu%NULL%0,            John H.%Burton%NULL%0,            John H.%Burton%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jiaofeng%Huang%NULL%0,            Aiguo%Cheng%NULL%0,            Rahul%Kumar%NULL%0,            Yingying%Fang%NULL%0,            Yingying%Fang%NULL%0,            Gongping%Chen%NULL%0,            Yueyong%Zhu%NULL%0,            Su%Lin%sumer5129@fjmu.edu.cn%0,            Su%Lin%sumer5129@fjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%0,            Ju-Hyun%Kim%NULL%0,            Jin-Sung%Park%NULL%0,            Min Cheol%Chang%wheel633@ynu.ac.kr%0,            Donghwi%Park%bdome@hanmail.net%0]</t>
+  </si>
+  <si>
+    <t>[K.%Khalil%NULL%0,            K.%Agbontaen%NULL%0,            D.%McNally%NULL%0,            A.%Love%NULL%0,            S.%Mandalia%NULL%0,            W.%Banya%NULL%0,            E.%Starren%NULL%0,            R.%Dhunnookchand%NULL%0,            H.%Farne%NULL%0,            R.%Morton%NULL%0,            G.%Davies%NULL%0,            O.%Orhan%NULL%0,            D%Lai%NULL%0,            M.%Nelson%NULL%0,            P.L.%Shah%NULL%0,            J.L.%Garner%Justin.garner@chelwest.nhs.uk%0]</t>
+  </si>
+  <si>
+    <t>[Eyal%Klang%NULL%0,            Gassan%Kassim%NULL%0,            Shelly%Soffer%soffer.shelly@gmail.com%0,            Robert%Freeman%NULL%0,            Robert%Freeman%NULL%0,            Matthew A.%Levin%NULL%0,            Matthew A.%Levin%NULL%0,            David L.%Reich%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sandeep%Krishnan%NULL%0,            Kinjal%Patel%NULL%0,            Ronak%Desai%NULL%0,            Anupam%Sule%NULL%0,            Peter%Paik%NULL%0,            Ashley%Miller%NULL%0,            Alicia%Barclay%NULL%0,            Adam%Cassella%NULL%0,            Jon%Lucaj%NULL%0,            Yvonne%Royster%NULL%0,            Joffer%Hakim%NULL%0,            Zulfiqar%Ahmed%NULL%0,            Farhad%Ghoddoussi%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Extramedullary multiple myeloma (EMM) is an aggressive subentity of multiple myeloma, characterized by the ability of a subclone to thrive and grow independent of the bone marrow microenvironment, resulting in a high-risk state associated with increased proliferation, evasion of apoptosis and treatment resistance.
+ Despite improvement in survival for most patients with multiple myeloma over recent decades, outcomes are generally poor when EMM develops.
+ Understanding the molecular underpinnings leading to homing of plasma cells in ecosystems outside the bone marrow will be crucial for therapeutically manipulating the microenvironment and targeting key signaling pathways.
+ Herein, we discuss the evolutionary biology of EMM, underscore the importance of a uniform definition, discuss prognostic significance, and provide current and emerging treatment strategies for managing this rare subentity of multiple myeloma.
+</t>
+  </si>
+  <si>
+    <t>[ Manisha%Bhutani%null%0,  David M.%Foureau%null%0,  Shebli%Atrash%null%0,  Peter M.%Voorhees%null%0,  Saad Z.%Usmani%null%0]</t>
+  </si>
+  <si>
+    <t>[Wil%Lieberman-Cribbin%NULL%0,            Joseph%Rapp%NULL%0,            Naomi%Alpert%NULL%0,            Stephanie%Tuminello%NULL%0,            Emanuela%Taioli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Q.%Liu%NULL%0,            N. C.%Song%NULL%0,            Z. K.%Zheng%NULL%0,            J. S.%Li%NULL%0,            S. K.%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Long%NULL%0,            Lan%Nie%NULL%0,            Xiaochen%Xiang%NULL%0,            Huan%Li%NULL%0,            Xiaoli%Zhang%NULL%0,            Xiaozhi%Fu%NULL%0,            Hongwei%Ren%NULL%0,            Wanxin%Liu%NULL%0,            Qiang%Wang%wangqiang@wust.edu.cn%0,            Qingming%Wu%wuhe9224@sina.com%0,            Qingming%Wu%wuhe9224@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Miao%Luo%xref no email%0,    Jing%Liu%xref no email%0,    Weiling%Jiang%xref no email%0,    Shuang%Yue%xref no email%0,    Huiguo%Liu%xref no email%0,    Shuang%Wei%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Xiaomin%Luo%luoxiaomin04@163.com%0,            Wei%Zhou%NULL%0,            Xiaojie%Yan%NULL%0,            Tangxi%Guo%NULL%0,            Benchao%Wang%NULL%0,            Hongxia%Xia%NULL%0,            Lu%Ye%NULL%0,            Jun%Xiong%NULL%0,            Zongping%Jiang%NULL%0,            Yu%Liu%NULL%0,            Bicheng%Zhang%NULL%0,            Weize%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ying%Luo%NULL%0,            Liyan%Mao%NULL%0,            Xu%Yuan%NULL%0,            Ying%Xue%NULL%0,            Qun%Lin%NULL%0,            Guoxing%Tang%NULL%0,            Huijuan%Song%NULL%0,            Feng%Wang%fengwang@tjh.tjmu.edu.cn%0,            Ziyong%Sun%zysun@tjh.tjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ying%Luo%NULL%0,            Ying%Xue%NULL%0,            Liyan%Mao%NULL%0,            Xu%Yuan%NULL%0,            Qun%Lin%NULL%0,            Guoxing%Tang%NULL%0,            Huijuan%Song%NULL%0,            Feng%Wang%NULL%0,            Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chiara%Masetti%NULL%0,            Elena%Generali%NULL%0,            Francesca%Colapietro%NULL%0,            Antonio%Voza%NULL%0,            Maurizio%Cecconi%NULL%0,            Antonio%Messina%NULL%0,            Paolo%Omodei%NULL%0,            Claudio%Angelini%NULL%0,            Michele%Ciccarelli%NULL%0,            Salvatore%Badalamenti%NULL%0,            G. Walter%Canonica%NULL%0,            Ana%Lleo%ana.lleo@humanitas.it%0,            Alessio%Aghemo%NULL%0,            Alessio%Aghemo%NULL%0,            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Takahisa%Mikami%NULL%0,            Hirotaka%Miyashita%NULL%0,            Takayuki%Yamada%NULL%0,            Matthew%Harrington%NULL%0,            Daniel%Steinberg%NULL%0,            Andrew%Dunn%NULL%0,            Evan%Siau%Evan.Siau@mountsinai.org%0]</t>
+  </si>
+  <si>
+    <t>[Alexis K.%Okoh%alexis.okoh@rwjbh.org%0,            Christoph%Sossou%NULL%0,            Christoph%Sossou%NULL%0,            Neha S.%Dangayach%NULL%0,            Sherin%Meledathu%NULL%0,            Oluwakemi%Phillips%NULL%0,            Corinne%Raczek%NULL%0,            Michael%Patti%NULL%0,            Nathan%Kang%NULL%0,            Sameer A.%Hirji%NULL%0,            Charles%Cathcart%NULL%0,            Christian%Engell%NULL%0,            Marc%Cohen%NULL%0,            Sandhya%Nagarakanti%NULL%0,            Eliahu%Bishburg%NULL%0,            Harpreet S.%Grewal%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -3036,7 +3374,7 @@
         <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>598</v>
+        <v>708</v>
       </c>
       <c r="F2" t="s">
         <v>73</v>
@@ -3065,7 +3403,7 @@
         <v>260</v>
       </c>
       <c r="E3" t="s">
-        <v>599</v>
+        <v>709</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -3094,7 +3432,7 @@
         <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>600</v>
+        <v>710</v>
       </c>
       <c r="F4" t="s">
         <v>79</v>
@@ -3123,7 +3461,7 @@
         <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>601</v>
+        <v>711</v>
       </c>
       <c r="F5" t="s">
         <v>83</v>
@@ -3152,7 +3490,7 @@
         <v>86</v>
       </c>
       <c r="E6" t="s">
-        <v>602</v>
+        <v>712</v>
       </c>
       <c r="F6" t="s">
         <v>87</v>
@@ -3210,7 +3548,7 @@
         <v>90</v>
       </c>
       <c r="E8" t="s">
-        <v>603</v>
+        <v>713</v>
       </c>
       <c r="F8" t="s">
         <v>91</v>
@@ -3239,7 +3577,7 @@
         <v>94</v>
       </c>
       <c r="E9" t="s">
-        <v>604</v>
+        <v>714</v>
       </c>
       <c r="F9" t="s">
         <v>95</v>
@@ -3268,7 +3606,7 @@
         <v>98</v>
       </c>
       <c r="E10" t="s">
-        <v>605</v>
+        <v>715</v>
       </c>
       <c r="F10" t="s">
         <v>99</v>
@@ -3297,7 +3635,7 @@
         <v>102</v>
       </c>
       <c r="E11" t="s">
-        <v>606</v>
+        <v>716</v>
       </c>
       <c r="F11" t="s">
         <v>103</v>
@@ -3326,7 +3664,7 @@
         <v>106</v>
       </c>
       <c r="E12" t="s">
-        <v>607</v>
+        <v>717</v>
       </c>
       <c r="F12" t="s">
         <v>107</v>
@@ -3355,7 +3693,7 @@
         <v>109</v>
       </c>
       <c r="E13" t="s">
-        <v>608</v>
+        <v>718</v>
       </c>
       <c r="F13" t="s">
         <v>110</v>
@@ -3384,7 +3722,7 @@
         <v>113</v>
       </c>
       <c r="E14" t="s">
-        <v>609</v>
+        <v>719</v>
       </c>
       <c r="F14" t="s">
         <v>114</v>
@@ -3413,7 +3751,7 @@
         <v>117</v>
       </c>
       <c r="E15" t="s">
-        <v>610</v>
+        <v>720</v>
       </c>
       <c r="F15" t="s">
         <v>118</v>
@@ -3442,7 +3780,7 @@
         <v>121</v>
       </c>
       <c r="E16" t="s">
-        <v>611</v>
+        <v>721</v>
       </c>
       <c r="F16" t="s">
         <v>122</v>
@@ -3471,7 +3809,7 @@
         <v>124</v>
       </c>
       <c r="E17" t="s">
-        <v>612</v>
+        <v>722</v>
       </c>
       <c r="F17" t="s">
         <v>125</v>
@@ -3500,7 +3838,7 @@
         <v>128</v>
       </c>
       <c r="E18" t="s">
-        <v>613</v>
+        <v>723</v>
       </c>
       <c r="F18" t="s">
         <v>129</v>
@@ -3529,7 +3867,7 @@
         <v>131</v>
       </c>
       <c r="E19" t="s">
-        <v>614</v>
+        <v>724</v>
       </c>
       <c r="F19" t="s">
         <v>132</v>
@@ -3558,7 +3896,7 @@
         <v>134</v>
       </c>
       <c r="E20" t="s">
-        <v>615</v>
+        <v>725</v>
       </c>
       <c r="F20" t="s">
         <v>135</v>
@@ -3587,7 +3925,7 @@
         <v>137</v>
       </c>
       <c r="E21" t="s">
-        <v>616</v>
+        <v>726</v>
       </c>
       <c r="F21" t="s">
         <v>138</v>
@@ -3616,7 +3954,7 @@
         <v>141</v>
       </c>
       <c r="E22" t="s">
-        <v>617</v>
+        <v>727</v>
       </c>
       <c r="F22" t="s">
         <v>142</v>
@@ -3645,7 +3983,7 @@
         <v>263</v>
       </c>
       <c r="E23" t="s">
-        <v>618</v>
+        <v>728</v>
       </c>
       <c r="F23" t="s">
         <v>23</v>
@@ -3674,7 +4012,7 @@
         <v>144</v>
       </c>
       <c r="E24" t="s">
-        <v>619</v>
+        <v>729</v>
       </c>
       <c r="F24" t="s">
         <v>145</v>
@@ -3703,7 +4041,7 @@
         <v>147</v>
       </c>
       <c r="E25" t="s">
-        <v>620</v>
+        <v>730</v>
       </c>
       <c r="F25" t="s">
         <v>148</v>
@@ -3732,7 +4070,7 @@
         <v>151</v>
       </c>
       <c r="E26" t="s">
-        <v>621</v>
+        <v>731</v>
       </c>
       <c r="F26" t="s">
         <v>152</v>
@@ -3761,7 +4099,7 @@
         <v>155</v>
       </c>
       <c r="E27" t="s">
-        <v>622</v>
+        <v>732</v>
       </c>
       <c r="F27" t="s">
         <v>156</v>
@@ -3790,7 +4128,7 @@
         <v>158</v>
       </c>
       <c r="E28" t="s">
-        <v>623</v>
+        <v>733</v>
       </c>
       <c r="F28" t="s">
         <v>159</v>
@@ -3819,7 +4157,7 @@
         <v>82</v>
       </c>
       <c r="E29" t="s">
-        <v>624</v>
+        <v>734</v>
       </c>
       <c r="F29" t="s">
         <v>162</v>
@@ -3848,7 +4186,7 @@
         <v>165</v>
       </c>
       <c r="E30" t="s">
-        <v>625</v>
+        <v>735</v>
       </c>
       <c r="F30" t="s">
         <v>166</v>
@@ -3877,7 +4215,7 @@
         <v>168</v>
       </c>
       <c r="E31" t="s">
-        <v>626</v>
+        <v>736</v>
       </c>
       <c r="F31" t="s">
         <v>169</v>
@@ -3906,7 +4244,7 @@
         <v>172</v>
       </c>
       <c r="E32" t="s">
-        <v>627</v>
+        <v>737</v>
       </c>
       <c r="F32" t="s">
         <v>173</v>
@@ -3935,7 +4273,7 @@
         <v>176</v>
       </c>
       <c r="E33" t="s">
-        <v>628</v>
+        <v>738</v>
       </c>
       <c r="F33" t="s">
         <v>177</v>
@@ -3964,7 +4302,7 @@
         <v>180</v>
       </c>
       <c r="E34" t="s">
-        <v>629</v>
+        <v>739</v>
       </c>
       <c r="F34" t="s">
         <v>181</v>
@@ -3993,7 +4331,7 @@
         <v>183</v>
       </c>
       <c r="E35" t="s">
-        <v>630</v>
+        <v>740</v>
       </c>
       <c r="F35" t="s">
         <v>184</v>
@@ -4022,7 +4360,7 @@
         <v>187</v>
       </c>
       <c r="E36" t="s">
-        <v>631</v>
+        <v>741</v>
       </c>
       <c r="F36" t="s">
         <v>188</v>
@@ -4051,7 +4389,7 @@
         <v>191</v>
       </c>
       <c r="E37" t="s">
-        <v>632</v>
+        <v>742</v>
       </c>
       <c r="F37" t="s">
         <v>192</v>
@@ -4080,7 +4418,7 @@
         <v>194</v>
       </c>
       <c r="E38" t="s">
-        <v>633</v>
+        <v>743</v>
       </c>
       <c r="F38" t="s">
         <v>195</v>
@@ -4109,7 +4447,7 @@
         <v>197</v>
       </c>
       <c r="E39" t="s">
-        <v>634</v>
+        <v>744</v>
       </c>
       <c r="F39" t="s">
         <v>198</v>
@@ -4138,7 +4476,7 @@
         <v>64</v>
       </c>
       <c r="E40" t="s">
-        <v>635</v>
+        <v>745</v>
       </c>
       <c r="F40" t="s">
         <v>41</v>
@@ -4167,7 +4505,7 @@
         <v>201</v>
       </c>
       <c r="E41" t="s">
-        <v>636</v>
+        <v>746</v>
       </c>
       <c r="F41" t="s">
         <v>202</v>
@@ -4196,7 +4534,7 @@
         <v>204</v>
       </c>
       <c r="E42" t="s">
-        <v>637</v>
+        <v>747</v>
       </c>
       <c r="F42" t="s">
         <v>205</v>
@@ -4225,7 +4563,7 @@
         <v>208</v>
       </c>
       <c r="E43" t="s">
-        <v>638</v>
+        <v>748</v>
       </c>
       <c r="F43" t="s">
         <v>209</v>
@@ -4254,7 +4592,7 @@
         <v>82</v>
       </c>
       <c r="E44" t="s">
-        <v>639</v>
+        <v>749</v>
       </c>
       <c r="F44" t="s">
         <v>212</v>
@@ -4283,7 +4621,7 @@
         <v>215</v>
       </c>
       <c r="E45" t="s">
-        <v>640</v>
+        <v>750</v>
       </c>
       <c r="F45" t="s">
         <v>216</v>
@@ -4312,7 +4650,7 @@
         <v>82</v>
       </c>
       <c r="E46" t="s">
-        <v>641</v>
+        <v>751</v>
       </c>
       <c r="F46" t="s">
         <v>219</v>
@@ -4367,10 +4705,10 @@
         <v>224</v>
       </c>
       <c r="D48" t="s">
-        <v>225</v>
+        <v>752</v>
       </c>
       <c r="E48" t="s">
-        <v>642</v>
+        <v>753</v>
       </c>
       <c r="F48" t="s">
         <v>49</v>
@@ -4399,7 +4737,7 @@
         <v>82</v>
       </c>
       <c r="E49" t="s">
-        <v>643</v>
+        <v>754</v>
       </c>
       <c r="F49" t="s">
         <v>229</v>
@@ -4428,7 +4766,7 @@
         <v>231</v>
       </c>
       <c r="E50" t="s">
-        <v>644</v>
+        <v>755</v>
       </c>
       <c r="F50" t="s">
         <v>232</v>
@@ -4457,7 +4795,7 @@
         <v>235</v>
       </c>
       <c r="E51" t="s">
-        <v>645</v>
+        <v>756</v>
       </c>
       <c r="F51" t="s">
         <v>236</v>
@@ -4486,7 +4824,7 @@
         <v>64</v>
       </c>
       <c r="E52" t="s">
-        <v>646</v>
+        <v>757</v>
       </c>
       <c r="F52" t="s">
         <v>53</v>
@@ -4515,7 +4853,7 @@
         <v>239</v>
       </c>
       <c r="E53" t="s">
-        <v>647</v>
+        <v>758</v>
       </c>
       <c r="F53" t="s">
         <v>240</v>
@@ -4544,7 +4882,7 @@
         <v>242</v>
       </c>
       <c r="E54" t="s">
-        <v>648</v>
+        <v>759</v>
       </c>
       <c r="F54" t="s">
         <v>243</v>
@@ -4573,7 +4911,7 @@
         <v>246</v>
       </c>
       <c r="E55" t="s">
-        <v>649</v>
+        <v>760</v>
       </c>
       <c r="F55" t="s">
         <v>247</v>
@@ -4602,7 +4940,7 @@
         <v>249</v>
       </c>
       <c r="E56" t="s">
-        <v>650</v>
+        <v>761</v>
       </c>
       <c r="F56" t="s">
         <v>250</v>
@@ -4631,7 +4969,7 @@
         <v>253</v>
       </c>
       <c r="E57" t="s">
-        <v>651</v>
+        <v>762</v>
       </c>
       <c r="F57" t="s">
         <v>254</v>
@@ -4660,7 +4998,7 @@
         <v>256</v>
       </c>
       <c r="E58" t="s">
-        <v>652</v>
+        <v>763</v>
       </c>
       <c r="F58" t="s">
         <v>257</v>

--- a/Covid_19_Dataset_and_References/References/44.xlsx
+++ b/Covid_19_Dataset_and_References/References/44.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3714" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4526" uniqueCount="881">
   <si>
     <t>Doi</t>
   </si>
@@ -3022,6 +3022,473 @@
   </si>
   <si>
     <t>[Alexis K.%Okoh%alexis.okoh@rwjbh.org%0,            Christoph%Sossou%NULL%0,            Christoph%Sossou%NULL%0,            Neha S.%Dangayach%NULL%0,            Sherin%Meledathu%NULL%0,            Oluwakemi%Phillips%NULL%0,            Corinne%Raczek%NULL%0,            Michael%Patti%NULL%0,            Nathan%Kang%NULL%0,            Sameer A.%Hirji%NULL%0,            Charles%Cathcart%NULL%0,            Christian%Engell%NULL%0,            Marc%Cohen%NULL%0,            Sandhya%Nagarakanti%NULL%0,            Eliahu%Bishburg%NULL%0,            Harpreet S.%Grewal%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%0,             Lian%Yang%NULL%0,             Yuncheng%Li%NULL%0,             Bo%Liang%NULL%0,             Lin%Li%NULL%0,             Tianhe%Ye%NULL%0,             Lingli%Li%NULL%0,             Dehan%Liu%NULL%0,             Shan%Gui%NULL%0,             Yu%Hu%NULL%0,             Chuansheng%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,            Becker%L.B.%coreGivesNoEmail%0,            Chelico%J.D.%coreGivesNoEmail%0,            Cohen%S.L.%coreGivesNoEmail%0,            Cookingham%J.%coreGivesNoEmail%0,            Coppa%K.%coreGivesNoEmail%0,            Crawford%J.M.%coreGivesNoEmail%0,            Davidson%K.W.%coreGivesNoEmail%0,            Diefenbach%M.A.%coreGivesNoEmail%0,            Dominello%A.J.%coreGivesNoEmail%0,            Duer-Hefele%J.%coreGivesNoEmail%0,            Falzon%L.%coreGivesNoEmail%0,            Gitlin%J.%coreGivesNoEmail%0,            Hajizadeh%N.%coreGivesNoEmail%0,            Harvin%T.G.%coreGivesNoEmail%0,            Hirsch%J.S.%coreGivesNoEmail%0,            Hirschwerk%D.A.%coreGivesNoEmail%0,            Kim%E.J.%coreGivesNoEmail%0,            Kozel%Z.M.%coreGivesNoEmail%0,            Marrast%L.M.%coreGivesNoEmail%0,            McGinn%T.%coreGivesNoEmail%0,            Mogavero%J.N.%coreGivesNoEmail%0,            Narasimhan%M.%coreGivesNoEmail%0,            Osorio%G.A.%coreGivesNoEmail%0,            Qiu%M.%coreGivesNoEmail%0,            Richardson%S.%coreGivesNoEmail%0,            Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Mario%Rivera-Izquierdo%NULL%0,             María%del Carmen Valero-Ubierna%NULL%0,             María%del Carmen Valero-Ubierna%NULL%0,             Juan Luis%R-delAmo%NULL%0,             Miguel Ángel%Fernández-García%NULL%0,             Silvia%Martínez-Diz%NULL%0,             Arezu%Tahery-Mahmoud%NULL%0,             Marta%Rodríguez-Camacho%NULL%0,             Ana Belén%Gámiz-Molina%NULL%0,             Nicolás%Barba-Gyengo%NULL%0,             Pablo%Gámez-Baeza%NULL%0,             Celia%Cabrero-Rodríguez%NULL%0,             Pedro Antonio%Guirado-Ruiz%NULL%0,             Divina Tatiana%Martín-Romero%NULL%0,             Antonio Jesús%Láinez-Ramos-Bossini%NULL%0,             María Rosa%Sánchez-Pérez%NULL%0,             José%Mancera-Romero%NULL%0,             Miguel%García-Martín%NULL%0,             Luis Miguel%Martín-delosReyes%NULL%0,             Virginia%Martínez-Ruiz%NULL%0,             Virginia%Martínez-Ruiz%NULL%0,             Pablo%Lardelli-Claret%NULL%0,             Eladio%Jiménez-Mejías%NULL%0,             Muhammad%Adrish%NULL%0,             Muhammad%Adrish%NULL%0,             NULL%NULL%NULL%0,             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,             Kun%Yang%NULL%0,             Kun%Yang%NULL%0,             Wenxia%Wang%NULL%0,             Wenxia%Wang%NULL%0,             Lingyu%Jiang%NULL%0,             Lingyu%Jiang%NULL%0,             Jianxin%Song%songsingsjx@sina.com%0,             Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Grace%Salacup%salacupg@einstein.edu%0,             Kevin Bryan%Lo%NULL%0,             Kevin Bryan%Lo%NULL%0,             Fahad%Gul%NULL%0,             Eric%Peterson%NULL%0,             Robert%De Joy%NULL%0,             Ruchika%Bhargav%NULL%0,             Jerald%Pelayo%NULL%0,             Jeri%Albano%NULL%0,             Zurab%Azmaiparashvili%NULL%0,             Sadia%Benzaquen%NULL%0,             Gabriel%Patarroyo‐Aponte%NULL%0,             Janani%Rangaswami%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yufeng%Shang%NULL%0,             Tao%Liu%NULL%0,             Yongchang%Wei%NULL%0,             Jingfeng%Li%NULL%0,             Liang%Shao%NULL%0,             Minghui%Liu%NULL%0,             Yongxi%Zhang%NULL%0,             Zhigang%Zhao%NULL%0,             Haibo%Xu%NULL%0,             Zhiyong%Peng%NULL%0,             Fuling%Zhou%zhoufuling@whu.edu.cn%0,             Xinghuan%Wang%wangxinghuan@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,             Mu%Qin%qinmuae@163.com%0,             Yuli%Cai%NULL%0,             Tao%Liu%NULL%0,             Bo%Shen%NULL%0,             Fan%Yang%NULL%0,             Sheng%Cao%NULL%0,             Xu%Liu%NULL%0,             Xu%Liu%NULL%0,             Yaozu%Xiang%NULL%0,             Qinyan%Zhao%NULL%0,             He%Huang%huanghe1977@whu.edu.cn%0,             Bo%Yang%yybb112@whu.edu.cn%0,             Congxin%Huang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rita de Cássia Menezes%Soares%NULL%0,             Larissa Rodrigues%Mattos%NULL%0,             Letícia Martins%Raposo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,             Ruoqi%Ning%NULL%0,             Yu%Tao%NULL%0,             Chong%Yu%NULL%0,             Xiaoyan%Deng%NULL%0,             Caili%Zhao%NULL%0,             Silu%Meng%NULL%0,             Fangxu%Tang%89650793@qq.com%0,             Dong%Xu%89650793@qq.com%0,             Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Kun%Wang%NULL%0,             Peiyuan%Zuo%NULL%0,             Yuwei%Liu%NULL%0,             Meng%Zhang%NULL%0,             Xiaofang%Zhao%NULL%0,             Songpu%Xie%NULL%0,             Hao%Zhang%NULL%0,             Xinglin%Chen%NULL%0,             Chengyun%Liu%chengyunliu@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Bo%XU%NULL%0,             Cun-yu%FAN%NULL%0,             An-lu%WANG%NULL%0,             Yi-long%ZOU%NULL%0,             Yi-han%YU%NULL%0,             Cong%HE%NULL%0,             Wen-guang%XIA%NULL%0,             Ji-xian%ZHANG%NULL%0,             Qing%MIAO%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xisheng%Yan%NULL%0,             Fen%Li%NULL%0,             Xiao%Wang%NULL%0,             Jie%Yan%NULL%0,             Fen%Zhu%NULL%0,             Shifan%Tang%NULL%0,             Yingzhong%Deng%NULL%0,             Hua%Wang%NULL%0,             Rui%Chen%NULL%0,             Zhili%Yu%NULL%0,             Yaping%Li%NULL%0,             Jingzhou%Shang%NULL%0,             Lingjun%Zeng%NULL%0,             Jie%Zhao%NULL%0,             Chaokun%Guan%NULL%0,             Qiaomei%Liu%NULL%0,             Haifeng%Chen%NULL%0,             Wei%Gong%NULL%0,             Xin%Huang%NULL%0,             Yu‐Jiao%Zhang%NULL%0,             Jianguang%Liu%NULL%0,             Xiaoyan%Dong%NULL%0,             Wen%Zheng%zhengwen12@mails.jlu.edu.cn%0,             Shaoping%Nie%spnie@126.com%0,             Dongsheng%Li%dongshengli196809@163.com%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Previous studies have shown that Coronavirus Disease 2019 (COVID-19) patients with underlying comorbidities can have worse outcomes.
+ However, the effect of hypertension on outcomes of COVID-19 patients remains unclear.
+Research question
+The aim of this study was to explore the effect of hypertension on the outcomes of patients with COVID-19 by using propensity score–matching (PSM) analysis.
+Study design and methods
+Participants enrolled in this study were patients with COVID-19 who had been hospitalized at the Central Hospital of Wuhan, China.
+ Chronic comorbidities and laboratory and radiological data were reviewed; patient outcomes and lengths of stay were obtained from discharge records.
+ We used the Cox proportional-hazard model (CPHM) to analyze the effect of hypertension on these patients’ outcomes and PSM analysis to further validate the abovementioned effect.
+Results
+A total of 226 patients with COVID-19 were enrolled in this study, of whom 176 survived and 50 died.
+ The proportion of patients with hypertension among non-survivors was higher than that among survivors (26.70% vs.
+ 74.00%; P &amp;lt; 0.001).
+ Results obtained via CPHM showed that hypertension could increase risk of mortality in COVID-19 patients (hazard ratio 3.317; 95% CI [1.709–6.440]; P &amp;lt; 0.001).
+ Increased D-dimer levels and higher ratio of neutrophils to lymphocytes (N/L) were also found to increase these patients’ mortality risk.
+ After matching on propensity score, we still came to similar conclusions.
+ After we applied the same method in critically ill patients, we found that hypertension also increased risk of death in patients with severe COVID-19.
+Conclusion
+Hypertension, increased D-dimer and the ratio of neutrophil to lymphocyte increased mortality in patients with COVID-19, with hypertension in particular.
+</t>
+  </si>
+  <si>
+    <t>[Qing%Yang%NULL%0,             Ying%Zhou%NULL%0,             Xinrong%Wang%NULL%0,             Shan%Gao%NULL%0,             Yang%Xiao%NULL%0,             Weiming%Zhang%NULL%0,             Yi%Hu%huyizxyy@163.com%0,             Yafei%Wang%wyf_527@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,             Qingyu%Yang%NULL%0,             Yaxin%Wang%NULL%0,             Yongran%Wu%NULL%0,             Jiqian%Xu%NULL%0,             Yuan%Yu%NULL%0,             You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Since December 2019, the outbreak of COVID-19 caused a large number of hospital admissions in China.
+ Many patients with COVID-19 have symptoms of acute respiratory distress syndrome, even are in danger of death.
+ This is the first study to evaluate dynamic changes of D-Dimer and Neutrophil-Lymphocyte Count Ratio (NLR) as a prognostic utility in patients with COVID-19 for clinical use.
+Methods
+In a retrospective study, we collected data from 349 hospitalized patients who diagnosed as the infection of the COVID-19 in Wuhan Pulmonary Hospital.
+ We used ROC curves and Cox regression analysis to explore critical value (optimal cut-off point associated with Youden index) and prognostic role of dynamic changes of D-Dimer and NLR.
+Results
+Three hundred forty-nine participants were enrolled in this study and the mortality rate of the patients with laboratory diagnosed COVID-19 was 14.9%.
+ The initial and peak value of D-Dimer and NLR in deceased patients were higher statistically compared with survivors (P &amp;lt; 0.001).
+ There was a more significant upward trend of D-Dimer and NLR during hospitalization in the deceased patients, initial D-Dimer and NLR were lower than the peak tests (MD) -25.23, 95% CI: − 31.81- -18.64, P &amp;lt; 0.001; (MD) -43.73, 95% CI:-59.28- -31.17, P &amp;lt; 0.001. The test showed a stronger correlation between hospitalization days, PCT and peak D-Dimer than initial D-Dimer.
+ The areas under the ROC curves of peak D-Dimer and peak NLR tests were higher than the initial tests (0.94(95%CI: 0.90–0.98) vs.
+ 0.80 (95% CI: 0.73–0.87); 0.93 (95%CI:0.90–0.96) vs.
+ 0.86 (95%CI:0.82–0.91).
+ The critical value of initial D-Dimer, peak D-Dimer, initial NLR and peak NLR was 0.73 mg/L, 3.78 mg/L,7.13 and 14.31 respectively.
+ 35 (10.03%) patients were intubated.
+ In the intubated patients, initial and peak D-Dimer and NLR were much higher than non-intubated patients (P &amp;lt; 0.001).
+ The critical value of initial D-Dimer, peak D-Dimer, initial NLR and peak NLR in prognosticate of intubation was 0.73 mg/L, 12.75 mg/L,7.28 and 27.55. The multivariable Cox regression analysis showed that age (HR 1.04, 95% CI 1.00–1.07, P = 0.01), the peak D-Dimer (HR 1.03, 95% CI 1.01–1.04, P &amp;lt; 0.001) were prognostic factors for COVID-19 patients’ death.
+Conclusions
+To dynamically observe the ratio of D-Dimer and NLR was more valuable during the prognosis of COVID-19. The rising trend in D-Dimer and NLR, or the test results higher than the critical values may indicate a risk of death for participants with COVID-19.
+</t>
+  </si>
+  <si>
+    <t>[Wenjing%Ye%yewenjing@xinhuamed.com.cn%0,             Guoxi%Chen%4799082@qq.com%0,             Xiaopan%Li%xiaopanli0224@126.com%0,             Xing%Lan%474137452@qq.com%0,             Chen%Ji%c.ji.3@warwick.ac.uk%0,             Min%Hou%min-hou710@hotmail.com%0,             Di%Zhang%zhangdizhangdi1234@163.com%0,             Guangwang%Zeng%785663609@qq.com%0,             Yaling%Wang%953822402@qq.com%0,             Cheng%Xu%xucheng112358@126.com%0,             Weiwei%Lu%luweiwei100@126.com%0,             Ruolin%Cui%crlqwerty@163.com%0,             Yuyang%Cai%caiyuyang@sjtu.edu.cn%0,             Hai%Huang%1220775601@qq.com%0,             Ling%Yang%yangling01@xinhuamed.com.cn%0]</t>
+  </si>
+  <si>
+    <t>[Caizheng%Yu%NULL%0,             Qing%Lei%NULL%0,             Wenkai%Li%NULL%0,             Xiong%Wang%NULL%0,             Wei%Liu%NULL%0,             Xionglin%Fan%NULL%0,             Wengang%Li%228907211@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,             Ting%Yu%NULL%0,             Ronghui%Du%NULL%0,             Guohui%Fan%NULL%0,             Ying%Liu%NULL%0,             Zhibo%Liu%NULL%0,             Jie%Xiang%NULL%0,             Yeming%Wang%NULL%0,             Bin%Song%NULL%0,             Xiaoying%Gu%NULL%0,             Lulu%Guan%NULL%0,             Yuan%Wei%NULL%0,             Hui%Li%NULL%0,             Xudong%Wu%NULL%0,             Jiuyang%Xu%NULL%0,             Shengjin%Tu%NULL%0,             Yi%Zhang%NULL%0,             Hua%Chen%NULL%0,             Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Moran%Amit%NULL%0,             Alex%Sorkin%NULL%0,             Jacob%Chen%NULL%0,             Barak%Cohen%NULL%0,             Barak%Cohen%NULL%0,             Dana%Karol%NULL%0,             Dana%Karol%NULL%0,             Avishai M%Tsur%NULL%0,             Shaul%Lev%NULL%0,             Shaul%Lev%NULL%0,             Tal%Rozenblat%NULL%0,             Ayana%Dvir%NULL%0,             Ayana%Dvir%NULL%0,             Geva%Landau%NULL%0,             Lidar%Fridrich%NULL%0,             Lidar%Fridrich%NULL%0,             Elon%Glassberg%NULL%0,             Shani%Kesari%NULL%0,             Sigal%Sviri%NULL%0,             Ram%Gelman%NULL%0,             Asaf%Miller%NULL%0,             Danny%Epstein%NULL%0,             Ronny%Ben-Avi%NULL%0,             Ronny%Ben-Avi%NULL%0,             Moshe%Matan%NULL%0,             Daniel J.%Jakobson%NULL%0,             Daniel J.%Jakobson%NULL%0,             Tarif%Bader%NULL%0,             Tarif%Bader%NULL%0,             David%Dahan%NULL%0,             David%Dahan%NULL%0,             Daniel A.%King%NULL%0,             Anat%Ben-Ari%NULL%0,             Arie%Soroksky%NULL%0,             Alon%Bar%NULL%0,             Alon%Bar%NULL%0,             Noam%Fink%NULL%0,             Pierre%Singer%NULL%0,             Avi%Benov%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,             John R%Adler%NULL%0,             Muhammad Sohaib%Asghar%NULL%0,             Muhammad Sohaib%Asghar%NULL%0,             Syed Jawad%Haider Kazmi%NULL%0,             Noman%Ahmed Khan%NULL%0,             Mohammed%Akram%NULL%0,             Salman%Ahmed Khan%NULL%0,             Uzma%Rasheed%NULL%0,             Maira%Hassan%NULL%0,             Gul Muhammad%Memon%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pedro%Baqui%NULL%0,             Ioana%Bica%NULL%0,             Valerio%Marra%marra@cosmo-ufes.org%0,             Ari%Ercole%NULL%0,             Mihaela%van der Schaar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anesi%Adriano%coreGivesNoEmail%0,            Bettinardi%Alessandra%coreGivesNoEmail%0,            Bonetti%Graziella%coreGivesNoEmail%0,            Borrelli%Gianluca%coreGivesNoEmail%0,            Fiordalisi%Gianfranco%coreGivesNoEmail%0,            Lippi%Giuseppe%coreGivesNoEmail%0,            Manelli%Filippo%coreGivesNoEmail%0,            Marino%Antonio%coreGivesNoEmail%0,            Menolfi%Annamaria%coreGivesNoEmail%0,            Patroni%Andrea%coreGivesNoEmail%0,            Saggini%Sara%coreGivesNoEmail%0,            Volpi%Roberta%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Andrea%Borghesi%NULL%0,             Angelo%Zigliani%NULL%0,             Salvatore%Golemi%NULL%0,             Nicola%Carapella%NULL%0,             Patrizia%Maculotti%NULL%0,             Davide%Farina%NULL%0,             Roberto%Maroldi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alberto M.%Borobia%NULL%0,             Antonio J.%Carcas%NULL%0,             Antonio J.%Carcas%NULL%0,             Francisco%Arnalich%NULL%0,             Rodolfo%Álvarez-Sala%NULL%0,             Rodolfo%Álvarez-Sala%NULL%0,             Jaime%Monserrat-Villatoro%NULL%0,             Manuel%Quintana%NULL%0,             Juan Carlos%Figueira%NULL%0,             Rosario M.%Torres Santos-Olmo%NULL%0,             Julio%García-Rodríguez%NULL%0,             Julio%García-Rodríguez%NULL%0,             Alberto%Martín-Vega%NULL%0,             Antonio%Buño%NULL%0,             Elena%Ramírez%NULL%0,             Gonzalo%Martínez-Alés%NULL%0,             Gonzalo%Martínez-Alés%NULL%0,             Nicolás%García-Arenzana%NULL%0,             M. Concepción%Núñez%NULL%0,             M. Concepción%Núñez%NULL%0,             Milagros%Martí-de-Gracia%NULL%0,             Francisco%Moreno Ramos%NULL%0,             Francisco%Reinoso-Barbero%NULL%0,             Alejandro%Martin-Quiros%NULL%0,             Angélica%Rivera Núñez%NULL%0,             Jesús%Mingorance%NULL%0,             Carlos J.%Carpio Segura%NULL%0,             Carlos J.%Carpio Segura%NULL%0,             Daniel%Prieto Arribas%NULL%0,             Esther%Rey Cuevas%NULL%0,             Concepción%Prados Sánchez%NULL%0,             Juan J.%Rios%NULL%0,             Miguel A.%Hernán%NULL%0,             Jesús%Frías%NULL%0,             José R.%Arribas%NULL%0,             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Data from the UK COVID-19 outbreak are emerging, and there are ongoing concerns about a disproportionate effect on ethnic minorities.
+ There is very limited information on COVID-19 in the over-80s, and the rates of hospital-onset infections are unknown.
+Methods
+This was a retrospective cohort study from electronic case records of the first 450 patients admitted to our hospital with PCR-confirmed COVID-19, 77% of the total inpatient caseload to date.
+ Demographic, clinical and biochemical data were extracted.
+ The primary endpoint was death during the index hospital admission.
+ The characteristics of all patients, those over 80 years of age and those with hospital-onset COVID-19 were examined.
+Results
+The median (IQR) age was 72 (56, 83), with 150 (33%) over 80 years old and 60% male.
+ Presenting clinical and biochemical features were consistent with those reported elsewhere.
+ The ethnic breakdown of patients admitted was similar to that of our underlying local population.
+ Inpatient mortality was high at 38%.
+Conclusions
+Inpatient mortality was high, especially among the over-80s, who are more likely to present atypically.
+ The ethnic composition of our caseload was similar to the underlying population.
+ While a significant number of patients acquired COVID-19 while already in hospital, their outcomes were no worse.
+</t>
+  </si>
+  <si>
+    <t>[Simon E.%Brill%simon.brill@nhs.net%0,             Hannah C.%Jarvis%NULL%0,             Hannah C.%Jarvis%NULL%0,             Ezgi%Ozcan%NULL%0,             Thomas L. P.%Burns%NULL%0,             Rabia A.%Warraich%NULL%0,             Lisa J.%Amani%NULL%0,             Amina%Jaffer%NULL%0,             Stephanie%Paget%NULL%0,             Anand%Sivaramakrishnan%NULL%0,             Dean D.%Creer%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,             Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,             Wenlin%Cheng%NULL%0,             Lei%Yu%NULL%0,             Ya-Kun%Liu%NULL%0,             Xiaoyong%Hu%NULL%0,             Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[B.%Carter%NULL%0,             J.T.%Collins%NULL%0,             F.%Barlow-Pay%NULL%0,             F.%Rickard%NULL%0,             E.%Bruce%NULL%0,             A.%Verduri%NULL%0,             T.J.%Quinn%NULL%0,             E.%Mitchell%NULL%0,             A.%Price%NULL%0,             A.%Vilches-Moraga%NULL%0,             M.J.%Stechman%NULL%0,             R.%Short%NULL%0,             A.%Einarsson%NULL%0,             P.%Braude%NULL%0,             S.%Moug%NULL%0,             P.K.%Myint%NULL%0,             J.%Hewitt%NULL%0,             L.%Pearce%NULL%0,             K.%McCarthy%NULL%0,             C.%Davey%NULL%0,             S.%Jones%NULL%0,             K.%Lunstone%NULL%0,             A.%Cavenagh%NULL%0,             C.%Silver%NULL%0,             T.%Telford%NULL%0,             R.%Simmons%NULL%0,             M.%Holloway%NULL%0,             J.%Hesford%NULL%0,             T.%El Jichi Mutasem%NULL%0,             S.%Singh%NULL%0,             D.%Paxton%NULL%0,             W.%Harris%NULL%0,             N.%Galbraith%NULL%0,             E.%Bhatti%NULL%0,             J.%Edwards%NULL%0,             S.%Duffy%NULL%0,             J.%Kelly%NULL%0,             C.%Murphy%NULL%0,             C.%Bisset%NULL%0,             R.%Alexander%NULL%0,             M.%Garcia%NULL%0,             S.%Sangani%NULL%0,             T.%Kneen%NULL%0,             T.%Lee%NULL%0,             A.%McGovern%NULL%0,             G.%Guaraldi%NULL%0,             E.%Clini%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fuyang%Chen%NULL%0,             Wenwu%Sun%NULL%0,             Shengrong%Sun%NULL%0,             Zhiyu%Li%lizhiyu@whu.edu.cn%0,             Zhong%Wang%zhongwangchn@whu.edu.cn%0,             Li%Yu%yuliwhzxyy@163.com%0,             Li%Yu%yuliwhzxyy@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,             Ling%Sang%NULL%0,             Mei%Jiang%NULL%0,             Zhaowei%Yang%NULL%0,             Nan%Jia%NULL%0,             Wanyi%Fu%NULL%0,             Jiaxing%Xie%NULL%0,             Weijie%Guan%NULL%0,             Wenhua%Liang%NULL%0,             Zhengyi%Ni%NULL%0,             Yu%Hu%NULL%0,             Lei%Liu%NULL%0,             Hong%Shan%NULL%0,             Chunliang%Lei%NULL%0,             Yixiang%Peng%NULL%0,             Li%Wei%NULL%0,             Yong%Liu%NULL%0,             Yahua%Hu%NULL%0,             Peng%Peng%NULL%0,             Jianming%Wang%NULL%0,             Jiyang%Liu%NULL%0,             Zhong%Chen%NULL%0,             Gang%Li%NULL%0,             Zhijian%Zheng%NULL%0,             Shaoqin%Qiu%NULL%0,             Jie%Luo%NULL%0,             Changjiang%Ye%NULL%0,             Shaoyong%Zhu%NULL%0,             Jinping%Zheng%NULL%0,             Nuofu%Zhang%NULL%0,             Yimin%Li%NULL%0,             Jianxing%He%NULL%0,             Jing%Li%NULL%0,             Shiyue%Li%NULL%0,             Nanshan%Zhong%NULL%0,             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,             Di%Wu%NULL%0,             Huilong%Chen%NULL%0,             Weiming%Yan%NULL%0,             Danlei%Yang%NULL%0,             Guang%Chen%NULL%0,             Ke%Ma%NULL%0,             Dong%Xu%NULL%0,             Haijing%Yu%NULL%0,             Hongwu%Wang%NULL%0,             Tao%Wang%NULL%0,             Wei%Guo%NULL%0,             Jia%Chen%NULL%0,             Chen%Ding%NULL%0,             Xiaoping%Zhang%NULL%0,             Jiaquan%Huang%NULL%0,             Meifang%Han%NULL%0,             Shusheng%Li%NULL%0,             Xiaoping%Luo%NULL%0,             Jianping%Zhao%NULL%0,             Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anying%Cheng%NULL%0,             Liu%Hu%NULL%0,             Yiru%Wang%NULL%0,             Luyan%Huang%NULL%0,             Lingxi%Zhao%NULL%0,             Congcong%Zhang%NULL%0,             Xiyue%Liu%NULL%0,             Ranran%Xu%NULL%0,             Feng%Liu%NULL%0,             Jinping%Li%NULL%0,             Dawei%Ye%NULL%0,             Tao%Wang%NULL%0,             Yongman%Lv%lvyongman@126.com%0,             Qingquan%Liu%qqliutj@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fabio%Ciceri%ciceri.fabio@hsr.it%0,             Antonella%Castagna%NULL%0,             Patrizia%Rovere-Querini%NULL%0,             Francesco%De Cobelli%NULL%0,             Annalisa%Ruggeri%NULL%0,             Laura%Galli%NULL%0,             Caterina%Conte%NULL%0,             Rebecca%De Lorenzo%NULL%0,             Andrea%Poli%NULL%0,             Alberto%Ambrosio%NULL%0,             Carlo%Signorelli%NULL%0,             Eleonora%Bossi%NULL%0,             Maria%Fazio%NULL%0,             Cristina%Tresoldi%NULL%0,             Sergio%Colombo%NULL%0,             Giacomo%Monti%NULL%0,             Efgeny%Fominskiy%NULL%0,             Stefano%Franchini%NULL%0,             Marzia%Spessot%NULL%0,             Carlo%Martinenghi%NULL%0,             Michele%Carlucci%NULL%0,             Luigi%Beretta%NULL%0,             Anna Maria%Scandroglio%NULL%0,             Massimo%Clementi%NULL%0,             Massimo%Locatelli%NULL%0,             Moreno%Tresoldi%NULL%0,             Paolo%Scarpellini%NULL%0,             Gianvito%Martino%NULL%0,             Emanuele%Bosi%NULL%0,             Lorenzo%Dagna%NULL%0,             Adriano%Lazzarin%NULL%0,             Giovanni%Landoni%NULL%0,             Alberto%Zangrillo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,             Wei%Liu%NULL%0,             Kui%Liu%NULL%0,             Yuan-Yuan%Fang%NULL%0,             Jin%Shang%NULL%0,             Ling%Zhou%NULL%0,             Ke%Wang%NULL%0,             Fan%Leng%NULL%0,             Shuang%Wei%NULL%0,             Lei%Chen%NULL%0,             Hui-Guo%Liu%NULL%0,             Pei-Fang%Wei%NULL%0,             Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,             Li-Rong%Liang%NULL%0,             Cheng-Qing%Yang%NULL%0,             Wen%Wang%NULL%0,             Tan-Ze%Cao%NULL%0,             Ming%Li%NULL%0,             Guang-Yun%Guo%NULL%0,             Juan%Du%NULL%0,             Chun-Lan%Zheng%NULL%0,             Qi%Zhu%NULL%0,             Ming%Hu%NULL%0,             Xu-Yan%Li%NULL%0,             Peng%Peng%NULL%0,             Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shan%Gao%NULL%0,             Fang%Jiang%NULL%0,             Wei%Jin%NULL%0,             Yuan%Shi%NULL%0,             Leilei%Yang%NULL%0,             Yanqiong%Xia%NULL%0,             Linyan%Jia%NULL%0,             Bo%Wang%NULL%0,             Han%Lin%NULL%0,             Yin%Cai%NULL%0,             Zhengyuan%Xia%NULL%0,             Jian%Peng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pedro David%Wendel Garcia%pedrodavid.wendelgarcia@usz.ch%0,             Thierry%Fumeaux%thierry.fumeaux@ghol.ch%0,             Philippe%Guerci%NULL%0,             Dorothea Monika%Heuberger%dorotheamonika.heuberger@usz.ch%0,             Jonathan%Montomoli%NULL%0,             Ferran%Roche-Campo%NULL%0,             Reto Andreas%Schuepbach%reto.schuepbach@usz.ch%0,             Matthias Peter%Hilty%matthias.hilty@usz.ch%0,             Mario%Alfaro Farias%NULL%0,             Antoni%Margarit%NULL%0,             Gerardo%Vizmanos-Lamotte%NULL%0,             Thomas%Tschoellitsch%NULL%0,             Jens%Meier%NULL%0,             Francesco S.%Cardona%NULL%0,             Josef%Skola%NULL%0,             Lenka%Horakova%NULL%0,             Hernan%Aguirre-Bermeo%NULL%0,             Janina%Apolo%NULL%0,             Emmanuel%Novy%NULL%0,             Marie-Reine%Losser%NULL%0,             Geoffrey%Jurkolow%NULL%0,             Gauthier%Delahaye%NULL%0,             Sascha%David%NULL%0,             Tobias%Welte%NULL%0,             Tobias%Wengenmayer%NULL%0,             Dawid L.%Staudacher%NULL%0,             Theodoros%Aslanidis%NULL%0,             Barna%Babik%NULL%0,             Anita%Korsos%NULL%0,             Janos%Gal%NULL%0,             Hermann%Csaba%NULL%0,             Abele%Donati%NULL%0,             Andrea%Carsetti%NULL%0,             Fabrizio%Turrini%NULL%0,             Maria Sole%Simonini%NULL%0,             Roberto%Ceriani%NULL%0,             Martina%Murrone%NULL%0,             Emanuele%Rezoagli%NULL%0,             Giovanni%Vitale%NULL%0,             Alberto%Fogagnolo%NULL%0,             Savino%Spadaro%NULL%0,             Maddalena Alessandra%Wu%NULL%0,             Chiara%Cogliati%NULL%0,             Riccardo%Colombo%NULL%0,             Emanuele%Catena%NULL%0,             Francesca%Facondini%NULL%0,             Antonella%Potalivo%NULL%0,             Gianfilippo%Gangitano%NULL%0,             Tiziana%Perin%NULL%0,             Maria Grazia%Bocci%NULL%0,             Massimo%Antonelli%NULL%0,             Diederik%Gommers%NULL%0,             Can%Ince%NULL%0,             Eric%Mayor-Vázquez%NULL%0,             Maria%Cruz%NULL%0,             Martin%Delgado%NULL%0,             Raquel Rodriguez%Garcia%NULL%0,             Jorge%Gamez Zapata%NULL%0,             Begoña%Zalba-Etayo%NULL%0,             Herminia%Lozano-Gomez%NULL%0,             Pedro%Castro%NULL%0,             Adrian%Tellez%NULL%0,             Adriana%Jacas%NULL%0,             Guido%Muñoz%NULL%0,             Rut%Andrea%NULL%0,             Jose%Ortiz%NULL%0,             Eduard%Quintana%NULL%0,             Irene%Rovira%NULL%0,             Enric%Reverter%NULL%0,             Javier%Fernandez%NULL%0,             Miquel%Ferrer%NULL%0,             Joan R.%Badia%NULL%0,             Arantxa%Lander Azcona%NULL%0,             Jesus Escos%Orta%NULL%0,             Philipp%Bühler%NULL%0,             Silvio%Brugger%NULL%0,             Daniel%Hofmaenner%NULL%0,             Simone%Unseld%NULL%0,             Frank%Ruschitzka%NULL%0,             Mallory%Moret-Bochatay%NULL%0,             Bernd%Yuen%NULL%0,             Thomas%Hillermann%NULL%0,             Hatem%Ksouri%NULL%0,             Govind Oliver%Sridharan%NULL%0,             Anette%Ristic%NULL%0,             Michael%Sepulcri%NULL%0,             Miodrag%Filipovic%NULL%0,             Urs%Pietsch%NULL%0,             Petra%Salomon%NULL%0,             Iris%Drvaric%NULL%0,             Peter%Schott%NULL%0,             Severin%Urech%NULL%0,             Adriana%Lambert%NULL%0,             Lukas%Merki%NULL%0,             Marcus%Laube%NULL%0,             Frank%Hillgaertner%NULL%0,             Marianne%Sieber%NULL%0,             Alexander%Dullenkopf%NULL%0,             Lina%Petersen%NULL%0,             Serge%Grazioli%NULL%0,             Peter C.%Rimensberger%NULL%0,             Isabelle%Fleisch%NULL%0,             Jerome%Lavanchy%NULL%0,             Katharina%Marquardt%NULL%0,             Karim%Shaikh%NULL%0,             Hermann%Redecker%NULL%0,             Michael%Stephan%NULL%0,             Jan%Brem%NULL%0,             Bjarte%Rogdo%NULL%0,             Andre%Birkenmaier%NULL%0,             Friederike%Meyer zu Bentrup%NULL%0,             Patricia%Fodor%NULL%0,             Pascal%Locher%NULL%0,             Giovanni%Camen%NULL%0,             Martin%Siegemund%NULL%0,             Nuria%Zellweger%NULL%0,             Marie-Madlen%Jeitziner%NULL%0,             Beatrice%Jenni-Moser%NULL%0,             Christian%Bürkle%NULL%0,             Gian-Reto%Kleger%NULL%0,             Marilene%Franchitti Laurent%NULL%0,             Jean-Christophe%Laurent%NULL%0,             Tomislav%Gaspert%NULL%0,             Marija%Jovic%NULL%0,             Michael%Studhalter%NULL%0,             Christoph%Haberthuer%NULL%0,             Roger F.%Lussman%NULL%0,             Daniela%Selz%NULL%0,             Didier%Naon%NULL%0,             Romano%Mauri%NULL%0,             Samuele%Ceruti%NULL%0,             Julien%Marrel%NULL%0,             Mirko%Brenni%NULL%0,             Rolf%Ensner%NULL%0,             Nadine%Gehring%NULL%0,             Antje%Heise%NULL%0,             Tobias%Huebner%NULL%0,             Thomas A.%Neff%NULL%0,             Sara%Cereghetti%NULL%0,             Filippo%Boroli%NULL%0,             Jerome%Pugin%NULL%0,             Nandor%Marczin%NULL%0,             Joyce%Wong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Warren%Gavin%NULL%0,             Elliott%Campbell%NULL%0,             Syed-Adeel%Zaidi%NULL%0,             Neha%Gavin%NULL%0,             Lana%Dbeibo%NULL%0,             Cole%Beeler%NULL%0,             Kari%Kuebler%NULL%0,             Ahmed%Abdel-Rahman%NULL%0,             Mark%Luetkemeyer%NULL%0,             Areeba%Kara%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Vijay%Gayam%vgayam@interfaithmedical.com%0,             Muchi Ditah%Chobufo%NULL%0,             Muchi Ditah%Chobufo%NULL%0,             Mohamed A.%Merghani%NULL%0,             Mohamed A.%Merghani%NULL%0,             Shristi%Lamichhane%NULL%0,             Pavani Reddy%Garlapati%NULL%0,             Mark K.%Adler%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Cao%Y%coreGivesNoEmail%0,            Imam%Z%coreGivesNoEmail%0,            Lippi%G%coreGivesNoEmail%0,            Oran%DP%coreGivesNoEmail%0,            Shi%S%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Hai%Hu%huhai@wchscu.cn%0,             Ni%Yao%NULL%0,             Ni%Yao%NULL%0,             Yanru%Qiu%NULL%0,             John H.%Burton%NULL%0,             John H.%Burton%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jiaofeng%Huang%NULL%0,             Aiguo%Cheng%NULL%0,             Rahul%Kumar%NULL%0,             Yingying%Fang%NULL%0,             Yingying%Fang%NULL%0,             Gongping%Chen%NULL%0,             Yueyong%Zhu%NULL%0,             Su%Lin%sumer5129@fjmu.edu.cn%0,             Su%Lin%sumer5129@fjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction
+In the current study, we evaluated factors that increase the coronavirus disease (COVID-19) patient death rate by analyzing the data from two cohort hospitals.
+ In addition, we studied whether underlying neurological diseases are risk factors for death.
+Methods
+In this retrospective cohort study, we included 103 adult inpatients (aged ≥ 18 years).
+ We evaluated differences in demographic data between surviving and non-surviving COVID-19 patients.
+Results
+In a multivariate logistic analysis, age and the presence of chronic lung disease and Alzheimer’s dementia (AD) were the only significant parameters for predicting COVID-19 non-survival (p &amp;lt; 0.05).
+ However, hypertension, coronary vascular disease, dyslipidemia, chronic kidney disease, diabetes, and history of taking angiotensin II receptor blockers (ARBs) or angiotensin-converting enzyme (ACE) inhibitors, as well as nonsteroidal anti-inflammatory drugs (NSAIDs), were not significantly associated with the death of COVID-19 patients.
+ The optimal cutoff value obtained from the maximum Youden index was 70 (sensitivity, 80.77%; specificity, 61.04%), and the odds ratio of non-survival increased 1.055 fold for every year of age.
+Conclusions
+Clinicians should closely monitor and manage the symptoms of COVID-19 patients who are over the age of 70 years or have chronic lung disease or AD.
+</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%0,             Ju-Hyun%Kim%NULL%0,             Jin-Sung%Park%NULL%0,             Min Cheol%Chang%wheel633@ynu.ac.kr%0,             Donghwi%Park%bdome@hanmail.net%0]</t>
+  </si>
+  <si>
+    <t>[K.%Khalil%NULL%0,             K.%Agbontaen%NULL%0,             D.%McNally%NULL%0,             A.%Love%NULL%0,             S.%Mandalia%NULL%0,             W.%Banya%NULL%0,             E.%Starren%NULL%0,             R.%Dhunnookchand%NULL%0,             H.%Farne%NULL%0,             R.%Morton%NULL%0,             G.%Davies%NULL%0,             O.%Orhan%NULL%0,             D%Lai%NULL%0,             M.%Nelson%NULL%0,             P.L.%Shah%NULL%0,             J.L.%Garner%Justin.garner@chelwest.nhs.uk%0]</t>
+  </si>
+  <si>
+    <t>[Eyal%Klang%NULL%0,             Gassan%Kassim%NULL%0,             Shelly%Soffer%soffer.shelly@gmail.com%0,             Robert%Freeman%NULL%0,             Robert%Freeman%NULL%0,             Matthew A.%Levin%NULL%0,             Matthew A.%Levin%NULL%0,             David L.%Reich%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sandeep%Krishnan%NULL%0,             Kinjal%Patel%NULL%0,             Ronak%Desai%NULL%0,             Anupam%Sule%NULL%0,             Peter%Paik%NULL%0,             Ashley%Miller%NULL%0,             Alicia%Barclay%NULL%0,             Adam%Cassella%NULL%0,             Jon%Lucaj%NULL%0,             Yvonne%Royster%NULL%0,             Joffer%Hakim%NULL%0,             Zulfiqar%Ahmed%NULL%0,             Farhad%Ghoddoussi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Manisha%Bhutani%null%0,   David M.%Foureau%null%0,   Shebli%Atrash%null%0,   Peter M.%Voorhees%null%0,   Saad Z.%Usmani%null%0]</t>
+  </si>
+  <si>
+    <t>[Wil%Lieberman-Cribbin%NULL%0,             Joseph%Rapp%NULL%0,             Naomi%Alpert%NULL%0,             Stephanie%Tuminello%NULL%0,             Emanuela%Taioli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Q.%Liu%NULL%0,             N. C.%Song%NULL%0,             Z. K.%Zheng%NULL%0,             J. S.%Li%NULL%0,             S. K.%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Long%NULL%0,             Lan%Nie%NULL%0,             Xiaochen%Xiang%NULL%0,             Huan%Li%NULL%0,             Xiaoli%Zhang%NULL%0,             Xiaozhi%Fu%NULL%0,             Hongwei%Ren%NULL%0,             Wanxin%Liu%NULL%0,             Qiang%Wang%wangqiang@wust.edu.cn%0,             Qingming%Wu%wuhe9224@sina.com%0,             Qingming%Wu%wuhe9224@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Miao%Luo%xref no email%0,     Jing%Liu%xref no email%0,     Weiling%Jiang%xref no email%0,     Shuang%Yue%xref no email%0,     Huiguo%Liu%xref no email%0,     Shuang%Wei%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Xiaomin%Luo%luoxiaomin04@163.com%0,             Wei%Zhou%NULL%0,             Xiaojie%Yan%NULL%0,             Tangxi%Guo%NULL%0,             Benchao%Wang%NULL%0,             Hongxia%Xia%NULL%0,             Lu%Ye%NULL%0,             Jun%Xiong%NULL%0,             Zongping%Jiang%NULL%0,             Yu%Liu%NULL%0,             Bicheng%Zhang%NULL%0,             Weize%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+There are currently rare satisfactory markers for predicting the death of patients with coronavirus disease 2019 (COVID-19).
+ The aim of this study is to establish a model based on the combination of serum cytokines and lymphocyte subsets for predicting the prognosis of the disease.
+Methods
+A total of 739 participants with COVID-19 were enrolled at Tongji Hospital from February to April 2020 and classified into fatal (n = 51) and survived (n = 688) groups according to the patient’s outcome.
+ Cytokine profile and lymphocyte subset analysis was performed simultaneously.
+Results
+The fatal patients exhibited a significant lower number of lymphocytes including B cells, CD4+ T cells, CD8+ T cells, and NK cells and remarkably higher concentrations of cytokines including interleukin-2 receptor, interleukin-6, interleukin-8, and tumor necrosis factor-α on admission compared with the survived subjects.
+ A model based on the combination of interleukin-8 and the numbers of CD4+ T cells and NK cells showed a good performance in predicting the death of patients with COVID-19. When the threshold of 0.075 was used, the sensitivity and specificity of the prediction model were 90.20% and 90.26%, respectively.
+ Meanwhile, interleukin-8 was found to have a potential value in predicting the length of hospital stay until death.
+Conclusions
+Significant increase of cytokines and decrease of lymphocyte subsets are found positively correlated with in-hospital death.
+ A model based on the combination of three markers provides an attractive approach to predict the prognosis of COVID-19.
+Electronic supplementary material
+The online version of this article (10.1007/s10875-020-00821-7) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Ying%Luo%NULL%0,             Liyan%Mao%NULL%0,             Xu%Yuan%NULL%0,             Ying%Xue%NULL%0,             Qun%Lin%NULL%0,             Guoxing%Tang%NULL%0,             Huijuan%Song%NULL%0,             Feng%Wang%fengwang@tjh.tjmu.edu.cn%0,             Ziyong%Sun%zysun@tjh.tjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ying%Luo%NULL%0,             Ying%Xue%NULL%0,             Liyan%Mao%NULL%0,             Xu%Yuan%NULL%0,             Qun%Lin%NULL%0,             Guoxing%Tang%NULL%0,             Huijuan%Song%NULL%0,             Feng%Wang%NULL%0,             Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chiara%Masetti%NULL%0,             Elena%Generali%NULL%0,             Francesca%Colapietro%NULL%0,             Antonio%Voza%NULL%0,             Maurizio%Cecconi%NULL%0,             Antonio%Messina%NULL%0,             Paolo%Omodei%NULL%0,             Claudio%Angelini%NULL%0,             Michele%Ciccarelli%NULL%0,             Salvatore%Badalamenti%NULL%0,             G. Walter%Canonica%NULL%0,             Ana%Lleo%ana.lleo@humanitas.it%0,             Alessio%Aghemo%NULL%0,             Alessio%Aghemo%NULL%0,             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+New York City emerged as an epicenter of the coronavirus disease 2019 (COVID-19) pandemic.
+Objective
+To describe the clinical characteristics and risk factors associated with mortality in a large patient population in the USA.
+Design
+Retrospective cohort study.
+Participants
+6493 patients who had laboratory-confirmed COVID-19 with clinical outcomes between March 13 and April 17, 2020, who were seen in one of the 8 hospitals and/or over 400 ambulatory practices in the New York City metropolitan area
+Main Measures
+Clinical characteristics and risk factors associated with in-hospital mortality.
+Key Results
+A total of 858 of 6493 (13.2%) patients in our total cohort died: 52/2785 (1.9%) ambulatory patients and 806/3708 (21.7%) hospitalized patients.
+ Cox proportional hazard regression modeling showed an increased risk of in-hospital mortality associated with age older than 50 years (hazard ratio [HR] 2.34, CI 1.47–3.71), systolic blood pressure less than 90 mmHg (HR 1.38, CI 1.06–1.80), a respiratory rate greater than 24 per min (HR 1.43, CI 1.13–1.83), peripheral oxygen saturation less than 92% (HR 2.12, CI 1.56–2.88), estimated glomerular filtration rate less than 60 mL/min/1.73m2 (HR 1.80, CI 1.60–2.02), IL-6 greater than 100 pg/mL (HR 1.50, CI 1.12–2.03), D-dimer greater than 2 mcg/mL (HR 1.19, CI 1.02–1.39), and troponin greater than 0.03 ng/mL (HR 1.40, CI 1.23–1.62).
+ Decreased risk of in-hospital mortality was associated with female sex (HR 0.84, CI 0.77–0.90), African American race (HR 0.78 CI 0.65–0.95), and hydroxychloroquine use (HR 0.53, CI 0.41–0.67).
+Conclusions
+Among patients with COVID-19, older age, male sex, hypotension, tachypnea, hypoxia, impaired renal function, elevated D-dimer, and elevated troponin were associated with increased in-hospital mortality and hydroxychloroquine use was associated with decreased in-hospital mortality.
+Electronic supplementary material
+The online version of this article (10.1007/s11606-020-05983-z) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Takahisa%Mikami%NULL%0,             Hirotaka%Miyashita%NULL%0,             Takayuki%Yamada%NULL%0,             Matthew%Harrington%NULL%0,             Daniel%Steinberg%NULL%0,             Andrew%Dunn%NULL%0,             Evan%Siau%Evan.Siau@mountsinai.org%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+The purpose of this study is to report the clinical features and outcomes of Black/African American (AA) and Latino Hispanic patients with Coronavirus disease 2019 (COVID-19) hospitalized in an inter-city hospital in the state of New Jersey.
+Methods
+This is a retrospective cohort study of AA and Latino Hispanic patients with COVID-19 admitted to a 665-bed quaternary care, teaching hospital located in Newark, New Jersey.
+ The study included patients who had completed hospitalization between March 10, 2020, and April 10, 2020. We reviewed demographics, socioeconomic variables and incidence of in-hospital mortality and morbidity.
+ Logistic regression was used to identify predictor of in-hospital death.
+Results
+Out of 416 patients, 251 (60%) had completed hospitalization as of April 10, 2020. The incidence of In-hospital mortality was 38.6% (n = 97).
+ Most common symptoms at initial presentation were dyspnea 39% (n = 162) followed by cough 38%(n = 156) and fever 34% (n = 143).
+ Patients were in the highest quartile for population’s density, number of housing units and disproportionately fell into the lowest median income quartile for the state of New Jersey.
+ The incidence of septic shock, acute kidney injury (AKI) requiring hemodialysis and admission to an intensive care unit (ICU) was 24% (n = 59), 21% (n = 52), 33% (n = 82) respectively.
+ Independent predictors of in-hospital mortality were older age, lower serum Hemoglobin &amp;lt; 10 mg/dl, elevated serum Ferritin and Creatinine phosphokinase levels &amp;gt; 1200 U/L and &amp;gt; 1000 U/L.
+Conclusions
+Findings from an inter-city hospital’s experience with COVID-19 among underserved minority populations showed that, more than one of every three patients were at risk for in-hospital death or morbidity.
+ Older age and elevated inflammatory markers at presentation were associated with in-hospital death.
+</t>
+  </si>
+  <si>
+    <t>[Alexis K.%Okoh%alexis.okoh@rwjbh.org%0,             Christoph%Sossou%NULL%0,             Christoph%Sossou%NULL%0,             Neha S.%Dangayach%NULL%0,             Sherin%Meledathu%NULL%0,             Oluwakemi%Phillips%NULL%0,             Corinne%Raczek%NULL%0,             Michael%Patti%NULL%0,             Nathan%Kang%NULL%0,             Sameer A.%Hirji%NULL%0,             Charles%Cathcart%NULL%0,             Christian%Engell%NULL%0,             Marc%Cohen%NULL%0,             Sandhya%Nagarakanti%NULL%0,             Eliahu%Bishburg%NULL%0,             Harpreet S.%Grewal%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%0,              Lian%Yang%NULL%0,              Yuncheng%Li%NULL%0,              Bo%Liang%NULL%0,              Lin%Li%NULL%0,              Tianhe%Ye%NULL%0,              Lingli%Li%NULL%0,              Dehan%Liu%NULL%0,              Shan%Gui%NULL%0,              Yu%Hu%NULL%0,              Chuansheng%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,             Becker%L.B.%coreGivesNoEmail%0,             Chelico%J.D.%coreGivesNoEmail%0,             Cohen%S.L.%coreGivesNoEmail%0,             Cookingham%J.%coreGivesNoEmail%0,             Coppa%K.%coreGivesNoEmail%0,             Crawford%J.M.%coreGivesNoEmail%0,             Davidson%K.W.%coreGivesNoEmail%0,             Diefenbach%M.A.%coreGivesNoEmail%0,             Dominello%A.J.%coreGivesNoEmail%0,             Duer-Hefele%J.%coreGivesNoEmail%0,             Falzon%L.%coreGivesNoEmail%0,             Gitlin%J.%coreGivesNoEmail%0,             Hajizadeh%N.%coreGivesNoEmail%0,             Harvin%T.G.%coreGivesNoEmail%0,             Hirsch%J.S.%coreGivesNoEmail%0,             Hirschwerk%D.A.%coreGivesNoEmail%0,             Kim%E.J.%coreGivesNoEmail%0,             Kozel%Z.M.%coreGivesNoEmail%0,             Marrast%L.M.%coreGivesNoEmail%0,             McGinn%T.%coreGivesNoEmail%0,             Mogavero%J.N.%coreGivesNoEmail%0,             Narasimhan%M.%coreGivesNoEmail%0,             Osorio%G.A.%coreGivesNoEmail%0,             Qiu%M.%coreGivesNoEmail%0,             Richardson%S.%coreGivesNoEmail%0,             Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Mario%Rivera-Izquierdo%NULL%0,              María%del Carmen Valero-Ubierna%NULL%0,              María%del Carmen Valero-Ubierna%NULL%0,              Juan Luis%R-delAmo%NULL%0,              Miguel Ángel%Fernández-García%NULL%0,              Silvia%Martínez-Diz%NULL%0,              Arezu%Tahery-Mahmoud%NULL%0,              Marta%Rodríguez-Camacho%NULL%0,              Ana Belén%Gámiz-Molina%NULL%0,              Nicolás%Barba-Gyengo%NULL%0,              Pablo%Gámez-Baeza%NULL%0,              Celia%Cabrero-Rodríguez%NULL%0,              Pedro Antonio%Guirado-Ruiz%NULL%0,              Divina Tatiana%Martín-Romero%NULL%0,              Antonio Jesús%Láinez-Ramos-Bossini%NULL%0,              María Rosa%Sánchez-Pérez%NULL%0,              José%Mancera-Romero%NULL%0,              Miguel%García-Martín%NULL%0,              Luis Miguel%Martín-delosReyes%NULL%0,              Virginia%Martínez-Ruiz%NULL%0,              Virginia%Martínez-Ruiz%NULL%0,              Pablo%Lardelli-Claret%NULL%0,              Eladio%Jiménez-Mejías%NULL%0,              Muhammad%Adrish%NULL%0,              Muhammad%Adrish%NULL%0,              NULL%NULL%NULL%0,              NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,              Kun%Yang%NULL%0,              Kun%Yang%NULL%0,              Wenxia%Wang%NULL%0,              Wenxia%Wang%NULL%0,              Lingyu%Jiang%NULL%0,              Lingyu%Jiang%NULL%0,              Jianxin%Song%songsingsjx@sina.com%0,              Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Grace%Salacup%salacupg@einstein.edu%0,              Kevin Bryan%Lo%NULL%0,              Kevin Bryan%Lo%NULL%0,              Fahad%Gul%NULL%0,              Eric%Peterson%NULL%0,              Robert%De Joy%NULL%0,              Ruchika%Bhargav%NULL%0,              Jerald%Pelayo%NULL%0,              Jeri%Albano%NULL%0,              Zurab%Azmaiparashvili%NULL%0,              Sadia%Benzaquen%NULL%0,              Gabriel%Patarroyo‐Aponte%NULL%0,              Janani%Rangaswami%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yufeng%Shang%NULL%0,              Tao%Liu%NULL%0,              Yongchang%Wei%NULL%0,              Jingfeng%Li%NULL%0,              Liang%Shao%NULL%0,              Minghui%Liu%NULL%0,              Yongxi%Zhang%NULL%0,              Zhigang%Zhao%NULL%0,              Haibo%Xu%NULL%0,              Zhiyong%Peng%NULL%0,              Fuling%Zhou%zhoufuling@whu.edu.cn%0,              Xinghuan%Wang%wangxinghuan@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,              Mu%Qin%qinmuae@163.com%0,              Yuli%Cai%NULL%0,              Tao%Liu%NULL%0,              Bo%Shen%NULL%0,              Fan%Yang%NULL%0,              Sheng%Cao%NULL%0,              Xu%Liu%NULL%0,              Xu%Liu%NULL%0,              Yaozu%Xiang%NULL%0,              Qinyan%Zhao%NULL%0,              He%Huang%huanghe1977@whu.edu.cn%0,              Bo%Yang%yybb112@whu.edu.cn%0,              Congxin%Huang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rita de Cássia Menezes%Soares%NULL%0,              Larissa Rodrigues%Mattos%NULL%0,              Letícia Martins%Raposo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,              Ruoqi%Ning%NULL%0,              Yu%Tao%NULL%0,              Chong%Yu%NULL%0,              Xiaoyan%Deng%NULL%0,              Caili%Zhao%NULL%0,              Silu%Meng%NULL%0,              Fangxu%Tang%89650793@qq.com%0,              Dong%Xu%89650793@qq.com%0,              Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Kun%Wang%NULL%0,              Peiyuan%Zuo%NULL%0,              Yuwei%Liu%NULL%0,              Meng%Zhang%NULL%0,              Xiaofang%Zhao%NULL%0,              Songpu%Xie%NULL%0,              Hao%Zhang%NULL%0,              Xinglin%Chen%NULL%0,              Chengyun%Liu%chengyunliu@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Bo%XU%NULL%0,              Cun-yu%FAN%NULL%0,              An-lu%WANG%NULL%0,              Yi-long%ZOU%NULL%0,              Yi-han%YU%NULL%0,              Cong%HE%NULL%0,              Wen-guang%XIA%NULL%0,              Ji-xian%ZHANG%NULL%0,              Qing%MIAO%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xisheng%Yan%NULL%0,              Fen%Li%NULL%0,              Xiao%Wang%NULL%0,              Jie%Yan%NULL%0,              Fen%Zhu%NULL%0,              Shifan%Tang%NULL%0,              Yingzhong%Deng%NULL%0,              Hua%Wang%NULL%0,              Rui%Chen%NULL%0,              Zhili%Yu%NULL%0,              Yaping%Li%NULL%0,              Jingzhou%Shang%NULL%0,              Lingjun%Zeng%NULL%0,              Jie%Zhao%NULL%0,              Chaokun%Guan%NULL%0,              Qiaomei%Liu%NULL%0,              Haifeng%Chen%NULL%0,              Wei%Gong%NULL%0,              Xin%Huang%NULL%0,              Yu‐Jiao%Zhang%NULL%0,              Jianguang%Liu%NULL%0,              Xiaoyan%Dong%NULL%0,              Wen%Zheng%zhengwen12@mails.jlu.edu.cn%0,              Shaoping%Nie%spnie@126.com%0,              Dongsheng%Li%dongshengli196809@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qing%Yang%NULL%0,              Ying%Zhou%NULL%0,              Xinrong%Wang%NULL%0,              Shan%Gao%NULL%0,              Yang%Xiao%NULL%0,              Weiming%Zhang%NULL%0,              Yi%Hu%huyizxyy@163.com%0,              Yafei%Wang%wyf_527@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,              Qingyu%Yang%NULL%0,              Yaxin%Wang%NULL%0,              Yongran%Wu%NULL%0,              Jiqian%Xu%NULL%0,              Yuan%Yu%NULL%0,              You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wenjing%Ye%yewenjing@xinhuamed.com.cn%0,              Guoxi%Chen%4799082@qq.com%0,              Xiaopan%Li%xiaopanli0224@126.com%0,              Xing%Lan%474137452@qq.com%0,              Chen%Ji%c.ji.3@warwick.ac.uk%0,              Min%Hou%min-hou710@hotmail.com%0,              Di%Zhang%zhangdizhangdi1234@163.com%0,              Guangwang%Zeng%785663609@qq.com%0,              Yaling%Wang%953822402@qq.com%0,              Cheng%Xu%xucheng112358@126.com%0,              Weiwei%Lu%luweiwei100@126.com%0,              Ruolin%Cui%crlqwerty@163.com%0,              Yuyang%Cai%caiyuyang@sjtu.edu.cn%0,              Hai%Huang%1220775601@qq.com%0,              Ling%Yang%yangling01@xinhuamed.com.cn%0]</t>
+  </si>
+  <si>
+    <t>[Caizheng%Yu%NULL%0,              Qing%Lei%NULL%0,              Wenkai%Li%NULL%0,              Xiong%Wang%NULL%0,              Wei%Liu%NULL%0,              Xionglin%Fan%NULL%0,              Wengang%Li%228907211@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,              Ting%Yu%NULL%0,              Ronghui%Du%NULL%0,              Guohui%Fan%NULL%0,              Ying%Liu%NULL%0,              Zhibo%Liu%NULL%0,              Jie%Xiang%NULL%0,              Yeming%Wang%NULL%0,              Bin%Song%NULL%0,              Xiaoying%Gu%NULL%0,              Lulu%Guan%NULL%0,              Yuan%Wei%NULL%0,              Hui%Li%NULL%0,              Xudong%Wu%NULL%0,              Jiuyang%Xu%NULL%0,              Shengjin%Tu%NULL%0,              Yi%Zhang%NULL%0,              Hua%Chen%NULL%0,              Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Moran%Amit%NULL%0,              Alex%Sorkin%NULL%0,              Jacob%Chen%NULL%0,              Barak%Cohen%NULL%0,              Barak%Cohen%NULL%0,              Dana%Karol%NULL%0,              Dana%Karol%NULL%0,              Avishai M%Tsur%NULL%0,              Shaul%Lev%NULL%0,              Shaul%Lev%NULL%0,              Tal%Rozenblat%NULL%0,              Ayana%Dvir%NULL%0,              Ayana%Dvir%NULL%0,              Geva%Landau%NULL%0,              Lidar%Fridrich%NULL%0,              Lidar%Fridrich%NULL%0,              Elon%Glassberg%NULL%0,              Shani%Kesari%NULL%0,              Sigal%Sviri%NULL%0,              Ram%Gelman%NULL%0,              Asaf%Miller%NULL%0,              Danny%Epstein%NULL%0,              Ronny%Ben-Avi%NULL%0,              Ronny%Ben-Avi%NULL%0,              Moshe%Matan%NULL%0,              Daniel J.%Jakobson%NULL%0,              Daniel J.%Jakobson%NULL%0,              Tarif%Bader%NULL%0,              Tarif%Bader%NULL%0,              David%Dahan%NULL%0,              David%Dahan%NULL%0,              Daniel A.%King%NULL%0,              Anat%Ben-Ari%NULL%0,              Arie%Soroksky%NULL%0,              Alon%Bar%NULL%0,              Alon%Bar%NULL%0,              Noam%Fink%NULL%0,              Pierre%Singer%NULL%0,              Avi%Benov%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,              John R%Adler%NULL%0,              Muhammad Sohaib%Asghar%NULL%0,              Muhammad Sohaib%Asghar%NULL%0,              Syed Jawad%Haider Kazmi%NULL%0,              Noman%Ahmed Khan%NULL%0,              Mohammed%Akram%NULL%0,              Salman%Ahmed Khan%NULL%0,              Uzma%Rasheed%NULL%0,              Maira%Hassan%NULL%0,              Gul Muhammad%Memon%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pedro%Baqui%NULL%0,              Ioana%Bica%NULL%0,              Valerio%Marra%marra@cosmo-ufes.org%0,              Ari%Ercole%NULL%0,              Mihaela%van der Schaar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anesi%Adriano%coreGivesNoEmail%0,             Bettinardi%Alessandra%coreGivesNoEmail%0,             Bonetti%Graziella%coreGivesNoEmail%0,             Borrelli%Gianluca%coreGivesNoEmail%0,             Fiordalisi%Gianfranco%coreGivesNoEmail%0,             Lippi%Giuseppe%coreGivesNoEmail%0,             Manelli%Filippo%coreGivesNoEmail%0,             Marino%Antonio%coreGivesNoEmail%0,             Menolfi%Annamaria%coreGivesNoEmail%0,             Patroni%Andrea%coreGivesNoEmail%0,             Saggini%Sara%coreGivesNoEmail%0,             Volpi%Roberta%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Andrea%Borghesi%NULL%0,              Angelo%Zigliani%NULL%0,              Salvatore%Golemi%NULL%0,              Nicola%Carapella%NULL%0,              Patrizia%Maculotti%NULL%0,              Davide%Farina%NULL%0,              Roberto%Maroldi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alberto M.%Borobia%NULL%0,              Antonio J.%Carcas%NULL%0,              Antonio J.%Carcas%NULL%0,              Francisco%Arnalich%NULL%0,              Rodolfo%Álvarez-Sala%NULL%0,              Rodolfo%Álvarez-Sala%NULL%0,              Jaime%Monserrat-Villatoro%NULL%0,              Manuel%Quintana%NULL%0,              Juan Carlos%Figueira%NULL%0,              Rosario M.%Torres Santos-Olmo%NULL%0,              Julio%García-Rodríguez%NULL%0,              Julio%García-Rodríguez%NULL%0,              Alberto%Martín-Vega%NULL%0,              Antonio%Buño%NULL%0,              Elena%Ramírez%NULL%0,              Gonzalo%Martínez-Alés%NULL%0,              Gonzalo%Martínez-Alés%NULL%0,              Nicolás%García-Arenzana%NULL%0,              M. Concepción%Núñez%NULL%0,              M. Concepción%Núñez%NULL%0,              Milagros%Martí-de-Gracia%NULL%0,              Francisco%Moreno Ramos%NULL%0,              Francisco%Reinoso-Barbero%NULL%0,              Alejandro%Martin-Quiros%NULL%0,              Angélica%Rivera Núñez%NULL%0,              Jesús%Mingorance%NULL%0,              Carlos J.%Carpio Segura%NULL%0,              Carlos J.%Carpio Segura%NULL%0,              Daniel%Prieto Arribas%NULL%0,              Esther%Rey Cuevas%NULL%0,              Concepción%Prados Sánchez%NULL%0,              Juan J.%Rios%NULL%0,              Miguel A.%Hernán%NULL%0,              Jesús%Frías%NULL%0,              José R.%Arribas%NULL%0,              NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simon E.%Brill%simon.brill@nhs.net%0,              Hannah C.%Jarvis%NULL%0,              Hannah C.%Jarvis%NULL%0,              Ezgi%Ozcan%NULL%0,              Thomas L. P.%Burns%NULL%0,              Rabia A.%Warraich%NULL%0,              Lisa J.%Amani%NULL%0,              Amina%Jaffer%NULL%0,              Stephanie%Paget%NULL%0,              Anand%Sivaramakrishnan%NULL%0,              Dean D.%Creer%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,              Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,              Wenlin%Cheng%NULL%0,              Lei%Yu%NULL%0,              Ya-Kun%Liu%NULL%0,              Xiaoyong%Hu%NULL%0,              Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[B.%Carter%NULL%0,              J.T.%Collins%NULL%0,              F.%Barlow-Pay%NULL%0,              F.%Rickard%NULL%0,              E.%Bruce%NULL%0,              A.%Verduri%NULL%0,              T.J.%Quinn%NULL%0,              E.%Mitchell%NULL%0,              A.%Price%NULL%0,              A.%Vilches-Moraga%NULL%0,              M.J.%Stechman%NULL%0,              R.%Short%NULL%0,              A.%Einarsson%NULL%0,              P.%Braude%NULL%0,              S.%Moug%NULL%0,              P.K.%Myint%NULL%0,              J.%Hewitt%NULL%0,              L.%Pearce%NULL%0,              K.%McCarthy%NULL%0,              C.%Davey%NULL%0,              S.%Jones%NULL%0,              K.%Lunstone%NULL%0,              A.%Cavenagh%NULL%0,              C.%Silver%NULL%0,              T.%Telford%NULL%0,              R.%Simmons%NULL%0,              M.%Holloway%NULL%0,              J.%Hesford%NULL%0,              T.%El Jichi Mutasem%NULL%0,              S.%Singh%NULL%0,              D.%Paxton%NULL%0,              W.%Harris%NULL%0,              N.%Galbraith%NULL%0,              E.%Bhatti%NULL%0,              J.%Edwards%NULL%0,              S.%Duffy%NULL%0,              J.%Kelly%NULL%0,              C.%Murphy%NULL%0,              C.%Bisset%NULL%0,              R.%Alexander%NULL%0,              M.%Garcia%NULL%0,              S.%Sangani%NULL%0,              T.%Kneen%NULL%0,              T.%Lee%NULL%0,              A.%McGovern%NULL%0,              G.%Guaraldi%NULL%0,              E.%Clini%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fuyang%Chen%NULL%0,              Wenwu%Sun%NULL%0,              Shengrong%Sun%NULL%0,              Zhiyu%Li%lizhiyu@whu.edu.cn%0,              Zhong%Wang%zhongwangchn@whu.edu.cn%0,              Li%Yu%yuliwhzxyy@163.com%0,              Li%Yu%yuliwhzxyy@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,              Ling%Sang%NULL%0,              Mei%Jiang%NULL%0,              Zhaowei%Yang%NULL%0,              Nan%Jia%NULL%0,              Wanyi%Fu%NULL%0,              Jiaxing%Xie%NULL%0,              Weijie%Guan%NULL%0,              Wenhua%Liang%NULL%0,              Zhengyi%Ni%NULL%0,              Yu%Hu%NULL%0,              Lei%Liu%NULL%0,              Hong%Shan%NULL%0,              Chunliang%Lei%NULL%0,              Yixiang%Peng%NULL%0,              Li%Wei%NULL%0,              Yong%Liu%NULL%0,              Yahua%Hu%NULL%0,              Peng%Peng%NULL%0,              Jianming%Wang%NULL%0,              Jiyang%Liu%NULL%0,              Zhong%Chen%NULL%0,              Gang%Li%NULL%0,              Zhijian%Zheng%NULL%0,              Shaoqin%Qiu%NULL%0,              Jie%Luo%NULL%0,              Changjiang%Ye%NULL%0,              Shaoyong%Zhu%NULL%0,              Jinping%Zheng%NULL%0,              Nuofu%Zhang%NULL%0,              Yimin%Li%NULL%0,              Jianxing%He%NULL%0,              Jing%Li%NULL%0,              Shiyue%Li%NULL%0,              Nanshan%Zhong%NULL%0,              NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,              Di%Wu%NULL%0,              Huilong%Chen%NULL%0,              Weiming%Yan%NULL%0,              Danlei%Yang%NULL%0,              Guang%Chen%NULL%0,              Ke%Ma%NULL%0,              Dong%Xu%NULL%0,              Haijing%Yu%NULL%0,              Hongwu%Wang%NULL%0,              Tao%Wang%NULL%0,              Wei%Guo%NULL%0,              Jia%Chen%NULL%0,              Chen%Ding%NULL%0,              Xiaoping%Zhang%NULL%0,              Jiaquan%Huang%NULL%0,              Meifang%Han%NULL%0,              Shusheng%Li%NULL%0,              Xiaoping%Luo%NULL%0,              Jianping%Zhao%NULL%0,              Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anying%Cheng%NULL%0,              Liu%Hu%NULL%0,              Yiru%Wang%NULL%0,              Luyan%Huang%NULL%0,              Lingxi%Zhao%NULL%0,              Congcong%Zhang%NULL%0,              Xiyue%Liu%NULL%0,              Ranran%Xu%NULL%0,              Feng%Liu%NULL%0,              Jinping%Li%NULL%0,              Dawei%Ye%NULL%0,              Tao%Wang%NULL%0,              Yongman%Lv%lvyongman@126.com%0,              Qingquan%Liu%qqliutj@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fabio%Ciceri%ciceri.fabio@hsr.it%0,              Antonella%Castagna%NULL%0,              Patrizia%Rovere-Querini%NULL%0,              Francesco%De Cobelli%NULL%0,              Annalisa%Ruggeri%NULL%0,              Laura%Galli%NULL%0,              Caterina%Conte%NULL%0,              Rebecca%De Lorenzo%NULL%0,              Andrea%Poli%NULL%0,              Alberto%Ambrosio%NULL%0,              Carlo%Signorelli%NULL%0,              Eleonora%Bossi%NULL%0,              Maria%Fazio%NULL%0,              Cristina%Tresoldi%NULL%0,              Sergio%Colombo%NULL%0,              Giacomo%Monti%NULL%0,              Efgeny%Fominskiy%NULL%0,              Stefano%Franchini%NULL%0,              Marzia%Spessot%NULL%0,              Carlo%Martinenghi%NULL%0,              Michele%Carlucci%NULL%0,              Luigi%Beretta%NULL%0,              Anna Maria%Scandroglio%NULL%0,              Massimo%Clementi%NULL%0,              Massimo%Locatelli%NULL%0,              Moreno%Tresoldi%NULL%0,              Paolo%Scarpellini%NULL%0,              Gianvito%Martino%NULL%0,              Emanuele%Bosi%NULL%0,              Lorenzo%Dagna%NULL%0,              Adriano%Lazzarin%NULL%0,              Giovanni%Landoni%NULL%0,              Alberto%Zangrillo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,              Wei%Liu%NULL%0,              Kui%Liu%NULL%0,              Yuan-Yuan%Fang%NULL%0,              Jin%Shang%NULL%0,              Ling%Zhou%NULL%0,              Ke%Wang%NULL%0,              Fan%Leng%NULL%0,              Shuang%Wei%NULL%0,              Lei%Chen%NULL%0,              Hui-Guo%Liu%NULL%0,              Pei-Fang%Wei%NULL%0,              Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,              Li-Rong%Liang%NULL%0,              Cheng-Qing%Yang%NULL%0,              Wen%Wang%NULL%0,              Tan-Ze%Cao%NULL%0,              Ming%Li%NULL%0,              Guang-Yun%Guo%NULL%0,              Juan%Du%NULL%0,              Chun-Lan%Zheng%NULL%0,              Qi%Zhu%NULL%0,              Ming%Hu%NULL%0,              Xu-Yan%Li%NULL%0,              Peng%Peng%NULL%0,              Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shan%Gao%NULL%0,              Fang%Jiang%NULL%0,              Wei%Jin%NULL%0,              Yuan%Shi%NULL%0,              Leilei%Yang%NULL%0,              Yanqiong%Xia%NULL%0,              Linyan%Jia%NULL%0,              Bo%Wang%NULL%0,              Han%Lin%NULL%0,              Yin%Cai%NULL%0,              Zhengyuan%Xia%NULL%0,              Jian%Peng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pedro David%Wendel Garcia%pedrodavid.wendelgarcia@usz.ch%0,              Thierry%Fumeaux%thierry.fumeaux@ghol.ch%0,              Philippe%Guerci%NULL%0,              Dorothea Monika%Heuberger%dorotheamonika.heuberger@usz.ch%0,              Jonathan%Montomoli%NULL%0,              Ferran%Roche-Campo%NULL%0,              Reto Andreas%Schuepbach%reto.schuepbach@usz.ch%0,              Matthias Peter%Hilty%matthias.hilty@usz.ch%0,              Mario%Alfaro Farias%NULL%0,              Antoni%Margarit%NULL%0,              Gerardo%Vizmanos-Lamotte%NULL%0,              Thomas%Tschoellitsch%NULL%0,              Jens%Meier%NULL%0,              Francesco S.%Cardona%NULL%0,              Josef%Skola%NULL%0,              Lenka%Horakova%NULL%0,              Hernan%Aguirre-Bermeo%NULL%0,              Janina%Apolo%NULL%0,              Emmanuel%Novy%NULL%0,              Marie-Reine%Losser%NULL%0,              Geoffrey%Jurkolow%NULL%0,              Gauthier%Delahaye%NULL%0,              Sascha%David%NULL%0,              Tobias%Welte%NULL%0,              Tobias%Wengenmayer%NULL%0,              Dawid L.%Staudacher%NULL%0,              Theodoros%Aslanidis%NULL%0,              Barna%Babik%NULL%0,              Anita%Korsos%NULL%0,              Janos%Gal%NULL%0,              Hermann%Csaba%NULL%0,              Abele%Donati%NULL%0,              Andrea%Carsetti%NULL%0,              Fabrizio%Turrini%NULL%0,              Maria Sole%Simonini%NULL%0,              Roberto%Ceriani%NULL%0,              Martina%Murrone%NULL%0,              Emanuele%Rezoagli%NULL%0,              Giovanni%Vitale%NULL%0,              Alberto%Fogagnolo%NULL%0,              Savino%Spadaro%NULL%0,              Maddalena Alessandra%Wu%NULL%0,              Chiara%Cogliati%NULL%0,              Riccardo%Colombo%NULL%0,              Emanuele%Catena%NULL%0,              Francesca%Facondini%NULL%0,              Antonella%Potalivo%NULL%0,              Gianfilippo%Gangitano%NULL%0,              Tiziana%Perin%NULL%0,              Maria Grazia%Bocci%NULL%0,              Massimo%Antonelli%NULL%0,              Diederik%Gommers%NULL%0,              Can%Ince%NULL%0,              Eric%Mayor-Vázquez%NULL%0,              Maria%Cruz%NULL%0,              Martin%Delgado%NULL%0,              Raquel Rodriguez%Garcia%NULL%0,              Jorge%Gamez Zapata%NULL%0,              Begoña%Zalba-Etayo%NULL%0,              Herminia%Lozano-Gomez%NULL%0,              Pedro%Castro%NULL%0,              Adrian%Tellez%NULL%0,              Adriana%Jacas%NULL%0,              Guido%Muñoz%NULL%0,              Rut%Andrea%NULL%0,              Jose%Ortiz%NULL%0,              Eduard%Quintana%NULL%0,              Irene%Rovira%NULL%0,              Enric%Reverter%NULL%0,              Javier%Fernandez%NULL%0,              Miquel%Ferrer%NULL%0,              Joan R.%Badia%NULL%0,              Arantxa%Lander Azcona%NULL%0,              Jesus Escos%Orta%NULL%0,              Philipp%Bühler%NULL%0,              Silvio%Brugger%NULL%0,              Daniel%Hofmaenner%NULL%0,              Simone%Unseld%NULL%0,              Frank%Ruschitzka%NULL%0,              Mallory%Moret-Bochatay%NULL%0,              Bernd%Yuen%NULL%0,              Thomas%Hillermann%NULL%0,              Hatem%Ksouri%NULL%0,              Govind Oliver%Sridharan%NULL%0,              Anette%Ristic%NULL%0,              Michael%Sepulcri%NULL%0,              Miodrag%Filipovic%NULL%0,              Urs%Pietsch%NULL%0,              Petra%Salomon%NULL%0,              Iris%Drvaric%NULL%0,              Peter%Schott%NULL%0,              Severin%Urech%NULL%0,              Adriana%Lambert%NULL%0,              Lukas%Merki%NULL%0,              Marcus%Laube%NULL%0,              Frank%Hillgaertner%NULL%0,              Marianne%Sieber%NULL%0,              Alexander%Dullenkopf%NULL%0,              Lina%Petersen%NULL%0,              Serge%Grazioli%NULL%0,              Peter C.%Rimensberger%NULL%0,              Isabelle%Fleisch%NULL%0,              Jerome%Lavanchy%NULL%0,              Katharina%Marquardt%NULL%0,              Karim%Shaikh%NULL%0,              Hermann%Redecker%NULL%0,              Michael%Stephan%NULL%0,              Jan%Brem%NULL%0,              Bjarte%Rogdo%NULL%0,              Andre%Birkenmaier%NULL%0,              Friederike%Meyer zu Bentrup%NULL%0,              Patricia%Fodor%NULL%0,              Pascal%Locher%NULL%0,              Giovanni%Camen%NULL%0,              Martin%Siegemund%NULL%0,              Nuria%Zellweger%NULL%0,              Marie-Madlen%Jeitziner%NULL%0,              Beatrice%Jenni-Moser%NULL%0,              Christian%Bürkle%NULL%0,              Gian-Reto%Kleger%NULL%0,              Marilene%Franchitti Laurent%NULL%0,              Jean-Christophe%Laurent%NULL%0,              Tomislav%Gaspert%NULL%0,              Marija%Jovic%NULL%0,              Michael%Studhalter%NULL%0,              Christoph%Haberthuer%NULL%0,              Roger F.%Lussman%NULL%0,              Daniela%Selz%NULL%0,              Didier%Naon%NULL%0,              Romano%Mauri%NULL%0,              Samuele%Ceruti%NULL%0,              Julien%Marrel%NULL%0,              Mirko%Brenni%NULL%0,              Rolf%Ensner%NULL%0,              Nadine%Gehring%NULL%0,              Antje%Heise%NULL%0,              Tobias%Huebner%NULL%0,              Thomas A.%Neff%NULL%0,              Sara%Cereghetti%NULL%0,              Filippo%Boroli%NULL%0,              Jerome%Pugin%NULL%0,              Nandor%Marczin%NULL%0,              Joyce%Wong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Warren%Gavin%NULL%0,              Elliott%Campbell%NULL%0,              Syed-Adeel%Zaidi%NULL%0,              Neha%Gavin%NULL%0,              Lana%Dbeibo%NULL%0,              Cole%Beeler%NULL%0,              Kari%Kuebler%NULL%0,              Ahmed%Abdel-Rahman%NULL%0,              Mark%Luetkemeyer%NULL%0,              Areeba%Kara%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Vijay%Gayam%vgayam@interfaithmedical.com%0,              Muchi Ditah%Chobufo%NULL%0,              Muchi Ditah%Chobufo%NULL%0,              Mohamed A.%Merghani%NULL%0,              Mohamed A.%Merghani%NULL%0,              Shristi%Lamichhane%NULL%0,              Pavani Reddy%Garlapati%NULL%0,              Mark K.%Adler%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Cao%Y%coreGivesNoEmail%0,             Imam%Z%coreGivesNoEmail%0,             Lippi%G%coreGivesNoEmail%0,             Oran%DP%coreGivesNoEmail%0,             Shi%S%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Hai%Hu%huhai@wchscu.cn%0,              Ni%Yao%NULL%0,              Ni%Yao%NULL%0,              Yanru%Qiu%NULL%0,              John H.%Burton%NULL%0,              John H.%Burton%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jiaofeng%Huang%NULL%0,              Aiguo%Cheng%NULL%0,              Rahul%Kumar%NULL%0,              Yingying%Fang%NULL%0,              Yingying%Fang%NULL%0,              Gongping%Chen%NULL%0,              Yueyong%Zhu%NULL%0,              Su%Lin%sumer5129@fjmu.edu.cn%0,              Su%Lin%sumer5129@fjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%0,              Ju-Hyun%Kim%NULL%0,              Jin-Sung%Park%NULL%0,              Min Cheol%Chang%wheel633@ynu.ac.kr%0,              Donghwi%Park%bdome@hanmail.net%0]</t>
+  </si>
+  <si>
+    <t>[K.%Khalil%NULL%0,              K.%Agbontaen%NULL%0,              D.%McNally%NULL%0,              A.%Love%NULL%0,              S.%Mandalia%NULL%0,              W.%Banya%NULL%0,              E.%Starren%NULL%0,              R.%Dhunnookchand%NULL%0,              H.%Farne%NULL%0,              R.%Morton%NULL%0,              G.%Davies%NULL%0,              O.%Orhan%NULL%0,              D%Lai%NULL%0,              M.%Nelson%NULL%0,              P.L.%Shah%NULL%0,              J.L.%Garner%Justin.garner@chelwest.nhs.uk%0]</t>
+  </si>
+  <si>
+    <t>[Eyal%Klang%NULL%0,              Gassan%Kassim%NULL%0,              Shelly%Soffer%soffer.shelly@gmail.com%0,              Robert%Freeman%NULL%0,              Robert%Freeman%NULL%0,              Matthew A.%Levin%NULL%0,              Matthew A.%Levin%NULL%0,              David L.%Reich%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sandeep%Krishnan%NULL%0,              Kinjal%Patel%NULL%0,              Ronak%Desai%NULL%0,              Anupam%Sule%NULL%0,              Peter%Paik%NULL%0,              Ashley%Miller%NULL%0,              Alicia%Barclay%NULL%0,              Adam%Cassella%NULL%0,              Jon%Lucaj%NULL%0,              Yvonne%Royster%NULL%0,              Joffer%Hakim%NULL%0,              Zulfiqar%Ahmed%NULL%0,              Farhad%Ghoddoussi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Manisha%Bhutani%null%0,    David M.%Foureau%null%0,    Shebli%Atrash%null%0,    Peter M.%Voorhees%null%0,    Saad Z.%Usmani%null%0]</t>
+  </si>
+  <si>
+    <t>[Wil%Lieberman-Cribbin%NULL%0,              Joseph%Rapp%NULL%0,              Naomi%Alpert%NULL%0,              Stephanie%Tuminello%NULL%0,              Emanuela%Taioli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Q.%Liu%NULL%0,              N. C.%Song%NULL%0,              Z. K.%Zheng%NULL%0,              J. S.%Li%NULL%0,              S. K.%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Long%NULL%0,              Lan%Nie%NULL%0,              Xiaochen%Xiang%NULL%0,              Huan%Li%NULL%0,              Xiaoli%Zhang%NULL%0,              Xiaozhi%Fu%NULL%0,              Hongwei%Ren%NULL%0,              Wanxin%Liu%NULL%0,              Qiang%Wang%wangqiang@wust.edu.cn%0,              Qingming%Wu%wuhe9224@sina.com%0,              Qingming%Wu%wuhe9224@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Miao%Luo%xref no email%0,      Jing%Liu%xref no email%0,      Weiling%Jiang%xref no email%0,      Shuang%Yue%xref no email%0,      Huiguo%Liu%xref no email%0,      Shuang%Wei%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Xiaomin%Luo%luoxiaomin04@163.com%0,              Wei%Zhou%NULL%0,              Xiaojie%Yan%NULL%0,              Tangxi%Guo%NULL%0,              Benchao%Wang%NULL%0,              Hongxia%Xia%NULL%0,              Lu%Ye%NULL%0,              Jun%Xiong%NULL%0,              Zongping%Jiang%NULL%0,              Yu%Liu%NULL%0,              Bicheng%Zhang%NULL%0,              Weize%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ying%Luo%NULL%0,              Liyan%Mao%NULL%0,              Xu%Yuan%NULL%0,              Ying%Xue%NULL%0,              Qun%Lin%NULL%0,              Guoxing%Tang%NULL%0,              Huijuan%Song%NULL%0,              Feng%Wang%fengwang@tjh.tjmu.edu.cn%0,              Ziyong%Sun%zysun@tjh.tjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ying%Luo%NULL%0,              Ying%Xue%NULL%0,              Liyan%Mao%NULL%0,              Xu%Yuan%NULL%0,              Qun%Lin%NULL%0,              Guoxing%Tang%NULL%0,              Huijuan%Song%NULL%0,              Feng%Wang%NULL%0,              Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chiara%Masetti%NULL%0,              Elena%Generali%NULL%0,              Francesca%Colapietro%NULL%0,              Antonio%Voza%NULL%0,              Maurizio%Cecconi%NULL%0,              Antonio%Messina%NULL%0,              Paolo%Omodei%NULL%0,              Claudio%Angelini%NULL%0,              Michele%Ciccarelli%NULL%0,              Salvatore%Badalamenti%NULL%0,              G. Walter%Canonica%NULL%0,              Ana%Lleo%ana.lleo@humanitas.it%0,              Alessio%Aghemo%NULL%0,              Alessio%Aghemo%NULL%0,              NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Takahisa%Mikami%NULL%0,              Hirotaka%Miyashita%NULL%0,              Takayuki%Yamada%NULL%0,              Matthew%Harrington%NULL%0,              Daniel%Steinberg%NULL%0,              Andrew%Dunn%NULL%0,              Evan%Siau%Evan.Siau@mountsinai.org%0]</t>
+  </si>
+  <si>
+    <t>[Alexis K.%Okoh%alexis.okoh@rwjbh.org%0,              Christoph%Sossou%NULL%0,              Christoph%Sossou%NULL%0,              Neha S.%Dangayach%NULL%0,              Sherin%Meledathu%NULL%0,              Oluwakemi%Phillips%NULL%0,              Corinne%Raczek%NULL%0,              Michael%Patti%NULL%0,              Nathan%Kang%NULL%0,              Sameer A.%Hirji%NULL%0,              Charles%Cathcart%NULL%0,              Christian%Engell%NULL%0,              Marc%Cohen%NULL%0,              Sandhya%Nagarakanti%NULL%0,              Eliahu%Bishburg%NULL%0,              Harpreet S.%Grewal%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -3374,7 +3841,7 @@
         <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>708</v>
+        <v>826</v>
       </c>
       <c r="F2" t="s">
         <v>73</v>
@@ -3403,7 +3870,7 @@
         <v>260</v>
       </c>
       <c r="E3" t="s">
-        <v>709</v>
+        <v>827</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -3432,7 +3899,7 @@
         <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>710</v>
+        <v>828</v>
       </c>
       <c r="F4" t="s">
         <v>79</v>
@@ -3461,7 +3928,7 @@
         <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>711</v>
+        <v>829</v>
       </c>
       <c r="F5" t="s">
         <v>83</v>
@@ -3490,7 +3957,7 @@
         <v>86</v>
       </c>
       <c r="E6" t="s">
-        <v>712</v>
+        <v>830</v>
       </c>
       <c r="F6" t="s">
         <v>87</v>
@@ -3548,7 +4015,7 @@
         <v>90</v>
       </c>
       <c r="E8" t="s">
-        <v>713</v>
+        <v>831</v>
       </c>
       <c r="F8" t="s">
         <v>91</v>
@@ -3577,7 +4044,7 @@
         <v>94</v>
       </c>
       <c r="E9" t="s">
-        <v>714</v>
+        <v>832</v>
       </c>
       <c r="F9" t="s">
         <v>95</v>
@@ -3606,7 +4073,7 @@
         <v>98</v>
       </c>
       <c r="E10" t="s">
-        <v>715</v>
+        <v>833</v>
       </c>
       <c r="F10" t="s">
         <v>99</v>
@@ -3635,7 +4102,7 @@
         <v>102</v>
       </c>
       <c r="E11" t="s">
-        <v>716</v>
+        <v>834</v>
       </c>
       <c r="F11" t="s">
         <v>103</v>
@@ -3664,7 +4131,7 @@
         <v>106</v>
       </c>
       <c r="E12" t="s">
-        <v>717</v>
+        <v>835</v>
       </c>
       <c r="F12" t="s">
         <v>107</v>
@@ -3693,7 +4160,7 @@
         <v>109</v>
       </c>
       <c r="E13" t="s">
-        <v>718</v>
+        <v>836</v>
       </c>
       <c r="F13" t="s">
         <v>110</v>
@@ -3722,7 +4189,7 @@
         <v>113</v>
       </c>
       <c r="E14" t="s">
-        <v>719</v>
+        <v>837</v>
       </c>
       <c r="F14" t="s">
         <v>114</v>
@@ -3748,10 +4215,10 @@
         <v>116</v>
       </c>
       <c r="D15" t="s">
-        <v>117</v>
+        <v>776</v>
       </c>
       <c r="E15" t="s">
-        <v>720</v>
+        <v>838</v>
       </c>
       <c r="F15" t="s">
         <v>118</v>
@@ -3780,7 +4247,7 @@
         <v>121</v>
       </c>
       <c r="E16" t="s">
-        <v>721</v>
+        <v>839</v>
       </c>
       <c r="F16" t="s">
         <v>122</v>
@@ -3806,10 +4273,10 @@
         <v>123</v>
       </c>
       <c r="D17" t="s">
-        <v>124</v>
+        <v>779</v>
       </c>
       <c r="E17" t="s">
-        <v>722</v>
+        <v>840</v>
       </c>
       <c r="F17" t="s">
         <v>125</v>
@@ -3838,7 +4305,7 @@
         <v>128</v>
       </c>
       <c r="E18" t="s">
-        <v>723</v>
+        <v>841</v>
       </c>
       <c r="F18" t="s">
         <v>129</v>
@@ -3867,7 +4334,7 @@
         <v>131</v>
       </c>
       <c r="E19" t="s">
-        <v>724</v>
+        <v>842</v>
       </c>
       <c r="F19" t="s">
         <v>132</v>
@@ -3896,7 +4363,7 @@
         <v>134</v>
       </c>
       <c r="E20" t="s">
-        <v>725</v>
+        <v>843</v>
       </c>
       <c r="F20" t="s">
         <v>135</v>
@@ -3925,7 +4392,7 @@
         <v>137</v>
       </c>
       <c r="E21" t="s">
-        <v>726</v>
+        <v>844</v>
       </c>
       <c r="F21" t="s">
         <v>138</v>
@@ -3954,7 +4421,7 @@
         <v>141</v>
       </c>
       <c r="E22" t="s">
-        <v>727</v>
+        <v>845</v>
       </c>
       <c r="F22" t="s">
         <v>142</v>
@@ -3983,7 +4450,7 @@
         <v>263</v>
       </c>
       <c r="E23" t="s">
-        <v>728</v>
+        <v>846</v>
       </c>
       <c r="F23" t="s">
         <v>23</v>
@@ -4012,7 +4479,7 @@
         <v>144</v>
       </c>
       <c r="E24" t="s">
-        <v>729</v>
+        <v>847</v>
       </c>
       <c r="F24" t="s">
         <v>145</v>
@@ -4041,7 +4508,7 @@
         <v>147</v>
       </c>
       <c r="E25" t="s">
-        <v>730</v>
+        <v>848</v>
       </c>
       <c r="F25" t="s">
         <v>148</v>
@@ -4067,10 +4534,10 @@
         <v>150</v>
       </c>
       <c r="D26" t="s">
-        <v>151</v>
+        <v>789</v>
       </c>
       <c r="E26" t="s">
-        <v>731</v>
+        <v>849</v>
       </c>
       <c r="F26" t="s">
         <v>152</v>
@@ -4099,7 +4566,7 @@
         <v>155</v>
       </c>
       <c r="E27" t="s">
-        <v>732</v>
+        <v>850</v>
       </c>
       <c r="F27" t="s">
         <v>156</v>
@@ -4128,7 +4595,7 @@
         <v>158</v>
       </c>
       <c r="E28" t="s">
-        <v>733</v>
+        <v>851</v>
       </c>
       <c r="F28" t="s">
         <v>159</v>
@@ -4157,7 +4624,7 @@
         <v>82</v>
       </c>
       <c r="E29" t="s">
-        <v>734</v>
+        <v>852</v>
       </c>
       <c r="F29" t="s">
         <v>162</v>
@@ -4186,7 +4653,7 @@
         <v>165</v>
       </c>
       <c r="E30" t="s">
-        <v>735</v>
+        <v>853</v>
       </c>
       <c r="F30" t="s">
         <v>166</v>
@@ -4215,7 +4682,7 @@
         <v>168</v>
       </c>
       <c r="E31" t="s">
-        <v>736</v>
+        <v>854</v>
       </c>
       <c r="F31" t="s">
         <v>169</v>
@@ -4244,7 +4711,7 @@
         <v>172</v>
       </c>
       <c r="E32" t="s">
-        <v>737</v>
+        <v>855</v>
       </c>
       <c r="F32" t="s">
         <v>173</v>
@@ -4273,7 +4740,7 @@
         <v>176</v>
       </c>
       <c r="E33" t="s">
-        <v>738</v>
+        <v>856</v>
       </c>
       <c r="F33" t="s">
         <v>177</v>
@@ -4302,7 +4769,7 @@
         <v>180</v>
       </c>
       <c r="E34" t="s">
-        <v>739</v>
+        <v>857</v>
       </c>
       <c r="F34" t="s">
         <v>181</v>
@@ -4331,7 +4798,7 @@
         <v>183</v>
       </c>
       <c r="E35" t="s">
-        <v>740</v>
+        <v>858</v>
       </c>
       <c r="F35" t="s">
         <v>184</v>
@@ -4360,7 +4827,7 @@
         <v>187</v>
       </c>
       <c r="E36" t="s">
-        <v>741</v>
+        <v>859</v>
       </c>
       <c r="F36" t="s">
         <v>188</v>
@@ -4389,7 +4856,7 @@
         <v>191</v>
       </c>
       <c r="E37" t="s">
-        <v>742</v>
+        <v>860</v>
       </c>
       <c r="F37" t="s">
         <v>192</v>
@@ -4418,7 +4885,7 @@
         <v>194</v>
       </c>
       <c r="E38" t="s">
-        <v>743</v>
+        <v>861</v>
       </c>
       <c r="F38" t="s">
         <v>195</v>
@@ -4447,7 +4914,7 @@
         <v>197</v>
       </c>
       <c r="E39" t="s">
-        <v>744</v>
+        <v>862</v>
       </c>
       <c r="F39" t="s">
         <v>198</v>
@@ -4476,7 +4943,7 @@
         <v>64</v>
       </c>
       <c r="E40" t="s">
-        <v>745</v>
+        <v>863</v>
       </c>
       <c r="F40" t="s">
         <v>41</v>
@@ -4505,7 +4972,7 @@
         <v>201</v>
       </c>
       <c r="E41" t="s">
-        <v>746</v>
+        <v>864</v>
       </c>
       <c r="F41" t="s">
         <v>202</v>
@@ -4534,7 +5001,7 @@
         <v>204</v>
       </c>
       <c r="E42" t="s">
-        <v>747</v>
+        <v>865</v>
       </c>
       <c r="F42" t="s">
         <v>205</v>
@@ -4560,10 +5027,10 @@
         <v>207</v>
       </c>
       <c r="D43" t="s">
-        <v>208</v>
+        <v>807</v>
       </c>
       <c r="E43" t="s">
-        <v>748</v>
+        <v>866</v>
       </c>
       <c r="F43" t="s">
         <v>209</v>
@@ -4592,7 +5059,7 @@
         <v>82</v>
       </c>
       <c r="E44" t="s">
-        <v>749</v>
+        <v>867</v>
       </c>
       <c r="F44" t="s">
         <v>212</v>
@@ -4621,7 +5088,7 @@
         <v>215</v>
       </c>
       <c r="E45" t="s">
-        <v>750</v>
+        <v>868</v>
       </c>
       <c r="F45" t="s">
         <v>216</v>
@@ -4650,7 +5117,7 @@
         <v>82</v>
       </c>
       <c r="E46" t="s">
-        <v>751</v>
+        <v>869</v>
       </c>
       <c r="F46" t="s">
         <v>219</v>
@@ -4708,7 +5175,7 @@
         <v>752</v>
       </c>
       <c r="E48" t="s">
-        <v>753</v>
+        <v>870</v>
       </c>
       <c r="F48" t="s">
         <v>49</v>
@@ -4737,7 +5204,7 @@
         <v>82</v>
       </c>
       <c r="E49" t="s">
-        <v>754</v>
+        <v>871</v>
       </c>
       <c r="F49" t="s">
         <v>229</v>
@@ -4766,7 +5233,7 @@
         <v>231</v>
       </c>
       <c r="E50" t="s">
-        <v>755</v>
+        <v>872</v>
       </c>
       <c r="F50" t="s">
         <v>232</v>
@@ -4795,7 +5262,7 @@
         <v>235</v>
       </c>
       <c r="E51" t="s">
-        <v>756</v>
+        <v>873</v>
       </c>
       <c r="F51" t="s">
         <v>236</v>
@@ -4824,7 +5291,7 @@
         <v>64</v>
       </c>
       <c r="E52" t="s">
-        <v>757</v>
+        <v>874</v>
       </c>
       <c r="F52" t="s">
         <v>53</v>
@@ -4853,7 +5320,7 @@
         <v>239</v>
       </c>
       <c r="E53" t="s">
-        <v>758</v>
+        <v>875</v>
       </c>
       <c r="F53" t="s">
         <v>240</v>
@@ -4879,10 +5346,10 @@
         <v>241</v>
       </c>
       <c r="D54" t="s">
-        <v>242</v>
+        <v>818</v>
       </c>
       <c r="E54" t="s">
-        <v>759</v>
+        <v>876</v>
       </c>
       <c r="F54" t="s">
         <v>243</v>
@@ -4911,7 +5378,7 @@
         <v>246</v>
       </c>
       <c r="E55" t="s">
-        <v>760</v>
+        <v>877</v>
       </c>
       <c r="F55" t="s">
         <v>247</v>
@@ -4940,7 +5407,7 @@
         <v>249</v>
       </c>
       <c r="E56" t="s">
-        <v>761</v>
+        <v>878</v>
       </c>
       <c r="F56" t="s">
         <v>250</v>
@@ -4966,10 +5433,10 @@
         <v>252</v>
       </c>
       <c r="D57" t="s">
-        <v>253</v>
+        <v>822</v>
       </c>
       <c r="E57" t="s">
-        <v>762</v>
+        <v>879</v>
       </c>
       <c r="F57" t="s">
         <v>254</v>
@@ -4995,10 +5462,10 @@
         <v>255</v>
       </c>
       <c r="D58" t="s">
-        <v>256</v>
+        <v>824</v>
       </c>
       <c r="E58" t="s">
-        <v>763</v>
+        <v>880</v>
       </c>
       <c r="F58" t="s">
         <v>257</v>

--- a/Covid_19_Dataset_and_References/References/44.xlsx
+++ b/Covid_19_Dataset_and_References/References/44.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4526" uniqueCount="881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4932" uniqueCount="936">
   <si>
     <t>Doi</t>
   </si>
@@ -3489,6 +3489,171 @@
   </si>
   <si>
     <t>[Alexis K.%Okoh%alexis.okoh@rwjbh.org%0,              Christoph%Sossou%NULL%0,              Christoph%Sossou%NULL%0,              Neha S.%Dangayach%NULL%0,              Sherin%Meledathu%NULL%0,              Oluwakemi%Phillips%NULL%0,              Corinne%Raczek%NULL%0,              Michael%Patti%NULL%0,              Nathan%Kang%NULL%0,              Sameer A.%Hirji%NULL%0,              Charles%Cathcart%NULL%0,              Christian%Engell%NULL%0,              Marc%Cohen%NULL%0,              Sandhya%Nagarakanti%NULL%0,              Eliahu%Bishburg%NULL%0,              Harpreet S.%Grewal%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%0,               Lian%Yang%NULL%0,               Yuncheng%Li%NULL%0,               Bo%Liang%NULL%0,               Lin%Li%NULL%0,               Tianhe%Ye%NULL%0,               Lingli%Li%NULL%0,               Dehan%Liu%NULL%0,               Shan%Gui%NULL%0,               Yu%Hu%NULL%0,               Chuansheng%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,              Becker%L.B.%coreGivesNoEmail%0,              Chelico%J.D.%coreGivesNoEmail%0,              Cohen%S.L.%coreGivesNoEmail%0,              Cookingham%J.%coreGivesNoEmail%0,              Coppa%K.%coreGivesNoEmail%0,              Crawford%J.M.%coreGivesNoEmail%0,              Davidson%K.W.%coreGivesNoEmail%0,              Diefenbach%M.A.%coreGivesNoEmail%0,              Dominello%A.J.%coreGivesNoEmail%0,              Duer-Hefele%J.%coreGivesNoEmail%0,              Falzon%L.%coreGivesNoEmail%0,              Gitlin%J.%coreGivesNoEmail%0,              Hajizadeh%N.%coreGivesNoEmail%0,              Harvin%T.G.%coreGivesNoEmail%0,              Hirsch%J.S.%coreGivesNoEmail%0,              Hirschwerk%D.A.%coreGivesNoEmail%0,              Kim%E.J.%coreGivesNoEmail%0,              Kozel%Z.M.%coreGivesNoEmail%0,              Marrast%L.M.%coreGivesNoEmail%0,              McGinn%T.%coreGivesNoEmail%0,              Mogavero%J.N.%coreGivesNoEmail%0,              Narasimhan%M.%coreGivesNoEmail%0,              Osorio%G.A.%coreGivesNoEmail%0,              Qiu%M.%coreGivesNoEmail%0,              Richardson%S.%coreGivesNoEmail%0,              Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Mario%Rivera-Izquierdo%NULL%0,               María%del Carmen Valero-Ubierna%NULL%0,               María%del Carmen Valero-Ubierna%NULL%0,               Juan Luis%R-delAmo%NULL%0,               Miguel Ángel%Fernández-García%NULL%0,               Silvia%Martínez-Diz%NULL%0,               Arezu%Tahery-Mahmoud%NULL%0,               Marta%Rodríguez-Camacho%NULL%0,               Ana Belén%Gámiz-Molina%NULL%0,               Nicolás%Barba-Gyengo%NULL%0,               Pablo%Gámez-Baeza%NULL%0,               Celia%Cabrero-Rodríguez%NULL%0,               Pedro Antonio%Guirado-Ruiz%NULL%0,               Divina Tatiana%Martín-Romero%NULL%0,               Antonio Jesús%Láinez-Ramos-Bossini%NULL%0,               María Rosa%Sánchez-Pérez%NULL%0,               José%Mancera-Romero%NULL%0,               Miguel%García-Martín%NULL%0,               Luis Miguel%Martín-delosReyes%NULL%0,               Virginia%Martínez-Ruiz%NULL%0,               Virginia%Martínez-Ruiz%NULL%0,               Pablo%Lardelli-Claret%NULL%0,               Eladio%Jiménez-Mejías%NULL%0,               Muhammad%Adrish%NULL%0,               Muhammad%Adrish%NULL%0,               NULL%NULL%NULL%0,               NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,               Kun%Yang%NULL%0,               Kun%Yang%NULL%0,               Wenxia%Wang%NULL%0,               Wenxia%Wang%NULL%0,               Lingyu%Jiang%NULL%0,               Lingyu%Jiang%NULL%0,               Jianxin%Song%songsingsjx@sina.com%0,               Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Grace%Salacup%salacupg@einstein.edu%0,               Kevin Bryan%Lo%NULL%0,               Kevin Bryan%Lo%NULL%0,               Fahad%Gul%NULL%0,               Eric%Peterson%NULL%0,               Robert%De Joy%NULL%0,               Ruchika%Bhargav%NULL%0,               Jerald%Pelayo%NULL%0,               Jeri%Albano%NULL%0,               Zurab%Azmaiparashvili%NULL%0,               Sadia%Benzaquen%NULL%0,               Gabriel%Patarroyo‐Aponte%NULL%0,               Janani%Rangaswami%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yufeng%Shang%NULL%0,               Tao%Liu%NULL%0,               Yongchang%Wei%NULL%0,               Jingfeng%Li%NULL%0,               Liang%Shao%NULL%0,               Minghui%Liu%NULL%0,               Yongxi%Zhang%NULL%0,               Zhigang%Zhao%NULL%0,               Haibo%Xu%NULL%0,               Zhiyong%Peng%NULL%0,               Fuling%Zhou%zhoufuling@whu.edu.cn%0,               Xinghuan%Wang%wangxinghuan@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,               Mu%Qin%qinmuae@163.com%0,               Yuli%Cai%NULL%0,               Tao%Liu%NULL%0,               Bo%Shen%NULL%0,               Fan%Yang%NULL%0,               Sheng%Cao%NULL%0,               Xu%Liu%NULL%0,               Xu%Liu%NULL%0,               Yaozu%Xiang%NULL%0,               Qinyan%Zhao%NULL%0,               He%Huang%huanghe1977@whu.edu.cn%0,               Bo%Yang%yybb112@whu.edu.cn%0,               Congxin%Huang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rita de Cássia Menezes%Soares%NULL%0,               Larissa Rodrigues%Mattos%NULL%0,               Letícia Martins%Raposo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,               Ruoqi%Ning%NULL%0,               Yu%Tao%NULL%0,               Chong%Yu%NULL%0,               Xiaoyan%Deng%NULL%0,               Caili%Zhao%NULL%0,               Silu%Meng%NULL%0,               Fangxu%Tang%89650793@qq.com%0,               Dong%Xu%89650793@qq.com%0,               Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Kun%Wang%NULL%0,               Peiyuan%Zuo%NULL%0,               Yuwei%Liu%NULL%0,               Meng%Zhang%NULL%0,               Xiaofang%Zhao%NULL%0,               Songpu%Xie%NULL%0,               Hao%Zhang%NULL%0,               Xinglin%Chen%NULL%0,               Chengyun%Liu%chengyunliu@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Bo%XU%NULL%0,               Cun-yu%FAN%NULL%0,               An-lu%WANG%NULL%0,               Yi-long%ZOU%NULL%0,               Yi-han%YU%NULL%0,               Cong%HE%NULL%0,               Wen-guang%XIA%NULL%0,               Ji-xian%ZHANG%NULL%0,               Qing%MIAO%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xisheng%Yan%NULL%0,               Fen%Li%NULL%0,               Xiao%Wang%NULL%0,               Jie%Yan%NULL%0,               Fen%Zhu%NULL%0,               Shifan%Tang%NULL%0,               Yingzhong%Deng%NULL%0,               Hua%Wang%NULL%0,               Rui%Chen%NULL%0,               Zhili%Yu%NULL%0,               Yaping%Li%NULL%0,               Jingzhou%Shang%NULL%0,               Lingjun%Zeng%NULL%0,               Jie%Zhao%NULL%0,               Chaokun%Guan%NULL%0,               Qiaomei%Liu%NULL%0,               Haifeng%Chen%NULL%0,               Wei%Gong%NULL%0,               Xin%Huang%NULL%0,               Yu‐Jiao%Zhang%NULL%0,               Jianguang%Liu%NULL%0,               Xiaoyan%Dong%NULL%0,               Wen%Zheng%zhengwen12@mails.jlu.edu.cn%0,               Shaoping%Nie%spnie@126.com%0,               Dongsheng%Li%dongshengli196809@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qing%Yang%NULL%0,               Ying%Zhou%NULL%0,               Xinrong%Wang%NULL%0,               Shan%Gao%NULL%0,               Yang%Xiao%NULL%0,               Weiming%Zhang%NULL%0,               Yi%Hu%huyizxyy@163.com%0,               Yafei%Wang%wyf_527@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,               Qingyu%Yang%NULL%0,               Yaxin%Wang%NULL%0,               Yongran%Wu%NULL%0,               Jiqian%Xu%NULL%0,               Yuan%Yu%NULL%0,               You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wenjing%Ye%yewenjing@xinhuamed.com.cn%0,               Guoxi%Chen%4799082@qq.com%0,               Xiaopan%Li%xiaopanli0224@126.com%0,               Xing%Lan%474137452@qq.com%0,               Chen%Ji%c.ji.3@warwick.ac.uk%0,               Min%Hou%min-hou710@hotmail.com%0,               Di%Zhang%zhangdizhangdi1234@163.com%0,               Guangwang%Zeng%785663609@qq.com%0,               Yaling%Wang%953822402@qq.com%0,               Cheng%Xu%xucheng112358@126.com%0,               Weiwei%Lu%luweiwei100@126.com%0,               Ruolin%Cui%crlqwerty@163.com%0,               Yuyang%Cai%caiyuyang@sjtu.edu.cn%0,               Hai%Huang%1220775601@qq.com%0,               Ling%Yang%yangling01@xinhuamed.com.cn%0]</t>
+  </si>
+  <si>
+    <t>[Caizheng%Yu%NULL%0,               Qing%Lei%NULL%0,               Wenkai%Li%NULL%0,               Xiong%Wang%NULL%0,               Wei%Liu%NULL%0,               Xionglin%Fan%NULL%0,               Wengang%Li%228907211@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,               Ting%Yu%NULL%0,               Ronghui%Du%NULL%0,               Guohui%Fan%NULL%0,               Ying%Liu%NULL%0,               Zhibo%Liu%NULL%0,               Jie%Xiang%NULL%0,               Yeming%Wang%NULL%0,               Bin%Song%NULL%0,               Xiaoying%Gu%NULL%0,               Lulu%Guan%NULL%0,               Yuan%Wei%NULL%0,               Hui%Li%NULL%0,               Xudong%Wu%NULL%0,               Jiuyang%Xu%NULL%0,               Shengjin%Tu%NULL%0,               Yi%Zhang%NULL%0,               Hua%Chen%NULL%0,               Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Moran%Amit%NULL%0,               Alex%Sorkin%NULL%0,               Jacob%Chen%NULL%0,               Barak%Cohen%NULL%0,               Barak%Cohen%NULL%0,               Dana%Karol%NULL%0,               Dana%Karol%NULL%0,               Avishai M%Tsur%NULL%0,               Shaul%Lev%NULL%0,               Shaul%Lev%NULL%0,               Tal%Rozenblat%NULL%0,               Ayana%Dvir%NULL%0,               Ayana%Dvir%NULL%0,               Geva%Landau%NULL%0,               Lidar%Fridrich%NULL%0,               Lidar%Fridrich%NULL%0,               Elon%Glassberg%NULL%0,               Shani%Kesari%NULL%0,               Sigal%Sviri%NULL%0,               Ram%Gelman%NULL%0,               Asaf%Miller%NULL%0,               Danny%Epstein%NULL%0,               Ronny%Ben-Avi%NULL%0,               Ronny%Ben-Avi%NULL%0,               Moshe%Matan%NULL%0,               Daniel J.%Jakobson%NULL%0,               Daniel J.%Jakobson%NULL%0,               Tarif%Bader%NULL%0,               Tarif%Bader%NULL%0,               David%Dahan%NULL%0,               David%Dahan%NULL%0,               Daniel A.%King%NULL%0,               Anat%Ben-Ari%NULL%0,               Arie%Soroksky%NULL%0,               Alon%Bar%NULL%0,               Alon%Bar%NULL%0,               Noam%Fink%NULL%0,               Pierre%Singer%NULL%0,               Avi%Benov%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,               John R%Adler%NULL%0,               Muhammad Sohaib%Asghar%NULL%0,               Muhammad Sohaib%Asghar%NULL%0,               Syed Jawad%Haider Kazmi%NULL%0,               Noman%Ahmed Khan%NULL%0,               Mohammed%Akram%NULL%0,               Salman%Ahmed Khan%NULL%0,               Uzma%Rasheed%NULL%0,               Maira%Hassan%NULL%0,               Gul Muhammad%Memon%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pedro%Baqui%NULL%0,               Ioana%Bica%NULL%0,               Valerio%Marra%marra@cosmo-ufes.org%0,               Ari%Ercole%NULL%0,               Mihaela%van der Schaar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anesi%Adriano%coreGivesNoEmail%0,              Bettinardi%Alessandra%coreGivesNoEmail%0,              Bonetti%Graziella%coreGivesNoEmail%0,              Borrelli%Gianluca%coreGivesNoEmail%0,              Fiordalisi%Gianfranco%coreGivesNoEmail%0,              Lippi%Giuseppe%coreGivesNoEmail%0,              Manelli%Filippo%coreGivesNoEmail%0,              Marino%Antonio%coreGivesNoEmail%0,              Menolfi%Annamaria%coreGivesNoEmail%0,              Patroni%Andrea%coreGivesNoEmail%0,              Saggini%Sara%coreGivesNoEmail%0,              Volpi%Roberta%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Andrea%Borghesi%NULL%0,               Angelo%Zigliani%NULL%0,               Salvatore%Golemi%NULL%0,               Nicola%Carapella%NULL%0,               Patrizia%Maculotti%NULL%0,               Davide%Farina%NULL%0,               Roberto%Maroldi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alberto M.%Borobia%NULL%0,               Antonio J.%Carcas%NULL%0,               Antonio J.%Carcas%NULL%0,               Francisco%Arnalich%NULL%0,               Rodolfo%Álvarez-Sala%NULL%0,               Rodolfo%Álvarez-Sala%NULL%0,               Jaime%Monserrat-Villatoro%NULL%0,               Manuel%Quintana%NULL%0,               Juan Carlos%Figueira%NULL%0,               Rosario M.%Torres Santos-Olmo%NULL%0,               Julio%García-Rodríguez%NULL%0,               Julio%García-Rodríguez%NULL%0,               Alberto%Martín-Vega%NULL%0,               Antonio%Buño%NULL%0,               Elena%Ramírez%NULL%0,               Gonzalo%Martínez-Alés%NULL%0,               Gonzalo%Martínez-Alés%NULL%0,               Nicolás%García-Arenzana%NULL%0,               M. Concepción%Núñez%NULL%0,               M. Concepción%Núñez%NULL%0,               Milagros%Martí-de-Gracia%NULL%0,               Francisco%Moreno Ramos%NULL%0,               Francisco%Reinoso-Barbero%NULL%0,               Alejandro%Martin-Quiros%NULL%0,               Angélica%Rivera Núñez%NULL%0,               Jesús%Mingorance%NULL%0,               Carlos J.%Carpio Segura%NULL%0,               Carlos J.%Carpio Segura%NULL%0,               Daniel%Prieto Arribas%NULL%0,               Esther%Rey Cuevas%NULL%0,               Concepción%Prados Sánchez%NULL%0,               Juan J.%Rios%NULL%0,               Miguel A.%Hernán%NULL%0,               Jesús%Frías%NULL%0,               José R.%Arribas%NULL%0,               NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simon E.%Brill%simon.brill@nhs.net%0,               Hannah C.%Jarvis%NULL%0,               Hannah C.%Jarvis%NULL%0,               Ezgi%Ozcan%NULL%0,               Thomas L. P.%Burns%NULL%0,               Rabia A.%Warraich%NULL%0,               Lisa J.%Amani%NULL%0,               Amina%Jaffer%NULL%0,               Stephanie%Paget%NULL%0,               Anand%Sivaramakrishnan%NULL%0,               Dean D.%Creer%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,               Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,               Wenlin%Cheng%NULL%0,               Lei%Yu%NULL%0,               Ya-Kun%Liu%NULL%0,               Xiaoyong%Hu%NULL%0,               Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[B.%Carter%NULL%0,               J.T.%Collins%NULL%0,               F.%Barlow-Pay%NULL%0,               F.%Rickard%NULL%0,               E.%Bruce%NULL%0,               A.%Verduri%NULL%0,               T.J.%Quinn%NULL%0,               E.%Mitchell%NULL%0,               A.%Price%NULL%0,               A.%Vilches-Moraga%NULL%0,               M.J.%Stechman%NULL%0,               R.%Short%NULL%0,               A.%Einarsson%NULL%0,               P.%Braude%NULL%0,               S.%Moug%NULL%0,               P.K.%Myint%NULL%0,               J.%Hewitt%NULL%0,               L.%Pearce%NULL%0,               K.%McCarthy%NULL%0,               C.%Davey%NULL%0,               S.%Jones%NULL%0,               K.%Lunstone%NULL%0,               A.%Cavenagh%NULL%0,               C.%Silver%NULL%0,               T.%Telford%NULL%0,               R.%Simmons%NULL%0,               M.%Holloway%NULL%0,               J.%Hesford%NULL%0,               T.%El Jichi Mutasem%NULL%0,               S.%Singh%NULL%0,               D.%Paxton%NULL%0,               W.%Harris%NULL%0,               N.%Galbraith%NULL%0,               E.%Bhatti%NULL%0,               J.%Edwards%NULL%0,               S.%Duffy%NULL%0,               J.%Kelly%NULL%0,               C.%Murphy%NULL%0,               C.%Bisset%NULL%0,               R.%Alexander%NULL%0,               M.%Garcia%NULL%0,               S.%Sangani%NULL%0,               T.%Kneen%NULL%0,               T.%Lee%NULL%0,               A.%McGovern%NULL%0,               G.%Guaraldi%NULL%0,               E.%Clini%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fuyang%Chen%NULL%0,               Wenwu%Sun%NULL%0,               Shengrong%Sun%NULL%0,               Zhiyu%Li%lizhiyu@whu.edu.cn%0,               Zhong%Wang%zhongwangchn@whu.edu.cn%0,               Li%Yu%yuliwhzxyy@163.com%0,               Li%Yu%yuliwhzxyy@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,               Ling%Sang%NULL%0,               Mei%Jiang%NULL%0,               Zhaowei%Yang%NULL%0,               Nan%Jia%NULL%0,               Wanyi%Fu%NULL%0,               Jiaxing%Xie%NULL%0,               Weijie%Guan%NULL%0,               Wenhua%Liang%NULL%0,               Zhengyi%Ni%NULL%0,               Yu%Hu%NULL%0,               Lei%Liu%NULL%0,               Hong%Shan%NULL%0,               Chunliang%Lei%NULL%0,               Yixiang%Peng%NULL%0,               Li%Wei%NULL%0,               Yong%Liu%NULL%0,               Yahua%Hu%NULL%0,               Peng%Peng%NULL%0,               Jianming%Wang%NULL%0,               Jiyang%Liu%NULL%0,               Zhong%Chen%NULL%0,               Gang%Li%NULL%0,               Zhijian%Zheng%NULL%0,               Shaoqin%Qiu%NULL%0,               Jie%Luo%NULL%0,               Changjiang%Ye%NULL%0,               Shaoyong%Zhu%NULL%0,               Jinping%Zheng%NULL%0,               Nuofu%Zhang%NULL%0,               Yimin%Li%NULL%0,               Jianxing%He%NULL%0,               Jing%Li%NULL%0,               Shiyue%Li%NULL%0,               Nanshan%Zhong%NULL%0,               NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,               Di%Wu%NULL%0,               Huilong%Chen%NULL%0,               Weiming%Yan%NULL%0,               Danlei%Yang%NULL%0,               Guang%Chen%NULL%0,               Ke%Ma%NULL%0,               Dong%Xu%NULL%0,               Haijing%Yu%NULL%0,               Hongwu%Wang%NULL%0,               Tao%Wang%NULL%0,               Wei%Guo%NULL%0,               Jia%Chen%NULL%0,               Chen%Ding%NULL%0,               Xiaoping%Zhang%NULL%0,               Jiaquan%Huang%NULL%0,               Meifang%Han%NULL%0,               Shusheng%Li%NULL%0,               Xiaoping%Luo%NULL%0,               Jianping%Zhao%NULL%0,               Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anying%Cheng%NULL%0,               Liu%Hu%NULL%0,               Yiru%Wang%NULL%0,               Luyan%Huang%NULL%0,               Lingxi%Zhao%NULL%0,               Congcong%Zhang%NULL%0,               Xiyue%Liu%NULL%0,               Ranran%Xu%NULL%0,               Feng%Liu%NULL%0,               Jinping%Li%NULL%0,               Dawei%Ye%NULL%0,               Tao%Wang%NULL%0,               Yongman%Lv%lvyongman@126.com%0,               Qingquan%Liu%qqliutj@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fabio%Ciceri%ciceri.fabio@hsr.it%0,               Antonella%Castagna%NULL%0,               Patrizia%Rovere-Querini%NULL%0,               Francesco%De Cobelli%NULL%0,               Annalisa%Ruggeri%NULL%0,               Laura%Galli%NULL%0,               Caterina%Conte%NULL%0,               Rebecca%De Lorenzo%NULL%0,               Andrea%Poli%NULL%0,               Alberto%Ambrosio%NULL%0,               Carlo%Signorelli%NULL%0,               Eleonora%Bossi%NULL%0,               Maria%Fazio%NULL%0,               Cristina%Tresoldi%NULL%0,               Sergio%Colombo%NULL%0,               Giacomo%Monti%NULL%0,               Efgeny%Fominskiy%NULL%0,               Stefano%Franchini%NULL%0,               Marzia%Spessot%NULL%0,               Carlo%Martinenghi%NULL%0,               Michele%Carlucci%NULL%0,               Luigi%Beretta%NULL%0,               Anna Maria%Scandroglio%NULL%0,               Massimo%Clementi%NULL%0,               Massimo%Locatelli%NULL%0,               Moreno%Tresoldi%NULL%0,               Paolo%Scarpellini%NULL%0,               Gianvito%Martino%NULL%0,               Emanuele%Bosi%NULL%0,               Lorenzo%Dagna%NULL%0,               Adriano%Lazzarin%NULL%0,               Giovanni%Landoni%NULL%0,               Alberto%Zangrillo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,               Wei%Liu%NULL%0,               Kui%Liu%NULL%0,               Yuan-Yuan%Fang%NULL%0,               Jin%Shang%NULL%0,               Ling%Zhou%NULL%0,               Ke%Wang%NULL%0,               Fan%Leng%NULL%0,               Shuang%Wei%NULL%0,               Lei%Chen%NULL%0,               Hui-Guo%Liu%NULL%0,               Pei-Fang%Wei%NULL%0,               Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,               Li-Rong%Liang%NULL%0,               Cheng-Qing%Yang%NULL%0,               Wen%Wang%NULL%0,               Tan-Ze%Cao%NULL%0,               Ming%Li%NULL%0,               Guang-Yun%Guo%NULL%0,               Juan%Du%NULL%0,               Chun-Lan%Zheng%NULL%0,               Qi%Zhu%NULL%0,               Ming%Hu%NULL%0,               Xu-Yan%Li%NULL%0,               Peng%Peng%NULL%0,               Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shan%Gao%NULL%0,               Fang%Jiang%NULL%0,               Wei%Jin%NULL%0,               Yuan%Shi%NULL%0,               Leilei%Yang%NULL%0,               Yanqiong%Xia%NULL%0,               Linyan%Jia%NULL%0,               Bo%Wang%NULL%0,               Han%Lin%NULL%0,               Yin%Cai%NULL%0,               Zhengyuan%Xia%NULL%0,               Jian%Peng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pedro David%Wendel Garcia%pedrodavid.wendelgarcia@usz.ch%0,               Thierry%Fumeaux%thierry.fumeaux@ghol.ch%0,               Philippe%Guerci%NULL%0,               Dorothea Monika%Heuberger%dorotheamonika.heuberger@usz.ch%0,               Jonathan%Montomoli%NULL%0,               Ferran%Roche-Campo%NULL%0,               Reto Andreas%Schuepbach%reto.schuepbach@usz.ch%0,               Matthias Peter%Hilty%matthias.hilty@usz.ch%0,               Mario%Alfaro Farias%NULL%0,               Antoni%Margarit%NULL%0,               Gerardo%Vizmanos-Lamotte%NULL%0,               Thomas%Tschoellitsch%NULL%0,               Jens%Meier%NULL%0,               Francesco S.%Cardona%NULL%0,               Josef%Skola%NULL%0,               Lenka%Horakova%NULL%0,               Hernan%Aguirre-Bermeo%NULL%0,               Janina%Apolo%NULL%0,               Emmanuel%Novy%NULL%0,               Marie-Reine%Losser%NULL%0,               Geoffrey%Jurkolow%NULL%0,               Gauthier%Delahaye%NULL%0,               Sascha%David%NULL%0,               Tobias%Welte%NULL%0,               Tobias%Wengenmayer%NULL%0,               Dawid L.%Staudacher%NULL%0,               Theodoros%Aslanidis%NULL%0,               Barna%Babik%NULL%0,               Anita%Korsos%NULL%0,               Janos%Gal%NULL%0,               Hermann%Csaba%NULL%0,               Abele%Donati%NULL%0,               Andrea%Carsetti%NULL%0,               Fabrizio%Turrini%NULL%0,               Maria Sole%Simonini%NULL%0,               Roberto%Ceriani%NULL%0,               Martina%Murrone%NULL%0,               Emanuele%Rezoagli%NULL%0,               Giovanni%Vitale%NULL%0,               Alberto%Fogagnolo%NULL%0,               Savino%Spadaro%NULL%0,               Maddalena Alessandra%Wu%NULL%0,               Chiara%Cogliati%NULL%0,               Riccardo%Colombo%NULL%0,               Emanuele%Catena%NULL%0,               Francesca%Facondini%NULL%0,               Antonella%Potalivo%NULL%0,               Gianfilippo%Gangitano%NULL%0,               Tiziana%Perin%NULL%0,               Maria Grazia%Bocci%NULL%0,               Massimo%Antonelli%NULL%0,               Diederik%Gommers%NULL%0,               Can%Ince%NULL%0,               Eric%Mayor-Vázquez%NULL%0,               Maria%Cruz%NULL%0,               Martin%Delgado%NULL%0,               Raquel Rodriguez%Garcia%NULL%0,               Jorge%Gamez Zapata%NULL%0,               Begoña%Zalba-Etayo%NULL%0,               Herminia%Lozano-Gomez%NULL%0,               Pedro%Castro%NULL%0,               Adrian%Tellez%NULL%0,               Adriana%Jacas%NULL%0,               Guido%Muñoz%NULL%0,               Rut%Andrea%NULL%0,               Jose%Ortiz%NULL%0,               Eduard%Quintana%NULL%0,               Irene%Rovira%NULL%0,               Enric%Reverter%NULL%0,               Javier%Fernandez%NULL%0,               Miquel%Ferrer%NULL%0,               Joan R.%Badia%NULL%0,               Arantxa%Lander Azcona%NULL%0,               Jesus Escos%Orta%NULL%0,               Philipp%Bühler%NULL%0,               Silvio%Brugger%NULL%0,               Daniel%Hofmaenner%NULL%0,               Simone%Unseld%NULL%0,               Frank%Ruschitzka%NULL%0,               Mallory%Moret-Bochatay%NULL%0,               Bernd%Yuen%NULL%0,               Thomas%Hillermann%NULL%0,               Hatem%Ksouri%NULL%0,               Govind Oliver%Sridharan%NULL%0,               Anette%Ristic%NULL%0,               Michael%Sepulcri%NULL%0,               Miodrag%Filipovic%NULL%0,               Urs%Pietsch%NULL%0,               Petra%Salomon%NULL%0,               Iris%Drvaric%NULL%0,               Peter%Schott%NULL%0,               Severin%Urech%NULL%0,               Adriana%Lambert%NULL%0,               Lukas%Merki%NULL%0,               Marcus%Laube%NULL%0,               Frank%Hillgaertner%NULL%0,               Marianne%Sieber%NULL%0,               Alexander%Dullenkopf%NULL%0,               Lina%Petersen%NULL%0,               Serge%Grazioli%NULL%0,               Peter C.%Rimensberger%NULL%0,               Isabelle%Fleisch%NULL%0,               Jerome%Lavanchy%NULL%0,               Katharina%Marquardt%NULL%0,               Karim%Shaikh%NULL%0,               Hermann%Redecker%NULL%0,               Michael%Stephan%NULL%0,               Jan%Brem%NULL%0,               Bjarte%Rogdo%NULL%0,               Andre%Birkenmaier%NULL%0,               Friederike%Meyer zu Bentrup%NULL%0,               Patricia%Fodor%NULL%0,               Pascal%Locher%NULL%0,               Giovanni%Camen%NULL%0,               Martin%Siegemund%NULL%0,               Nuria%Zellweger%NULL%0,               Marie-Madlen%Jeitziner%NULL%0,               Beatrice%Jenni-Moser%NULL%0,               Christian%Bürkle%NULL%0,               Gian-Reto%Kleger%NULL%0,               Marilene%Franchitti Laurent%NULL%0,               Jean-Christophe%Laurent%NULL%0,               Tomislav%Gaspert%NULL%0,               Marija%Jovic%NULL%0,               Michael%Studhalter%NULL%0,               Christoph%Haberthuer%NULL%0,               Roger F.%Lussman%NULL%0,               Daniela%Selz%NULL%0,               Didier%Naon%NULL%0,               Romano%Mauri%NULL%0,               Samuele%Ceruti%NULL%0,               Julien%Marrel%NULL%0,               Mirko%Brenni%NULL%0,               Rolf%Ensner%NULL%0,               Nadine%Gehring%NULL%0,               Antje%Heise%NULL%0,               Tobias%Huebner%NULL%0,               Thomas A.%Neff%NULL%0,               Sara%Cereghetti%NULL%0,               Filippo%Boroli%NULL%0,               Jerome%Pugin%NULL%0,               Nandor%Marczin%NULL%0,               Joyce%Wong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Warren%Gavin%NULL%0,               Elliott%Campbell%NULL%0,               Syed-Adeel%Zaidi%NULL%0,               Neha%Gavin%NULL%0,               Lana%Dbeibo%NULL%0,               Cole%Beeler%NULL%0,               Kari%Kuebler%NULL%0,               Ahmed%Abdel-Rahman%NULL%0,               Mark%Luetkemeyer%NULL%0,               Areeba%Kara%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Vijay%Gayam%vgayam@interfaithmedical.com%0,               Muchi Ditah%Chobufo%NULL%0,               Muchi Ditah%Chobufo%NULL%0,               Mohamed A.%Merghani%NULL%0,               Mohamed A.%Merghani%NULL%0,               Shristi%Lamichhane%NULL%0,               Pavani Reddy%Garlapati%NULL%0,               Mark K.%Adler%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Cao%Y%coreGivesNoEmail%0,              Imam%Z%coreGivesNoEmail%0,              Lippi%G%coreGivesNoEmail%0,              Oran%DP%coreGivesNoEmail%0,              Shi%S%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Hai%Hu%huhai@wchscu.cn%0,               Ni%Yao%NULL%0,               Ni%Yao%NULL%0,               Yanru%Qiu%NULL%0,               John H.%Burton%NULL%0,               John H.%Burton%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jiaofeng%Huang%NULL%0,               Aiguo%Cheng%NULL%0,               Rahul%Kumar%NULL%0,               Yingying%Fang%NULL%0,               Yingying%Fang%NULL%0,               Gongping%Chen%NULL%0,               Yueyong%Zhu%NULL%0,               Su%Lin%sumer5129@fjmu.edu.cn%0,               Su%Lin%sumer5129@fjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%0,               Ju-Hyun%Kim%NULL%0,               Jin-Sung%Park%NULL%0,               Min Cheol%Chang%wheel633@ynu.ac.kr%0,               Donghwi%Park%bdome@hanmail.net%0]</t>
+  </si>
+  <si>
+    <t>[K.%Khalil%NULL%0,               K.%Agbontaen%NULL%0,               D.%McNally%NULL%0,               A.%Love%NULL%0,               S.%Mandalia%NULL%0,               W.%Banya%NULL%0,               E.%Starren%NULL%0,               R.%Dhunnookchand%NULL%0,               H.%Farne%NULL%0,               R.%Morton%NULL%0,               G.%Davies%NULL%0,               O.%Orhan%NULL%0,               D%Lai%NULL%0,               M.%Nelson%NULL%0,               P.L.%Shah%NULL%0,               J.L.%Garner%Justin.garner@chelwest.nhs.uk%0]</t>
+  </si>
+  <si>
+    <t>[Eyal%Klang%NULL%0,               Gassan%Kassim%NULL%0,               Shelly%Soffer%soffer.shelly@gmail.com%0,               Robert%Freeman%NULL%0,               Robert%Freeman%NULL%0,               Matthew A.%Levin%NULL%0,               Matthew A.%Levin%NULL%0,               David L.%Reich%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sandeep%Krishnan%NULL%0,               Kinjal%Patel%NULL%0,               Ronak%Desai%NULL%0,               Anupam%Sule%NULL%0,               Peter%Paik%NULL%0,               Ashley%Miller%NULL%0,               Alicia%Barclay%NULL%0,               Adam%Cassella%NULL%0,               Jon%Lucaj%NULL%0,               Yvonne%Royster%NULL%0,               Joffer%Hakim%NULL%0,               Zulfiqar%Ahmed%NULL%0,               Farhad%Ghoddoussi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Manisha%Bhutani%null%0,     David M.%Foureau%null%0,     Shebli%Atrash%null%0,     Peter M.%Voorhees%null%0,     Saad Z.%Usmani%null%0]</t>
+  </si>
+  <si>
+    <t>[Wil%Lieberman-Cribbin%NULL%0,               Joseph%Rapp%NULL%0,               Naomi%Alpert%NULL%0,               Stephanie%Tuminello%NULL%0,               Emanuela%Taioli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Q.%Liu%NULL%0,               N. C.%Song%NULL%0,               Z. K.%Zheng%NULL%0,               J. S.%Li%NULL%0,               S. K.%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Long%NULL%0,               Lan%Nie%NULL%0,               Xiaochen%Xiang%NULL%0,               Huan%Li%NULL%0,               Xiaoli%Zhang%NULL%0,               Xiaozhi%Fu%NULL%0,               Hongwei%Ren%NULL%0,               Wanxin%Liu%NULL%0,               Qiang%Wang%wangqiang@wust.edu.cn%0,               Qingming%Wu%wuhe9224@sina.com%0,               Qingming%Wu%wuhe9224@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Miao%Luo%xref no email%0,       Jing%Liu%xref no email%0,       Weiling%Jiang%xref no email%0,       Shuang%Yue%xref no email%0,       Huiguo%Liu%xref no email%0,       Shuang%Wei%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Xiaomin%Luo%luoxiaomin04@163.com%0,               Wei%Zhou%NULL%0,               Xiaojie%Yan%NULL%0,               Tangxi%Guo%NULL%0,               Benchao%Wang%NULL%0,               Hongxia%Xia%NULL%0,               Lu%Ye%NULL%0,               Jun%Xiong%NULL%0,               Zongping%Jiang%NULL%0,               Yu%Liu%NULL%0,               Bicheng%Zhang%NULL%0,               Weize%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ying%Luo%NULL%0,               Liyan%Mao%NULL%0,               Xu%Yuan%NULL%0,               Ying%Xue%NULL%0,               Qun%Lin%NULL%0,               Guoxing%Tang%NULL%0,               Huijuan%Song%NULL%0,               Feng%Wang%fengwang@tjh.tjmu.edu.cn%0,               Ziyong%Sun%zysun@tjh.tjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ying%Luo%NULL%0,               Ying%Xue%NULL%0,               Liyan%Mao%NULL%0,               Xu%Yuan%NULL%0,               Qun%Lin%NULL%0,               Guoxing%Tang%NULL%0,               Huijuan%Song%NULL%0,               Feng%Wang%NULL%0,               Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chiara%Masetti%NULL%0,               Elena%Generali%NULL%0,               Francesca%Colapietro%NULL%0,               Antonio%Voza%NULL%0,               Maurizio%Cecconi%NULL%0,               Antonio%Messina%NULL%0,               Paolo%Omodei%NULL%0,               Claudio%Angelini%NULL%0,               Michele%Ciccarelli%NULL%0,               Salvatore%Badalamenti%NULL%0,               G. Walter%Canonica%NULL%0,               Ana%Lleo%ana.lleo@humanitas.it%0,               Alessio%Aghemo%NULL%0,               Alessio%Aghemo%NULL%0,               NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Takahisa%Mikami%NULL%0,               Hirotaka%Miyashita%NULL%0,               Takayuki%Yamada%NULL%0,               Matthew%Harrington%NULL%0,               Daniel%Steinberg%NULL%0,               Andrew%Dunn%NULL%0,               Evan%Siau%Evan.Siau@mountsinai.org%0]</t>
+  </si>
+  <si>
+    <t>[Alexis K.%Okoh%alexis.okoh@rwjbh.org%0,               Christoph%Sossou%NULL%0,               Christoph%Sossou%NULL%0,               Neha S.%Dangayach%NULL%0,               Sherin%Meledathu%NULL%0,               Oluwakemi%Phillips%NULL%0,               Corinne%Raczek%NULL%0,               Michael%Patti%NULL%0,               Nathan%Kang%NULL%0,               Sameer A.%Hirji%NULL%0,               Charles%Cathcart%NULL%0,               Christian%Engell%NULL%0,               Marc%Cohen%NULL%0,               Sandhya%Nagarakanti%NULL%0,               Eliahu%Bishburg%NULL%0,               Harpreet S.%Grewal%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -3841,7 +4006,7 @@
         <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>826</v>
+        <v>881</v>
       </c>
       <c r="F2" t="s">
         <v>73</v>
@@ -3870,7 +4035,7 @@
         <v>260</v>
       </c>
       <c r="E3" t="s">
-        <v>827</v>
+        <v>882</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -3899,7 +4064,7 @@
         <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>828</v>
+        <v>883</v>
       </c>
       <c r="F4" t="s">
         <v>79</v>
@@ -3928,7 +4093,7 @@
         <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>829</v>
+        <v>884</v>
       </c>
       <c r="F5" t="s">
         <v>83</v>
@@ -3957,7 +4122,7 @@
         <v>86</v>
       </c>
       <c r="E6" t="s">
-        <v>830</v>
+        <v>885</v>
       </c>
       <c r="F6" t="s">
         <v>87</v>
@@ -4015,7 +4180,7 @@
         <v>90</v>
       </c>
       <c r="E8" t="s">
-        <v>831</v>
+        <v>886</v>
       </c>
       <c r="F8" t="s">
         <v>91</v>
@@ -4044,7 +4209,7 @@
         <v>94</v>
       </c>
       <c r="E9" t="s">
-        <v>832</v>
+        <v>887</v>
       </c>
       <c r="F9" t="s">
         <v>95</v>
@@ -4073,7 +4238,7 @@
         <v>98</v>
       </c>
       <c r="E10" t="s">
-        <v>833</v>
+        <v>888</v>
       </c>
       <c r="F10" t="s">
         <v>99</v>
@@ -4102,7 +4267,7 @@
         <v>102</v>
       </c>
       <c r="E11" t="s">
-        <v>834</v>
+        <v>889</v>
       </c>
       <c r="F11" t="s">
         <v>103</v>
@@ -4131,7 +4296,7 @@
         <v>106</v>
       </c>
       <c r="E12" t="s">
-        <v>835</v>
+        <v>890</v>
       </c>
       <c r="F12" t="s">
         <v>107</v>
@@ -4160,7 +4325,7 @@
         <v>109</v>
       </c>
       <c r="E13" t="s">
-        <v>836</v>
+        <v>891</v>
       </c>
       <c r="F13" t="s">
         <v>110</v>
@@ -4189,7 +4354,7 @@
         <v>113</v>
       </c>
       <c r="E14" t="s">
-        <v>837</v>
+        <v>892</v>
       </c>
       <c r="F14" t="s">
         <v>114</v>
@@ -4218,7 +4383,7 @@
         <v>776</v>
       </c>
       <c r="E15" t="s">
-        <v>838</v>
+        <v>893</v>
       </c>
       <c r="F15" t="s">
         <v>118</v>
@@ -4247,7 +4412,7 @@
         <v>121</v>
       </c>
       <c r="E16" t="s">
-        <v>839</v>
+        <v>894</v>
       </c>
       <c r="F16" t="s">
         <v>122</v>
@@ -4276,7 +4441,7 @@
         <v>779</v>
       </c>
       <c r="E17" t="s">
-        <v>840</v>
+        <v>895</v>
       </c>
       <c r="F17" t="s">
         <v>125</v>
@@ -4305,7 +4470,7 @@
         <v>128</v>
       </c>
       <c r="E18" t="s">
-        <v>841</v>
+        <v>896</v>
       </c>
       <c r="F18" t="s">
         <v>129</v>
@@ -4334,7 +4499,7 @@
         <v>131</v>
       </c>
       <c r="E19" t="s">
-        <v>842</v>
+        <v>897</v>
       </c>
       <c r="F19" t="s">
         <v>132</v>
@@ -4363,7 +4528,7 @@
         <v>134</v>
       </c>
       <c r="E20" t="s">
-        <v>843</v>
+        <v>898</v>
       </c>
       <c r="F20" t="s">
         <v>135</v>
@@ -4392,7 +4557,7 @@
         <v>137</v>
       </c>
       <c r="E21" t="s">
-        <v>844</v>
+        <v>899</v>
       </c>
       <c r="F21" t="s">
         <v>138</v>
@@ -4421,7 +4586,7 @@
         <v>141</v>
       </c>
       <c r="E22" t="s">
-        <v>845</v>
+        <v>900</v>
       </c>
       <c r="F22" t="s">
         <v>142</v>
@@ -4450,7 +4615,7 @@
         <v>263</v>
       </c>
       <c r="E23" t="s">
-        <v>846</v>
+        <v>901</v>
       </c>
       <c r="F23" t="s">
         <v>23</v>
@@ -4479,7 +4644,7 @@
         <v>144</v>
       </c>
       <c r="E24" t="s">
-        <v>847</v>
+        <v>902</v>
       </c>
       <c r="F24" t="s">
         <v>145</v>
@@ -4508,7 +4673,7 @@
         <v>147</v>
       </c>
       <c r="E25" t="s">
-        <v>848</v>
+        <v>903</v>
       </c>
       <c r="F25" t="s">
         <v>148</v>
@@ -4537,7 +4702,7 @@
         <v>789</v>
       </c>
       <c r="E26" t="s">
-        <v>849</v>
+        <v>904</v>
       </c>
       <c r="F26" t="s">
         <v>152</v>
@@ -4566,7 +4731,7 @@
         <v>155</v>
       </c>
       <c r="E27" t="s">
-        <v>850</v>
+        <v>905</v>
       </c>
       <c r="F27" t="s">
         <v>156</v>
@@ -4595,7 +4760,7 @@
         <v>158</v>
       </c>
       <c r="E28" t="s">
-        <v>851</v>
+        <v>906</v>
       </c>
       <c r="F28" t="s">
         <v>159</v>
@@ -4624,7 +4789,7 @@
         <v>82</v>
       </c>
       <c r="E29" t="s">
-        <v>852</v>
+        <v>907</v>
       </c>
       <c r="F29" t="s">
         <v>162</v>
@@ -4653,7 +4818,7 @@
         <v>165</v>
       </c>
       <c r="E30" t="s">
-        <v>853</v>
+        <v>908</v>
       </c>
       <c r="F30" t="s">
         <v>166</v>
@@ -4682,7 +4847,7 @@
         <v>168</v>
       </c>
       <c r="E31" t="s">
-        <v>854</v>
+        <v>909</v>
       </c>
       <c r="F31" t="s">
         <v>169</v>
@@ -4711,7 +4876,7 @@
         <v>172</v>
       </c>
       <c r="E32" t="s">
-        <v>855</v>
+        <v>910</v>
       </c>
       <c r="F32" t="s">
         <v>173</v>
@@ -4740,7 +4905,7 @@
         <v>176</v>
       </c>
       <c r="E33" t="s">
-        <v>856</v>
+        <v>911</v>
       </c>
       <c r="F33" t="s">
         <v>177</v>
@@ -4769,7 +4934,7 @@
         <v>180</v>
       </c>
       <c r="E34" t="s">
-        <v>857</v>
+        <v>912</v>
       </c>
       <c r="F34" t="s">
         <v>181</v>
@@ -4798,7 +4963,7 @@
         <v>183</v>
       </c>
       <c r="E35" t="s">
-        <v>858</v>
+        <v>913</v>
       </c>
       <c r="F35" t="s">
         <v>184</v>
@@ -4827,7 +4992,7 @@
         <v>187</v>
       </c>
       <c r="E36" t="s">
-        <v>859</v>
+        <v>914</v>
       </c>
       <c r="F36" t="s">
         <v>188</v>
@@ -4856,7 +5021,7 @@
         <v>191</v>
       </c>
       <c r="E37" t="s">
-        <v>860</v>
+        <v>915</v>
       </c>
       <c r="F37" t="s">
         <v>192</v>
@@ -4885,7 +5050,7 @@
         <v>194</v>
       </c>
       <c r="E38" t="s">
-        <v>861</v>
+        <v>916</v>
       </c>
       <c r="F38" t="s">
         <v>195</v>
@@ -4914,7 +5079,7 @@
         <v>197</v>
       </c>
       <c r="E39" t="s">
-        <v>862</v>
+        <v>917</v>
       </c>
       <c r="F39" t="s">
         <v>198</v>
@@ -4943,7 +5108,7 @@
         <v>64</v>
       </c>
       <c r="E40" t="s">
-        <v>863</v>
+        <v>918</v>
       </c>
       <c r="F40" t="s">
         <v>41</v>
@@ -4972,7 +5137,7 @@
         <v>201</v>
       </c>
       <c r="E41" t="s">
-        <v>864</v>
+        <v>919</v>
       </c>
       <c r="F41" t="s">
         <v>202</v>
@@ -5001,7 +5166,7 @@
         <v>204</v>
       </c>
       <c r="E42" t="s">
-        <v>865</v>
+        <v>920</v>
       </c>
       <c r="F42" t="s">
         <v>205</v>
@@ -5030,7 +5195,7 @@
         <v>807</v>
       </c>
       <c r="E43" t="s">
-        <v>866</v>
+        <v>921</v>
       </c>
       <c r="F43" t="s">
         <v>209</v>
@@ -5059,7 +5224,7 @@
         <v>82</v>
       </c>
       <c r="E44" t="s">
-        <v>867</v>
+        <v>922</v>
       </c>
       <c r="F44" t="s">
         <v>212</v>
@@ -5088,7 +5253,7 @@
         <v>215</v>
       </c>
       <c r="E45" t="s">
-        <v>868</v>
+        <v>923</v>
       </c>
       <c r="F45" t="s">
         <v>216</v>
@@ -5117,7 +5282,7 @@
         <v>82</v>
       </c>
       <c r="E46" t="s">
-        <v>869</v>
+        <v>924</v>
       </c>
       <c r="F46" t="s">
         <v>219</v>
@@ -5175,7 +5340,7 @@
         <v>752</v>
       </c>
       <c r="E48" t="s">
-        <v>870</v>
+        <v>925</v>
       </c>
       <c r="F48" t="s">
         <v>49</v>
@@ -5204,7 +5369,7 @@
         <v>82</v>
       </c>
       <c r="E49" t="s">
-        <v>871</v>
+        <v>926</v>
       </c>
       <c r="F49" t="s">
         <v>229</v>
@@ -5233,7 +5398,7 @@
         <v>231</v>
       </c>
       <c r="E50" t="s">
-        <v>872</v>
+        <v>927</v>
       </c>
       <c r="F50" t="s">
         <v>232</v>
@@ -5262,7 +5427,7 @@
         <v>235</v>
       </c>
       <c r="E51" t="s">
-        <v>873</v>
+        <v>928</v>
       </c>
       <c r="F51" t="s">
         <v>236</v>
@@ -5291,7 +5456,7 @@
         <v>64</v>
       </c>
       <c r="E52" t="s">
-        <v>874</v>
+        <v>929</v>
       </c>
       <c r="F52" t="s">
         <v>53</v>
@@ -5320,7 +5485,7 @@
         <v>239</v>
       </c>
       <c r="E53" t="s">
-        <v>875</v>
+        <v>930</v>
       </c>
       <c r="F53" t="s">
         <v>240</v>
@@ -5349,7 +5514,7 @@
         <v>818</v>
       </c>
       <c r="E54" t="s">
-        <v>876</v>
+        <v>931</v>
       </c>
       <c r="F54" t="s">
         <v>243</v>
@@ -5378,7 +5543,7 @@
         <v>246</v>
       </c>
       <c r="E55" t="s">
-        <v>877</v>
+        <v>932</v>
       </c>
       <c r="F55" t="s">
         <v>247</v>
@@ -5407,7 +5572,7 @@
         <v>249</v>
       </c>
       <c r="E56" t="s">
-        <v>878</v>
+        <v>933</v>
       </c>
       <c r="F56" t="s">
         <v>250</v>
@@ -5436,7 +5601,7 @@
         <v>822</v>
       </c>
       <c r="E57" t="s">
-        <v>879</v>
+        <v>934</v>
       </c>
       <c r="F57" t="s">
         <v>254</v>
@@ -5465,7 +5630,7 @@
         <v>824</v>
       </c>
       <c r="E58" t="s">
-        <v>880</v>
+        <v>935</v>
       </c>
       <c r="F58" t="s">
         <v>257</v>

--- a/Covid_19_Dataset_and_References/References/44.xlsx
+++ b/Covid_19_Dataset_and_References/References/44.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4932" uniqueCount="936">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5338" uniqueCount="991">
   <si>
     <t>Doi</t>
   </si>
@@ -3654,6 +3654,171 @@
   </si>
   <si>
     <t>[Alexis K.%Okoh%alexis.okoh@rwjbh.org%0,               Christoph%Sossou%NULL%0,               Christoph%Sossou%NULL%0,               Neha S.%Dangayach%NULL%0,               Sherin%Meledathu%NULL%0,               Oluwakemi%Phillips%NULL%0,               Corinne%Raczek%NULL%0,               Michael%Patti%NULL%0,               Nathan%Kang%NULL%0,               Sameer A.%Hirji%NULL%0,               Charles%Cathcart%NULL%0,               Christian%Engell%NULL%0,               Marc%Cohen%NULL%0,               Sandhya%Nagarakanti%NULL%0,               Eliahu%Bishburg%NULL%0,               Harpreet S.%Grewal%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%0,                Lian%Yang%NULL%0,                Yuncheng%Li%NULL%0,                Bo%Liang%NULL%0,                Lin%Li%NULL%0,                Tianhe%Ye%NULL%0,                Lingli%Li%NULL%0,                Dehan%Liu%NULL%0,                Shan%Gui%NULL%0,                Yu%Hu%NULL%0,                Chuansheng%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,               Becker%L.B.%coreGivesNoEmail%0,               Chelico%J.D.%coreGivesNoEmail%0,               Cohen%S.L.%coreGivesNoEmail%0,               Cookingham%J.%coreGivesNoEmail%0,               Coppa%K.%coreGivesNoEmail%0,               Crawford%J.M.%coreGivesNoEmail%0,               Davidson%K.W.%coreGivesNoEmail%0,               Diefenbach%M.A.%coreGivesNoEmail%0,               Dominello%A.J.%coreGivesNoEmail%0,               Duer-Hefele%J.%coreGivesNoEmail%0,               Falzon%L.%coreGivesNoEmail%0,               Gitlin%J.%coreGivesNoEmail%0,               Hajizadeh%N.%coreGivesNoEmail%0,               Harvin%T.G.%coreGivesNoEmail%0,               Hirsch%J.S.%coreGivesNoEmail%0,               Hirschwerk%D.A.%coreGivesNoEmail%0,               Kim%E.J.%coreGivesNoEmail%0,               Kozel%Z.M.%coreGivesNoEmail%0,               Marrast%L.M.%coreGivesNoEmail%0,               McGinn%T.%coreGivesNoEmail%0,               Mogavero%J.N.%coreGivesNoEmail%0,               Narasimhan%M.%coreGivesNoEmail%0,               Osorio%G.A.%coreGivesNoEmail%0,               Qiu%M.%coreGivesNoEmail%0,               Richardson%S.%coreGivesNoEmail%0,               Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Mario%Rivera-Izquierdo%NULL%0,                María%del Carmen Valero-Ubierna%NULL%0,                María%del Carmen Valero-Ubierna%NULL%0,                Juan Luis%R-delAmo%NULL%0,                Miguel Ángel%Fernández-García%NULL%0,                Silvia%Martínez-Diz%NULL%0,                Arezu%Tahery-Mahmoud%NULL%0,                Marta%Rodríguez-Camacho%NULL%0,                Ana Belén%Gámiz-Molina%NULL%0,                Nicolás%Barba-Gyengo%NULL%0,                Pablo%Gámez-Baeza%NULL%0,                Celia%Cabrero-Rodríguez%NULL%0,                Pedro Antonio%Guirado-Ruiz%NULL%0,                Divina Tatiana%Martín-Romero%NULL%0,                Antonio Jesús%Láinez-Ramos-Bossini%NULL%0,                María Rosa%Sánchez-Pérez%NULL%0,                José%Mancera-Romero%NULL%0,                Miguel%García-Martín%NULL%0,                Luis Miguel%Martín-delosReyes%NULL%0,                Virginia%Martínez-Ruiz%NULL%0,                Virginia%Martínez-Ruiz%NULL%0,                Pablo%Lardelli-Claret%NULL%0,                Eladio%Jiménez-Mejías%NULL%0,                Muhammad%Adrish%NULL%0,                Muhammad%Adrish%NULL%0,                NULL%NULL%NULL%0,                NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,                Kun%Yang%NULL%0,                Kun%Yang%NULL%0,                Wenxia%Wang%NULL%0,                Wenxia%Wang%NULL%0,                Lingyu%Jiang%NULL%0,                Lingyu%Jiang%NULL%0,                Jianxin%Song%songsingsjx@sina.com%0,                Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Grace%Salacup%salacupg@einstein.edu%0,                Kevin Bryan%Lo%NULL%0,                Kevin Bryan%Lo%NULL%0,                Fahad%Gul%NULL%0,                Eric%Peterson%NULL%0,                Robert%De Joy%NULL%0,                Ruchika%Bhargav%NULL%0,                Jerald%Pelayo%NULL%0,                Jeri%Albano%NULL%0,                Zurab%Azmaiparashvili%NULL%0,                Sadia%Benzaquen%NULL%0,                Gabriel%Patarroyo‐Aponte%NULL%0,                Janani%Rangaswami%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yufeng%Shang%NULL%0,                Tao%Liu%NULL%0,                Yongchang%Wei%NULL%0,                Jingfeng%Li%NULL%0,                Liang%Shao%NULL%0,                Minghui%Liu%NULL%0,                Yongxi%Zhang%NULL%0,                Zhigang%Zhao%NULL%0,                Haibo%Xu%NULL%0,                Zhiyong%Peng%NULL%0,                Fuling%Zhou%zhoufuling@whu.edu.cn%0,                Xinghuan%Wang%wangxinghuan@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,                Mu%Qin%qinmuae@163.com%0,                Yuli%Cai%NULL%0,                Tao%Liu%NULL%0,                Bo%Shen%NULL%0,                Fan%Yang%NULL%0,                Sheng%Cao%NULL%0,                Xu%Liu%NULL%0,                Xu%Liu%NULL%0,                Yaozu%Xiang%NULL%0,                Qinyan%Zhao%NULL%0,                He%Huang%huanghe1977@whu.edu.cn%0,                Bo%Yang%yybb112@whu.edu.cn%0,                Congxin%Huang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rita de Cássia Menezes%Soares%NULL%0,                Larissa Rodrigues%Mattos%NULL%0,                Letícia Martins%Raposo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,                Ruoqi%Ning%NULL%0,                Yu%Tao%NULL%0,                Chong%Yu%NULL%0,                Xiaoyan%Deng%NULL%0,                Caili%Zhao%NULL%0,                Silu%Meng%NULL%0,                Fangxu%Tang%89650793@qq.com%0,                Dong%Xu%89650793@qq.com%0,                Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Kun%Wang%NULL%0,                Peiyuan%Zuo%NULL%0,                Yuwei%Liu%NULL%0,                Meng%Zhang%NULL%0,                Xiaofang%Zhao%NULL%0,                Songpu%Xie%NULL%0,                Hao%Zhang%NULL%0,                Xinglin%Chen%NULL%0,                Chengyun%Liu%chengyunliu@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Bo%XU%NULL%0,                Cun-yu%FAN%NULL%0,                An-lu%WANG%NULL%0,                Yi-long%ZOU%NULL%0,                Yi-han%YU%NULL%0,                Cong%HE%NULL%0,                Wen-guang%XIA%NULL%0,                Ji-xian%ZHANG%NULL%0,                Qing%MIAO%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xisheng%Yan%NULL%0,                Fen%Li%NULL%0,                Xiao%Wang%NULL%0,                Jie%Yan%NULL%0,                Fen%Zhu%NULL%0,                Shifan%Tang%NULL%0,                Yingzhong%Deng%NULL%0,                Hua%Wang%NULL%0,                Rui%Chen%NULL%0,                Zhili%Yu%NULL%0,                Yaping%Li%NULL%0,                Jingzhou%Shang%NULL%0,                Lingjun%Zeng%NULL%0,                Jie%Zhao%NULL%0,                Chaokun%Guan%NULL%0,                Qiaomei%Liu%NULL%0,                Haifeng%Chen%NULL%0,                Wei%Gong%NULL%0,                Xin%Huang%NULL%0,                Yu‐Jiao%Zhang%NULL%0,                Jianguang%Liu%NULL%0,                Xiaoyan%Dong%NULL%0,                Wen%Zheng%zhengwen12@mails.jlu.edu.cn%0,                Shaoping%Nie%spnie@126.com%0,                Dongsheng%Li%dongshengli196809@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qing%Yang%NULL%0,                Ying%Zhou%NULL%0,                Xinrong%Wang%NULL%0,                Shan%Gao%NULL%0,                Yang%Xiao%NULL%0,                Weiming%Zhang%NULL%0,                Yi%Hu%huyizxyy@163.com%0,                Yafei%Wang%wyf_527@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                Qingyu%Yang%NULL%0,                Yaxin%Wang%NULL%0,                Yongran%Wu%NULL%0,                Jiqian%Xu%NULL%0,                Yuan%Yu%NULL%0,                You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wenjing%Ye%yewenjing@xinhuamed.com.cn%0,                Guoxi%Chen%4799082@qq.com%0,                Xiaopan%Li%xiaopanli0224@126.com%0,                Xing%Lan%474137452@qq.com%0,                Chen%Ji%c.ji.3@warwick.ac.uk%0,                Min%Hou%min-hou710@hotmail.com%0,                Di%Zhang%zhangdizhangdi1234@163.com%0,                Guangwang%Zeng%785663609@qq.com%0,                Yaling%Wang%953822402@qq.com%0,                Cheng%Xu%xucheng112358@126.com%0,                Weiwei%Lu%luweiwei100@126.com%0,                Ruolin%Cui%crlqwerty@163.com%0,                Yuyang%Cai%caiyuyang@sjtu.edu.cn%0,                Hai%Huang%1220775601@qq.com%0,                Ling%Yang%yangling01@xinhuamed.com.cn%0]</t>
+  </si>
+  <si>
+    <t>[Caizheng%Yu%NULL%0,                Qing%Lei%NULL%0,                Wenkai%Li%NULL%0,                Xiong%Wang%NULL%0,                Wei%Liu%NULL%0,                Xionglin%Fan%NULL%0,                Wengang%Li%228907211@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                Ting%Yu%NULL%0,                Ronghui%Du%NULL%0,                Guohui%Fan%NULL%0,                Ying%Liu%NULL%0,                Zhibo%Liu%NULL%0,                Jie%Xiang%NULL%0,                Yeming%Wang%NULL%0,                Bin%Song%NULL%0,                Xiaoying%Gu%NULL%0,                Lulu%Guan%NULL%0,                Yuan%Wei%NULL%0,                Hui%Li%NULL%0,                Xudong%Wu%NULL%0,                Jiuyang%Xu%NULL%0,                Shengjin%Tu%NULL%0,                Yi%Zhang%NULL%0,                Hua%Chen%NULL%0,                Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Moran%Amit%NULL%0,                Alex%Sorkin%NULL%0,                Jacob%Chen%NULL%0,                Barak%Cohen%NULL%0,                Barak%Cohen%NULL%0,                Dana%Karol%NULL%0,                Dana%Karol%NULL%0,                Avishai M%Tsur%NULL%0,                Shaul%Lev%NULL%0,                Shaul%Lev%NULL%0,                Tal%Rozenblat%NULL%0,                Ayana%Dvir%NULL%0,                Ayana%Dvir%NULL%0,                Geva%Landau%NULL%0,                Lidar%Fridrich%NULL%0,                Lidar%Fridrich%NULL%0,                Elon%Glassberg%NULL%0,                Shani%Kesari%NULL%0,                Sigal%Sviri%NULL%0,                Ram%Gelman%NULL%0,                Asaf%Miller%NULL%0,                Danny%Epstein%NULL%0,                Ronny%Ben-Avi%NULL%0,                Ronny%Ben-Avi%NULL%0,                Moshe%Matan%NULL%0,                Daniel J.%Jakobson%NULL%0,                Daniel J.%Jakobson%NULL%0,                Tarif%Bader%NULL%0,                Tarif%Bader%NULL%0,                David%Dahan%NULL%0,                David%Dahan%NULL%0,                Daniel A.%King%NULL%0,                Anat%Ben-Ari%NULL%0,                Arie%Soroksky%NULL%0,                Alon%Bar%NULL%0,                Alon%Bar%NULL%0,                Noam%Fink%NULL%0,                Pierre%Singer%NULL%0,                Avi%Benov%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,                John R%Adler%NULL%0,                Muhammad Sohaib%Asghar%NULL%0,                Muhammad Sohaib%Asghar%NULL%0,                Syed Jawad%Haider Kazmi%NULL%0,                Noman%Ahmed Khan%NULL%0,                Mohammed%Akram%NULL%0,                Salman%Ahmed Khan%NULL%0,                Uzma%Rasheed%NULL%0,                Maira%Hassan%NULL%0,                Gul Muhammad%Memon%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pedro%Baqui%NULL%0,                Ioana%Bica%NULL%0,                Valerio%Marra%marra@cosmo-ufes.org%0,                Ari%Ercole%NULL%0,                Mihaela%van der Schaar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anesi%Adriano%coreGivesNoEmail%0,               Bettinardi%Alessandra%coreGivesNoEmail%0,               Bonetti%Graziella%coreGivesNoEmail%0,               Borrelli%Gianluca%coreGivesNoEmail%0,               Fiordalisi%Gianfranco%coreGivesNoEmail%0,               Lippi%Giuseppe%coreGivesNoEmail%0,               Manelli%Filippo%coreGivesNoEmail%0,               Marino%Antonio%coreGivesNoEmail%0,               Menolfi%Annamaria%coreGivesNoEmail%0,               Patroni%Andrea%coreGivesNoEmail%0,               Saggini%Sara%coreGivesNoEmail%0,               Volpi%Roberta%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Andrea%Borghesi%NULL%0,                Angelo%Zigliani%NULL%0,                Salvatore%Golemi%NULL%0,                Nicola%Carapella%NULL%0,                Patrizia%Maculotti%NULL%0,                Davide%Farina%NULL%0,                Roberto%Maroldi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alberto M.%Borobia%NULL%0,                Antonio J.%Carcas%NULL%0,                Antonio J.%Carcas%NULL%0,                Francisco%Arnalich%NULL%0,                Rodolfo%Álvarez-Sala%NULL%0,                Rodolfo%Álvarez-Sala%NULL%0,                Jaime%Monserrat-Villatoro%NULL%0,                Manuel%Quintana%NULL%0,                Juan Carlos%Figueira%NULL%0,                Rosario M.%Torres Santos-Olmo%NULL%0,                Julio%García-Rodríguez%NULL%0,                Julio%García-Rodríguez%NULL%0,                Alberto%Martín-Vega%NULL%0,                Antonio%Buño%NULL%0,                Elena%Ramírez%NULL%0,                Gonzalo%Martínez-Alés%NULL%0,                Gonzalo%Martínez-Alés%NULL%0,                Nicolás%García-Arenzana%NULL%0,                M. Concepción%Núñez%NULL%0,                M. Concepción%Núñez%NULL%0,                Milagros%Martí-de-Gracia%NULL%0,                Francisco%Moreno Ramos%NULL%0,                Francisco%Reinoso-Barbero%NULL%0,                Alejandro%Martin-Quiros%NULL%0,                Angélica%Rivera Núñez%NULL%0,                Jesús%Mingorance%NULL%0,                Carlos J.%Carpio Segura%NULL%0,                Carlos J.%Carpio Segura%NULL%0,                Daniel%Prieto Arribas%NULL%0,                Esther%Rey Cuevas%NULL%0,                Concepción%Prados Sánchez%NULL%0,                Juan J.%Rios%NULL%0,                Miguel A.%Hernán%NULL%0,                Jesús%Frías%NULL%0,                José R.%Arribas%NULL%0,                NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simon E.%Brill%simon.brill@nhs.net%0,                Hannah C.%Jarvis%NULL%0,                Hannah C.%Jarvis%NULL%0,                Ezgi%Ozcan%NULL%0,                Thomas L. P.%Burns%NULL%0,                Rabia A.%Warraich%NULL%0,                Lisa J.%Amani%NULL%0,                Amina%Jaffer%NULL%0,                Stephanie%Paget%NULL%0,                Anand%Sivaramakrishnan%NULL%0,                Dean D.%Creer%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                Wenlin%Cheng%NULL%0,                Lei%Yu%NULL%0,                Ya-Kun%Liu%NULL%0,                Xiaoyong%Hu%NULL%0,                Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[B.%Carter%NULL%0,                J.T.%Collins%NULL%0,                F.%Barlow-Pay%NULL%0,                F.%Rickard%NULL%0,                E.%Bruce%NULL%0,                A.%Verduri%NULL%0,                T.J.%Quinn%NULL%0,                E.%Mitchell%NULL%0,                A.%Price%NULL%0,                A.%Vilches-Moraga%NULL%0,                M.J.%Stechman%NULL%0,                R.%Short%NULL%0,                A.%Einarsson%NULL%0,                P.%Braude%NULL%0,                S.%Moug%NULL%0,                P.K.%Myint%NULL%0,                J.%Hewitt%NULL%0,                L.%Pearce%NULL%0,                K.%McCarthy%NULL%0,                C.%Davey%NULL%0,                S.%Jones%NULL%0,                K.%Lunstone%NULL%0,                A.%Cavenagh%NULL%0,                C.%Silver%NULL%0,                T.%Telford%NULL%0,                R.%Simmons%NULL%0,                M.%Holloway%NULL%0,                J.%Hesford%NULL%0,                T.%El Jichi Mutasem%NULL%0,                S.%Singh%NULL%0,                D.%Paxton%NULL%0,                W.%Harris%NULL%0,                N.%Galbraith%NULL%0,                E.%Bhatti%NULL%0,                J.%Edwards%NULL%0,                S.%Duffy%NULL%0,                J.%Kelly%NULL%0,                C.%Murphy%NULL%0,                C.%Bisset%NULL%0,                R.%Alexander%NULL%0,                M.%Garcia%NULL%0,                S.%Sangani%NULL%0,                T.%Kneen%NULL%0,                T.%Lee%NULL%0,                A.%McGovern%NULL%0,                G.%Guaraldi%NULL%0,                E.%Clini%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fuyang%Chen%NULL%0,                Wenwu%Sun%NULL%0,                Shengrong%Sun%NULL%0,                Zhiyu%Li%lizhiyu@whu.edu.cn%0,                Zhong%Wang%zhongwangchn@whu.edu.cn%0,                Li%Yu%yuliwhzxyy@163.com%0,                Li%Yu%yuliwhzxyy@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,                Ling%Sang%NULL%0,                Mei%Jiang%NULL%0,                Zhaowei%Yang%NULL%0,                Nan%Jia%NULL%0,                Wanyi%Fu%NULL%0,                Jiaxing%Xie%NULL%0,                Weijie%Guan%NULL%0,                Wenhua%Liang%NULL%0,                Zhengyi%Ni%NULL%0,                Yu%Hu%NULL%0,                Lei%Liu%NULL%0,                Hong%Shan%NULL%0,                Chunliang%Lei%NULL%0,                Yixiang%Peng%NULL%0,                Li%Wei%NULL%0,                Yong%Liu%NULL%0,                Yahua%Hu%NULL%0,                Peng%Peng%NULL%0,                Jianming%Wang%NULL%0,                Jiyang%Liu%NULL%0,                Zhong%Chen%NULL%0,                Gang%Li%NULL%0,                Zhijian%Zheng%NULL%0,                Shaoqin%Qiu%NULL%0,                Jie%Luo%NULL%0,                Changjiang%Ye%NULL%0,                Shaoyong%Zhu%NULL%0,                Jinping%Zheng%NULL%0,                Nuofu%Zhang%NULL%0,                Yimin%Li%NULL%0,                Jianxing%He%NULL%0,                Jing%Li%NULL%0,                Shiyue%Li%NULL%0,                Nanshan%Zhong%NULL%0,                NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                Di%Wu%NULL%0,                Huilong%Chen%NULL%0,                Weiming%Yan%NULL%0,                Danlei%Yang%NULL%0,                Guang%Chen%NULL%0,                Ke%Ma%NULL%0,                Dong%Xu%NULL%0,                Haijing%Yu%NULL%0,                Hongwu%Wang%NULL%0,                Tao%Wang%NULL%0,                Wei%Guo%NULL%0,                Jia%Chen%NULL%0,                Chen%Ding%NULL%0,                Xiaoping%Zhang%NULL%0,                Jiaquan%Huang%NULL%0,                Meifang%Han%NULL%0,                Shusheng%Li%NULL%0,                Xiaoping%Luo%NULL%0,                Jianping%Zhao%NULL%0,                Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anying%Cheng%NULL%0,                Liu%Hu%NULL%0,                Yiru%Wang%NULL%0,                Luyan%Huang%NULL%0,                Lingxi%Zhao%NULL%0,                Congcong%Zhang%NULL%0,                Xiyue%Liu%NULL%0,                Ranran%Xu%NULL%0,                Feng%Liu%NULL%0,                Jinping%Li%NULL%0,                Dawei%Ye%NULL%0,                Tao%Wang%NULL%0,                Yongman%Lv%lvyongman@126.com%0,                Qingquan%Liu%qqliutj@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fabio%Ciceri%ciceri.fabio@hsr.it%0,                Antonella%Castagna%NULL%0,                Patrizia%Rovere-Querini%NULL%0,                Francesco%De Cobelli%NULL%0,                Annalisa%Ruggeri%NULL%0,                Laura%Galli%NULL%0,                Caterina%Conte%NULL%0,                Rebecca%De Lorenzo%NULL%0,                Andrea%Poli%NULL%0,                Alberto%Ambrosio%NULL%0,                Carlo%Signorelli%NULL%0,                Eleonora%Bossi%NULL%0,                Maria%Fazio%NULL%0,                Cristina%Tresoldi%NULL%0,                Sergio%Colombo%NULL%0,                Giacomo%Monti%NULL%0,                Efgeny%Fominskiy%NULL%0,                Stefano%Franchini%NULL%0,                Marzia%Spessot%NULL%0,                Carlo%Martinenghi%NULL%0,                Michele%Carlucci%NULL%0,                Luigi%Beretta%NULL%0,                Anna Maria%Scandroglio%NULL%0,                Massimo%Clementi%NULL%0,                Massimo%Locatelli%NULL%0,                Moreno%Tresoldi%NULL%0,                Paolo%Scarpellini%NULL%0,                Gianvito%Martino%NULL%0,                Emanuele%Bosi%NULL%0,                Lorenzo%Dagna%NULL%0,                Adriano%Lazzarin%NULL%0,                Giovanni%Landoni%NULL%0,                Alberto%Zangrillo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,                Wei%Liu%NULL%0,                Kui%Liu%NULL%0,                Yuan-Yuan%Fang%NULL%0,                Jin%Shang%NULL%0,                Ling%Zhou%NULL%0,                Ke%Wang%NULL%0,                Fan%Leng%NULL%0,                Shuang%Wei%NULL%0,                Lei%Chen%NULL%0,                Hui-Guo%Liu%NULL%0,                Pei-Fang%Wei%NULL%0,                Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                Li-Rong%Liang%NULL%0,                Cheng-Qing%Yang%NULL%0,                Wen%Wang%NULL%0,                Tan-Ze%Cao%NULL%0,                Ming%Li%NULL%0,                Guang-Yun%Guo%NULL%0,                Juan%Du%NULL%0,                Chun-Lan%Zheng%NULL%0,                Qi%Zhu%NULL%0,                Ming%Hu%NULL%0,                Xu-Yan%Li%NULL%0,                Peng%Peng%NULL%0,                Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shan%Gao%NULL%0,                Fang%Jiang%NULL%0,                Wei%Jin%NULL%0,                Yuan%Shi%NULL%0,                Leilei%Yang%NULL%0,                Yanqiong%Xia%NULL%0,                Linyan%Jia%NULL%0,                Bo%Wang%NULL%0,                Han%Lin%NULL%0,                Yin%Cai%NULL%0,                Zhengyuan%Xia%NULL%0,                Jian%Peng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pedro David%Wendel Garcia%pedrodavid.wendelgarcia@usz.ch%0,                Thierry%Fumeaux%thierry.fumeaux@ghol.ch%0,                Philippe%Guerci%NULL%0,                Dorothea Monika%Heuberger%dorotheamonika.heuberger@usz.ch%0,                Jonathan%Montomoli%NULL%0,                Ferran%Roche-Campo%NULL%0,                Reto Andreas%Schuepbach%reto.schuepbach@usz.ch%0,                Matthias Peter%Hilty%matthias.hilty@usz.ch%0,                Mario%Alfaro Farias%NULL%0,                Antoni%Margarit%NULL%0,                Gerardo%Vizmanos-Lamotte%NULL%0,                Thomas%Tschoellitsch%NULL%0,                Jens%Meier%NULL%0,                Francesco S.%Cardona%NULL%0,                Josef%Skola%NULL%0,                Lenka%Horakova%NULL%0,                Hernan%Aguirre-Bermeo%NULL%0,                Janina%Apolo%NULL%0,                Emmanuel%Novy%NULL%0,                Marie-Reine%Losser%NULL%0,                Geoffrey%Jurkolow%NULL%0,                Gauthier%Delahaye%NULL%0,                Sascha%David%NULL%0,                Tobias%Welte%NULL%0,                Tobias%Wengenmayer%NULL%0,                Dawid L.%Staudacher%NULL%0,                Theodoros%Aslanidis%NULL%0,                Barna%Babik%NULL%0,                Anita%Korsos%NULL%0,                Janos%Gal%NULL%0,                Hermann%Csaba%NULL%0,                Abele%Donati%NULL%0,                Andrea%Carsetti%NULL%0,                Fabrizio%Turrini%NULL%0,                Maria Sole%Simonini%NULL%0,                Roberto%Ceriani%NULL%0,                Martina%Murrone%NULL%0,                Emanuele%Rezoagli%NULL%0,                Giovanni%Vitale%NULL%0,                Alberto%Fogagnolo%NULL%0,                Savino%Spadaro%NULL%0,                Maddalena Alessandra%Wu%NULL%0,                Chiara%Cogliati%NULL%0,                Riccardo%Colombo%NULL%0,                Emanuele%Catena%NULL%0,                Francesca%Facondini%NULL%0,                Antonella%Potalivo%NULL%0,                Gianfilippo%Gangitano%NULL%0,                Tiziana%Perin%NULL%0,                Maria Grazia%Bocci%NULL%0,                Massimo%Antonelli%NULL%0,                Diederik%Gommers%NULL%0,                Can%Ince%NULL%0,                Eric%Mayor-Vázquez%NULL%0,                Maria%Cruz%NULL%0,                Martin%Delgado%NULL%0,                Raquel Rodriguez%Garcia%NULL%0,                Jorge%Gamez Zapata%NULL%0,                Begoña%Zalba-Etayo%NULL%0,                Herminia%Lozano-Gomez%NULL%0,                Pedro%Castro%NULL%0,                Adrian%Tellez%NULL%0,                Adriana%Jacas%NULL%0,                Guido%Muñoz%NULL%0,                Rut%Andrea%NULL%0,                Jose%Ortiz%NULL%0,                Eduard%Quintana%NULL%0,                Irene%Rovira%NULL%0,                Enric%Reverter%NULL%0,                Javier%Fernandez%NULL%0,                Miquel%Ferrer%NULL%0,                Joan R.%Badia%NULL%0,                Arantxa%Lander Azcona%NULL%0,                Jesus Escos%Orta%NULL%0,                Philipp%Bühler%NULL%0,                Silvio%Brugger%NULL%0,                Daniel%Hofmaenner%NULL%0,                Simone%Unseld%NULL%0,                Frank%Ruschitzka%NULL%0,                Mallory%Moret-Bochatay%NULL%0,                Bernd%Yuen%NULL%0,                Thomas%Hillermann%NULL%0,                Hatem%Ksouri%NULL%0,                Govind Oliver%Sridharan%NULL%0,                Anette%Ristic%NULL%0,                Michael%Sepulcri%NULL%0,                Miodrag%Filipovic%NULL%0,                Urs%Pietsch%NULL%0,                Petra%Salomon%NULL%0,                Iris%Drvaric%NULL%0,                Peter%Schott%NULL%0,                Severin%Urech%NULL%0,                Adriana%Lambert%NULL%0,                Lukas%Merki%NULL%0,                Marcus%Laube%NULL%0,                Frank%Hillgaertner%NULL%0,                Marianne%Sieber%NULL%0,                Alexander%Dullenkopf%NULL%0,                Lina%Petersen%NULL%0,                Serge%Grazioli%NULL%0,                Peter C.%Rimensberger%NULL%0,                Isabelle%Fleisch%NULL%0,                Jerome%Lavanchy%NULL%0,                Katharina%Marquardt%NULL%0,                Karim%Shaikh%NULL%0,                Hermann%Redecker%NULL%0,                Michael%Stephan%NULL%0,                Jan%Brem%NULL%0,                Bjarte%Rogdo%NULL%0,                Andre%Birkenmaier%NULL%0,                Friederike%Meyer zu Bentrup%NULL%0,                Patricia%Fodor%NULL%0,                Pascal%Locher%NULL%0,                Giovanni%Camen%NULL%0,                Martin%Siegemund%NULL%0,                Nuria%Zellweger%NULL%0,                Marie-Madlen%Jeitziner%NULL%0,                Beatrice%Jenni-Moser%NULL%0,                Christian%Bürkle%NULL%0,                Gian-Reto%Kleger%NULL%0,                Marilene%Franchitti Laurent%NULL%0,                Jean-Christophe%Laurent%NULL%0,                Tomislav%Gaspert%NULL%0,                Marija%Jovic%NULL%0,                Michael%Studhalter%NULL%0,                Christoph%Haberthuer%NULL%0,                Roger F.%Lussman%NULL%0,                Daniela%Selz%NULL%0,                Didier%Naon%NULL%0,                Romano%Mauri%NULL%0,                Samuele%Ceruti%NULL%0,                Julien%Marrel%NULL%0,                Mirko%Brenni%NULL%0,                Rolf%Ensner%NULL%0,                Nadine%Gehring%NULL%0,                Antje%Heise%NULL%0,                Tobias%Huebner%NULL%0,                Thomas A.%Neff%NULL%0,                Sara%Cereghetti%NULL%0,                Filippo%Boroli%NULL%0,                Jerome%Pugin%NULL%0,                Nandor%Marczin%NULL%0,                Joyce%Wong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Warren%Gavin%NULL%0,                Elliott%Campbell%NULL%0,                Syed-Adeel%Zaidi%NULL%0,                Neha%Gavin%NULL%0,                Lana%Dbeibo%NULL%0,                Cole%Beeler%NULL%0,                Kari%Kuebler%NULL%0,                Ahmed%Abdel-Rahman%NULL%0,                Mark%Luetkemeyer%NULL%0,                Areeba%Kara%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Vijay%Gayam%vgayam@interfaithmedical.com%0,                Muchi Ditah%Chobufo%NULL%0,                Muchi Ditah%Chobufo%NULL%0,                Mohamed A.%Merghani%NULL%0,                Mohamed A.%Merghani%NULL%0,                Shristi%Lamichhane%NULL%0,                Pavani Reddy%Garlapati%NULL%0,                Mark K.%Adler%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Cao%Y%coreGivesNoEmail%0,               Imam%Z%coreGivesNoEmail%0,               Lippi%G%coreGivesNoEmail%0,               Oran%DP%coreGivesNoEmail%0,               Shi%S%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Hai%Hu%huhai@wchscu.cn%0,                Ni%Yao%NULL%0,                Ni%Yao%NULL%0,                Yanru%Qiu%NULL%0,                John H.%Burton%NULL%0,                John H.%Burton%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jiaofeng%Huang%NULL%0,                Aiguo%Cheng%NULL%0,                Rahul%Kumar%NULL%0,                Yingying%Fang%NULL%0,                Yingying%Fang%NULL%0,                Gongping%Chen%NULL%0,                Yueyong%Zhu%NULL%0,                Su%Lin%sumer5129@fjmu.edu.cn%0,                Su%Lin%sumer5129@fjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%0,                Ju-Hyun%Kim%NULL%0,                Jin-Sung%Park%NULL%0,                Min Cheol%Chang%wheel633@ynu.ac.kr%0,                Donghwi%Park%bdome@hanmail.net%0]</t>
+  </si>
+  <si>
+    <t>[K.%Khalil%NULL%0,                K.%Agbontaen%NULL%0,                D.%McNally%NULL%0,                A.%Love%NULL%0,                S.%Mandalia%NULL%0,                W.%Banya%NULL%0,                E.%Starren%NULL%0,                R.%Dhunnookchand%NULL%0,                H.%Farne%NULL%0,                R.%Morton%NULL%0,                G.%Davies%NULL%0,                O.%Orhan%NULL%0,                D%Lai%NULL%0,                M.%Nelson%NULL%0,                P.L.%Shah%NULL%0,                J.L.%Garner%Justin.garner@chelwest.nhs.uk%0]</t>
+  </si>
+  <si>
+    <t>[Eyal%Klang%NULL%0,                Gassan%Kassim%NULL%0,                Shelly%Soffer%soffer.shelly@gmail.com%0,                Robert%Freeman%NULL%0,                Robert%Freeman%NULL%0,                Matthew A.%Levin%NULL%0,                Matthew A.%Levin%NULL%0,                David L.%Reich%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sandeep%Krishnan%NULL%0,                Kinjal%Patel%NULL%0,                Ronak%Desai%NULL%0,                Anupam%Sule%NULL%0,                Peter%Paik%NULL%0,                Ashley%Miller%NULL%0,                Alicia%Barclay%NULL%0,                Adam%Cassella%NULL%0,                Jon%Lucaj%NULL%0,                Yvonne%Royster%NULL%0,                Joffer%Hakim%NULL%0,                Zulfiqar%Ahmed%NULL%0,                Farhad%Ghoddoussi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Manisha%Bhutani%null%0,      David M.%Foureau%null%0,      Shebli%Atrash%null%0,      Peter M.%Voorhees%null%0,      Saad Z.%Usmani%null%0]</t>
+  </si>
+  <si>
+    <t>[Wil%Lieberman-Cribbin%NULL%0,                Joseph%Rapp%NULL%0,                Naomi%Alpert%NULL%0,                Stephanie%Tuminello%NULL%0,                Emanuela%Taioli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Q.%Liu%NULL%0,                N. C.%Song%NULL%0,                Z. K.%Zheng%NULL%0,                J. S.%Li%NULL%0,                S. K.%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Long%NULL%0,                Lan%Nie%NULL%0,                Xiaochen%Xiang%NULL%0,                Huan%Li%NULL%0,                Xiaoli%Zhang%NULL%0,                Xiaozhi%Fu%NULL%0,                Hongwei%Ren%NULL%0,                Wanxin%Liu%NULL%0,                Qiang%Wang%wangqiang@wust.edu.cn%0,                Qingming%Wu%wuhe9224@sina.com%0,                Qingming%Wu%wuhe9224@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Miao%Luo%xref no email%0,        Jing%Liu%xref no email%0,        Weiling%Jiang%xref no email%0,        Shuang%Yue%xref no email%0,        Huiguo%Liu%xref no email%0,        Shuang%Wei%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Xiaomin%Luo%luoxiaomin04@163.com%0,                Wei%Zhou%NULL%0,                Xiaojie%Yan%NULL%0,                Tangxi%Guo%NULL%0,                Benchao%Wang%NULL%0,                Hongxia%Xia%NULL%0,                Lu%Ye%NULL%0,                Jun%Xiong%NULL%0,                Zongping%Jiang%NULL%0,                Yu%Liu%NULL%0,                Bicheng%Zhang%NULL%0,                Weize%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ying%Luo%NULL%0,                Liyan%Mao%NULL%0,                Xu%Yuan%NULL%0,                Ying%Xue%NULL%0,                Qun%Lin%NULL%0,                Guoxing%Tang%NULL%0,                Huijuan%Song%NULL%0,                Feng%Wang%fengwang@tjh.tjmu.edu.cn%0,                Ziyong%Sun%zysun@tjh.tjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ying%Luo%NULL%0,                Ying%Xue%NULL%0,                Liyan%Mao%NULL%0,                Xu%Yuan%NULL%0,                Qun%Lin%NULL%0,                Guoxing%Tang%NULL%0,                Huijuan%Song%NULL%0,                Feng%Wang%NULL%0,                Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chiara%Masetti%NULL%0,                Elena%Generali%NULL%0,                Francesca%Colapietro%NULL%0,                Antonio%Voza%NULL%0,                Maurizio%Cecconi%NULL%0,                Antonio%Messina%NULL%0,                Paolo%Omodei%NULL%0,                Claudio%Angelini%NULL%0,                Michele%Ciccarelli%NULL%0,                Salvatore%Badalamenti%NULL%0,                G. Walter%Canonica%NULL%0,                Ana%Lleo%ana.lleo@humanitas.it%0,                Alessio%Aghemo%NULL%0,                Alessio%Aghemo%NULL%0,                NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Takahisa%Mikami%NULL%0,                Hirotaka%Miyashita%NULL%0,                Takayuki%Yamada%NULL%0,                Matthew%Harrington%NULL%0,                Daniel%Steinberg%NULL%0,                Andrew%Dunn%NULL%0,                Evan%Siau%Evan.Siau@mountsinai.org%0]</t>
+  </si>
+  <si>
+    <t>[Alexis K.%Okoh%alexis.okoh@rwjbh.org%0,                Christoph%Sossou%NULL%0,                Christoph%Sossou%NULL%0,                Neha S.%Dangayach%NULL%0,                Sherin%Meledathu%NULL%0,                Oluwakemi%Phillips%NULL%0,                Corinne%Raczek%NULL%0,                Michael%Patti%NULL%0,                Nathan%Kang%NULL%0,                Sameer A.%Hirji%NULL%0,                Charles%Cathcart%NULL%0,                Christian%Engell%NULL%0,                Marc%Cohen%NULL%0,                Sandhya%Nagarakanti%NULL%0,                Eliahu%Bishburg%NULL%0,                Harpreet S.%Grewal%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -4006,7 +4171,7 @@
         <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>881</v>
+        <v>936</v>
       </c>
       <c r="F2" t="s">
         <v>73</v>
@@ -4035,7 +4200,7 @@
         <v>260</v>
       </c>
       <c r="E3" t="s">
-        <v>882</v>
+        <v>937</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -4064,7 +4229,7 @@
         <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>883</v>
+        <v>938</v>
       </c>
       <c r="F4" t="s">
         <v>79</v>
@@ -4093,7 +4258,7 @@
         <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>884</v>
+        <v>939</v>
       </c>
       <c r="F5" t="s">
         <v>83</v>
@@ -4122,7 +4287,7 @@
         <v>86</v>
       </c>
       <c r="E6" t="s">
-        <v>885</v>
+        <v>940</v>
       </c>
       <c r="F6" t="s">
         <v>87</v>
@@ -4180,7 +4345,7 @@
         <v>90</v>
       </c>
       <c r="E8" t="s">
-        <v>886</v>
+        <v>941</v>
       </c>
       <c r="F8" t="s">
         <v>91</v>
@@ -4209,7 +4374,7 @@
         <v>94</v>
       </c>
       <c r="E9" t="s">
-        <v>887</v>
+        <v>942</v>
       </c>
       <c r="F9" t="s">
         <v>95</v>
@@ -4238,7 +4403,7 @@
         <v>98</v>
       </c>
       <c r="E10" t="s">
-        <v>888</v>
+        <v>943</v>
       </c>
       <c r="F10" t="s">
         <v>99</v>
@@ -4267,7 +4432,7 @@
         <v>102</v>
       </c>
       <c r="E11" t="s">
-        <v>889</v>
+        <v>944</v>
       </c>
       <c r="F11" t="s">
         <v>103</v>
@@ -4296,7 +4461,7 @@
         <v>106</v>
       </c>
       <c r="E12" t="s">
-        <v>890</v>
+        <v>945</v>
       </c>
       <c r="F12" t="s">
         <v>107</v>
@@ -4325,7 +4490,7 @@
         <v>109</v>
       </c>
       <c r="E13" t="s">
-        <v>891</v>
+        <v>946</v>
       </c>
       <c r="F13" t="s">
         <v>110</v>
@@ -4354,7 +4519,7 @@
         <v>113</v>
       </c>
       <c r="E14" t="s">
-        <v>892</v>
+        <v>947</v>
       </c>
       <c r="F14" t="s">
         <v>114</v>
@@ -4383,7 +4548,7 @@
         <v>776</v>
       </c>
       <c r="E15" t="s">
-        <v>893</v>
+        <v>948</v>
       </c>
       <c r="F15" t="s">
         <v>118</v>
@@ -4412,7 +4577,7 @@
         <v>121</v>
       </c>
       <c r="E16" t="s">
-        <v>894</v>
+        <v>949</v>
       </c>
       <c r="F16" t="s">
         <v>122</v>
@@ -4441,7 +4606,7 @@
         <v>779</v>
       </c>
       <c r="E17" t="s">
-        <v>895</v>
+        <v>950</v>
       </c>
       <c r="F17" t="s">
         <v>125</v>
@@ -4470,7 +4635,7 @@
         <v>128</v>
       </c>
       <c r="E18" t="s">
-        <v>896</v>
+        <v>951</v>
       </c>
       <c r="F18" t="s">
         <v>129</v>
@@ -4499,7 +4664,7 @@
         <v>131</v>
       </c>
       <c r="E19" t="s">
-        <v>897</v>
+        <v>952</v>
       </c>
       <c r="F19" t="s">
         <v>132</v>
@@ -4528,7 +4693,7 @@
         <v>134</v>
       </c>
       <c r="E20" t="s">
-        <v>898</v>
+        <v>953</v>
       </c>
       <c r="F20" t="s">
         <v>135</v>
@@ -4557,7 +4722,7 @@
         <v>137</v>
       </c>
       <c r="E21" t="s">
-        <v>899</v>
+        <v>954</v>
       </c>
       <c r="F21" t="s">
         <v>138</v>
@@ -4586,7 +4751,7 @@
         <v>141</v>
       </c>
       <c r="E22" t="s">
-        <v>900</v>
+        <v>955</v>
       </c>
       <c r="F22" t="s">
         <v>142</v>
@@ -4615,7 +4780,7 @@
         <v>263</v>
       </c>
       <c r="E23" t="s">
-        <v>901</v>
+        <v>956</v>
       </c>
       <c r="F23" t="s">
         <v>23</v>
@@ -4644,7 +4809,7 @@
         <v>144</v>
       </c>
       <c r="E24" t="s">
-        <v>902</v>
+        <v>957</v>
       </c>
       <c r="F24" t="s">
         <v>145</v>
@@ -4673,7 +4838,7 @@
         <v>147</v>
       </c>
       <c r="E25" t="s">
-        <v>903</v>
+        <v>958</v>
       </c>
       <c r="F25" t="s">
         <v>148</v>
@@ -4702,7 +4867,7 @@
         <v>789</v>
       </c>
       <c r="E26" t="s">
-        <v>904</v>
+        <v>959</v>
       </c>
       <c r="F26" t="s">
         <v>152</v>
@@ -4731,7 +4896,7 @@
         <v>155</v>
       </c>
       <c r="E27" t="s">
-        <v>905</v>
+        <v>960</v>
       </c>
       <c r="F27" t="s">
         <v>156</v>
@@ -4760,7 +4925,7 @@
         <v>158</v>
       </c>
       <c r="E28" t="s">
-        <v>906</v>
+        <v>961</v>
       </c>
       <c r="F28" t="s">
         <v>159</v>
@@ -4789,7 +4954,7 @@
         <v>82</v>
       </c>
       <c r="E29" t="s">
-        <v>907</v>
+        <v>962</v>
       </c>
       <c r="F29" t="s">
         <v>162</v>
@@ -4818,7 +4983,7 @@
         <v>165</v>
       </c>
       <c r="E30" t="s">
-        <v>908</v>
+        <v>963</v>
       </c>
       <c r="F30" t="s">
         <v>166</v>
@@ -4847,7 +5012,7 @@
         <v>168</v>
       </c>
       <c r="E31" t="s">
-        <v>909</v>
+        <v>964</v>
       </c>
       <c r="F31" t="s">
         <v>169</v>
@@ -4876,7 +5041,7 @@
         <v>172</v>
       </c>
       <c r="E32" t="s">
-        <v>910</v>
+        <v>965</v>
       </c>
       <c r="F32" t="s">
         <v>173</v>
@@ -4905,7 +5070,7 @@
         <v>176</v>
       </c>
       <c r="E33" t="s">
-        <v>911</v>
+        <v>966</v>
       </c>
       <c r="F33" t="s">
         <v>177</v>
@@ -4934,7 +5099,7 @@
         <v>180</v>
       </c>
       <c r="E34" t="s">
-        <v>912</v>
+        <v>967</v>
       </c>
       <c r="F34" t="s">
         <v>181</v>
@@ -4963,7 +5128,7 @@
         <v>183</v>
       </c>
       <c r="E35" t="s">
-        <v>913</v>
+        <v>968</v>
       </c>
       <c r="F35" t="s">
         <v>184</v>
@@ -4992,7 +5157,7 @@
         <v>187</v>
       </c>
       <c r="E36" t="s">
-        <v>914</v>
+        <v>969</v>
       </c>
       <c r="F36" t="s">
         <v>188</v>
@@ -5021,7 +5186,7 @@
         <v>191</v>
       </c>
       <c r="E37" t="s">
-        <v>915</v>
+        <v>970</v>
       </c>
       <c r="F37" t="s">
         <v>192</v>
@@ -5050,7 +5215,7 @@
         <v>194</v>
       </c>
       <c r="E38" t="s">
-        <v>916</v>
+        <v>971</v>
       </c>
       <c r="F38" t="s">
         <v>195</v>
@@ -5079,7 +5244,7 @@
         <v>197</v>
       </c>
       <c r="E39" t="s">
-        <v>917</v>
+        <v>972</v>
       </c>
       <c r="F39" t="s">
         <v>198</v>
@@ -5108,7 +5273,7 @@
         <v>64</v>
       </c>
       <c r="E40" t="s">
-        <v>918</v>
+        <v>973</v>
       </c>
       <c r="F40" t="s">
         <v>41</v>
@@ -5137,7 +5302,7 @@
         <v>201</v>
       </c>
       <c r="E41" t="s">
-        <v>919</v>
+        <v>974</v>
       </c>
       <c r="F41" t="s">
         <v>202</v>
@@ -5166,7 +5331,7 @@
         <v>204</v>
       </c>
       <c r="E42" t="s">
-        <v>920</v>
+        <v>975</v>
       </c>
       <c r="F42" t="s">
         <v>205</v>
@@ -5195,7 +5360,7 @@
         <v>807</v>
       </c>
       <c r="E43" t="s">
-        <v>921</v>
+        <v>976</v>
       </c>
       <c r="F43" t="s">
         <v>209</v>
@@ -5224,7 +5389,7 @@
         <v>82</v>
       </c>
       <c r="E44" t="s">
-        <v>922</v>
+        <v>977</v>
       </c>
       <c r="F44" t="s">
         <v>212</v>
@@ -5253,7 +5418,7 @@
         <v>215</v>
       </c>
       <c r="E45" t="s">
-        <v>923</v>
+        <v>978</v>
       </c>
       <c r="F45" t="s">
         <v>216</v>
@@ -5282,7 +5447,7 @@
         <v>82</v>
       </c>
       <c r="E46" t="s">
-        <v>924</v>
+        <v>979</v>
       </c>
       <c r="F46" t="s">
         <v>219</v>
@@ -5340,7 +5505,7 @@
         <v>752</v>
       </c>
       <c r="E48" t="s">
-        <v>925</v>
+        <v>980</v>
       </c>
       <c r="F48" t="s">
         <v>49</v>
@@ -5369,7 +5534,7 @@
         <v>82</v>
       </c>
       <c r="E49" t="s">
-        <v>926</v>
+        <v>981</v>
       </c>
       <c r="F49" t="s">
         <v>229</v>
@@ -5398,7 +5563,7 @@
         <v>231</v>
       </c>
       <c r="E50" t="s">
-        <v>927</v>
+        <v>982</v>
       </c>
       <c r="F50" t="s">
         <v>232</v>
@@ -5427,7 +5592,7 @@
         <v>235</v>
       </c>
       <c r="E51" t="s">
-        <v>928</v>
+        <v>983</v>
       </c>
       <c r="F51" t="s">
         <v>236</v>
@@ -5456,7 +5621,7 @@
         <v>64</v>
       </c>
       <c r="E52" t="s">
-        <v>929</v>
+        <v>984</v>
       </c>
       <c r="F52" t="s">
         <v>53</v>
@@ -5485,7 +5650,7 @@
         <v>239</v>
       </c>
       <c r="E53" t="s">
-        <v>930</v>
+        <v>985</v>
       </c>
       <c r="F53" t="s">
         <v>240</v>
@@ -5514,7 +5679,7 @@
         <v>818</v>
       </c>
       <c r="E54" t="s">
-        <v>931</v>
+        <v>986</v>
       </c>
       <c r="F54" t="s">
         <v>243</v>
@@ -5543,7 +5708,7 @@
         <v>246</v>
       </c>
       <c r="E55" t="s">
-        <v>932</v>
+        <v>987</v>
       </c>
       <c r="F55" t="s">
         <v>247</v>
@@ -5572,7 +5737,7 @@
         <v>249</v>
       </c>
       <c r="E56" t="s">
-        <v>933</v>
+        <v>988</v>
       </c>
       <c r="F56" t="s">
         <v>250</v>
@@ -5601,7 +5766,7 @@
         <v>822</v>
       </c>
       <c r="E57" t="s">
-        <v>934</v>
+        <v>989</v>
       </c>
       <c r="F57" t="s">
         <v>254</v>
@@ -5630,7 +5795,7 @@
         <v>824</v>
       </c>
       <c r="E58" t="s">
-        <v>935</v>
+        <v>990</v>
       </c>
       <c r="F58" t="s">
         <v>257</v>

--- a/Covid_19_Dataset_and_References/References/44.xlsx
+++ b/Covid_19_Dataset_and_References/References/44.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5338" uniqueCount="991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6150" uniqueCount="1101">
   <si>
     <t>Doi</t>
   </si>
@@ -3819,6 +3819,336 @@
   </si>
   <si>
     <t>[Alexis K.%Okoh%alexis.okoh@rwjbh.org%0,                Christoph%Sossou%NULL%0,                Christoph%Sossou%NULL%0,                Neha S.%Dangayach%NULL%0,                Sherin%Meledathu%NULL%0,                Oluwakemi%Phillips%NULL%0,                Corinne%Raczek%NULL%0,                Michael%Patti%NULL%0,                Nathan%Kang%NULL%0,                Sameer A.%Hirji%NULL%0,                Charles%Cathcart%NULL%0,                Christian%Engell%NULL%0,                Marc%Cohen%NULL%0,                Sandhya%Nagarakanti%NULL%0,                Eliahu%Bishburg%NULL%0,                Harpreet S.%Grewal%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%0,                 Lian%Yang%NULL%0,                 Yuncheng%Li%NULL%0,                 Bo%Liang%NULL%0,                 Lin%Li%NULL%0,                 Tianhe%Ye%NULL%0,                 Lingli%Li%NULL%0,                 Dehan%Liu%NULL%0,                 Shan%Gui%NULL%0,                 Yu%Hu%NULL%0,                 Chuansheng%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                Becker%L.B.%coreGivesNoEmail%0,                Chelico%J.D.%coreGivesNoEmail%0,                Cohen%S.L.%coreGivesNoEmail%0,                Cookingham%J.%coreGivesNoEmail%0,                Coppa%K.%coreGivesNoEmail%0,                Crawford%J.M.%coreGivesNoEmail%0,                Davidson%K.W.%coreGivesNoEmail%0,                Diefenbach%M.A.%coreGivesNoEmail%0,                Dominello%A.J.%coreGivesNoEmail%0,                Duer-Hefele%J.%coreGivesNoEmail%0,                Falzon%L.%coreGivesNoEmail%0,                Gitlin%J.%coreGivesNoEmail%0,                Hajizadeh%N.%coreGivesNoEmail%0,                Harvin%T.G.%coreGivesNoEmail%0,                Hirsch%J.S.%coreGivesNoEmail%0,                Hirschwerk%D.A.%coreGivesNoEmail%0,                Kim%E.J.%coreGivesNoEmail%0,                Kozel%Z.M.%coreGivesNoEmail%0,                Marrast%L.M.%coreGivesNoEmail%0,                McGinn%T.%coreGivesNoEmail%0,                Mogavero%J.N.%coreGivesNoEmail%0,                Narasimhan%M.%coreGivesNoEmail%0,                Osorio%G.A.%coreGivesNoEmail%0,                Qiu%M.%coreGivesNoEmail%0,                Richardson%S.%coreGivesNoEmail%0,                Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Mario%Rivera-Izquierdo%NULL%0,                 María%del Carmen Valero-Ubierna%NULL%0,                 María%del Carmen Valero-Ubierna%NULL%0,                 Juan Luis%R-delAmo%NULL%0,                 Miguel Ángel%Fernández-García%NULL%0,                 Silvia%Martínez-Diz%NULL%0,                 Arezu%Tahery-Mahmoud%NULL%0,                 Marta%Rodríguez-Camacho%NULL%0,                 Ana Belén%Gámiz-Molina%NULL%0,                 Nicolás%Barba-Gyengo%NULL%0,                 Pablo%Gámez-Baeza%NULL%0,                 Celia%Cabrero-Rodríguez%NULL%0,                 Pedro Antonio%Guirado-Ruiz%NULL%0,                 Divina Tatiana%Martín-Romero%NULL%0,                 Antonio Jesús%Láinez-Ramos-Bossini%NULL%0,                 María Rosa%Sánchez-Pérez%NULL%0,                 José%Mancera-Romero%NULL%0,                 Miguel%García-Martín%NULL%0,                 Luis Miguel%Martín-delosReyes%NULL%0,                 Virginia%Martínez-Ruiz%NULL%0,                 Virginia%Martínez-Ruiz%NULL%0,                 Pablo%Lardelli-Claret%NULL%0,                 Eladio%Jiménez-Mejías%NULL%0,                 Muhammad%Adrish%NULL%0,                 Muhammad%Adrish%NULL%0,                 NULL%NULL%NULL%0,                 NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,                 Kun%Yang%NULL%0,                 Kun%Yang%NULL%0,                 Wenxia%Wang%NULL%0,                 Wenxia%Wang%NULL%0,                 Lingyu%Jiang%NULL%0,                 Lingyu%Jiang%NULL%0,                 Jianxin%Song%songsingsjx@sina.com%0,                 Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Grace%Salacup%salacupg@einstein.edu%0,                 Kevin Bryan%Lo%NULL%0,                 Kevin Bryan%Lo%NULL%0,                 Fahad%Gul%NULL%0,                 Eric%Peterson%NULL%0,                 Robert%De Joy%NULL%0,                 Ruchika%Bhargav%NULL%0,                 Jerald%Pelayo%NULL%0,                 Jeri%Albano%NULL%0,                 Zurab%Azmaiparashvili%NULL%0,                 Sadia%Benzaquen%NULL%0,                 Gabriel%Patarroyo‐Aponte%NULL%0,                 Janani%Rangaswami%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yufeng%Shang%NULL%0,                 Tao%Liu%NULL%0,                 Yongchang%Wei%NULL%0,                 Jingfeng%Li%NULL%0,                 Liang%Shao%NULL%0,                 Minghui%Liu%NULL%0,                 Yongxi%Zhang%NULL%0,                 Zhigang%Zhao%NULL%0,                 Haibo%Xu%NULL%0,                 Zhiyong%Peng%NULL%0,                 Fuling%Zhou%zhoufuling@whu.edu.cn%0,                 Xinghuan%Wang%wangxinghuan@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,                 Mu%Qin%qinmuae@163.com%0,                 Yuli%Cai%NULL%0,                 Tao%Liu%NULL%0,                 Bo%Shen%NULL%0,                 Fan%Yang%NULL%0,                 Sheng%Cao%NULL%0,                 Xu%Liu%NULL%0,                 Xu%Liu%NULL%0,                 Yaozu%Xiang%NULL%0,                 Qinyan%Zhao%NULL%0,                 He%Huang%huanghe1977@whu.edu.cn%0,                 Bo%Yang%yybb112@whu.edu.cn%0,                 Congxin%Huang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rita de Cássia Menezes%Soares%NULL%0,                 Larissa Rodrigues%Mattos%NULL%0,                 Letícia Martins%Raposo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,                 Ruoqi%Ning%NULL%0,                 Yu%Tao%NULL%0,                 Chong%Yu%NULL%0,                 Xiaoyan%Deng%NULL%0,                 Caili%Zhao%NULL%0,                 Silu%Meng%NULL%0,                 Fangxu%Tang%89650793@qq.com%0,                 Dong%Xu%89650793@qq.com%0,                 Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Kun%Wang%NULL%0,                 Peiyuan%Zuo%NULL%0,                 Yuwei%Liu%NULL%0,                 Meng%Zhang%NULL%0,                 Xiaofang%Zhao%NULL%0,                 Songpu%Xie%NULL%0,                 Hao%Zhang%NULL%0,                 Xinglin%Chen%NULL%0,                 Chengyun%Liu%chengyunliu@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Bo%XU%NULL%0,                 Cun-yu%FAN%NULL%0,                 An-lu%WANG%NULL%0,                 Yi-long%ZOU%NULL%0,                 Yi-han%YU%NULL%0,                 Cong%HE%NULL%0,                 Wen-guang%XIA%NULL%0,                 Ji-xian%ZHANG%NULL%0,                 Qing%MIAO%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xisheng%Yan%NULL%0,                 Fen%Li%NULL%0,                 Xiao%Wang%NULL%0,                 Jie%Yan%NULL%0,                 Fen%Zhu%NULL%0,                 Shifan%Tang%NULL%0,                 Yingzhong%Deng%NULL%0,                 Hua%Wang%NULL%0,                 Rui%Chen%NULL%0,                 Zhili%Yu%NULL%0,                 Yaping%Li%NULL%0,                 Jingzhou%Shang%NULL%0,                 Lingjun%Zeng%NULL%0,                 Jie%Zhao%NULL%0,                 Chaokun%Guan%NULL%0,                 Qiaomei%Liu%NULL%0,                 Haifeng%Chen%NULL%0,                 Wei%Gong%NULL%0,                 Xin%Huang%NULL%0,                 Yu‐Jiao%Zhang%NULL%0,                 Jianguang%Liu%NULL%0,                 Xiaoyan%Dong%NULL%0,                 Wen%Zheng%zhengwen12@mails.jlu.edu.cn%0,                 Shaoping%Nie%spnie@126.com%0,                 Dongsheng%Li%dongshengli196809@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qing%Yang%NULL%0,                 Ying%Zhou%NULL%0,                 Xinrong%Wang%NULL%0,                 Shan%Gao%NULL%0,                 Yang%Xiao%NULL%0,                 Weiming%Zhang%NULL%0,                 Yi%Hu%huyizxyy@163.com%0,                 Yafei%Wang%wyf_527@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                 Qingyu%Yang%NULL%0,                 Yaxin%Wang%NULL%0,                 Yongran%Wu%NULL%0,                 Jiqian%Xu%NULL%0,                 Yuan%Yu%NULL%0,                 You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wenjing%Ye%yewenjing@xinhuamed.com.cn%0,                 Guoxi%Chen%4799082@qq.com%0,                 Xiaopan%Li%xiaopanli0224@126.com%0,                 Xing%Lan%474137452@qq.com%0,                 Chen%Ji%c.ji.3@warwick.ac.uk%0,                 Min%Hou%min-hou710@hotmail.com%0,                 Di%Zhang%zhangdizhangdi1234@163.com%0,                 Guangwang%Zeng%785663609@qq.com%0,                 Yaling%Wang%953822402@qq.com%0,                 Cheng%Xu%xucheng112358@126.com%0,                 Weiwei%Lu%luweiwei100@126.com%0,                 Ruolin%Cui%crlqwerty@163.com%0,                 Yuyang%Cai%caiyuyang@sjtu.edu.cn%0,                 Hai%Huang%1220775601@qq.com%0,                 Ling%Yang%yangling01@xinhuamed.com.cn%0]</t>
+  </si>
+  <si>
+    <t>[Caizheng%Yu%NULL%0,                 Qing%Lei%NULL%0,                 Wenkai%Li%NULL%0,                 Xiong%Wang%NULL%0,                 Wei%Liu%NULL%0,                 Xionglin%Fan%NULL%0,                 Wengang%Li%228907211@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                 Ting%Yu%NULL%0,                 Ronghui%Du%NULL%0,                 Guohui%Fan%NULL%0,                 Ying%Liu%NULL%0,                 Zhibo%Liu%NULL%0,                 Jie%Xiang%NULL%0,                 Yeming%Wang%NULL%0,                 Bin%Song%NULL%0,                 Xiaoying%Gu%NULL%0,                 Lulu%Guan%NULL%0,                 Yuan%Wei%NULL%0,                 Hui%Li%NULL%0,                 Xudong%Wu%NULL%0,                 Jiuyang%Xu%NULL%0,                 Shengjin%Tu%NULL%0,                 Yi%Zhang%NULL%0,                 Hua%Chen%NULL%0,                 Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Moran%Amit%NULL%0,                 Alex%Sorkin%NULL%0,                 Jacob%Chen%NULL%0,                 Barak%Cohen%NULL%0,                 Barak%Cohen%NULL%0,                 Dana%Karol%NULL%0,                 Dana%Karol%NULL%0,                 Avishai M%Tsur%NULL%0,                 Shaul%Lev%NULL%0,                 Shaul%Lev%NULL%0,                 Tal%Rozenblat%NULL%0,                 Ayana%Dvir%NULL%0,                 Ayana%Dvir%NULL%0,                 Geva%Landau%NULL%0,                 Lidar%Fridrich%NULL%0,                 Lidar%Fridrich%NULL%0,                 Elon%Glassberg%NULL%0,                 Shani%Kesari%NULL%0,                 Sigal%Sviri%NULL%0,                 Ram%Gelman%NULL%0,                 Asaf%Miller%NULL%0,                 Danny%Epstein%NULL%0,                 Ronny%Ben-Avi%NULL%0,                 Ronny%Ben-Avi%NULL%0,                 Moshe%Matan%NULL%0,                 Daniel J.%Jakobson%NULL%0,                 Daniel J.%Jakobson%NULL%0,                 Tarif%Bader%NULL%0,                 Tarif%Bader%NULL%0,                 David%Dahan%NULL%0,                 David%Dahan%NULL%0,                 Daniel A.%King%NULL%0,                 Anat%Ben-Ari%NULL%0,                 Arie%Soroksky%NULL%0,                 Alon%Bar%NULL%0,                 Alon%Bar%NULL%0,                 Noam%Fink%NULL%0,                 Pierre%Singer%NULL%0,                 Avi%Benov%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,                 John R%Adler%NULL%0,                 Muhammad Sohaib%Asghar%NULL%0,                 Muhammad Sohaib%Asghar%NULL%0,                 Syed Jawad%Haider Kazmi%NULL%0,                 Noman%Ahmed Khan%NULL%0,                 Mohammed%Akram%NULL%0,                 Salman%Ahmed Khan%NULL%0,                 Uzma%Rasheed%NULL%0,                 Maira%Hassan%NULL%0,                 Gul Muhammad%Memon%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pedro%Baqui%NULL%0,                 Ioana%Bica%NULL%0,                 Valerio%Marra%marra@cosmo-ufes.org%0,                 Ari%Ercole%NULL%0,                 Mihaela%van der Schaar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anesi%Adriano%coreGivesNoEmail%0,                Bettinardi%Alessandra%coreGivesNoEmail%0,                Bonetti%Graziella%coreGivesNoEmail%0,                Borrelli%Gianluca%coreGivesNoEmail%0,                Fiordalisi%Gianfranco%coreGivesNoEmail%0,                Lippi%Giuseppe%coreGivesNoEmail%0,                Manelli%Filippo%coreGivesNoEmail%0,                Marino%Antonio%coreGivesNoEmail%0,                Menolfi%Annamaria%coreGivesNoEmail%0,                Patroni%Andrea%coreGivesNoEmail%0,                Saggini%Sara%coreGivesNoEmail%0,                Volpi%Roberta%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Andrea%Borghesi%NULL%0,                 Angelo%Zigliani%NULL%0,                 Salvatore%Golemi%NULL%0,                 Nicola%Carapella%NULL%0,                 Patrizia%Maculotti%NULL%0,                 Davide%Farina%NULL%0,                 Roberto%Maroldi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alberto M.%Borobia%NULL%0,                 Antonio J.%Carcas%NULL%0,                 Antonio J.%Carcas%NULL%0,                 Francisco%Arnalich%NULL%0,                 Rodolfo%Álvarez-Sala%NULL%0,                 Rodolfo%Álvarez-Sala%NULL%0,                 Jaime%Monserrat-Villatoro%NULL%0,                 Manuel%Quintana%NULL%0,                 Juan Carlos%Figueira%NULL%0,                 Rosario M.%Torres Santos-Olmo%NULL%0,                 Julio%García-Rodríguez%NULL%0,                 Julio%García-Rodríguez%NULL%0,                 Alberto%Martín-Vega%NULL%0,                 Antonio%Buño%NULL%0,                 Elena%Ramírez%NULL%0,                 Gonzalo%Martínez-Alés%NULL%0,                 Gonzalo%Martínez-Alés%NULL%0,                 Nicolás%García-Arenzana%NULL%0,                 M. Concepción%Núñez%NULL%0,                 M. Concepción%Núñez%NULL%0,                 Milagros%Martí-de-Gracia%NULL%0,                 Francisco%Moreno Ramos%NULL%0,                 Francisco%Reinoso-Barbero%NULL%0,                 Alejandro%Martin-Quiros%NULL%0,                 Angélica%Rivera Núñez%NULL%0,                 Jesús%Mingorance%NULL%0,                 Carlos J.%Carpio Segura%NULL%0,                 Carlos J.%Carpio Segura%NULL%0,                 Daniel%Prieto Arribas%NULL%0,                 Esther%Rey Cuevas%NULL%0,                 Concepción%Prados Sánchez%NULL%0,                 Juan J.%Rios%NULL%0,                 Miguel A.%Hernán%NULL%0,                 Jesús%Frías%NULL%0,                 José R.%Arribas%NULL%0,                 NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simon E.%Brill%simon.brill@nhs.net%0,                 Hannah C.%Jarvis%NULL%0,                 Hannah C.%Jarvis%NULL%0,                 Ezgi%Ozcan%NULL%0,                 Thomas L. P.%Burns%NULL%0,                 Rabia A.%Warraich%NULL%0,                 Lisa J.%Amani%NULL%0,                 Amina%Jaffer%NULL%0,                 Stephanie%Paget%NULL%0,                 Anand%Sivaramakrishnan%NULL%0,                 Dean D.%Creer%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                 Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                 Wenlin%Cheng%NULL%0,                 Lei%Yu%NULL%0,                 Ya-Kun%Liu%NULL%0,                 Xiaoyong%Hu%NULL%0,                 Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[B.%Carter%NULL%0,                 J.T.%Collins%NULL%0,                 F.%Barlow-Pay%NULL%0,                 F.%Rickard%NULL%0,                 E.%Bruce%NULL%0,                 A.%Verduri%NULL%0,                 T.J.%Quinn%NULL%0,                 E.%Mitchell%NULL%0,                 A.%Price%NULL%0,                 A.%Vilches-Moraga%NULL%0,                 M.J.%Stechman%NULL%0,                 R.%Short%NULL%0,                 A.%Einarsson%NULL%0,                 P.%Braude%NULL%0,                 S.%Moug%NULL%0,                 P.K.%Myint%NULL%0,                 J.%Hewitt%NULL%0,                 L.%Pearce%NULL%0,                 K.%McCarthy%NULL%0,                 C.%Davey%NULL%0,                 S.%Jones%NULL%0,                 K.%Lunstone%NULL%0,                 A.%Cavenagh%NULL%0,                 C.%Silver%NULL%0,                 T.%Telford%NULL%0,                 R.%Simmons%NULL%0,                 M.%Holloway%NULL%0,                 J.%Hesford%NULL%0,                 T.%El Jichi Mutasem%NULL%0,                 S.%Singh%NULL%0,                 D.%Paxton%NULL%0,                 W.%Harris%NULL%0,                 N.%Galbraith%NULL%0,                 E.%Bhatti%NULL%0,                 J.%Edwards%NULL%0,                 S.%Duffy%NULL%0,                 J.%Kelly%NULL%0,                 C.%Murphy%NULL%0,                 C.%Bisset%NULL%0,                 R.%Alexander%NULL%0,                 M.%Garcia%NULL%0,                 S.%Sangani%NULL%0,                 T.%Kneen%NULL%0,                 T.%Lee%NULL%0,                 A.%McGovern%NULL%0,                 G.%Guaraldi%NULL%0,                 E.%Clini%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fuyang%Chen%NULL%0,                 Wenwu%Sun%NULL%0,                 Shengrong%Sun%NULL%0,                 Zhiyu%Li%lizhiyu@whu.edu.cn%0,                 Zhong%Wang%zhongwangchn@whu.edu.cn%0,                 Li%Yu%yuliwhzxyy@163.com%0,                 Li%Yu%yuliwhzxyy@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,                 Ling%Sang%NULL%0,                 Mei%Jiang%NULL%0,                 Zhaowei%Yang%NULL%0,                 Nan%Jia%NULL%0,                 Wanyi%Fu%NULL%0,                 Jiaxing%Xie%NULL%0,                 Weijie%Guan%NULL%0,                 Wenhua%Liang%NULL%0,                 Zhengyi%Ni%NULL%0,                 Yu%Hu%NULL%0,                 Lei%Liu%NULL%0,                 Hong%Shan%NULL%0,                 Chunliang%Lei%NULL%0,                 Yixiang%Peng%NULL%0,                 Li%Wei%NULL%0,                 Yong%Liu%NULL%0,                 Yahua%Hu%NULL%0,                 Peng%Peng%NULL%0,                 Jianming%Wang%NULL%0,                 Jiyang%Liu%NULL%0,                 Zhong%Chen%NULL%0,                 Gang%Li%NULL%0,                 Zhijian%Zheng%NULL%0,                 Shaoqin%Qiu%NULL%0,                 Jie%Luo%NULL%0,                 Changjiang%Ye%NULL%0,                 Shaoyong%Zhu%NULL%0,                 Jinping%Zheng%NULL%0,                 Nuofu%Zhang%NULL%0,                 Yimin%Li%NULL%0,                 Jianxing%He%NULL%0,                 Jing%Li%NULL%0,                 Shiyue%Li%NULL%0,                 Nanshan%Zhong%NULL%0,                 NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                 Di%Wu%NULL%0,                 Huilong%Chen%NULL%0,                 Weiming%Yan%NULL%0,                 Danlei%Yang%NULL%0,                 Guang%Chen%NULL%0,                 Ke%Ma%NULL%0,                 Dong%Xu%NULL%0,                 Haijing%Yu%NULL%0,                 Hongwu%Wang%NULL%0,                 Tao%Wang%NULL%0,                 Wei%Guo%NULL%0,                 Jia%Chen%NULL%0,                 Chen%Ding%NULL%0,                 Xiaoping%Zhang%NULL%0,                 Jiaquan%Huang%NULL%0,                 Meifang%Han%NULL%0,                 Shusheng%Li%NULL%0,                 Xiaoping%Luo%NULL%0,                 Jianping%Zhao%NULL%0,                 Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anying%Cheng%NULL%0,                 Liu%Hu%NULL%0,                 Yiru%Wang%NULL%0,                 Luyan%Huang%NULL%0,                 Lingxi%Zhao%NULL%0,                 Congcong%Zhang%NULL%0,                 Xiyue%Liu%NULL%0,                 Ranran%Xu%NULL%0,                 Feng%Liu%NULL%0,                 Jinping%Li%NULL%0,                 Dawei%Ye%NULL%0,                 Tao%Wang%NULL%0,                 Yongman%Lv%lvyongman@126.com%0,                 Qingquan%Liu%qqliutj@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fabio%Ciceri%ciceri.fabio@hsr.it%0,                 Antonella%Castagna%NULL%0,                 Patrizia%Rovere-Querini%NULL%0,                 Francesco%De Cobelli%NULL%0,                 Annalisa%Ruggeri%NULL%0,                 Laura%Galli%NULL%0,                 Caterina%Conte%NULL%0,                 Rebecca%De Lorenzo%NULL%0,                 Andrea%Poli%NULL%0,                 Alberto%Ambrosio%NULL%0,                 Carlo%Signorelli%NULL%0,                 Eleonora%Bossi%NULL%0,                 Maria%Fazio%NULL%0,                 Cristina%Tresoldi%NULL%0,                 Sergio%Colombo%NULL%0,                 Giacomo%Monti%NULL%0,                 Efgeny%Fominskiy%NULL%0,                 Stefano%Franchini%NULL%0,                 Marzia%Spessot%NULL%0,                 Carlo%Martinenghi%NULL%0,                 Michele%Carlucci%NULL%0,                 Luigi%Beretta%NULL%0,                 Anna Maria%Scandroglio%NULL%0,                 Massimo%Clementi%NULL%0,                 Massimo%Locatelli%NULL%0,                 Moreno%Tresoldi%NULL%0,                 Paolo%Scarpellini%NULL%0,                 Gianvito%Martino%NULL%0,                 Emanuele%Bosi%NULL%0,                 Lorenzo%Dagna%NULL%0,                 Adriano%Lazzarin%NULL%0,                 Giovanni%Landoni%NULL%0,                 Alberto%Zangrillo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,                 Wei%Liu%NULL%0,                 Kui%Liu%NULL%0,                 Yuan-Yuan%Fang%NULL%0,                 Jin%Shang%NULL%0,                 Ling%Zhou%NULL%0,                 Ke%Wang%NULL%0,                 Fan%Leng%NULL%0,                 Shuang%Wei%NULL%0,                 Lei%Chen%NULL%0,                 Hui-Guo%Liu%NULL%0,                 Pei-Fang%Wei%NULL%0,                 Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                 Li-Rong%Liang%NULL%0,                 Cheng-Qing%Yang%NULL%0,                 Wen%Wang%NULL%0,                 Tan-Ze%Cao%NULL%0,                 Ming%Li%NULL%0,                 Guang-Yun%Guo%NULL%0,                 Juan%Du%NULL%0,                 Chun-Lan%Zheng%NULL%0,                 Qi%Zhu%NULL%0,                 Ming%Hu%NULL%0,                 Xu-Yan%Li%NULL%0,                 Peng%Peng%NULL%0,                 Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shan%Gao%NULL%0,                 Fang%Jiang%NULL%0,                 Wei%Jin%NULL%0,                 Yuan%Shi%NULL%0,                 Leilei%Yang%NULL%0,                 Yanqiong%Xia%NULL%0,                 Linyan%Jia%NULL%0,                 Bo%Wang%NULL%0,                 Han%Lin%NULL%0,                 Yin%Cai%NULL%0,                 Zhengyuan%Xia%NULL%0,                 Jian%Peng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pedro David%Wendel Garcia%pedrodavid.wendelgarcia@usz.ch%0,                 Thierry%Fumeaux%thierry.fumeaux@ghol.ch%0,                 Philippe%Guerci%NULL%0,                 Dorothea Monika%Heuberger%dorotheamonika.heuberger@usz.ch%0,                 Jonathan%Montomoli%NULL%0,                 Ferran%Roche-Campo%NULL%0,                 Reto Andreas%Schuepbach%reto.schuepbach@usz.ch%0,                 Matthias Peter%Hilty%matthias.hilty@usz.ch%0,                 Mario%Alfaro Farias%NULL%0,                 Antoni%Margarit%NULL%0,                 Gerardo%Vizmanos-Lamotte%NULL%0,                 Thomas%Tschoellitsch%NULL%0,                 Jens%Meier%NULL%0,                 Francesco S.%Cardona%NULL%0,                 Josef%Skola%NULL%0,                 Lenka%Horakova%NULL%0,                 Hernan%Aguirre-Bermeo%NULL%0,                 Janina%Apolo%NULL%0,                 Emmanuel%Novy%NULL%0,                 Marie-Reine%Losser%NULL%0,                 Geoffrey%Jurkolow%NULL%0,                 Gauthier%Delahaye%NULL%0,                 Sascha%David%NULL%0,                 Tobias%Welte%NULL%0,                 Tobias%Wengenmayer%NULL%0,                 Dawid L.%Staudacher%NULL%0,                 Theodoros%Aslanidis%NULL%0,                 Barna%Babik%NULL%0,                 Anita%Korsos%NULL%0,                 Janos%Gal%NULL%0,                 Hermann%Csaba%NULL%0,                 Abele%Donati%NULL%0,                 Andrea%Carsetti%NULL%0,                 Fabrizio%Turrini%NULL%0,                 Maria Sole%Simonini%NULL%0,                 Roberto%Ceriani%NULL%0,                 Martina%Murrone%NULL%0,                 Emanuele%Rezoagli%NULL%0,                 Giovanni%Vitale%NULL%0,                 Alberto%Fogagnolo%NULL%0,                 Savino%Spadaro%NULL%0,                 Maddalena Alessandra%Wu%NULL%0,                 Chiara%Cogliati%NULL%0,                 Riccardo%Colombo%NULL%0,                 Emanuele%Catena%NULL%0,                 Francesca%Facondini%NULL%0,                 Antonella%Potalivo%NULL%0,                 Gianfilippo%Gangitano%NULL%0,                 Tiziana%Perin%NULL%0,                 Maria Grazia%Bocci%NULL%0,                 Massimo%Antonelli%NULL%0,                 Diederik%Gommers%NULL%0,                 Can%Ince%NULL%0,                 Eric%Mayor-Vázquez%NULL%0,                 Maria%Cruz%NULL%0,                 Martin%Delgado%NULL%0,                 Raquel Rodriguez%Garcia%NULL%0,                 Jorge%Gamez Zapata%NULL%0,                 Begoña%Zalba-Etayo%NULL%0,                 Herminia%Lozano-Gomez%NULL%0,                 Pedro%Castro%NULL%0,                 Adrian%Tellez%NULL%0,                 Adriana%Jacas%NULL%0,                 Guido%Muñoz%NULL%0,                 Rut%Andrea%NULL%0,                 Jose%Ortiz%NULL%0,                 Eduard%Quintana%NULL%0,                 Irene%Rovira%NULL%0,                 Enric%Reverter%NULL%0,                 Javier%Fernandez%NULL%0,                 Miquel%Ferrer%NULL%0,                 Joan R.%Badia%NULL%0,                 Arantxa%Lander Azcona%NULL%0,                 Jesus Escos%Orta%NULL%0,                 Philipp%Bühler%NULL%0,                 Silvio%Brugger%NULL%0,                 Daniel%Hofmaenner%NULL%0,                 Simone%Unseld%NULL%0,                 Frank%Ruschitzka%NULL%0,                 Mallory%Moret-Bochatay%NULL%0,                 Bernd%Yuen%NULL%0,                 Thomas%Hillermann%NULL%0,                 Hatem%Ksouri%NULL%0,                 Govind Oliver%Sridharan%NULL%0,                 Anette%Ristic%NULL%0,                 Michael%Sepulcri%NULL%0,                 Miodrag%Filipovic%NULL%0,                 Urs%Pietsch%NULL%0,                 Petra%Salomon%NULL%0,                 Iris%Drvaric%NULL%0,                 Peter%Schott%NULL%0,                 Severin%Urech%NULL%0,                 Adriana%Lambert%NULL%0,                 Lukas%Merki%NULL%0,                 Marcus%Laube%NULL%0,                 Frank%Hillgaertner%NULL%0,                 Marianne%Sieber%NULL%0,                 Alexander%Dullenkopf%NULL%0,                 Lina%Petersen%NULL%0,                 Serge%Grazioli%NULL%0,                 Peter C.%Rimensberger%NULL%0,                 Isabelle%Fleisch%NULL%0,                 Jerome%Lavanchy%NULL%0,                 Katharina%Marquardt%NULL%0,                 Karim%Shaikh%NULL%0,                 Hermann%Redecker%NULL%0,                 Michael%Stephan%NULL%0,                 Jan%Brem%NULL%0,                 Bjarte%Rogdo%NULL%0,                 Andre%Birkenmaier%NULL%0,                 Friederike%Meyer zu Bentrup%NULL%0,                 Patricia%Fodor%NULL%0,                 Pascal%Locher%NULL%0,                 Giovanni%Camen%NULL%0,                 Martin%Siegemund%NULL%0,                 Nuria%Zellweger%NULL%0,                 Marie-Madlen%Jeitziner%NULL%0,                 Beatrice%Jenni-Moser%NULL%0,                 Christian%Bürkle%NULL%0,                 Gian-Reto%Kleger%NULL%0,                 Marilene%Franchitti Laurent%NULL%0,                 Jean-Christophe%Laurent%NULL%0,                 Tomislav%Gaspert%NULL%0,                 Marija%Jovic%NULL%0,                 Michael%Studhalter%NULL%0,                 Christoph%Haberthuer%NULL%0,                 Roger F.%Lussman%NULL%0,                 Daniela%Selz%NULL%0,                 Didier%Naon%NULL%0,                 Romano%Mauri%NULL%0,                 Samuele%Ceruti%NULL%0,                 Julien%Marrel%NULL%0,                 Mirko%Brenni%NULL%0,                 Rolf%Ensner%NULL%0,                 Nadine%Gehring%NULL%0,                 Antje%Heise%NULL%0,                 Tobias%Huebner%NULL%0,                 Thomas A.%Neff%NULL%0,                 Sara%Cereghetti%NULL%0,                 Filippo%Boroli%NULL%0,                 Jerome%Pugin%NULL%0,                 Nandor%Marczin%NULL%0,                 Joyce%Wong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Warren%Gavin%NULL%0,                 Elliott%Campbell%NULL%0,                 Syed-Adeel%Zaidi%NULL%0,                 Neha%Gavin%NULL%0,                 Lana%Dbeibo%NULL%0,                 Cole%Beeler%NULL%0,                 Kari%Kuebler%NULL%0,                 Ahmed%Abdel-Rahman%NULL%0,                 Mark%Luetkemeyer%NULL%0,                 Areeba%Kara%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Vijay%Gayam%vgayam@interfaithmedical.com%0,                 Muchi Ditah%Chobufo%NULL%0,                 Muchi Ditah%Chobufo%NULL%0,                 Mohamed A.%Merghani%NULL%0,                 Mohamed A.%Merghani%NULL%0,                 Shristi%Lamichhane%NULL%0,                 Pavani Reddy%Garlapati%NULL%0,                 Mark K.%Adler%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Cao%Y%coreGivesNoEmail%0,                Imam%Z%coreGivesNoEmail%0,                Lippi%G%coreGivesNoEmail%0,                Oran%DP%coreGivesNoEmail%0,                Shi%S%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Hai%Hu%huhai@wchscu.cn%0,                 Ni%Yao%NULL%0,                 Ni%Yao%NULL%0,                 Yanru%Qiu%NULL%0,                 John H.%Burton%NULL%0,                 John H.%Burton%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jiaofeng%Huang%NULL%0,                 Aiguo%Cheng%NULL%0,                 Rahul%Kumar%NULL%0,                 Yingying%Fang%NULL%0,                 Yingying%Fang%NULL%0,                 Gongping%Chen%NULL%0,                 Yueyong%Zhu%NULL%0,                 Su%Lin%sumer5129@fjmu.edu.cn%0,                 Su%Lin%sumer5129@fjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%0,                 Ju-Hyun%Kim%NULL%0,                 Jin-Sung%Park%NULL%0,                 Min Cheol%Chang%wheel633@ynu.ac.kr%0,                 Donghwi%Park%bdome@hanmail.net%0]</t>
+  </si>
+  <si>
+    <t>[K.%Khalil%NULL%0,                 K.%Agbontaen%NULL%0,                 D.%McNally%NULL%0,                 A.%Love%NULL%0,                 S.%Mandalia%NULL%0,                 W.%Banya%NULL%0,                 E.%Starren%NULL%0,                 R.%Dhunnookchand%NULL%0,                 H.%Farne%NULL%0,                 R.%Morton%NULL%0,                 G.%Davies%NULL%0,                 O.%Orhan%NULL%0,                 D%Lai%NULL%0,                 M.%Nelson%NULL%0,                 P.L.%Shah%NULL%0,                 J.L.%Garner%Justin.garner@chelwest.nhs.uk%0]</t>
+  </si>
+  <si>
+    <t>[Eyal%Klang%NULL%0,                 Gassan%Kassim%NULL%0,                 Shelly%Soffer%soffer.shelly@gmail.com%0,                 Robert%Freeman%NULL%0,                 Robert%Freeman%NULL%0,                 Matthew A.%Levin%NULL%0,                 Matthew A.%Levin%NULL%0,                 David L.%Reich%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sandeep%Krishnan%NULL%0,                 Kinjal%Patel%NULL%0,                 Ronak%Desai%NULL%0,                 Anupam%Sule%NULL%0,                 Peter%Paik%NULL%0,                 Ashley%Miller%NULL%0,                 Alicia%Barclay%NULL%0,                 Adam%Cassella%NULL%0,                 Jon%Lucaj%NULL%0,                 Yvonne%Royster%NULL%0,                 Joffer%Hakim%NULL%0,                 Zulfiqar%Ahmed%NULL%0,                 Farhad%Ghoddoussi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Manisha%Bhutani%null%0,       David M.%Foureau%null%0,       Shebli%Atrash%null%0,       Peter M.%Voorhees%null%0,       Saad Z.%Usmani%null%0]</t>
+  </si>
+  <si>
+    <t>[Wil%Lieberman-Cribbin%NULL%0,                 Joseph%Rapp%NULL%0,                 Naomi%Alpert%NULL%0,                 Stephanie%Tuminello%NULL%0,                 Emanuela%Taioli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Q.%Liu%NULL%0,                 N. C.%Song%NULL%0,                 Z. K.%Zheng%NULL%0,                 J. S.%Li%NULL%0,                 S. K.%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Long%NULL%0,                 Lan%Nie%NULL%0,                 Xiaochen%Xiang%NULL%0,                 Huan%Li%NULL%0,                 Xiaoli%Zhang%NULL%0,                 Xiaozhi%Fu%NULL%0,                 Hongwei%Ren%NULL%0,                 Wanxin%Liu%NULL%0,                 Qiang%Wang%wangqiang@wust.edu.cn%0,                 Qingming%Wu%wuhe9224@sina.com%0,                 Qingming%Wu%wuhe9224@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Miao%Luo%xref no email%0,         Jing%Liu%xref no email%0,         Weiling%Jiang%xref no email%0,         Shuang%Yue%xref no email%0,         Huiguo%Liu%xref no email%0,         Shuang%Wei%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Xiaomin%Luo%luoxiaomin04@163.com%0,                 Wei%Zhou%NULL%0,                 Xiaojie%Yan%NULL%0,                 Tangxi%Guo%NULL%0,                 Benchao%Wang%NULL%0,                 Hongxia%Xia%NULL%0,                 Lu%Ye%NULL%0,                 Jun%Xiong%NULL%0,                 Zongping%Jiang%NULL%0,                 Yu%Liu%NULL%0,                 Bicheng%Zhang%NULL%0,                 Weize%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ying%Luo%NULL%0,                 Liyan%Mao%NULL%0,                 Xu%Yuan%NULL%0,                 Ying%Xue%NULL%0,                 Qun%Lin%NULL%0,                 Guoxing%Tang%NULL%0,                 Huijuan%Song%NULL%0,                 Feng%Wang%fengwang@tjh.tjmu.edu.cn%0,                 Ziyong%Sun%zysun@tjh.tjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ying%Luo%NULL%0,                 Ying%Xue%NULL%0,                 Liyan%Mao%NULL%0,                 Xu%Yuan%NULL%0,                 Qun%Lin%NULL%0,                 Guoxing%Tang%NULL%0,                 Huijuan%Song%NULL%0,                 Feng%Wang%NULL%0,                 Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chiara%Masetti%NULL%0,                 Elena%Generali%NULL%0,                 Francesca%Colapietro%NULL%0,                 Antonio%Voza%NULL%0,                 Maurizio%Cecconi%NULL%0,                 Antonio%Messina%NULL%0,                 Paolo%Omodei%NULL%0,                 Claudio%Angelini%NULL%0,                 Michele%Ciccarelli%NULL%0,                 Salvatore%Badalamenti%NULL%0,                 G. Walter%Canonica%NULL%0,                 Ana%Lleo%ana.lleo@humanitas.it%0,                 Alessio%Aghemo%NULL%0,                 Alessio%Aghemo%NULL%0,                 NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Takahisa%Mikami%NULL%0,                 Hirotaka%Miyashita%NULL%0,                 Takayuki%Yamada%NULL%0,                 Matthew%Harrington%NULL%0,                 Daniel%Steinberg%NULL%0,                 Andrew%Dunn%NULL%0,                 Evan%Siau%Evan.Siau@mountsinai.org%0]</t>
+  </si>
+  <si>
+    <t>[Alexis K.%Okoh%alexis.okoh@rwjbh.org%0,                 Christoph%Sossou%NULL%0,                 Christoph%Sossou%NULL%0,                 Neha S.%Dangayach%NULL%0,                 Sherin%Meledathu%NULL%0,                 Oluwakemi%Phillips%NULL%0,                 Corinne%Raczek%NULL%0,                 Michael%Patti%NULL%0,                 Nathan%Kang%NULL%0,                 Sameer A.%Hirji%NULL%0,                 Charles%Cathcart%NULL%0,                 Christian%Engell%NULL%0,                 Marc%Cohen%NULL%0,                 Sandhya%Nagarakanti%NULL%0,                 Eliahu%Bishburg%NULL%0,                 Harpreet S.%Grewal%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%0,                  Lian%Yang%NULL%0,                  Yuncheng%Li%NULL%0,                  Bo%Liang%NULL%0,                  Lin%Li%NULL%0,                  Tianhe%Ye%NULL%0,                  Lingli%Li%NULL%0,                  Dehan%Liu%NULL%0,                  Shan%Gui%NULL%0,                  Yu%Hu%NULL%0,                  Chuansheng%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                 Becker%L.B.%coreGivesNoEmail%0,                 Chelico%J.D.%coreGivesNoEmail%0,                 Cohen%S.L.%coreGivesNoEmail%0,                 Cookingham%J.%coreGivesNoEmail%0,                 Coppa%K.%coreGivesNoEmail%0,                 Crawford%J.M.%coreGivesNoEmail%0,                 Davidson%K.W.%coreGivesNoEmail%0,                 Diefenbach%M.A.%coreGivesNoEmail%0,                 Dominello%A.J.%coreGivesNoEmail%0,                 Duer-Hefele%J.%coreGivesNoEmail%0,                 Falzon%L.%coreGivesNoEmail%0,                 Gitlin%J.%coreGivesNoEmail%0,                 Hajizadeh%N.%coreGivesNoEmail%0,                 Harvin%T.G.%coreGivesNoEmail%0,                 Hirsch%J.S.%coreGivesNoEmail%0,                 Hirschwerk%D.A.%coreGivesNoEmail%0,                 Kim%E.J.%coreGivesNoEmail%0,                 Kozel%Z.M.%coreGivesNoEmail%0,                 Marrast%L.M.%coreGivesNoEmail%0,                 McGinn%T.%coreGivesNoEmail%0,                 Mogavero%J.N.%coreGivesNoEmail%0,                 Narasimhan%M.%coreGivesNoEmail%0,                 Osorio%G.A.%coreGivesNoEmail%0,                 Qiu%M.%coreGivesNoEmail%0,                 Richardson%S.%coreGivesNoEmail%0,                 Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Mario%Rivera-Izquierdo%NULL%0,                  María%del Carmen Valero-Ubierna%NULL%0,                  María%del Carmen Valero-Ubierna%NULL%0,                  Juan Luis%R-delAmo%NULL%0,                  Miguel Ángel%Fernández-García%NULL%0,                  Silvia%Martínez-Diz%NULL%0,                  Arezu%Tahery-Mahmoud%NULL%0,                  Marta%Rodríguez-Camacho%NULL%0,                  Ana Belén%Gámiz-Molina%NULL%0,                  Nicolás%Barba-Gyengo%NULL%0,                  Pablo%Gámez-Baeza%NULL%0,                  Celia%Cabrero-Rodríguez%NULL%0,                  Pedro Antonio%Guirado-Ruiz%NULL%0,                  Divina Tatiana%Martín-Romero%NULL%0,                  Antonio Jesús%Láinez-Ramos-Bossini%NULL%0,                  María Rosa%Sánchez-Pérez%NULL%0,                  José%Mancera-Romero%NULL%0,                  Miguel%García-Martín%NULL%0,                  Luis Miguel%Martín-delosReyes%NULL%0,                  Virginia%Martínez-Ruiz%NULL%0,                  Virginia%Martínez-Ruiz%NULL%0,                  Pablo%Lardelli-Claret%NULL%0,                  Eladio%Jiménez-Mejías%NULL%0,                  Muhammad%Adrish%NULL%0,                  Muhammad%Adrish%NULL%0,                  NULL%NULL%NULL%0,                  NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,                  Kun%Yang%NULL%0,                  Kun%Yang%NULL%0,                  Wenxia%Wang%NULL%0,                  Wenxia%Wang%NULL%0,                  Lingyu%Jiang%NULL%0,                  Lingyu%Jiang%NULL%0,                  Jianxin%Song%songsingsjx@sina.com%0,                  Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Grace%Salacup%salacupg@einstein.edu%0,                  Kevin Bryan%Lo%NULL%0,                  Kevin Bryan%Lo%NULL%0,                  Fahad%Gul%NULL%0,                  Eric%Peterson%NULL%0,                  Robert%De Joy%NULL%0,                  Ruchika%Bhargav%NULL%0,                  Jerald%Pelayo%NULL%0,                  Jeri%Albano%NULL%0,                  Zurab%Azmaiparashvili%NULL%0,                  Sadia%Benzaquen%NULL%0,                  Gabriel%Patarroyo‐Aponte%NULL%0,                  Janani%Rangaswami%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yufeng%Shang%NULL%0,                  Tao%Liu%NULL%0,                  Yongchang%Wei%NULL%0,                  Jingfeng%Li%NULL%0,                  Liang%Shao%NULL%0,                  Minghui%Liu%NULL%0,                  Yongxi%Zhang%NULL%0,                  Zhigang%Zhao%NULL%0,                  Haibo%Xu%NULL%0,                  Zhiyong%Peng%NULL%0,                  Fuling%Zhou%zhoufuling@whu.edu.cn%0,                  Xinghuan%Wang%wangxinghuan@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,                  Mu%Qin%qinmuae@163.com%0,                  Yuli%Cai%NULL%0,                  Tao%Liu%NULL%0,                  Bo%Shen%NULL%0,                  Fan%Yang%NULL%0,                  Sheng%Cao%NULL%0,                  Xu%Liu%NULL%0,                  Xu%Liu%NULL%0,                  Yaozu%Xiang%NULL%0,                  Qinyan%Zhao%NULL%0,                  He%Huang%huanghe1977@whu.edu.cn%0,                  Bo%Yang%yybb112@whu.edu.cn%0,                  Congxin%Huang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rita de Cássia Menezes%Soares%NULL%0,                  Larissa Rodrigues%Mattos%NULL%0,                  Letícia Martins%Raposo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,                  Ruoqi%Ning%NULL%0,                  Yu%Tao%NULL%0,                  Chong%Yu%NULL%0,                  Xiaoyan%Deng%NULL%0,                  Caili%Zhao%NULL%0,                  Silu%Meng%NULL%0,                  Fangxu%Tang%89650793@qq.com%0,                  Dong%Xu%89650793@qq.com%0,                  Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Kun%Wang%NULL%0,                  Peiyuan%Zuo%NULL%0,                  Yuwei%Liu%NULL%0,                  Meng%Zhang%NULL%0,                  Xiaofang%Zhao%NULL%0,                  Songpu%Xie%NULL%0,                  Hao%Zhang%NULL%0,                  Xinglin%Chen%NULL%0,                  Chengyun%Liu%chengyunliu@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Bo%XU%NULL%0,                  Cun-yu%FAN%NULL%0,                  An-lu%WANG%NULL%0,                  Yi-long%ZOU%NULL%0,                  Yi-han%YU%NULL%0,                  Cong%HE%NULL%0,                  Wen-guang%XIA%NULL%0,                  Ji-xian%ZHANG%NULL%0,                  Qing%MIAO%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xisheng%Yan%NULL%0,                  Fen%Li%NULL%0,                  Xiao%Wang%NULL%0,                  Jie%Yan%NULL%0,                  Fen%Zhu%NULL%0,                  Shifan%Tang%NULL%0,                  Yingzhong%Deng%NULL%0,                  Hua%Wang%NULL%0,                  Rui%Chen%NULL%0,                  Zhili%Yu%NULL%0,                  Yaping%Li%NULL%0,                  Jingzhou%Shang%NULL%0,                  Lingjun%Zeng%NULL%0,                  Jie%Zhao%NULL%0,                  Chaokun%Guan%NULL%0,                  Qiaomei%Liu%NULL%0,                  Haifeng%Chen%NULL%0,                  Wei%Gong%NULL%0,                  Xin%Huang%NULL%0,                  Yu‐Jiao%Zhang%NULL%0,                  Jianguang%Liu%NULL%0,                  Xiaoyan%Dong%NULL%0,                  Wen%Zheng%zhengwen12@mails.jlu.edu.cn%0,                  Shaoping%Nie%spnie@126.com%0,                  Dongsheng%Li%dongshengli196809@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qing%Yang%NULL%0,                  Ying%Zhou%NULL%0,                  Xinrong%Wang%NULL%0,                  Shan%Gao%NULL%0,                  Yang%Xiao%NULL%0,                  Weiming%Zhang%NULL%0,                  Yi%Hu%huyizxyy@163.com%0,                  Yafei%Wang%wyf_527@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                  Qingyu%Yang%NULL%0,                  Yaxin%Wang%NULL%0,                  Yongran%Wu%NULL%0,                  Jiqian%Xu%NULL%0,                  Yuan%Yu%NULL%0,                  You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wenjing%Ye%yewenjing@xinhuamed.com.cn%0,                  Guoxi%Chen%4799082@qq.com%0,                  Xiaopan%Li%xiaopanli0224@126.com%0,                  Xing%Lan%474137452@qq.com%0,                  Chen%Ji%c.ji.3@warwick.ac.uk%0,                  Min%Hou%min-hou710@hotmail.com%0,                  Di%Zhang%zhangdizhangdi1234@163.com%0,                  Guangwang%Zeng%785663609@qq.com%0,                  Yaling%Wang%953822402@qq.com%0,                  Cheng%Xu%xucheng112358@126.com%0,                  Weiwei%Lu%luweiwei100@126.com%0,                  Ruolin%Cui%crlqwerty@163.com%0,                  Yuyang%Cai%caiyuyang@sjtu.edu.cn%0,                  Hai%Huang%1220775601@qq.com%0,                  Ling%Yang%yangling01@xinhuamed.com.cn%0]</t>
+  </si>
+  <si>
+    <t>[Caizheng%Yu%NULL%0,                  Qing%Lei%NULL%0,                  Wenkai%Li%NULL%0,                  Xiong%Wang%NULL%0,                  Wei%Liu%NULL%0,                  Xionglin%Fan%NULL%0,                  Wengang%Li%228907211@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                  Ting%Yu%NULL%0,                  Ronghui%Du%NULL%0,                  Guohui%Fan%NULL%0,                  Ying%Liu%NULL%0,                  Zhibo%Liu%NULL%0,                  Jie%Xiang%NULL%0,                  Yeming%Wang%NULL%0,                  Bin%Song%NULL%0,                  Xiaoying%Gu%NULL%0,                  Lulu%Guan%NULL%0,                  Yuan%Wei%NULL%0,                  Hui%Li%NULL%0,                  Xudong%Wu%NULL%0,                  Jiuyang%Xu%NULL%0,                  Shengjin%Tu%NULL%0,                  Yi%Zhang%NULL%0,                  Hua%Chen%NULL%0,                  Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Moran%Amit%NULL%0,                  Alex%Sorkin%NULL%0,                  Jacob%Chen%NULL%0,                  Barak%Cohen%NULL%0,                  Barak%Cohen%NULL%0,                  Dana%Karol%NULL%0,                  Dana%Karol%NULL%0,                  Avishai M%Tsur%NULL%0,                  Shaul%Lev%NULL%0,                  Shaul%Lev%NULL%0,                  Tal%Rozenblat%NULL%0,                  Ayana%Dvir%NULL%0,                  Ayana%Dvir%NULL%0,                  Geva%Landau%NULL%0,                  Lidar%Fridrich%NULL%0,                  Lidar%Fridrich%NULL%0,                  Elon%Glassberg%NULL%0,                  Shani%Kesari%NULL%0,                  Sigal%Sviri%NULL%0,                  Ram%Gelman%NULL%0,                  Asaf%Miller%NULL%0,                  Danny%Epstein%NULL%0,                  Ronny%Ben-Avi%NULL%0,                  Ronny%Ben-Avi%NULL%0,                  Moshe%Matan%NULL%0,                  Daniel J.%Jakobson%NULL%0,                  Daniel J.%Jakobson%NULL%0,                  Tarif%Bader%NULL%0,                  Tarif%Bader%NULL%0,                  David%Dahan%NULL%0,                  David%Dahan%NULL%0,                  Daniel A.%King%NULL%0,                  Anat%Ben-Ari%NULL%0,                  Arie%Soroksky%NULL%0,                  Alon%Bar%NULL%0,                  Alon%Bar%NULL%0,                  Noam%Fink%NULL%0,                  Pierre%Singer%NULL%0,                  Avi%Benov%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,                  John R%Adler%NULL%0,                  Muhammad Sohaib%Asghar%NULL%0,                  Muhammad Sohaib%Asghar%NULL%0,                  Syed Jawad%Haider Kazmi%NULL%0,                  Noman%Ahmed Khan%NULL%0,                  Mohammed%Akram%NULL%0,                  Salman%Ahmed Khan%NULL%0,                  Uzma%Rasheed%NULL%0,                  Maira%Hassan%NULL%0,                  Gul Muhammad%Memon%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pedro%Baqui%NULL%0,                  Ioana%Bica%NULL%0,                  Valerio%Marra%marra@cosmo-ufes.org%0,                  Ari%Ercole%NULL%0,                  Mihaela%van der Schaar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anesi%Adriano%coreGivesNoEmail%0,                 Bettinardi%Alessandra%coreGivesNoEmail%0,                 Bonetti%Graziella%coreGivesNoEmail%0,                 Borrelli%Gianluca%coreGivesNoEmail%0,                 Fiordalisi%Gianfranco%coreGivesNoEmail%0,                 Lippi%Giuseppe%coreGivesNoEmail%0,                 Manelli%Filippo%coreGivesNoEmail%0,                 Marino%Antonio%coreGivesNoEmail%0,                 Menolfi%Annamaria%coreGivesNoEmail%0,                 Patroni%Andrea%coreGivesNoEmail%0,                 Saggini%Sara%coreGivesNoEmail%0,                 Volpi%Roberta%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Andrea%Borghesi%NULL%0,                  Angelo%Zigliani%NULL%0,                  Salvatore%Golemi%NULL%0,                  Nicola%Carapella%NULL%0,                  Patrizia%Maculotti%NULL%0,                  Davide%Farina%NULL%0,                  Roberto%Maroldi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alberto M.%Borobia%NULL%0,                  Antonio J.%Carcas%NULL%0,                  Antonio J.%Carcas%NULL%0,                  Francisco%Arnalich%NULL%0,                  Rodolfo%Álvarez-Sala%NULL%0,                  Rodolfo%Álvarez-Sala%NULL%0,                  Jaime%Monserrat-Villatoro%NULL%0,                  Manuel%Quintana%NULL%0,                  Juan Carlos%Figueira%NULL%0,                  Rosario M.%Torres Santos-Olmo%NULL%0,                  Julio%García-Rodríguez%NULL%0,                  Julio%García-Rodríguez%NULL%0,                  Alberto%Martín-Vega%NULL%0,                  Antonio%Buño%NULL%0,                  Elena%Ramírez%NULL%0,                  Gonzalo%Martínez-Alés%NULL%0,                  Gonzalo%Martínez-Alés%NULL%0,                  Nicolás%García-Arenzana%NULL%0,                  M. Concepción%Núñez%NULL%0,                  M. Concepción%Núñez%NULL%0,                  Milagros%Martí-de-Gracia%NULL%0,                  Francisco%Moreno Ramos%NULL%0,                  Francisco%Reinoso-Barbero%NULL%0,                  Alejandro%Martin-Quiros%NULL%0,                  Angélica%Rivera Núñez%NULL%0,                  Jesús%Mingorance%NULL%0,                  Carlos J.%Carpio Segura%NULL%0,                  Carlos J.%Carpio Segura%NULL%0,                  Daniel%Prieto Arribas%NULL%0,                  Esther%Rey Cuevas%NULL%0,                  Concepción%Prados Sánchez%NULL%0,                  Juan J.%Rios%NULL%0,                  Miguel A.%Hernán%NULL%0,                  Jesús%Frías%NULL%0,                  José R.%Arribas%NULL%0,                  NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simon E.%Brill%simon.brill@nhs.net%0,                  Hannah C.%Jarvis%NULL%0,                  Hannah C.%Jarvis%NULL%0,                  Ezgi%Ozcan%NULL%0,                  Thomas L. P.%Burns%NULL%0,                  Rabia A.%Warraich%NULL%0,                  Lisa J.%Amani%NULL%0,                  Amina%Jaffer%NULL%0,                  Stephanie%Paget%NULL%0,                  Anand%Sivaramakrishnan%NULL%0,                  Dean D.%Creer%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                  Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                  Wenlin%Cheng%NULL%0,                  Lei%Yu%NULL%0,                  Ya-Kun%Liu%NULL%0,                  Xiaoyong%Hu%NULL%0,                  Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[B.%Carter%NULL%0,                  J.T.%Collins%NULL%0,                  F.%Barlow-Pay%NULL%0,                  F.%Rickard%NULL%0,                  E.%Bruce%NULL%0,                  A.%Verduri%NULL%0,                  T.J.%Quinn%NULL%0,                  E.%Mitchell%NULL%0,                  A.%Price%NULL%0,                  A.%Vilches-Moraga%NULL%0,                  M.J.%Stechman%NULL%0,                  R.%Short%NULL%0,                  A.%Einarsson%NULL%0,                  P.%Braude%NULL%0,                  S.%Moug%NULL%0,                  P.K.%Myint%NULL%0,                  J.%Hewitt%NULL%0,                  L.%Pearce%NULL%0,                  K.%McCarthy%NULL%0,                  C.%Davey%NULL%0,                  S.%Jones%NULL%0,                  K.%Lunstone%NULL%0,                  A.%Cavenagh%NULL%0,                  C.%Silver%NULL%0,                  T.%Telford%NULL%0,                  R.%Simmons%NULL%0,                  M.%Holloway%NULL%0,                  J.%Hesford%NULL%0,                  T.%El Jichi Mutasem%NULL%0,                  S.%Singh%NULL%0,                  D.%Paxton%NULL%0,                  W.%Harris%NULL%0,                  N.%Galbraith%NULL%0,                  E.%Bhatti%NULL%0,                  J.%Edwards%NULL%0,                  S.%Duffy%NULL%0,                  J.%Kelly%NULL%0,                  C.%Murphy%NULL%0,                  C.%Bisset%NULL%0,                  R.%Alexander%NULL%0,                  M.%Garcia%NULL%0,                  S.%Sangani%NULL%0,                  T.%Kneen%NULL%0,                  T.%Lee%NULL%0,                  A.%McGovern%NULL%0,                  G.%Guaraldi%NULL%0,                  E.%Clini%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fuyang%Chen%NULL%0,                  Wenwu%Sun%NULL%0,                  Shengrong%Sun%NULL%0,                  Zhiyu%Li%lizhiyu@whu.edu.cn%0,                  Zhong%Wang%zhongwangchn@whu.edu.cn%0,                  Li%Yu%yuliwhzxyy@163.com%0,                  Li%Yu%yuliwhzxyy@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,                  Ling%Sang%NULL%0,                  Mei%Jiang%NULL%0,                  Zhaowei%Yang%NULL%0,                  Nan%Jia%NULL%0,                  Wanyi%Fu%NULL%0,                  Jiaxing%Xie%NULL%0,                  Weijie%Guan%NULL%0,                  Wenhua%Liang%NULL%0,                  Zhengyi%Ni%NULL%0,                  Yu%Hu%NULL%0,                  Lei%Liu%NULL%0,                  Hong%Shan%NULL%0,                  Chunliang%Lei%NULL%0,                  Yixiang%Peng%NULL%0,                  Li%Wei%NULL%0,                  Yong%Liu%NULL%0,                  Yahua%Hu%NULL%0,                  Peng%Peng%NULL%0,                  Jianming%Wang%NULL%0,                  Jiyang%Liu%NULL%0,                  Zhong%Chen%NULL%0,                  Gang%Li%NULL%0,                  Zhijian%Zheng%NULL%0,                  Shaoqin%Qiu%NULL%0,                  Jie%Luo%NULL%0,                  Changjiang%Ye%NULL%0,                  Shaoyong%Zhu%NULL%0,                  Jinping%Zheng%NULL%0,                  Nuofu%Zhang%NULL%0,                  Yimin%Li%NULL%0,                  Jianxing%He%NULL%0,                  Jing%Li%NULL%0,                  Shiyue%Li%NULL%0,                  Nanshan%Zhong%NULL%0,                  NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                  Di%Wu%NULL%0,                  Huilong%Chen%NULL%0,                  Weiming%Yan%NULL%0,                  Danlei%Yang%NULL%0,                  Guang%Chen%NULL%0,                  Ke%Ma%NULL%0,                  Dong%Xu%NULL%0,                  Haijing%Yu%NULL%0,                  Hongwu%Wang%NULL%0,                  Tao%Wang%NULL%0,                  Wei%Guo%NULL%0,                  Jia%Chen%NULL%0,                  Chen%Ding%NULL%0,                  Xiaoping%Zhang%NULL%0,                  Jiaquan%Huang%NULL%0,                  Meifang%Han%NULL%0,                  Shusheng%Li%NULL%0,                  Xiaoping%Luo%NULL%0,                  Jianping%Zhao%NULL%0,                  Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anying%Cheng%NULL%0,                  Liu%Hu%NULL%0,                  Yiru%Wang%NULL%0,                  Luyan%Huang%NULL%0,                  Lingxi%Zhao%NULL%0,                  Congcong%Zhang%NULL%0,                  Xiyue%Liu%NULL%0,                  Ranran%Xu%NULL%0,                  Feng%Liu%NULL%0,                  Jinping%Li%NULL%0,                  Dawei%Ye%NULL%0,                  Tao%Wang%NULL%0,                  Yongman%Lv%lvyongman@126.com%0,                  Qingquan%Liu%qqliutj@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fabio%Ciceri%ciceri.fabio@hsr.it%0,                  Antonella%Castagna%NULL%0,                  Patrizia%Rovere-Querini%NULL%0,                  Francesco%De Cobelli%NULL%0,                  Annalisa%Ruggeri%NULL%0,                  Laura%Galli%NULL%0,                  Caterina%Conte%NULL%0,                  Rebecca%De Lorenzo%NULL%0,                  Andrea%Poli%NULL%0,                  Alberto%Ambrosio%NULL%0,                  Carlo%Signorelli%NULL%0,                  Eleonora%Bossi%NULL%0,                  Maria%Fazio%NULL%0,                  Cristina%Tresoldi%NULL%0,                  Sergio%Colombo%NULL%0,                  Giacomo%Monti%NULL%0,                  Efgeny%Fominskiy%NULL%0,                  Stefano%Franchini%NULL%0,                  Marzia%Spessot%NULL%0,                  Carlo%Martinenghi%NULL%0,                  Michele%Carlucci%NULL%0,                  Luigi%Beretta%NULL%0,                  Anna Maria%Scandroglio%NULL%0,                  Massimo%Clementi%NULL%0,                  Massimo%Locatelli%NULL%0,                  Moreno%Tresoldi%NULL%0,                  Paolo%Scarpellini%NULL%0,                  Gianvito%Martino%NULL%0,                  Emanuele%Bosi%NULL%0,                  Lorenzo%Dagna%NULL%0,                  Adriano%Lazzarin%NULL%0,                  Giovanni%Landoni%NULL%0,                  Alberto%Zangrillo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,                  Wei%Liu%NULL%0,                  Kui%Liu%NULL%0,                  Yuan-Yuan%Fang%NULL%0,                  Jin%Shang%NULL%0,                  Ling%Zhou%NULL%0,                  Ke%Wang%NULL%0,                  Fan%Leng%NULL%0,                  Shuang%Wei%NULL%0,                  Lei%Chen%NULL%0,                  Hui-Guo%Liu%NULL%0,                  Pei-Fang%Wei%NULL%0,                  Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                  Li-Rong%Liang%NULL%0,                  Cheng-Qing%Yang%NULL%0,                  Wen%Wang%NULL%0,                  Tan-Ze%Cao%NULL%0,                  Ming%Li%NULL%0,                  Guang-Yun%Guo%NULL%0,                  Juan%Du%NULL%0,                  Chun-Lan%Zheng%NULL%0,                  Qi%Zhu%NULL%0,                  Ming%Hu%NULL%0,                  Xu-Yan%Li%NULL%0,                  Peng%Peng%NULL%0,                  Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shan%Gao%NULL%0,                  Fang%Jiang%NULL%0,                  Wei%Jin%NULL%0,                  Yuan%Shi%NULL%0,                  Leilei%Yang%NULL%0,                  Yanqiong%Xia%NULL%0,                  Linyan%Jia%NULL%0,                  Bo%Wang%NULL%0,                  Han%Lin%NULL%0,                  Yin%Cai%NULL%0,                  Zhengyuan%Xia%NULL%0,                  Jian%Peng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pedro David%Wendel Garcia%pedrodavid.wendelgarcia@usz.ch%0,                  Thierry%Fumeaux%thierry.fumeaux@ghol.ch%0,                  Philippe%Guerci%NULL%0,                  Dorothea Monika%Heuberger%dorotheamonika.heuberger@usz.ch%0,                  Jonathan%Montomoli%NULL%0,                  Ferran%Roche-Campo%NULL%0,                  Reto Andreas%Schuepbach%reto.schuepbach@usz.ch%0,                  Matthias Peter%Hilty%matthias.hilty@usz.ch%0,                  Mario%Alfaro Farias%NULL%0,                  Antoni%Margarit%NULL%0,                  Gerardo%Vizmanos-Lamotte%NULL%0,                  Thomas%Tschoellitsch%NULL%0,                  Jens%Meier%NULL%0,                  Francesco S.%Cardona%NULL%0,                  Josef%Skola%NULL%0,                  Lenka%Horakova%NULL%0,                  Hernan%Aguirre-Bermeo%NULL%0,                  Janina%Apolo%NULL%0,                  Emmanuel%Novy%NULL%0,                  Marie-Reine%Losser%NULL%0,                  Geoffrey%Jurkolow%NULL%0,                  Gauthier%Delahaye%NULL%0,                  Sascha%David%NULL%0,                  Tobias%Welte%NULL%0,                  Tobias%Wengenmayer%NULL%0,                  Dawid L.%Staudacher%NULL%0,                  Theodoros%Aslanidis%NULL%0,                  Barna%Babik%NULL%0,                  Anita%Korsos%NULL%0,                  Janos%Gal%NULL%0,                  Hermann%Csaba%NULL%0,                  Abele%Donati%NULL%0,                  Andrea%Carsetti%NULL%0,                  Fabrizio%Turrini%NULL%0,                  Maria Sole%Simonini%NULL%0,                  Roberto%Ceriani%NULL%0,                  Martina%Murrone%NULL%0,                  Emanuele%Rezoagli%NULL%0,                  Giovanni%Vitale%NULL%0,                  Alberto%Fogagnolo%NULL%0,                  Savino%Spadaro%NULL%0,                  Maddalena Alessandra%Wu%NULL%0,                  Chiara%Cogliati%NULL%0,                  Riccardo%Colombo%NULL%0,                  Emanuele%Catena%NULL%0,                  Francesca%Facondini%NULL%0,                  Antonella%Potalivo%NULL%0,                  Gianfilippo%Gangitano%NULL%0,                  Tiziana%Perin%NULL%0,                  Maria Grazia%Bocci%NULL%0,                  Massimo%Antonelli%NULL%0,                  Diederik%Gommers%NULL%0,                  Can%Ince%NULL%0,                  Eric%Mayor-Vázquez%NULL%0,                  Maria%Cruz%NULL%0,                  Martin%Delgado%NULL%0,                  Raquel Rodriguez%Garcia%NULL%0,                  Jorge%Gamez Zapata%NULL%0,                  Begoña%Zalba-Etayo%NULL%0,                  Herminia%Lozano-Gomez%NULL%0,                  Pedro%Castro%NULL%0,                  Adrian%Tellez%NULL%0,                  Adriana%Jacas%NULL%0,                  Guido%Muñoz%NULL%0,                  Rut%Andrea%NULL%0,                  Jose%Ortiz%NULL%0,                  Eduard%Quintana%NULL%0,                  Irene%Rovira%NULL%0,                  Enric%Reverter%NULL%0,                  Javier%Fernandez%NULL%0,                  Miquel%Ferrer%NULL%0,                  Joan R.%Badia%NULL%0,                  Arantxa%Lander Azcona%NULL%0,                  Jesus Escos%Orta%NULL%0,                  Philipp%Bühler%NULL%0,                  Silvio%Brugger%NULL%0,                  Daniel%Hofmaenner%NULL%0,                  Simone%Unseld%NULL%0,                  Frank%Ruschitzka%NULL%0,                  Mallory%Moret-Bochatay%NULL%0,                  Bernd%Yuen%NULL%0,                  Thomas%Hillermann%NULL%0,                  Hatem%Ksouri%NULL%0,                  Govind Oliver%Sridharan%NULL%0,                  Anette%Ristic%NULL%0,                  Michael%Sepulcri%NULL%0,                  Miodrag%Filipovic%NULL%0,                  Urs%Pietsch%NULL%0,                  Petra%Salomon%NULL%0,                  Iris%Drvaric%NULL%0,                  Peter%Schott%NULL%0,                  Severin%Urech%NULL%0,                  Adriana%Lambert%NULL%0,                  Lukas%Merki%NULL%0,                  Marcus%Laube%NULL%0,                  Frank%Hillgaertner%NULL%0,                  Marianne%Sieber%NULL%0,                  Alexander%Dullenkopf%NULL%0,                  Lina%Petersen%NULL%0,                  Serge%Grazioli%NULL%0,                  Peter C.%Rimensberger%NULL%0,                  Isabelle%Fleisch%NULL%0,                  Jerome%Lavanchy%NULL%0,                  Katharina%Marquardt%NULL%0,                  Karim%Shaikh%NULL%0,                  Hermann%Redecker%NULL%0,                  Michael%Stephan%NULL%0,                  Jan%Brem%NULL%0,                  Bjarte%Rogdo%NULL%0,                  Andre%Birkenmaier%NULL%0,                  Friederike%Meyer zu Bentrup%NULL%0,                  Patricia%Fodor%NULL%0,                  Pascal%Locher%NULL%0,                  Giovanni%Camen%NULL%0,                  Martin%Siegemund%NULL%0,                  Nuria%Zellweger%NULL%0,                  Marie-Madlen%Jeitziner%NULL%0,                  Beatrice%Jenni-Moser%NULL%0,                  Christian%Bürkle%NULL%0,                  Gian-Reto%Kleger%NULL%0,                  Marilene%Franchitti Laurent%NULL%0,                  Jean-Christophe%Laurent%NULL%0,                  Tomislav%Gaspert%NULL%0,                  Marija%Jovic%NULL%0,                  Michael%Studhalter%NULL%0,                  Christoph%Haberthuer%NULL%0,                  Roger F.%Lussman%NULL%0,                  Daniela%Selz%NULL%0,                  Didier%Naon%NULL%0,                  Romano%Mauri%NULL%0,                  Samuele%Ceruti%NULL%0,                  Julien%Marrel%NULL%0,                  Mirko%Brenni%NULL%0,                  Rolf%Ensner%NULL%0,                  Nadine%Gehring%NULL%0,                  Antje%Heise%NULL%0,                  Tobias%Huebner%NULL%0,                  Thomas A.%Neff%NULL%0,                  Sara%Cereghetti%NULL%0,                  Filippo%Boroli%NULL%0,                  Jerome%Pugin%NULL%0,                  Nandor%Marczin%NULL%0,                  Joyce%Wong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Warren%Gavin%NULL%0,                  Elliott%Campbell%NULL%0,                  Syed-Adeel%Zaidi%NULL%0,                  Neha%Gavin%NULL%0,                  Lana%Dbeibo%NULL%0,                  Cole%Beeler%NULL%0,                  Kari%Kuebler%NULL%0,                  Ahmed%Abdel-Rahman%NULL%0,                  Mark%Luetkemeyer%NULL%0,                  Areeba%Kara%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Vijay%Gayam%vgayam@interfaithmedical.com%0,                  Muchi Ditah%Chobufo%NULL%0,                  Muchi Ditah%Chobufo%NULL%0,                  Mohamed A.%Merghani%NULL%0,                  Mohamed A.%Merghani%NULL%0,                  Shristi%Lamichhane%NULL%0,                  Pavani Reddy%Garlapati%NULL%0,                  Mark K.%Adler%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Cao%Y%coreGivesNoEmail%0,                 Imam%Z%coreGivesNoEmail%0,                 Lippi%G%coreGivesNoEmail%0,                 Oran%DP%coreGivesNoEmail%0,                 Shi%S%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Hai%Hu%huhai@wchscu.cn%0,                  Ni%Yao%NULL%0,                  Ni%Yao%NULL%0,                  Yanru%Qiu%NULL%0,                  John H.%Burton%NULL%0,                  John H.%Burton%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jiaofeng%Huang%NULL%0,                  Aiguo%Cheng%NULL%0,                  Rahul%Kumar%NULL%0,                  Yingying%Fang%NULL%0,                  Yingying%Fang%NULL%0,                  Gongping%Chen%NULL%0,                  Yueyong%Zhu%NULL%0,                  Su%Lin%sumer5129@fjmu.edu.cn%0,                  Su%Lin%sumer5129@fjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%0,                  Ju-Hyun%Kim%NULL%0,                  Jin-Sung%Park%NULL%0,                  Min Cheol%Chang%wheel633@ynu.ac.kr%0,                  Donghwi%Park%bdome@hanmail.net%0]</t>
+  </si>
+  <si>
+    <t>[K.%Khalil%NULL%0,                  K.%Agbontaen%NULL%0,                  D.%McNally%NULL%0,                  A.%Love%NULL%0,                  S.%Mandalia%NULL%0,                  W.%Banya%NULL%0,                  E.%Starren%NULL%0,                  R.%Dhunnookchand%NULL%0,                  H.%Farne%NULL%0,                  R.%Morton%NULL%0,                  G.%Davies%NULL%0,                  O.%Orhan%NULL%0,                  D%Lai%NULL%0,                  M.%Nelson%NULL%0,                  P.L.%Shah%NULL%0,                  J.L.%Garner%Justin.garner@chelwest.nhs.uk%0]</t>
+  </si>
+  <si>
+    <t>[Eyal%Klang%NULL%0,                  Gassan%Kassim%NULL%0,                  Shelly%Soffer%soffer.shelly@gmail.com%0,                  Robert%Freeman%NULL%0,                  Robert%Freeman%NULL%0,                  Matthew A.%Levin%NULL%0,                  Matthew A.%Levin%NULL%0,                  David L.%Reich%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sandeep%Krishnan%NULL%0,                  Kinjal%Patel%NULL%0,                  Ronak%Desai%NULL%0,                  Anupam%Sule%NULL%0,                  Peter%Paik%NULL%0,                  Ashley%Miller%NULL%0,                  Alicia%Barclay%NULL%0,                  Adam%Cassella%NULL%0,                  Jon%Lucaj%NULL%0,                  Yvonne%Royster%NULL%0,                  Joffer%Hakim%NULL%0,                  Zulfiqar%Ahmed%NULL%0,                  Farhad%Ghoddoussi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Manisha%Bhutani%null%0,        David M.%Foureau%null%0,        Shebli%Atrash%null%0,        Peter M.%Voorhees%null%0,        Saad Z.%Usmani%null%0]</t>
+  </si>
+  <si>
+    <t>[Wil%Lieberman-Cribbin%NULL%0,                  Joseph%Rapp%NULL%0,                  Naomi%Alpert%NULL%0,                  Stephanie%Tuminello%NULL%0,                  Emanuela%Taioli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Q.%Liu%NULL%0,                  N. C.%Song%NULL%0,                  Z. K.%Zheng%NULL%0,                  J. S.%Li%NULL%0,                  S. K.%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Long%NULL%0,                  Lan%Nie%NULL%0,                  Xiaochen%Xiang%NULL%0,                  Huan%Li%NULL%0,                  Xiaoli%Zhang%NULL%0,                  Xiaozhi%Fu%NULL%0,                  Hongwei%Ren%NULL%0,                  Wanxin%Liu%NULL%0,                  Qiang%Wang%wangqiang@wust.edu.cn%0,                  Qingming%Wu%wuhe9224@sina.com%0,                  Qingming%Wu%wuhe9224@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Miao%Luo%xref no email%0,          Jing%Liu%xref no email%0,          Weiling%Jiang%xref no email%0,          Shuang%Yue%xref no email%0,          Huiguo%Liu%xref no email%0,          Shuang%Wei%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Xiaomin%Luo%luoxiaomin04@163.com%0,                  Wei%Zhou%NULL%0,                  Xiaojie%Yan%NULL%0,                  Tangxi%Guo%NULL%0,                  Benchao%Wang%NULL%0,                  Hongxia%Xia%NULL%0,                  Lu%Ye%NULL%0,                  Jun%Xiong%NULL%0,                  Zongping%Jiang%NULL%0,                  Yu%Liu%NULL%0,                  Bicheng%Zhang%NULL%0,                  Weize%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ying%Luo%NULL%0,                  Liyan%Mao%NULL%0,                  Xu%Yuan%NULL%0,                  Ying%Xue%NULL%0,                  Qun%Lin%NULL%0,                  Guoxing%Tang%NULL%0,                  Huijuan%Song%NULL%0,                  Feng%Wang%fengwang@tjh.tjmu.edu.cn%0,                  Ziyong%Sun%zysun@tjh.tjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ying%Luo%NULL%0,                  Ying%Xue%NULL%0,                  Liyan%Mao%NULL%0,                  Xu%Yuan%NULL%0,                  Qun%Lin%NULL%0,                  Guoxing%Tang%NULL%0,                  Huijuan%Song%NULL%0,                  Feng%Wang%NULL%0,                  Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chiara%Masetti%NULL%0,                  Elena%Generali%NULL%0,                  Francesca%Colapietro%NULL%0,                  Antonio%Voza%NULL%0,                  Maurizio%Cecconi%NULL%0,                  Antonio%Messina%NULL%0,                  Paolo%Omodei%NULL%0,                  Claudio%Angelini%NULL%0,                  Michele%Ciccarelli%NULL%0,                  Salvatore%Badalamenti%NULL%0,                  G. Walter%Canonica%NULL%0,                  Ana%Lleo%ana.lleo@humanitas.it%0,                  Alessio%Aghemo%NULL%0,                  Alessio%Aghemo%NULL%0,                  NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Takahisa%Mikami%NULL%0,                  Hirotaka%Miyashita%NULL%0,                  Takayuki%Yamada%NULL%0,                  Matthew%Harrington%NULL%0,                  Daniel%Steinberg%NULL%0,                  Andrew%Dunn%NULL%0,                  Evan%Siau%Evan.Siau@mountsinai.org%0]</t>
+  </si>
+  <si>
+    <t>[Alexis K.%Okoh%alexis.okoh@rwjbh.org%0,                  Christoph%Sossou%NULL%0,                  Christoph%Sossou%NULL%0,                  Neha S.%Dangayach%NULL%0,                  Sherin%Meledathu%NULL%0,                  Oluwakemi%Phillips%NULL%0,                  Corinne%Raczek%NULL%0,                  Michael%Patti%NULL%0,                  Nathan%Kang%NULL%0,                  Sameer A.%Hirji%NULL%0,                  Charles%Cathcart%NULL%0,                  Christian%Engell%NULL%0,                  Marc%Cohen%NULL%0,                  Sandhya%Nagarakanti%NULL%0,                  Eliahu%Bishburg%NULL%0,                  Harpreet S.%Grewal%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -4171,7 +4501,7 @@
         <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>936</v>
+        <v>1046</v>
       </c>
       <c r="F2" t="s">
         <v>73</v>
@@ -4200,7 +4530,7 @@
         <v>260</v>
       </c>
       <c r="E3" t="s">
-        <v>937</v>
+        <v>1047</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -4229,7 +4559,7 @@
         <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>938</v>
+        <v>1048</v>
       </c>
       <c r="F4" t="s">
         <v>79</v>
@@ -4258,7 +4588,7 @@
         <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>939</v>
+        <v>1049</v>
       </c>
       <c r="F5" t="s">
         <v>83</v>
@@ -4287,7 +4617,7 @@
         <v>86</v>
       </c>
       <c r="E6" t="s">
-        <v>940</v>
+        <v>1050</v>
       </c>
       <c r="F6" t="s">
         <v>87</v>
@@ -4345,7 +4675,7 @@
         <v>90</v>
       </c>
       <c r="E8" t="s">
-        <v>941</v>
+        <v>1051</v>
       </c>
       <c r="F8" t="s">
         <v>91</v>
@@ -4374,7 +4704,7 @@
         <v>94</v>
       </c>
       <c r="E9" t="s">
-        <v>942</v>
+        <v>1052</v>
       </c>
       <c r="F9" t="s">
         <v>95</v>
@@ -4403,7 +4733,7 @@
         <v>98</v>
       </c>
       <c r="E10" t="s">
-        <v>943</v>
+        <v>1053</v>
       </c>
       <c r="F10" t="s">
         <v>99</v>
@@ -4432,7 +4762,7 @@
         <v>102</v>
       </c>
       <c r="E11" t="s">
-        <v>944</v>
+        <v>1054</v>
       </c>
       <c r="F11" t="s">
         <v>103</v>
@@ -4461,7 +4791,7 @@
         <v>106</v>
       </c>
       <c r="E12" t="s">
-        <v>945</v>
+        <v>1055</v>
       </c>
       <c r="F12" t="s">
         <v>107</v>
@@ -4490,7 +4820,7 @@
         <v>109</v>
       </c>
       <c r="E13" t="s">
-        <v>946</v>
+        <v>1056</v>
       </c>
       <c r="F13" t="s">
         <v>110</v>
@@ -4519,7 +4849,7 @@
         <v>113</v>
       </c>
       <c r="E14" t="s">
-        <v>947</v>
+        <v>1057</v>
       </c>
       <c r="F14" t="s">
         <v>114</v>
@@ -4548,7 +4878,7 @@
         <v>776</v>
       </c>
       <c r="E15" t="s">
-        <v>948</v>
+        <v>1058</v>
       </c>
       <c r="F15" t="s">
         <v>118</v>
@@ -4577,7 +4907,7 @@
         <v>121</v>
       </c>
       <c r="E16" t="s">
-        <v>949</v>
+        <v>1059</v>
       </c>
       <c r="F16" t="s">
         <v>122</v>
@@ -4606,7 +4936,7 @@
         <v>779</v>
       </c>
       <c r="E17" t="s">
-        <v>950</v>
+        <v>1060</v>
       </c>
       <c r="F17" t="s">
         <v>125</v>
@@ -4635,7 +4965,7 @@
         <v>128</v>
       </c>
       <c r="E18" t="s">
-        <v>951</v>
+        <v>1061</v>
       </c>
       <c r="F18" t="s">
         <v>129</v>
@@ -4664,7 +4994,7 @@
         <v>131</v>
       </c>
       <c r="E19" t="s">
-        <v>952</v>
+        <v>1062</v>
       </c>
       <c r="F19" t="s">
         <v>132</v>
@@ -4693,7 +5023,7 @@
         <v>134</v>
       </c>
       <c r="E20" t="s">
-        <v>953</v>
+        <v>1063</v>
       </c>
       <c r="F20" t="s">
         <v>135</v>
@@ -4722,7 +5052,7 @@
         <v>137</v>
       </c>
       <c r="E21" t="s">
-        <v>954</v>
+        <v>1064</v>
       </c>
       <c r="F21" t="s">
         <v>138</v>
@@ -4751,7 +5081,7 @@
         <v>141</v>
       </c>
       <c r="E22" t="s">
-        <v>955</v>
+        <v>1065</v>
       </c>
       <c r="F22" t="s">
         <v>142</v>
@@ -4780,7 +5110,7 @@
         <v>263</v>
       </c>
       <c r="E23" t="s">
-        <v>956</v>
+        <v>1066</v>
       </c>
       <c r="F23" t="s">
         <v>23</v>
@@ -4809,7 +5139,7 @@
         <v>144</v>
       </c>
       <c r="E24" t="s">
-        <v>957</v>
+        <v>1067</v>
       </c>
       <c r="F24" t="s">
         <v>145</v>
@@ -4838,7 +5168,7 @@
         <v>147</v>
       </c>
       <c r="E25" t="s">
-        <v>958</v>
+        <v>1068</v>
       </c>
       <c r="F25" t="s">
         <v>148</v>
@@ -4867,7 +5197,7 @@
         <v>789</v>
       </c>
       <c r="E26" t="s">
-        <v>959</v>
+        <v>1069</v>
       </c>
       <c r="F26" t="s">
         <v>152</v>
@@ -4896,7 +5226,7 @@
         <v>155</v>
       </c>
       <c r="E27" t="s">
-        <v>960</v>
+        <v>1070</v>
       </c>
       <c r="F27" t="s">
         <v>156</v>
@@ -4925,7 +5255,7 @@
         <v>158</v>
       </c>
       <c r="E28" t="s">
-        <v>961</v>
+        <v>1071</v>
       </c>
       <c r="F28" t="s">
         <v>159</v>
@@ -4954,7 +5284,7 @@
         <v>82</v>
       </c>
       <c r="E29" t="s">
-        <v>962</v>
+        <v>1072</v>
       </c>
       <c r="F29" t="s">
         <v>162</v>
@@ -4983,7 +5313,7 @@
         <v>165</v>
       </c>
       <c r="E30" t="s">
-        <v>963</v>
+        <v>1073</v>
       </c>
       <c r="F30" t="s">
         <v>166</v>
@@ -5012,7 +5342,7 @@
         <v>168</v>
       </c>
       <c r="E31" t="s">
-        <v>964</v>
+        <v>1074</v>
       </c>
       <c r="F31" t="s">
         <v>169</v>
@@ -5041,7 +5371,7 @@
         <v>172</v>
       </c>
       <c r="E32" t="s">
-        <v>965</v>
+        <v>1075</v>
       </c>
       <c r="F32" t="s">
         <v>173</v>
@@ -5070,7 +5400,7 @@
         <v>176</v>
       </c>
       <c r="E33" t="s">
-        <v>966</v>
+        <v>1076</v>
       </c>
       <c r="F33" t="s">
         <v>177</v>
@@ -5099,7 +5429,7 @@
         <v>180</v>
       </c>
       <c r="E34" t="s">
-        <v>967</v>
+        <v>1077</v>
       </c>
       <c r="F34" t="s">
         <v>181</v>
@@ -5128,7 +5458,7 @@
         <v>183</v>
       </c>
       <c r="E35" t="s">
-        <v>968</v>
+        <v>1078</v>
       </c>
       <c r="F35" t="s">
         <v>184</v>
@@ -5157,7 +5487,7 @@
         <v>187</v>
       </c>
       <c r="E36" t="s">
-        <v>969</v>
+        <v>1079</v>
       </c>
       <c r="F36" t="s">
         <v>188</v>
@@ -5186,7 +5516,7 @@
         <v>191</v>
       </c>
       <c r="E37" t="s">
-        <v>970</v>
+        <v>1080</v>
       </c>
       <c r="F37" t="s">
         <v>192</v>
@@ -5215,7 +5545,7 @@
         <v>194</v>
       </c>
       <c r="E38" t="s">
-        <v>971</v>
+        <v>1081</v>
       </c>
       <c r="F38" t="s">
         <v>195</v>
@@ -5244,7 +5574,7 @@
         <v>197</v>
       </c>
       <c r="E39" t="s">
-        <v>972</v>
+        <v>1082</v>
       </c>
       <c r="F39" t="s">
         <v>198</v>
@@ -5273,7 +5603,7 @@
         <v>64</v>
       </c>
       <c r="E40" t="s">
-        <v>973</v>
+        <v>1083</v>
       </c>
       <c r="F40" t="s">
         <v>41</v>
@@ -5302,7 +5632,7 @@
         <v>201</v>
       </c>
       <c r="E41" t="s">
-        <v>974</v>
+        <v>1084</v>
       </c>
       <c r="F41" t="s">
         <v>202</v>
@@ -5331,7 +5661,7 @@
         <v>204</v>
       </c>
       <c r="E42" t="s">
-        <v>975</v>
+        <v>1085</v>
       </c>
       <c r="F42" t="s">
         <v>205</v>
@@ -5360,7 +5690,7 @@
         <v>807</v>
       </c>
       <c r="E43" t="s">
-        <v>976</v>
+        <v>1086</v>
       </c>
       <c r="F43" t="s">
         <v>209</v>
@@ -5389,7 +5719,7 @@
         <v>82</v>
       </c>
       <c r="E44" t="s">
-        <v>977</v>
+        <v>1087</v>
       </c>
       <c r="F44" t="s">
         <v>212</v>
@@ -5418,7 +5748,7 @@
         <v>215</v>
       </c>
       <c r="E45" t="s">
-        <v>978</v>
+        <v>1088</v>
       </c>
       <c r="F45" t="s">
         <v>216</v>
@@ -5447,7 +5777,7 @@
         <v>82</v>
       </c>
       <c r="E46" t="s">
-        <v>979</v>
+        <v>1089</v>
       </c>
       <c r="F46" t="s">
         <v>219</v>
@@ -5505,7 +5835,7 @@
         <v>752</v>
       </c>
       <c r="E48" t="s">
-        <v>980</v>
+        <v>1090</v>
       </c>
       <c r="F48" t="s">
         <v>49</v>
@@ -5534,7 +5864,7 @@
         <v>82</v>
       </c>
       <c r="E49" t="s">
-        <v>981</v>
+        <v>1091</v>
       </c>
       <c r="F49" t="s">
         <v>229</v>
@@ -5563,7 +5893,7 @@
         <v>231</v>
       </c>
       <c r="E50" t="s">
-        <v>982</v>
+        <v>1092</v>
       </c>
       <c r="F50" t="s">
         <v>232</v>
@@ -5592,7 +5922,7 @@
         <v>235</v>
       </c>
       <c r="E51" t="s">
-        <v>983</v>
+        <v>1093</v>
       </c>
       <c r="F51" t="s">
         <v>236</v>
@@ -5621,7 +5951,7 @@
         <v>64</v>
       </c>
       <c r="E52" t="s">
-        <v>984</v>
+        <v>1094</v>
       </c>
       <c r="F52" t="s">
         <v>53</v>
@@ -5650,7 +5980,7 @@
         <v>239</v>
       </c>
       <c r="E53" t="s">
-        <v>985</v>
+        <v>1095</v>
       </c>
       <c r="F53" t="s">
         <v>240</v>
@@ -5679,7 +6009,7 @@
         <v>818</v>
       </c>
       <c r="E54" t="s">
-        <v>986</v>
+        <v>1096</v>
       </c>
       <c r="F54" t="s">
         <v>243</v>
@@ -5708,7 +6038,7 @@
         <v>246</v>
       </c>
       <c r="E55" t="s">
-        <v>987</v>
+        <v>1097</v>
       </c>
       <c r="F55" t="s">
         <v>247</v>
@@ -5737,7 +6067,7 @@
         <v>249</v>
       </c>
       <c r="E56" t="s">
-        <v>988</v>
+        <v>1098</v>
       </c>
       <c r="F56" t="s">
         <v>250</v>
@@ -5766,7 +6096,7 @@
         <v>822</v>
       </c>
       <c r="E57" t="s">
-        <v>989</v>
+        <v>1099</v>
       </c>
       <c r="F57" t="s">
         <v>254</v>
@@ -5795,7 +6125,7 @@
         <v>824</v>
       </c>
       <c r="E58" t="s">
-        <v>990</v>
+        <v>1100</v>
       </c>
       <c r="F58" t="s">
         <v>257</v>

--- a/Covid_19_Dataset_and_References/References/44.xlsx
+++ b/Covid_19_Dataset_and_References/References/44.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6150" uniqueCount="1101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6556" uniqueCount="1156">
   <si>
     <t>Doi</t>
   </si>
@@ -4149,6 +4149,171 @@
   </si>
   <si>
     <t>[Alexis K.%Okoh%alexis.okoh@rwjbh.org%0,                  Christoph%Sossou%NULL%0,                  Christoph%Sossou%NULL%0,                  Neha S.%Dangayach%NULL%0,                  Sherin%Meledathu%NULL%0,                  Oluwakemi%Phillips%NULL%0,                  Corinne%Raczek%NULL%0,                  Michael%Patti%NULL%0,                  Nathan%Kang%NULL%0,                  Sameer A.%Hirji%NULL%0,                  Charles%Cathcart%NULL%0,                  Christian%Engell%NULL%0,                  Marc%Cohen%NULL%0,                  Sandhya%Nagarakanti%NULL%0,                  Eliahu%Bishburg%NULL%0,                  Harpreet S.%Grewal%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%0,                   Lian%Yang%NULL%0,                   Yuncheng%Li%NULL%0,                   Bo%Liang%NULL%0,                   Lin%Li%NULL%0,                   Tianhe%Ye%NULL%0,                   Lingli%Li%NULL%0,                   Dehan%Liu%NULL%0,                   Shan%Gui%NULL%0,                   Yu%Hu%NULL%0,                   Chuansheng%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                  Becker%L.B.%coreGivesNoEmail%0,                  Chelico%J.D.%coreGivesNoEmail%0,                  Cohen%S.L.%coreGivesNoEmail%0,                  Cookingham%J.%coreGivesNoEmail%0,                  Coppa%K.%coreGivesNoEmail%0,                  Crawford%J.M.%coreGivesNoEmail%0,                  Davidson%K.W.%coreGivesNoEmail%0,                  Diefenbach%M.A.%coreGivesNoEmail%0,                  Dominello%A.J.%coreGivesNoEmail%0,                  Duer-Hefele%J.%coreGivesNoEmail%0,                  Falzon%L.%coreGivesNoEmail%0,                  Gitlin%J.%coreGivesNoEmail%0,                  Hajizadeh%N.%coreGivesNoEmail%0,                  Harvin%T.G.%coreGivesNoEmail%0,                  Hirsch%J.S.%coreGivesNoEmail%0,                  Hirschwerk%D.A.%coreGivesNoEmail%0,                  Kim%E.J.%coreGivesNoEmail%0,                  Kozel%Z.M.%coreGivesNoEmail%0,                  Marrast%L.M.%coreGivesNoEmail%0,                  McGinn%T.%coreGivesNoEmail%0,                  Mogavero%J.N.%coreGivesNoEmail%0,                  Narasimhan%M.%coreGivesNoEmail%0,                  Osorio%G.A.%coreGivesNoEmail%0,                  Qiu%M.%coreGivesNoEmail%0,                  Richardson%S.%coreGivesNoEmail%0,                  Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Mario%Rivera-Izquierdo%NULL%0,                   María%del Carmen Valero-Ubierna%NULL%0,                   María%del Carmen Valero-Ubierna%NULL%0,                   Juan Luis%R-delAmo%NULL%0,                   Miguel Ángel%Fernández-García%NULL%0,                   Silvia%Martínez-Diz%NULL%0,                   Arezu%Tahery-Mahmoud%NULL%0,                   Marta%Rodríguez-Camacho%NULL%0,                   Ana Belén%Gámiz-Molina%NULL%0,                   Nicolás%Barba-Gyengo%NULL%0,                   Pablo%Gámez-Baeza%NULL%0,                   Celia%Cabrero-Rodríguez%NULL%0,                   Pedro Antonio%Guirado-Ruiz%NULL%0,                   Divina Tatiana%Martín-Romero%NULL%0,                   Antonio Jesús%Láinez-Ramos-Bossini%NULL%0,                   María Rosa%Sánchez-Pérez%NULL%0,                   José%Mancera-Romero%NULL%0,                   Miguel%García-Martín%NULL%0,                   Luis Miguel%Martín-delosReyes%NULL%0,                   Virginia%Martínez-Ruiz%NULL%0,                   Virginia%Martínez-Ruiz%NULL%0,                   Pablo%Lardelli-Claret%NULL%0,                   Eladio%Jiménez-Mejías%NULL%0,                   Muhammad%Adrish%NULL%0,                   Muhammad%Adrish%NULL%0,                   NULL%NULL%NULL%0,                   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,                   Kun%Yang%NULL%0,                   Kun%Yang%NULL%0,                   Wenxia%Wang%NULL%0,                   Wenxia%Wang%NULL%0,                   Lingyu%Jiang%NULL%0,                   Lingyu%Jiang%NULL%0,                   Jianxin%Song%songsingsjx@sina.com%0,                   Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Grace%Salacup%salacupg@einstein.edu%0,                   Kevin Bryan%Lo%NULL%0,                   Kevin Bryan%Lo%NULL%0,                   Fahad%Gul%NULL%0,                   Eric%Peterson%NULL%0,                   Robert%De Joy%NULL%0,                   Ruchika%Bhargav%NULL%0,                   Jerald%Pelayo%NULL%0,                   Jeri%Albano%NULL%0,                   Zurab%Azmaiparashvili%NULL%0,                   Sadia%Benzaquen%NULL%0,                   Gabriel%Patarroyo‐Aponte%NULL%0,                   Janani%Rangaswami%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yufeng%Shang%NULL%0,                   Tao%Liu%NULL%0,                   Yongchang%Wei%NULL%0,                   Jingfeng%Li%NULL%0,                   Liang%Shao%NULL%0,                   Minghui%Liu%NULL%0,                   Yongxi%Zhang%NULL%0,                   Zhigang%Zhao%NULL%0,                   Haibo%Xu%NULL%0,                   Zhiyong%Peng%NULL%0,                   Fuling%Zhou%zhoufuling@whu.edu.cn%0,                   Xinghuan%Wang%wangxinghuan@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,                   Mu%Qin%qinmuae@163.com%0,                   Yuli%Cai%NULL%0,                   Tao%Liu%NULL%0,                   Bo%Shen%NULL%0,                   Fan%Yang%NULL%0,                   Sheng%Cao%NULL%0,                   Xu%Liu%NULL%0,                   Xu%Liu%NULL%0,                   Yaozu%Xiang%NULL%0,                   Qinyan%Zhao%NULL%0,                   He%Huang%huanghe1977@whu.edu.cn%0,                   Bo%Yang%yybb112@whu.edu.cn%0,                   Congxin%Huang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rita de Cássia Menezes%Soares%NULL%0,                   Larissa Rodrigues%Mattos%NULL%0,                   Letícia Martins%Raposo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,                   Ruoqi%Ning%NULL%0,                   Yu%Tao%NULL%0,                   Chong%Yu%NULL%0,                   Xiaoyan%Deng%NULL%0,                   Caili%Zhao%NULL%0,                   Silu%Meng%NULL%0,                   Fangxu%Tang%89650793@qq.com%0,                   Dong%Xu%89650793@qq.com%0,                   Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Kun%Wang%NULL%0,                   Peiyuan%Zuo%NULL%0,                   Yuwei%Liu%NULL%0,                   Meng%Zhang%NULL%0,                   Xiaofang%Zhao%NULL%0,                   Songpu%Xie%NULL%0,                   Hao%Zhang%NULL%0,                   Xinglin%Chen%NULL%0,                   Chengyun%Liu%chengyunliu@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Bo%XU%NULL%0,                   Cun-yu%FAN%NULL%0,                   An-lu%WANG%NULL%0,                   Yi-long%ZOU%NULL%0,                   Yi-han%YU%NULL%0,                   Cong%HE%NULL%0,                   Wen-guang%XIA%NULL%0,                   Ji-xian%ZHANG%NULL%0,                   Qing%MIAO%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xisheng%Yan%NULL%0,                   Fen%Li%NULL%0,                   Xiao%Wang%NULL%0,                   Jie%Yan%NULL%0,                   Fen%Zhu%NULL%0,                   Shifan%Tang%NULL%0,                   Yingzhong%Deng%NULL%0,                   Hua%Wang%NULL%0,                   Rui%Chen%NULL%0,                   Zhili%Yu%NULL%0,                   Yaping%Li%NULL%0,                   Jingzhou%Shang%NULL%0,                   Lingjun%Zeng%NULL%0,                   Jie%Zhao%NULL%0,                   Chaokun%Guan%NULL%0,                   Qiaomei%Liu%NULL%0,                   Haifeng%Chen%NULL%0,                   Wei%Gong%NULL%0,                   Xin%Huang%NULL%0,                   Yu‐Jiao%Zhang%NULL%0,                   Jianguang%Liu%NULL%0,                   Xiaoyan%Dong%NULL%0,                   Wen%Zheng%zhengwen12@mails.jlu.edu.cn%0,                   Shaoping%Nie%spnie@126.com%0,                   Dongsheng%Li%dongshengli196809@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qing%Yang%NULL%0,                   Ying%Zhou%NULL%0,                   Xinrong%Wang%NULL%0,                   Shan%Gao%NULL%0,                   Yang%Xiao%NULL%0,                   Weiming%Zhang%NULL%0,                   Yi%Hu%huyizxyy@163.com%0,                   Yafei%Wang%wyf_527@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                   Qingyu%Yang%NULL%0,                   Yaxin%Wang%NULL%0,                   Yongran%Wu%NULL%0,                   Jiqian%Xu%NULL%0,                   Yuan%Yu%NULL%0,                   You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wenjing%Ye%yewenjing@xinhuamed.com.cn%0,                   Guoxi%Chen%4799082@qq.com%0,                   Xiaopan%Li%xiaopanli0224@126.com%0,                   Xing%Lan%474137452@qq.com%0,                   Chen%Ji%c.ji.3@warwick.ac.uk%0,                   Min%Hou%min-hou710@hotmail.com%0,                   Di%Zhang%zhangdizhangdi1234@163.com%0,                   Guangwang%Zeng%785663609@qq.com%0,                   Yaling%Wang%953822402@qq.com%0,                   Cheng%Xu%xucheng112358@126.com%0,                   Weiwei%Lu%luweiwei100@126.com%0,                   Ruolin%Cui%crlqwerty@163.com%0,                   Yuyang%Cai%caiyuyang@sjtu.edu.cn%0,                   Hai%Huang%1220775601@qq.com%0,                   Ling%Yang%yangling01@xinhuamed.com.cn%0]</t>
+  </si>
+  <si>
+    <t>[Caizheng%Yu%NULL%0,                   Qing%Lei%NULL%0,                   Wenkai%Li%NULL%0,                   Xiong%Wang%NULL%0,                   Wei%Liu%NULL%0,                   Xionglin%Fan%NULL%0,                   Wengang%Li%228907211@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                   Ting%Yu%NULL%0,                   Ronghui%Du%NULL%0,                   Guohui%Fan%NULL%0,                   Ying%Liu%NULL%0,                   Zhibo%Liu%NULL%0,                   Jie%Xiang%NULL%0,                   Yeming%Wang%NULL%0,                   Bin%Song%NULL%0,                   Xiaoying%Gu%NULL%0,                   Lulu%Guan%NULL%0,                   Yuan%Wei%NULL%0,                   Hui%Li%NULL%0,                   Xudong%Wu%NULL%0,                   Jiuyang%Xu%NULL%0,                   Shengjin%Tu%NULL%0,                   Yi%Zhang%NULL%0,                   Hua%Chen%NULL%0,                   Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Moran%Amit%NULL%0,                   Alex%Sorkin%NULL%0,                   Jacob%Chen%NULL%0,                   Barak%Cohen%NULL%0,                   Barak%Cohen%NULL%0,                   Dana%Karol%NULL%0,                   Dana%Karol%NULL%0,                   Avishai M%Tsur%NULL%0,                   Shaul%Lev%NULL%0,                   Shaul%Lev%NULL%0,                   Tal%Rozenblat%NULL%0,                   Ayana%Dvir%NULL%0,                   Ayana%Dvir%NULL%0,                   Geva%Landau%NULL%0,                   Lidar%Fridrich%NULL%0,                   Lidar%Fridrich%NULL%0,                   Elon%Glassberg%NULL%0,                   Shani%Kesari%NULL%0,                   Sigal%Sviri%NULL%0,                   Ram%Gelman%NULL%0,                   Asaf%Miller%NULL%0,                   Danny%Epstein%NULL%0,                   Ronny%Ben-Avi%NULL%0,                   Ronny%Ben-Avi%NULL%0,                   Moshe%Matan%NULL%0,                   Daniel J.%Jakobson%NULL%0,                   Daniel J.%Jakobson%NULL%0,                   Tarif%Bader%NULL%0,                   Tarif%Bader%NULL%0,                   David%Dahan%NULL%0,                   David%Dahan%NULL%0,                   Daniel A.%King%NULL%0,                   Anat%Ben-Ari%NULL%0,                   Arie%Soroksky%NULL%0,                   Alon%Bar%NULL%0,                   Alon%Bar%NULL%0,                   Noam%Fink%NULL%0,                   Pierre%Singer%NULL%0,                   Avi%Benov%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,                   John R%Adler%NULL%0,                   Muhammad Sohaib%Asghar%NULL%0,                   Muhammad Sohaib%Asghar%NULL%0,                   Syed Jawad%Haider Kazmi%NULL%0,                   Noman%Ahmed Khan%NULL%0,                   Mohammed%Akram%NULL%0,                   Salman%Ahmed Khan%NULL%0,                   Uzma%Rasheed%NULL%0,                   Maira%Hassan%NULL%0,                   Gul Muhammad%Memon%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pedro%Baqui%NULL%0,                   Ioana%Bica%NULL%0,                   Valerio%Marra%marra@cosmo-ufes.org%0,                   Ari%Ercole%NULL%0,                   Mihaela%van der Schaar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anesi%Adriano%coreGivesNoEmail%0,                  Bettinardi%Alessandra%coreGivesNoEmail%0,                  Bonetti%Graziella%coreGivesNoEmail%0,                  Borrelli%Gianluca%coreGivesNoEmail%0,                  Fiordalisi%Gianfranco%coreGivesNoEmail%0,                  Lippi%Giuseppe%coreGivesNoEmail%0,                  Manelli%Filippo%coreGivesNoEmail%0,                  Marino%Antonio%coreGivesNoEmail%0,                  Menolfi%Annamaria%coreGivesNoEmail%0,                  Patroni%Andrea%coreGivesNoEmail%0,                  Saggini%Sara%coreGivesNoEmail%0,                  Volpi%Roberta%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Andrea%Borghesi%NULL%0,                   Angelo%Zigliani%NULL%0,                   Salvatore%Golemi%NULL%0,                   Nicola%Carapella%NULL%0,                   Patrizia%Maculotti%NULL%0,                   Davide%Farina%NULL%0,                   Roberto%Maroldi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alberto M.%Borobia%NULL%0,                   Antonio J.%Carcas%NULL%0,                   Antonio J.%Carcas%NULL%0,                   Francisco%Arnalich%NULL%0,                   Rodolfo%Álvarez-Sala%NULL%0,                   Rodolfo%Álvarez-Sala%NULL%0,                   Jaime%Monserrat-Villatoro%NULL%0,                   Manuel%Quintana%NULL%0,                   Juan Carlos%Figueira%NULL%0,                   Rosario M.%Torres Santos-Olmo%NULL%0,                   Julio%García-Rodríguez%NULL%0,                   Julio%García-Rodríguez%NULL%0,                   Alberto%Martín-Vega%NULL%0,                   Antonio%Buño%NULL%0,                   Elena%Ramírez%NULL%0,                   Gonzalo%Martínez-Alés%NULL%0,                   Gonzalo%Martínez-Alés%NULL%0,                   Nicolás%García-Arenzana%NULL%0,                   M. Concepción%Núñez%NULL%0,                   M. Concepción%Núñez%NULL%0,                   Milagros%Martí-de-Gracia%NULL%0,                   Francisco%Moreno Ramos%NULL%0,                   Francisco%Reinoso-Barbero%NULL%0,                   Alejandro%Martin-Quiros%NULL%0,                   Angélica%Rivera Núñez%NULL%0,                   Jesús%Mingorance%NULL%0,                   Carlos J.%Carpio Segura%NULL%0,                   Carlos J.%Carpio Segura%NULL%0,                   Daniel%Prieto Arribas%NULL%0,                   Esther%Rey Cuevas%NULL%0,                   Concepción%Prados Sánchez%NULL%0,                   Juan J.%Rios%NULL%0,                   Miguel A.%Hernán%NULL%0,                   Jesús%Frías%NULL%0,                   José R.%Arribas%NULL%0,                   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simon E.%Brill%simon.brill@nhs.net%0,                   Hannah C.%Jarvis%NULL%0,                   Hannah C.%Jarvis%NULL%0,                   Ezgi%Ozcan%NULL%0,                   Thomas L. P.%Burns%NULL%0,                   Rabia A.%Warraich%NULL%0,                   Lisa J.%Amani%NULL%0,                   Amina%Jaffer%NULL%0,                   Stephanie%Paget%NULL%0,                   Anand%Sivaramakrishnan%NULL%0,                   Dean D.%Creer%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                   Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                   Wenlin%Cheng%NULL%0,                   Lei%Yu%NULL%0,                   Ya-Kun%Liu%NULL%0,                   Xiaoyong%Hu%NULL%0,                   Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[B.%Carter%NULL%0,                   J.T.%Collins%NULL%0,                   F.%Barlow-Pay%NULL%0,                   F.%Rickard%NULL%0,                   E.%Bruce%NULL%0,                   A.%Verduri%NULL%0,                   T.J.%Quinn%NULL%0,                   E.%Mitchell%NULL%0,                   A.%Price%NULL%0,                   A.%Vilches-Moraga%NULL%0,                   M.J.%Stechman%NULL%0,                   R.%Short%NULL%0,                   A.%Einarsson%NULL%0,                   P.%Braude%NULL%0,                   S.%Moug%NULL%0,                   P.K.%Myint%NULL%0,                   J.%Hewitt%NULL%0,                   L.%Pearce%NULL%0,                   K.%McCarthy%NULL%0,                   C.%Davey%NULL%0,                   S.%Jones%NULL%0,                   K.%Lunstone%NULL%0,                   A.%Cavenagh%NULL%0,                   C.%Silver%NULL%0,                   T.%Telford%NULL%0,                   R.%Simmons%NULL%0,                   M.%Holloway%NULL%0,                   J.%Hesford%NULL%0,                   T.%El Jichi Mutasem%NULL%0,                   S.%Singh%NULL%0,                   D.%Paxton%NULL%0,                   W.%Harris%NULL%0,                   N.%Galbraith%NULL%0,                   E.%Bhatti%NULL%0,                   J.%Edwards%NULL%0,                   S.%Duffy%NULL%0,                   J.%Kelly%NULL%0,                   C.%Murphy%NULL%0,                   C.%Bisset%NULL%0,                   R.%Alexander%NULL%0,                   M.%Garcia%NULL%0,                   S.%Sangani%NULL%0,                   T.%Kneen%NULL%0,                   T.%Lee%NULL%0,                   A.%McGovern%NULL%0,                   G.%Guaraldi%NULL%0,                   E.%Clini%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fuyang%Chen%NULL%0,                   Wenwu%Sun%NULL%0,                   Shengrong%Sun%NULL%0,                   Zhiyu%Li%lizhiyu@whu.edu.cn%0,                   Zhong%Wang%zhongwangchn@whu.edu.cn%0,                   Li%Yu%yuliwhzxyy@163.com%0,                   Li%Yu%yuliwhzxyy@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,                   Ling%Sang%NULL%0,                   Mei%Jiang%NULL%0,                   Zhaowei%Yang%NULL%0,                   Nan%Jia%NULL%0,                   Wanyi%Fu%NULL%0,                   Jiaxing%Xie%NULL%0,                   Weijie%Guan%NULL%0,                   Wenhua%Liang%NULL%0,                   Zhengyi%Ni%NULL%0,                   Yu%Hu%NULL%0,                   Lei%Liu%NULL%0,                   Hong%Shan%NULL%0,                   Chunliang%Lei%NULL%0,                   Yixiang%Peng%NULL%0,                   Li%Wei%NULL%0,                   Yong%Liu%NULL%0,                   Yahua%Hu%NULL%0,                   Peng%Peng%NULL%0,                   Jianming%Wang%NULL%0,                   Jiyang%Liu%NULL%0,                   Zhong%Chen%NULL%0,                   Gang%Li%NULL%0,                   Zhijian%Zheng%NULL%0,                   Shaoqin%Qiu%NULL%0,                   Jie%Luo%NULL%0,                   Changjiang%Ye%NULL%0,                   Shaoyong%Zhu%NULL%0,                   Jinping%Zheng%NULL%0,                   Nuofu%Zhang%NULL%0,                   Yimin%Li%NULL%0,                   Jianxing%He%NULL%0,                   Jing%Li%NULL%0,                   Shiyue%Li%NULL%0,                   Nanshan%Zhong%NULL%0,                   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                   Di%Wu%NULL%0,                   Huilong%Chen%NULL%0,                   Weiming%Yan%NULL%0,                   Danlei%Yang%NULL%0,                   Guang%Chen%NULL%0,                   Ke%Ma%NULL%0,                   Dong%Xu%NULL%0,                   Haijing%Yu%NULL%0,                   Hongwu%Wang%NULL%0,                   Tao%Wang%NULL%0,                   Wei%Guo%NULL%0,                   Jia%Chen%NULL%0,                   Chen%Ding%NULL%0,                   Xiaoping%Zhang%NULL%0,                   Jiaquan%Huang%NULL%0,                   Meifang%Han%NULL%0,                   Shusheng%Li%NULL%0,                   Xiaoping%Luo%NULL%0,                   Jianping%Zhao%NULL%0,                   Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anying%Cheng%NULL%0,                   Liu%Hu%NULL%0,                   Yiru%Wang%NULL%0,                   Luyan%Huang%NULL%0,                   Lingxi%Zhao%NULL%0,                   Congcong%Zhang%NULL%0,                   Xiyue%Liu%NULL%0,                   Ranran%Xu%NULL%0,                   Feng%Liu%NULL%0,                   Jinping%Li%NULL%0,                   Dawei%Ye%NULL%0,                   Tao%Wang%NULL%0,                   Yongman%Lv%lvyongman@126.com%0,                   Qingquan%Liu%qqliutj@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fabio%Ciceri%ciceri.fabio@hsr.it%0,                   Antonella%Castagna%NULL%0,                   Patrizia%Rovere-Querini%NULL%0,                   Francesco%De Cobelli%NULL%0,                   Annalisa%Ruggeri%NULL%0,                   Laura%Galli%NULL%0,                   Caterina%Conte%NULL%0,                   Rebecca%De Lorenzo%NULL%0,                   Andrea%Poli%NULL%0,                   Alberto%Ambrosio%NULL%0,                   Carlo%Signorelli%NULL%0,                   Eleonora%Bossi%NULL%0,                   Maria%Fazio%NULL%0,                   Cristina%Tresoldi%NULL%0,                   Sergio%Colombo%NULL%0,                   Giacomo%Monti%NULL%0,                   Efgeny%Fominskiy%NULL%0,                   Stefano%Franchini%NULL%0,                   Marzia%Spessot%NULL%0,                   Carlo%Martinenghi%NULL%0,                   Michele%Carlucci%NULL%0,                   Luigi%Beretta%NULL%0,                   Anna Maria%Scandroglio%NULL%0,                   Massimo%Clementi%NULL%0,                   Massimo%Locatelli%NULL%0,                   Moreno%Tresoldi%NULL%0,                   Paolo%Scarpellini%NULL%0,                   Gianvito%Martino%NULL%0,                   Emanuele%Bosi%NULL%0,                   Lorenzo%Dagna%NULL%0,                   Adriano%Lazzarin%NULL%0,                   Giovanni%Landoni%NULL%0,                   Alberto%Zangrillo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,                   Wei%Liu%NULL%0,                   Kui%Liu%NULL%0,                   Yuan-Yuan%Fang%NULL%0,                   Jin%Shang%NULL%0,                   Ling%Zhou%NULL%0,                   Ke%Wang%NULL%0,                   Fan%Leng%NULL%0,                   Shuang%Wei%NULL%0,                   Lei%Chen%NULL%0,                   Hui-Guo%Liu%NULL%0,                   Pei-Fang%Wei%NULL%0,                   Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                   Li-Rong%Liang%NULL%0,                   Cheng-Qing%Yang%NULL%0,                   Wen%Wang%NULL%0,                   Tan-Ze%Cao%NULL%0,                   Ming%Li%NULL%0,                   Guang-Yun%Guo%NULL%0,                   Juan%Du%NULL%0,                   Chun-Lan%Zheng%NULL%0,                   Qi%Zhu%NULL%0,                   Ming%Hu%NULL%0,                   Xu-Yan%Li%NULL%0,                   Peng%Peng%NULL%0,                   Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shan%Gao%NULL%0,                   Fang%Jiang%NULL%0,                   Wei%Jin%NULL%0,                   Yuan%Shi%NULL%0,                   Leilei%Yang%NULL%0,                   Yanqiong%Xia%NULL%0,                   Linyan%Jia%NULL%0,                   Bo%Wang%NULL%0,                   Han%Lin%NULL%0,                   Yin%Cai%NULL%0,                   Zhengyuan%Xia%NULL%0,                   Jian%Peng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pedro David%Wendel Garcia%pedrodavid.wendelgarcia@usz.ch%0,                   Thierry%Fumeaux%thierry.fumeaux@ghol.ch%0,                   Philippe%Guerci%NULL%0,                   Dorothea Monika%Heuberger%dorotheamonika.heuberger@usz.ch%0,                   Jonathan%Montomoli%NULL%0,                   Ferran%Roche-Campo%NULL%0,                   Reto Andreas%Schuepbach%reto.schuepbach@usz.ch%0,                   Matthias Peter%Hilty%matthias.hilty@usz.ch%0,                   Mario%Alfaro Farias%NULL%0,                   Antoni%Margarit%NULL%0,                   Gerardo%Vizmanos-Lamotte%NULL%0,                   Thomas%Tschoellitsch%NULL%0,                   Jens%Meier%NULL%0,                   Francesco S.%Cardona%NULL%0,                   Josef%Skola%NULL%0,                   Lenka%Horakova%NULL%0,                   Hernan%Aguirre-Bermeo%NULL%0,                   Janina%Apolo%NULL%0,                   Emmanuel%Novy%NULL%0,                   Marie-Reine%Losser%NULL%0,                   Geoffrey%Jurkolow%NULL%0,                   Gauthier%Delahaye%NULL%0,                   Sascha%David%NULL%0,                   Tobias%Welte%NULL%0,                   Tobias%Wengenmayer%NULL%0,                   Dawid L.%Staudacher%NULL%0,                   Theodoros%Aslanidis%NULL%0,                   Barna%Babik%NULL%0,                   Anita%Korsos%NULL%0,                   Janos%Gal%NULL%0,                   Hermann%Csaba%NULL%0,                   Abele%Donati%NULL%0,                   Andrea%Carsetti%NULL%0,                   Fabrizio%Turrini%NULL%0,                   Maria Sole%Simonini%NULL%0,                   Roberto%Ceriani%NULL%0,                   Martina%Murrone%NULL%0,                   Emanuele%Rezoagli%NULL%0,                   Giovanni%Vitale%NULL%0,                   Alberto%Fogagnolo%NULL%0,                   Savino%Spadaro%NULL%0,                   Maddalena Alessandra%Wu%NULL%0,                   Chiara%Cogliati%NULL%0,                   Riccardo%Colombo%NULL%0,                   Emanuele%Catena%NULL%0,                   Francesca%Facondini%NULL%0,                   Antonella%Potalivo%NULL%0,                   Gianfilippo%Gangitano%NULL%0,                   Tiziana%Perin%NULL%0,                   Maria Grazia%Bocci%NULL%0,                   Massimo%Antonelli%NULL%0,                   Diederik%Gommers%NULL%0,                   Can%Ince%NULL%0,                   Eric%Mayor-Vázquez%NULL%0,                   Maria%Cruz%NULL%0,                   Martin%Delgado%NULL%0,                   Raquel Rodriguez%Garcia%NULL%0,                   Jorge%Gamez Zapata%NULL%0,                   Begoña%Zalba-Etayo%NULL%0,                   Herminia%Lozano-Gomez%NULL%0,                   Pedro%Castro%NULL%0,                   Adrian%Tellez%NULL%0,                   Adriana%Jacas%NULL%0,                   Guido%Muñoz%NULL%0,                   Rut%Andrea%NULL%0,                   Jose%Ortiz%NULL%0,                   Eduard%Quintana%NULL%0,                   Irene%Rovira%NULL%0,                   Enric%Reverter%NULL%0,                   Javier%Fernandez%NULL%0,                   Miquel%Ferrer%NULL%0,                   Joan R.%Badia%NULL%0,                   Arantxa%Lander Azcona%NULL%0,                   Jesus Escos%Orta%NULL%0,                   Philipp%Bühler%NULL%0,                   Silvio%Brugger%NULL%0,                   Daniel%Hofmaenner%NULL%0,                   Simone%Unseld%NULL%0,                   Frank%Ruschitzka%NULL%0,                   Mallory%Moret-Bochatay%NULL%0,                   Bernd%Yuen%NULL%0,                   Thomas%Hillermann%NULL%0,                   Hatem%Ksouri%NULL%0,                   Govind Oliver%Sridharan%NULL%0,                   Anette%Ristic%NULL%0,                   Michael%Sepulcri%NULL%0,                   Miodrag%Filipovic%NULL%0,                   Urs%Pietsch%NULL%0,                   Petra%Salomon%NULL%0,                   Iris%Drvaric%NULL%0,                   Peter%Schott%NULL%0,                   Severin%Urech%NULL%0,                   Adriana%Lambert%NULL%0,                   Lukas%Merki%NULL%0,                   Marcus%Laube%NULL%0,                   Frank%Hillgaertner%NULL%0,                   Marianne%Sieber%NULL%0,                   Alexander%Dullenkopf%NULL%0,                   Lina%Petersen%NULL%0,                   Serge%Grazioli%NULL%0,                   Peter C.%Rimensberger%NULL%0,                   Isabelle%Fleisch%NULL%0,                   Jerome%Lavanchy%NULL%0,                   Katharina%Marquardt%NULL%0,                   Karim%Shaikh%NULL%0,                   Hermann%Redecker%NULL%0,                   Michael%Stephan%NULL%0,                   Jan%Brem%NULL%0,                   Bjarte%Rogdo%NULL%0,                   Andre%Birkenmaier%NULL%0,                   Friederike%Meyer zu Bentrup%NULL%0,                   Patricia%Fodor%NULL%0,                   Pascal%Locher%NULL%0,                   Giovanni%Camen%NULL%0,                   Martin%Siegemund%NULL%0,                   Nuria%Zellweger%NULL%0,                   Marie-Madlen%Jeitziner%NULL%0,                   Beatrice%Jenni-Moser%NULL%0,                   Christian%Bürkle%NULL%0,                   Gian-Reto%Kleger%NULL%0,                   Marilene%Franchitti Laurent%NULL%0,                   Jean-Christophe%Laurent%NULL%0,                   Tomislav%Gaspert%NULL%0,                   Marija%Jovic%NULL%0,                   Michael%Studhalter%NULL%0,                   Christoph%Haberthuer%NULL%0,                   Roger F.%Lussman%NULL%0,                   Daniela%Selz%NULL%0,                   Didier%Naon%NULL%0,                   Romano%Mauri%NULL%0,                   Samuele%Ceruti%NULL%0,                   Julien%Marrel%NULL%0,                   Mirko%Brenni%NULL%0,                   Rolf%Ensner%NULL%0,                   Nadine%Gehring%NULL%0,                   Antje%Heise%NULL%0,                   Tobias%Huebner%NULL%0,                   Thomas A.%Neff%NULL%0,                   Sara%Cereghetti%NULL%0,                   Filippo%Boroli%NULL%0,                   Jerome%Pugin%NULL%0,                   Nandor%Marczin%NULL%0,                   Joyce%Wong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Warren%Gavin%NULL%0,                   Elliott%Campbell%NULL%0,                   Syed-Adeel%Zaidi%NULL%0,                   Neha%Gavin%NULL%0,                   Lana%Dbeibo%NULL%0,                   Cole%Beeler%NULL%0,                   Kari%Kuebler%NULL%0,                   Ahmed%Abdel-Rahman%NULL%0,                   Mark%Luetkemeyer%NULL%0,                   Areeba%Kara%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Vijay%Gayam%vgayam@interfaithmedical.com%0,                   Muchi Ditah%Chobufo%NULL%0,                   Muchi Ditah%Chobufo%NULL%0,                   Mohamed A.%Merghani%NULL%0,                   Mohamed A.%Merghani%NULL%0,                   Shristi%Lamichhane%NULL%0,                   Pavani Reddy%Garlapati%NULL%0,                   Mark K.%Adler%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Cao%Y%coreGivesNoEmail%0,                  Imam%Z%coreGivesNoEmail%0,                  Lippi%G%coreGivesNoEmail%0,                  Oran%DP%coreGivesNoEmail%0,                  Shi%S%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Hai%Hu%huhai@wchscu.cn%0,                   Ni%Yao%NULL%0,                   Ni%Yao%NULL%0,                   Yanru%Qiu%NULL%0,                   John H.%Burton%NULL%0,                   John H.%Burton%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jiaofeng%Huang%NULL%0,                   Aiguo%Cheng%NULL%0,                   Rahul%Kumar%NULL%0,                   Yingying%Fang%NULL%0,                   Yingying%Fang%NULL%0,                   Gongping%Chen%NULL%0,                   Yueyong%Zhu%NULL%0,                   Su%Lin%sumer5129@fjmu.edu.cn%0,                   Su%Lin%sumer5129@fjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%0,                   Ju-Hyun%Kim%NULL%0,                   Jin-Sung%Park%NULL%0,                   Min Cheol%Chang%wheel633@ynu.ac.kr%0,                   Donghwi%Park%bdome@hanmail.net%0]</t>
+  </si>
+  <si>
+    <t>[K.%Khalil%NULL%0,                   K.%Agbontaen%NULL%0,                   D.%McNally%NULL%0,                   A.%Love%NULL%0,                   S.%Mandalia%NULL%0,                   W.%Banya%NULL%0,                   E.%Starren%NULL%0,                   R.%Dhunnookchand%NULL%0,                   H.%Farne%NULL%0,                   R.%Morton%NULL%0,                   G.%Davies%NULL%0,                   O.%Orhan%NULL%0,                   D%Lai%NULL%0,                   M.%Nelson%NULL%0,                   P.L.%Shah%NULL%0,                   J.L.%Garner%Justin.garner@chelwest.nhs.uk%0]</t>
+  </si>
+  <si>
+    <t>[Eyal%Klang%NULL%0,                   Gassan%Kassim%NULL%0,                   Shelly%Soffer%soffer.shelly@gmail.com%0,                   Robert%Freeman%NULL%0,                   Robert%Freeman%NULL%0,                   Matthew A.%Levin%NULL%0,                   Matthew A.%Levin%NULL%0,                   David L.%Reich%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sandeep%Krishnan%NULL%0,                   Kinjal%Patel%NULL%0,                   Ronak%Desai%NULL%0,                   Anupam%Sule%NULL%0,                   Peter%Paik%NULL%0,                   Ashley%Miller%NULL%0,                   Alicia%Barclay%NULL%0,                   Adam%Cassella%NULL%0,                   Jon%Lucaj%NULL%0,                   Yvonne%Royster%NULL%0,                   Joffer%Hakim%NULL%0,                   Zulfiqar%Ahmed%NULL%0,                   Farhad%Ghoddoussi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Manisha%Bhutani%null%0,         David M.%Foureau%null%0,         Shebli%Atrash%null%0,         Peter M.%Voorhees%null%0,         Saad Z.%Usmani%null%0]</t>
+  </si>
+  <si>
+    <t>[Wil%Lieberman-Cribbin%NULL%0,                   Joseph%Rapp%NULL%0,                   Naomi%Alpert%NULL%0,                   Stephanie%Tuminello%NULL%0,                   Emanuela%Taioli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Q.%Liu%NULL%0,                   N. C.%Song%NULL%0,                   Z. K.%Zheng%NULL%0,                   J. S.%Li%NULL%0,                   S. K.%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Long%NULL%0,                   Lan%Nie%NULL%0,                   Xiaochen%Xiang%NULL%0,                   Huan%Li%NULL%0,                   Xiaoli%Zhang%NULL%0,                   Xiaozhi%Fu%NULL%0,                   Hongwei%Ren%NULL%0,                   Wanxin%Liu%NULL%0,                   Qiang%Wang%wangqiang@wust.edu.cn%0,                   Qingming%Wu%wuhe9224@sina.com%0,                   Qingming%Wu%wuhe9224@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Miao%Luo%xref no email%0,           Jing%Liu%xref no email%0,           Weiling%Jiang%xref no email%0,           Shuang%Yue%xref no email%0,           Huiguo%Liu%xref no email%0,           Shuang%Wei%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Xiaomin%Luo%luoxiaomin04@163.com%0,                   Wei%Zhou%NULL%0,                   Xiaojie%Yan%NULL%0,                   Tangxi%Guo%NULL%0,                   Benchao%Wang%NULL%0,                   Hongxia%Xia%NULL%0,                   Lu%Ye%NULL%0,                   Jun%Xiong%NULL%0,                   Zongping%Jiang%NULL%0,                   Yu%Liu%NULL%0,                   Bicheng%Zhang%NULL%0,                   Weize%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ying%Luo%NULL%0,                   Liyan%Mao%NULL%0,                   Xu%Yuan%NULL%0,                   Ying%Xue%NULL%0,                   Qun%Lin%NULL%0,                   Guoxing%Tang%NULL%0,                   Huijuan%Song%NULL%0,                   Feng%Wang%fengwang@tjh.tjmu.edu.cn%0,                   Ziyong%Sun%zysun@tjh.tjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ying%Luo%NULL%0,                   Ying%Xue%NULL%0,                   Liyan%Mao%NULL%0,                   Xu%Yuan%NULL%0,                   Qun%Lin%NULL%0,                   Guoxing%Tang%NULL%0,                   Huijuan%Song%NULL%0,                   Feng%Wang%NULL%0,                   Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chiara%Masetti%NULL%0,                   Elena%Generali%NULL%0,                   Francesca%Colapietro%NULL%0,                   Antonio%Voza%NULL%0,                   Maurizio%Cecconi%NULL%0,                   Antonio%Messina%NULL%0,                   Paolo%Omodei%NULL%0,                   Claudio%Angelini%NULL%0,                   Michele%Ciccarelli%NULL%0,                   Salvatore%Badalamenti%NULL%0,                   G. Walter%Canonica%NULL%0,                   Ana%Lleo%ana.lleo@humanitas.it%0,                   Alessio%Aghemo%NULL%0,                   Alessio%Aghemo%NULL%0,                   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Takahisa%Mikami%NULL%0,                   Hirotaka%Miyashita%NULL%0,                   Takayuki%Yamada%NULL%0,                   Matthew%Harrington%NULL%0,                   Daniel%Steinberg%NULL%0,                   Andrew%Dunn%NULL%0,                   Evan%Siau%Evan.Siau@mountsinai.org%0]</t>
+  </si>
+  <si>
+    <t>[Alexis K.%Okoh%alexis.okoh@rwjbh.org%0,                   Christoph%Sossou%NULL%0,                   Christoph%Sossou%NULL%0,                   Neha S.%Dangayach%NULL%0,                   Sherin%Meledathu%NULL%0,                   Oluwakemi%Phillips%NULL%0,                   Corinne%Raczek%NULL%0,                   Michael%Patti%NULL%0,                   Nathan%Kang%NULL%0,                   Sameer A.%Hirji%NULL%0,                   Charles%Cathcart%NULL%0,                   Christian%Engell%NULL%0,                   Marc%Cohen%NULL%0,                   Sandhya%Nagarakanti%NULL%0,                   Eliahu%Bishburg%NULL%0,                   Harpreet S.%Grewal%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -4501,7 +4666,7 @@
         <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>1046</v>
+        <v>1101</v>
       </c>
       <c r="F2" t="s">
         <v>73</v>
@@ -4530,7 +4695,7 @@
         <v>260</v>
       </c>
       <c r="E3" t="s">
-        <v>1047</v>
+        <v>1102</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -4559,7 +4724,7 @@
         <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>1048</v>
+        <v>1103</v>
       </c>
       <c r="F4" t="s">
         <v>79</v>
@@ -4588,7 +4753,7 @@
         <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>1049</v>
+        <v>1104</v>
       </c>
       <c r="F5" t="s">
         <v>83</v>
@@ -4617,7 +4782,7 @@
         <v>86</v>
       </c>
       <c r="E6" t="s">
-        <v>1050</v>
+        <v>1105</v>
       </c>
       <c r="F6" t="s">
         <v>87</v>
@@ -4675,7 +4840,7 @@
         <v>90</v>
       </c>
       <c r="E8" t="s">
-        <v>1051</v>
+        <v>1106</v>
       </c>
       <c r="F8" t="s">
         <v>91</v>
@@ -4704,7 +4869,7 @@
         <v>94</v>
       </c>
       <c r="E9" t="s">
-        <v>1052</v>
+        <v>1107</v>
       </c>
       <c r="F9" t="s">
         <v>95</v>
@@ -4733,7 +4898,7 @@
         <v>98</v>
       </c>
       <c r="E10" t="s">
-        <v>1053</v>
+        <v>1108</v>
       </c>
       <c r="F10" t="s">
         <v>99</v>
@@ -4762,7 +4927,7 @@
         <v>102</v>
       </c>
       <c r="E11" t="s">
-        <v>1054</v>
+        <v>1109</v>
       </c>
       <c r="F11" t="s">
         <v>103</v>
@@ -4791,7 +4956,7 @@
         <v>106</v>
       </c>
       <c r="E12" t="s">
-        <v>1055</v>
+        <v>1110</v>
       </c>
       <c r="F12" t="s">
         <v>107</v>
@@ -4820,7 +4985,7 @@
         <v>109</v>
       </c>
       <c r="E13" t="s">
-        <v>1056</v>
+        <v>1111</v>
       </c>
       <c r="F13" t="s">
         <v>110</v>
@@ -4849,7 +5014,7 @@
         <v>113</v>
       </c>
       <c r="E14" t="s">
-        <v>1057</v>
+        <v>1112</v>
       </c>
       <c r="F14" t="s">
         <v>114</v>
@@ -4878,7 +5043,7 @@
         <v>776</v>
       </c>
       <c r="E15" t="s">
-        <v>1058</v>
+        <v>1113</v>
       </c>
       <c r="F15" t="s">
         <v>118</v>
@@ -4907,7 +5072,7 @@
         <v>121</v>
       </c>
       <c r="E16" t="s">
-        <v>1059</v>
+        <v>1114</v>
       </c>
       <c r="F16" t="s">
         <v>122</v>
@@ -4936,7 +5101,7 @@
         <v>779</v>
       </c>
       <c r="E17" t="s">
-        <v>1060</v>
+        <v>1115</v>
       </c>
       <c r="F17" t="s">
         <v>125</v>
@@ -4965,7 +5130,7 @@
         <v>128</v>
       </c>
       <c r="E18" t="s">
-        <v>1061</v>
+        <v>1116</v>
       </c>
       <c r="F18" t="s">
         <v>129</v>
@@ -4994,7 +5159,7 @@
         <v>131</v>
       </c>
       <c r="E19" t="s">
-        <v>1062</v>
+        <v>1117</v>
       </c>
       <c r="F19" t="s">
         <v>132</v>
@@ -5023,7 +5188,7 @@
         <v>134</v>
       </c>
       <c r="E20" t="s">
-        <v>1063</v>
+        <v>1118</v>
       </c>
       <c r="F20" t="s">
         <v>135</v>
@@ -5052,7 +5217,7 @@
         <v>137</v>
       </c>
       <c r="E21" t="s">
-        <v>1064</v>
+        <v>1119</v>
       </c>
       <c r="F21" t="s">
         <v>138</v>
@@ -5081,7 +5246,7 @@
         <v>141</v>
       </c>
       <c r="E22" t="s">
-        <v>1065</v>
+        <v>1120</v>
       </c>
       <c r="F22" t="s">
         <v>142</v>
@@ -5110,7 +5275,7 @@
         <v>263</v>
       </c>
       <c r="E23" t="s">
-        <v>1066</v>
+        <v>1121</v>
       </c>
       <c r="F23" t="s">
         <v>23</v>
@@ -5139,7 +5304,7 @@
         <v>144</v>
       </c>
       <c r="E24" t="s">
-        <v>1067</v>
+        <v>1122</v>
       </c>
       <c r="F24" t="s">
         <v>145</v>
@@ -5168,7 +5333,7 @@
         <v>147</v>
       </c>
       <c r="E25" t="s">
-        <v>1068</v>
+        <v>1123</v>
       </c>
       <c r="F25" t="s">
         <v>148</v>
@@ -5197,7 +5362,7 @@
         <v>789</v>
       </c>
       <c r="E26" t="s">
-        <v>1069</v>
+        <v>1124</v>
       </c>
       <c r="F26" t="s">
         <v>152</v>
@@ -5226,7 +5391,7 @@
         <v>155</v>
       </c>
       <c r="E27" t="s">
-        <v>1070</v>
+        <v>1125</v>
       </c>
       <c r="F27" t="s">
         <v>156</v>
@@ -5255,7 +5420,7 @@
         <v>158</v>
       </c>
       <c r="E28" t="s">
-        <v>1071</v>
+        <v>1126</v>
       </c>
       <c r="F28" t="s">
         <v>159</v>
@@ -5284,7 +5449,7 @@
         <v>82</v>
       </c>
       <c r="E29" t="s">
-        <v>1072</v>
+        <v>1127</v>
       </c>
       <c r="F29" t="s">
         <v>162</v>
@@ -5313,7 +5478,7 @@
         <v>165</v>
       </c>
       <c r="E30" t="s">
-        <v>1073</v>
+        <v>1128</v>
       </c>
       <c r="F30" t="s">
         <v>166</v>
@@ -5342,7 +5507,7 @@
         <v>168</v>
       </c>
       <c r="E31" t="s">
-        <v>1074</v>
+        <v>1129</v>
       </c>
       <c r="F31" t="s">
         <v>169</v>
@@ -5371,7 +5536,7 @@
         <v>172</v>
       </c>
       <c r="E32" t="s">
-        <v>1075</v>
+        <v>1130</v>
       </c>
       <c r="F32" t="s">
         <v>173</v>
@@ -5400,7 +5565,7 @@
         <v>176</v>
       </c>
       <c r="E33" t="s">
-        <v>1076</v>
+        <v>1131</v>
       </c>
       <c r="F33" t="s">
         <v>177</v>
@@ -5429,7 +5594,7 @@
         <v>180</v>
       </c>
       <c r="E34" t="s">
-        <v>1077</v>
+        <v>1132</v>
       </c>
       <c r="F34" t="s">
         <v>181</v>
@@ -5458,7 +5623,7 @@
         <v>183</v>
       </c>
       <c r="E35" t="s">
-        <v>1078</v>
+        <v>1133</v>
       </c>
       <c r="F35" t="s">
         <v>184</v>
@@ -5487,7 +5652,7 @@
         <v>187</v>
       </c>
       <c r="E36" t="s">
-        <v>1079</v>
+        <v>1134</v>
       </c>
       <c r="F36" t="s">
         <v>188</v>
@@ -5516,7 +5681,7 @@
         <v>191</v>
       </c>
       <c r="E37" t="s">
-        <v>1080</v>
+        <v>1135</v>
       </c>
       <c r="F37" t="s">
         <v>192</v>
@@ -5545,7 +5710,7 @@
         <v>194</v>
       </c>
       <c r="E38" t="s">
-        <v>1081</v>
+        <v>1136</v>
       </c>
       <c r="F38" t="s">
         <v>195</v>
@@ -5574,7 +5739,7 @@
         <v>197</v>
       </c>
       <c r="E39" t="s">
-        <v>1082</v>
+        <v>1137</v>
       </c>
       <c r="F39" t="s">
         <v>198</v>
@@ -5603,7 +5768,7 @@
         <v>64</v>
       </c>
       <c r="E40" t="s">
-        <v>1083</v>
+        <v>1138</v>
       </c>
       <c r="F40" t="s">
         <v>41</v>
@@ -5632,7 +5797,7 @@
         <v>201</v>
       </c>
       <c r="E41" t="s">
-        <v>1084</v>
+        <v>1139</v>
       </c>
       <c r="F41" t="s">
         <v>202</v>
@@ -5661,7 +5826,7 @@
         <v>204</v>
       </c>
       <c r="E42" t="s">
-        <v>1085</v>
+        <v>1140</v>
       </c>
       <c r="F42" t="s">
         <v>205</v>
@@ -5690,7 +5855,7 @@
         <v>807</v>
       </c>
       <c r="E43" t="s">
-        <v>1086</v>
+        <v>1141</v>
       </c>
       <c r="F43" t="s">
         <v>209</v>
@@ -5719,7 +5884,7 @@
         <v>82</v>
       </c>
       <c r="E44" t="s">
-        <v>1087</v>
+        <v>1142</v>
       </c>
       <c r="F44" t="s">
         <v>212</v>
@@ -5748,7 +5913,7 @@
         <v>215</v>
       </c>
       <c r="E45" t="s">
-        <v>1088</v>
+        <v>1143</v>
       </c>
       <c r="F45" t="s">
         <v>216</v>
@@ -5777,7 +5942,7 @@
         <v>82</v>
       </c>
       <c r="E46" t="s">
-        <v>1089</v>
+        <v>1144</v>
       </c>
       <c r="F46" t="s">
         <v>219</v>
@@ -5835,7 +6000,7 @@
         <v>752</v>
       </c>
       <c r="E48" t="s">
-        <v>1090</v>
+        <v>1145</v>
       </c>
       <c r="F48" t="s">
         <v>49</v>
@@ -5864,7 +6029,7 @@
         <v>82</v>
       </c>
       <c r="E49" t="s">
-        <v>1091</v>
+        <v>1146</v>
       </c>
       <c r="F49" t="s">
         <v>229</v>
@@ -5893,7 +6058,7 @@
         <v>231</v>
       </c>
       <c r="E50" t="s">
-        <v>1092</v>
+        <v>1147</v>
       </c>
       <c r="F50" t="s">
         <v>232</v>
@@ -5922,7 +6087,7 @@
         <v>235</v>
       </c>
       <c r="E51" t="s">
-        <v>1093</v>
+        <v>1148</v>
       </c>
       <c r="F51" t="s">
         <v>236</v>
@@ -5951,7 +6116,7 @@
         <v>64</v>
       </c>
       <c r="E52" t="s">
-        <v>1094</v>
+        <v>1149</v>
       </c>
       <c r="F52" t="s">
         <v>53</v>
@@ -5980,7 +6145,7 @@
         <v>239</v>
       </c>
       <c r="E53" t="s">
-        <v>1095</v>
+        <v>1150</v>
       </c>
       <c r="F53" t="s">
         <v>240</v>
@@ -6009,7 +6174,7 @@
         <v>818</v>
       </c>
       <c r="E54" t="s">
-        <v>1096</v>
+        <v>1151</v>
       </c>
       <c r="F54" t="s">
         <v>243</v>
@@ -6038,7 +6203,7 @@
         <v>246</v>
       </c>
       <c r="E55" t="s">
-        <v>1097</v>
+        <v>1152</v>
       </c>
       <c r="F55" t="s">
         <v>247</v>
@@ -6067,7 +6232,7 @@
         <v>249</v>
       </c>
       <c r="E56" t="s">
-        <v>1098</v>
+        <v>1153</v>
       </c>
       <c r="F56" t="s">
         <v>250</v>
@@ -6096,7 +6261,7 @@
         <v>822</v>
       </c>
       <c r="E57" t="s">
-        <v>1099</v>
+        <v>1154</v>
       </c>
       <c r="F57" t="s">
         <v>254</v>
@@ -6125,7 +6290,7 @@
         <v>824</v>
       </c>
       <c r="E58" t="s">
-        <v>1100</v>
+        <v>1155</v>
       </c>
       <c r="F58" t="s">
         <v>257</v>

--- a/Covid_19_Dataset_and_References/References/44.xlsx
+++ b/Covid_19_Dataset_and_References/References/44.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6556" uniqueCount="1156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6962" uniqueCount="1218">
   <si>
     <t>Doi</t>
   </si>
@@ -4314,6 +4314,192 @@
   </si>
   <si>
     <t>[Alexis K.%Okoh%alexis.okoh@rwjbh.org%0,                   Christoph%Sossou%NULL%0,                   Christoph%Sossou%NULL%0,                   Neha S.%Dangayach%NULL%0,                   Sherin%Meledathu%NULL%0,                   Oluwakemi%Phillips%NULL%0,                   Corinne%Raczek%NULL%0,                   Michael%Patti%NULL%0,                   Nathan%Kang%NULL%0,                   Sameer A.%Hirji%NULL%0,                   Charles%Cathcart%NULL%0,                   Christian%Engell%NULL%0,                   Marc%Cohen%NULL%0,                   Sandhya%Nagarakanti%NULL%0,                   Eliahu%Bishburg%NULL%0,                   Harpreet S.%Grewal%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%0,                    Lian%Yang%NULL%0,                    Yuncheng%Li%NULL%0,                    Bo%Liang%NULL%0,                    Lin%Li%NULL%0,                    Tianhe%Ye%NULL%0,                    Lingli%Li%NULL%0,                    Dehan%Liu%NULL%0,                    Shan%Gui%NULL%0,                    Yu%Hu%NULL%0,                    Chuansheng%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                   Becker%L.B.%coreGivesNoEmail%0,                   Chelico%J.D.%coreGivesNoEmail%0,                   Cohen%S.L.%coreGivesNoEmail%0,                   Cookingham%J.%coreGivesNoEmail%0,                   Coppa%K.%coreGivesNoEmail%0,                   Crawford%J.M.%coreGivesNoEmail%0,                   Davidson%K.W.%coreGivesNoEmail%0,                   Diefenbach%M.A.%coreGivesNoEmail%0,                   Dominello%A.J.%coreGivesNoEmail%0,                   Duer-Hefele%J.%coreGivesNoEmail%0,                   Falzon%L.%coreGivesNoEmail%0,                   Gitlin%J.%coreGivesNoEmail%0,                   Hajizadeh%N.%coreGivesNoEmail%0,                   Harvin%T.G.%coreGivesNoEmail%0,                   Hirsch%J.S.%coreGivesNoEmail%0,                   Hirschwerk%D.A.%coreGivesNoEmail%0,                   Kim%E.J.%coreGivesNoEmail%0,                   Kozel%Z.M.%coreGivesNoEmail%0,                   Marrast%L.M.%coreGivesNoEmail%0,                   McGinn%T.%coreGivesNoEmail%0,                   Mogavero%J.N.%coreGivesNoEmail%0,                   Narasimhan%M.%coreGivesNoEmail%0,                   Osorio%G.A.%coreGivesNoEmail%0,                   Qiu%M.%coreGivesNoEmail%0,                   Richardson%S.%coreGivesNoEmail%0,                   Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Mario%Rivera-Izquierdo%NULL%0,                    María%del Carmen Valero-Ubierna%NULL%0,                    María%del Carmen Valero-Ubierna%NULL%0,                    Juan Luis%R-delAmo%NULL%0,                    Miguel Ángel%Fernández-García%NULL%0,                    Silvia%Martínez-Diz%NULL%0,                    Arezu%Tahery-Mahmoud%NULL%0,                    Marta%Rodríguez-Camacho%NULL%0,                    Ana Belén%Gámiz-Molina%NULL%0,                    Nicolás%Barba-Gyengo%NULL%0,                    Pablo%Gámez-Baeza%NULL%0,                    Celia%Cabrero-Rodríguez%NULL%0,                    Pedro Antonio%Guirado-Ruiz%NULL%0,                    Divina Tatiana%Martín-Romero%NULL%0,                    Antonio Jesús%Láinez-Ramos-Bossini%NULL%0,                    María Rosa%Sánchez-Pérez%NULL%0,                    José%Mancera-Romero%NULL%0,                    Miguel%García-Martín%NULL%0,                    Luis Miguel%Martín-delosReyes%NULL%0,                    Virginia%Martínez-Ruiz%NULL%0,                    Virginia%Martínez-Ruiz%NULL%0,                    Pablo%Lardelli-Claret%NULL%0,                    Eladio%Jiménez-Mejías%NULL%0,                    Muhammad%Adrish%NULL%0,                    Muhammad%Adrish%NULL%0,                    NULL%NULL%NULL%0,                    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,                    Kun%Yang%NULL%0,                    Kun%Yang%NULL%0,                    Wenxia%Wang%NULL%0,                    Wenxia%Wang%NULL%0,                    Lingyu%Jiang%NULL%0,                    Lingyu%Jiang%NULL%0,                    Jianxin%Song%songsingsjx@sina.com%0,                    Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Grace%Salacup%salacupg@einstein.edu%0,                    Kevin Bryan%Lo%NULL%0,                    Kevin Bryan%Lo%NULL%0,                    Fahad%Gul%NULL%0,                    Eric%Peterson%NULL%0,                    Robert%De Joy%NULL%0,                    Ruchika%Bhargav%NULL%0,                    Jerald%Pelayo%NULL%0,                    Jeri%Albano%NULL%0,                    Zurab%Azmaiparashvili%NULL%0,                    Sadia%Benzaquen%NULL%0,                    Gabriel%Patarroyo‐Aponte%NULL%0,                    Janani%Rangaswami%NULL%0]</t>
+  </si>
+  <si>
+    <t>"Demographics, comorbidities and outcomes in hospitalized Covid-19 patients in rural southwest Georgia"</t>
+  </si>
+  <si>
+    <t>[Priyank%Shah%xref no email%0, Jack%Owens%xref no email%0, James%Franklin%xref no email%0, Akshat%Mehta%xref no email%0, William%Heymann%xref no email%0, William%Sewell%xref no email%0, Jennifer%Hill%xref no email%0, Krista%Barfield%xref no email%0, Rajkumar%Doshi%xref no email%0]</t>
+  </si>
+  <si>
+    <t>2023-05-30</t>
+  </si>
+  <si>
+    <t>[Yufeng%Shang%NULL%0,                    Tao%Liu%NULL%0,                    Yongchang%Wei%NULL%0,                    Jingfeng%Li%NULL%0,                    Liang%Shao%NULL%0,                    Minghui%Liu%NULL%0,                    Yongxi%Zhang%NULL%0,                    Zhigang%Zhao%NULL%0,                    Haibo%Xu%NULL%0,                    Zhiyong%Peng%NULL%0,                    Fuling%Zhou%zhoufuling@whu.edu.cn%0,                    Xinghuan%Wang%wangxinghuan@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,                    Mu%Qin%qinmuae@163.com%0,                    Yuli%Cai%NULL%0,                    Tao%Liu%NULL%0,                    Bo%Shen%NULL%0,                    Fan%Yang%NULL%0,                    Sheng%Cao%NULL%0,                    Xu%Liu%NULL%0,                    Xu%Liu%NULL%0,                    Yaozu%Xiang%NULL%0,                    Qinyan%Zhao%NULL%0,                    He%Huang%huanghe1977@whu.edu.cn%0,                    Bo%Yang%yybb112@whu.edu.cn%0,                    Congxin%Huang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rita de Cássia Menezes%Soares%NULL%0,                    Larissa Rodrigues%Mattos%NULL%0,                    Letícia Martins%Raposo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,                    Ruoqi%Ning%NULL%0,                    Yu%Tao%NULL%0,                    Chong%Yu%NULL%0,                    Xiaoyan%Deng%NULL%0,                    Caili%Zhao%NULL%0,                    Silu%Meng%NULL%0,                    Fangxu%Tang%89650793@qq.com%0,                    Dong%Xu%89650793@qq.com%0,                    Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Kun%Wang%NULL%0,                    Peiyuan%Zuo%NULL%0,                    Yuwei%Liu%NULL%0,                    Meng%Zhang%NULL%0,                    Xiaofang%Zhao%NULL%0,                    Songpu%Xie%NULL%0,                    Hao%Zhang%NULL%0,                    Xinglin%Chen%NULL%0,                    Chengyun%Liu%chengyunliu@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Bo%XU%NULL%0,                    Cun-yu%FAN%NULL%0,                    An-lu%WANG%NULL%0,                    Yi-long%ZOU%NULL%0,                    Yi-han%YU%NULL%0,                    Cong%HE%NULL%0,                    Wen-guang%XIA%NULL%0,                    Ji-xian%ZHANG%NULL%0,                    Qing%MIAO%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xisheng%Yan%NULL%0,                    Fen%Li%NULL%0,                    Xiao%Wang%NULL%0,                    Jie%Yan%NULL%0,                    Fen%Zhu%NULL%0,                    Shifan%Tang%NULL%0,                    Yingzhong%Deng%NULL%0,                    Hua%Wang%NULL%0,                    Rui%Chen%NULL%0,                    Zhili%Yu%NULL%0,                    Yaping%Li%NULL%0,                    Jingzhou%Shang%NULL%0,                    Lingjun%Zeng%NULL%0,                    Jie%Zhao%NULL%0,                    Chaokun%Guan%NULL%0,                    Qiaomei%Liu%NULL%0,                    Haifeng%Chen%NULL%0,                    Wei%Gong%NULL%0,                    Xin%Huang%NULL%0,                    Yu‐Jiao%Zhang%NULL%0,                    Jianguang%Liu%NULL%0,                    Xiaoyan%Dong%NULL%0,                    Wen%Zheng%zhengwen12@mails.jlu.edu.cn%0,                    Shaoping%Nie%spnie@126.com%0,                    Dongsheng%Li%dongshengli196809@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qing%Yang%NULL%0,                    Ying%Zhou%NULL%0,                    Xinrong%Wang%NULL%0,                    Shan%Gao%NULL%0,                    Yang%Xiao%NULL%0,                    Weiming%Zhang%NULL%0,                    Yi%Hu%huyizxyy@163.com%0,                    Yafei%Wang%wyf_527@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                    Qingyu%Yang%NULL%0,                    Yaxin%Wang%NULL%0,                    Yongran%Wu%NULL%0,                    Jiqian%Xu%NULL%0,                    Yuan%Yu%NULL%0,                    You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wenjing%Ye%yewenjing@xinhuamed.com.cn%0,                    Guoxi%Chen%4799082@qq.com%0,                    Xiaopan%Li%xiaopanli0224@126.com%0,                    Xing%Lan%474137452@qq.com%0,                    Chen%Ji%c.ji.3@warwick.ac.uk%0,                    Min%Hou%min-hou710@hotmail.com%0,                    Di%Zhang%zhangdizhangdi1234@163.com%0,                    Guangwang%Zeng%785663609@qq.com%0,                    Yaling%Wang%953822402@qq.com%0,                    Cheng%Xu%xucheng112358@126.com%0,                    Weiwei%Lu%luweiwei100@126.com%0,                    Ruolin%Cui%crlqwerty@163.com%0,                    Yuyang%Cai%caiyuyang@sjtu.edu.cn%0,                    Hai%Huang%1220775601@qq.com%0,                    Ling%Yang%yangling01@xinhuamed.com.cn%0]</t>
+  </si>
+  <si>
+    <t>[Caizheng%Yu%NULL%0,                    Qing%Lei%NULL%0,                    Wenkai%Li%NULL%0,                    Xiong%Wang%NULL%0,                    Wei%Liu%NULL%0,                    Xionglin%Fan%NULL%0,                    Wengang%Li%228907211@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                    Ting%Yu%NULL%0,                    Ronghui%Du%NULL%0,                    Guohui%Fan%NULL%0,                    Ying%Liu%NULL%0,                    Zhibo%Liu%NULL%0,                    Jie%Xiang%NULL%0,                    Yeming%Wang%NULL%0,                    Bin%Song%NULL%0,                    Xiaoying%Gu%NULL%0,                    Lulu%Guan%NULL%0,                    Yuan%Wei%NULL%0,                    Hui%Li%NULL%0,                    Xudong%Wu%NULL%0,                    Jiuyang%Xu%NULL%0,                    Shengjin%Tu%NULL%0,                    Yi%Zhang%NULL%0,                    Hua%Chen%NULL%0,                    Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Moran%Amit%NULL%0,                    Alex%Sorkin%NULL%0,                    Jacob%Chen%NULL%0,                    Barak%Cohen%NULL%0,                    Barak%Cohen%NULL%0,                    Dana%Karol%NULL%0,                    Dana%Karol%NULL%0,                    Avishai M%Tsur%NULL%0,                    Shaul%Lev%NULL%0,                    Shaul%Lev%NULL%0,                    Tal%Rozenblat%NULL%0,                    Ayana%Dvir%NULL%0,                    Ayana%Dvir%NULL%0,                    Geva%Landau%NULL%0,                    Lidar%Fridrich%NULL%0,                    Lidar%Fridrich%NULL%0,                    Elon%Glassberg%NULL%0,                    Shani%Kesari%NULL%0,                    Sigal%Sviri%NULL%0,                    Ram%Gelman%NULL%0,                    Asaf%Miller%NULL%0,                    Danny%Epstein%NULL%0,                    Ronny%Ben-Avi%NULL%0,                    Ronny%Ben-Avi%NULL%0,                    Moshe%Matan%NULL%0,                    Daniel J.%Jakobson%NULL%0,                    Daniel J.%Jakobson%NULL%0,                    Tarif%Bader%NULL%0,                    Tarif%Bader%NULL%0,                    David%Dahan%NULL%0,                    David%Dahan%NULL%0,                    Daniel A.%King%NULL%0,                    Anat%Ben-Ari%NULL%0,                    Arie%Soroksky%NULL%0,                    Alon%Bar%NULL%0,                    Alon%Bar%NULL%0,                    Noam%Fink%NULL%0,                    Pierre%Singer%NULL%0,                    Avi%Benov%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,                    John R%Adler%NULL%0,                    Muhammad Sohaib%Asghar%NULL%0,                    Muhammad Sohaib%Asghar%NULL%0,                    Syed Jawad%Haider Kazmi%NULL%0,                    Noman%Ahmed Khan%NULL%0,                    Mohammed%Akram%NULL%0,                    Salman%Ahmed Khan%NULL%0,                    Uzma%Rasheed%NULL%0,                    Maira%Hassan%NULL%0,                    Gul Muhammad%Memon%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pedro%Baqui%NULL%0,                    Ioana%Bica%NULL%0,                    Valerio%Marra%marra@cosmo-ufes.org%0,                    Ari%Ercole%NULL%0,                    Mihaela%van der Schaar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anesi%Adriano%coreGivesNoEmail%0,                   Bettinardi%Alessandra%coreGivesNoEmail%0,                   Bonetti%Graziella%coreGivesNoEmail%0,                   Borrelli%Gianluca%coreGivesNoEmail%0,                   Fiordalisi%Gianfranco%coreGivesNoEmail%0,                   Lippi%Giuseppe%coreGivesNoEmail%0,                   Manelli%Filippo%coreGivesNoEmail%0,                   Marino%Antonio%coreGivesNoEmail%0,                   Menolfi%Annamaria%coreGivesNoEmail%0,                   Patroni%Andrea%coreGivesNoEmail%0,                   Saggini%Sara%coreGivesNoEmail%0,                   Volpi%Roberta%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Andrea%Borghesi%NULL%0,                    Angelo%Zigliani%NULL%0,                    Salvatore%Golemi%NULL%0,                    Nicola%Carapella%NULL%0,                    Patrizia%Maculotti%NULL%0,                    Davide%Farina%NULL%0,                    Roberto%Maroldi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alberto M.%Borobia%NULL%0,                    Antonio J.%Carcas%NULL%0,                    Antonio J.%Carcas%NULL%0,                    Francisco%Arnalich%NULL%0,                    Rodolfo%Álvarez-Sala%NULL%0,                    Rodolfo%Álvarez-Sala%NULL%0,                    Jaime%Monserrat-Villatoro%NULL%0,                    Manuel%Quintana%NULL%0,                    Juan Carlos%Figueira%NULL%0,                    Rosario M.%Torres Santos-Olmo%NULL%0,                    Julio%García-Rodríguez%NULL%0,                    Julio%García-Rodríguez%NULL%0,                    Alberto%Martín-Vega%NULL%0,                    Antonio%Buño%NULL%0,                    Elena%Ramírez%NULL%0,                    Gonzalo%Martínez-Alés%NULL%0,                    Gonzalo%Martínez-Alés%NULL%0,                    Nicolás%García-Arenzana%NULL%0,                    M. Concepción%Núñez%NULL%0,                    M. Concepción%Núñez%NULL%0,                    Milagros%Martí-de-Gracia%NULL%0,                    Francisco%Moreno Ramos%NULL%0,                    Francisco%Reinoso-Barbero%NULL%0,                    Alejandro%Martin-Quiros%NULL%0,                    Angélica%Rivera Núñez%NULL%0,                    Jesús%Mingorance%NULL%0,                    Carlos J.%Carpio Segura%NULL%0,                    Carlos J.%Carpio Segura%NULL%0,                    Daniel%Prieto Arribas%NULL%0,                    Esther%Rey Cuevas%NULL%0,                    Concepción%Prados Sánchez%NULL%0,                    Juan J.%Rios%NULL%0,                    Miguel A.%Hernán%NULL%0,                    Jesús%Frías%NULL%0,                    José R.%Arribas%NULL%0,                    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simon E.%Brill%simon.brill@nhs.net%0,                    Hannah C.%Jarvis%NULL%0,                    Hannah C.%Jarvis%NULL%0,                    Ezgi%Ozcan%NULL%0,                    Thomas L. P.%Burns%NULL%0,                    Rabia A.%Warraich%NULL%0,                    Lisa J.%Amani%NULL%0,                    Amina%Jaffer%NULL%0,                    Stephanie%Paget%NULL%0,                    Anand%Sivaramakrishnan%NULL%0,                    Dean D.%Creer%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                    Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                    Wenlin%Cheng%NULL%0,                    Lei%Yu%NULL%0,                    Ya-Kun%Liu%NULL%0,                    Xiaoyong%Hu%NULL%0,                    Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[B.%Carter%NULL%0,                    J.T.%Collins%NULL%0,                    F.%Barlow-Pay%NULL%0,                    F.%Rickard%NULL%0,                    E.%Bruce%NULL%0,                    A.%Verduri%NULL%0,                    T.J.%Quinn%NULL%0,                    E.%Mitchell%NULL%0,                    A.%Price%NULL%0,                    A.%Vilches-Moraga%NULL%0,                    M.J.%Stechman%NULL%0,                    R.%Short%NULL%0,                    A.%Einarsson%NULL%0,                    P.%Braude%NULL%0,                    S.%Moug%NULL%0,                    P.K.%Myint%NULL%0,                    J.%Hewitt%NULL%0,                    L.%Pearce%NULL%0,                    K.%McCarthy%NULL%0,                    C.%Davey%NULL%0,                    S.%Jones%NULL%0,                    K.%Lunstone%NULL%0,                    A.%Cavenagh%NULL%0,                    C.%Silver%NULL%0,                    T.%Telford%NULL%0,                    R.%Simmons%NULL%0,                    M.%Holloway%NULL%0,                    J.%Hesford%NULL%0,                    T.%El Jichi Mutasem%NULL%0,                    S.%Singh%NULL%0,                    D.%Paxton%NULL%0,                    W.%Harris%NULL%0,                    N.%Galbraith%NULL%0,                    E.%Bhatti%NULL%0,                    J.%Edwards%NULL%0,                    S.%Duffy%NULL%0,                    J.%Kelly%NULL%0,                    C.%Murphy%NULL%0,                    C.%Bisset%NULL%0,                    R.%Alexander%NULL%0,                    M.%Garcia%NULL%0,                    S.%Sangani%NULL%0,                    T.%Kneen%NULL%0,                    T.%Lee%NULL%0,                    A.%McGovern%NULL%0,                    G.%Guaraldi%NULL%0,                    E.%Clini%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fuyang%Chen%NULL%0,                    Wenwu%Sun%NULL%0,                    Shengrong%Sun%NULL%0,                    Zhiyu%Li%lizhiyu@whu.edu.cn%0,                    Zhong%Wang%zhongwangchn@whu.edu.cn%0,                    Li%Yu%yuliwhzxyy@163.com%0,                    Li%Yu%yuliwhzxyy@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,                    Ling%Sang%NULL%0,                    Mei%Jiang%NULL%0,                    Zhaowei%Yang%NULL%0,                    Nan%Jia%NULL%0,                    Wanyi%Fu%NULL%0,                    Jiaxing%Xie%NULL%0,                    Weijie%Guan%NULL%0,                    Wenhua%Liang%NULL%0,                    Zhengyi%Ni%NULL%0,                    Yu%Hu%NULL%0,                    Lei%Liu%NULL%0,                    Hong%Shan%NULL%0,                    Chunliang%Lei%NULL%0,                    Yixiang%Peng%NULL%0,                    Li%Wei%NULL%0,                    Yong%Liu%NULL%0,                    Yahua%Hu%NULL%0,                    Peng%Peng%NULL%0,                    Jianming%Wang%NULL%0,                    Jiyang%Liu%NULL%0,                    Zhong%Chen%NULL%0,                    Gang%Li%NULL%0,                    Zhijian%Zheng%NULL%0,                    Shaoqin%Qiu%NULL%0,                    Jie%Luo%NULL%0,                    Changjiang%Ye%NULL%0,                    Shaoyong%Zhu%NULL%0,                    Jinping%Zheng%NULL%0,                    Nuofu%Zhang%NULL%0,                    Yimin%Li%NULL%0,                    Jianxing%He%NULL%0,                    Jing%Li%NULL%0,                    Shiyue%Li%NULL%0,                    Nanshan%Zhong%NULL%0,                    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                    Di%Wu%NULL%0,                    Huilong%Chen%NULL%0,                    Weiming%Yan%NULL%0,                    Danlei%Yang%NULL%0,                    Guang%Chen%NULL%0,                    Ke%Ma%NULL%0,                    Dong%Xu%NULL%0,                    Haijing%Yu%NULL%0,                    Hongwu%Wang%NULL%0,                    Tao%Wang%NULL%0,                    Wei%Guo%NULL%0,                    Jia%Chen%NULL%0,                    Chen%Ding%NULL%0,                    Xiaoping%Zhang%NULL%0,                    Jiaquan%Huang%NULL%0,                    Meifang%Han%NULL%0,                    Shusheng%Li%NULL%0,                    Xiaoping%Luo%NULL%0,                    Jianping%Zhao%NULL%0,                    Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anying%Cheng%NULL%0,                    Liu%Hu%NULL%0,                    Yiru%Wang%NULL%0,                    Luyan%Huang%NULL%0,                    Lingxi%Zhao%NULL%0,                    Congcong%Zhang%NULL%0,                    Xiyue%Liu%NULL%0,                    Ranran%Xu%NULL%0,                    Feng%Liu%NULL%0,                    Jinping%Li%NULL%0,                    Dawei%Ye%NULL%0,                    Tao%Wang%NULL%0,                    Yongman%Lv%lvyongman@126.com%0,                    Qingquan%Liu%qqliutj@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fabio%Ciceri%ciceri.fabio@hsr.it%0,                    Antonella%Castagna%NULL%0,                    Patrizia%Rovere-Querini%NULL%0,                    Francesco%De Cobelli%NULL%0,                    Annalisa%Ruggeri%NULL%0,                    Laura%Galli%NULL%0,                    Caterina%Conte%NULL%0,                    Rebecca%De Lorenzo%NULL%0,                    Andrea%Poli%NULL%0,                    Alberto%Ambrosio%NULL%0,                    Carlo%Signorelli%NULL%0,                    Eleonora%Bossi%NULL%0,                    Maria%Fazio%NULL%0,                    Cristina%Tresoldi%NULL%0,                    Sergio%Colombo%NULL%0,                    Giacomo%Monti%NULL%0,                    Efgeny%Fominskiy%NULL%0,                    Stefano%Franchini%NULL%0,                    Marzia%Spessot%NULL%0,                    Carlo%Martinenghi%NULL%0,                    Michele%Carlucci%NULL%0,                    Luigi%Beretta%NULL%0,                    Anna Maria%Scandroglio%NULL%0,                    Massimo%Clementi%NULL%0,                    Massimo%Locatelli%NULL%0,                    Moreno%Tresoldi%NULL%0,                    Paolo%Scarpellini%NULL%0,                    Gianvito%Martino%NULL%0,                    Emanuele%Bosi%NULL%0,                    Lorenzo%Dagna%NULL%0,                    Adriano%Lazzarin%NULL%0,                    Giovanni%Landoni%NULL%0,                    Alberto%Zangrillo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,                    Wei%Liu%NULL%0,                    Kui%Liu%NULL%0,                    Yuan-Yuan%Fang%NULL%0,                    Jin%Shang%NULL%0,                    Ling%Zhou%NULL%0,                    Ke%Wang%NULL%0,                    Fan%Leng%NULL%0,                    Shuang%Wei%NULL%0,                    Lei%Chen%NULL%0,                    Hui-Guo%Liu%NULL%0,                    Pei-Fang%Wei%NULL%0,                    Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                    Li-Rong%Liang%NULL%0,                    Cheng-Qing%Yang%NULL%0,                    Wen%Wang%NULL%0,                    Tan-Ze%Cao%NULL%0,                    Ming%Li%NULL%0,                    Guang-Yun%Guo%NULL%0,                    Juan%Du%NULL%0,                    Chun-Lan%Zheng%NULL%0,                    Qi%Zhu%NULL%0,                    Ming%Hu%NULL%0,                    Xu-Yan%Li%NULL%0,                    Peng%Peng%NULL%0,                    Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shan%Gao%NULL%0,                    Fang%Jiang%NULL%0,                    Wei%Jin%NULL%0,                    Yuan%Shi%NULL%0,                    Leilei%Yang%NULL%0,                    Yanqiong%Xia%NULL%0,                    Linyan%Jia%NULL%0,                    Bo%Wang%NULL%0,                    Han%Lin%NULL%0,                    Yin%Cai%NULL%0,                    Zhengyuan%Xia%NULL%0,                    Jian%Peng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pedro David%Wendel Garcia%pedrodavid.wendelgarcia@usz.ch%0,                    Thierry%Fumeaux%thierry.fumeaux@ghol.ch%0,                    Philippe%Guerci%NULL%0,                    Dorothea Monika%Heuberger%dorotheamonika.heuberger@usz.ch%0,                    Jonathan%Montomoli%NULL%0,                    Ferran%Roche-Campo%NULL%0,                    Reto Andreas%Schuepbach%reto.schuepbach@usz.ch%0,                    Matthias Peter%Hilty%matthias.hilty@usz.ch%0,                    Mario%Alfaro Farias%NULL%0,                    Antoni%Margarit%NULL%0,                    Gerardo%Vizmanos-Lamotte%NULL%0,                    Thomas%Tschoellitsch%NULL%0,                    Jens%Meier%NULL%0,                    Francesco S.%Cardona%NULL%0,                    Josef%Skola%NULL%0,                    Lenka%Horakova%NULL%0,                    Hernan%Aguirre-Bermeo%NULL%0,                    Janina%Apolo%NULL%0,                    Emmanuel%Novy%NULL%0,                    Marie-Reine%Losser%NULL%0,                    Geoffrey%Jurkolow%NULL%0,                    Gauthier%Delahaye%NULL%0,                    Sascha%David%NULL%0,                    Tobias%Welte%NULL%0,                    Tobias%Wengenmayer%NULL%0,                    Dawid L.%Staudacher%NULL%0,                    Theodoros%Aslanidis%NULL%0,                    Barna%Babik%NULL%0,                    Anita%Korsos%NULL%0,                    Janos%Gal%NULL%0,                    Hermann%Csaba%NULL%0,                    Abele%Donati%NULL%0,                    Andrea%Carsetti%NULL%0,                    Fabrizio%Turrini%NULL%0,                    Maria Sole%Simonini%NULL%0,                    Roberto%Ceriani%NULL%0,                    Martina%Murrone%NULL%0,                    Emanuele%Rezoagli%NULL%0,                    Giovanni%Vitale%NULL%0,                    Alberto%Fogagnolo%NULL%0,                    Savino%Spadaro%NULL%0,                    Maddalena Alessandra%Wu%NULL%0,                    Chiara%Cogliati%NULL%0,                    Riccardo%Colombo%NULL%0,                    Emanuele%Catena%NULL%0,                    Francesca%Facondini%NULL%0,                    Antonella%Potalivo%NULL%0,                    Gianfilippo%Gangitano%NULL%0,                    Tiziana%Perin%NULL%0,                    Maria Grazia%Bocci%NULL%0,                    Massimo%Antonelli%NULL%0,                    Diederik%Gommers%NULL%0,                    Can%Ince%NULL%0,                    Eric%Mayor-Vázquez%NULL%0,                    Maria%Cruz%NULL%0,                    Martin%Delgado%NULL%0,                    Raquel Rodriguez%Garcia%NULL%0,                    Jorge%Gamez Zapata%NULL%0,                    Begoña%Zalba-Etayo%NULL%0,                    Herminia%Lozano-Gomez%NULL%0,                    Pedro%Castro%NULL%0,                    Adrian%Tellez%NULL%0,                    Adriana%Jacas%NULL%0,                    Guido%Muñoz%NULL%0,                    Rut%Andrea%NULL%0,                    Jose%Ortiz%NULL%0,                    Eduard%Quintana%NULL%0,                    Irene%Rovira%NULL%0,                    Enric%Reverter%NULL%0,                    Javier%Fernandez%NULL%0,                    Miquel%Ferrer%NULL%0,                    Joan R.%Badia%NULL%0,                    Arantxa%Lander Azcona%NULL%0,                    Jesus Escos%Orta%NULL%0,                    Philipp%Bühler%NULL%0,                    Silvio%Brugger%NULL%0,                    Daniel%Hofmaenner%NULL%0,                    Simone%Unseld%NULL%0,                    Frank%Ruschitzka%NULL%0,                    Mallory%Moret-Bochatay%NULL%0,                    Bernd%Yuen%NULL%0,                    Thomas%Hillermann%NULL%0,                    Hatem%Ksouri%NULL%0,                    Govind Oliver%Sridharan%NULL%0,                    Anette%Ristic%NULL%0,                    Michael%Sepulcri%NULL%0,                    Miodrag%Filipovic%NULL%0,                    Urs%Pietsch%NULL%0,                    Petra%Salomon%NULL%0,                    Iris%Drvaric%NULL%0,                    Peter%Schott%NULL%0,                    Severin%Urech%NULL%0,                    Adriana%Lambert%NULL%0,                    Lukas%Merki%NULL%0,                    Marcus%Laube%NULL%0,                    Frank%Hillgaertner%NULL%0,                    Marianne%Sieber%NULL%0,                    Alexander%Dullenkopf%NULL%0,                    Lina%Petersen%NULL%0,                    Serge%Grazioli%NULL%0,                    Peter C.%Rimensberger%NULL%0,                    Isabelle%Fleisch%NULL%0,                    Jerome%Lavanchy%NULL%0,                    Katharina%Marquardt%NULL%0,                    Karim%Shaikh%NULL%0,                    Hermann%Redecker%NULL%0,                    Michael%Stephan%NULL%0,                    Jan%Brem%NULL%0,                    Bjarte%Rogdo%NULL%0,                    Andre%Birkenmaier%NULL%0,                    Friederike%Meyer zu Bentrup%NULL%0,                    Patricia%Fodor%NULL%0,                    Pascal%Locher%NULL%0,                    Giovanni%Camen%NULL%0,                    Martin%Siegemund%NULL%0,                    Nuria%Zellweger%NULL%0,                    Marie-Madlen%Jeitziner%NULL%0,                    Beatrice%Jenni-Moser%NULL%0,                    Christian%Bürkle%NULL%0,                    Gian-Reto%Kleger%NULL%0,                    Marilene%Franchitti Laurent%NULL%0,                    Jean-Christophe%Laurent%NULL%0,                    Tomislav%Gaspert%NULL%0,                    Marija%Jovic%NULL%0,                    Michael%Studhalter%NULL%0,                    Christoph%Haberthuer%NULL%0,                    Roger F.%Lussman%NULL%0,                    Daniela%Selz%NULL%0,                    Didier%Naon%NULL%0,                    Romano%Mauri%NULL%0,                    Samuele%Ceruti%NULL%0,                    Julien%Marrel%NULL%0,                    Mirko%Brenni%NULL%0,                    Rolf%Ensner%NULL%0,                    Nadine%Gehring%NULL%0,                    Antje%Heise%NULL%0,                    Tobias%Huebner%NULL%0,                    Thomas A.%Neff%NULL%0,                    Sara%Cereghetti%NULL%0,                    Filippo%Boroli%NULL%0,                    Jerome%Pugin%NULL%0,                    Nandor%Marczin%NULL%0,                    Joyce%Wong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Warren%Gavin%NULL%0,                    Elliott%Campbell%NULL%0,                    Syed-Adeel%Zaidi%NULL%0,                    Neha%Gavin%NULL%0,                    Lana%Dbeibo%NULL%0,                    Cole%Beeler%NULL%0,                    Kari%Kuebler%NULL%0,                    Ahmed%Abdel-Rahman%NULL%0,                    Mark%Luetkemeyer%NULL%0,                    Areeba%Kara%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Vijay%Gayam%vgayam@interfaithmedical.com%0,                    Muchi Ditah%Chobufo%NULL%0,                    Muchi Ditah%Chobufo%NULL%0,                    Mohamed A.%Merghani%NULL%0,                    Mohamed A.%Merghani%NULL%0,                    Shristi%Lamichhane%NULL%0,                    Pavani Reddy%Garlapati%NULL%0,                    Mark K.%Adler%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Cao%Y%coreGivesNoEmail%0,                   Imam%Z%coreGivesNoEmail%0,                   Lippi%G%coreGivesNoEmail%0,                   Oran%DP%coreGivesNoEmail%0,                   Shi%S%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Hai%Hu%huhai@wchscu.cn%0,                    Ni%Yao%NULL%0,                    Ni%Yao%NULL%0,                    Yanru%Qiu%NULL%0,                    John H.%Burton%NULL%0,                    John H.%Burton%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jiaofeng%Huang%NULL%0,                    Aiguo%Cheng%NULL%0,                    Rahul%Kumar%NULL%0,                    Yingying%Fang%NULL%0,                    Yingying%Fang%NULL%0,                    Gongping%Chen%NULL%0,                    Yueyong%Zhu%NULL%0,                    Su%Lin%sumer5129@fjmu.edu.cn%0,                    Su%Lin%sumer5129@fjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%0,                    Ju-Hyun%Kim%NULL%0,                    Jin-Sung%Park%NULL%0,                    Min Cheol%Chang%wheel633@ynu.ac.kr%0,                    Donghwi%Park%bdome@hanmail.net%0]</t>
+  </si>
+  <si>
+    <t>[K.%Khalil%NULL%0,                    K.%Agbontaen%NULL%0,                    D.%McNally%NULL%0,                    A.%Love%NULL%0,                    S.%Mandalia%NULL%0,                    W.%Banya%NULL%0,                    E.%Starren%NULL%0,                    R.%Dhunnookchand%NULL%0,                    H.%Farne%NULL%0,                    R.%Morton%NULL%0,                    G.%Davies%NULL%0,                    O.%Orhan%NULL%0,                    D%Lai%NULL%0,                    M.%Nelson%NULL%0,                    P.L.%Shah%NULL%0,                    J.L.%Garner%Justin.garner@chelwest.nhs.uk%0]</t>
+  </si>
+  <si>
+    <t>[Eyal%Klang%NULL%0,                    Gassan%Kassim%NULL%0,                    Shelly%Soffer%soffer.shelly@gmail.com%0,                    Robert%Freeman%NULL%0,                    Robert%Freeman%NULL%0,                    Matthew A.%Levin%NULL%0,                    Matthew A.%Levin%NULL%0,                    David L.%Reich%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sandeep%Krishnan%NULL%0,                    Kinjal%Patel%NULL%0,                    Ronak%Desai%NULL%0,                    Anupam%Sule%NULL%0,                    Peter%Paik%NULL%0,                    Ashley%Miller%NULL%0,                    Alicia%Barclay%NULL%0,                    Adam%Cassella%NULL%0,                    Jon%Lucaj%NULL%0,                    Yvonne%Royster%NULL%0,                    Joffer%Hakim%NULL%0,                    Zulfiqar%Ahmed%NULL%0,                    Farhad%Ghoddoussi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Manisha%Bhutani%null%0,          David M.%Foureau%null%0,          Shebli%Atrash%null%0,          Peter M.%Voorhees%null%0,          Saad Z.%Usmani%null%0]</t>
+  </si>
+  <si>
+    <t>[Wil%Lieberman-Cribbin%NULL%0,                    Joseph%Rapp%NULL%0,                    Naomi%Alpert%NULL%0,                    Stephanie%Tuminello%NULL%0,                    Emanuela%Taioli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Q.%Liu%NULL%0,                    N. C.%Song%NULL%0,                    Z. K.%Zheng%NULL%0,                    J. S.%Li%NULL%0,                    S. K.%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Long%NULL%0,                    Lan%Nie%NULL%0,                    Xiaochen%Xiang%NULL%0,                    Huan%Li%NULL%0,                    Xiaoli%Zhang%NULL%0,                    Xiaozhi%Fu%NULL%0,                    Hongwei%Ren%NULL%0,                    Wanxin%Liu%NULL%0,                    Qiang%Wang%wangqiang@wust.edu.cn%0,                    Qingming%Wu%wuhe9224@sina.com%0,                    Qingming%Wu%wuhe9224@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Miao%Luo%xref no email%0,            Jing%Liu%xref no email%0,            Weiling%Jiang%xref no email%0,            Shuang%Yue%xref no email%0,            Huiguo%Liu%xref no email%0,            Shuang%Wei%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Xiaomin%Luo%luoxiaomin04@163.com%0,                    Wei%Zhou%NULL%0,                    Xiaojie%Yan%NULL%0,                    Tangxi%Guo%NULL%0,                    Benchao%Wang%NULL%0,                    Hongxia%Xia%NULL%0,                    Lu%Ye%NULL%0,                    Jun%Xiong%NULL%0,                    Zongping%Jiang%NULL%0,                    Yu%Liu%NULL%0,                    Bicheng%Zhang%NULL%0,                    Weize%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ying%Luo%NULL%0,                    Liyan%Mao%NULL%0,                    Xu%Yuan%NULL%0,                    Ying%Xue%NULL%0,                    Qun%Lin%NULL%0,                    Guoxing%Tang%NULL%0,                    Huijuan%Song%NULL%0,                    Feng%Wang%fengwang@tjh.tjmu.edu.cn%0,                    Ziyong%Sun%zysun@tjh.tjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ying%Luo%NULL%0,                    Ying%Xue%NULL%0,                    Liyan%Mao%NULL%0,                    Xu%Yuan%NULL%0,                    Qun%Lin%NULL%0,                    Guoxing%Tang%NULL%0,                    Huijuan%Song%NULL%0,                    Feng%Wang%NULL%0,                    Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chiara%Masetti%NULL%0,                    Elena%Generali%NULL%0,                    Francesca%Colapietro%NULL%0,                    Antonio%Voza%NULL%0,                    Maurizio%Cecconi%NULL%0,                    Antonio%Messina%NULL%0,                    Paolo%Omodei%NULL%0,                    Claudio%Angelini%NULL%0,                    Michele%Ciccarelli%NULL%0,                    Salvatore%Badalamenti%NULL%0,                    G. Walter%Canonica%NULL%0,                    Ana%Lleo%ana.lleo@humanitas.it%0,                    Alessio%Aghemo%NULL%0,                    Alessio%Aghemo%NULL%0,                    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Takahisa%Mikami%NULL%0,                    Hirotaka%Miyashita%NULL%0,                    Takayuki%Yamada%NULL%0,                    Matthew%Harrington%NULL%0,                    Daniel%Steinberg%NULL%0,                    Andrew%Dunn%NULL%0,                    Evan%Siau%Evan.Siau@mountsinai.org%0]</t>
+  </si>
+  <si>
+    <t>[Alexis K.%Okoh%alexis.okoh@rwjbh.org%0,                    Christoph%Sossou%NULL%0,                    Christoph%Sossou%NULL%0,                    Neha S.%Dangayach%NULL%0,                    Sherin%Meledathu%NULL%0,                    Oluwakemi%Phillips%NULL%0,                    Corinne%Raczek%NULL%0,                    Michael%Patti%NULL%0,                    Nathan%Kang%NULL%0,                    Sameer A.%Hirji%NULL%0,                    Charles%Cathcart%NULL%0,                    Christian%Engell%NULL%0,                    Marc%Cohen%NULL%0,                    Sandhya%Nagarakanti%NULL%0,                    Eliahu%Bishburg%NULL%0,                    Harpreet S.%Grewal%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -4666,7 +4852,7 @@
         <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>1101</v>
+        <v>1156</v>
       </c>
       <c r="F2" t="s">
         <v>73</v>
@@ -4678,7 +4864,7 @@
         <v>75</v>
       </c>
       <c r="I2" t="s">
-        <v>266</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -4695,7 +4881,7 @@
         <v>260</v>
       </c>
       <c r="E3" t="s">
-        <v>1102</v>
+        <v>1158</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -4707,7 +4893,7 @@
         <v>76</v>
       </c>
       <c r="I3" t="s">
-        <v>82</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -4724,7 +4910,7 @@
         <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>1103</v>
+        <v>1160</v>
       </c>
       <c r="F4" t="s">
         <v>79</v>
@@ -4736,7 +4922,7 @@
         <v>80</v>
       </c>
       <c r="I4" t="s">
-        <v>266</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -4753,7 +4939,7 @@
         <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>1104</v>
+        <v>1161</v>
       </c>
       <c r="F5" t="s">
         <v>83</v>
@@ -4765,7 +4951,7 @@
         <v>84</v>
       </c>
       <c r="I5" t="s">
-        <v>267</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -4782,7 +4968,7 @@
         <v>86</v>
       </c>
       <c r="E6" t="s">
-        <v>1105</v>
+        <v>1163</v>
       </c>
       <c r="F6" t="s">
         <v>87</v>
@@ -4794,7 +4980,7 @@
         <v>88</v>
       </c>
       <c r="I6" t="s">
-        <v>266</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -4805,22 +4991,22 @@
         <v>44136</v>
       </c>
       <c r="C7" t="s">
-        <v>261</v>
+        <v>1164</v>
       </c>
       <c r="D7" t="s">
         <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>1165</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>69</v>
+        <v>590</v>
       </c>
       <c r="H7" t="s">
-        <v>76</v>
+        <v>1166</v>
       </c>
       <c r="I7" t="s">
         <v>82</v>
@@ -4840,7 +5026,7 @@
         <v>90</v>
       </c>
       <c r="E8" t="s">
-        <v>1106</v>
+        <v>1167</v>
       </c>
       <c r="F8" t="s">
         <v>91</v>
@@ -4852,7 +5038,7 @@
         <v>92</v>
       </c>
       <c r="I8" t="s">
-        <v>268</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -4869,7 +5055,7 @@
         <v>94</v>
       </c>
       <c r="E9" t="s">
-        <v>1107</v>
+        <v>1169</v>
       </c>
       <c r="F9" t="s">
         <v>95</v>
@@ -4881,7 +5067,7 @@
         <v>96</v>
       </c>
       <c r="I9" t="s">
-        <v>266</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -4898,7 +5084,7 @@
         <v>98</v>
       </c>
       <c r="E10" t="s">
-        <v>1108</v>
+        <v>1170</v>
       </c>
       <c r="F10" t="s">
         <v>99</v>
@@ -4910,7 +5096,7 @@
         <v>100</v>
       </c>
       <c r="I10" t="s">
-        <v>266</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -4927,7 +5113,7 @@
         <v>102</v>
       </c>
       <c r="E11" t="s">
-        <v>1109</v>
+        <v>1171</v>
       </c>
       <c r="F11" t="s">
         <v>103</v>
@@ -4939,7 +5125,7 @@
         <v>104</v>
       </c>
       <c r="I11" t="s">
-        <v>266</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -4956,7 +5142,7 @@
         <v>106</v>
       </c>
       <c r="E12" t="s">
-        <v>1110</v>
+        <v>1172</v>
       </c>
       <c r="F12" t="s">
         <v>107</v>
@@ -4968,7 +5154,7 @@
         <v>76</v>
       </c>
       <c r="I12" t="s">
-        <v>266</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -4985,7 +5171,7 @@
         <v>109</v>
       </c>
       <c r="E13" t="s">
-        <v>1111</v>
+        <v>1173</v>
       </c>
       <c r="F13" t="s">
         <v>110</v>
@@ -4997,7 +5183,7 @@
         <v>111</v>
       </c>
       <c r="I13" t="s">
-        <v>268</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -5014,7 +5200,7 @@
         <v>113</v>
       </c>
       <c r="E14" t="s">
-        <v>1112</v>
+        <v>1174</v>
       </c>
       <c r="F14" t="s">
         <v>114</v>
@@ -5026,7 +5212,7 @@
         <v>115</v>
       </c>
       <c r="I14" t="s">
-        <v>266</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -5043,7 +5229,7 @@
         <v>776</v>
       </c>
       <c r="E15" t="s">
-        <v>1113</v>
+        <v>1175</v>
       </c>
       <c r="F15" t="s">
         <v>118</v>
@@ -5055,7 +5241,7 @@
         <v>119</v>
       </c>
       <c r="I15" t="s">
-        <v>267</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -5072,7 +5258,7 @@
         <v>121</v>
       </c>
       <c r="E16" t="s">
-        <v>1114</v>
+        <v>1176</v>
       </c>
       <c r="F16" t="s">
         <v>122</v>
@@ -5084,7 +5270,7 @@
         <v>104</v>
       </c>
       <c r="I16" t="s">
-        <v>268</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -5101,7 +5287,7 @@
         <v>779</v>
       </c>
       <c r="E17" t="s">
-        <v>1115</v>
+        <v>1177</v>
       </c>
       <c r="F17" t="s">
         <v>125</v>
@@ -5113,7 +5299,7 @@
         <v>126</v>
       </c>
       <c r="I17" t="s">
-        <v>267</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -5130,7 +5316,7 @@
         <v>128</v>
       </c>
       <c r="E18" t="s">
-        <v>1116</v>
+        <v>1178</v>
       </c>
       <c r="F18" t="s">
         <v>129</v>
@@ -5142,7 +5328,7 @@
         <v>76</v>
       </c>
       <c r="I18" t="s">
-        <v>268</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -5159,7 +5345,7 @@
         <v>131</v>
       </c>
       <c r="E19" t="s">
-        <v>1117</v>
+        <v>1179</v>
       </c>
       <c r="F19" t="s">
         <v>132</v>
@@ -5171,7 +5357,7 @@
         <v>76</v>
       </c>
       <c r="I19" t="s">
-        <v>268</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -5188,7 +5374,7 @@
         <v>134</v>
       </c>
       <c r="E20" t="s">
-        <v>1118</v>
+        <v>1180</v>
       </c>
       <c r="F20" t="s">
         <v>135</v>
@@ -5200,7 +5386,7 @@
         <v>100</v>
       </c>
       <c r="I20" t="s">
-        <v>266</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -5217,7 +5403,7 @@
         <v>137</v>
       </c>
       <c r="E21" t="s">
-        <v>1119</v>
+        <v>1181</v>
       </c>
       <c r="F21" t="s">
         <v>138</v>
@@ -5246,7 +5432,7 @@
         <v>141</v>
       </c>
       <c r="E22" t="s">
-        <v>1120</v>
+        <v>1182</v>
       </c>
       <c r="F22" t="s">
         <v>142</v>
@@ -5258,7 +5444,7 @@
         <v>76</v>
       </c>
       <c r="I22" t="s">
-        <v>268</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -5275,7 +5461,7 @@
         <v>263</v>
       </c>
       <c r="E23" t="s">
-        <v>1121</v>
+        <v>1183</v>
       </c>
       <c r="F23" t="s">
         <v>23</v>
@@ -5287,7 +5473,7 @@
         <v>76</v>
       </c>
       <c r="I23" t="s">
-        <v>82</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -5304,7 +5490,7 @@
         <v>144</v>
       </c>
       <c r="E24" t="s">
-        <v>1122</v>
+        <v>1184</v>
       </c>
       <c r="F24" t="s">
         <v>145</v>
@@ -5316,7 +5502,7 @@
         <v>75</v>
       </c>
       <c r="I24" t="s">
-        <v>268</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -5333,7 +5519,7 @@
         <v>147</v>
       </c>
       <c r="E25" t="s">
-        <v>1123</v>
+        <v>1185</v>
       </c>
       <c r="F25" t="s">
         <v>148</v>
@@ -5345,7 +5531,7 @@
         <v>149</v>
       </c>
       <c r="I25" t="s">
-        <v>266</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -5362,7 +5548,7 @@
         <v>789</v>
       </c>
       <c r="E26" t="s">
-        <v>1124</v>
+        <v>1186</v>
       </c>
       <c r="F26" t="s">
         <v>152</v>
@@ -5374,7 +5560,7 @@
         <v>153</v>
       </c>
       <c r="I26" t="s">
-        <v>267</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -5391,7 +5577,7 @@
         <v>155</v>
       </c>
       <c r="E27" t="s">
-        <v>1125</v>
+        <v>1187</v>
       </c>
       <c r="F27" t="s">
         <v>156</v>
@@ -5403,7 +5589,7 @@
         <v>76</v>
       </c>
       <c r="I27" t="s">
-        <v>266</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -5420,7 +5606,7 @@
         <v>158</v>
       </c>
       <c r="E28" t="s">
-        <v>1126</v>
+        <v>1188</v>
       </c>
       <c r="F28" t="s">
         <v>159</v>
@@ -5432,7 +5618,7 @@
         <v>160</v>
       </c>
       <c r="I28" t="s">
-        <v>268</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -5449,7 +5635,7 @@
         <v>82</v>
       </c>
       <c r="E29" t="s">
-        <v>1127</v>
+        <v>1189</v>
       </c>
       <c r="F29" t="s">
         <v>162</v>
@@ -5461,7 +5647,7 @@
         <v>163</v>
       </c>
       <c r="I29" t="s">
-        <v>266</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -5478,7 +5664,7 @@
         <v>165</v>
       </c>
       <c r="E30" t="s">
-        <v>1128</v>
+        <v>1190</v>
       </c>
       <c r="F30" t="s">
         <v>166</v>
@@ -5490,7 +5676,7 @@
         <v>75</v>
       </c>
       <c r="I30" t="s">
-        <v>268</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -5507,7 +5693,7 @@
         <v>168</v>
       </c>
       <c r="E31" t="s">
-        <v>1129</v>
+        <v>1191</v>
       </c>
       <c r="F31" t="s">
         <v>169</v>
@@ -5519,7 +5705,7 @@
         <v>170</v>
       </c>
       <c r="I31" t="s">
-        <v>266</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -5536,7 +5722,7 @@
         <v>172</v>
       </c>
       <c r="E32" t="s">
-        <v>1130</v>
+        <v>1192</v>
       </c>
       <c r="F32" t="s">
         <v>173</v>
@@ -5548,7 +5734,7 @@
         <v>174</v>
       </c>
       <c r="I32" t="s">
-        <v>268</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -5565,7 +5751,7 @@
         <v>176</v>
       </c>
       <c r="E33" t="s">
-        <v>1131</v>
+        <v>1193</v>
       </c>
       <c r="F33" t="s">
         <v>177</v>
@@ -5577,7 +5763,7 @@
         <v>178</v>
       </c>
       <c r="I33" t="s">
-        <v>268</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -5594,7 +5780,7 @@
         <v>180</v>
       </c>
       <c r="E34" t="s">
-        <v>1132</v>
+        <v>1194</v>
       </c>
       <c r="F34" t="s">
         <v>181</v>
@@ -5606,7 +5792,7 @@
         <v>76</v>
       </c>
       <c r="I34" t="s">
-        <v>266</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -5623,7 +5809,7 @@
         <v>183</v>
       </c>
       <c r="E35" t="s">
-        <v>1133</v>
+        <v>1195</v>
       </c>
       <c r="F35" t="s">
         <v>184</v>
@@ -5635,7 +5821,7 @@
         <v>185</v>
       </c>
       <c r="I35" t="s">
-        <v>266</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -5652,7 +5838,7 @@
         <v>187</v>
       </c>
       <c r="E36" t="s">
-        <v>1134</v>
+        <v>1196</v>
       </c>
       <c r="F36" t="s">
         <v>188</v>
@@ -5664,7 +5850,7 @@
         <v>189</v>
       </c>
       <c r="I36" t="s">
-        <v>266</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -5681,7 +5867,7 @@
         <v>191</v>
       </c>
       <c r="E37" t="s">
-        <v>1135</v>
+        <v>1197</v>
       </c>
       <c r="F37" t="s">
         <v>192</v>
@@ -5693,7 +5879,7 @@
         <v>126</v>
       </c>
       <c r="I37" t="s">
-        <v>268</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -5710,7 +5896,7 @@
         <v>194</v>
       </c>
       <c r="E38" t="s">
-        <v>1136</v>
+        <v>1198</v>
       </c>
       <c r="F38" t="s">
         <v>195</v>
@@ -5722,7 +5908,7 @@
         <v>76</v>
       </c>
       <c r="I38" t="s">
-        <v>268</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -5739,7 +5925,7 @@
         <v>197</v>
       </c>
       <c r="E39" t="s">
-        <v>1137</v>
+        <v>1199</v>
       </c>
       <c r="F39" t="s">
         <v>198</v>
@@ -5751,7 +5937,7 @@
         <v>199</v>
       </c>
       <c r="I39" t="s">
-        <v>266</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -5768,7 +5954,7 @@
         <v>64</v>
       </c>
       <c r="E40" t="s">
-        <v>1138</v>
+        <v>1200</v>
       </c>
       <c r="F40" t="s">
         <v>41</v>
@@ -5780,7 +5966,7 @@
         <v>76</v>
       </c>
       <c r="I40" t="s">
-        <v>82</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -5797,7 +5983,7 @@
         <v>201</v>
       </c>
       <c r="E41" t="s">
-        <v>1139</v>
+        <v>1201</v>
       </c>
       <c r="F41" t="s">
         <v>202</v>
@@ -5809,7 +5995,7 @@
         <v>104</v>
       </c>
       <c r="I41" t="s">
-        <v>266</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -5826,7 +6012,7 @@
         <v>204</v>
       </c>
       <c r="E42" t="s">
-        <v>1140</v>
+        <v>1202</v>
       </c>
       <c r="F42" t="s">
         <v>205</v>
@@ -5838,7 +6024,7 @@
         <v>206</v>
       </c>
       <c r="I42" t="s">
-        <v>266</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -5855,7 +6041,7 @@
         <v>807</v>
       </c>
       <c r="E43" t="s">
-        <v>1141</v>
+        <v>1203</v>
       </c>
       <c r="F43" t="s">
         <v>209</v>
@@ -5867,7 +6053,7 @@
         <v>210</v>
       </c>
       <c r="I43" t="s">
-        <v>267</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -5884,7 +6070,7 @@
         <v>82</v>
       </c>
       <c r="E44" t="s">
-        <v>1142</v>
+        <v>1204</v>
       </c>
       <c r="F44" t="s">
         <v>212</v>
@@ -5896,7 +6082,7 @@
         <v>213</v>
       </c>
       <c r="I44" t="s">
-        <v>268</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -5913,7 +6099,7 @@
         <v>215</v>
       </c>
       <c r="E45" t="s">
-        <v>1143</v>
+        <v>1205</v>
       </c>
       <c r="F45" t="s">
         <v>216</v>
@@ -5925,7 +6111,7 @@
         <v>217</v>
       </c>
       <c r="I45" t="s">
-        <v>266</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -5942,7 +6128,7 @@
         <v>82</v>
       </c>
       <c r="E46" t="s">
-        <v>1144</v>
+        <v>1206</v>
       </c>
       <c r="F46" t="s">
         <v>219</v>
@@ -5954,7 +6140,7 @@
         <v>220</v>
       </c>
       <c r="I46" t="s">
-        <v>268</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -5983,7 +6169,7 @@
         <v>185</v>
       </c>
       <c r="I47" t="s">
-        <v>266</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -6000,7 +6186,7 @@
         <v>752</v>
       </c>
       <c r="E48" t="s">
-        <v>1145</v>
+        <v>1207</v>
       </c>
       <c r="F48" t="s">
         <v>49</v>
@@ -6012,7 +6198,7 @@
         <v>227</v>
       </c>
       <c r="I48" t="s">
-        <v>82</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -6029,7 +6215,7 @@
         <v>82</v>
       </c>
       <c r="E49" t="s">
-        <v>1146</v>
+        <v>1208</v>
       </c>
       <c r="F49" t="s">
         <v>229</v>
@@ -6041,7 +6227,7 @@
         <v>76</v>
       </c>
       <c r="I49" t="s">
-        <v>268</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -6058,7 +6244,7 @@
         <v>231</v>
       </c>
       <c r="E50" t="s">
-        <v>1147</v>
+        <v>1209</v>
       </c>
       <c r="F50" t="s">
         <v>232</v>
@@ -6070,7 +6256,7 @@
         <v>233</v>
       </c>
       <c r="I50" t="s">
-        <v>266</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -6087,7 +6273,7 @@
         <v>235</v>
       </c>
       <c r="E51" t="s">
-        <v>1148</v>
+        <v>1210</v>
       </c>
       <c r="F51" t="s">
         <v>236</v>
@@ -6099,7 +6285,7 @@
         <v>237</v>
       </c>
       <c r="I51" t="s">
-        <v>266</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -6116,7 +6302,7 @@
         <v>64</v>
       </c>
       <c r="E52" t="s">
-        <v>1149</v>
+        <v>1211</v>
       </c>
       <c r="F52" t="s">
         <v>53</v>
@@ -6128,7 +6314,7 @@
         <v>591</v>
       </c>
       <c r="I52" t="s">
-        <v>82</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -6145,7 +6331,7 @@
         <v>239</v>
       </c>
       <c r="E53" t="s">
-        <v>1150</v>
+        <v>1212</v>
       </c>
       <c r="F53" t="s">
         <v>240</v>
@@ -6157,7 +6343,7 @@
         <v>76</v>
       </c>
       <c r="I53" t="s">
-        <v>266</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -6174,7 +6360,7 @@
         <v>818</v>
       </c>
       <c r="E54" t="s">
-        <v>1151</v>
+        <v>1213</v>
       </c>
       <c r="F54" t="s">
         <v>243</v>
@@ -6186,7 +6372,7 @@
         <v>244</v>
       </c>
       <c r="I54" t="s">
-        <v>267</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -6203,7 +6389,7 @@
         <v>246</v>
       </c>
       <c r="E55" t="s">
-        <v>1152</v>
+        <v>1214</v>
       </c>
       <c r="F55" t="s">
         <v>247</v>
@@ -6215,7 +6401,7 @@
         <v>126</v>
       </c>
       <c r="I55" t="s">
-        <v>266</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -6232,7 +6418,7 @@
         <v>249</v>
       </c>
       <c r="E56" t="s">
-        <v>1153</v>
+        <v>1215</v>
       </c>
       <c r="F56" t="s">
         <v>250</v>
@@ -6244,7 +6430,7 @@
         <v>251</v>
       </c>
       <c r="I56" t="s">
-        <v>266</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -6261,7 +6447,7 @@
         <v>822</v>
       </c>
       <c r="E57" t="s">
-        <v>1154</v>
+        <v>1216</v>
       </c>
       <c r="F57" t="s">
         <v>254</v>
@@ -6273,7 +6459,7 @@
         <v>153</v>
       </c>
       <c r="I57" t="s">
-        <v>267</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -6290,7 +6476,7 @@
         <v>824</v>
       </c>
       <c r="E58" t="s">
-        <v>1155</v>
+        <v>1217</v>
       </c>
       <c r="F58" t="s">
         <v>257</v>
@@ -6302,7 +6488,7 @@
         <v>258</v>
       </c>
       <c r="I58" t="s">
-        <v>267</v>
+        <v>1162</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/44.xlsx
+++ b/Covid_19_Dataset_and_References/References/44.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6962" uniqueCount="1218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7368" uniqueCount="1274">
   <si>
     <t>Doi</t>
   </si>
@@ -4500,6 +4500,174 @@
   </si>
   <si>
     <t>[Alexis K.%Okoh%alexis.okoh@rwjbh.org%0,                    Christoph%Sossou%NULL%0,                    Christoph%Sossou%NULL%0,                    Neha S.%Dangayach%NULL%0,                    Sherin%Meledathu%NULL%0,                    Oluwakemi%Phillips%NULL%0,                    Corinne%Raczek%NULL%0,                    Michael%Patti%NULL%0,                    Nathan%Kang%NULL%0,                    Sameer A.%Hirji%NULL%0,                    Charles%Cathcart%NULL%0,                    Christian%Engell%NULL%0,                    Marc%Cohen%NULL%0,                    Sandhya%Nagarakanti%NULL%0,                    Eliahu%Bishburg%NULL%0,                    Harpreet S.%Grewal%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%0,                     Lian%Yang%NULL%0,                     Yuncheng%Li%NULL%0,                     Bo%Liang%NULL%0,                     Lin%Li%NULL%0,                     Tianhe%Ye%NULL%0,                     Lingli%Li%NULL%0,                     Dehan%Liu%NULL%0,                     Shan%Gui%NULL%0,                     Yu%Hu%NULL%0,                     Chuansheng%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                    Becker%L.B.%coreGivesNoEmail%0,                    Chelico%J.D.%coreGivesNoEmail%0,                    Cohen%S.L.%coreGivesNoEmail%0,                    Cookingham%J.%coreGivesNoEmail%0,                    Coppa%K.%coreGivesNoEmail%0,                    Crawford%J.M.%coreGivesNoEmail%0,                    Davidson%K.W.%coreGivesNoEmail%0,                    Diefenbach%M.A.%coreGivesNoEmail%0,                    Dominello%A.J.%coreGivesNoEmail%0,                    Duer-Hefele%J.%coreGivesNoEmail%0,                    Falzon%L.%coreGivesNoEmail%0,                    Gitlin%J.%coreGivesNoEmail%0,                    Hajizadeh%N.%coreGivesNoEmail%0,                    Harvin%T.G.%coreGivesNoEmail%0,                    Hirsch%J.S.%coreGivesNoEmail%0,                    Hirschwerk%D.A.%coreGivesNoEmail%0,                    Kim%E.J.%coreGivesNoEmail%0,                    Kozel%Z.M.%coreGivesNoEmail%0,                    Marrast%L.M.%coreGivesNoEmail%0,                    McGinn%T.%coreGivesNoEmail%0,                    Mogavero%J.N.%coreGivesNoEmail%0,                    Narasimhan%M.%coreGivesNoEmail%0,                    Osorio%G.A.%coreGivesNoEmail%0,                    Qiu%M.%coreGivesNoEmail%0,                    Richardson%S.%coreGivesNoEmail%0,                    Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Mario%Rivera-Izquierdo%NULL%0,                     María%del Carmen Valero-Ubierna%NULL%0,                     María%del Carmen Valero-Ubierna%NULL%0,                     Juan Luis%R-delAmo%NULL%0,                     Miguel Ángel%Fernández-García%NULL%0,                     Silvia%Martínez-Diz%NULL%0,                     Arezu%Tahery-Mahmoud%NULL%0,                     Marta%Rodríguez-Camacho%NULL%0,                     Ana Belén%Gámiz-Molina%NULL%0,                     Nicolás%Barba-Gyengo%NULL%0,                     Pablo%Gámez-Baeza%NULL%0,                     Celia%Cabrero-Rodríguez%NULL%0,                     Pedro Antonio%Guirado-Ruiz%NULL%0,                     Divina Tatiana%Martín-Romero%NULL%0,                     Antonio Jesús%Láinez-Ramos-Bossini%NULL%0,                     María Rosa%Sánchez-Pérez%NULL%0,                     José%Mancera-Romero%NULL%0,                     Miguel%García-Martín%NULL%0,                     Luis Miguel%Martín-delosReyes%NULL%0,                     Virginia%Martínez-Ruiz%NULL%0,                     Virginia%Martínez-Ruiz%NULL%0,                     Pablo%Lardelli-Claret%NULL%0,                     Eladio%Jiménez-Mejías%NULL%0,                     Muhammad%Adrish%NULL%0,                     Muhammad%Adrish%NULL%0,                     NULL%NULL%NULL%0,                     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,                     Kun%Yang%NULL%0,                     Kun%Yang%NULL%0,                     Wenxia%Wang%NULL%0,                     Wenxia%Wang%NULL%0,                     Lingyu%Jiang%NULL%0,                     Lingyu%Jiang%NULL%0,                     Jianxin%Song%songsingsjx@sina.com%0,                     Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Grace%Salacup%salacupg@einstein.edu%0,                     Kevin Bryan%Lo%NULL%0,                     Kevin Bryan%Lo%NULL%0,                     Fahad%Gul%NULL%0,                     Eric%Peterson%NULL%0,                     Robert%De Joy%NULL%0,                     Ruchika%Bhargav%NULL%0,                     Jerald%Pelayo%NULL%0,                     Jeri%Albano%NULL%0,                     Zurab%Azmaiparashvili%NULL%0,                     Sadia%Benzaquen%NULL%0,                     Gabriel%Patarroyo‐Aponte%NULL%0,                     Janani%Rangaswami%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Priyank%Shah%xref no email%0,  Jack%Owens%xref no email%0,  James%Franklin%xref no email%0,  Akshat%Mehta%xref no email%0,  William%Heymann%xref no email%0,  William%Sewell%xref no email%0,  Jennifer%Hill%xref no email%0,  Krista%Barfield%xref no email%0,  Rajkumar%Doshi%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Yufeng%Shang%NULL%0,                     Tao%Liu%NULL%0,                     Yongchang%Wei%NULL%0,                     Jingfeng%Li%NULL%0,                     Liang%Shao%NULL%0,                     Minghui%Liu%NULL%0,                     Yongxi%Zhang%NULL%0,                     Zhigang%Zhao%NULL%0,                     Haibo%Xu%NULL%0,                     Zhiyong%Peng%NULL%0,                     Fuling%Zhou%zhoufuling@whu.edu.cn%0,                     Xinghuan%Wang%wangxinghuan@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,                     Mu%Qin%qinmuae@163.com%0,                     Yuli%Cai%NULL%0,                     Tao%Liu%NULL%0,                     Bo%Shen%NULL%0,                     Fan%Yang%NULL%0,                     Sheng%Cao%NULL%0,                     Xu%Liu%NULL%0,                     Xu%Liu%NULL%0,                     Yaozu%Xiang%NULL%0,                     Qinyan%Zhao%NULL%0,                     He%Huang%huanghe1977@whu.edu.cn%0,                     Bo%Yang%yybb112@whu.edu.cn%0,                     Congxin%Huang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rita de Cássia Menezes%Soares%NULL%0,                     Larissa Rodrigues%Mattos%NULL%0,                     Letícia Martins%Raposo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,                     Ruoqi%Ning%NULL%0,                     Yu%Tao%NULL%0,                     Chong%Yu%NULL%0,                     Xiaoyan%Deng%NULL%0,                     Caili%Zhao%NULL%0,                     Silu%Meng%NULL%0,                     Fangxu%Tang%89650793@qq.com%0,                     Dong%Xu%89650793@qq.com%0,                     Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Kun%Wang%NULL%0,                     Peiyuan%Zuo%NULL%0,                     Yuwei%Liu%NULL%0,                     Meng%Zhang%NULL%0,                     Xiaofang%Zhao%NULL%0,                     Songpu%Xie%NULL%0,                     Hao%Zhang%NULL%0,                     Xinglin%Chen%NULL%0,                     Chengyun%Liu%chengyunliu@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Bo%XU%NULL%0,                     Cun-yu%FAN%NULL%0,                     An-lu%WANG%NULL%0,                     Yi-long%ZOU%NULL%0,                     Yi-han%YU%NULL%0,                     Cong%HE%NULL%0,                     Wen-guang%XIA%NULL%0,                     Ji-xian%ZHANG%NULL%0,                     Qing%MIAO%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xisheng%Yan%NULL%0,                     Fen%Li%NULL%0,                     Xiao%Wang%NULL%0,                     Jie%Yan%NULL%0,                     Fen%Zhu%NULL%0,                     Shifan%Tang%NULL%0,                     Yingzhong%Deng%NULL%0,                     Hua%Wang%NULL%0,                     Rui%Chen%NULL%0,                     Zhili%Yu%NULL%0,                     Yaping%Li%NULL%0,                     Jingzhou%Shang%NULL%0,                     Lingjun%Zeng%NULL%0,                     Jie%Zhao%NULL%0,                     Chaokun%Guan%NULL%0,                     Qiaomei%Liu%NULL%0,                     Haifeng%Chen%NULL%0,                     Wei%Gong%NULL%0,                     Xin%Huang%NULL%0,                     Yu‐Jiao%Zhang%NULL%0,                     Jianguang%Liu%NULL%0,                     Xiaoyan%Dong%NULL%0,                     Wen%Zheng%zhengwen12@mails.jlu.edu.cn%0,                     Shaoping%Nie%spnie@126.com%0,                     Dongsheng%Li%dongshengli196809@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qing%Yang%NULL%0,                     Ying%Zhou%NULL%0,                     Xinrong%Wang%NULL%0,                     Shan%Gao%NULL%0,                     Yang%Xiao%NULL%0,                     Weiming%Zhang%NULL%0,                     Yi%Hu%huyizxyy@163.com%0,                     Yafei%Wang%wyf_527@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                     Qingyu%Yang%NULL%0,                     Yaxin%Wang%NULL%0,                     Yongran%Wu%NULL%0,                     Jiqian%Xu%NULL%0,                     Yuan%Yu%NULL%0,                     You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wenjing%Ye%yewenjing@xinhuamed.com.cn%0,                     Guoxi%Chen%4799082@qq.com%0,                     Xiaopan%Li%xiaopanli0224@126.com%0,                     Xing%Lan%474137452@qq.com%0,                     Chen%Ji%c.ji.3@warwick.ac.uk%0,                     Min%Hou%min-hou710@hotmail.com%0,                     Di%Zhang%zhangdizhangdi1234@163.com%0,                     Guangwang%Zeng%785663609@qq.com%0,                     Yaling%Wang%953822402@qq.com%0,                     Cheng%Xu%xucheng112358@126.com%0,                     Weiwei%Lu%luweiwei100@126.com%0,                     Ruolin%Cui%crlqwerty@163.com%0,                     Yuyang%Cai%caiyuyang@sjtu.edu.cn%0,                     Hai%Huang%1220775601@qq.com%0,                     Ling%Yang%yangling01@xinhuamed.com.cn%0]</t>
+  </si>
+  <si>
+    <t>[Caizheng%Yu%NULL%0,                     Qing%Lei%NULL%0,                     Wenkai%Li%NULL%0,                     Xiong%Wang%NULL%0,                     Wei%Liu%NULL%0,                     Xionglin%Fan%NULL%0,                     Wengang%Li%228907211@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                     Ting%Yu%NULL%0,                     Ronghui%Du%NULL%0,                     Guohui%Fan%NULL%0,                     Ying%Liu%NULL%0,                     Zhibo%Liu%NULL%0,                     Jie%Xiang%NULL%0,                     Yeming%Wang%NULL%0,                     Bin%Song%NULL%0,                     Xiaoying%Gu%NULL%0,                     Lulu%Guan%NULL%0,                     Yuan%Wei%NULL%0,                     Hui%Li%NULL%0,                     Xudong%Wu%NULL%0,                     Jiuyang%Xu%NULL%0,                     Shengjin%Tu%NULL%0,                     Yi%Zhang%NULL%0,                     Hua%Chen%NULL%0,                     Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Moran%Amit%NULL%0,                     Alex%Sorkin%NULL%0,                     Jacob%Chen%NULL%0,                     Barak%Cohen%NULL%0,                     Barak%Cohen%NULL%0,                     Dana%Karol%NULL%0,                     Dana%Karol%NULL%0,                     Avishai M%Tsur%NULL%0,                     Shaul%Lev%NULL%0,                     Shaul%Lev%NULL%0,                     Tal%Rozenblat%NULL%0,                     Ayana%Dvir%NULL%0,                     Ayana%Dvir%NULL%0,                     Geva%Landau%NULL%0,                     Lidar%Fridrich%NULL%0,                     Lidar%Fridrich%NULL%0,                     Elon%Glassberg%NULL%0,                     Shani%Kesari%NULL%0,                     Sigal%Sviri%NULL%0,                     Ram%Gelman%NULL%0,                     Asaf%Miller%NULL%0,                     Danny%Epstein%NULL%0,                     Ronny%Ben-Avi%NULL%0,                     Ronny%Ben-Avi%NULL%0,                     Moshe%Matan%NULL%0,                     Daniel J.%Jakobson%NULL%0,                     Daniel J.%Jakobson%NULL%0,                     Tarif%Bader%NULL%0,                     Tarif%Bader%NULL%0,                     David%Dahan%NULL%0,                     David%Dahan%NULL%0,                     Daniel A.%King%NULL%0,                     Anat%Ben-Ari%NULL%0,                     Arie%Soroksky%NULL%0,                     Alon%Bar%NULL%0,                     Alon%Bar%NULL%0,                     Noam%Fink%NULL%0,                     Pierre%Singer%NULL%0,                     Avi%Benov%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,                     John R%Adler%NULL%0,                     Muhammad Sohaib%Asghar%NULL%0,                     Muhammad Sohaib%Asghar%NULL%0,                     Syed Jawad%Haider Kazmi%NULL%0,                     Noman%Ahmed Khan%NULL%0,                     Mohammed%Akram%NULL%0,                     Salman%Ahmed Khan%NULL%0,                     Uzma%Rasheed%NULL%0,                     Maira%Hassan%NULL%0,                     Gul Muhammad%Memon%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pedro%Baqui%NULL%0,                     Ioana%Bica%NULL%0,                     Valerio%Marra%marra@cosmo-ufes.org%0,                     Ari%Ercole%NULL%0,                     Mihaela%van der Schaar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anesi%Adriano%coreGivesNoEmail%0,                    Bettinardi%Alessandra%coreGivesNoEmail%0,                    Bonetti%Graziella%coreGivesNoEmail%0,                    Borrelli%Gianluca%coreGivesNoEmail%0,                    Fiordalisi%Gianfranco%coreGivesNoEmail%0,                    Lippi%Giuseppe%coreGivesNoEmail%0,                    Manelli%Filippo%coreGivesNoEmail%0,                    Marino%Antonio%coreGivesNoEmail%0,                    Menolfi%Annamaria%coreGivesNoEmail%0,                    Patroni%Andrea%coreGivesNoEmail%0,                    Saggini%Sara%coreGivesNoEmail%0,                    Volpi%Roberta%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Andrea%Borghesi%NULL%0,                     Angelo%Zigliani%NULL%0,                     Salvatore%Golemi%NULL%0,                     Nicola%Carapella%NULL%0,                     Patrizia%Maculotti%NULL%0,                     Davide%Farina%NULL%0,                     Roberto%Maroldi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alberto M.%Borobia%NULL%0,                     Antonio J.%Carcas%NULL%0,                     Antonio J.%Carcas%NULL%0,                     Francisco%Arnalich%NULL%0,                     Rodolfo%Álvarez-Sala%NULL%0,                     Rodolfo%Álvarez-Sala%NULL%0,                     Jaime%Monserrat-Villatoro%NULL%0,                     Manuel%Quintana%NULL%0,                     Juan Carlos%Figueira%NULL%0,                     Rosario M.%Torres Santos-Olmo%NULL%0,                     Julio%García-Rodríguez%NULL%0,                     Julio%García-Rodríguez%NULL%0,                     Alberto%Martín-Vega%NULL%0,                     Antonio%Buño%NULL%0,                     Elena%Ramírez%NULL%0,                     Gonzalo%Martínez-Alés%NULL%0,                     Gonzalo%Martínez-Alés%NULL%0,                     Nicolás%García-Arenzana%NULL%0,                     M. Concepción%Núñez%NULL%0,                     M. Concepción%Núñez%NULL%0,                     Milagros%Martí-de-Gracia%NULL%0,                     Francisco%Moreno Ramos%NULL%0,                     Francisco%Reinoso-Barbero%NULL%0,                     Alejandro%Martin-Quiros%NULL%0,                     Angélica%Rivera Núñez%NULL%0,                     Jesús%Mingorance%NULL%0,                     Carlos J.%Carpio Segura%NULL%0,                     Carlos J.%Carpio Segura%NULL%0,                     Daniel%Prieto Arribas%NULL%0,                     Esther%Rey Cuevas%NULL%0,                     Concepción%Prados Sánchez%NULL%0,                     Juan J.%Rios%NULL%0,                     Miguel A.%Hernán%NULL%0,                     Jesús%Frías%NULL%0,                     José R.%Arribas%NULL%0,                     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simon E.%Brill%simon.brill@nhs.net%0,                     Hannah C.%Jarvis%NULL%0,                     Hannah C.%Jarvis%NULL%0,                     Ezgi%Ozcan%NULL%0,                     Thomas L. P.%Burns%NULL%0,                     Rabia A.%Warraich%NULL%0,                     Lisa J.%Amani%NULL%0,                     Amina%Jaffer%NULL%0,                     Stephanie%Paget%NULL%0,                     Anand%Sivaramakrishnan%NULL%0,                     Dean D.%Creer%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                     Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                     Wenlin%Cheng%NULL%0,                     Lei%Yu%NULL%0,                     Ya-Kun%Liu%NULL%0,                     Xiaoyong%Hu%NULL%0,                     Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[B.%Carter%NULL%0,                     J.T.%Collins%NULL%0,                     F.%Barlow-Pay%NULL%0,                     F.%Rickard%NULL%0,                     E.%Bruce%NULL%0,                     A.%Verduri%NULL%0,                     T.J.%Quinn%NULL%0,                     E.%Mitchell%NULL%0,                     A.%Price%NULL%0,                     A.%Vilches-Moraga%NULL%0,                     M.J.%Stechman%NULL%0,                     R.%Short%NULL%0,                     A.%Einarsson%NULL%0,                     P.%Braude%NULL%0,                     S.%Moug%NULL%0,                     P.K.%Myint%NULL%0,                     J.%Hewitt%NULL%0,                     L.%Pearce%NULL%0,                     K.%McCarthy%NULL%0,                     C.%Davey%NULL%0,                     S.%Jones%NULL%0,                     K.%Lunstone%NULL%0,                     A.%Cavenagh%NULL%0,                     C.%Silver%NULL%0,                     T.%Telford%NULL%0,                     R.%Simmons%NULL%0,                     M.%Holloway%NULL%0,                     J.%Hesford%NULL%0,                     T.%El Jichi Mutasem%NULL%0,                     S.%Singh%NULL%0,                     D.%Paxton%NULL%0,                     W.%Harris%NULL%0,                     N.%Galbraith%NULL%0,                     E.%Bhatti%NULL%0,                     J.%Edwards%NULL%0,                     S.%Duffy%NULL%0,                     J.%Kelly%NULL%0,                     C.%Murphy%NULL%0,                     C.%Bisset%NULL%0,                     R.%Alexander%NULL%0,                     M.%Garcia%NULL%0,                     S.%Sangani%NULL%0,                     T.%Kneen%NULL%0,                     T.%Lee%NULL%0,                     A.%McGovern%NULL%0,                     G.%Guaraldi%NULL%0,                     E.%Clini%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fuyang%Chen%NULL%0,                     Wenwu%Sun%NULL%0,                     Shengrong%Sun%NULL%0,                     Zhiyu%Li%lizhiyu@whu.edu.cn%0,                     Zhong%Wang%zhongwangchn@whu.edu.cn%0,                     Li%Yu%yuliwhzxyy@163.com%0,                     Li%Yu%yuliwhzxyy@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,                     Ling%Sang%NULL%0,                     Mei%Jiang%NULL%0,                     Zhaowei%Yang%NULL%0,                     Nan%Jia%NULL%0,                     Wanyi%Fu%NULL%0,                     Jiaxing%Xie%NULL%0,                     Weijie%Guan%NULL%0,                     Wenhua%Liang%NULL%0,                     Zhengyi%Ni%NULL%0,                     Yu%Hu%NULL%0,                     Lei%Liu%NULL%0,                     Hong%Shan%NULL%0,                     Chunliang%Lei%NULL%0,                     Yixiang%Peng%NULL%0,                     Li%Wei%NULL%0,                     Yong%Liu%NULL%0,                     Yahua%Hu%NULL%0,                     Peng%Peng%NULL%0,                     Jianming%Wang%NULL%0,                     Jiyang%Liu%NULL%0,                     Zhong%Chen%NULL%0,                     Gang%Li%NULL%0,                     Zhijian%Zheng%NULL%0,                     Shaoqin%Qiu%NULL%0,                     Jie%Luo%NULL%0,                     Changjiang%Ye%NULL%0,                     Shaoyong%Zhu%NULL%0,                     Jinping%Zheng%NULL%0,                     Nuofu%Zhang%NULL%0,                     Yimin%Li%NULL%0,                     Jianxing%He%NULL%0,                     Jing%Li%NULL%0,                     Shiyue%Li%NULL%0,                     Nanshan%Zhong%NULL%0,                     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                     Di%Wu%NULL%0,                     Huilong%Chen%NULL%0,                     Weiming%Yan%NULL%0,                     Danlei%Yang%NULL%0,                     Guang%Chen%NULL%0,                     Ke%Ma%NULL%0,                     Dong%Xu%NULL%0,                     Haijing%Yu%NULL%0,                     Hongwu%Wang%NULL%0,                     Tao%Wang%NULL%0,                     Wei%Guo%NULL%0,                     Jia%Chen%NULL%0,                     Chen%Ding%NULL%0,                     Xiaoping%Zhang%NULL%0,                     Jiaquan%Huang%NULL%0,                     Meifang%Han%NULL%0,                     Shusheng%Li%NULL%0,                     Xiaoping%Luo%NULL%0,                     Jianping%Zhao%NULL%0,                     Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anying%Cheng%NULL%0,                     Liu%Hu%NULL%0,                     Yiru%Wang%NULL%0,                     Luyan%Huang%NULL%0,                     Lingxi%Zhao%NULL%0,                     Congcong%Zhang%NULL%0,                     Xiyue%Liu%NULL%0,                     Ranran%Xu%NULL%0,                     Feng%Liu%NULL%0,                     Jinping%Li%NULL%0,                     Dawei%Ye%NULL%0,                     Tao%Wang%NULL%0,                     Yongman%Lv%lvyongman@126.com%0,                     Qingquan%Liu%qqliutj@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fabio%Ciceri%ciceri.fabio@hsr.it%0,                     Antonella%Castagna%NULL%0,                     Patrizia%Rovere-Querini%NULL%0,                     Francesco%De Cobelli%NULL%0,                     Annalisa%Ruggeri%NULL%0,                     Laura%Galli%NULL%0,                     Caterina%Conte%NULL%0,                     Rebecca%De Lorenzo%NULL%0,                     Andrea%Poli%NULL%0,                     Alberto%Ambrosio%NULL%0,                     Carlo%Signorelli%NULL%0,                     Eleonora%Bossi%NULL%0,                     Maria%Fazio%NULL%0,                     Cristina%Tresoldi%NULL%0,                     Sergio%Colombo%NULL%0,                     Giacomo%Monti%NULL%0,                     Efgeny%Fominskiy%NULL%0,                     Stefano%Franchini%NULL%0,                     Marzia%Spessot%NULL%0,                     Carlo%Martinenghi%NULL%0,                     Michele%Carlucci%NULL%0,                     Luigi%Beretta%NULL%0,                     Anna Maria%Scandroglio%NULL%0,                     Massimo%Clementi%NULL%0,                     Massimo%Locatelli%NULL%0,                     Moreno%Tresoldi%NULL%0,                     Paolo%Scarpellini%NULL%0,                     Gianvito%Martino%NULL%0,                     Emanuele%Bosi%NULL%0,                     Lorenzo%Dagna%NULL%0,                     Adriano%Lazzarin%NULL%0,                     Giovanni%Landoni%NULL%0,                     Alberto%Zangrillo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,                     Wei%Liu%NULL%0,                     Kui%Liu%NULL%0,                     Yuan-Yuan%Fang%NULL%0,                     Jin%Shang%NULL%0,                     Ling%Zhou%NULL%0,                     Ke%Wang%NULL%0,                     Fan%Leng%NULL%0,                     Shuang%Wei%NULL%0,                     Lei%Chen%NULL%0,                     Hui-Guo%Liu%NULL%0,                     Pei-Fang%Wei%NULL%0,                     Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                     Li-Rong%Liang%NULL%0,                     Cheng-Qing%Yang%NULL%0,                     Wen%Wang%NULL%0,                     Tan-Ze%Cao%NULL%0,                     Ming%Li%NULL%0,                     Guang-Yun%Guo%NULL%0,                     Juan%Du%NULL%0,                     Chun-Lan%Zheng%NULL%0,                     Qi%Zhu%NULL%0,                     Ming%Hu%NULL%0,                     Xu-Yan%Li%NULL%0,                     Peng%Peng%NULL%0,                     Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shan%Gao%NULL%0,                     Fang%Jiang%NULL%0,                     Wei%Jin%NULL%0,                     Yuan%Shi%NULL%0,                     Leilei%Yang%NULL%0,                     Yanqiong%Xia%NULL%0,                     Linyan%Jia%NULL%0,                     Bo%Wang%NULL%0,                     Han%Lin%NULL%0,                     Yin%Cai%NULL%0,                     Zhengyuan%Xia%NULL%0,                     Jian%Peng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pedro David%Wendel Garcia%pedrodavid.wendelgarcia@usz.ch%0,                     Thierry%Fumeaux%thierry.fumeaux@ghol.ch%0,                     Philippe%Guerci%NULL%0,                     Dorothea Monika%Heuberger%dorotheamonika.heuberger@usz.ch%0,                     Jonathan%Montomoli%NULL%0,                     Ferran%Roche-Campo%NULL%0,                     Reto Andreas%Schuepbach%reto.schuepbach@usz.ch%0,                     Matthias Peter%Hilty%matthias.hilty@usz.ch%0,                     Mario%Alfaro Farias%NULL%0,                     Antoni%Margarit%NULL%0,                     Gerardo%Vizmanos-Lamotte%NULL%0,                     Thomas%Tschoellitsch%NULL%0,                     Jens%Meier%NULL%0,                     Francesco S.%Cardona%NULL%0,                     Josef%Skola%NULL%0,                     Lenka%Horakova%NULL%0,                     Hernan%Aguirre-Bermeo%NULL%0,                     Janina%Apolo%NULL%0,                     Emmanuel%Novy%NULL%0,                     Marie-Reine%Losser%NULL%0,                     Geoffrey%Jurkolow%NULL%0,                     Gauthier%Delahaye%NULL%0,                     Sascha%David%NULL%0,                     Tobias%Welte%NULL%0,                     Tobias%Wengenmayer%NULL%0,                     Dawid L.%Staudacher%NULL%0,                     Theodoros%Aslanidis%NULL%0,                     Barna%Babik%NULL%0,                     Anita%Korsos%NULL%0,                     Janos%Gal%NULL%0,                     Hermann%Csaba%NULL%0,                     Abele%Donati%NULL%0,                     Andrea%Carsetti%NULL%0,                     Fabrizio%Turrini%NULL%0,                     Maria Sole%Simonini%NULL%0,                     Roberto%Ceriani%NULL%0,                     Martina%Murrone%NULL%0,                     Emanuele%Rezoagli%NULL%0,                     Giovanni%Vitale%NULL%0,                     Alberto%Fogagnolo%NULL%0,                     Savino%Spadaro%NULL%0,                     Maddalena Alessandra%Wu%NULL%0,                     Chiara%Cogliati%NULL%0,                     Riccardo%Colombo%NULL%0,                     Emanuele%Catena%NULL%0,                     Francesca%Facondini%NULL%0,                     Antonella%Potalivo%NULL%0,                     Gianfilippo%Gangitano%NULL%0,                     Tiziana%Perin%NULL%0,                     Maria Grazia%Bocci%NULL%0,                     Massimo%Antonelli%NULL%0,                     Diederik%Gommers%NULL%0,                     Can%Ince%NULL%0,                     Eric%Mayor-Vázquez%NULL%0,                     Maria%Cruz%NULL%0,                     Martin%Delgado%NULL%0,                     Raquel Rodriguez%Garcia%NULL%0,                     Jorge%Gamez Zapata%NULL%0,                     Begoña%Zalba-Etayo%NULL%0,                     Herminia%Lozano-Gomez%NULL%0,                     Pedro%Castro%NULL%0,                     Adrian%Tellez%NULL%0,                     Adriana%Jacas%NULL%0,                     Guido%Muñoz%NULL%0,                     Rut%Andrea%NULL%0,                     Jose%Ortiz%NULL%0,                     Eduard%Quintana%NULL%0,                     Irene%Rovira%NULL%0,                     Enric%Reverter%NULL%0,                     Javier%Fernandez%NULL%0,                     Miquel%Ferrer%NULL%0,                     Joan R.%Badia%NULL%0,                     Arantxa%Lander Azcona%NULL%0,                     Jesus Escos%Orta%NULL%0,                     Philipp%Bühler%NULL%0,                     Silvio%Brugger%NULL%0,                     Daniel%Hofmaenner%NULL%0,                     Simone%Unseld%NULL%0,                     Frank%Ruschitzka%NULL%0,                     Mallory%Moret-Bochatay%NULL%0,                     Bernd%Yuen%NULL%0,                     Thomas%Hillermann%NULL%0,                     Hatem%Ksouri%NULL%0,                     Govind Oliver%Sridharan%NULL%0,                     Anette%Ristic%NULL%0,                     Michael%Sepulcri%NULL%0,                     Miodrag%Filipovic%NULL%0,                     Urs%Pietsch%NULL%0,                     Petra%Salomon%NULL%0,                     Iris%Drvaric%NULL%0,                     Peter%Schott%NULL%0,                     Severin%Urech%NULL%0,                     Adriana%Lambert%NULL%0,                     Lukas%Merki%NULL%0,                     Marcus%Laube%NULL%0,                     Frank%Hillgaertner%NULL%0,                     Marianne%Sieber%NULL%0,                     Alexander%Dullenkopf%NULL%0,                     Lina%Petersen%NULL%0,                     Serge%Grazioli%NULL%0,                     Peter C.%Rimensberger%NULL%0,                     Isabelle%Fleisch%NULL%0,                     Jerome%Lavanchy%NULL%0,                     Katharina%Marquardt%NULL%0,                     Karim%Shaikh%NULL%0,                     Hermann%Redecker%NULL%0,                     Michael%Stephan%NULL%0,                     Jan%Brem%NULL%0,                     Bjarte%Rogdo%NULL%0,                     Andre%Birkenmaier%NULL%0,                     Friederike%Meyer zu Bentrup%NULL%0,                     Patricia%Fodor%NULL%0,                     Pascal%Locher%NULL%0,                     Giovanni%Camen%NULL%0,                     Martin%Siegemund%NULL%0,                     Nuria%Zellweger%NULL%0,                     Marie-Madlen%Jeitziner%NULL%0,                     Beatrice%Jenni-Moser%NULL%0,                     Christian%Bürkle%NULL%0,                     Gian-Reto%Kleger%NULL%0,                     Marilene%Franchitti Laurent%NULL%0,                     Jean-Christophe%Laurent%NULL%0,                     Tomislav%Gaspert%NULL%0,                     Marija%Jovic%NULL%0,                     Michael%Studhalter%NULL%0,                     Christoph%Haberthuer%NULL%0,                     Roger F.%Lussman%NULL%0,                     Daniela%Selz%NULL%0,                     Didier%Naon%NULL%0,                     Romano%Mauri%NULL%0,                     Samuele%Ceruti%NULL%0,                     Julien%Marrel%NULL%0,                     Mirko%Brenni%NULL%0,                     Rolf%Ensner%NULL%0,                     Nadine%Gehring%NULL%0,                     Antje%Heise%NULL%0,                     Tobias%Huebner%NULL%0,                     Thomas A.%Neff%NULL%0,                     Sara%Cereghetti%NULL%0,                     Filippo%Boroli%NULL%0,                     Jerome%Pugin%NULL%0,                     Nandor%Marczin%NULL%0,                     Joyce%Wong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Warren%Gavin%NULL%0,                     Elliott%Campbell%NULL%0,                     Syed-Adeel%Zaidi%NULL%0,                     Neha%Gavin%NULL%0,                     Lana%Dbeibo%NULL%0,                     Cole%Beeler%NULL%0,                     Kari%Kuebler%NULL%0,                     Ahmed%Abdel-Rahman%NULL%0,                     Mark%Luetkemeyer%NULL%0,                     Areeba%Kara%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Vijay%Gayam%vgayam@interfaithmedical.com%0,                     Muchi Ditah%Chobufo%NULL%0,                     Muchi Ditah%Chobufo%NULL%0,                     Mohamed A.%Merghani%NULL%0,                     Mohamed A.%Merghani%NULL%0,                     Shristi%Lamichhane%NULL%0,                     Pavani Reddy%Garlapati%NULL%0,                     Mark K.%Adler%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Cao%Y%coreGivesNoEmail%0,                    Imam%Z%coreGivesNoEmail%0,                    Lippi%G%coreGivesNoEmail%0,                    Oran%DP%coreGivesNoEmail%0,                    Shi%S%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Hai%Hu%huhai@wchscu.cn%0,                     Ni%Yao%NULL%0,                     Ni%Yao%NULL%0,                     Yanru%Qiu%NULL%0,                     John H.%Burton%NULL%0,                     John H.%Burton%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jiaofeng%Huang%NULL%0,                     Aiguo%Cheng%NULL%0,                     Rahul%Kumar%NULL%0,                     Yingying%Fang%NULL%0,                     Yingying%Fang%NULL%0,                     Gongping%Chen%NULL%0,                     Yueyong%Zhu%NULL%0,                     Su%Lin%sumer5129@fjmu.edu.cn%0,                     Su%Lin%sumer5129@fjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%0,                     Ju-Hyun%Kim%NULL%0,                     Jin-Sung%Park%NULL%0,                     Min Cheol%Chang%wheel633@ynu.ac.kr%0,                     Donghwi%Park%bdome@hanmail.net%0]</t>
+  </si>
+  <si>
+    <t>[K.%Khalil%NULL%0,                     K.%Agbontaen%NULL%0,                     D.%McNally%NULL%0,                     A.%Love%NULL%0,                     S.%Mandalia%NULL%0,                     W.%Banya%NULL%0,                     E.%Starren%NULL%0,                     R.%Dhunnookchand%NULL%0,                     H.%Farne%NULL%0,                     R.%Morton%NULL%0,                     G.%Davies%NULL%0,                     O.%Orhan%NULL%0,                     D%Lai%NULL%0,                     M.%Nelson%NULL%0,                     P.L.%Shah%NULL%0,                     J.L.%Garner%Justin.garner@chelwest.nhs.uk%0]</t>
+  </si>
+  <si>
+    <t>[Eyal%Klang%NULL%0,                     Gassan%Kassim%NULL%0,                     Shelly%Soffer%soffer.shelly@gmail.com%0,                     Robert%Freeman%NULL%0,                     Robert%Freeman%NULL%0,                     Matthew A.%Levin%NULL%0,                     Matthew A.%Levin%NULL%0,                     David L.%Reich%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sandeep%Krishnan%NULL%0,                     Kinjal%Patel%NULL%0,                     Ronak%Desai%NULL%0,                     Anupam%Sule%NULL%0,                     Peter%Paik%NULL%0,                     Ashley%Miller%NULL%0,                     Alicia%Barclay%NULL%0,                     Adam%Cassella%NULL%0,                     Jon%Lucaj%NULL%0,                     Yvonne%Royster%NULL%0,                     Joffer%Hakim%NULL%0,                     Zulfiqar%Ahmed%NULL%0,                     Farhad%Ghoddoussi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Manisha%Bhutani%null%0,           David M.%Foureau%null%0,           Shebli%Atrash%null%0,           Peter M.%Voorhees%null%0,           Saad Z.%Usmani%null%0]</t>
+  </si>
+  <si>
+    <t>[Wil%Lieberman-Cribbin%NULL%0,                     Joseph%Rapp%NULL%0,                     Naomi%Alpert%NULL%0,                     Stephanie%Tuminello%NULL%0,                     Emanuela%Taioli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Q.%Liu%NULL%0,                     N. C.%Song%NULL%0,                     Z. K.%Zheng%NULL%0,                     J. S.%Li%NULL%0,                     S. K.%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Long%NULL%0,                     Lan%Nie%NULL%0,                     Xiaochen%Xiang%NULL%0,                     Huan%Li%NULL%0,                     Xiaoli%Zhang%NULL%0,                     Xiaozhi%Fu%NULL%0,                     Hongwei%Ren%NULL%0,                     Wanxin%Liu%NULL%0,                     Qiang%Wang%wangqiang@wust.edu.cn%0,                     Qingming%Wu%wuhe9224@sina.com%0,                     Qingming%Wu%wuhe9224@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Miao%Luo%xref no email%0,             Jing%Liu%xref no email%0,             Weiling%Jiang%xref no email%0,             Shuang%Yue%xref no email%0,             Huiguo%Liu%xref no email%0,             Shuang%Wei%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Xiaomin%Luo%luoxiaomin04@163.com%0,                     Wei%Zhou%NULL%0,                     Xiaojie%Yan%NULL%0,                     Tangxi%Guo%NULL%0,                     Benchao%Wang%NULL%0,                     Hongxia%Xia%NULL%0,                     Lu%Ye%NULL%0,                     Jun%Xiong%NULL%0,                     Zongping%Jiang%NULL%0,                     Yu%Liu%NULL%0,                     Bicheng%Zhang%NULL%0,                     Weize%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ying%Luo%NULL%0,                     Liyan%Mao%NULL%0,                     Xu%Yuan%NULL%0,                     Ying%Xue%NULL%0,                     Qun%Lin%NULL%0,                     Guoxing%Tang%NULL%0,                     Huijuan%Song%NULL%0,                     Feng%Wang%fengwang@tjh.tjmu.edu.cn%0,                     Ziyong%Sun%zysun@tjh.tjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ying%Luo%NULL%0,                     Ying%Xue%NULL%0,                     Liyan%Mao%NULL%0,                     Xu%Yuan%NULL%0,                     Qun%Lin%NULL%0,                     Guoxing%Tang%NULL%0,                     Huijuan%Song%NULL%0,                     Feng%Wang%NULL%0,                     Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chiara%Masetti%NULL%0,                     Elena%Generali%NULL%0,                     Francesca%Colapietro%NULL%0,                     Antonio%Voza%NULL%0,                     Maurizio%Cecconi%NULL%0,                     Antonio%Messina%NULL%0,                     Paolo%Omodei%NULL%0,                     Claudio%Angelini%NULL%0,                     Michele%Ciccarelli%NULL%0,                     Salvatore%Badalamenti%NULL%0,                     G. Walter%Canonica%NULL%0,                     Ana%Lleo%ana.lleo@humanitas.it%0,                     Alessio%Aghemo%NULL%0,                     Alessio%Aghemo%NULL%0,                     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Takahisa%Mikami%NULL%0,                     Hirotaka%Miyashita%NULL%0,                     Takayuki%Yamada%NULL%0,                     Matthew%Harrington%NULL%0,                     Daniel%Steinberg%NULL%0,                     Andrew%Dunn%NULL%0,                     Evan%Siau%Evan.Siau@mountsinai.org%0]</t>
+  </si>
+  <si>
+    <t>[Alexis K.%Okoh%alexis.okoh@rwjbh.org%0,                     Christoph%Sossou%NULL%0,                     Christoph%Sossou%NULL%0,                     Neha S.%Dangayach%NULL%0,                     Sherin%Meledathu%NULL%0,                     Oluwakemi%Phillips%NULL%0,                     Corinne%Raczek%NULL%0,                     Michael%Patti%NULL%0,                     Nathan%Kang%NULL%0,                     Sameer A.%Hirji%NULL%0,                     Charles%Cathcart%NULL%0,                     Christian%Engell%NULL%0,                     Marc%Cohen%NULL%0,                     Sandhya%Nagarakanti%NULL%0,                     Eliahu%Bishburg%NULL%0,                     Harpreet S.%Grewal%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -4852,7 +5020,7 @@
         <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>1156</v>
+        <v>1218</v>
       </c>
       <c r="F2" t="s">
         <v>73</v>
@@ -4881,7 +5049,7 @@
         <v>260</v>
       </c>
       <c r="E3" t="s">
-        <v>1158</v>
+        <v>1219</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -4910,7 +5078,7 @@
         <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>1160</v>
+        <v>1220</v>
       </c>
       <c r="F4" t="s">
         <v>79</v>
@@ -4939,7 +5107,7 @@
         <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>1161</v>
+        <v>1221</v>
       </c>
       <c r="F5" t="s">
         <v>83</v>
@@ -4968,7 +5136,7 @@
         <v>86</v>
       </c>
       <c r="E6" t="s">
-        <v>1163</v>
+        <v>1222</v>
       </c>
       <c r="F6" t="s">
         <v>87</v>
@@ -4997,7 +5165,7 @@
         <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>1165</v>
+        <v>1223</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -5026,7 +5194,7 @@
         <v>90</v>
       </c>
       <c r="E8" t="s">
-        <v>1167</v>
+        <v>1224</v>
       </c>
       <c r="F8" t="s">
         <v>91</v>
@@ -5055,7 +5223,7 @@
         <v>94</v>
       </c>
       <c r="E9" t="s">
-        <v>1169</v>
+        <v>1225</v>
       </c>
       <c r="F9" t="s">
         <v>95</v>
@@ -5084,7 +5252,7 @@
         <v>98</v>
       </c>
       <c r="E10" t="s">
-        <v>1170</v>
+        <v>1226</v>
       </c>
       <c r="F10" t="s">
         <v>99</v>
@@ -5113,7 +5281,7 @@
         <v>102</v>
       </c>
       <c r="E11" t="s">
-        <v>1171</v>
+        <v>1227</v>
       </c>
       <c r="F11" t="s">
         <v>103</v>
@@ -5142,7 +5310,7 @@
         <v>106</v>
       </c>
       <c r="E12" t="s">
-        <v>1172</v>
+        <v>1228</v>
       </c>
       <c r="F12" t="s">
         <v>107</v>
@@ -5171,7 +5339,7 @@
         <v>109</v>
       </c>
       <c r="E13" t="s">
-        <v>1173</v>
+        <v>1229</v>
       </c>
       <c r="F13" t="s">
         <v>110</v>
@@ -5200,7 +5368,7 @@
         <v>113</v>
       </c>
       <c r="E14" t="s">
-        <v>1174</v>
+        <v>1230</v>
       </c>
       <c r="F14" t="s">
         <v>114</v>
@@ -5229,7 +5397,7 @@
         <v>776</v>
       </c>
       <c r="E15" t="s">
-        <v>1175</v>
+        <v>1231</v>
       </c>
       <c r="F15" t="s">
         <v>118</v>
@@ -5258,7 +5426,7 @@
         <v>121</v>
       </c>
       <c r="E16" t="s">
-        <v>1176</v>
+        <v>1232</v>
       </c>
       <c r="F16" t="s">
         <v>122</v>
@@ -5287,7 +5455,7 @@
         <v>779</v>
       </c>
       <c r="E17" t="s">
-        <v>1177</v>
+        <v>1233</v>
       </c>
       <c r="F17" t="s">
         <v>125</v>
@@ -5316,7 +5484,7 @@
         <v>128</v>
       </c>
       <c r="E18" t="s">
-        <v>1178</v>
+        <v>1234</v>
       </c>
       <c r="F18" t="s">
         <v>129</v>
@@ -5345,7 +5513,7 @@
         <v>131</v>
       </c>
       <c r="E19" t="s">
-        <v>1179</v>
+        <v>1235</v>
       </c>
       <c r="F19" t="s">
         <v>132</v>
@@ -5374,7 +5542,7 @@
         <v>134</v>
       </c>
       <c r="E20" t="s">
-        <v>1180</v>
+        <v>1236</v>
       </c>
       <c r="F20" t="s">
         <v>135</v>
@@ -5403,7 +5571,7 @@
         <v>137</v>
       </c>
       <c r="E21" t="s">
-        <v>1181</v>
+        <v>1237</v>
       </c>
       <c r="F21" t="s">
         <v>138</v>
@@ -5432,7 +5600,7 @@
         <v>141</v>
       </c>
       <c r="E22" t="s">
-        <v>1182</v>
+        <v>1238</v>
       </c>
       <c r="F22" t="s">
         <v>142</v>
@@ -5461,7 +5629,7 @@
         <v>263</v>
       </c>
       <c r="E23" t="s">
-        <v>1183</v>
+        <v>1239</v>
       </c>
       <c r="F23" t="s">
         <v>23</v>
@@ -5490,7 +5658,7 @@
         <v>144</v>
       </c>
       <c r="E24" t="s">
-        <v>1184</v>
+        <v>1240</v>
       </c>
       <c r="F24" t="s">
         <v>145</v>
@@ -5519,7 +5687,7 @@
         <v>147</v>
       </c>
       <c r="E25" t="s">
-        <v>1185</v>
+        <v>1241</v>
       </c>
       <c r="F25" t="s">
         <v>148</v>
@@ -5548,7 +5716,7 @@
         <v>789</v>
       </c>
       <c r="E26" t="s">
-        <v>1186</v>
+        <v>1242</v>
       </c>
       <c r="F26" t="s">
         <v>152</v>
@@ -5577,7 +5745,7 @@
         <v>155</v>
       </c>
       <c r="E27" t="s">
-        <v>1187</v>
+        <v>1243</v>
       </c>
       <c r="F27" t="s">
         <v>156</v>
@@ -5606,7 +5774,7 @@
         <v>158</v>
       </c>
       <c r="E28" t="s">
-        <v>1188</v>
+        <v>1244</v>
       </c>
       <c r="F28" t="s">
         <v>159</v>
@@ -5635,7 +5803,7 @@
         <v>82</v>
       </c>
       <c r="E29" t="s">
-        <v>1189</v>
+        <v>1245</v>
       </c>
       <c r="F29" t="s">
         <v>162</v>
@@ -5664,7 +5832,7 @@
         <v>165</v>
       </c>
       <c r="E30" t="s">
-        <v>1190</v>
+        <v>1246</v>
       </c>
       <c r="F30" t="s">
         <v>166</v>
@@ -5693,7 +5861,7 @@
         <v>168</v>
       </c>
       <c r="E31" t="s">
-        <v>1191</v>
+        <v>1247</v>
       </c>
       <c r="F31" t="s">
         <v>169</v>
@@ -5722,7 +5890,7 @@
         <v>172</v>
       </c>
       <c r="E32" t="s">
-        <v>1192</v>
+        <v>1248</v>
       </c>
       <c r="F32" t="s">
         <v>173</v>
@@ -5751,7 +5919,7 @@
         <v>176</v>
       </c>
       <c r="E33" t="s">
-        <v>1193</v>
+        <v>1249</v>
       </c>
       <c r="F33" t="s">
         <v>177</v>
@@ -5780,7 +5948,7 @@
         <v>180</v>
       </c>
       <c r="E34" t="s">
-        <v>1194</v>
+        <v>1250</v>
       </c>
       <c r="F34" t="s">
         <v>181</v>
@@ -5809,7 +5977,7 @@
         <v>183</v>
       </c>
       <c r="E35" t="s">
-        <v>1195</v>
+        <v>1251</v>
       </c>
       <c r="F35" t="s">
         <v>184</v>
@@ -5838,7 +6006,7 @@
         <v>187</v>
       </c>
       <c r="E36" t="s">
-        <v>1196</v>
+        <v>1252</v>
       </c>
       <c r="F36" t="s">
         <v>188</v>
@@ -5867,7 +6035,7 @@
         <v>191</v>
       </c>
       <c r="E37" t="s">
-        <v>1197</v>
+        <v>1253</v>
       </c>
       <c r="F37" t="s">
         <v>192</v>
@@ -5896,7 +6064,7 @@
         <v>194</v>
       </c>
       <c r="E38" t="s">
-        <v>1198</v>
+        <v>1254</v>
       </c>
       <c r="F38" t="s">
         <v>195</v>
@@ -5925,7 +6093,7 @@
         <v>197</v>
       </c>
       <c r="E39" t="s">
-        <v>1199</v>
+        <v>1255</v>
       </c>
       <c r="F39" t="s">
         <v>198</v>
@@ -5954,7 +6122,7 @@
         <v>64</v>
       </c>
       <c r="E40" t="s">
-        <v>1200</v>
+        <v>1256</v>
       </c>
       <c r="F40" t="s">
         <v>41</v>
@@ -5983,7 +6151,7 @@
         <v>201</v>
       </c>
       <c r="E41" t="s">
-        <v>1201</v>
+        <v>1257</v>
       </c>
       <c r="F41" t="s">
         <v>202</v>
@@ -6012,7 +6180,7 @@
         <v>204</v>
       </c>
       <c r="E42" t="s">
-        <v>1202</v>
+        <v>1258</v>
       </c>
       <c r="F42" t="s">
         <v>205</v>
@@ -6041,7 +6209,7 @@
         <v>807</v>
       </c>
       <c r="E43" t="s">
-        <v>1203</v>
+        <v>1259</v>
       </c>
       <c r="F43" t="s">
         <v>209</v>
@@ -6070,7 +6238,7 @@
         <v>82</v>
       </c>
       <c r="E44" t="s">
-        <v>1204</v>
+        <v>1260</v>
       </c>
       <c r="F44" t="s">
         <v>212</v>
@@ -6099,7 +6267,7 @@
         <v>215</v>
       </c>
       <c r="E45" t="s">
-        <v>1205</v>
+        <v>1261</v>
       </c>
       <c r="F45" t="s">
         <v>216</v>
@@ -6128,7 +6296,7 @@
         <v>82</v>
       </c>
       <c r="E46" t="s">
-        <v>1206</v>
+        <v>1262</v>
       </c>
       <c r="F46" t="s">
         <v>219</v>
@@ -6186,7 +6354,7 @@
         <v>752</v>
       </c>
       <c r="E48" t="s">
-        <v>1207</v>
+        <v>1263</v>
       </c>
       <c r="F48" t="s">
         <v>49</v>
@@ -6215,7 +6383,7 @@
         <v>82</v>
       </c>
       <c r="E49" t="s">
-        <v>1208</v>
+        <v>1264</v>
       </c>
       <c r="F49" t="s">
         <v>229</v>
@@ -6244,7 +6412,7 @@
         <v>231</v>
       </c>
       <c r="E50" t="s">
-        <v>1209</v>
+        <v>1265</v>
       </c>
       <c r="F50" t="s">
         <v>232</v>
@@ -6273,7 +6441,7 @@
         <v>235</v>
       </c>
       <c r="E51" t="s">
-        <v>1210</v>
+        <v>1266</v>
       </c>
       <c r="F51" t="s">
         <v>236</v>
@@ -6302,7 +6470,7 @@
         <v>64</v>
       </c>
       <c r="E52" t="s">
-        <v>1211</v>
+        <v>1267</v>
       </c>
       <c r="F52" t="s">
         <v>53</v>
@@ -6331,7 +6499,7 @@
         <v>239</v>
       </c>
       <c r="E53" t="s">
-        <v>1212</v>
+        <v>1268</v>
       </c>
       <c r="F53" t="s">
         <v>240</v>
@@ -6360,7 +6528,7 @@
         <v>818</v>
       </c>
       <c r="E54" t="s">
-        <v>1213</v>
+        <v>1269</v>
       </c>
       <c r="F54" t="s">
         <v>243</v>
@@ -6389,7 +6557,7 @@
         <v>246</v>
       </c>
       <c r="E55" t="s">
-        <v>1214</v>
+        <v>1270</v>
       </c>
       <c r="F55" t="s">
         <v>247</v>
@@ -6418,7 +6586,7 @@
         <v>249</v>
       </c>
       <c r="E56" t="s">
-        <v>1215</v>
+        <v>1271</v>
       </c>
       <c r="F56" t="s">
         <v>250</v>
@@ -6447,7 +6615,7 @@
         <v>822</v>
       </c>
       <c r="E57" t="s">
-        <v>1216</v>
+        <v>1272</v>
       </c>
       <c r="F57" t="s">
         <v>254</v>
@@ -6476,7 +6644,7 @@
         <v>824</v>
       </c>
       <c r="E58" t="s">
-        <v>1217</v>
+        <v>1273</v>
       </c>
       <c r="F58" t="s">
         <v>257</v>

--- a/Covid_19_Dataset_and_References/References/44.xlsx
+++ b/Covid_19_Dataset_and_References/References/44.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7368" uniqueCount="1274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9688" uniqueCount="1551">
   <si>
     <t>Doi</t>
   </si>
@@ -4668,6 +4668,837 @@
   </si>
   <si>
     <t>[Alexis K.%Okoh%alexis.okoh@rwjbh.org%0,                     Christoph%Sossou%NULL%0,                     Christoph%Sossou%NULL%0,                     Neha S.%Dangayach%NULL%0,                     Sherin%Meledathu%NULL%0,                     Oluwakemi%Phillips%NULL%0,                     Corinne%Raczek%NULL%0,                     Michael%Patti%NULL%0,                     Nathan%Kang%NULL%0,                     Sameer A.%Hirji%NULL%0,                     Charles%Cathcart%NULL%0,                     Christian%Engell%NULL%0,                     Marc%Cohen%NULL%0,                     Sandhya%Nagarakanti%NULL%0,                     Eliahu%Bishburg%NULL%0,                     Harpreet S.%Grewal%NULL%0]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%0,                      Lian%Yang%NULL%0,                      Yuncheng%Li%NULL%0,                      Bo%Liang%NULL%0,                      Lin%Li%NULL%0,                      Tianhe%Ye%NULL%0,                      Lingli%Li%NULL%0,                      Dehan%Liu%NULL%0,                      Shan%Gui%NULL%0,                      Yu%Hu%NULL%0,                      Chuansheng%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                     Becker%L.B.%coreGivesNoEmail%0,                     Chelico%J.D.%coreGivesNoEmail%0,                     Cohen%S.L.%coreGivesNoEmail%0,                     Cookingham%J.%coreGivesNoEmail%0,                     Coppa%K.%coreGivesNoEmail%0,                     Crawford%J.M.%coreGivesNoEmail%0,                     Davidson%K.W.%coreGivesNoEmail%0,                     Diefenbach%M.A.%coreGivesNoEmail%0,                     Dominello%A.J.%coreGivesNoEmail%0,                     Duer-Hefele%J.%coreGivesNoEmail%0,                     Falzon%L.%coreGivesNoEmail%0,                     Gitlin%J.%coreGivesNoEmail%0,                     Hajizadeh%N.%coreGivesNoEmail%0,                     Harvin%T.G.%coreGivesNoEmail%0,                     Hirsch%J.S.%coreGivesNoEmail%0,                     Hirschwerk%D.A.%coreGivesNoEmail%0,                     Kim%E.J.%coreGivesNoEmail%0,                     Kozel%Z.M.%coreGivesNoEmail%0,                     Marrast%L.M.%coreGivesNoEmail%0,                     McGinn%T.%coreGivesNoEmail%0,                     Mogavero%J.N.%coreGivesNoEmail%0,                     Narasimhan%M.%coreGivesNoEmail%0,                     Osorio%G.A.%coreGivesNoEmail%0,                     Qiu%M.%coreGivesNoEmail%0,                     Richardson%S.%coreGivesNoEmail%0,                     Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Mario%Rivera-Izquierdo%NULL%0,                      María%del Carmen Valero-Ubierna%NULL%0,                      María%del Carmen Valero-Ubierna%NULL%0,                      Juan Luis%R-delAmo%NULL%0,                      Miguel Ángel%Fernández-García%NULL%0,                      Silvia%Martínez-Diz%NULL%0,                      Arezu%Tahery-Mahmoud%NULL%0,                      Marta%Rodríguez-Camacho%NULL%0,                      Ana Belén%Gámiz-Molina%NULL%0,                      Nicolás%Barba-Gyengo%NULL%0,                      Pablo%Gámez-Baeza%NULL%0,                      Celia%Cabrero-Rodríguez%NULL%0,                      Pedro Antonio%Guirado-Ruiz%NULL%0,                      Divina Tatiana%Martín-Romero%NULL%0,                      Antonio Jesús%Láinez-Ramos-Bossini%NULL%0,                      María Rosa%Sánchez-Pérez%NULL%0,                      José%Mancera-Romero%NULL%0,                      Miguel%García-Martín%NULL%0,                      Luis Miguel%Martín-delosReyes%NULL%0,                      Virginia%Martínez-Ruiz%NULL%0,                      Virginia%Martínez-Ruiz%NULL%0,                      Pablo%Lardelli-Claret%NULL%0,                      Eladio%Jiménez-Mejías%NULL%0,                      Muhammad%Adrish%NULL%0,                      Muhammad%Adrish%NULL%0,                      NULL%NULL%NULL%0,                      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,                      Kun%Yang%NULL%0,                      Kun%Yang%NULL%0,                      Wenxia%Wang%NULL%0,                      Wenxia%Wang%NULL%0,                      Lingyu%Jiang%NULL%0,                      Lingyu%Jiang%NULL%0,                      Jianxin%Song%songsingsjx@sina.com%0,                      Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Grace%Salacup%salacupg@einstein.edu%0,                      Kevin Bryan%Lo%NULL%0,                      Kevin Bryan%Lo%NULL%0,                      Fahad%Gul%NULL%0,                      Eric%Peterson%NULL%0,                      Robert%De Joy%NULL%0,                      Ruchika%Bhargav%NULL%0,                      Jerald%Pelayo%NULL%0,                      Jeri%Albano%NULL%0,                      Zurab%Azmaiparashvili%NULL%0,                      Sadia%Benzaquen%NULL%0,                      Gabriel%Patarroyo‐Aponte%NULL%0,                      Janani%Rangaswami%NULL%0]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Informa UK Limited</t>
+  </si>
+  <si>
+    <t>[Yufeng%Shang%NULL%0,                      Tao%Liu%NULL%0,                      Yongchang%Wei%NULL%0,                      Jingfeng%Li%NULL%0,                      Liang%Shao%NULL%0,                      Minghui%Liu%NULL%0,                      Yongxi%Zhang%NULL%0,                      Zhigang%Zhao%NULL%0,                      Haibo%Xu%NULL%0,                      Zhiyong%Peng%NULL%0,                      Fuling%Zhou%zhoufuling@whu.edu.cn%0,                      Xinghuan%Wang%wangxinghuan@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,                      Mu%Qin%qinmuae@163.com%0,                      Yuli%Cai%NULL%0,                      Tao%Liu%NULL%0,                      Bo%Shen%NULL%0,                      Fan%Yang%NULL%0,                      Sheng%Cao%NULL%0,                      Xu%Liu%NULL%0,                      Xu%Liu%NULL%0,                      Yaozu%Xiang%NULL%0,                      Qinyan%Zhao%NULL%0,                      He%Huang%huanghe1977@whu.edu.cn%0,                      Bo%Yang%yybb112@whu.edu.cn%0,                      Congxin%Huang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rita de Cássia Menezes%Soares%NULL%0,                      Larissa Rodrigues%Mattos%NULL%0,                      Letícia Martins%Raposo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,                      Ruoqi%Ning%NULL%0,                      Yu%Tao%NULL%0,                      Chong%Yu%NULL%0,                      Xiaoyan%Deng%NULL%0,                      Caili%Zhao%NULL%0,                      Silu%Meng%NULL%0,                      Fangxu%Tang%89650793@qq.com%0,                      Dong%Xu%89650793@qq.com%0,                      Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Kun%Wang%NULL%0,                      Peiyuan%Zuo%NULL%0,                      Yuwei%Liu%NULL%0,                      Meng%Zhang%NULL%0,                      Xiaofang%Zhao%NULL%0,                      Songpu%Xie%NULL%0,                      Hao%Zhang%NULL%0,                      Xinglin%Chen%NULL%0,                      Chengyun%Liu%chengyunliu@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Bo%XU%NULL%0,                      Cun-yu%FAN%NULL%0,                      An-lu%WANG%NULL%0,                      Yi-long%ZOU%NULL%0,                      Yi-han%YU%NULL%0,                      Cong%HE%NULL%0,                      Wen-guang%XIA%NULL%0,                      Ji-xian%ZHANG%NULL%0,                      Qing%MIAO%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xisheng%Yan%NULL%0,                      Fen%Li%NULL%0,                      Xiao%Wang%NULL%0,                      Jie%Yan%NULL%0,                      Fen%Zhu%NULL%0,                      Shifan%Tang%NULL%0,                      Yingzhong%Deng%NULL%0,                      Hua%Wang%NULL%0,                      Rui%Chen%NULL%0,                      Zhili%Yu%NULL%0,                      Yaping%Li%NULL%0,                      Jingzhou%Shang%NULL%0,                      Lingjun%Zeng%NULL%0,                      Jie%Zhao%NULL%0,                      Chaokun%Guan%NULL%0,                      Qiaomei%Liu%NULL%0,                      Haifeng%Chen%NULL%0,                      Wei%Gong%NULL%0,                      Xin%Huang%NULL%0,                      Yu‐Jiao%Zhang%NULL%0,                      Jianguang%Liu%NULL%0,                      Xiaoyan%Dong%NULL%0,                      Wen%Zheng%zhengwen12@mails.jlu.edu.cn%0,                      Shaoping%Nie%spnie@126.com%0,                      Dongsheng%Li%dongshengli196809@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qing%Yang%NULL%0,                      Ying%Zhou%NULL%0,                      Xinrong%Wang%NULL%0,                      Shan%Gao%NULL%0,                      Yang%Xiao%NULL%0,                      Weiming%Zhang%NULL%0,                      Yi%Hu%huyizxyy@163.com%0,                      Yafei%Wang%wyf_527@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                      Qingyu%Yang%NULL%0,                      Yaxin%Wang%NULL%0,                      Yongran%Wu%NULL%0,                      Jiqian%Xu%NULL%0,                      Yuan%Yu%NULL%0,                      You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wenjing%Ye%yewenjing@xinhuamed.com.cn%0,                      Guoxi%Chen%4799082@qq.com%0,                      Xiaopan%Li%xiaopanli0224@126.com%0,                      Xing%Lan%474137452@qq.com%0,                      Chen%Ji%c.ji.3@warwick.ac.uk%0,                      Min%Hou%min-hou710@hotmail.com%0,                      Di%Zhang%zhangdizhangdi1234@163.com%0,                      Guangwang%Zeng%785663609@qq.com%0,                      Yaling%Wang%953822402@qq.com%0,                      Cheng%Xu%xucheng112358@126.com%0,                      Weiwei%Lu%luweiwei100@126.com%0,                      Ruolin%Cui%crlqwerty@163.com%0,                      Yuyang%Cai%caiyuyang@sjtu.edu.cn%0,                      Hai%Huang%1220775601@qq.com%0,                      Ling%Yang%yangling01@xinhuamed.com.cn%0]</t>
+  </si>
+  <si>
+    <t>[Caizheng%Yu%NULL%0,                      Qing%Lei%NULL%0,                      Wenkai%Li%NULL%0,                      Xiong%Wang%NULL%0,                      Wei%Liu%NULL%0,                      Xionglin%Fan%NULL%0,                      Wengang%Li%228907211@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                      Ting%Yu%NULL%0,                      Ronghui%Du%NULL%0,                      Guohui%Fan%NULL%0,                      Ying%Liu%NULL%0,                      Zhibo%Liu%NULL%0,                      Jie%Xiang%NULL%0,                      Yeming%Wang%NULL%0,                      Bin%Song%NULL%0,                      Xiaoying%Gu%NULL%0,                      Lulu%Guan%NULL%0,                      Yuan%Wei%NULL%0,                      Hui%Li%NULL%0,                      Xudong%Wu%NULL%0,                      Jiuyang%Xu%NULL%0,                      Shengjin%Tu%NULL%0,                      Yi%Zhang%NULL%0,                      Hua%Chen%NULL%0,                      Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Moran%Amit%NULL%0,                      Alex%Sorkin%NULL%0,                      Jacob%Chen%NULL%0,                      Barak%Cohen%NULL%0,                      Barak%Cohen%NULL%0,                      Dana%Karol%NULL%0,                      Dana%Karol%NULL%0,                      Avishai M%Tsur%NULL%0,                      Shaul%Lev%NULL%0,                      Shaul%Lev%NULL%0,                      Tal%Rozenblat%NULL%0,                      Ayana%Dvir%NULL%0,                      Ayana%Dvir%NULL%0,                      Geva%Landau%NULL%0,                      Lidar%Fridrich%NULL%0,                      Lidar%Fridrich%NULL%0,                      Elon%Glassberg%NULL%0,                      Shani%Kesari%NULL%0,                      Sigal%Sviri%NULL%0,                      Ram%Gelman%NULL%0,                      Asaf%Miller%NULL%0,                      Danny%Epstein%NULL%0,                      Ronny%Ben-Avi%NULL%0,                      Ronny%Ben-Avi%NULL%0,                      Moshe%Matan%NULL%0,                      Daniel J.%Jakobson%NULL%0,                      Daniel J.%Jakobson%NULL%0,                      Tarif%Bader%NULL%0,                      Tarif%Bader%NULL%0,                      David%Dahan%NULL%0,                      David%Dahan%NULL%0,                      Daniel A.%King%NULL%0,                      Anat%Ben-Ari%NULL%0,                      Arie%Soroksky%NULL%0,                      Alon%Bar%NULL%0,                      Alon%Bar%NULL%0,                      Noam%Fink%NULL%0,                      Pierre%Singer%NULL%0,                      Avi%Benov%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,                      John R%Adler%NULL%0,                      Muhammad Sohaib%Asghar%NULL%0,                      Muhammad Sohaib%Asghar%NULL%0,                      Syed Jawad%Haider Kazmi%NULL%0,                      Noman%Ahmed Khan%NULL%0,                      Mohammed%Akram%NULL%0,                      Salman%Ahmed Khan%NULL%0,                      Uzma%Rasheed%NULL%0,                      Maira%Hassan%NULL%0,                      Gul Muhammad%Memon%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pedro%Baqui%NULL%0,                      Ioana%Bica%NULL%0,                      Valerio%Marra%marra@cosmo-ufes.org%0,                      Ari%Ercole%NULL%0,                      Mihaela%van der Schaar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anesi%Adriano%coreGivesNoEmail%0,                     Bettinardi%Alessandra%coreGivesNoEmail%0,                     Bonetti%Graziella%coreGivesNoEmail%0,                     Borrelli%Gianluca%coreGivesNoEmail%0,                     Fiordalisi%Gianfranco%coreGivesNoEmail%0,                     Lippi%Giuseppe%coreGivesNoEmail%0,                     Manelli%Filippo%coreGivesNoEmail%0,                     Marino%Antonio%coreGivesNoEmail%0,                     Menolfi%Annamaria%coreGivesNoEmail%0,                     Patroni%Andrea%coreGivesNoEmail%0,                     Saggini%Sara%coreGivesNoEmail%0,                     Volpi%Roberta%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Andrea%Borghesi%NULL%0,                      Angelo%Zigliani%NULL%0,                      Salvatore%Golemi%NULL%0,                      Nicola%Carapella%NULL%0,                      Patrizia%Maculotti%NULL%0,                      Davide%Farina%NULL%0,                      Roberto%Maroldi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alberto M.%Borobia%NULL%0,                      Antonio J.%Carcas%NULL%0,                      Antonio J.%Carcas%NULL%0,                      Francisco%Arnalich%NULL%0,                      Rodolfo%Álvarez-Sala%NULL%0,                      Rodolfo%Álvarez-Sala%NULL%0,                      Jaime%Monserrat-Villatoro%NULL%0,                      Manuel%Quintana%NULL%0,                      Juan Carlos%Figueira%NULL%0,                      Rosario M.%Torres Santos-Olmo%NULL%0,                      Julio%García-Rodríguez%NULL%0,                      Julio%García-Rodríguez%NULL%0,                      Alberto%Martín-Vega%NULL%0,                      Antonio%Buño%NULL%0,                      Elena%Ramírez%NULL%0,                      Gonzalo%Martínez-Alés%NULL%0,                      Gonzalo%Martínez-Alés%NULL%0,                      Nicolás%García-Arenzana%NULL%0,                      M. Concepción%Núñez%NULL%0,                      M. Concepción%Núñez%NULL%0,                      Milagros%Martí-de-Gracia%NULL%0,                      Francisco%Moreno Ramos%NULL%0,                      Francisco%Reinoso-Barbero%NULL%0,                      Alejandro%Martin-Quiros%NULL%0,                      Angélica%Rivera Núñez%NULL%0,                      Jesús%Mingorance%NULL%0,                      Carlos J.%Carpio Segura%NULL%0,                      Carlos J.%Carpio Segura%NULL%0,                      Daniel%Prieto Arribas%NULL%0,                      Esther%Rey Cuevas%NULL%0,                      Concepción%Prados Sánchez%NULL%0,                      Juan J.%Rios%NULL%0,                      Miguel A.%Hernán%NULL%0,                      Jesús%Frías%NULL%0,                      José R.%Arribas%NULL%0,                      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simon E.%Brill%simon.brill@nhs.net%0,                      Hannah C.%Jarvis%NULL%0,                      Hannah C.%Jarvis%NULL%0,                      Ezgi%Ozcan%NULL%0,                      Thomas L. P.%Burns%NULL%0,                      Rabia A.%Warraich%NULL%0,                      Lisa J.%Amani%NULL%0,                      Amina%Jaffer%NULL%0,                      Stephanie%Paget%NULL%0,                      Anand%Sivaramakrishnan%NULL%0,                      Dean D.%Creer%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                      Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                      Wenlin%Cheng%NULL%0,                      Lei%Yu%NULL%0,                      Ya-Kun%Liu%NULL%0,                      Xiaoyong%Hu%NULL%0,                      Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[B.%Carter%NULL%0,                      J.T.%Collins%NULL%0,                      F.%Barlow-Pay%NULL%0,                      F.%Rickard%NULL%0,                      E.%Bruce%NULL%0,                      A.%Verduri%NULL%0,                      T.J.%Quinn%NULL%0,                      E.%Mitchell%NULL%0,                      A.%Price%NULL%0,                      A.%Vilches-Moraga%NULL%0,                      M.J.%Stechman%NULL%0,                      R.%Short%NULL%0,                      A.%Einarsson%NULL%0,                      P.%Braude%NULL%0,                      S.%Moug%NULL%0,                      P.K.%Myint%NULL%0,                      J.%Hewitt%NULL%0,                      L.%Pearce%NULL%0,                      K.%McCarthy%NULL%0,                      C.%Davey%NULL%0,                      S.%Jones%NULL%0,                      K.%Lunstone%NULL%0,                      A.%Cavenagh%NULL%0,                      C.%Silver%NULL%0,                      T.%Telford%NULL%0,                      R.%Simmons%NULL%0,                      M.%Holloway%NULL%0,                      J.%Hesford%NULL%0,                      T.%El Jichi Mutasem%NULL%0,                      S.%Singh%NULL%0,                      D.%Paxton%NULL%0,                      W.%Harris%NULL%0,                      N.%Galbraith%NULL%0,                      E.%Bhatti%NULL%0,                      J.%Edwards%NULL%0,                      S.%Duffy%NULL%0,                      J.%Kelly%NULL%0,                      C.%Murphy%NULL%0,                      C.%Bisset%NULL%0,                      R.%Alexander%NULL%0,                      M.%Garcia%NULL%0,                      S.%Sangani%NULL%0,                      T.%Kneen%NULL%0,                      T.%Lee%NULL%0,                      A.%McGovern%NULL%0,                      G.%Guaraldi%NULL%0,                      E.%Clini%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fuyang%Chen%NULL%0,                      Wenwu%Sun%NULL%0,                      Shengrong%Sun%NULL%0,                      Zhiyu%Li%lizhiyu@whu.edu.cn%0,                      Zhong%Wang%zhongwangchn@whu.edu.cn%0,                      Li%Yu%yuliwhzxyy@163.com%0,                      Li%Yu%yuliwhzxyy@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,                      Ling%Sang%NULL%0,                      Mei%Jiang%NULL%0,                      Zhaowei%Yang%NULL%0,                      Nan%Jia%NULL%0,                      Wanyi%Fu%NULL%0,                      Jiaxing%Xie%NULL%0,                      Weijie%Guan%NULL%0,                      Wenhua%Liang%NULL%0,                      Zhengyi%Ni%NULL%0,                      Yu%Hu%NULL%0,                      Lei%Liu%NULL%0,                      Hong%Shan%NULL%0,                      Chunliang%Lei%NULL%0,                      Yixiang%Peng%NULL%0,                      Li%Wei%NULL%0,                      Yong%Liu%NULL%0,                      Yahua%Hu%NULL%0,                      Peng%Peng%NULL%0,                      Jianming%Wang%NULL%0,                      Jiyang%Liu%NULL%0,                      Zhong%Chen%NULL%0,                      Gang%Li%NULL%0,                      Zhijian%Zheng%NULL%0,                      Shaoqin%Qiu%NULL%0,                      Jie%Luo%NULL%0,                      Changjiang%Ye%NULL%0,                      Shaoyong%Zhu%NULL%0,                      Jinping%Zheng%NULL%0,                      Nuofu%Zhang%NULL%0,                      Yimin%Li%NULL%0,                      Jianxing%He%NULL%0,                      Jing%Li%NULL%0,                      Shiyue%Li%NULL%0,                      Nanshan%Zhong%NULL%0,                      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                      Di%Wu%NULL%0,                      Huilong%Chen%NULL%0,                      Weiming%Yan%NULL%0,                      Danlei%Yang%NULL%0,                      Guang%Chen%NULL%0,                      Ke%Ma%NULL%0,                      Dong%Xu%NULL%0,                      Haijing%Yu%NULL%0,                      Hongwu%Wang%NULL%0,                      Tao%Wang%NULL%0,                      Wei%Guo%NULL%0,                      Jia%Chen%NULL%0,                      Chen%Ding%NULL%0,                      Xiaoping%Zhang%NULL%0,                      Jiaquan%Huang%NULL%0,                      Meifang%Han%NULL%0,                      Shusheng%Li%NULL%0,                      Xiaoping%Luo%NULL%0,                      Jianping%Zhao%NULL%0,                      Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anying%Cheng%NULL%0,                      Liu%Hu%NULL%0,                      Yiru%Wang%NULL%0,                      Luyan%Huang%NULL%0,                      Lingxi%Zhao%NULL%0,                      Congcong%Zhang%NULL%0,                      Xiyue%Liu%NULL%0,                      Ranran%Xu%NULL%0,                      Feng%Liu%NULL%0,                      Jinping%Li%NULL%0,                      Dawei%Ye%NULL%0,                      Tao%Wang%NULL%0,                      Yongman%Lv%lvyongman@126.com%0,                      Qingquan%Liu%qqliutj@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fabio%Ciceri%ciceri.fabio@hsr.it%0,                      Antonella%Castagna%NULL%0,                      Patrizia%Rovere-Querini%NULL%0,                      Francesco%De Cobelli%NULL%0,                      Annalisa%Ruggeri%NULL%0,                      Laura%Galli%NULL%0,                      Caterina%Conte%NULL%0,                      Rebecca%De Lorenzo%NULL%0,                      Andrea%Poli%NULL%0,                      Alberto%Ambrosio%NULL%0,                      Carlo%Signorelli%NULL%0,                      Eleonora%Bossi%NULL%0,                      Maria%Fazio%NULL%0,                      Cristina%Tresoldi%NULL%0,                      Sergio%Colombo%NULL%0,                      Giacomo%Monti%NULL%0,                      Efgeny%Fominskiy%NULL%0,                      Stefano%Franchini%NULL%0,                      Marzia%Spessot%NULL%0,                      Carlo%Martinenghi%NULL%0,                      Michele%Carlucci%NULL%0,                      Luigi%Beretta%NULL%0,                      Anna Maria%Scandroglio%NULL%0,                      Massimo%Clementi%NULL%0,                      Massimo%Locatelli%NULL%0,                      Moreno%Tresoldi%NULL%0,                      Paolo%Scarpellini%NULL%0,                      Gianvito%Martino%NULL%0,                      Emanuele%Bosi%NULL%0,                      Lorenzo%Dagna%NULL%0,                      Adriano%Lazzarin%NULL%0,                      Giovanni%Landoni%NULL%0,                      Alberto%Zangrillo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,                      Wei%Liu%NULL%0,                      Kui%Liu%NULL%0,                      Yuan-Yuan%Fang%NULL%0,                      Jin%Shang%NULL%0,                      Ling%Zhou%NULL%0,                      Ke%Wang%NULL%0,                      Fan%Leng%NULL%0,                      Shuang%Wei%NULL%0,                      Lei%Chen%NULL%0,                      Hui-Guo%Liu%NULL%0,                      Pei-Fang%Wei%NULL%0,                      Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                      Li-Rong%Liang%NULL%0,                      Cheng-Qing%Yang%NULL%0,                      Wen%Wang%NULL%0,                      Tan-Ze%Cao%NULL%0,                      Ming%Li%NULL%0,                      Guang-Yun%Guo%NULL%0,                      Juan%Du%NULL%0,                      Chun-Lan%Zheng%NULL%0,                      Qi%Zhu%NULL%0,                      Ming%Hu%NULL%0,                      Xu-Yan%Li%NULL%0,                      Peng%Peng%NULL%0,                      Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shan%Gao%NULL%0,                      Fang%Jiang%NULL%0,                      Wei%Jin%NULL%0,                      Yuan%Shi%NULL%0,                      Leilei%Yang%NULL%0,                      Yanqiong%Xia%NULL%0,                      Linyan%Jia%NULL%0,                      Bo%Wang%NULL%0,                      Han%Lin%NULL%0,                      Yin%Cai%NULL%0,                      Zhengyuan%Xia%NULL%0,                      Jian%Peng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pedro David%Wendel Garcia%pedrodavid.wendelgarcia@usz.ch%0,                      Thierry%Fumeaux%thierry.fumeaux@ghol.ch%0,                      Philippe%Guerci%NULL%0,                      Dorothea Monika%Heuberger%dorotheamonika.heuberger@usz.ch%0,                      Jonathan%Montomoli%NULL%0,                      Ferran%Roche-Campo%NULL%0,                      Reto Andreas%Schuepbach%reto.schuepbach@usz.ch%0,                      Matthias Peter%Hilty%matthias.hilty@usz.ch%0,                      Mario%Alfaro Farias%NULL%0,                      Antoni%Margarit%NULL%0,                      Gerardo%Vizmanos-Lamotte%NULL%0,                      Thomas%Tschoellitsch%NULL%0,                      Jens%Meier%NULL%0,                      Francesco S.%Cardona%NULL%0,                      Josef%Skola%NULL%0,                      Lenka%Horakova%NULL%0,                      Hernan%Aguirre-Bermeo%NULL%0,                      Janina%Apolo%NULL%0,                      Emmanuel%Novy%NULL%0,                      Marie-Reine%Losser%NULL%0,                      Geoffrey%Jurkolow%NULL%0,                      Gauthier%Delahaye%NULL%0,                      Sascha%David%NULL%0,                      Tobias%Welte%NULL%0,                      Tobias%Wengenmayer%NULL%0,                      Dawid L.%Staudacher%NULL%0,                      Theodoros%Aslanidis%NULL%0,                      Barna%Babik%NULL%0,                      Anita%Korsos%NULL%0,                      Janos%Gal%NULL%0,                      Hermann%Csaba%NULL%0,                      Abele%Donati%NULL%0,                      Andrea%Carsetti%NULL%0,                      Fabrizio%Turrini%NULL%0,                      Maria Sole%Simonini%NULL%0,                      Roberto%Ceriani%NULL%0,                      Martina%Murrone%NULL%0,                      Emanuele%Rezoagli%NULL%0,                      Giovanni%Vitale%NULL%0,                      Alberto%Fogagnolo%NULL%0,                      Savino%Spadaro%NULL%0,                      Maddalena Alessandra%Wu%NULL%0,                      Chiara%Cogliati%NULL%0,                      Riccardo%Colombo%NULL%0,                      Emanuele%Catena%NULL%0,                      Francesca%Facondini%NULL%0,                      Antonella%Potalivo%NULL%0,                      Gianfilippo%Gangitano%NULL%0,                      Tiziana%Perin%NULL%0,                      Maria Grazia%Bocci%NULL%0,                      Massimo%Antonelli%NULL%0,                      Diederik%Gommers%NULL%0,                      Can%Ince%NULL%0,                      Eric%Mayor-Vázquez%NULL%0,                      Maria%Cruz%NULL%0,                      Martin%Delgado%NULL%0,                      Raquel Rodriguez%Garcia%NULL%0,                      Jorge%Gamez Zapata%NULL%0,                      Begoña%Zalba-Etayo%NULL%0,                      Herminia%Lozano-Gomez%NULL%0,                      Pedro%Castro%NULL%0,                      Adrian%Tellez%NULL%0,                      Adriana%Jacas%NULL%0,                      Guido%Muñoz%NULL%0,                      Rut%Andrea%NULL%0,                      Jose%Ortiz%NULL%0,                      Eduard%Quintana%NULL%0,                      Irene%Rovira%NULL%0,                      Enric%Reverter%NULL%0,                      Javier%Fernandez%NULL%0,                      Miquel%Ferrer%NULL%0,                      Joan R.%Badia%NULL%0,                      Arantxa%Lander Azcona%NULL%0,                      Jesus Escos%Orta%NULL%0,                      Philipp%Bühler%NULL%0,                      Silvio%Brugger%NULL%0,                      Daniel%Hofmaenner%NULL%0,                      Simone%Unseld%NULL%0,                      Frank%Ruschitzka%NULL%0,                      Mallory%Moret-Bochatay%NULL%0,                      Bernd%Yuen%NULL%0,                      Thomas%Hillermann%NULL%0,                      Hatem%Ksouri%NULL%0,                      Govind Oliver%Sridharan%NULL%0,                      Anette%Ristic%NULL%0,                      Michael%Sepulcri%NULL%0,                      Miodrag%Filipovic%NULL%0,                      Urs%Pietsch%NULL%0,                      Petra%Salomon%NULL%0,                      Iris%Drvaric%NULL%0,                      Peter%Schott%NULL%0,                      Severin%Urech%NULL%0,                      Adriana%Lambert%NULL%0,                      Lukas%Merki%NULL%0,                      Marcus%Laube%NULL%0,                      Frank%Hillgaertner%NULL%0,                      Marianne%Sieber%NULL%0,                      Alexander%Dullenkopf%NULL%0,                      Lina%Petersen%NULL%0,                      Serge%Grazioli%NULL%0,                      Peter C.%Rimensberger%NULL%0,                      Isabelle%Fleisch%NULL%0,                      Jerome%Lavanchy%NULL%0,                      Katharina%Marquardt%NULL%0,                      Karim%Shaikh%NULL%0,                      Hermann%Redecker%NULL%0,                      Michael%Stephan%NULL%0,                      Jan%Brem%NULL%0,                      Bjarte%Rogdo%NULL%0,                      Andre%Birkenmaier%NULL%0,                      Friederike%Meyer zu Bentrup%NULL%0,                      Patricia%Fodor%NULL%0,                      Pascal%Locher%NULL%0,                      Giovanni%Camen%NULL%0,                      Martin%Siegemund%NULL%0,                      Nuria%Zellweger%NULL%0,                      Marie-Madlen%Jeitziner%NULL%0,                      Beatrice%Jenni-Moser%NULL%0,                      Christian%Bürkle%NULL%0,                      Gian-Reto%Kleger%NULL%0,                      Marilene%Franchitti Laurent%NULL%0,                      Jean-Christophe%Laurent%NULL%0,                      Tomislav%Gaspert%NULL%0,                      Marija%Jovic%NULL%0,                      Michael%Studhalter%NULL%0,                      Christoph%Haberthuer%NULL%0,                      Roger F.%Lussman%NULL%0,                      Daniela%Selz%NULL%0,                      Didier%Naon%NULL%0,                      Romano%Mauri%NULL%0,                      Samuele%Ceruti%NULL%0,                      Julien%Marrel%NULL%0,                      Mirko%Brenni%NULL%0,                      Rolf%Ensner%NULL%0,                      Nadine%Gehring%NULL%0,                      Antje%Heise%NULL%0,                      Tobias%Huebner%NULL%0,                      Thomas A.%Neff%NULL%0,                      Sara%Cereghetti%NULL%0,                      Filippo%Boroli%NULL%0,                      Jerome%Pugin%NULL%0,                      Nandor%Marczin%NULL%0,                      Joyce%Wong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Warren%Gavin%NULL%0,                      Elliott%Campbell%NULL%0,                      Syed-Adeel%Zaidi%NULL%0,                      Neha%Gavin%NULL%0,                      Lana%Dbeibo%NULL%0,                      Cole%Beeler%NULL%0,                      Kari%Kuebler%NULL%0,                      Ahmed%Abdel-Rahman%NULL%0,                      Mark%Luetkemeyer%NULL%0,                      Areeba%Kara%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Vijay%Gayam%vgayam@interfaithmedical.com%0,                      Muchi Ditah%Chobufo%NULL%0,                      Muchi Ditah%Chobufo%NULL%0,                      Mohamed A.%Merghani%NULL%0,                      Mohamed A.%Merghani%NULL%0,                      Shristi%Lamichhane%NULL%0,                      Pavani Reddy%Garlapati%NULL%0,                      Mark K.%Adler%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Cao%Y%coreGivesNoEmail%0,                     Imam%Z%coreGivesNoEmail%0,                     Lippi%G%coreGivesNoEmail%0,                     Oran%DP%coreGivesNoEmail%0,                     Shi%S%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Hai%Hu%huhai@wchscu.cn%0,                      Ni%Yao%NULL%0,                      Ni%Yao%NULL%0,                      Yanru%Qiu%NULL%0,                      John H.%Burton%NULL%0,                      John H.%Burton%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jiaofeng%Huang%NULL%0,                      Aiguo%Cheng%NULL%0,                      Rahul%Kumar%NULL%0,                      Yingying%Fang%NULL%0,                      Yingying%Fang%NULL%0,                      Gongping%Chen%NULL%0,                      Yueyong%Zhu%NULL%0,                      Su%Lin%sumer5129@fjmu.edu.cn%0,                      Su%Lin%sumer5129@fjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%0,                      Ju-Hyun%Kim%NULL%0,                      Jin-Sung%Park%NULL%0,                      Min Cheol%Chang%wheel633@ynu.ac.kr%0,                      Donghwi%Park%bdome@hanmail.net%0]</t>
+  </si>
+  <si>
+    <t>[K.%Khalil%NULL%0,                      K.%Agbontaen%NULL%0,                      D.%McNally%NULL%0,                      A.%Love%NULL%0,                      S.%Mandalia%NULL%0,                      W.%Banya%NULL%0,                      E.%Starren%NULL%0,                      R.%Dhunnookchand%NULL%0,                      H.%Farne%NULL%0,                      R.%Morton%NULL%0,                      G.%Davies%NULL%0,                      O.%Orhan%NULL%0,                      D%Lai%NULL%0,                      M.%Nelson%NULL%0,                      P.L.%Shah%NULL%0,                      J.L.%Garner%Justin.garner@chelwest.nhs.uk%0]</t>
+  </si>
+  <si>
+    <t>[Eyal%Klang%NULL%0,                      Gassan%Kassim%NULL%0,                      Shelly%Soffer%soffer.shelly@gmail.com%0,                      Robert%Freeman%NULL%0,                      Robert%Freeman%NULL%0,                      Matthew A.%Levin%NULL%0,                      Matthew A.%Levin%NULL%0,                      David L.%Reich%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sandeep%Krishnan%NULL%0,                      Kinjal%Patel%NULL%0,                      Ronak%Desai%NULL%0,                      Anupam%Sule%NULL%0,                      Peter%Paik%NULL%0,                      Ashley%Miller%NULL%0,                      Alicia%Barclay%NULL%0,                      Adam%Cassella%NULL%0,                      Jon%Lucaj%NULL%0,                      Yvonne%Royster%NULL%0,                      Joffer%Hakim%NULL%0,                      Zulfiqar%Ahmed%NULL%0,                      Farhad%Ghoddoussi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Manisha%Bhutani%null%0,            David M.%Foureau%null%0,            Shebli%Atrash%null%0,            Peter M.%Voorhees%null%0,            Saad Z.%Usmani%null%0]</t>
+  </si>
+  <si>
+    <t>[Wil%Lieberman-Cribbin%NULL%0,                      Joseph%Rapp%NULL%0,                      Naomi%Alpert%NULL%0,                      Stephanie%Tuminello%NULL%0,                      Emanuela%Taioli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Q.%Liu%NULL%0,                      N. C.%Song%NULL%0,                      Z. K.%Zheng%NULL%0,                      J. S.%Li%NULL%0,                      S. K.%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Long%NULL%0,                      Lan%Nie%NULL%0,                      Xiaochen%Xiang%NULL%0,                      Huan%Li%NULL%0,                      Xiaoli%Zhang%NULL%0,                      Xiaozhi%Fu%NULL%0,                      Hongwei%Ren%NULL%0,                      Wanxin%Liu%NULL%0,                      Qiang%Wang%wangqiang@wust.edu.cn%0,                      Qingming%Wu%wuhe9224@sina.com%0,                      Qingming%Wu%wuhe9224@sina.com%0]</t>
+  </si>
+  <si>
+    <t>2023-06-05</t>
+  </si>
+  <si>
+    <t>PUBLISHER: American Society for Clinical Investigation</t>
+  </si>
+  <si>
+    <t>[Xiaomin%Luo%luoxiaomin04@163.com%0,                      Wei%Zhou%NULL%0,                      Xiaojie%Yan%NULL%0,                      Tangxi%Guo%NULL%0,                      Benchao%Wang%NULL%0,                      Hongxia%Xia%NULL%0,                      Lu%Ye%NULL%0,                      Jun%Xiong%NULL%0,                      Zongping%Jiang%NULL%0,                      Yu%Liu%NULL%0,                      Bicheng%Zhang%NULL%0,                      Weize%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ying%Luo%NULL%0,                      Liyan%Mao%NULL%0,                      Xu%Yuan%NULL%0,                      Ying%Xue%NULL%0,                      Qun%Lin%NULL%0,                      Guoxing%Tang%NULL%0,                      Huijuan%Song%NULL%0,                      Feng%Wang%fengwang@tjh.tjmu.edu.cn%0,                      Ziyong%Sun%zysun@tjh.tjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ying%Luo%NULL%0,                      Ying%Xue%NULL%0,                      Liyan%Mao%NULL%0,                      Xu%Yuan%NULL%0,                      Qun%Lin%NULL%0,                      Guoxing%Tang%NULL%0,                      Huijuan%Song%NULL%0,                      Feng%Wang%NULL%0,                      Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chiara%Masetti%NULL%0,                      Elena%Generali%NULL%0,                      Francesca%Colapietro%NULL%0,                      Antonio%Voza%NULL%0,                      Maurizio%Cecconi%NULL%0,                      Antonio%Messina%NULL%0,                      Paolo%Omodei%NULL%0,                      Claudio%Angelini%NULL%0,                      Michele%Ciccarelli%NULL%0,                      Salvatore%Badalamenti%NULL%0,                      G. Walter%Canonica%NULL%0,                      Ana%Lleo%ana.lleo@humanitas.it%0,                      Alessio%Aghemo%NULL%0,                      Alessio%Aghemo%NULL%0,                      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Takahisa%Mikami%NULL%0,                      Hirotaka%Miyashita%NULL%0,                      Takayuki%Yamada%NULL%0,                      Matthew%Harrington%NULL%0,                      Daniel%Steinberg%NULL%0,                      Andrew%Dunn%NULL%0,                      Evan%Siau%Evan.Siau@mountsinai.org%0]</t>
+  </si>
+  <si>
+    <t>[Alexis K.%Okoh%alexis.okoh@rwjbh.org%0,                      Christoph%Sossou%NULL%0,                      Christoph%Sossou%NULL%0,                      Neha S.%Dangayach%NULL%0,                      Sherin%Meledathu%NULL%0,                      Oluwakemi%Phillips%NULL%0,                      Corinne%Raczek%NULL%0,                      Michael%Patti%NULL%0,                      Nathan%Kang%NULL%0,                      Sameer A.%Hirji%NULL%0,                      Charles%Cathcart%NULL%0,                      Christian%Engell%NULL%0,                      Marc%Cohen%NULL%0,                      Sandhya%Nagarakanti%NULL%0,                      Eliahu%Bishburg%NULL%0,                      Harpreet S.%Grewal%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%0,                       Lian%Yang%NULL%0,                       Yuncheng%Li%NULL%0,                       Bo%Liang%NULL%0,                       Lin%Li%NULL%0,                       Tianhe%Ye%NULL%0,                       Lingli%Li%NULL%0,                       Dehan%Liu%NULL%0,                       Shan%Gui%NULL%0,                       Yu%Hu%NULL%0,                       Chuansheng%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                      Becker%L.B.%coreGivesNoEmail%0,                      Chelico%J.D.%coreGivesNoEmail%0,                      Cohen%S.L.%coreGivesNoEmail%0,                      Cookingham%J.%coreGivesNoEmail%0,                      Coppa%K.%coreGivesNoEmail%0,                      Crawford%J.M.%coreGivesNoEmail%0,                      Davidson%K.W.%coreGivesNoEmail%0,                      Diefenbach%M.A.%coreGivesNoEmail%0,                      Dominello%A.J.%coreGivesNoEmail%0,                      Duer-Hefele%J.%coreGivesNoEmail%0,                      Falzon%L.%coreGivesNoEmail%0,                      Gitlin%J.%coreGivesNoEmail%0,                      Hajizadeh%N.%coreGivesNoEmail%0,                      Harvin%T.G.%coreGivesNoEmail%0,                      Hirsch%J.S.%coreGivesNoEmail%0,                      Hirschwerk%D.A.%coreGivesNoEmail%0,                      Kim%E.J.%coreGivesNoEmail%0,                      Kozel%Z.M.%coreGivesNoEmail%0,                      Marrast%L.M.%coreGivesNoEmail%0,                      McGinn%T.%coreGivesNoEmail%0,                      Mogavero%J.N.%coreGivesNoEmail%0,                      Narasimhan%M.%coreGivesNoEmail%0,                      Osorio%G.A.%coreGivesNoEmail%0,                      Qiu%M.%coreGivesNoEmail%0,                      Richardson%S.%coreGivesNoEmail%0,                      Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Mario%Rivera-Izquierdo%NULL%0,                       María%del Carmen Valero-Ubierna%NULL%0,                       María%del Carmen Valero-Ubierna%NULL%0,                       Juan Luis%R-delAmo%NULL%0,                       Miguel Ángel%Fernández-García%NULL%0,                       Silvia%Martínez-Diz%NULL%0,                       Arezu%Tahery-Mahmoud%NULL%0,                       Marta%Rodríguez-Camacho%NULL%0,                       Ana Belén%Gámiz-Molina%NULL%0,                       Nicolás%Barba-Gyengo%NULL%0,                       Pablo%Gámez-Baeza%NULL%0,                       Celia%Cabrero-Rodríguez%NULL%0,                       Pedro Antonio%Guirado-Ruiz%NULL%0,                       Divina Tatiana%Martín-Romero%NULL%0,                       Antonio Jesús%Láinez-Ramos-Bossini%NULL%0,                       María Rosa%Sánchez-Pérez%NULL%0,                       José%Mancera-Romero%NULL%0,                       Miguel%García-Martín%NULL%0,                       Luis Miguel%Martín-delosReyes%NULL%0,                       Virginia%Martínez-Ruiz%NULL%0,                       Virginia%Martínez-Ruiz%NULL%0,                       Pablo%Lardelli-Claret%NULL%0,                       Eladio%Jiménez-Mejías%NULL%0,                       Muhammad%Adrish%NULL%0,                       Muhammad%Adrish%NULL%0,                       NULL%NULL%NULL%0,                       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,                       Kun%Yang%NULL%0,                       Kun%Yang%NULL%0,                       Wenxia%Wang%NULL%0,                       Wenxia%Wang%NULL%0,                       Lingyu%Jiang%NULL%0,                       Lingyu%Jiang%NULL%0,                       Jianxin%Song%songsingsjx@sina.com%0,                       Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Grace%Salacup%salacupg@einstein.edu%0,                       Kevin Bryan%Lo%NULL%0,                       Kevin Bryan%Lo%NULL%0,                       Fahad%Gul%NULL%0,                       Eric%Peterson%NULL%0,                       Robert%De Joy%NULL%0,                       Ruchika%Bhargav%NULL%0,                       Jerald%Pelayo%NULL%0,                       Jeri%Albano%NULL%0,                       Zurab%Azmaiparashvili%NULL%0,                       Sadia%Benzaquen%NULL%0,                       Gabriel%Patarroyo‐Aponte%NULL%0,                       Janani%Rangaswami%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yufeng%Shang%NULL%0,                       Tao%Liu%NULL%0,                       Yongchang%Wei%NULL%0,                       Jingfeng%Li%NULL%0,                       Liang%Shao%NULL%0,                       Minghui%Liu%NULL%0,                       Yongxi%Zhang%NULL%0,                       Zhigang%Zhao%NULL%0,                       Haibo%Xu%NULL%0,                       Zhiyong%Peng%NULL%0,                       Fuling%Zhou%zhoufuling@whu.edu.cn%0,                       Xinghuan%Wang%wangxinghuan@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,                       Mu%Qin%qinmuae@163.com%0,                       Yuli%Cai%NULL%0,                       Tao%Liu%NULL%0,                       Bo%Shen%NULL%0,                       Fan%Yang%NULL%0,                       Sheng%Cao%NULL%0,                       Xu%Liu%NULL%0,                       Xu%Liu%NULL%0,                       Yaozu%Xiang%NULL%0,                       Qinyan%Zhao%NULL%0,                       He%Huang%huanghe1977@whu.edu.cn%0,                       Bo%Yang%yybb112@whu.edu.cn%0,                       Congxin%Huang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rita de Cássia Menezes%Soares%NULL%0,                       Larissa Rodrigues%Mattos%NULL%0,                       Letícia Martins%Raposo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,                       Ruoqi%Ning%NULL%0,                       Yu%Tao%NULL%0,                       Chong%Yu%NULL%0,                       Xiaoyan%Deng%NULL%0,                       Caili%Zhao%NULL%0,                       Silu%Meng%NULL%0,                       Fangxu%Tang%89650793@qq.com%0,                       Dong%Xu%89650793@qq.com%0,                       Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Kun%Wang%NULL%0,                       Peiyuan%Zuo%NULL%0,                       Yuwei%Liu%NULL%0,                       Meng%Zhang%NULL%0,                       Xiaofang%Zhao%NULL%0,                       Songpu%Xie%NULL%0,                       Hao%Zhang%NULL%0,                       Xinglin%Chen%NULL%0,                       Chengyun%Liu%chengyunliu@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Bo%XU%NULL%0,                       Cun-yu%FAN%NULL%0,                       An-lu%WANG%NULL%0,                       Yi-long%ZOU%NULL%0,                       Yi-han%YU%NULL%0,                       Cong%HE%NULL%0,                       Wen-guang%XIA%NULL%0,                       Ji-xian%ZHANG%NULL%0,                       Qing%MIAO%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xisheng%Yan%NULL%0,                       Fen%Li%NULL%0,                       Xiao%Wang%NULL%0,                       Jie%Yan%NULL%0,                       Fen%Zhu%NULL%0,                       Shifan%Tang%NULL%0,                       Yingzhong%Deng%NULL%0,                       Hua%Wang%NULL%0,                       Rui%Chen%NULL%0,                       Zhili%Yu%NULL%0,                       Yaping%Li%NULL%0,                       Jingzhou%Shang%NULL%0,                       Lingjun%Zeng%NULL%0,                       Jie%Zhao%NULL%0,                       Chaokun%Guan%NULL%0,                       Qiaomei%Liu%NULL%0,                       Haifeng%Chen%NULL%0,                       Wei%Gong%NULL%0,                       Xin%Huang%NULL%0,                       Yu‐Jiao%Zhang%NULL%0,                       Jianguang%Liu%NULL%0,                       Xiaoyan%Dong%NULL%0,                       Wen%Zheng%zhengwen12@mails.jlu.edu.cn%0,                       Shaoping%Nie%spnie@126.com%0,                       Dongsheng%Li%dongshengli196809@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qing%Yang%NULL%0,                       Ying%Zhou%NULL%0,                       Xinrong%Wang%NULL%0,                       Shan%Gao%NULL%0,                       Yang%Xiao%NULL%0,                       Weiming%Zhang%NULL%0,                       Yi%Hu%huyizxyy@163.com%0,                       Yafei%Wang%wyf_527@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                       Qingyu%Yang%NULL%0,                       Yaxin%Wang%NULL%0,                       Yongran%Wu%NULL%0,                       Jiqian%Xu%NULL%0,                       Yuan%Yu%NULL%0,                       You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wenjing%Ye%yewenjing@xinhuamed.com.cn%0,                       Guoxi%Chen%4799082@qq.com%0,                       Xiaopan%Li%xiaopanli0224@126.com%0,                       Xing%Lan%474137452@qq.com%0,                       Chen%Ji%c.ji.3@warwick.ac.uk%0,                       Min%Hou%min-hou710@hotmail.com%0,                       Di%Zhang%zhangdizhangdi1234@163.com%0,                       Guangwang%Zeng%785663609@qq.com%0,                       Yaling%Wang%953822402@qq.com%0,                       Cheng%Xu%xucheng112358@126.com%0,                       Weiwei%Lu%luweiwei100@126.com%0,                       Ruolin%Cui%crlqwerty@163.com%0,                       Yuyang%Cai%caiyuyang@sjtu.edu.cn%0,                       Hai%Huang%1220775601@qq.com%0,                       Ling%Yang%yangling01@xinhuamed.com.cn%0]</t>
+  </si>
+  <si>
+    <t>[Caizheng%Yu%NULL%0,                       Qing%Lei%NULL%0,                       Wenkai%Li%NULL%0,                       Xiong%Wang%NULL%0,                       Wei%Liu%NULL%0,                       Xionglin%Fan%NULL%0,                       Wengang%Li%228907211@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                       Ting%Yu%NULL%0,                       Ronghui%Du%NULL%0,                       Guohui%Fan%NULL%0,                       Ying%Liu%NULL%0,                       Zhibo%Liu%NULL%0,                       Jie%Xiang%NULL%0,                       Yeming%Wang%NULL%0,                       Bin%Song%NULL%0,                       Xiaoying%Gu%NULL%0,                       Lulu%Guan%NULL%0,                       Yuan%Wei%NULL%0,                       Hui%Li%NULL%0,                       Xudong%Wu%NULL%0,                       Jiuyang%Xu%NULL%0,                       Shengjin%Tu%NULL%0,                       Yi%Zhang%NULL%0,                       Hua%Chen%NULL%0,                       Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Moran%Amit%NULL%0,                       Alex%Sorkin%NULL%0,                       Jacob%Chen%NULL%0,                       Barak%Cohen%NULL%0,                       Barak%Cohen%NULL%0,                       Dana%Karol%NULL%0,                       Dana%Karol%NULL%0,                       Avishai M%Tsur%NULL%0,                       Shaul%Lev%NULL%0,                       Shaul%Lev%NULL%0,                       Tal%Rozenblat%NULL%0,                       Ayana%Dvir%NULL%0,                       Ayana%Dvir%NULL%0,                       Geva%Landau%NULL%0,                       Lidar%Fridrich%NULL%0,                       Lidar%Fridrich%NULL%0,                       Elon%Glassberg%NULL%0,                       Shani%Kesari%NULL%0,                       Sigal%Sviri%NULL%0,                       Ram%Gelman%NULL%0,                       Asaf%Miller%NULL%0,                       Danny%Epstein%NULL%0,                       Ronny%Ben-Avi%NULL%0,                       Ronny%Ben-Avi%NULL%0,                       Moshe%Matan%NULL%0,                       Daniel J.%Jakobson%NULL%0,                       Daniel J.%Jakobson%NULL%0,                       Tarif%Bader%NULL%0,                       Tarif%Bader%NULL%0,                       David%Dahan%NULL%0,                       David%Dahan%NULL%0,                       Daniel A.%King%NULL%0,                       Anat%Ben-Ari%NULL%0,                       Arie%Soroksky%NULL%0,                       Alon%Bar%NULL%0,                       Alon%Bar%NULL%0,                       Noam%Fink%NULL%0,                       Pierre%Singer%NULL%0,                       Avi%Benov%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,                       John R%Adler%NULL%0,                       Muhammad Sohaib%Asghar%NULL%0,                       Muhammad Sohaib%Asghar%NULL%0,                       Syed Jawad%Haider Kazmi%NULL%0,                       Noman%Ahmed Khan%NULL%0,                       Mohammed%Akram%NULL%0,                       Salman%Ahmed Khan%NULL%0,                       Uzma%Rasheed%NULL%0,                       Maira%Hassan%NULL%0,                       Gul Muhammad%Memon%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pedro%Baqui%NULL%0,                       Ioana%Bica%NULL%0,                       Valerio%Marra%marra@cosmo-ufes.org%0,                       Ari%Ercole%NULL%0,                       Mihaela%van der Schaar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anesi%Adriano%coreGivesNoEmail%0,                      Bettinardi%Alessandra%coreGivesNoEmail%0,                      Bonetti%Graziella%coreGivesNoEmail%0,                      Borrelli%Gianluca%coreGivesNoEmail%0,                      Fiordalisi%Gianfranco%coreGivesNoEmail%0,                      Lippi%Giuseppe%coreGivesNoEmail%0,                      Manelli%Filippo%coreGivesNoEmail%0,                      Marino%Antonio%coreGivesNoEmail%0,                      Menolfi%Annamaria%coreGivesNoEmail%0,                      Patroni%Andrea%coreGivesNoEmail%0,                      Saggini%Sara%coreGivesNoEmail%0,                      Volpi%Roberta%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Andrea%Borghesi%NULL%0,                       Angelo%Zigliani%NULL%0,                       Salvatore%Golemi%NULL%0,                       Nicola%Carapella%NULL%0,                       Patrizia%Maculotti%NULL%0,                       Davide%Farina%NULL%0,                       Roberto%Maroldi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alberto M.%Borobia%NULL%0,                       Antonio J.%Carcas%NULL%0,                       Antonio J.%Carcas%NULL%0,                       Francisco%Arnalich%NULL%0,                       Rodolfo%Álvarez-Sala%NULL%0,                       Rodolfo%Álvarez-Sala%NULL%0,                       Jaime%Monserrat-Villatoro%NULL%0,                       Manuel%Quintana%NULL%0,                       Juan Carlos%Figueira%NULL%0,                       Rosario M.%Torres Santos-Olmo%NULL%0,                       Julio%García-Rodríguez%NULL%0,                       Julio%García-Rodríguez%NULL%0,                       Alberto%Martín-Vega%NULL%0,                       Antonio%Buño%NULL%0,                       Elena%Ramírez%NULL%0,                       Gonzalo%Martínez-Alés%NULL%0,                       Gonzalo%Martínez-Alés%NULL%0,                       Nicolás%García-Arenzana%NULL%0,                       M. Concepción%Núñez%NULL%0,                       M. Concepción%Núñez%NULL%0,                       Milagros%Martí-de-Gracia%NULL%0,                       Francisco%Moreno Ramos%NULL%0,                       Francisco%Reinoso-Barbero%NULL%0,                       Alejandro%Martin-Quiros%NULL%0,                       Angélica%Rivera Núñez%NULL%0,                       Jesús%Mingorance%NULL%0,                       Carlos J.%Carpio Segura%NULL%0,                       Carlos J.%Carpio Segura%NULL%0,                       Daniel%Prieto Arribas%NULL%0,                       Esther%Rey Cuevas%NULL%0,                       Concepción%Prados Sánchez%NULL%0,                       Juan J.%Rios%NULL%0,                       Miguel A.%Hernán%NULL%0,                       Jesús%Frías%NULL%0,                       José R.%Arribas%NULL%0,                       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simon E.%Brill%simon.brill@nhs.net%0,                       Hannah C.%Jarvis%NULL%0,                       Hannah C.%Jarvis%NULL%0,                       Ezgi%Ozcan%NULL%0,                       Thomas L. P.%Burns%NULL%0,                       Rabia A.%Warraich%NULL%0,                       Lisa J.%Amani%NULL%0,                       Amina%Jaffer%NULL%0,                       Stephanie%Paget%NULL%0,                       Anand%Sivaramakrishnan%NULL%0,                       Dean D.%Creer%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                       Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                       Wenlin%Cheng%NULL%0,                       Lei%Yu%NULL%0,                       Ya-Kun%Liu%NULL%0,                       Xiaoyong%Hu%NULL%0,                       Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[B.%Carter%NULL%0,                       J.T.%Collins%NULL%0,                       F.%Barlow-Pay%NULL%0,                       F.%Rickard%NULL%0,                       E.%Bruce%NULL%0,                       A.%Verduri%NULL%0,                       T.J.%Quinn%NULL%0,                       E.%Mitchell%NULL%0,                       A.%Price%NULL%0,                       A.%Vilches-Moraga%NULL%0,                       M.J.%Stechman%NULL%0,                       R.%Short%NULL%0,                       A.%Einarsson%NULL%0,                       P.%Braude%NULL%0,                       S.%Moug%NULL%0,                       P.K.%Myint%NULL%0,                       J.%Hewitt%NULL%0,                       L.%Pearce%NULL%0,                       K.%McCarthy%NULL%0,                       C.%Davey%NULL%0,                       S.%Jones%NULL%0,                       K.%Lunstone%NULL%0,                       A.%Cavenagh%NULL%0,                       C.%Silver%NULL%0,                       T.%Telford%NULL%0,                       R.%Simmons%NULL%0,                       M.%Holloway%NULL%0,                       J.%Hesford%NULL%0,                       T.%El Jichi Mutasem%NULL%0,                       S.%Singh%NULL%0,                       D.%Paxton%NULL%0,                       W.%Harris%NULL%0,                       N.%Galbraith%NULL%0,                       E.%Bhatti%NULL%0,                       J.%Edwards%NULL%0,                       S.%Duffy%NULL%0,                       J.%Kelly%NULL%0,                       C.%Murphy%NULL%0,                       C.%Bisset%NULL%0,                       R.%Alexander%NULL%0,                       M.%Garcia%NULL%0,                       S.%Sangani%NULL%0,                       T.%Kneen%NULL%0,                       T.%Lee%NULL%0,                       A.%McGovern%NULL%0,                       G.%Guaraldi%NULL%0,                       E.%Clini%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fuyang%Chen%NULL%0,                       Wenwu%Sun%NULL%0,                       Shengrong%Sun%NULL%0,                       Zhiyu%Li%lizhiyu@whu.edu.cn%0,                       Zhong%Wang%zhongwangchn@whu.edu.cn%0,                       Li%Yu%yuliwhzxyy@163.com%0,                       Li%Yu%yuliwhzxyy@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,                       Ling%Sang%NULL%0,                       Mei%Jiang%NULL%0,                       Zhaowei%Yang%NULL%0,                       Nan%Jia%NULL%0,                       Wanyi%Fu%NULL%0,                       Jiaxing%Xie%NULL%0,                       Weijie%Guan%NULL%0,                       Wenhua%Liang%NULL%0,                       Zhengyi%Ni%NULL%0,                       Yu%Hu%NULL%0,                       Lei%Liu%NULL%0,                       Hong%Shan%NULL%0,                       Chunliang%Lei%NULL%0,                       Yixiang%Peng%NULL%0,                       Li%Wei%NULL%0,                       Yong%Liu%NULL%0,                       Yahua%Hu%NULL%0,                       Peng%Peng%NULL%0,                       Jianming%Wang%NULL%0,                       Jiyang%Liu%NULL%0,                       Zhong%Chen%NULL%0,                       Gang%Li%NULL%0,                       Zhijian%Zheng%NULL%0,                       Shaoqin%Qiu%NULL%0,                       Jie%Luo%NULL%0,                       Changjiang%Ye%NULL%0,                       Shaoyong%Zhu%NULL%0,                       Jinping%Zheng%NULL%0,                       Nuofu%Zhang%NULL%0,                       Yimin%Li%NULL%0,                       Jianxing%He%NULL%0,                       Jing%Li%NULL%0,                       Shiyue%Li%NULL%0,                       Nanshan%Zhong%NULL%0,                       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                       Di%Wu%NULL%0,                       Huilong%Chen%NULL%0,                       Weiming%Yan%NULL%0,                       Danlei%Yang%NULL%0,                       Guang%Chen%NULL%0,                       Ke%Ma%NULL%0,                       Dong%Xu%NULL%0,                       Haijing%Yu%NULL%0,                       Hongwu%Wang%NULL%0,                       Tao%Wang%NULL%0,                       Wei%Guo%NULL%0,                       Jia%Chen%NULL%0,                       Chen%Ding%NULL%0,                       Xiaoping%Zhang%NULL%0,                       Jiaquan%Huang%NULL%0,                       Meifang%Han%NULL%0,                       Shusheng%Li%NULL%0,                       Xiaoping%Luo%NULL%0,                       Jianping%Zhao%NULL%0,                       Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anying%Cheng%NULL%0,                       Liu%Hu%NULL%0,                       Yiru%Wang%NULL%0,                       Luyan%Huang%NULL%0,                       Lingxi%Zhao%NULL%0,                       Congcong%Zhang%NULL%0,                       Xiyue%Liu%NULL%0,                       Ranran%Xu%NULL%0,                       Feng%Liu%NULL%0,                       Jinping%Li%NULL%0,                       Dawei%Ye%NULL%0,                       Tao%Wang%NULL%0,                       Yongman%Lv%lvyongman@126.com%0,                       Qingquan%Liu%qqliutj@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fabio%Ciceri%ciceri.fabio@hsr.it%0,                       Antonella%Castagna%NULL%0,                       Patrizia%Rovere-Querini%NULL%0,                       Francesco%De Cobelli%NULL%0,                       Annalisa%Ruggeri%NULL%0,                       Laura%Galli%NULL%0,                       Caterina%Conte%NULL%0,                       Rebecca%De Lorenzo%NULL%0,                       Andrea%Poli%NULL%0,                       Alberto%Ambrosio%NULL%0,                       Carlo%Signorelli%NULL%0,                       Eleonora%Bossi%NULL%0,                       Maria%Fazio%NULL%0,                       Cristina%Tresoldi%NULL%0,                       Sergio%Colombo%NULL%0,                       Giacomo%Monti%NULL%0,                       Efgeny%Fominskiy%NULL%0,                       Stefano%Franchini%NULL%0,                       Marzia%Spessot%NULL%0,                       Carlo%Martinenghi%NULL%0,                       Michele%Carlucci%NULL%0,                       Luigi%Beretta%NULL%0,                       Anna Maria%Scandroglio%NULL%0,                       Massimo%Clementi%NULL%0,                       Massimo%Locatelli%NULL%0,                       Moreno%Tresoldi%NULL%0,                       Paolo%Scarpellini%NULL%0,                       Gianvito%Martino%NULL%0,                       Emanuele%Bosi%NULL%0,                       Lorenzo%Dagna%NULL%0,                       Adriano%Lazzarin%NULL%0,                       Giovanni%Landoni%NULL%0,                       Alberto%Zangrillo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,                       Wei%Liu%NULL%0,                       Kui%Liu%NULL%0,                       Yuan-Yuan%Fang%NULL%0,                       Jin%Shang%NULL%0,                       Ling%Zhou%NULL%0,                       Ke%Wang%NULL%0,                       Fan%Leng%NULL%0,                       Shuang%Wei%NULL%0,                       Lei%Chen%NULL%0,                       Hui-Guo%Liu%NULL%0,                       Pei-Fang%Wei%NULL%0,                       Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                       Li-Rong%Liang%NULL%0,                       Cheng-Qing%Yang%NULL%0,                       Wen%Wang%NULL%0,                       Tan-Ze%Cao%NULL%0,                       Ming%Li%NULL%0,                       Guang-Yun%Guo%NULL%0,                       Juan%Du%NULL%0,                       Chun-Lan%Zheng%NULL%0,                       Qi%Zhu%NULL%0,                       Ming%Hu%NULL%0,                       Xu-Yan%Li%NULL%0,                       Peng%Peng%NULL%0,                       Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shan%Gao%NULL%0,                       Fang%Jiang%NULL%0,                       Wei%Jin%NULL%0,                       Yuan%Shi%NULL%0,                       Leilei%Yang%NULL%0,                       Yanqiong%Xia%NULL%0,                       Linyan%Jia%NULL%0,                       Bo%Wang%NULL%0,                       Han%Lin%NULL%0,                       Yin%Cai%NULL%0,                       Zhengyuan%Xia%NULL%0,                       Jian%Peng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pedro David%Wendel Garcia%pedrodavid.wendelgarcia@usz.ch%0,                       Thierry%Fumeaux%thierry.fumeaux@ghol.ch%0,                       Philippe%Guerci%NULL%0,                       Dorothea Monika%Heuberger%dorotheamonika.heuberger@usz.ch%0,                       Jonathan%Montomoli%NULL%0,                       Ferran%Roche-Campo%NULL%0,                       Reto Andreas%Schuepbach%reto.schuepbach@usz.ch%0,                       Matthias Peter%Hilty%matthias.hilty@usz.ch%0,                       Mario%Alfaro Farias%NULL%0,                       Antoni%Margarit%NULL%0,                       Gerardo%Vizmanos-Lamotte%NULL%0,                       Thomas%Tschoellitsch%NULL%0,                       Jens%Meier%NULL%0,                       Francesco S.%Cardona%NULL%0,                       Josef%Skola%NULL%0,                       Lenka%Horakova%NULL%0,                       Hernan%Aguirre-Bermeo%NULL%0,                       Janina%Apolo%NULL%0,                       Emmanuel%Novy%NULL%0,                       Marie-Reine%Losser%NULL%0,                       Geoffrey%Jurkolow%NULL%0,                       Gauthier%Delahaye%NULL%0,                       Sascha%David%NULL%0,                       Tobias%Welte%NULL%0,                       Tobias%Wengenmayer%NULL%0,                       Dawid L.%Staudacher%NULL%0,                       Theodoros%Aslanidis%NULL%0,                       Barna%Babik%NULL%0,                       Anita%Korsos%NULL%0,                       Janos%Gal%NULL%0,                       Hermann%Csaba%NULL%0,                       Abele%Donati%NULL%0,                       Andrea%Carsetti%NULL%0,                       Fabrizio%Turrini%NULL%0,                       Maria Sole%Simonini%NULL%0,                       Roberto%Ceriani%NULL%0,                       Martina%Murrone%NULL%0,                       Emanuele%Rezoagli%NULL%0,                       Giovanni%Vitale%NULL%0,                       Alberto%Fogagnolo%NULL%0,                       Savino%Spadaro%NULL%0,                       Maddalena Alessandra%Wu%NULL%0,                       Chiara%Cogliati%NULL%0,                       Riccardo%Colombo%NULL%0,                       Emanuele%Catena%NULL%0,                       Francesca%Facondini%NULL%0,                       Antonella%Potalivo%NULL%0,                       Gianfilippo%Gangitano%NULL%0,                       Tiziana%Perin%NULL%0,                       Maria Grazia%Bocci%NULL%0,                       Massimo%Antonelli%NULL%0,                       Diederik%Gommers%NULL%0,                       Can%Ince%NULL%0,                       Eric%Mayor-Vázquez%NULL%0,                       Maria%Cruz%NULL%0,                       Martin%Delgado%NULL%0,                       Raquel Rodriguez%Garcia%NULL%0,                       Jorge%Gamez Zapata%NULL%0,                       Begoña%Zalba-Etayo%NULL%0,                       Herminia%Lozano-Gomez%NULL%0,                       Pedro%Castro%NULL%0,                       Adrian%Tellez%NULL%0,                       Adriana%Jacas%NULL%0,                       Guido%Muñoz%NULL%0,                       Rut%Andrea%NULL%0,                       Jose%Ortiz%NULL%0,                       Eduard%Quintana%NULL%0,                       Irene%Rovira%NULL%0,                       Enric%Reverter%NULL%0,                       Javier%Fernandez%NULL%0,                       Miquel%Ferrer%NULL%0,                       Joan R.%Badia%NULL%0,                       Arantxa%Lander Azcona%NULL%0,                       Jesus Escos%Orta%NULL%0,                       Philipp%Bühler%NULL%0,                       Silvio%Brugger%NULL%0,                       Daniel%Hofmaenner%NULL%0,                       Simone%Unseld%NULL%0,                       Frank%Ruschitzka%NULL%0,                       Mallory%Moret-Bochatay%NULL%0,                       Bernd%Yuen%NULL%0,                       Thomas%Hillermann%NULL%0,                       Hatem%Ksouri%NULL%0,                       Govind Oliver%Sridharan%NULL%0,                       Anette%Ristic%NULL%0,                       Michael%Sepulcri%NULL%0,                       Miodrag%Filipovic%NULL%0,                       Urs%Pietsch%NULL%0,                       Petra%Salomon%NULL%0,                       Iris%Drvaric%NULL%0,                       Peter%Schott%NULL%0,                       Severin%Urech%NULL%0,                       Adriana%Lambert%NULL%0,                       Lukas%Merki%NULL%0,                       Marcus%Laube%NULL%0,                       Frank%Hillgaertner%NULL%0,                       Marianne%Sieber%NULL%0,                       Alexander%Dullenkopf%NULL%0,                       Lina%Petersen%NULL%0,                       Serge%Grazioli%NULL%0,                       Peter C.%Rimensberger%NULL%0,                       Isabelle%Fleisch%NULL%0,                       Jerome%Lavanchy%NULL%0,                       Katharina%Marquardt%NULL%0,                       Karim%Shaikh%NULL%0,                       Hermann%Redecker%NULL%0,                       Michael%Stephan%NULL%0,                       Jan%Brem%NULL%0,                       Bjarte%Rogdo%NULL%0,                       Andre%Birkenmaier%NULL%0,                       Friederike%Meyer zu Bentrup%NULL%0,                       Patricia%Fodor%NULL%0,                       Pascal%Locher%NULL%0,                       Giovanni%Camen%NULL%0,                       Martin%Siegemund%NULL%0,                       Nuria%Zellweger%NULL%0,                       Marie-Madlen%Jeitziner%NULL%0,                       Beatrice%Jenni-Moser%NULL%0,                       Christian%Bürkle%NULL%0,                       Gian-Reto%Kleger%NULL%0,                       Marilene%Franchitti Laurent%NULL%0,                       Jean-Christophe%Laurent%NULL%0,                       Tomislav%Gaspert%NULL%0,                       Marija%Jovic%NULL%0,                       Michael%Studhalter%NULL%0,                       Christoph%Haberthuer%NULL%0,                       Roger F.%Lussman%NULL%0,                       Daniela%Selz%NULL%0,                       Didier%Naon%NULL%0,                       Romano%Mauri%NULL%0,                       Samuele%Ceruti%NULL%0,                       Julien%Marrel%NULL%0,                       Mirko%Brenni%NULL%0,                       Rolf%Ensner%NULL%0,                       Nadine%Gehring%NULL%0,                       Antje%Heise%NULL%0,                       Tobias%Huebner%NULL%0,                       Thomas A.%Neff%NULL%0,                       Sara%Cereghetti%NULL%0,                       Filippo%Boroli%NULL%0,                       Jerome%Pugin%NULL%0,                       Nandor%Marczin%NULL%0,                       Joyce%Wong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Warren%Gavin%NULL%0,                       Elliott%Campbell%NULL%0,                       Syed-Adeel%Zaidi%NULL%0,                       Neha%Gavin%NULL%0,                       Lana%Dbeibo%NULL%0,                       Cole%Beeler%NULL%0,                       Kari%Kuebler%NULL%0,                       Ahmed%Abdel-Rahman%NULL%0,                       Mark%Luetkemeyer%NULL%0,                       Areeba%Kara%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Vijay%Gayam%vgayam@interfaithmedical.com%0,                       Muchi Ditah%Chobufo%NULL%0,                       Muchi Ditah%Chobufo%NULL%0,                       Mohamed A.%Merghani%NULL%0,                       Mohamed A.%Merghani%NULL%0,                       Shristi%Lamichhane%NULL%0,                       Pavani Reddy%Garlapati%NULL%0,                       Mark K.%Adler%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Cao%Y%coreGivesNoEmail%0,                      Imam%Z%coreGivesNoEmail%0,                      Lippi%G%coreGivesNoEmail%0,                      Oran%DP%coreGivesNoEmail%0,                      Shi%S%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Hai%Hu%huhai@wchscu.cn%0,                       Ni%Yao%NULL%0,                       Ni%Yao%NULL%0,                       Yanru%Qiu%NULL%0,                       John H.%Burton%NULL%0,                       John H.%Burton%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jiaofeng%Huang%NULL%0,                       Aiguo%Cheng%NULL%0,                       Rahul%Kumar%NULL%0,                       Yingying%Fang%NULL%0,                       Yingying%Fang%NULL%0,                       Gongping%Chen%NULL%0,                       Yueyong%Zhu%NULL%0,                       Su%Lin%sumer5129@fjmu.edu.cn%0,                       Su%Lin%sumer5129@fjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%0,                       Ju-Hyun%Kim%NULL%0,                       Jin-Sung%Park%NULL%0,                       Min Cheol%Chang%wheel633@ynu.ac.kr%0,                       Donghwi%Park%bdome@hanmail.net%0]</t>
+  </si>
+  <si>
+    <t>[K.%Khalil%NULL%0,                       K.%Agbontaen%NULL%0,                       D.%McNally%NULL%0,                       A.%Love%NULL%0,                       S.%Mandalia%NULL%0,                       W.%Banya%NULL%0,                       E.%Starren%NULL%0,                       R.%Dhunnookchand%NULL%0,                       H.%Farne%NULL%0,                       R.%Morton%NULL%0,                       G.%Davies%NULL%0,                       O.%Orhan%NULL%0,                       D%Lai%NULL%0,                       M.%Nelson%NULL%0,                       P.L.%Shah%NULL%0,                       J.L.%Garner%Justin.garner@chelwest.nhs.uk%0]</t>
+  </si>
+  <si>
+    <t>[Eyal%Klang%NULL%0,                       Gassan%Kassim%NULL%0,                       Shelly%Soffer%soffer.shelly@gmail.com%0,                       Robert%Freeman%NULL%0,                       Robert%Freeman%NULL%0,                       Matthew A.%Levin%NULL%0,                       Matthew A.%Levin%NULL%0,                       David L.%Reich%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sandeep%Krishnan%NULL%0,                       Kinjal%Patel%NULL%0,                       Ronak%Desai%NULL%0,                       Anupam%Sule%NULL%0,                       Peter%Paik%NULL%0,                       Ashley%Miller%NULL%0,                       Alicia%Barclay%NULL%0,                       Adam%Cassella%NULL%0,                       Jon%Lucaj%NULL%0,                       Yvonne%Royster%NULL%0,                       Joffer%Hakim%NULL%0,                       Zulfiqar%Ahmed%NULL%0,                       Farhad%Ghoddoussi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Manisha%Bhutani%null%0,             David M.%Foureau%null%0,             Shebli%Atrash%null%0,             Peter M.%Voorhees%null%0,             Saad Z.%Usmani%null%0]</t>
+  </si>
+  <si>
+    <t>[Wil%Lieberman-Cribbin%NULL%0,                       Joseph%Rapp%NULL%0,                       Naomi%Alpert%NULL%0,                       Stephanie%Tuminello%NULL%0,                       Emanuela%Taioli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Q.%Liu%NULL%0,                       N. C.%Song%NULL%0,                       Z. K.%Zheng%NULL%0,                       J. S.%Li%NULL%0,                       S. K.%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Long%NULL%0,                       Lan%Nie%NULL%0,                       Xiaochen%Xiang%NULL%0,                       Huan%Li%NULL%0,                       Xiaoli%Zhang%NULL%0,                       Xiaozhi%Fu%NULL%0,                       Hongwei%Ren%NULL%0,                       Wanxin%Liu%NULL%0,                       Qiang%Wang%wangqiang@wust.edu.cn%0,                       Qingming%Wu%wuhe9224@sina.com%0,                       Qingming%Wu%wuhe9224@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaomin%Luo%luoxiaomin04@163.com%0,                       Wei%Zhou%NULL%0,                       Xiaojie%Yan%NULL%0,                       Tangxi%Guo%NULL%0,                       Benchao%Wang%NULL%0,                       Hongxia%Xia%NULL%0,                       Lu%Ye%NULL%0,                       Jun%Xiong%NULL%0,                       Zongping%Jiang%NULL%0,                       Yu%Liu%NULL%0,                       Bicheng%Zhang%NULL%0,                       Weize%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ying%Luo%NULL%0,                       Liyan%Mao%NULL%0,                       Xu%Yuan%NULL%0,                       Ying%Xue%NULL%0,                       Qun%Lin%NULL%0,                       Guoxing%Tang%NULL%0,                       Huijuan%Song%NULL%0,                       Feng%Wang%fengwang@tjh.tjmu.edu.cn%0,                       Ziyong%Sun%zysun@tjh.tjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ying%Luo%NULL%0,                       Ying%Xue%NULL%0,                       Liyan%Mao%NULL%0,                       Xu%Yuan%NULL%0,                       Qun%Lin%NULL%0,                       Guoxing%Tang%NULL%0,                       Huijuan%Song%NULL%0,                       Feng%Wang%NULL%0,                       Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chiara%Masetti%NULL%0,                       Elena%Generali%NULL%0,                       Francesca%Colapietro%NULL%0,                       Antonio%Voza%NULL%0,                       Maurizio%Cecconi%NULL%0,                       Antonio%Messina%NULL%0,                       Paolo%Omodei%NULL%0,                       Claudio%Angelini%NULL%0,                       Michele%Ciccarelli%NULL%0,                       Salvatore%Badalamenti%NULL%0,                       G. Walter%Canonica%NULL%0,                       Ana%Lleo%ana.lleo@humanitas.it%0,                       Alessio%Aghemo%NULL%0,                       Alessio%Aghemo%NULL%0,                       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Takahisa%Mikami%NULL%0,                       Hirotaka%Miyashita%NULL%0,                       Takayuki%Yamada%NULL%0,                       Matthew%Harrington%NULL%0,                       Daniel%Steinberg%NULL%0,                       Andrew%Dunn%NULL%0,                       Evan%Siau%Evan.Siau@mountsinai.org%0]</t>
+  </si>
+  <si>
+    <t>[Alexis K.%Okoh%alexis.okoh@rwjbh.org%0,                       Christoph%Sossou%NULL%0,                       Christoph%Sossou%NULL%0,                       Neha S.%Dangayach%NULL%0,                       Sherin%Meledathu%NULL%0,                       Oluwakemi%Phillips%NULL%0,                       Corinne%Raczek%NULL%0,                       Michael%Patti%NULL%0,                       Nathan%Kang%NULL%0,                       Sameer A.%Hirji%NULL%0,                       Charles%Cathcart%NULL%0,                       Christian%Engell%NULL%0,                       Marc%Cohen%NULL%0,                       Sandhya%Nagarakanti%NULL%0,                       Eliahu%Bishburg%NULL%0,                       Harpreet S.%Grewal%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%0,                        Lian%Yang%NULL%0,                        Yuncheng%Li%NULL%0,                        Bo%Liang%NULL%0,                        Lin%Li%NULL%0,                        Tianhe%Ye%NULL%0,                        Lingli%Li%NULL%0,                        Dehan%Liu%NULL%0,                        Shan%Gui%NULL%0,                        Yu%Hu%NULL%0,                        Chuansheng%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                       Becker%L.B.%coreGivesNoEmail%0,                       Chelico%J.D.%coreGivesNoEmail%0,                       Cohen%S.L.%coreGivesNoEmail%0,                       Cookingham%J.%coreGivesNoEmail%0,                       Coppa%K.%coreGivesNoEmail%0,                       Crawford%J.M.%coreGivesNoEmail%0,                       Davidson%K.W.%coreGivesNoEmail%0,                       Diefenbach%M.A.%coreGivesNoEmail%0,                       Dominello%A.J.%coreGivesNoEmail%0,                       Duer-Hefele%J.%coreGivesNoEmail%0,                       Falzon%L.%coreGivesNoEmail%0,                       Gitlin%J.%coreGivesNoEmail%0,                       Hajizadeh%N.%coreGivesNoEmail%0,                       Harvin%T.G.%coreGivesNoEmail%0,                       Hirsch%J.S.%coreGivesNoEmail%0,                       Hirschwerk%D.A.%coreGivesNoEmail%0,                       Kim%E.J.%coreGivesNoEmail%0,                       Kozel%Z.M.%coreGivesNoEmail%0,                       Marrast%L.M.%coreGivesNoEmail%0,                       McGinn%T.%coreGivesNoEmail%0,                       Mogavero%J.N.%coreGivesNoEmail%0,                       Narasimhan%M.%coreGivesNoEmail%0,                       Osorio%G.A.%coreGivesNoEmail%0,                       Qiu%M.%coreGivesNoEmail%0,                       Richardson%S.%coreGivesNoEmail%0,                       Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Mario%Rivera-Izquierdo%NULL%0,                        María%del Carmen Valero-Ubierna%NULL%0,                        María%del Carmen Valero-Ubierna%NULL%0,                        Juan Luis%R-delAmo%NULL%0,                        Miguel Ángel%Fernández-García%NULL%0,                        Silvia%Martínez-Diz%NULL%0,                        Arezu%Tahery-Mahmoud%NULL%0,                        Marta%Rodríguez-Camacho%NULL%0,                        Ana Belén%Gámiz-Molina%NULL%0,                        Nicolás%Barba-Gyengo%NULL%0,                        Pablo%Gámez-Baeza%NULL%0,                        Celia%Cabrero-Rodríguez%NULL%0,                        Pedro Antonio%Guirado-Ruiz%NULL%0,                        Divina Tatiana%Martín-Romero%NULL%0,                        Antonio Jesús%Láinez-Ramos-Bossini%NULL%0,                        María Rosa%Sánchez-Pérez%NULL%0,                        José%Mancera-Romero%NULL%0,                        Miguel%García-Martín%NULL%0,                        Luis Miguel%Martín-delosReyes%NULL%0,                        Virginia%Martínez-Ruiz%NULL%0,                        Virginia%Martínez-Ruiz%NULL%0,                        Pablo%Lardelli-Claret%NULL%0,                        Eladio%Jiménez-Mejías%NULL%0,                        Muhammad%Adrish%NULL%0,                        Muhammad%Adrish%NULL%0,                        NULL%NULL%NULL%0,                        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,                        Kun%Yang%NULL%0,                        Kun%Yang%NULL%0,                        Wenxia%Wang%NULL%0,                        Wenxia%Wang%NULL%0,                        Lingyu%Jiang%NULL%0,                        Lingyu%Jiang%NULL%0,                        Jianxin%Song%songsingsjx@sina.com%0,                        Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Grace%Salacup%salacupg@einstein.edu%0,                        Kevin Bryan%Lo%NULL%0,                        Kevin Bryan%Lo%NULL%0,                        Fahad%Gul%NULL%0,                        Eric%Peterson%NULL%0,                        Robert%De Joy%NULL%0,                        Ruchika%Bhargav%NULL%0,                        Jerald%Pelayo%NULL%0,                        Jeri%Albano%NULL%0,                        Zurab%Azmaiparashvili%NULL%0,                        Sadia%Benzaquen%NULL%0,                        Gabriel%Patarroyo‐Aponte%NULL%0,                        Janani%Rangaswami%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Priyank%Shah%xref no email%0,   Jack%Owens%xref no email%0,   James%Franklin%xref no email%0,   Akshat%Mehta%xref no email%0,   William%Heymann%xref no email%0,   William%Sewell%xref no email%0,   Jennifer%Hill%xref no email%0,   Krista%Barfield%xref no email%0,   Rajkumar%Doshi%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Yufeng%Shang%NULL%0,                        Tao%Liu%NULL%0,                        Yongchang%Wei%NULL%0,                        Jingfeng%Li%NULL%0,                        Liang%Shao%NULL%0,                        Minghui%Liu%NULL%0,                        Yongxi%Zhang%NULL%0,                        Zhigang%Zhao%NULL%0,                        Haibo%Xu%NULL%0,                        Zhiyong%Peng%NULL%0,                        Fuling%Zhou%zhoufuling@whu.edu.cn%0,                        Xinghuan%Wang%wangxinghuan@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,                        Mu%Qin%qinmuae@163.com%0,                        Yuli%Cai%NULL%0,                        Tao%Liu%NULL%0,                        Bo%Shen%NULL%0,                        Fan%Yang%NULL%0,                        Sheng%Cao%NULL%0,                        Xu%Liu%NULL%0,                        Xu%Liu%NULL%0,                        Yaozu%Xiang%NULL%0,                        Qinyan%Zhao%NULL%0,                        He%Huang%huanghe1977@whu.edu.cn%0,                        Bo%Yang%yybb112@whu.edu.cn%0,                        Congxin%Huang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rita de Cássia Menezes%Soares%NULL%0,                        Larissa Rodrigues%Mattos%NULL%0,                        Letícia Martins%Raposo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,                        Ruoqi%Ning%NULL%0,                        Yu%Tao%NULL%0,                        Chong%Yu%NULL%0,                        Xiaoyan%Deng%NULL%0,                        Caili%Zhao%NULL%0,                        Silu%Meng%NULL%0,                        Fangxu%Tang%89650793@qq.com%0,                        Dong%Xu%89650793@qq.com%0,                        Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Kun%Wang%NULL%0,                        Peiyuan%Zuo%NULL%0,                        Yuwei%Liu%NULL%0,                        Meng%Zhang%NULL%0,                        Xiaofang%Zhao%NULL%0,                        Songpu%Xie%NULL%0,                        Hao%Zhang%NULL%0,                        Xinglin%Chen%NULL%0,                        Chengyun%Liu%chengyunliu@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Bo%XU%NULL%0,                        Cun-yu%FAN%NULL%0,                        An-lu%WANG%NULL%0,                        Yi-long%ZOU%NULL%0,                        Yi-han%YU%NULL%0,                        Cong%HE%NULL%0,                        Wen-guang%XIA%NULL%0,                        Ji-xian%ZHANG%NULL%0,                        Qing%MIAO%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xisheng%Yan%NULL%0,                        Fen%Li%NULL%0,                        Xiao%Wang%NULL%0,                        Jie%Yan%NULL%0,                        Fen%Zhu%NULL%0,                        Shifan%Tang%NULL%0,                        Yingzhong%Deng%NULL%0,                        Hua%Wang%NULL%0,                        Rui%Chen%NULL%0,                        Zhili%Yu%NULL%0,                        Yaping%Li%NULL%0,                        Jingzhou%Shang%NULL%0,                        Lingjun%Zeng%NULL%0,                        Jie%Zhao%NULL%0,                        Chaokun%Guan%NULL%0,                        Qiaomei%Liu%NULL%0,                        Haifeng%Chen%NULL%0,                        Wei%Gong%NULL%0,                        Xin%Huang%NULL%0,                        Yu‐Jiao%Zhang%NULL%0,                        Jianguang%Liu%NULL%0,                        Xiaoyan%Dong%NULL%0,                        Wen%Zheng%zhengwen12@mails.jlu.edu.cn%0,                        Shaoping%Nie%spnie@126.com%0,                        Dongsheng%Li%dongshengli196809@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qing%Yang%NULL%0,                        Ying%Zhou%NULL%0,                        Xinrong%Wang%NULL%0,                        Shan%Gao%NULL%0,                        Yang%Xiao%NULL%0,                        Weiming%Zhang%NULL%0,                        Yi%Hu%huyizxyy@163.com%0,                        Yafei%Wang%wyf_527@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                        Qingyu%Yang%NULL%0,                        Yaxin%Wang%NULL%0,                        Yongran%Wu%NULL%0,                        Jiqian%Xu%NULL%0,                        Yuan%Yu%NULL%0,                        You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wenjing%Ye%yewenjing@xinhuamed.com.cn%0,                        Guoxi%Chen%4799082@qq.com%0,                        Xiaopan%Li%xiaopanli0224@126.com%0,                        Xing%Lan%474137452@qq.com%0,                        Chen%Ji%c.ji.3@warwick.ac.uk%0,                        Min%Hou%min-hou710@hotmail.com%0,                        Di%Zhang%zhangdizhangdi1234@163.com%0,                        Guangwang%Zeng%785663609@qq.com%0,                        Yaling%Wang%953822402@qq.com%0,                        Cheng%Xu%xucheng112358@126.com%0,                        Weiwei%Lu%luweiwei100@126.com%0,                        Ruolin%Cui%crlqwerty@163.com%0,                        Yuyang%Cai%caiyuyang@sjtu.edu.cn%0,                        Hai%Huang%1220775601@qq.com%0,                        Ling%Yang%yangling01@xinhuamed.com.cn%0]</t>
+  </si>
+  <si>
+    <t>[Caizheng%Yu%NULL%0,                        Qing%Lei%NULL%0,                        Wenkai%Li%NULL%0,                        Xiong%Wang%NULL%0,                        Wei%Liu%NULL%0,                        Xionglin%Fan%NULL%0,                        Wengang%Li%228907211@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                        Ting%Yu%NULL%0,                        Ronghui%Du%NULL%0,                        Guohui%Fan%NULL%0,                        Ying%Liu%NULL%0,                        Zhibo%Liu%NULL%0,                        Jie%Xiang%NULL%0,                        Yeming%Wang%NULL%0,                        Bin%Song%NULL%0,                        Xiaoying%Gu%NULL%0,                        Lulu%Guan%NULL%0,                        Yuan%Wei%NULL%0,                        Hui%Li%NULL%0,                        Xudong%Wu%NULL%0,                        Jiuyang%Xu%NULL%0,                        Shengjin%Tu%NULL%0,                        Yi%Zhang%NULL%0,                        Hua%Chen%NULL%0,                        Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Moran%Amit%NULL%0,                        Alex%Sorkin%NULL%0,                        Jacob%Chen%NULL%0,                        Barak%Cohen%NULL%0,                        Barak%Cohen%NULL%0,                        Dana%Karol%NULL%0,                        Dana%Karol%NULL%0,                        Avishai M%Tsur%NULL%0,                        Shaul%Lev%NULL%0,                        Shaul%Lev%NULL%0,                        Tal%Rozenblat%NULL%0,                        Ayana%Dvir%NULL%0,                        Ayana%Dvir%NULL%0,                        Geva%Landau%NULL%0,                        Lidar%Fridrich%NULL%0,                        Lidar%Fridrich%NULL%0,                        Elon%Glassberg%NULL%0,                        Shani%Kesari%NULL%0,                        Sigal%Sviri%NULL%0,                        Ram%Gelman%NULL%0,                        Asaf%Miller%NULL%0,                        Danny%Epstein%NULL%0,                        Ronny%Ben-Avi%NULL%0,                        Ronny%Ben-Avi%NULL%0,                        Moshe%Matan%NULL%0,                        Daniel J.%Jakobson%NULL%0,                        Daniel J.%Jakobson%NULL%0,                        Tarif%Bader%NULL%0,                        Tarif%Bader%NULL%0,                        David%Dahan%NULL%0,                        David%Dahan%NULL%0,                        Daniel A.%King%NULL%0,                        Anat%Ben-Ari%NULL%0,                        Arie%Soroksky%NULL%0,                        Alon%Bar%NULL%0,                        Alon%Bar%NULL%0,                        Noam%Fink%NULL%0,                        Pierre%Singer%NULL%0,                        Avi%Benov%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,                        John R%Adler%NULL%0,                        Muhammad Sohaib%Asghar%NULL%0,                        Muhammad Sohaib%Asghar%NULL%0,                        Syed Jawad%Haider Kazmi%NULL%0,                        Noman%Ahmed Khan%NULL%0,                        Mohammed%Akram%NULL%0,                        Salman%Ahmed Khan%NULL%0,                        Uzma%Rasheed%NULL%0,                        Maira%Hassan%NULL%0,                        Gul Muhammad%Memon%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pedro%Baqui%NULL%0,                        Ioana%Bica%NULL%0,                        Valerio%Marra%marra@cosmo-ufes.org%0,                        Ari%Ercole%NULL%0,                        Mihaela%van der Schaar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anesi%Adriano%coreGivesNoEmail%0,                       Bettinardi%Alessandra%coreGivesNoEmail%0,                       Bonetti%Graziella%coreGivesNoEmail%0,                       Borrelli%Gianluca%coreGivesNoEmail%0,                       Fiordalisi%Gianfranco%coreGivesNoEmail%0,                       Lippi%Giuseppe%coreGivesNoEmail%0,                       Manelli%Filippo%coreGivesNoEmail%0,                       Marino%Antonio%coreGivesNoEmail%0,                       Menolfi%Annamaria%coreGivesNoEmail%0,                       Patroni%Andrea%coreGivesNoEmail%0,                       Saggini%Sara%coreGivesNoEmail%0,                       Volpi%Roberta%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Andrea%Borghesi%NULL%0,                        Angelo%Zigliani%NULL%0,                        Salvatore%Golemi%NULL%0,                        Nicola%Carapella%NULL%0,                        Patrizia%Maculotti%NULL%0,                        Davide%Farina%NULL%0,                        Roberto%Maroldi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alberto M.%Borobia%NULL%0,                        Antonio J.%Carcas%NULL%0,                        Antonio J.%Carcas%NULL%0,                        Francisco%Arnalich%NULL%0,                        Rodolfo%Álvarez-Sala%NULL%0,                        Rodolfo%Álvarez-Sala%NULL%0,                        Jaime%Monserrat-Villatoro%NULL%0,                        Manuel%Quintana%NULL%0,                        Juan Carlos%Figueira%NULL%0,                        Rosario M.%Torres Santos-Olmo%NULL%0,                        Julio%García-Rodríguez%NULL%0,                        Julio%García-Rodríguez%NULL%0,                        Alberto%Martín-Vega%NULL%0,                        Antonio%Buño%NULL%0,                        Elena%Ramírez%NULL%0,                        Gonzalo%Martínez-Alés%NULL%0,                        Gonzalo%Martínez-Alés%NULL%0,                        Nicolás%García-Arenzana%NULL%0,                        M. Concepción%Núñez%NULL%0,                        M. Concepción%Núñez%NULL%0,                        Milagros%Martí-de-Gracia%NULL%0,                        Francisco%Moreno Ramos%NULL%0,                        Francisco%Reinoso-Barbero%NULL%0,                        Alejandro%Martin-Quiros%NULL%0,                        Angélica%Rivera Núñez%NULL%0,                        Jesús%Mingorance%NULL%0,                        Carlos J.%Carpio Segura%NULL%0,                        Carlos J.%Carpio Segura%NULL%0,                        Daniel%Prieto Arribas%NULL%0,                        Esther%Rey Cuevas%NULL%0,                        Concepción%Prados Sánchez%NULL%0,                        Juan J.%Rios%NULL%0,                        Miguel A.%Hernán%NULL%0,                        Jesús%Frías%NULL%0,                        José R.%Arribas%NULL%0,                        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simon E.%Brill%simon.brill@nhs.net%0,                        Hannah C.%Jarvis%NULL%0,                        Hannah C.%Jarvis%NULL%0,                        Ezgi%Ozcan%NULL%0,                        Thomas L. P.%Burns%NULL%0,                        Rabia A.%Warraich%NULL%0,                        Lisa J.%Amani%NULL%0,                        Amina%Jaffer%NULL%0,                        Stephanie%Paget%NULL%0,                        Anand%Sivaramakrishnan%NULL%0,                        Dean D.%Creer%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                        Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                        Wenlin%Cheng%NULL%0,                        Lei%Yu%NULL%0,                        Ya-Kun%Liu%NULL%0,                        Xiaoyong%Hu%NULL%0,                        Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[B.%Carter%NULL%0,                        J.T.%Collins%NULL%0,                        F.%Barlow-Pay%NULL%0,                        F.%Rickard%NULL%0,                        E.%Bruce%NULL%0,                        A.%Verduri%NULL%0,                        T.J.%Quinn%NULL%0,                        E.%Mitchell%NULL%0,                        A.%Price%NULL%0,                        A.%Vilches-Moraga%NULL%0,                        M.J.%Stechman%NULL%0,                        R.%Short%NULL%0,                        A.%Einarsson%NULL%0,                        P.%Braude%NULL%0,                        S.%Moug%NULL%0,                        P.K.%Myint%NULL%0,                        J.%Hewitt%NULL%0,                        L.%Pearce%NULL%0,                        K.%McCarthy%NULL%0,                        C.%Davey%NULL%0,                        S.%Jones%NULL%0,                        K.%Lunstone%NULL%0,                        A.%Cavenagh%NULL%0,                        C.%Silver%NULL%0,                        T.%Telford%NULL%0,                        R.%Simmons%NULL%0,                        M.%Holloway%NULL%0,                        J.%Hesford%NULL%0,                        T.%El Jichi Mutasem%NULL%0,                        S.%Singh%NULL%0,                        D.%Paxton%NULL%0,                        W.%Harris%NULL%0,                        N.%Galbraith%NULL%0,                        E.%Bhatti%NULL%0,                        J.%Edwards%NULL%0,                        S.%Duffy%NULL%0,                        J.%Kelly%NULL%0,                        C.%Murphy%NULL%0,                        C.%Bisset%NULL%0,                        R.%Alexander%NULL%0,                        M.%Garcia%NULL%0,                        S.%Sangani%NULL%0,                        T.%Kneen%NULL%0,                        T.%Lee%NULL%0,                        A.%McGovern%NULL%0,                        G.%Guaraldi%NULL%0,                        E.%Clini%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fuyang%Chen%NULL%0,                        Wenwu%Sun%NULL%0,                        Shengrong%Sun%NULL%0,                        Zhiyu%Li%lizhiyu@whu.edu.cn%0,                        Zhong%Wang%zhongwangchn@whu.edu.cn%0,                        Li%Yu%yuliwhzxyy@163.com%0,                        Li%Yu%yuliwhzxyy@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,                        Ling%Sang%NULL%0,                        Mei%Jiang%NULL%0,                        Zhaowei%Yang%NULL%0,                        Nan%Jia%NULL%0,                        Wanyi%Fu%NULL%0,                        Jiaxing%Xie%NULL%0,                        Weijie%Guan%NULL%0,                        Wenhua%Liang%NULL%0,                        Zhengyi%Ni%NULL%0,                        Yu%Hu%NULL%0,                        Lei%Liu%NULL%0,                        Hong%Shan%NULL%0,                        Chunliang%Lei%NULL%0,                        Yixiang%Peng%NULL%0,                        Li%Wei%NULL%0,                        Yong%Liu%NULL%0,                        Yahua%Hu%NULL%0,                        Peng%Peng%NULL%0,                        Jianming%Wang%NULL%0,                        Jiyang%Liu%NULL%0,                        Zhong%Chen%NULL%0,                        Gang%Li%NULL%0,                        Zhijian%Zheng%NULL%0,                        Shaoqin%Qiu%NULL%0,                        Jie%Luo%NULL%0,                        Changjiang%Ye%NULL%0,                        Shaoyong%Zhu%NULL%0,                        Jinping%Zheng%NULL%0,                        Nuofu%Zhang%NULL%0,                        Yimin%Li%NULL%0,                        Jianxing%He%NULL%0,                        Jing%Li%NULL%0,                        Shiyue%Li%NULL%0,                        Nanshan%Zhong%NULL%0,                        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                        Di%Wu%NULL%0,                        Huilong%Chen%NULL%0,                        Weiming%Yan%NULL%0,                        Danlei%Yang%NULL%0,                        Guang%Chen%NULL%0,                        Ke%Ma%NULL%0,                        Dong%Xu%NULL%0,                        Haijing%Yu%NULL%0,                        Hongwu%Wang%NULL%0,                        Tao%Wang%NULL%0,                        Wei%Guo%NULL%0,                        Jia%Chen%NULL%0,                        Chen%Ding%NULL%0,                        Xiaoping%Zhang%NULL%0,                        Jiaquan%Huang%NULL%0,                        Meifang%Han%NULL%0,                        Shusheng%Li%NULL%0,                        Xiaoping%Luo%NULL%0,                        Jianping%Zhao%NULL%0,                        Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anying%Cheng%NULL%0,                        Liu%Hu%NULL%0,                        Yiru%Wang%NULL%0,                        Luyan%Huang%NULL%0,                        Lingxi%Zhao%NULL%0,                        Congcong%Zhang%NULL%0,                        Xiyue%Liu%NULL%0,                        Ranran%Xu%NULL%0,                        Feng%Liu%NULL%0,                        Jinping%Li%NULL%0,                        Dawei%Ye%NULL%0,                        Tao%Wang%NULL%0,                        Yongman%Lv%lvyongman@126.com%0,                        Qingquan%Liu%qqliutj@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fabio%Ciceri%ciceri.fabio@hsr.it%0,                        Antonella%Castagna%NULL%0,                        Patrizia%Rovere-Querini%NULL%0,                        Francesco%De Cobelli%NULL%0,                        Annalisa%Ruggeri%NULL%0,                        Laura%Galli%NULL%0,                        Caterina%Conte%NULL%0,                        Rebecca%De Lorenzo%NULL%0,                        Andrea%Poli%NULL%0,                        Alberto%Ambrosio%NULL%0,                        Carlo%Signorelli%NULL%0,                        Eleonora%Bossi%NULL%0,                        Maria%Fazio%NULL%0,                        Cristina%Tresoldi%NULL%0,                        Sergio%Colombo%NULL%0,                        Giacomo%Monti%NULL%0,                        Efgeny%Fominskiy%NULL%0,                        Stefano%Franchini%NULL%0,                        Marzia%Spessot%NULL%0,                        Carlo%Martinenghi%NULL%0,                        Michele%Carlucci%NULL%0,                        Luigi%Beretta%NULL%0,                        Anna Maria%Scandroglio%NULL%0,                        Massimo%Clementi%NULL%0,                        Massimo%Locatelli%NULL%0,                        Moreno%Tresoldi%NULL%0,                        Paolo%Scarpellini%NULL%0,                        Gianvito%Martino%NULL%0,                        Emanuele%Bosi%NULL%0,                        Lorenzo%Dagna%NULL%0,                        Adriano%Lazzarin%NULL%0,                        Giovanni%Landoni%NULL%0,                        Alberto%Zangrillo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,                        Wei%Liu%NULL%0,                        Kui%Liu%NULL%0,                        Yuan-Yuan%Fang%NULL%0,                        Jin%Shang%NULL%0,                        Ling%Zhou%NULL%0,                        Ke%Wang%NULL%0,                        Fan%Leng%NULL%0,                        Shuang%Wei%NULL%0,                        Lei%Chen%NULL%0,                        Hui-Guo%Liu%NULL%0,                        Pei-Fang%Wei%NULL%0,                        Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                        Li-Rong%Liang%NULL%0,                        Cheng-Qing%Yang%NULL%0,                        Wen%Wang%NULL%0,                        Tan-Ze%Cao%NULL%0,                        Ming%Li%NULL%0,                        Guang-Yun%Guo%NULL%0,                        Juan%Du%NULL%0,                        Chun-Lan%Zheng%NULL%0,                        Qi%Zhu%NULL%0,                        Ming%Hu%NULL%0,                        Xu-Yan%Li%NULL%0,                        Peng%Peng%NULL%0,                        Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shan%Gao%NULL%0,                        Fang%Jiang%NULL%0,                        Wei%Jin%NULL%0,                        Yuan%Shi%NULL%0,                        Leilei%Yang%NULL%0,                        Yanqiong%Xia%NULL%0,                        Linyan%Jia%NULL%0,                        Bo%Wang%NULL%0,                        Han%Lin%NULL%0,                        Yin%Cai%NULL%0,                        Zhengyuan%Xia%NULL%0,                        Jian%Peng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pedro David%Wendel Garcia%pedrodavid.wendelgarcia@usz.ch%0,                        Thierry%Fumeaux%thierry.fumeaux@ghol.ch%0,                        Philippe%Guerci%NULL%0,                        Dorothea Monika%Heuberger%dorotheamonika.heuberger@usz.ch%0,                        Jonathan%Montomoli%NULL%0,                        Ferran%Roche-Campo%NULL%0,                        Reto Andreas%Schuepbach%reto.schuepbach@usz.ch%0,                        Matthias Peter%Hilty%matthias.hilty@usz.ch%0,                        Mario%Alfaro Farias%NULL%0,                        Antoni%Margarit%NULL%0,                        Gerardo%Vizmanos-Lamotte%NULL%0,                        Thomas%Tschoellitsch%NULL%0,                        Jens%Meier%NULL%0,                        Francesco S.%Cardona%NULL%0,                        Josef%Skola%NULL%0,                        Lenka%Horakova%NULL%0,                        Hernan%Aguirre-Bermeo%NULL%0,                        Janina%Apolo%NULL%0,                        Emmanuel%Novy%NULL%0,                        Marie-Reine%Losser%NULL%0,                        Geoffrey%Jurkolow%NULL%0,                        Gauthier%Delahaye%NULL%0,                        Sascha%David%NULL%0,                        Tobias%Welte%NULL%0,                        Tobias%Wengenmayer%NULL%0,                        Dawid L.%Staudacher%NULL%0,                        Theodoros%Aslanidis%NULL%0,                        Barna%Babik%NULL%0,                        Anita%Korsos%NULL%0,                        Janos%Gal%NULL%0,                        Hermann%Csaba%NULL%0,                        Abele%Donati%NULL%0,                        Andrea%Carsetti%NULL%0,                        Fabrizio%Turrini%NULL%0,                        Maria Sole%Simonini%NULL%0,                        Roberto%Ceriani%NULL%0,                        Martina%Murrone%NULL%0,                        Emanuele%Rezoagli%NULL%0,                        Giovanni%Vitale%NULL%0,                        Alberto%Fogagnolo%NULL%0,                        Savino%Spadaro%NULL%0,                        Maddalena Alessandra%Wu%NULL%0,                        Chiara%Cogliati%NULL%0,                        Riccardo%Colombo%NULL%0,                        Emanuele%Catena%NULL%0,                        Francesca%Facondini%NULL%0,                        Antonella%Potalivo%NULL%0,                        Gianfilippo%Gangitano%NULL%0,                        Tiziana%Perin%NULL%0,                        Maria Grazia%Bocci%NULL%0,                        Massimo%Antonelli%NULL%0,                        Diederik%Gommers%NULL%0,                        Can%Ince%NULL%0,                        Eric%Mayor-Vázquez%NULL%0,                        Maria%Cruz%NULL%0,                        Martin%Delgado%NULL%0,                        Raquel Rodriguez%Garcia%NULL%0,                        Jorge%Gamez Zapata%NULL%0,                        Begoña%Zalba-Etayo%NULL%0,                        Herminia%Lozano-Gomez%NULL%0,                        Pedro%Castro%NULL%0,                        Adrian%Tellez%NULL%0,                        Adriana%Jacas%NULL%0,                        Guido%Muñoz%NULL%0,                        Rut%Andrea%NULL%0,                        Jose%Ortiz%NULL%0,                        Eduard%Quintana%NULL%0,                        Irene%Rovira%NULL%0,                        Enric%Reverter%NULL%0,                        Javier%Fernandez%NULL%0,                        Miquel%Ferrer%NULL%0,                        Joan R.%Badia%NULL%0,                        Arantxa%Lander Azcona%NULL%0,                        Jesus Escos%Orta%NULL%0,                        Philipp%Bühler%NULL%0,                        Silvio%Brugger%NULL%0,                        Daniel%Hofmaenner%NULL%0,                        Simone%Unseld%NULL%0,                        Frank%Ruschitzka%NULL%0,                        Mallory%Moret-Bochatay%NULL%0,                        Bernd%Yuen%NULL%0,                        Thomas%Hillermann%NULL%0,                        Hatem%Ksouri%NULL%0,                        Govind Oliver%Sridharan%NULL%0,                        Anette%Ristic%NULL%0,                        Michael%Sepulcri%NULL%0,                        Miodrag%Filipovic%NULL%0,                        Urs%Pietsch%NULL%0,                        Petra%Salomon%NULL%0,                        Iris%Drvaric%NULL%0,                        Peter%Schott%NULL%0,                        Severin%Urech%NULL%0,                        Adriana%Lambert%NULL%0,                        Lukas%Merki%NULL%0,                        Marcus%Laube%NULL%0,                        Frank%Hillgaertner%NULL%0,                        Marianne%Sieber%NULL%0,                        Alexander%Dullenkopf%NULL%0,                        Lina%Petersen%NULL%0,                        Serge%Grazioli%NULL%0,                        Peter C.%Rimensberger%NULL%0,                        Isabelle%Fleisch%NULL%0,                        Jerome%Lavanchy%NULL%0,                        Katharina%Marquardt%NULL%0,                        Karim%Shaikh%NULL%0,                        Hermann%Redecker%NULL%0,                        Michael%Stephan%NULL%0,                        Jan%Brem%NULL%0,                        Bjarte%Rogdo%NULL%0,                        Andre%Birkenmaier%NULL%0,                        Friederike%Meyer zu Bentrup%NULL%0,                        Patricia%Fodor%NULL%0,                        Pascal%Locher%NULL%0,                        Giovanni%Camen%NULL%0,                        Martin%Siegemund%NULL%0,                        Nuria%Zellweger%NULL%0,                        Marie-Madlen%Jeitziner%NULL%0,                        Beatrice%Jenni-Moser%NULL%0,                        Christian%Bürkle%NULL%0,                        Gian-Reto%Kleger%NULL%0,                        Marilene%Franchitti Laurent%NULL%0,                        Jean-Christophe%Laurent%NULL%0,                        Tomislav%Gaspert%NULL%0,                        Marija%Jovic%NULL%0,                        Michael%Studhalter%NULL%0,                        Christoph%Haberthuer%NULL%0,                        Roger F.%Lussman%NULL%0,                        Daniela%Selz%NULL%0,                        Didier%Naon%NULL%0,                        Romano%Mauri%NULL%0,                        Samuele%Ceruti%NULL%0,                        Julien%Marrel%NULL%0,                        Mirko%Brenni%NULL%0,                        Rolf%Ensner%NULL%0,                        Nadine%Gehring%NULL%0,                        Antje%Heise%NULL%0,                        Tobias%Huebner%NULL%0,                        Thomas A.%Neff%NULL%0,                        Sara%Cereghetti%NULL%0,                        Filippo%Boroli%NULL%0,                        Jerome%Pugin%NULL%0,                        Nandor%Marczin%NULL%0,                        Joyce%Wong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Warren%Gavin%NULL%0,                        Elliott%Campbell%NULL%0,                        Syed-Adeel%Zaidi%NULL%0,                        Neha%Gavin%NULL%0,                        Lana%Dbeibo%NULL%0,                        Cole%Beeler%NULL%0,                        Kari%Kuebler%NULL%0,                        Ahmed%Abdel-Rahman%NULL%0,                        Mark%Luetkemeyer%NULL%0,                        Areeba%Kara%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Vijay%Gayam%vgayam@interfaithmedical.com%0,                        Muchi Ditah%Chobufo%NULL%0,                        Muchi Ditah%Chobufo%NULL%0,                        Mohamed A.%Merghani%NULL%0,                        Mohamed A.%Merghani%NULL%0,                        Shristi%Lamichhane%NULL%0,                        Pavani Reddy%Garlapati%NULL%0,                        Mark K.%Adler%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Cao%Y%coreGivesNoEmail%0,                       Imam%Z%coreGivesNoEmail%0,                       Lippi%G%coreGivesNoEmail%0,                       Oran%DP%coreGivesNoEmail%0,                       Shi%S%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Hai%Hu%huhai@wchscu.cn%0,                        Ni%Yao%NULL%0,                        Ni%Yao%NULL%0,                        Yanru%Qiu%NULL%0,                        John H.%Burton%NULL%0,                        John H.%Burton%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jiaofeng%Huang%NULL%0,                        Aiguo%Cheng%NULL%0,                        Rahul%Kumar%NULL%0,                        Yingying%Fang%NULL%0,                        Yingying%Fang%NULL%0,                        Gongping%Chen%NULL%0,                        Yueyong%Zhu%NULL%0,                        Su%Lin%sumer5129@fjmu.edu.cn%0,                        Su%Lin%sumer5129@fjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%0,                        Ju-Hyun%Kim%NULL%0,                        Jin-Sung%Park%NULL%0,                        Min Cheol%Chang%wheel633@ynu.ac.kr%0,                        Donghwi%Park%bdome@hanmail.net%0]</t>
+  </si>
+  <si>
+    <t>[K.%Khalil%NULL%0,                        K.%Agbontaen%NULL%0,                        D.%McNally%NULL%0,                        A.%Love%NULL%0,                        S.%Mandalia%NULL%0,                        W.%Banya%NULL%0,                        E.%Starren%NULL%0,                        R.%Dhunnookchand%NULL%0,                        H.%Farne%NULL%0,                        R.%Morton%NULL%0,                        G.%Davies%NULL%0,                        O.%Orhan%NULL%0,                        D%Lai%NULL%0,                        M.%Nelson%NULL%0,                        P.L.%Shah%NULL%0,                        J.L.%Garner%Justin.garner@chelwest.nhs.uk%0]</t>
+  </si>
+  <si>
+    <t>[Eyal%Klang%NULL%0,                        Gassan%Kassim%NULL%0,                        Shelly%Soffer%soffer.shelly@gmail.com%0,                        Robert%Freeman%NULL%0,                        Robert%Freeman%NULL%0,                        Matthew A.%Levin%NULL%0,                        Matthew A.%Levin%NULL%0,                        David L.%Reich%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sandeep%Krishnan%NULL%0,                        Kinjal%Patel%NULL%0,                        Ronak%Desai%NULL%0,                        Anupam%Sule%NULL%0,                        Peter%Paik%NULL%0,                        Ashley%Miller%NULL%0,                        Alicia%Barclay%NULL%0,                        Adam%Cassella%NULL%0,                        Jon%Lucaj%NULL%0,                        Yvonne%Royster%NULL%0,                        Joffer%Hakim%NULL%0,                        Zulfiqar%Ahmed%NULL%0,                        Farhad%Ghoddoussi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Manisha%Bhutani%null%0,              David M.%Foureau%null%0,              Shebli%Atrash%null%0,              Peter M.%Voorhees%null%0,              Saad Z.%Usmani%null%0]</t>
+  </si>
+  <si>
+    <t>[Wil%Lieberman-Cribbin%NULL%0,                        Joseph%Rapp%NULL%0,                        Naomi%Alpert%NULL%0,                        Stephanie%Tuminello%NULL%0,                        Emanuela%Taioli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Q.%Liu%NULL%0,                        N. C.%Song%NULL%0,                        Z. K.%Zheng%NULL%0,                        J. S.%Li%NULL%0,                        S. K.%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Long%NULL%0,                        Lan%Nie%NULL%0,                        Xiaochen%Xiang%NULL%0,                        Huan%Li%NULL%0,                        Xiaoli%Zhang%NULL%0,                        Xiaozhi%Fu%NULL%0,                        Hongwei%Ren%NULL%0,                        Wanxin%Liu%NULL%0,                        Qiang%Wang%wangqiang@wust.edu.cn%0,                        Qingming%Wu%wuhe9224@sina.com%0,                        Qingming%Wu%wuhe9224@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaomin%Luo%luoxiaomin04@163.com%0,                        Wei%Zhou%NULL%0,                        Xiaojie%Yan%NULL%0,                        Tangxi%Guo%NULL%0,                        Benchao%Wang%NULL%0,                        Hongxia%Xia%NULL%0,                        Lu%Ye%NULL%0,                        Jun%Xiong%NULL%0,                        Zongping%Jiang%NULL%0,                        Yu%Liu%NULL%0,                        Bicheng%Zhang%NULL%0,                        Weize%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ying%Luo%NULL%0,                        Liyan%Mao%NULL%0,                        Xu%Yuan%NULL%0,                        Ying%Xue%NULL%0,                        Qun%Lin%NULL%0,                        Guoxing%Tang%NULL%0,                        Huijuan%Song%NULL%0,                        Feng%Wang%fengwang@tjh.tjmu.edu.cn%0,                        Ziyong%Sun%zysun@tjh.tjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ying%Luo%NULL%0,                        Ying%Xue%NULL%0,                        Liyan%Mao%NULL%0,                        Xu%Yuan%NULL%0,                        Qun%Lin%NULL%0,                        Guoxing%Tang%NULL%0,                        Huijuan%Song%NULL%0,                        Feng%Wang%NULL%0,                        Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chiara%Masetti%NULL%0,                        Elena%Generali%NULL%0,                        Francesca%Colapietro%NULL%0,                        Antonio%Voza%NULL%0,                        Maurizio%Cecconi%NULL%0,                        Antonio%Messina%NULL%0,                        Paolo%Omodei%NULL%0,                        Claudio%Angelini%NULL%0,                        Michele%Ciccarelli%NULL%0,                        Salvatore%Badalamenti%NULL%0,                        G. Walter%Canonica%NULL%0,                        Ana%Lleo%ana.lleo@humanitas.it%0,                        Alessio%Aghemo%NULL%0,                        Alessio%Aghemo%NULL%0,                        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Takahisa%Mikami%NULL%0,                        Hirotaka%Miyashita%NULL%0,                        Takayuki%Yamada%NULL%0,                        Matthew%Harrington%NULL%0,                        Daniel%Steinberg%NULL%0,                        Andrew%Dunn%NULL%0,                        Evan%Siau%Evan.Siau@mountsinai.org%0]</t>
+  </si>
+  <si>
+    <t>[Alexis K.%Okoh%alexis.okoh@rwjbh.org%0,                        Christoph%Sossou%NULL%0,                        Christoph%Sossou%NULL%0,                        Neha S.%Dangayach%NULL%0,                        Sherin%Meledathu%NULL%0,                        Oluwakemi%Phillips%NULL%0,                        Corinne%Raczek%NULL%0,                        Michael%Patti%NULL%0,                        Nathan%Kang%NULL%0,                        Sameer A.%Hirji%NULL%0,                        Charles%Cathcart%NULL%0,                        Christian%Engell%NULL%0,                        Marc%Cohen%NULL%0,                        Sandhya%Nagarakanti%NULL%0,                        Eliahu%Bishburg%NULL%0,                        Harpreet S.%Grewal%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%0,                         Lian%Yang%NULL%0,                         Yuncheng%Li%NULL%0,                         Bo%Liang%NULL%0,                         Lin%Li%NULL%0,                         Tianhe%Ye%NULL%0,                         Lingli%Li%NULL%0,                         Dehan%Liu%NULL%0,                         Shan%Gui%NULL%0,                         Yu%Hu%NULL%0,                         Chuansheng%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                        Becker%L.B.%coreGivesNoEmail%0,                        Chelico%J.D.%coreGivesNoEmail%0,                        Cohen%S.L.%coreGivesNoEmail%0,                        Cookingham%J.%coreGivesNoEmail%0,                        Coppa%K.%coreGivesNoEmail%0,                        Crawford%J.M.%coreGivesNoEmail%0,                        Davidson%K.W.%coreGivesNoEmail%0,                        Diefenbach%M.A.%coreGivesNoEmail%0,                        Dominello%A.J.%coreGivesNoEmail%0,                        Duer-Hefele%J.%coreGivesNoEmail%0,                        Falzon%L.%coreGivesNoEmail%0,                        Gitlin%J.%coreGivesNoEmail%0,                        Hajizadeh%N.%coreGivesNoEmail%0,                        Harvin%T.G.%coreGivesNoEmail%0,                        Hirsch%J.S.%coreGivesNoEmail%0,                        Hirschwerk%D.A.%coreGivesNoEmail%0,                        Kim%E.J.%coreGivesNoEmail%0,                        Kozel%Z.M.%coreGivesNoEmail%0,                        Marrast%L.M.%coreGivesNoEmail%0,                        McGinn%T.%coreGivesNoEmail%0,                        Mogavero%J.N.%coreGivesNoEmail%0,                        Narasimhan%M.%coreGivesNoEmail%0,                        Osorio%G.A.%coreGivesNoEmail%0,                        Qiu%M.%coreGivesNoEmail%0,                        Richardson%S.%coreGivesNoEmail%0,                        Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Mario%Rivera-Izquierdo%NULL%0,                         María%del Carmen Valero-Ubierna%NULL%0,                         María%del Carmen Valero-Ubierna%NULL%0,                         Juan Luis%R-delAmo%NULL%0,                         Miguel Ángel%Fernández-García%NULL%0,                         Silvia%Martínez-Diz%NULL%0,                         Arezu%Tahery-Mahmoud%NULL%0,                         Marta%Rodríguez-Camacho%NULL%0,                         Ana Belén%Gámiz-Molina%NULL%0,                         Nicolás%Barba-Gyengo%NULL%0,                         Pablo%Gámez-Baeza%NULL%0,                         Celia%Cabrero-Rodríguez%NULL%0,                         Pedro Antonio%Guirado-Ruiz%NULL%0,                         Divina Tatiana%Martín-Romero%NULL%0,                         Antonio Jesús%Láinez-Ramos-Bossini%NULL%0,                         María Rosa%Sánchez-Pérez%NULL%0,                         José%Mancera-Romero%NULL%0,                         Miguel%García-Martín%NULL%0,                         Luis Miguel%Martín-delosReyes%NULL%0,                         Virginia%Martínez-Ruiz%NULL%0,                         Virginia%Martínez-Ruiz%NULL%0,                         Pablo%Lardelli-Claret%NULL%0,                         Eladio%Jiménez-Mejías%NULL%0,                         Muhammad%Adrish%NULL%0,                         Muhammad%Adrish%NULL%0,                         NULL%NULL%NULL%0,                         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,                         Kun%Yang%NULL%0,                         Kun%Yang%NULL%0,                         Wenxia%Wang%NULL%0,                         Wenxia%Wang%NULL%0,                         Lingyu%Jiang%NULL%0,                         Lingyu%Jiang%NULL%0,                         Jianxin%Song%songsingsjx@sina.com%0,                         Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Grace%Salacup%salacupg@einstein.edu%0,                         Kevin Bryan%Lo%NULL%0,                         Kevin Bryan%Lo%NULL%0,                         Fahad%Gul%NULL%0,                         Eric%Peterson%NULL%0,                         Robert%De Joy%NULL%0,                         Ruchika%Bhargav%NULL%0,                         Jerald%Pelayo%NULL%0,                         Jeri%Albano%NULL%0,                         Zurab%Azmaiparashvili%NULL%0,                         Sadia%Benzaquen%NULL%0,                         Gabriel%Patarroyo‐Aponte%NULL%0,                         Janani%Rangaswami%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Priyank%Shah%xref no email%0,    Jack%Owens%xref no email%0,    James%Franklin%xref no email%0,    Akshat%Mehta%xref no email%0,    William%Heymann%xref no email%0,    William%Sewell%xref no email%0,    Jennifer%Hill%xref no email%0,    Krista%Barfield%xref no email%0,    Rajkumar%Doshi%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Yufeng%Shang%NULL%0,                         Tao%Liu%NULL%0,                         Yongchang%Wei%NULL%0,                         Jingfeng%Li%NULL%0,                         Liang%Shao%NULL%0,                         Minghui%Liu%NULL%0,                         Yongxi%Zhang%NULL%0,                         Zhigang%Zhao%NULL%0,                         Haibo%Xu%NULL%0,                         Zhiyong%Peng%NULL%0,                         Fuling%Zhou%zhoufuling@whu.edu.cn%0,                         Xinghuan%Wang%wangxinghuan@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,                         Mu%Qin%qinmuae@163.com%0,                         Yuli%Cai%NULL%0,                         Tao%Liu%NULL%0,                         Bo%Shen%NULL%0,                         Fan%Yang%NULL%0,                         Sheng%Cao%NULL%0,                         Xu%Liu%NULL%0,                         Xu%Liu%NULL%0,                         Yaozu%Xiang%NULL%0,                         Qinyan%Zhao%NULL%0,                         He%Huang%huanghe1977@whu.edu.cn%0,                         Bo%Yang%yybb112@whu.edu.cn%0,                         Congxin%Huang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rita de Cássia Menezes%Soares%NULL%0,                         Larissa Rodrigues%Mattos%NULL%0,                         Letícia Martins%Raposo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,                         Ruoqi%Ning%NULL%0,                         Yu%Tao%NULL%0,                         Chong%Yu%NULL%0,                         Xiaoyan%Deng%NULL%0,                         Caili%Zhao%NULL%0,                         Silu%Meng%NULL%0,                         Fangxu%Tang%89650793@qq.com%0,                         Dong%Xu%89650793@qq.com%0,                         Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Kun%Wang%NULL%0,                         Peiyuan%Zuo%NULL%0,                         Yuwei%Liu%NULL%0,                         Meng%Zhang%NULL%0,                         Xiaofang%Zhao%NULL%0,                         Songpu%Xie%NULL%0,                         Hao%Zhang%NULL%0,                         Xinglin%Chen%NULL%0,                         Chengyun%Liu%chengyunliu@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Bo%XU%NULL%0,                         Cun-yu%FAN%NULL%0,                         An-lu%WANG%NULL%0,                         Yi-long%ZOU%NULL%0,                         Yi-han%YU%NULL%0,                         Cong%HE%NULL%0,                         Wen-guang%XIA%NULL%0,                         Ji-xian%ZHANG%NULL%0,                         Qing%MIAO%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xisheng%Yan%NULL%0,                         Fen%Li%NULL%0,                         Xiao%Wang%NULL%0,                         Jie%Yan%NULL%0,                         Fen%Zhu%NULL%0,                         Shifan%Tang%NULL%0,                         Yingzhong%Deng%NULL%0,                         Hua%Wang%NULL%0,                         Rui%Chen%NULL%0,                         Zhili%Yu%NULL%0,                         Yaping%Li%NULL%0,                         Jingzhou%Shang%NULL%0,                         Lingjun%Zeng%NULL%0,                         Jie%Zhao%NULL%0,                         Chaokun%Guan%NULL%0,                         Qiaomei%Liu%NULL%0,                         Haifeng%Chen%NULL%0,                         Wei%Gong%NULL%0,                         Xin%Huang%NULL%0,                         Yu‐Jiao%Zhang%NULL%0,                         Jianguang%Liu%NULL%0,                         Xiaoyan%Dong%NULL%0,                         Wen%Zheng%zhengwen12@mails.jlu.edu.cn%0,                         Shaoping%Nie%spnie@126.com%0,                         Dongsheng%Li%dongshengli196809@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qing%Yang%NULL%0,                         Ying%Zhou%NULL%0,                         Xinrong%Wang%NULL%0,                         Shan%Gao%NULL%0,                         Yang%Xiao%NULL%0,                         Weiming%Zhang%NULL%0,                         Yi%Hu%huyizxyy@163.com%0,                         Yafei%Wang%wyf_527@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                         Qingyu%Yang%NULL%0,                         Yaxin%Wang%NULL%0,                         Yongran%Wu%NULL%0,                         Jiqian%Xu%NULL%0,                         Yuan%Yu%NULL%0,                         You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wenjing%Ye%yewenjing@xinhuamed.com.cn%0,                         Guoxi%Chen%4799082@qq.com%0,                         Xiaopan%Li%xiaopanli0224@126.com%0,                         Xing%Lan%474137452@qq.com%0,                         Chen%Ji%c.ji.3@warwick.ac.uk%0,                         Min%Hou%min-hou710@hotmail.com%0,                         Di%Zhang%zhangdizhangdi1234@163.com%0,                         Guangwang%Zeng%785663609@qq.com%0,                         Yaling%Wang%953822402@qq.com%0,                         Cheng%Xu%xucheng112358@126.com%0,                         Weiwei%Lu%luweiwei100@126.com%0,                         Ruolin%Cui%crlqwerty@163.com%0,                         Yuyang%Cai%caiyuyang@sjtu.edu.cn%0,                         Hai%Huang%1220775601@qq.com%0,                         Ling%Yang%yangling01@xinhuamed.com.cn%0]</t>
+  </si>
+  <si>
+    <t>[Caizheng%Yu%NULL%0,                         Qing%Lei%NULL%0,                         Wenkai%Li%NULL%0,                         Xiong%Wang%NULL%0,                         Wei%Liu%NULL%0,                         Xionglin%Fan%NULL%0,                         Wengang%Li%228907211@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                         Ting%Yu%NULL%0,                         Ronghui%Du%NULL%0,                         Guohui%Fan%NULL%0,                         Ying%Liu%NULL%0,                         Zhibo%Liu%NULL%0,                         Jie%Xiang%NULL%0,                         Yeming%Wang%NULL%0,                         Bin%Song%NULL%0,                         Xiaoying%Gu%NULL%0,                         Lulu%Guan%NULL%0,                         Yuan%Wei%NULL%0,                         Hui%Li%NULL%0,                         Xudong%Wu%NULL%0,                         Jiuyang%Xu%NULL%0,                         Shengjin%Tu%NULL%0,                         Yi%Zhang%NULL%0,                         Hua%Chen%NULL%0,                         Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Moran%Amit%NULL%0,                         Alex%Sorkin%NULL%0,                         Jacob%Chen%NULL%0,                         Barak%Cohen%NULL%0,                         Barak%Cohen%NULL%0,                         Dana%Karol%NULL%0,                         Dana%Karol%NULL%0,                         Avishai M%Tsur%NULL%0,                         Shaul%Lev%NULL%0,                         Shaul%Lev%NULL%0,                         Tal%Rozenblat%NULL%0,                         Ayana%Dvir%NULL%0,                         Ayana%Dvir%NULL%0,                         Geva%Landau%NULL%0,                         Lidar%Fridrich%NULL%0,                         Lidar%Fridrich%NULL%0,                         Elon%Glassberg%NULL%0,                         Shani%Kesari%NULL%0,                         Sigal%Sviri%NULL%0,                         Ram%Gelman%NULL%0,                         Asaf%Miller%NULL%0,                         Danny%Epstein%NULL%0,                         Ronny%Ben-Avi%NULL%0,                         Ronny%Ben-Avi%NULL%0,                         Moshe%Matan%NULL%0,                         Daniel J.%Jakobson%NULL%0,                         Daniel J.%Jakobson%NULL%0,                         Tarif%Bader%NULL%0,                         Tarif%Bader%NULL%0,                         David%Dahan%NULL%0,                         David%Dahan%NULL%0,                         Daniel A.%King%NULL%0,                         Anat%Ben-Ari%NULL%0,                         Arie%Soroksky%NULL%0,                         Alon%Bar%NULL%0,                         Alon%Bar%NULL%0,                         Noam%Fink%NULL%0,                         Pierre%Singer%NULL%0,                         Avi%Benov%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,                         John R%Adler%NULL%0,                         Muhammad Sohaib%Asghar%NULL%0,                         Muhammad Sohaib%Asghar%NULL%0,                         Syed Jawad%Haider Kazmi%NULL%0,                         Noman%Ahmed Khan%NULL%0,                         Mohammed%Akram%NULL%0,                         Salman%Ahmed Khan%NULL%0,                         Uzma%Rasheed%NULL%0,                         Maira%Hassan%NULL%0,                         Gul Muhammad%Memon%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pedro%Baqui%NULL%0,                         Ioana%Bica%NULL%0,                         Valerio%Marra%marra@cosmo-ufes.org%0,                         Ari%Ercole%NULL%0,                         Mihaela%van der Schaar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anesi%Adriano%coreGivesNoEmail%0,                        Bettinardi%Alessandra%coreGivesNoEmail%0,                        Bonetti%Graziella%coreGivesNoEmail%0,                        Borrelli%Gianluca%coreGivesNoEmail%0,                        Fiordalisi%Gianfranco%coreGivesNoEmail%0,                        Lippi%Giuseppe%coreGivesNoEmail%0,                        Manelli%Filippo%coreGivesNoEmail%0,                        Marino%Antonio%coreGivesNoEmail%0,                        Menolfi%Annamaria%coreGivesNoEmail%0,                        Patroni%Andrea%coreGivesNoEmail%0,                        Saggini%Sara%coreGivesNoEmail%0,                        Volpi%Roberta%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Andrea%Borghesi%NULL%0,                         Angelo%Zigliani%NULL%0,                         Salvatore%Golemi%NULL%0,                         Nicola%Carapella%NULL%0,                         Patrizia%Maculotti%NULL%0,                         Davide%Farina%NULL%0,                         Roberto%Maroldi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alberto M.%Borobia%NULL%0,                         Antonio J.%Carcas%NULL%0,                         Antonio J.%Carcas%NULL%0,                         Francisco%Arnalich%NULL%0,                         Rodolfo%Álvarez-Sala%NULL%0,                         Rodolfo%Álvarez-Sala%NULL%0,                         Jaime%Monserrat-Villatoro%NULL%0,                         Manuel%Quintana%NULL%0,                         Juan Carlos%Figueira%NULL%0,                         Rosario M.%Torres Santos-Olmo%NULL%0,                         Julio%García-Rodríguez%NULL%0,                         Julio%García-Rodríguez%NULL%0,                         Alberto%Martín-Vega%NULL%0,                         Antonio%Buño%NULL%0,                         Elena%Ramírez%NULL%0,                         Gonzalo%Martínez-Alés%NULL%0,                         Gonzalo%Martínez-Alés%NULL%0,                         Nicolás%García-Arenzana%NULL%0,                         M. Concepción%Núñez%NULL%0,                         M. Concepción%Núñez%NULL%0,                         Milagros%Martí-de-Gracia%NULL%0,                         Francisco%Moreno Ramos%NULL%0,                         Francisco%Reinoso-Barbero%NULL%0,                         Alejandro%Martin-Quiros%NULL%0,                         Angélica%Rivera Núñez%NULL%0,                         Jesús%Mingorance%NULL%0,                         Carlos J.%Carpio Segura%NULL%0,                         Carlos J.%Carpio Segura%NULL%0,                         Daniel%Prieto Arribas%NULL%0,                         Esther%Rey Cuevas%NULL%0,                         Concepción%Prados Sánchez%NULL%0,                         Juan J.%Rios%NULL%0,                         Miguel A.%Hernán%NULL%0,                         Jesús%Frías%NULL%0,                         José R.%Arribas%NULL%0,                         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simon E.%Brill%simon.brill@nhs.net%0,                         Hannah C.%Jarvis%NULL%0,                         Hannah C.%Jarvis%NULL%0,                         Ezgi%Ozcan%NULL%0,                         Thomas L. P.%Burns%NULL%0,                         Rabia A.%Warraich%NULL%0,                         Lisa J.%Amani%NULL%0,                         Amina%Jaffer%NULL%0,                         Stephanie%Paget%NULL%0,                         Anand%Sivaramakrishnan%NULL%0,                         Dean D.%Creer%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                         Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                         Wenlin%Cheng%NULL%0,                         Lei%Yu%NULL%0,                         Ya-Kun%Liu%NULL%0,                         Xiaoyong%Hu%NULL%0,                         Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[B.%Carter%NULL%0,                         J.T.%Collins%NULL%0,                         F.%Barlow-Pay%NULL%0,                         F.%Rickard%NULL%0,                         E.%Bruce%NULL%0,                         A.%Verduri%NULL%0,                         T.J.%Quinn%NULL%0,                         E.%Mitchell%NULL%0,                         A.%Price%NULL%0,                         A.%Vilches-Moraga%NULL%0,                         M.J.%Stechman%NULL%0,                         R.%Short%NULL%0,                         A.%Einarsson%NULL%0,                         P.%Braude%NULL%0,                         S.%Moug%NULL%0,                         P.K.%Myint%NULL%0,                         J.%Hewitt%NULL%0,                         L.%Pearce%NULL%0,                         K.%McCarthy%NULL%0,                         C.%Davey%NULL%0,                         S.%Jones%NULL%0,                         K.%Lunstone%NULL%0,                         A.%Cavenagh%NULL%0,                         C.%Silver%NULL%0,                         T.%Telford%NULL%0,                         R.%Simmons%NULL%0,                         M.%Holloway%NULL%0,                         J.%Hesford%NULL%0,                         T.%El Jichi Mutasem%NULL%0,                         S.%Singh%NULL%0,                         D.%Paxton%NULL%0,                         W.%Harris%NULL%0,                         N.%Galbraith%NULL%0,                         E.%Bhatti%NULL%0,                         J.%Edwards%NULL%0,                         S.%Duffy%NULL%0,                         J.%Kelly%NULL%0,                         C.%Murphy%NULL%0,                         C.%Bisset%NULL%0,                         R.%Alexander%NULL%0,                         M.%Garcia%NULL%0,                         S.%Sangani%NULL%0,                         T.%Kneen%NULL%0,                         T.%Lee%NULL%0,                         A.%McGovern%NULL%0,                         G.%Guaraldi%NULL%0,                         E.%Clini%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fuyang%Chen%NULL%0,                         Wenwu%Sun%NULL%0,                         Shengrong%Sun%NULL%0,                         Zhiyu%Li%lizhiyu@whu.edu.cn%0,                         Zhong%Wang%zhongwangchn@whu.edu.cn%0,                         Li%Yu%yuliwhzxyy@163.com%0,                         Li%Yu%yuliwhzxyy@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,                         Ling%Sang%NULL%0,                         Mei%Jiang%NULL%0,                         Zhaowei%Yang%NULL%0,                         Nan%Jia%NULL%0,                         Wanyi%Fu%NULL%0,                         Jiaxing%Xie%NULL%0,                         Weijie%Guan%NULL%0,                         Wenhua%Liang%NULL%0,                         Zhengyi%Ni%NULL%0,                         Yu%Hu%NULL%0,                         Lei%Liu%NULL%0,                         Hong%Shan%NULL%0,                         Chunliang%Lei%NULL%0,                         Yixiang%Peng%NULL%0,                         Li%Wei%NULL%0,                         Yong%Liu%NULL%0,                         Yahua%Hu%NULL%0,                         Peng%Peng%NULL%0,                         Jianming%Wang%NULL%0,                         Jiyang%Liu%NULL%0,                         Zhong%Chen%NULL%0,                         Gang%Li%NULL%0,                         Zhijian%Zheng%NULL%0,                         Shaoqin%Qiu%NULL%0,                         Jie%Luo%NULL%0,                         Changjiang%Ye%NULL%0,                         Shaoyong%Zhu%NULL%0,                         Jinping%Zheng%NULL%0,                         Nuofu%Zhang%NULL%0,                         Yimin%Li%NULL%0,                         Jianxing%He%NULL%0,                         Jing%Li%NULL%0,                         Shiyue%Li%NULL%0,                         Nanshan%Zhong%NULL%0,                         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                         Di%Wu%NULL%0,                         Huilong%Chen%NULL%0,                         Weiming%Yan%NULL%0,                         Danlei%Yang%NULL%0,                         Guang%Chen%NULL%0,                         Ke%Ma%NULL%0,                         Dong%Xu%NULL%0,                         Haijing%Yu%NULL%0,                         Hongwu%Wang%NULL%0,                         Tao%Wang%NULL%0,                         Wei%Guo%NULL%0,                         Jia%Chen%NULL%0,                         Chen%Ding%NULL%0,                         Xiaoping%Zhang%NULL%0,                         Jiaquan%Huang%NULL%0,                         Meifang%Han%NULL%0,                         Shusheng%Li%NULL%0,                         Xiaoping%Luo%NULL%0,                         Jianping%Zhao%NULL%0,                         Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anying%Cheng%NULL%0,                         Liu%Hu%NULL%0,                         Yiru%Wang%NULL%0,                         Luyan%Huang%NULL%0,                         Lingxi%Zhao%NULL%0,                         Congcong%Zhang%NULL%0,                         Xiyue%Liu%NULL%0,                         Ranran%Xu%NULL%0,                         Feng%Liu%NULL%0,                         Jinping%Li%NULL%0,                         Dawei%Ye%NULL%0,                         Tao%Wang%NULL%0,                         Yongman%Lv%lvyongman@126.com%0,                         Qingquan%Liu%qqliutj@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fabio%Ciceri%ciceri.fabio@hsr.it%0,                         Antonella%Castagna%NULL%0,                         Patrizia%Rovere-Querini%NULL%0,                         Francesco%De Cobelli%NULL%0,                         Annalisa%Ruggeri%NULL%0,                         Laura%Galli%NULL%0,                         Caterina%Conte%NULL%0,                         Rebecca%De Lorenzo%NULL%0,                         Andrea%Poli%NULL%0,                         Alberto%Ambrosio%NULL%0,                         Carlo%Signorelli%NULL%0,                         Eleonora%Bossi%NULL%0,                         Maria%Fazio%NULL%0,                         Cristina%Tresoldi%NULL%0,                         Sergio%Colombo%NULL%0,                         Giacomo%Monti%NULL%0,                         Efgeny%Fominskiy%NULL%0,                         Stefano%Franchini%NULL%0,                         Marzia%Spessot%NULL%0,                         Carlo%Martinenghi%NULL%0,                         Michele%Carlucci%NULL%0,                         Luigi%Beretta%NULL%0,                         Anna Maria%Scandroglio%NULL%0,                         Massimo%Clementi%NULL%0,                         Massimo%Locatelli%NULL%0,                         Moreno%Tresoldi%NULL%0,                         Paolo%Scarpellini%NULL%0,                         Gianvito%Martino%NULL%0,                         Emanuele%Bosi%NULL%0,                         Lorenzo%Dagna%NULL%0,                         Adriano%Lazzarin%NULL%0,                         Giovanni%Landoni%NULL%0,                         Alberto%Zangrillo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,                         Wei%Liu%NULL%0,                         Kui%Liu%NULL%0,                         Yuan-Yuan%Fang%NULL%0,                         Jin%Shang%NULL%0,                         Ling%Zhou%NULL%0,                         Ke%Wang%NULL%0,                         Fan%Leng%NULL%0,                         Shuang%Wei%NULL%0,                         Lei%Chen%NULL%0,                         Hui-Guo%Liu%NULL%0,                         Pei-Fang%Wei%NULL%0,                         Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                         Li-Rong%Liang%NULL%0,                         Cheng-Qing%Yang%NULL%0,                         Wen%Wang%NULL%0,                         Tan-Ze%Cao%NULL%0,                         Ming%Li%NULL%0,                         Guang-Yun%Guo%NULL%0,                         Juan%Du%NULL%0,                         Chun-Lan%Zheng%NULL%0,                         Qi%Zhu%NULL%0,                         Ming%Hu%NULL%0,                         Xu-Yan%Li%NULL%0,                         Peng%Peng%NULL%0,                         Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shan%Gao%NULL%0,                         Fang%Jiang%NULL%0,                         Wei%Jin%NULL%0,                         Yuan%Shi%NULL%0,                         Leilei%Yang%NULL%0,                         Yanqiong%Xia%NULL%0,                         Linyan%Jia%NULL%0,                         Bo%Wang%NULL%0,                         Han%Lin%NULL%0,                         Yin%Cai%NULL%0,                         Zhengyuan%Xia%NULL%0,                         Jian%Peng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pedro David%Wendel Garcia%pedrodavid.wendelgarcia@usz.ch%0,                         Thierry%Fumeaux%thierry.fumeaux@ghol.ch%0,                         Philippe%Guerci%NULL%0,                         Dorothea Monika%Heuberger%dorotheamonika.heuberger@usz.ch%0,                         Jonathan%Montomoli%NULL%0,                         Ferran%Roche-Campo%NULL%0,                         Reto Andreas%Schuepbach%reto.schuepbach@usz.ch%0,                         Matthias Peter%Hilty%matthias.hilty@usz.ch%0,                         Mario%Alfaro Farias%NULL%0,                         Antoni%Margarit%NULL%0,                         Gerardo%Vizmanos-Lamotte%NULL%0,                         Thomas%Tschoellitsch%NULL%0,                         Jens%Meier%NULL%0,                         Francesco S.%Cardona%NULL%0,                         Josef%Skola%NULL%0,                         Lenka%Horakova%NULL%0,                         Hernan%Aguirre-Bermeo%NULL%0,                         Janina%Apolo%NULL%0,                         Emmanuel%Novy%NULL%0,                         Marie-Reine%Losser%NULL%0,                         Geoffrey%Jurkolow%NULL%0,                         Gauthier%Delahaye%NULL%0,                         Sascha%David%NULL%0,                         Tobias%Welte%NULL%0,                         Tobias%Wengenmayer%NULL%0,                         Dawid L.%Staudacher%NULL%0,                         Theodoros%Aslanidis%NULL%0,                         Barna%Babik%NULL%0,                         Anita%Korsos%NULL%0,                         Janos%Gal%NULL%0,                         Hermann%Csaba%NULL%0,                         Abele%Donati%NULL%0,                         Andrea%Carsetti%NULL%0,                         Fabrizio%Turrini%NULL%0,                         Maria Sole%Simonini%NULL%0,                         Roberto%Ceriani%NULL%0,                         Martina%Murrone%NULL%0,                         Emanuele%Rezoagli%NULL%0,                         Giovanni%Vitale%NULL%0,                         Alberto%Fogagnolo%NULL%0,                         Savino%Spadaro%NULL%0,                         Maddalena Alessandra%Wu%NULL%0,                         Chiara%Cogliati%NULL%0,                         Riccardo%Colombo%NULL%0,                         Emanuele%Catena%NULL%0,                         Francesca%Facondini%NULL%0,                         Antonella%Potalivo%NULL%0,                         Gianfilippo%Gangitano%NULL%0,                         Tiziana%Perin%NULL%0,                         Maria Grazia%Bocci%NULL%0,                         Massimo%Antonelli%NULL%0,                         Diederik%Gommers%NULL%0,                         Can%Ince%NULL%0,                         Eric%Mayor-Vázquez%NULL%0,                         Maria%Cruz%NULL%0,                         Martin%Delgado%NULL%0,                         Raquel Rodriguez%Garcia%NULL%0,                         Jorge%Gamez Zapata%NULL%0,                         Begoña%Zalba-Etayo%NULL%0,                         Herminia%Lozano-Gomez%NULL%0,                         Pedro%Castro%NULL%0,                         Adrian%Tellez%NULL%0,                         Adriana%Jacas%NULL%0,                         Guido%Muñoz%NULL%0,                         Rut%Andrea%NULL%0,                         Jose%Ortiz%NULL%0,                         Eduard%Quintana%NULL%0,                         Irene%Rovira%NULL%0,                         Enric%Reverter%NULL%0,                         Javier%Fernandez%NULL%0,                         Miquel%Ferrer%NULL%0,                         Joan R.%Badia%NULL%0,                         Arantxa%Lander Azcona%NULL%0,                         Jesus Escos%Orta%NULL%0,                         Philipp%Bühler%NULL%0,                         Silvio%Brugger%NULL%0,                         Daniel%Hofmaenner%NULL%0,                         Simone%Unseld%NULL%0,                         Frank%Ruschitzka%NULL%0,                         Mallory%Moret-Bochatay%NULL%0,                         Bernd%Yuen%NULL%0,                         Thomas%Hillermann%NULL%0,                         Hatem%Ksouri%NULL%0,                         Govind Oliver%Sridharan%NULL%0,                         Anette%Ristic%NULL%0,                         Michael%Sepulcri%NULL%0,                         Miodrag%Filipovic%NULL%0,                         Urs%Pietsch%NULL%0,                         Petra%Salomon%NULL%0,                         Iris%Drvaric%NULL%0,                         Peter%Schott%NULL%0,                         Severin%Urech%NULL%0,                         Adriana%Lambert%NULL%0,                         Lukas%Merki%NULL%0,                         Marcus%Laube%NULL%0,                         Frank%Hillgaertner%NULL%0,                         Marianne%Sieber%NULL%0,                         Alexander%Dullenkopf%NULL%0,                         Lina%Petersen%NULL%0,                         Serge%Grazioli%NULL%0,                         Peter C.%Rimensberger%NULL%0,                         Isabelle%Fleisch%NULL%0,                         Jerome%Lavanchy%NULL%0,                         Katharina%Marquardt%NULL%0,                         Karim%Shaikh%NULL%0,                         Hermann%Redecker%NULL%0,                         Michael%Stephan%NULL%0,                         Jan%Brem%NULL%0,                         Bjarte%Rogdo%NULL%0,                         Andre%Birkenmaier%NULL%0,                         Friederike%Meyer zu Bentrup%NULL%0,                         Patricia%Fodor%NULL%0,                         Pascal%Locher%NULL%0,                         Giovanni%Camen%NULL%0,                         Martin%Siegemund%NULL%0,                         Nuria%Zellweger%NULL%0,                         Marie-Madlen%Jeitziner%NULL%0,                         Beatrice%Jenni-Moser%NULL%0,                         Christian%Bürkle%NULL%0,                         Gian-Reto%Kleger%NULL%0,                         Marilene%Franchitti Laurent%NULL%0,                         Jean-Christophe%Laurent%NULL%0,                         Tomislav%Gaspert%NULL%0,                         Marija%Jovic%NULL%0,                         Michael%Studhalter%NULL%0,                         Christoph%Haberthuer%NULL%0,                         Roger F.%Lussman%NULL%0,                         Daniela%Selz%NULL%0,                         Didier%Naon%NULL%0,                         Romano%Mauri%NULL%0,                         Samuele%Ceruti%NULL%0,                         Julien%Marrel%NULL%0,                         Mirko%Brenni%NULL%0,                         Rolf%Ensner%NULL%0,                         Nadine%Gehring%NULL%0,                         Antje%Heise%NULL%0,                         Tobias%Huebner%NULL%0,                         Thomas A.%Neff%NULL%0,                         Sara%Cereghetti%NULL%0,                         Filippo%Boroli%NULL%0,                         Jerome%Pugin%NULL%0,                         Nandor%Marczin%NULL%0,                         Joyce%Wong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Warren%Gavin%NULL%0,                         Elliott%Campbell%NULL%0,                         Syed-Adeel%Zaidi%NULL%0,                         Neha%Gavin%NULL%0,                         Lana%Dbeibo%NULL%0,                         Cole%Beeler%NULL%0,                         Kari%Kuebler%NULL%0,                         Ahmed%Abdel-Rahman%NULL%0,                         Mark%Luetkemeyer%NULL%0,                         Areeba%Kara%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Vijay%Gayam%vgayam@interfaithmedical.com%0,                         Muchi Ditah%Chobufo%NULL%0,                         Muchi Ditah%Chobufo%NULL%0,                         Mohamed A.%Merghani%NULL%0,                         Mohamed A.%Merghani%NULL%0,                         Shristi%Lamichhane%NULL%0,                         Pavani Reddy%Garlapati%NULL%0,                         Mark K.%Adler%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Cao%Y%coreGivesNoEmail%0,                        Imam%Z%coreGivesNoEmail%0,                        Lippi%G%coreGivesNoEmail%0,                        Oran%DP%coreGivesNoEmail%0,                        Shi%S%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Hai%Hu%huhai@wchscu.cn%0,                         Ni%Yao%NULL%0,                         Ni%Yao%NULL%0,                         Yanru%Qiu%NULL%0,                         John H.%Burton%NULL%0,                         John H.%Burton%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jiaofeng%Huang%NULL%0,                         Aiguo%Cheng%NULL%0,                         Rahul%Kumar%NULL%0,                         Yingying%Fang%NULL%0,                         Yingying%Fang%NULL%0,                         Gongping%Chen%NULL%0,                         Yueyong%Zhu%NULL%0,                         Su%Lin%sumer5129@fjmu.edu.cn%0,                         Su%Lin%sumer5129@fjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%0,                         Ju-Hyun%Kim%NULL%0,                         Jin-Sung%Park%NULL%0,                         Min Cheol%Chang%wheel633@ynu.ac.kr%0,                         Donghwi%Park%bdome@hanmail.net%0]</t>
+  </si>
+  <si>
+    <t>[K.%Khalil%NULL%0,                         K.%Agbontaen%NULL%0,                         D.%McNally%NULL%0,                         A.%Love%NULL%0,                         S.%Mandalia%NULL%0,                         W.%Banya%NULL%0,                         E.%Starren%NULL%0,                         R.%Dhunnookchand%NULL%0,                         H.%Farne%NULL%0,                         R.%Morton%NULL%0,                         G.%Davies%NULL%0,                         O.%Orhan%NULL%0,                         D%Lai%NULL%0,                         M.%Nelson%NULL%0,                         P.L.%Shah%NULL%0,                         J.L.%Garner%Justin.garner@chelwest.nhs.uk%0]</t>
+  </si>
+  <si>
+    <t>[Eyal%Klang%NULL%0,                         Gassan%Kassim%NULL%0,                         Shelly%Soffer%soffer.shelly@gmail.com%0,                         Robert%Freeman%NULL%0,                         Robert%Freeman%NULL%0,                         Matthew A.%Levin%NULL%0,                         Matthew A.%Levin%NULL%0,                         David L.%Reich%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sandeep%Krishnan%NULL%0,                         Kinjal%Patel%NULL%0,                         Ronak%Desai%NULL%0,                         Anupam%Sule%NULL%0,                         Peter%Paik%NULL%0,                         Ashley%Miller%NULL%0,                         Alicia%Barclay%NULL%0,                         Adam%Cassella%NULL%0,                         Jon%Lucaj%NULL%0,                         Yvonne%Royster%NULL%0,                         Joffer%Hakim%NULL%0,                         Zulfiqar%Ahmed%NULL%0,                         Farhad%Ghoddoussi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Manisha%Bhutani%null%0,               David M.%Foureau%null%0,               Shebli%Atrash%null%0,               Peter M.%Voorhees%null%0,               Saad Z.%Usmani%null%0]</t>
+  </si>
+  <si>
+    <t>[Wil%Lieberman-Cribbin%NULL%0,                         Joseph%Rapp%NULL%0,                         Naomi%Alpert%NULL%0,                         Stephanie%Tuminello%NULL%0,                         Emanuela%Taioli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Q.%Liu%NULL%0,                         N. C.%Song%NULL%0,                         Z. K.%Zheng%NULL%0,                         J. S.%Li%NULL%0,                         S. K.%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Long%NULL%0,                         Lan%Nie%NULL%0,                         Xiaochen%Xiang%NULL%0,                         Huan%Li%NULL%0,                         Xiaoli%Zhang%NULL%0,                         Xiaozhi%Fu%NULL%0,                         Hongwei%Ren%NULL%0,                         Wanxin%Liu%NULL%0,                         Qiang%Wang%wangqiang@wust.edu.cn%0,                         Qingming%Wu%wuhe9224@sina.com%0,                         Qingming%Wu%wuhe9224@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaomin%Luo%luoxiaomin04@163.com%0,                         Wei%Zhou%NULL%0,                         Xiaojie%Yan%NULL%0,                         Tangxi%Guo%NULL%0,                         Benchao%Wang%NULL%0,                         Hongxia%Xia%NULL%0,                         Lu%Ye%NULL%0,                         Jun%Xiong%NULL%0,                         Zongping%Jiang%NULL%0,                         Yu%Liu%NULL%0,                         Bicheng%Zhang%NULL%0,                         Weize%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ying%Luo%NULL%0,                         Liyan%Mao%NULL%0,                         Xu%Yuan%NULL%0,                         Ying%Xue%NULL%0,                         Qun%Lin%NULL%0,                         Guoxing%Tang%NULL%0,                         Huijuan%Song%NULL%0,                         Feng%Wang%fengwang@tjh.tjmu.edu.cn%0,                         Ziyong%Sun%zysun@tjh.tjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ying%Luo%NULL%0,                         Ying%Xue%NULL%0,                         Liyan%Mao%NULL%0,                         Xu%Yuan%NULL%0,                         Qun%Lin%NULL%0,                         Guoxing%Tang%NULL%0,                         Huijuan%Song%NULL%0,                         Feng%Wang%NULL%0,                         Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chiara%Masetti%NULL%0,                         Elena%Generali%NULL%0,                         Francesca%Colapietro%NULL%0,                         Antonio%Voza%NULL%0,                         Maurizio%Cecconi%NULL%0,                         Antonio%Messina%NULL%0,                         Paolo%Omodei%NULL%0,                         Claudio%Angelini%NULL%0,                         Michele%Ciccarelli%NULL%0,                         Salvatore%Badalamenti%NULL%0,                         G. Walter%Canonica%NULL%0,                         Ana%Lleo%ana.lleo@humanitas.it%0,                         Alessio%Aghemo%NULL%0,                         Alessio%Aghemo%NULL%0,                         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Takahisa%Mikami%NULL%0,                         Hirotaka%Miyashita%NULL%0,                         Takayuki%Yamada%NULL%0,                         Matthew%Harrington%NULL%0,                         Daniel%Steinberg%NULL%0,                         Andrew%Dunn%NULL%0,                         Evan%Siau%Evan.Siau@mountsinai.org%0]</t>
+  </si>
+  <si>
+    <t>[Alexis K.%Okoh%alexis.okoh@rwjbh.org%0,                         Christoph%Sossou%NULL%0,                         Christoph%Sossou%NULL%0,                         Neha S.%Dangayach%NULL%0,                         Sherin%Meledathu%NULL%0,                         Oluwakemi%Phillips%NULL%0,                         Corinne%Raczek%NULL%0,                         Michael%Patti%NULL%0,                         Nathan%Kang%NULL%0,                         Sameer A.%Hirji%NULL%0,                         Charles%Cathcart%NULL%0,                         Christian%Engell%NULL%0,                         Marc%Cohen%NULL%0,                         Sandhya%Nagarakanti%NULL%0,                         Eliahu%Bishburg%NULL%0,                         Harpreet S.%Grewal%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%0,                          Lian%Yang%NULL%0,                          Yuncheng%Li%NULL%0,                          Bo%Liang%NULL%0,                          Lin%Li%NULL%0,                          Tianhe%Ye%NULL%0,                          Lingli%Li%NULL%0,                          Dehan%Liu%NULL%0,                          Shan%Gui%NULL%0,                          Yu%Hu%NULL%0,                          Chuansheng%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                         Becker%L.B.%coreGivesNoEmail%0,                         Chelico%J.D.%coreGivesNoEmail%0,                         Cohen%S.L.%coreGivesNoEmail%0,                         Cookingham%J.%coreGivesNoEmail%0,                         Coppa%K.%coreGivesNoEmail%0,                         Crawford%J.M.%coreGivesNoEmail%0,                         Davidson%K.W.%coreGivesNoEmail%0,                         Diefenbach%M.A.%coreGivesNoEmail%0,                         Dominello%A.J.%coreGivesNoEmail%0,                         Duer-Hefele%J.%coreGivesNoEmail%0,                         Falzon%L.%coreGivesNoEmail%0,                         Gitlin%J.%coreGivesNoEmail%0,                         Hajizadeh%N.%coreGivesNoEmail%0,                         Harvin%T.G.%coreGivesNoEmail%0,                         Hirsch%J.S.%coreGivesNoEmail%0,                         Hirschwerk%D.A.%coreGivesNoEmail%0,                         Kim%E.J.%coreGivesNoEmail%0,                         Kozel%Z.M.%coreGivesNoEmail%0,                         Marrast%L.M.%coreGivesNoEmail%0,                         McGinn%T.%coreGivesNoEmail%0,                         Mogavero%J.N.%coreGivesNoEmail%0,                         Narasimhan%M.%coreGivesNoEmail%0,                         Osorio%G.A.%coreGivesNoEmail%0,                         Qiu%M.%coreGivesNoEmail%0,                         Richardson%S.%coreGivesNoEmail%0,                         Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Mario%Rivera-Izquierdo%NULL%0,                          María%del Carmen Valero-Ubierna%NULL%0,                          María%del Carmen Valero-Ubierna%NULL%0,                          Juan Luis%R-delAmo%NULL%0,                          Miguel Ángel%Fernández-García%NULL%0,                          Silvia%Martínez-Diz%NULL%0,                          Arezu%Tahery-Mahmoud%NULL%0,                          Marta%Rodríguez-Camacho%NULL%0,                          Ana Belén%Gámiz-Molina%NULL%0,                          Nicolás%Barba-Gyengo%NULL%0,                          Pablo%Gámez-Baeza%NULL%0,                          Celia%Cabrero-Rodríguez%NULL%0,                          Pedro Antonio%Guirado-Ruiz%NULL%0,                          Divina Tatiana%Martín-Romero%NULL%0,                          Antonio Jesús%Láinez-Ramos-Bossini%NULL%0,                          María Rosa%Sánchez-Pérez%NULL%0,                          José%Mancera-Romero%NULL%0,                          Miguel%García-Martín%NULL%0,                          Luis Miguel%Martín-delosReyes%NULL%0,                          Virginia%Martínez-Ruiz%NULL%0,                          Virginia%Martínez-Ruiz%NULL%0,                          Pablo%Lardelli-Claret%NULL%0,                          Eladio%Jiménez-Mejías%NULL%0,                          Muhammad%Adrish%NULL%0,                          Muhammad%Adrish%NULL%0,                          NULL%NULL%NULL%0,                          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,                          Kun%Yang%NULL%0,                          Kun%Yang%NULL%0,                          Wenxia%Wang%NULL%0,                          Wenxia%Wang%NULL%0,                          Lingyu%Jiang%NULL%0,                          Lingyu%Jiang%NULL%0,                          Jianxin%Song%songsingsjx@sina.com%0,                          Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Grace%Salacup%salacupg@einstein.edu%0,                          Kevin Bryan%Lo%NULL%0,                          Kevin Bryan%Lo%NULL%0,                          Fahad%Gul%NULL%0,                          Eric%Peterson%NULL%0,                          Robert%De Joy%NULL%0,                          Ruchika%Bhargav%NULL%0,                          Jerald%Pelayo%NULL%0,                          Jeri%Albano%NULL%0,                          Zurab%Azmaiparashvili%NULL%0,                          Sadia%Benzaquen%NULL%0,                          Gabriel%Patarroyo‐Aponte%NULL%0,                          Janani%Rangaswami%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Priyank%Shah%xref no email%0,     Jack%Owens%xref no email%0,     James%Franklin%xref no email%0,     Akshat%Mehta%xref no email%0,     William%Heymann%xref no email%0,     William%Sewell%xref no email%0,     Jennifer%Hill%xref no email%0,     Krista%Barfield%xref no email%0,     Rajkumar%Doshi%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Yufeng%Shang%NULL%0,                          Tao%Liu%NULL%0,                          Yongchang%Wei%NULL%0,                          Jingfeng%Li%NULL%0,                          Liang%Shao%NULL%0,                          Minghui%Liu%NULL%0,                          Yongxi%Zhang%NULL%0,                          Zhigang%Zhao%NULL%0,                          Haibo%Xu%NULL%0,                          Zhiyong%Peng%NULL%0,                          Fuling%Zhou%zhoufuling@whu.edu.cn%0,                          Xinghuan%Wang%wangxinghuan@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,                          Mu%Qin%qinmuae@163.com%0,                          Yuli%Cai%NULL%0,                          Tao%Liu%NULL%0,                          Bo%Shen%NULL%0,                          Fan%Yang%NULL%0,                          Sheng%Cao%NULL%0,                          Xu%Liu%NULL%0,                          Xu%Liu%NULL%0,                          Yaozu%Xiang%NULL%0,                          Qinyan%Zhao%NULL%0,                          He%Huang%huanghe1977@whu.edu.cn%0,                          Bo%Yang%yybb112@whu.edu.cn%0,                          Congxin%Huang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rita de Cássia Menezes%Soares%NULL%0,                          Larissa Rodrigues%Mattos%NULL%0,                          Letícia Martins%Raposo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,                          Ruoqi%Ning%NULL%0,                          Yu%Tao%NULL%0,                          Chong%Yu%NULL%0,                          Xiaoyan%Deng%NULL%0,                          Caili%Zhao%NULL%0,                          Silu%Meng%NULL%0,                          Fangxu%Tang%89650793@qq.com%0,                          Dong%Xu%89650793@qq.com%0,                          Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Kun%Wang%NULL%0,                          Peiyuan%Zuo%NULL%0,                          Yuwei%Liu%NULL%0,                          Meng%Zhang%NULL%0,                          Xiaofang%Zhao%NULL%0,                          Songpu%Xie%NULL%0,                          Hao%Zhang%NULL%0,                          Xinglin%Chen%NULL%0,                          Chengyun%Liu%chengyunliu@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Bo%XU%NULL%0,                          Cun-yu%FAN%NULL%0,                          An-lu%WANG%NULL%0,                          Yi-long%ZOU%NULL%0,                          Yi-han%YU%NULL%0,                          Cong%HE%NULL%0,                          Wen-guang%XIA%NULL%0,                          Ji-xian%ZHANG%NULL%0,                          Qing%MIAO%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xisheng%Yan%NULL%0,                          Fen%Li%NULL%0,                          Xiao%Wang%NULL%0,                          Jie%Yan%NULL%0,                          Fen%Zhu%NULL%0,                          Shifan%Tang%NULL%0,                          Yingzhong%Deng%NULL%0,                          Hua%Wang%NULL%0,                          Rui%Chen%NULL%0,                          Zhili%Yu%NULL%0,                          Yaping%Li%NULL%0,                          Jingzhou%Shang%NULL%0,                          Lingjun%Zeng%NULL%0,                          Jie%Zhao%NULL%0,                          Chaokun%Guan%NULL%0,                          Qiaomei%Liu%NULL%0,                          Haifeng%Chen%NULL%0,                          Wei%Gong%NULL%0,                          Xin%Huang%NULL%0,                          Yu‐Jiao%Zhang%NULL%0,                          Jianguang%Liu%NULL%0,                          Xiaoyan%Dong%NULL%0,                          Wen%Zheng%zhengwen12@mails.jlu.edu.cn%0,                          Shaoping%Nie%spnie@126.com%0,                          Dongsheng%Li%dongshengli196809@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qing%Yang%NULL%0,                          Ying%Zhou%NULL%0,                          Xinrong%Wang%NULL%0,                          Shan%Gao%NULL%0,                          Yang%Xiao%NULL%0,                          Weiming%Zhang%NULL%0,                          Yi%Hu%huyizxyy@163.com%0,                          Yafei%Wang%wyf_527@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                          Qingyu%Yang%NULL%0,                          Yaxin%Wang%NULL%0,                          Yongran%Wu%NULL%0,                          Jiqian%Xu%NULL%0,                          Yuan%Yu%NULL%0,                          You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wenjing%Ye%yewenjing@xinhuamed.com.cn%0,                          Guoxi%Chen%4799082@qq.com%0,                          Xiaopan%Li%xiaopanli0224@126.com%0,                          Xing%Lan%474137452@qq.com%0,                          Chen%Ji%c.ji.3@warwick.ac.uk%0,                          Min%Hou%min-hou710@hotmail.com%0,                          Di%Zhang%zhangdizhangdi1234@163.com%0,                          Guangwang%Zeng%785663609@qq.com%0,                          Yaling%Wang%953822402@qq.com%0,                          Cheng%Xu%xucheng112358@126.com%0,                          Weiwei%Lu%luweiwei100@126.com%0,                          Ruolin%Cui%crlqwerty@163.com%0,                          Yuyang%Cai%caiyuyang@sjtu.edu.cn%0,                          Hai%Huang%1220775601@qq.com%0,                          Ling%Yang%yangling01@xinhuamed.com.cn%0]</t>
+  </si>
+  <si>
+    <t>[Caizheng%Yu%NULL%0,                          Qing%Lei%NULL%0,                          Wenkai%Li%NULL%0,                          Xiong%Wang%NULL%0,                          Wei%Liu%NULL%0,                          Xionglin%Fan%NULL%0,                          Wengang%Li%228907211@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                          Ting%Yu%NULL%0,                          Ronghui%Du%NULL%0,                          Guohui%Fan%NULL%0,                          Ying%Liu%NULL%0,                          Zhibo%Liu%NULL%0,                          Jie%Xiang%NULL%0,                          Yeming%Wang%NULL%0,                          Bin%Song%NULL%0,                          Xiaoying%Gu%NULL%0,                          Lulu%Guan%NULL%0,                          Yuan%Wei%NULL%0,                          Hui%Li%NULL%0,                          Xudong%Wu%NULL%0,                          Jiuyang%Xu%NULL%0,                          Shengjin%Tu%NULL%0,                          Yi%Zhang%NULL%0,                          Hua%Chen%NULL%0,                          Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Moran%Amit%NULL%0,                          Alex%Sorkin%NULL%0,                          Jacob%Chen%NULL%0,                          Barak%Cohen%NULL%0,                          Barak%Cohen%NULL%0,                          Dana%Karol%NULL%0,                          Dana%Karol%NULL%0,                          Avishai M%Tsur%NULL%0,                          Shaul%Lev%NULL%0,                          Shaul%Lev%NULL%0,                          Tal%Rozenblat%NULL%0,                          Ayana%Dvir%NULL%0,                          Ayana%Dvir%NULL%0,                          Geva%Landau%NULL%0,                          Lidar%Fridrich%NULL%0,                          Lidar%Fridrich%NULL%0,                          Elon%Glassberg%NULL%0,                          Shani%Kesari%NULL%0,                          Sigal%Sviri%NULL%0,                          Ram%Gelman%NULL%0,                          Asaf%Miller%NULL%0,                          Danny%Epstein%NULL%0,                          Ronny%Ben-Avi%NULL%0,                          Ronny%Ben-Avi%NULL%0,                          Moshe%Matan%NULL%0,                          Daniel J.%Jakobson%NULL%0,                          Daniel J.%Jakobson%NULL%0,                          Tarif%Bader%NULL%0,                          Tarif%Bader%NULL%0,                          David%Dahan%NULL%0,                          David%Dahan%NULL%0,                          Daniel A.%King%NULL%0,                          Anat%Ben-Ari%NULL%0,                          Arie%Soroksky%NULL%0,                          Alon%Bar%NULL%0,                          Alon%Bar%NULL%0,                          Noam%Fink%NULL%0,                          Pierre%Singer%NULL%0,                          Avi%Benov%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,                          John R%Adler%NULL%0,                          Muhammad Sohaib%Asghar%NULL%0,                          Muhammad Sohaib%Asghar%NULL%0,                          Syed Jawad%Haider Kazmi%NULL%0,                          Noman%Ahmed Khan%NULL%0,                          Mohammed%Akram%NULL%0,                          Salman%Ahmed Khan%NULL%0,                          Uzma%Rasheed%NULL%0,                          Maira%Hassan%NULL%0,                          Gul Muhammad%Memon%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pedro%Baqui%NULL%0,                          Ioana%Bica%NULL%0,                          Valerio%Marra%marra@cosmo-ufes.org%0,                          Ari%Ercole%NULL%0,                          Mihaela%van der Schaar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anesi%Adriano%coreGivesNoEmail%0,                         Bettinardi%Alessandra%coreGivesNoEmail%0,                         Bonetti%Graziella%coreGivesNoEmail%0,                         Borrelli%Gianluca%coreGivesNoEmail%0,                         Fiordalisi%Gianfranco%coreGivesNoEmail%0,                         Lippi%Giuseppe%coreGivesNoEmail%0,                         Manelli%Filippo%coreGivesNoEmail%0,                         Marino%Antonio%coreGivesNoEmail%0,                         Menolfi%Annamaria%coreGivesNoEmail%0,                         Patroni%Andrea%coreGivesNoEmail%0,                         Saggini%Sara%coreGivesNoEmail%0,                         Volpi%Roberta%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Andrea%Borghesi%NULL%0,                          Angelo%Zigliani%NULL%0,                          Salvatore%Golemi%NULL%0,                          Nicola%Carapella%NULL%0,                          Patrizia%Maculotti%NULL%0,                          Davide%Farina%NULL%0,                          Roberto%Maroldi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alberto M.%Borobia%NULL%0,                          Antonio J.%Carcas%NULL%0,                          Antonio J.%Carcas%NULL%0,                          Francisco%Arnalich%NULL%0,                          Rodolfo%Álvarez-Sala%NULL%0,                          Rodolfo%Álvarez-Sala%NULL%0,                          Jaime%Monserrat-Villatoro%NULL%0,                          Manuel%Quintana%NULL%0,                          Juan Carlos%Figueira%NULL%0,                          Rosario M.%Torres Santos-Olmo%NULL%0,                          Julio%García-Rodríguez%NULL%0,                          Julio%García-Rodríguez%NULL%0,                          Alberto%Martín-Vega%NULL%0,                          Antonio%Buño%NULL%0,                          Elena%Ramírez%NULL%0,                          Gonzalo%Martínez-Alés%NULL%0,                          Gonzalo%Martínez-Alés%NULL%0,                          Nicolás%García-Arenzana%NULL%0,                          M. Concepción%Núñez%NULL%0,                          M. Concepción%Núñez%NULL%0,                          Milagros%Martí-de-Gracia%NULL%0,                          Francisco%Moreno Ramos%NULL%0,                          Francisco%Reinoso-Barbero%NULL%0,                          Alejandro%Martin-Quiros%NULL%0,                          Angélica%Rivera Núñez%NULL%0,                          Jesús%Mingorance%NULL%0,                          Carlos J.%Carpio Segura%NULL%0,                          Carlos J.%Carpio Segura%NULL%0,                          Daniel%Prieto Arribas%NULL%0,                          Esther%Rey Cuevas%NULL%0,                          Concepción%Prados Sánchez%NULL%0,                          Juan J.%Rios%NULL%0,                          Miguel A.%Hernán%NULL%0,                          Jesús%Frías%NULL%0,                          José R.%Arribas%NULL%0,                          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simon E.%Brill%simon.brill@nhs.net%0,                          Hannah C.%Jarvis%NULL%0,                          Hannah C.%Jarvis%NULL%0,                          Ezgi%Ozcan%NULL%0,                          Thomas L. P.%Burns%NULL%0,                          Rabia A.%Warraich%NULL%0,                          Lisa J.%Amani%NULL%0,                          Amina%Jaffer%NULL%0,                          Stephanie%Paget%NULL%0,                          Anand%Sivaramakrishnan%NULL%0,                          Dean D.%Creer%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                          Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                          Wenlin%Cheng%NULL%0,                          Lei%Yu%NULL%0,                          Ya-Kun%Liu%NULL%0,                          Xiaoyong%Hu%NULL%0,                          Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[B.%Carter%NULL%0,                          J.T.%Collins%NULL%0,                          F.%Barlow-Pay%NULL%0,                          F.%Rickard%NULL%0,                          E.%Bruce%NULL%0,                          A.%Verduri%NULL%0,                          T.J.%Quinn%NULL%0,                          E.%Mitchell%NULL%0,                          A.%Price%NULL%0,                          A.%Vilches-Moraga%NULL%0,                          M.J.%Stechman%NULL%0,                          R.%Short%NULL%0,                          A.%Einarsson%NULL%0,                          P.%Braude%NULL%0,                          S.%Moug%NULL%0,                          P.K.%Myint%NULL%0,                          J.%Hewitt%NULL%0,                          L.%Pearce%NULL%0,                          K.%McCarthy%NULL%0,                          C.%Davey%NULL%0,                          S.%Jones%NULL%0,                          K.%Lunstone%NULL%0,                          A.%Cavenagh%NULL%0,                          C.%Silver%NULL%0,                          T.%Telford%NULL%0,                          R.%Simmons%NULL%0,                          M.%Holloway%NULL%0,                          J.%Hesford%NULL%0,                          T.%El Jichi Mutasem%NULL%0,                          S.%Singh%NULL%0,                          D.%Paxton%NULL%0,                          W.%Harris%NULL%0,                          N.%Galbraith%NULL%0,                          E.%Bhatti%NULL%0,                          J.%Edwards%NULL%0,                          S.%Duffy%NULL%0,                          J.%Kelly%NULL%0,                          C.%Murphy%NULL%0,                          C.%Bisset%NULL%0,                          R.%Alexander%NULL%0,                          M.%Garcia%NULL%0,                          S.%Sangani%NULL%0,                          T.%Kneen%NULL%0,                          T.%Lee%NULL%0,                          A.%McGovern%NULL%0,                          G.%Guaraldi%NULL%0,                          E.%Clini%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fuyang%Chen%NULL%0,                          Wenwu%Sun%NULL%0,                          Shengrong%Sun%NULL%0,                          Zhiyu%Li%lizhiyu@whu.edu.cn%0,                          Zhong%Wang%zhongwangchn@whu.edu.cn%0,                          Li%Yu%yuliwhzxyy@163.com%0,                          Li%Yu%yuliwhzxyy@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,                          Ling%Sang%NULL%0,                          Mei%Jiang%NULL%0,                          Zhaowei%Yang%NULL%0,                          Nan%Jia%NULL%0,                          Wanyi%Fu%NULL%0,                          Jiaxing%Xie%NULL%0,                          Weijie%Guan%NULL%0,                          Wenhua%Liang%NULL%0,                          Zhengyi%Ni%NULL%0,                          Yu%Hu%NULL%0,                          Lei%Liu%NULL%0,                          Hong%Shan%NULL%0,                          Chunliang%Lei%NULL%0,                          Yixiang%Peng%NULL%0,                          Li%Wei%NULL%0,                          Yong%Liu%NULL%0,                          Yahua%Hu%NULL%0,                          Peng%Peng%NULL%0,                          Jianming%Wang%NULL%0,                          Jiyang%Liu%NULL%0,                          Zhong%Chen%NULL%0,                          Gang%Li%NULL%0,                          Zhijian%Zheng%NULL%0,                          Shaoqin%Qiu%NULL%0,                          Jie%Luo%NULL%0,                          Changjiang%Ye%NULL%0,                          Shaoyong%Zhu%NULL%0,                          Jinping%Zheng%NULL%0,                          Nuofu%Zhang%NULL%0,                          Yimin%Li%NULL%0,                          Jianxing%He%NULL%0,                          Jing%Li%NULL%0,                          Shiyue%Li%NULL%0,                          Nanshan%Zhong%NULL%0,                          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                          Di%Wu%NULL%0,                          Huilong%Chen%NULL%0,                          Weiming%Yan%NULL%0,                          Danlei%Yang%NULL%0,                          Guang%Chen%NULL%0,                          Ke%Ma%NULL%0,                          Dong%Xu%NULL%0,                          Haijing%Yu%NULL%0,                          Hongwu%Wang%NULL%0,                          Tao%Wang%NULL%0,                          Wei%Guo%NULL%0,                          Jia%Chen%NULL%0,                          Chen%Ding%NULL%0,                          Xiaoping%Zhang%NULL%0,                          Jiaquan%Huang%NULL%0,                          Meifang%Han%NULL%0,                          Shusheng%Li%NULL%0,                          Xiaoping%Luo%NULL%0,                          Jianping%Zhao%NULL%0,                          Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anying%Cheng%NULL%0,                          Liu%Hu%NULL%0,                          Yiru%Wang%NULL%0,                          Luyan%Huang%NULL%0,                          Lingxi%Zhao%NULL%0,                          Congcong%Zhang%NULL%0,                          Xiyue%Liu%NULL%0,                          Ranran%Xu%NULL%0,                          Feng%Liu%NULL%0,                          Jinping%Li%NULL%0,                          Dawei%Ye%NULL%0,                          Tao%Wang%NULL%0,                          Yongman%Lv%lvyongman@126.com%0,                          Qingquan%Liu%qqliutj@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fabio%Ciceri%ciceri.fabio@hsr.it%0,                          Antonella%Castagna%NULL%0,                          Patrizia%Rovere-Querini%NULL%0,                          Francesco%De Cobelli%NULL%0,                          Annalisa%Ruggeri%NULL%0,                          Laura%Galli%NULL%0,                          Caterina%Conte%NULL%0,                          Rebecca%De Lorenzo%NULL%0,                          Andrea%Poli%NULL%0,                          Alberto%Ambrosio%NULL%0,                          Carlo%Signorelli%NULL%0,                          Eleonora%Bossi%NULL%0,                          Maria%Fazio%NULL%0,                          Cristina%Tresoldi%NULL%0,                          Sergio%Colombo%NULL%0,                          Giacomo%Monti%NULL%0,                          Efgeny%Fominskiy%NULL%0,                          Stefano%Franchini%NULL%0,                          Marzia%Spessot%NULL%0,                          Carlo%Martinenghi%NULL%0,                          Michele%Carlucci%NULL%0,                          Luigi%Beretta%NULL%0,                          Anna Maria%Scandroglio%NULL%0,                          Massimo%Clementi%NULL%0,                          Massimo%Locatelli%NULL%0,                          Moreno%Tresoldi%NULL%0,                          Paolo%Scarpellini%NULL%0,                          Gianvito%Martino%NULL%0,                          Emanuele%Bosi%NULL%0,                          Lorenzo%Dagna%NULL%0,                          Adriano%Lazzarin%NULL%0,                          Giovanni%Landoni%NULL%0,                          Alberto%Zangrillo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,                          Wei%Liu%NULL%0,                          Kui%Liu%NULL%0,                          Yuan-Yuan%Fang%NULL%0,                          Jin%Shang%NULL%0,                          Ling%Zhou%NULL%0,                          Ke%Wang%NULL%0,                          Fan%Leng%NULL%0,                          Shuang%Wei%NULL%0,                          Lei%Chen%NULL%0,                          Hui-Guo%Liu%NULL%0,                          Pei-Fang%Wei%NULL%0,                          Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                          Li-Rong%Liang%NULL%0,                          Cheng-Qing%Yang%NULL%0,                          Wen%Wang%NULL%0,                          Tan-Ze%Cao%NULL%0,                          Ming%Li%NULL%0,                          Guang-Yun%Guo%NULL%0,                          Juan%Du%NULL%0,                          Chun-Lan%Zheng%NULL%0,                          Qi%Zhu%NULL%0,                          Ming%Hu%NULL%0,                          Xu-Yan%Li%NULL%0,                          Peng%Peng%NULL%0,                          Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shan%Gao%NULL%0,                          Fang%Jiang%NULL%0,                          Wei%Jin%NULL%0,                          Yuan%Shi%NULL%0,                          Leilei%Yang%NULL%0,                          Yanqiong%Xia%NULL%0,                          Linyan%Jia%NULL%0,                          Bo%Wang%NULL%0,                          Han%Lin%NULL%0,                          Yin%Cai%NULL%0,                          Zhengyuan%Xia%NULL%0,                          Jian%Peng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pedro David%Wendel Garcia%pedrodavid.wendelgarcia@usz.ch%0,                          Thierry%Fumeaux%thierry.fumeaux@ghol.ch%0,                          Philippe%Guerci%NULL%0,                          Dorothea Monika%Heuberger%dorotheamonika.heuberger@usz.ch%0,                          Jonathan%Montomoli%NULL%0,                          Ferran%Roche-Campo%NULL%0,                          Reto Andreas%Schuepbach%reto.schuepbach@usz.ch%0,                          Matthias Peter%Hilty%matthias.hilty@usz.ch%0,                          Mario%Alfaro Farias%NULL%0,                          Antoni%Margarit%NULL%0,                          Gerardo%Vizmanos-Lamotte%NULL%0,                          Thomas%Tschoellitsch%NULL%0,                          Jens%Meier%NULL%0,                          Francesco S.%Cardona%NULL%0,                          Josef%Skola%NULL%0,                          Lenka%Horakova%NULL%0,                          Hernan%Aguirre-Bermeo%NULL%0,                          Janina%Apolo%NULL%0,                          Emmanuel%Novy%NULL%0,                          Marie-Reine%Losser%NULL%0,                          Geoffrey%Jurkolow%NULL%0,                          Gauthier%Delahaye%NULL%0,                          Sascha%David%NULL%0,                          Tobias%Welte%NULL%0,                          Tobias%Wengenmayer%NULL%0,                          Dawid L.%Staudacher%NULL%0,                          Theodoros%Aslanidis%NULL%0,                          Barna%Babik%NULL%0,                          Anita%Korsos%NULL%0,                          Janos%Gal%NULL%0,                          Hermann%Csaba%NULL%0,                          Abele%Donati%NULL%0,                          Andrea%Carsetti%NULL%0,                          Fabrizio%Turrini%NULL%0,                          Maria Sole%Simonini%NULL%0,                          Roberto%Ceriani%NULL%0,                          Martina%Murrone%NULL%0,                          Emanuele%Rezoagli%NULL%0,                          Giovanni%Vitale%NULL%0,                          Alberto%Fogagnolo%NULL%0,                          Savino%Spadaro%NULL%0,                          Maddalena Alessandra%Wu%NULL%0,                          Chiara%Cogliati%NULL%0,                          Riccardo%Colombo%NULL%0,                          Emanuele%Catena%NULL%0,                          Francesca%Facondini%NULL%0,                          Antonella%Potalivo%NULL%0,                          Gianfilippo%Gangitano%NULL%0,                          Tiziana%Perin%NULL%0,                          Maria Grazia%Bocci%NULL%0,                          Massimo%Antonelli%NULL%0,                          Diederik%Gommers%NULL%0,                          Can%Ince%NULL%0,                          Eric%Mayor-Vázquez%NULL%0,                          Maria%Cruz%NULL%0,                          Martin%Delgado%NULL%0,                          Raquel Rodriguez%Garcia%NULL%0,                          Jorge%Gamez Zapata%NULL%0,                          Begoña%Zalba-Etayo%NULL%0,                          Herminia%Lozano-Gomez%NULL%0,                          Pedro%Castro%NULL%0,                          Adrian%Tellez%NULL%0,                          Adriana%Jacas%NULL%0,                          Guido%Muñoz%NULL%0,                          Rut%Andrea%NULL%0,                          Jose%Ortiz%NULL%0,                          Eduard%Quintana%NULL%0,                          Irene%Rovira%NULL%0,                          Enric%Reverter%NULL%0,                          Javier%Fernandez%NULL%0,                          Miquel%Ferrer%NULL%0,                          Joan R.%Badia%NULL%0,                          Arantxa%Lander Azcona%NULL%0,                          Jesus Escos%Orta%NULL%0,                          Philipp%Bühler%NULL%0,                          Silvio%Brugger%NULL%0,                          Daniel%Hofmaenner%NULL%0,                          Simone%Unseld%NULL%0,                          Frank%Ruschitzka%NULL%0,                          Mallory%Moret-Bochatay%NULL%0,                          Bernd%Yuen%NULL%0,                          Thomas%Hillermann%NULL%0,                          Hatem%Ksouri%NULL%0,                          Govind Oliver%Sridharan%NULL%0,                          Anette%Ristic%NULL%0,                          Michael%Sepulcri%NULL%0,                          Miodrag%Filipovic%NULL%0,                          Urs%Pietsch%NULL%0,                          Petra%Salomon%NULL%0,                          Iris%Drvaric%NULL%0,                          Peter%Schott%NULL%0,                          Severin%Urech%NULL%0,                          Adriana%Lambert%NULL%0,                          Lukas%Merki%NULL%0,                          Marcus%Laube%NULL%0,                          Frank%Hillgaertner%NULL%0,                          Marianne%Sieber%NULL%0,                          Alexander%Dullenkopf%NULL%0,                          Lina%Petersen%NULL%0,                          Serge%Grazioli%NULL%0,                          Peter C.%Rimensberger%NULL%0,                          Isabelle%Fleisch%NULL%0,                          Jerome%Lavanchy%NULL%0,                          Katharina%Marquardt%NULL%0,                          Karim%Shaikh%NULL%0,                          Hermann%Redecker%NULL%0,                          Michael%Stephan%NULL%0,                          Jan%Brem%NULL%0,                          Bjarte%Rogdo%NULL%0,                          Andre%Birkenmaier%NULL%0,                          Friederike%Meyer zu Bentrup%NULL%0,                          Patricia%Fodor%NULL%0,                          Pascal%Locher%NULL%0,                          Giovanni%Camen%NULL%0,                          Martin%Siegemund%NULL%0,                          Nuria%Zellweger%NULL%0,                          Marie-Madlen%Jeitziner%NULL%0,                          Beatrice%Jenni-Moser%NULL%0,                          Christian%Bürkle%NULL%0,                          Gian-Reto%Kleger%NULL%0,                          Marilene%Franchitti Laurent%NULL%0,                          Jean-Christophe%Laurent%NULL%0,                          Tomislav%Gaspert%NULL%0,                          Marija%Jovic%NULL%0,                          Michael%Studhalter%NULL%0,                          Christoph%Haberthuer%NULL%0,                          Roger F.%Lussman%NULL%0,                          Daniela%Selz%NULL%0,                          Didier%Naon%NULL%0,                          Romano%Mauri%NULL%0,                          Samuele%Ceruti%NULL%0,                          Julien%Marrel%NULL%0,                          Mirko%Brenni%NULL%0,                          Rolf%Ensner%NULL%0,                          Nadine%Gehring%NULL%0,                          Antje%Heise%NULL%0,                          Tobias%Huebner%NULL%0,                          Thomas A.%Neff%NULL%0,                          Sara%Cereghetti%NULL%0,                          Filippo%Boroli%NULL%0,                          Jerome%Pugin%NULL%0,                          Nandor%Marczin%NULL%0,                          Joyce%Wong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Warren%Gavin%NULL%0,                          Elliott%Campbell%NULL%0,                          Syed-Adeel%Zaidi%NULL%0,                          Neha%Gavin%NULL%0,                          Lana%Dbeibo%NULL%0,                          Cole%Beeler%NULL%0,                          Kari%Kuebler%NULL%0,                          Ahmed%Abdel-Rahman%NULL%0,                          Mark%Luetkemeyer%NULL%0,                          Areeba%Kara%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Vijay%Gayam%vgayam@interfaithmedical.com%0,                          Muchi Ditah%Chobufo%NULL%0,                          Muchi Ditah%Chobufo%NULL%0,                          Mohamed A.%Merghani%NULL%0,                          Mohamed A.%Merghani%NULL%0,                          Shristi%Lamichhane%NULL%0,                          Pavani Reddy%Garlapati%NULL%0,                          Mark K.%Adler%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Cao%Y%coreGivesNoEmail%0,                         Imam%Z%coreGivesNoEmail%0,                         Lippi%G%coreGivesNoEmail%0,                         Oran%DP%coreGivesNoEmail%0,                         Shi%S%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Hai%Hu%huhai@wchscu.cn%0,                          Ni%Yao%NULL%0,                          Ni%Yao%NULL%0,                          Yanru%Qiu%NULL%0,                          John H.%Burton%NULL%0,                          John H.%Burton%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jiaofeng%Huang%NULL%0,                          Aiguo%Cheng%NULL%0,                          Rahul%Kumar%NULL%0,                          Yingying%Fang%NULL%0,                          Yingying%Fang%NULL%0,                          Gongping%Chen%NULL%0,                          Yueyong%Zhu%NULL%0,                          Su%Lin%sumer5129@fjmu.edu.cn%0,                          Su%Lin%sumer5129@fjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%0,                          Ju-Hyun%Kim%NULL%0,                          Jin-Sung%Park%NULL%0,                          Min Cheol%Chang%wheel633@ynu.ac.kr%0,                          Donghwi%Park%bdome@hanmail.net%0]</t>
+  </si>
+  <si>
+    <t>[K.%Khalil%NULL%0,                          K.%Agbontaen%NULL%0,                          D.%McNally%NULL%0,                          A.%Love%NULL%0,                          S.%Mandalia%NULL%0,                          W.%Banya%NULL%0,                          E.%Starren%NULL%0,                          R.%Dhunnookchand%NULL%0,                          H.%Farne%NULL%0,                          R.%Morton%NULL%0,                          G.%Davies%NULL%0,                          O.%Orhan%NULL%0,                          D%Lai%NULL%0,                          M.%Nelson%NULL%0,                          P.L.%Shah%NULL%0,                          J.L.%Garner%Justin.garner@chelwest.nhs.uk%0]</t>
+  </si>
+  <si>
+    <t>[Eyal%Klang%NULL%0,                          Gassan%Kassim%NULL%0,                          Shelly%Soffer%soffer.shelly@gmail.com%0,                          Robert%Freeman%NULL%0,                          Robert%Freeman%NULL%0,                          Matthew A.%Levin%NULL%0,                          Matthew A.%Levin%NULL%0,                          David L.%Reich%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sandeep%Krishnan%NULL%0,                          Kinjal%Patel%NULL%0,                          Ronak%Desai%NULL%0,                          Anupam%Sule%NULL%0,                          Peter%Paik%NULL%0,                          Ashley%Miller%NULL%0,                          Alicia%Barclay%NULL%0,                          Adam%Cassella%NULL%0,                          Jon%Lucaj%NULL%0,                          Yvonne%Royster%NULL%0,                          Joffer%Hakim%NULL%0,                          Zulfiqar%Ahmed%NULL%0,                          Farhad%Ghoddoussi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Manisha%Bhutani%null%0,                David M.%Foureau%null%0,                Shebli%Atrash%null%0,                Peter M.%Voorhees%null%0,                Saad Z.%Usmani%null%0]</t>
+  </si>
+  <si>
+    <t>[Wil%Lieberman-Cribbin%NULL%0,                          Joseph%Rapp%NULL%0,                          Naomi%Alpert%NULL%0,                          Stephanie%Tuminello%NULL%0,                          Emanuela%Taioli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Q.%Liu%NULL%0,                          N. C.%Song%NULL%0,                          Z. K.%Zheng%NULL%0,                          J. S.%Li%NULL%0,                          S. K.%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Long%NULL%0,                          Lan%Nie%NULL%0,                          Xiaochen%Xiang%NULL%0,                          Huan%Li%NULL%0,                          Xiaoli%Zhang%NULL%0,                          Xiaozhi%Fu%NULL%0,                          Hongwei%Ren%NULL%0,                          Wanxin%Liu%NULL%0,                          Qiang%Wang%wangqiang@wust.edu.cn%0,                          Qingming%Wu%wuhe9224@sina.com%0,                          Qingming%Wu%wuhe9224@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaomin%Luo%luoxiaomin04@163.com%0,                          Wei%Zhou%NULL%0,                          Xiaojie%Yan%NULL%0,                          Tangxi%Guo%NULL%0,                          Benchao%Wang%NULL%0,                          Hongxia%Xia%NULL%0,                          Lu%Ye%NULL%0,                          Jun%Xiong%NULL%0,                          Zongping%Jiang%NULL%0,                          Yu%Liu%NULL%0,                          Bicheng%Zhang%NULL%0,                          Weize%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ying%Luo%NULL%0,                          Liyan%Mao%NULL%0,                          Xu%Yuan%NULL%0,                          Ying%Xue%NULL%0,                          Qun%Lin%NULL%0,                          Guoxing%Tang%NULL%0,                          Huijuan%Song%NULL%0,                          Feng%Wang%fengwang@tjh.tjmu.edu.cn%0,                          Ziyong%Sun%zysun@tjh.tjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ying%Luo%NULL%0,                          Ying%Xue%NULL%0,                          Liyan%Mao%NULL%0,                          Xu%Yuan%NULL%0,                          Qun%Lin%NULL%0,                          Guoxing%Tang%NULL%0,                          Huijuan%Song%NULL%0,                          Feng%Wang%NULL%0,                          Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chiara%Masetti%NULL%0,                          Elena%Generali%NULL%0,                          Francesca%Colapietro%NULL%0,                          Antonio%Voza%NULL%0,                          Maurizio%Cecconi%NULL%0,                          Antonio%Messina%NULL%0,                          Paolo%Omodei%NULL%0,                          Claudio%Angelini%NULL%0,                          Michele%Ciccarelli%NULL%0,                          Salvatore%Badalamenti%NULL%0,                          G. Walter%Canonica%NULL%0,                          Ana%Lleo%ana.lleo@humanitas.it%0,                          Alessio%Aghemo%NULL%0,                          Alessio%Aghemo%NULL%0,                          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Takahisa%Mikami%NULL%0,                          Hirotaka%Miyashita%NULL%0,                          Takayuki%Yamada%NULL%0,                          Matthew%Harrington%NULL%0,                          Daniel%Steinberg%NULL%0,                          Andrew%Dunn%NULL%0,                          Evan%Siau%Evan.Siau@mountsinai.org%0]</t>
+  </si>
+  <si>
+    <t>[Alexis K.%Okoh%alexis.okoh@rwjbh.org%0,                          Christoph%Sossou%NULL%0,                          Christoph%Sossou%NULL%0,                          Neha S.%Dangayach%NULL%0,                          Sherin%Meledathu%NULL%0,                          Oluwakemi%Phillips%NULL%0,                          Corinne%Raczek%NULL%0,                          Michael%Patti%NULL%0,                          Nathan%Kang%NULL%0,                          Sameer A.%Hirji%NULL%0,                          Charles%Cathcart%NULL%0,                          Christian%Engell%NULL%0,                          Marc%Cohen%NULL%0,                          Sandhya%Nagarakanti%NULL%0,                          Eliahu%Bishburg%NULL%0,                          Harpreet S.%Grewal%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -5005,6 +5836,9 @@
       <c r="I1" t="s">
         <v>265</v>
       </c>
+      <c r="J1" t="s">
+        <v>1274</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -5020,7 +5854,7 @@
         <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>1218</v>
+        <v>1496</v>
       </c>
       <c r="F2" t="s">
         <v>73</v>
@@ -5033,6 +5867,9 @@
       </c>
       <c r="I2" t="s">
         <v>1157</v>
+      </c>
+      <c r="J2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -5049,7 +5886,7 @@
         <v>260</v>
       </c>
       <c r="E3" t="s">
-        <v>1219</v>
+        <v>1497</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -5062,6 +5899,9 @@
       </c>
       <c r="I3" t="s">
         <v>1159</v>
+      </c>
+      <c r="J3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -5078,7 +5918,7 @@
         <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>1220</v>
+        <v>1498</v>
       </c>
       <c r="F4" t="s">
         <v>79</v>
@@ -5091,6 +5931,9 @@
       </c>
       <c r="I4" t="s">
         <v>1157</v>
+      </c>
+      <c r="J4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -5107,7 +5950,7 @@
         <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>1221</v>
+        <v>1499</v>
       </c>
       <c r="F5" t="s">
         <v>83</v>
@@ -5120,6 +5963,9 @@
       </c>
       <c r="I5" t="s">
         <v>1162</v>
+      </c>
+      <c r="J5" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -5136,7 +5982,7 @@
         <v>86</v>
       </c>
       <c r="E6" t="s">
-        <v>1222</v>
+        <v>1500</v>
       </c>
       <c r="F6" t="s">
         <v>87</v>
@@ -5149,6 +5995,9 @@
       </c>
       <c r="I6" t="s">
         <v>1157</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -5165,7 +6014,7 @@
         <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>1223</v>
+        <v>1501</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -5178,6 +6027,9 @@
       </c>
       <c r="I7" t="s">
         <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1280</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -5194,7 +6046,7 @@
         <v>90</v>
       </c>
       <c r="E8" t="s">
-        <v>1224</v>
+        <v>1502</v>
       </c>
       <c r="F8" t="s">
         <v>91</v>
@@ -5207,6 +6059,9 @@
       </c>
       <c r="I8" t="s">
         <v>1168</v>
+      </c>
+      <c r="J8" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -5223,7 +6078,7 @@
         <v>94</v>
       </c>
       <c r="E9" t="s">
-        <v>1225</v>
+        <v>1503</v>
       </c>
       <c r="F9" t="s">
         <v>95</v>
@@ -5236,6 +6091,9 @@
       </c>
       <c r="I9" t="s">
         <v>1157</v>
+      </c>
+      <c r="J9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -5252,7 +6110,7 @@
         <v>98</v>
       </c>
       <c r="E10" t="s">
-        <v>1226</v>
+        <v>1504</v>
       </c>
       <c r="F10" t="s">
         <v>99</v>
@@ -5265,6 +6123,9 @@
       </c>
       <c r="I10" t="s">
         <v>1157</v>
+      </c>
+      <c r="J10" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -5281,7 +6142,7 @@
         <v>102</v>
       </c>
       <c r="E11" t="s">
-        <v>1227</v>
+        <v>1505</v>
       </c>
       <c r="F11" t="s">
         <v>103</v>
@@ -5294,6 +6155,9 @@
       </c>
       <c r="I11" t="s">
         <v>1157</v>
+      </c>
+      <c r="J11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -5310,7 +6174,7 @@
         <v>106</v>
       </c>
       <c r="E12" t="s">
-        <v>1228</v>
+        <v>1506</v>
       </c>
       <c r="F12" t="s">
         <v>107</v>
@@ -5323,6 +6187,9 @@
       </c>
       <c r="I12" t="s">
         <v>1157</v>
+      </c>
+      <c r="J12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -5339,7 +6206,7 @@
         <v>109</v>
       </c>
       <c r="E13" t="s">
-        <v>1229</v>
+        <v>1507</v>
       </c>
       <c r="F13" t="s">
         <v>110</v>
@@ -5352,6 +6219,9 @@
       </c>
       <c r="I13" t="s">
         <v>1168</v>
+      </c>
+      <c r="J13" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -5368,7 +6238,7 @@
         <v>113</v>
       </c>
       <c r="E14" t="s">
-        <v>1230</v>
+        <v>1508</v>
       </c>
       <c r="F14" t="s">
         <v>114</v>
@@ -5381,6 +6251,9 @@
       </c>
       <c r="I14" t="s">
         <v>1157</v>
+      </c>
+      <c r="J14" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -5397,7 +6270,7 @@
         <v>776</v>
       </c>
       <c r="E15" t="s">
-        <v>1231</v>
+        <v>1509</v>
       </c>
       <c r="F15" t="s">
         <v>118</v>
@@ -5410,6 +6283,9 @@
       </c>
       <c r="I15" t="s">
         <v>1162</v>
+      </c>
+      <c r="J15" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -5426,7 +6302,7 @@
         <v>121</v>
       </c>
       <c r="E16" t="s">
-        <v>1232</v>
+        <v>1510</v>
       </c>
       <c r="F16" t="s">
         <v>122</v>
@@ -5439,6 +6315,9 @@
       </c>
       <c r="I16" t="s">
         <v>1168</v>
+      </c>
+      <c r="J16" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -5455,7 +6334,7 @@
         <v>779</v>
       </c>
       <c r="E17" t="s">
-        <v>1233</v>
+        <v>1511</v>
       </c>
       <c r="F17" t="s">
         <v>125</v>
@@ -5468,6 +6347,9 @@
       </c>
       <c r="I17" t="s">
         <v>1162</v>
+      </c>
+      <c r="J17" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -5484,7 +6366,7 @@
         <v>128</v>
       </c>
       <c r="E18" t="s">
-        <v>1234</v>
+        <v>1512</v>
       </c>
       <c r="F18" t="s">
         <v>129</v>
@@ -5497,6 +6379,9 @@
       </c>
       <c r="I18" t="s">
         <v>1168</v>
+      </c>
+      <c r="J18" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -5513,7 +6398,7 @@
         <v>131</v>
       </c>
       <c r="E19" t="s">
-        <v>1235</v>
+        <v>1513</v>
       </c>
       <c r="F19" t="s">
         <v>132</v>
@@ -5526,6 +6411,9 @@
       </c>
       <c r="I19" t="s">
         <v>1168</v>
+      </c>
+      <c r="J19" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -5542,7 +6430,7 @@
         <v>134</v>
       </c>
       <c r="E20" t="s">
-        <v>1236</v>
+        <v>1514</v>
       </c>
       <c r="F20" t="s">
         <v>135</v>
@@ -5555,6 +6443,9 @@
       </c>
       <c r="I20" t="s">
         <v>1157</v>
+      </c>
+      <c r="J20" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -5571,7 +6462,7 @@
         <v>137</v>
       </c>
       <c r="E21" t="s">
-        <v>1237</v>
+        <v>1515</v>
       </c>
       <c r="F21" t="s">
         <v>138</v>
@@ -5584,6 +6475,9 @@
       </c>
       <c r="I21" t="s">
         <v>266</v>
+      </c>
+      <c r="J21" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -5600,7 +6494,7 @@
         <v>141</v>
       </c>
       <c r="E22" t="s">
-        <v>1238</v>
+        <v>1516</v>
       </c>
       <c r="F22" t="s">
         <v>142</v>
@@ -5613,6 +6507,9 @@
       </c>
       <c r="I22" t="s">
         <v>1168</v>
+      </c>
+      <c r="J22" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -5629,7 +6526,7 @@
         <v>263</v>
       </c>
       <c r="E23" t="s">
-        <v>1239</v>
+        <v>1517</v>
       </c>
       <c r="F23" t="s">
         <v>23</v>
@@ -5642,6 +6539,9 @@
       </c>
       <c r="I23" t="s">
         <v>1159</v>
+      </c>
+      <c r="J23" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -5658,7 +6558,7 @@
         <v>144</v>
       </c>
       <c r="E24" t="s">
-        <v>1240</v>
+        <v>1518</v>
       </c>
       <c r="F24" t="s">
         <v>145</v>
@@ -5671,6 +6571,9 @@
       </c>
       <c r="I24" t="s">
         <v>1168</v>
+      </c>
+      <c r="J24" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -5687,7 +6590,7 @@
         <v>147</v>
       </c>
       <c r="E25" t="s">
-        <v>1241</v>
+        <v>1519</v>
       </c>
       <c r="F25" t="s">
         <v>148</v>
@@ -5700,6 +6603,9 @@
       </c>
       <c r="I25" t="s">
         <v>1157</v>
+      </c>
+      <c r="J25" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -5716,7 +6622,7 @@
         <v>789</v>
       </c>
       <c r="E26" t="s">
-        <v>1242</v>
+        <v>1520</v>
       </c>
       <c r="F26" t="s">
         <v>152</v>
@@ -5729,6 +6635,9 @@
       </c>
       <c r="I26" t="s">
         <v>1162</v>
+      </c>
+      <c r="J26" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -5745,7 +6654,7 @@
         <v>155</v>
       </c>
       <c r="E27" t="s">
-        <v>1243</v>
+        <v>1521</v>
       </c>
       <c r="F27" t="s">
         <v>156</v>
@@ -5758,6 +6667,9 @@
       </c>
       <c r="I27" t="s">
         <v>1157</v>
+      </c>
+      <c r="J27" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -5774,7 +6686,7 @@
         <v>158</v>
       </c>
       <c r="E28" t="s">
-        <v>1244</v>
+        <v>1522</v>
       </c>
       <c r="F28" t="s">
         <v>159</v>
@@ -5787,6 +6699,9 @@
       </c>
       <c r="I28" t="s">
         <v>1168</v>
+      </c>
+      <c r="J28" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -5803,7 +6718,7 @@
         <v>82</v>
       </c>
       <c r="E29" t="s">
-        <v>1245</v>
+        <v>1523</v>
       </c>
       <c r="F29" t="s">
         <v>162</v>
@@ -5816,6 +6731,9 @@
       </c>
       <c r="I29" t="s">
         <v>1157</v>
+      </c>
+      <c r="J29" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -5832,7 +6750,7 @@
         <v>165</v>
       </c>
       <c r="E30" t="s">
-        <v>1246</v>
+        <v>1524</v>
       </c>
       <c r="F30" t="s">
         <v>166</v>
@@ -5845,6 +6763,9 @@
       </c>
       <c r="I30" t="s">
         <v>1168</v>
+      </c>
+      <c r="J30" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -5861,7 +6782,7 @@
         <v>168</v>
       </c>
       <c r="E31" t="s">
-        <v>1247</v>
+        <v>1525</v>
       </c>
       <c r="F31" t="s">
         <v>169</v>
@@ -5874,6 +6795,9 @@
       </c>
       <c r="I31" t="s">
         <v>1157</v>
+      </c>
+      <c r="J31" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -5890,7 +6814,7 @@
         <v>172</v>
       </c>
       <c r="E32" t="s">
-        <v>1248</v>
+        <v>1526</v>
       </c>
       <c r="F32" t="s">
         <v>173</v>
@@ -5903,6 +6827,9 @@
       </c>
       <c r="I32" t="s">
         <v>1168</v>
+      </c>
+      <c r="J32" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -5919,7 +6846,7 @@
         <v>176</v>
       </c>
       <c r="E33" t="s">
-        <v>1249</v>
+        <v>1527</v>
       </c>
       <c r="F33" t="s">
         <v>177</v>
@@ -5932,6 +6859,9 @@
       </c>
       <c r="I33" t="s">
         <v>1168</v>
+      </c>
+      <c r="J33" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -5948,7 +6878,7 @@
         <v>180</v>
       </c>
       <c r="E34" t="s">
-        <v>1250</v>
+        <v>1528</v>
       </c>
       <c r="F34" t="s">
         <v>181</v>
@@ -5961,6 +6891,9 @@
       </c>
       <c r="I34" t="s">
         <v>1157</v>
+      </c>
+      <c r="J34" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -5977,7 +6910,7 @@
         <v>183</v>
       </c>
       <c r="E35" t="s">
-        <v>1251</v>
+        <v>1529</v>
       </c>
       <c r="F35" t="s">
         <v>184</v>
@@ -5990,6 +6923,9 @@
       </c>
       <c r="I35" t="s">
         <v>1157</v>
+      </c>
+      <c r="J35" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -6006,7 +6942,7 @@
         <v>187</v>
       </c>
       <c r="E36" t="s">
-        <v>1252</v>
+        <v>1530</v>
       </c>
       <c r="F36" t="s">
         <v>188</v>
@@ -6019,6 +6955,9 @@
       </c>
       <c r="I36" t="s">
         <v>1157</v>
+      </c>
+      <c r="J36" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -6035,7 +6974,7 @@
         <v>191</v>
       </c>
       <c r="E37" t="s">
-        <v>1253</v>
+        <v>1531</v>
       </c>
       <c r="F37" t="s">
         <v>192</v>
@@ -6048,6 +6987,9 @@
       </c>
       <c r="I37" t="s">
         <v>1168</v>
+      </c>
+      <c r="J37" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -6064,7 +7006,7 @@
         <v>194</v>
       </c>
       <c r="E38" t="s">
-        <v>1254</v>
+        <v>1532</v>
       </c>
       <c r="F38" t="s">
         <v>195</v>
@@ -6077,6 +7019,9 @@
       </c>
       <c r="I38" t="s">
         <v>1168</v>
+      </c>
+      <c r="J38" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -6093,7 +7038,7 @@
         <v>197</v>
       </c>
       <c r="E39" t="s">
-        <v>1255</v>
+        <v>1533</v>
       </c>
       <c r="F39" t="s">
         <v>198</v>
@@ -6106,6 +7051,9 @@
       </c>
       <c r="I39" t="s">
         <v>1157</v>
+      </c>
+      <c r="J39" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -6122,7 +7070,7 @@
         <v>64</v>
       </c>
       <c r="E40" t="s">
-        <v>1256</v>
+        <v>1534</v>
       </c>
       <c r="F40" t="s">
         <v>41</v>
@@ -6135,6 +7083,9 @@
       </c>
       <c r="I40" t="s">
         <v>1159</v>
+      </c>
+      <c r="J40" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -6151,7 +7102,7 @@
         <v>201</v>
       </c>
       <c r="E41" t="s">
-        <v>1257</v>
+        <v>1535</v>
       </c>
       <c r="F41" t="s">
         <v>202</v>
@@ -6164,6 +7115,9 @@
       </c>
       <c r="I41" t="s">
         <v>1157</v>
+      </c>
+      <c r="J41" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -6180,7 +7134,7 @@
         <v>204</v>
       </c>
       <c r="E42" t="s">
-        <v>1258</v>
+        <v>1536</v>
       </c>
       <c r="F42" t="s">
         <v>205</v>
@@ -6193,6 +7147,9 @@
       </c>
       <c r="I42" t="s">
         <v>1157</v>
+      </c>
+      <c r="J42" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -6209,7 +7166,7 @@
         <v>807</v>
       </c>
       <c r="E43" t="s">
-        <v>1259</v>
+        <v>1537</v>
       </c>
       <c r="F43" t="s">
         <v>209</v>
@@ -6222,6 +7179,9 @@
       </c>
       <c r="I43" t="s">
         <v>1162</v>
+      </c>
+      <c r="J43" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -6238,7 +7198,7 @@
         <v>82</v>
       </c>
       <c r="E44" t="s">
-        <v>1260</v>
+        <v>1538</v>
       </c>
       <c r="F44" t="s">
         <v>212</v>
@@ -6251,6 +7211,9 @@
       </c>
       <c r="I44" t="s">
         <v>1168</v>
+      </c>
+      <c r="J44" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -6267,7 +7230,7 @@
         <v>215</v>
       </c>
       <c r="E45" t="s">
-        <v>1261</v>
+        <v>1539</v>
       </c>
       <c r="F45" t="s">
         <v>216</v>
@@ -6280,6 +7243,9 @@
       </c>
       <c r="I45" t="s">
         <v>1157</v>
+      </c>
+      <c r="J45" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -6296,7 +7262,7 @@
         <v>82</v>
       </c>
       <c r="E46" t="s">
-        <v>1262</v>
+        <v>1540</v>
       </c>
       <c r="F46" t="s">
         <v>219</v>
@@ -6309,6 +7275,9 @@
       </c>
       <c r="I46" t="s">
         <v>1168</v>
+      </c>
+      <c r="J46" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -6339,6 +7308,9 @@
       <c r="I47" t="s">
         <v>1157</v>
       </c>
+      <c r="J47" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
@@ -6354,7 +7326,7 @@
         <v>752</v>
       </c>
       <c r="E48" t="s">
-        <v>1263</v>
+        <v>1541</v>
       </c>
       <c r="F48" t="s">
         <v>49</v>
@@ -6367,6 +7339,9 @@
       </c>
       <c r="I48" t="s">
         <v>1159</v>
+      </c>
+      <c r="J48" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -6383,7 +7358,7 @@
         <v>82</v>
       </c>
       <c r="E49" t="s">
-        <v>1264</v>
+        <v>1542</v>
       </c>
       <c r="F49" t="s">
         <v>229</v>
@@ -6396,6 +7371,9 @@
       </c>
       <c r="I49" t="s">
         <v>1168</v>
+      </c>
+      <c r="J49" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -6412,7 +7390,7 @@
         <v>231</v>
       </c>
       <c r="E50" t="s">
-        <v>1265</v>
+        <v>1543</v>
       </c>
       <c r="F50" t="s">
         <v>232</v>
@@ -6425,6 +7403,9 @@
       </c>
       <c r="I50" t="s">
         <v>1157</v>
+      </c>
+      <c r="J50" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -6441,7 +7422,7 @@
         <v>235</v>
       </c>
       <c r="E51" t="s">
-        <v>1266</v>
+        <v>1544</v>
       </c>
       <c r="F51" t="s">
         <v>236</v>
@@ -6454,6 +7435,9 @@
       </c>
       <c r="I51" t="s">
         <v>1157</v>
+      </c>
+      <c r="J51" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -6470,7 +7454,7 @@
         <v>64</v>
       </c>
       <c r="E52" t="s">
-        <v>1267</v>
+        <v>816</v>
       </c>
       <c r="F52" t="s">
         <v>53</v>
@@ -6479,10 +7463,13 @@
         <v>590</v>
       </c>
       <c r="H52" t="s">
-        <v>591</v>
+        <v>1324</v>
       </c>
       <c r="I52" t="s">
-        <v>1159</v>
+        <v>82</v>
+      </c>
+      <c r="J52" t="s">
+        <v>1325</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -6499,7 +7486,7 @@
         <v>239</v>
       </c>
       <c r="E53" t="s">
-        <v>1268</v>
+        <v>1545</v>
       </c>
       <c r="F53" t="s">
         <v>240</v>
@@ -6512,6 +7499,9 @@
       </c>
       <c r="I53" t="s">
         <v>1157</v>
+      </c>
+      <c r="J53" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -6528,7 +7518,7 @@
         <v>818</v>
       </c>
       <c r="E54" t="s">
-        <v>1269</v>
+        <v>1546</v>
       </c>
       <c r="F54" t="s">
         <v>243</v>
@@ -6541,6 +7531,9 @@
       </c>
       <c r="I54" t="s">
         <v>1162</v>
+      </c>
+      <c r="J54" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -6557,7 +7550,7 @@
         <v>246</v>
       </c>
       <c r="E55" t="s">
-        <v>1270</v>
+        <v>1547</v>
       </c>
       <c r="F55" t="s">
         <v>247</v>
@@ -6570,6 +7563,9 @@
       </c>
       <c r="I55" t="s">
         <v>1157</v>
+      </c>
+      <c r="J55" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -6586,7 +7582,7 @@
         <v>249</v>
       </c>
       <c r="E56" t="s">
-        <v>1271</v>
+        <v>1548</v>
       </c>
       <c r="F56" t="s">
         <v>250</v>
@@ -6599,6 +7595,9 @@
       </c>
       <c r="I56" t="s">
         <v>1157</v>
+      </c>
+      <c r="J56" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -6615,7 +7614,7 @@
         <v>822</v>
       </c>
       <c r="E57" t="s">
-        <v>1272</v>
+        <v>1549</v>
       </c>
       <c r="F57" t="s">
         <v>254</v>
@@ -6628,6 +7627,9 @@
       </c>
       <c r="I57" t="s">
         <v>1162</v>
+      </c>
+      <c r="J57" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -6644,7 +7646,7 @@
         <v>824</v>
       </c>
       <c r="E58" t="s">
-        <v>1273</v>
+        <v>1550</v>
       </c>
       <c r="F58" t="s">
         <v>257</v>
@@ -6657,6 +7659,9 @@
       </c>
       <c r="I58" t="s">
         <v>1162</v>
+      </c>
+      <c r="J58" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/44.xlsx
+++ b/Covid_19_Dataset_and_References/References/44.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9688" uniqueCount="1551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10616" uniqueCount="1661">
   <si>
     <t>Doi</t>
   </si>
@@ -5499,6 +5499,336 @@
   </si>
   <si>
     <t>[Alexis K.%Okoh%alexis.okoh@rwjbh.org%0,                          Christoph%Sossou%NULL%0,                          Christoph%Sossou%NULL%0,                          Neha S.%Dangayach%NULL%0,                          Sherin%Meledathu%NULL%0,                          Oluwakemi%Phillips%NULL%0,                          Corinne%Raczek%NULL%0,                          Michael%Patti%NULL%0,                          Nathan%Kang%NULL%0,                          Sameer A.%Hirji%NULL%0,                          Charles%Cathcart%NULL%0,                          Christian%Engell%NULL%0,                          Marc%Cohen%NULL%0,                          Sandhya%Nagarakanti%NULL%0,                          Eliahu%Bishburg%NULL%0,                          Harpreet S.%Grewal%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%0,                           Lian%Yang%NULL%0,                           Yuncheng%Li%NULL%0,                           Bo%Liang%NULL%0,                           Lin%Li%NULL%0,                           Tianhe%Ye%NULL%0,                           Lingli%Li%NULL%0,                           Dehan%Liu%NULL%0,                           Shan%Gui%NULL%0,                           Yu%Hu%NULL%0,                           Chuansheng%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                          Becker%L.B.%coreGivesNoEmail%0,                          Chelico%J.D.%coreGivesNoEmail%0,                          Cohen%S.L.%coreGivesNoEmail%0,                          Cookingham%J.%coreGivesNoEmail%0,                          Coppa%K.%coreGivesNoEmail%0,                          Crawford%J.M.%coreGivesNoEmail%0,                          Davidson%K.W.%coreGivesNoEmail%0,                          Diefenbach%M.A.%coreGivesNoEmail%0,                          Dominello%A.J.%coreGivesNoEmail%0,                          Duer-Hefele%J.%coreGivesNoEmail%0,                          Falzon%L.%coreGivesNoEmail%0,                          Gitlin%J.%coreGivesNoEmail%0,                          Hajizadeh%N.%coreGivesNoEmail%0,                          Harvin%T.G.%coreGivesNoEmail%0,                          Hirsch%J.S.%coreGivesNoEmail%0,                          Hirschwerk%D.A.%coreGivesNoEmail%0,                          Kim%E.J.%coreGivesNoEmail%0,                          Kozel%Z.M.%coreGivesNoEmail%0,                          Marrast%L.M.%coreGivesNoEmail%0,                          McGinn%T.%coreGivesNoEmail%0,                          Mogavero%J.N.%coreGivesNoEmail%0,                          Narasimhan%M.%coreGivesNoEmail%0,                          Osorio%G.A.%coreGivesNoEmail%0,                          Qiu%M.%coreGivesNoEmail%0,                          Richardson%S.%coreGivesNoEmail%0,                          Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Mario%Rivera-Izquierdo%NULL%0,                           María%del Carmen Valero-Ubierna%NULL%0,                           María%del Carmen Valero-Ubierna%NULL%0,                           Juan Luis%R-delAmo%NULL%0,                           Miguel Ángel%Fernández-García%NULL%0,                           Silvia%Martínez-Diz%NULL%0,                           Arezu%Tahery-Mahmoud%NULL%0,                           Marta%Rodríguez-Camacho%NULL%0,                           Ana Belén%Gámiz-Molina%NULL%0,                           Nicolás%Barba-Gyengo%NULL%0,                           Pablo%Gámez-Baeza%NULL%0,                           Celia%Cabrero-Rodríguez%NULL%0,                           Pedro Antonio%Guirado-Ruiz%NULL%0,                           Divina Tatiana%Martín-Romero%NULL%0,                           Antonio Jesús%Láinez-Ramos-Bossini%NULL%0,                           María Rosa%Sánchez-Pérez%NULL%0,                           José%Mancera-Romero%NULL%0,                           Miguel%García-Martín%NULL%0,                           Luis Miguel%Martín-delosReyes%NULL%0,                           Virginia%Martínez-Ruiz%NULL%0,                           Virginia%Martínez-Ruiz%NULL%0,                           Pablo%Lardelli-Claret%NULL%0,                           Eladio%Jiménez-Mejías%NULL%0,                           Muhammad%Adrish%NULL%0,                           Muhammad%Adrish%NULL%0,                           NULL%NULL%NULL%0,                           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,                           Kun%Yang%NULL%0,                           Kun%Yang%NULL%0,                           Wenxia%Wang%NULL%0,                           Wenxia%Wang%NULL%0,                           Lingyu%Jiang%NULL%0,                           Lingyu%Jiang%NULL%0,                           Jianxin%Song%songsingsjx@sina.com%0,                           Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Grace%Salacup%salacupg@einstein.edu%0,                           Kevin Bryan%Lo%NULL%0,                           Kevin Bryan%Lo%NULL%0,                           Fahad%Gul%NULL%0,                           Eric%Peterson%NULL%0,                           Robert%De Joy%NULL%0,                           Ruchika%Bhargav%NULL%0,                           Jerald%Pelayo%NULL%0,                           Jeri%Albano%NULL%0,                           Zurab%Azmaiparashvili%NULL%0,                           Sadia%Benzaquen%NULL%0,                           Gabriel%Patarroyo‐Aponte%NULL%0,                           Janani%Rangaswami%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Priyank%Shah%xref no email%0,      Jack%Owens%xref no email%0,      James%Franklin%xref no email%0,      Akshat%Mehta%xref no email%0,      William%Heymann%xref no email%0,      William%Sewell%xref no email%0,      Jennifer%Hill%xref no email%0,      Krista%Barfield%xref no email%0,      Rajkumar%Doshi%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Yufeng%Shang%NULL%0,                           Tao%Liu%NULL%0,                           Yongchang%Wei%NULL%0,                           Jingfeng%Li%NULL%0,                           Liang%Shao%NULL%0,                           Minghui%Liu%NULL%0,                           Yongxi%Zhang%NULL%0,                           Zhigang%Zhao%NULL%0,                           Haibo%Xu%NULL%0,                           Zhiyong%Peng%NULL%0,                           Fuling%Zhou%zhoufuling@whu.edu.cn%0,                           Xinghuan%Wang%wangxinghuan@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,                           Mu%Qin%qinmuae@163.com%0,                           Yuli%Cai%NULL%0,                           Tao%Liu%NULL%0,                           Bo%Shen%NULL%0,                           Fan%Yang%NULL%0,                           Sheng%Cao%NULL%0,                           Xu%Liu%NULL%0,                           Xu%Liu%NULL%0,                           Yaozu%Xiang%NULL%0,                           Qinyan%Zhao%NULL%0,                           He%Huang%huanghe1977@whu.edu.cn%0,                           Bo%Yang%yybb112@whu.edu.cn%0,                           Congxin%Huang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rita de Cássia Menezes%Soares%NULL%0,                           Larissa Rodrigues%Mattos%NULL%0,                           Letícia Martins%Raposo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,                           Ruoqi%Ning%NULL%0,                           Yu%Tao%NULL%0,                           Chong%Yu%NULL%0,                           Xiaoyan%Deng%NULL%0,                           Caili%Zhao%NULL%0,                           Silu%Meng%NULL%0,                           Fangxu%Tang%89650793@qq.com%0,                           Dong%Xu%89650793@qq.com%0,                           Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Kun%Wang%NULL%0,                           Peiyuan%Zuo%NULL%0,                           Yuwei%Liu%NULL%0,                           Meng%Zhang%NULL%0,                           Xiaofang%Zhao%NULL%0,                           Songpu%Xie%NULL%0,                           Hao%Zhang%NULL%0,                           Xinglin%Chen%NULL%0,                           Chengyun%Liu%chengyunliu@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Bo%XU%NULL%0,                           Cun-yu%FAN%NULL%0,                           An-lu%WANG%NULL%0,                           Yi-long%ZOU%NULL%0,                           Yi-han%YU%NULL%0,                           Cong%HE%NULL%0,                           Wen-guang%XIA%NULL%0,                           Ji-xian%ZHANG%NULL%0,                           Qing%MIAO%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xisheng%Yan%NULL%0,                           Fen%Li%NULL%0,                           Xiao%Wang%NULL%0,                           Jie%Yan%NULL%0,                           Fen%Zhu%NULL%0,                           Shifan%Tang%NULL%0,                           Yingzhong%Deng%NULL%0,                           Hua%Wang%NULL%0,                           Rui%Chen%NULL%0,                           Zhili%Yu%NULL%0,                           Yaping%Li%NULL%0,                           Jingzhou%Shang%NULL%0,                           Lingjun%Zeng%NULL%0,                           Jie%Zhao%NULL%0,                           Chaokun%Guan%NULL%0,                           Qiaomei%Liu%NULL%0,                           Haifeng%Chen%NULL%0,                           Wei%Gong%NULL%0,                           Xin%Huang%NULL%0,                           Yu‐Jiao%Zhang%NULL%0,                           Jianguang%Liu%NULL%0,                           Xiaoyan%Dong%NULL%0,                           Wen%Zheng%zhengwen12@mails.jlu.edu.cn%0,                           Shaoping%Nie%spnie@126.com%0,                           Dongsheng%Li%dongshengli196809@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qing%Yang%NULL%0,                           Ying%Zhou%NULL%0,                           Xinrong%Wang%NULL%0,                           Shan%Gao%NULL%0,                           Yang%Xiao%NULL%0,                           Weiming%Zhang%NULL%0,                           Yi%Hu%huyizxyy@163.com%0,                           Yafei%Wang%wyf_527@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                           Qingyu%Yang%NULL%0,                           Yaxin%Wang%NULL%0,                           Yongran%Wu%NULL%0,                           Jiqian%Xu%NULL%0,                           Yuan%Yu%NULL%0,                           You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wenjing%Ye%yewenjing@xinhuamed.com.cn%0,                           Guoxi%Chen%4799082@qq.com%0,                           Xiaopan%Li%xiaopanli0224@126.com%0,                           Xing%Lan%474137452@qq.com%0,                           Chen%Ji%c.ji.3@warwick.ac.uk%0,                           Min%Hou%min-hou710@hotmail.com%0,                           Di%Zhang%zhangdizhangdi1234@163.com%0,                           Guangwang%Zeng%785663609@qq.com%0,                           Yaling%Wang%953822402@qq.com%0,                           Cheng%Xu%xucheng112358@126.com%0,                           Weiwei%Lu%luweiwei100@126.com%0,                           Ruolin%Cui%crlqwerty@163.com%0,                           Yuyang%Cai%caiyuyang@sjtu.edu.cn%0,                           Hai%Huang%1220775601@qq.com%0,                           Ling%Yang%yangling01@xinhuamed.com.cn%0]</t>
+  </si>
+  <si>
+    <t>[Caizheng%Yu%NULL%0,                           Qing%Lei%NULL%0,                           Wenkai%Li%NULL%0,                           Xiong%Wang%NULL%0,                           Wei%Liu%NULL%0,                           Xionglin%Fan%NULL%0,                           Wengang%Li%228907211@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                           Ting%Yu%NULL%0,                           Ronghui%Du%NULL%0,                           Guohui%Fan%NULL%0,                           Ying%Liu%NULL%0,                           Zhibo%Liu%NULL%0,                           Jie%Xiang%NULL%0,                           Yeming%Wang%NULL%0,                           Bin%Song%NULL%0,                           Xiaoying%Gu%NULL%0,                           Lulu%Guan%NULL%0,                           Yuan%Wei%NULL%0,                           Hui%Li%NULL%0,                           Xudong%Wu%NULL%0,                           Jiuyang%Xu%NULL%0,                           Shengjin%Tu%NULL%0,                           Yi%Zhang%NULL%0,                           Hua%Chen%NULL%0,                           Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Moran%Amit%NULL%0,                           Alex%Sorkin%NULL%0,                           Jacob%Chen%NULL%0,                           Barak%Cohen%NULL%0,                           Barak%Cohen%NULL%0,                           Dana%Karol%NULL%0,                           Dana%Karol%NULL%0,                           Avishai M%Tsur%NULL%0,                           Shaul%Lev%NULL%0,                           Shaul%Lev%NULL%0,                           Tal%Rozenblat%NULL%0,                           Ayana%Dvir%NULL%0,                           Ayana%Dvir%NULL%0,                           Geva%Landau%NULL%0,                           Lidar%Fridrich%NULL%0,                           Lidar%Fridrich%NULL%0,                           Elon%Glassberg%NULL%0,                           Shani%Kesari%NULL%0,                           Sigal%Sviri%NULL%0,                           Ram%Gelman%NULL%0,                           Asaf%Miller%NULL%0,                           Danny%Epstein%NULL%0,                           Ronny%Ben-Avi%NULL%0,                           Ronny%Ben-Avi%NULL%0,                           Moshe%Matan%NULL%0,                           Daniel J.%Jakobson%NULL%0,                           Daniel J.%Jakobson%NULL%0,                           Tarif%Bader%NULL%0,                           Tarif%Bader%NULL%0,                           David%Dahan%NULL%0,                           David%Dahan%NULL%0,                           Daniel A.%King%NULL%0,                           Anat%Ben-Ari%NULL%0,                           Arie%Soroksky%NULL%0,                           Alon%Bar%NULL%0,                           Alon%Bar%NULL%0,                           Noam%Fink%NULL%0,                           Pierre%Singer%NULL%0,                           Avi%Benov%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,                           John R%Adler%NULL%0,                           Muhammad Sohaib%Asghar%NULL%0,                           Muhammad Sohaib%Asghar%NULL%0,                           Syed Jawad%Haider Kazmi%NULL%0,                           Noman%Ahmed Khan%NULL%0,                           Mohammed%Akram%NULL%0,                           Salman%Ahmed Khan%NULL%0,                           Uzma%Rasheed%NULL%0,                           Maira%Hassan%NULL%0,                           Gul Muhammad%Memon%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pedro%Baqui%NULL%0,                           Ioana%Bica%NULL%0,                           Valerio%Marra%marra@cosmo-ufes.org%0,                           Ari%Ercole%NULL%0,                           Mihaela%van der Schaar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anesi%Adriano%coreGivesNoEmail%0,                          Bettinardi%Alessandra%coreGivesNoEmail%0,                          Bonetti%Graziella%coreGivesNoEmail%0,                          Borrelli%Gianluca%coreGivesNoEmail%0,                          Fiordalisi%Gianfranco%coreGivesNoEmail%0,                          Lippi%Giuseppe%coreGivesNoEmail%0,                          Manelli%Filippo%coreGivesNoEmail%0,                          Marino%Antonio%coreGivesNoEmail%0,                          Menolfi%Annamaria%coreGivesNoEmail%0,                          Patroni%Andrea%coreGivesNoEmail%0,                          Saggini%Sara%coreGivesNoEmail%0,                          Volpi%Roberta%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Andrea%Borghesi%NULL%0,                           Angelo%Zigliani%NULL%0,                           Salvatore%Golemi%NULL%0,                           Nicola%Carapella%NULL%0,                           Patrizia%Maculotti%NULL%0,                           Davide%Farina%NULL%0,                           Roberto%Maroldi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alberto M.%Borobia%NULL%0,                           Antonio J.%Carcas%NULL%0,                           Antonio J.%Carcas%NULL%0,                           Francisco%Arnalich%NULL%0,                           Rodolfo%Álvarez-Sala%NULL%0,                           Rodolfo%Álvarez-Sala%NULL%0,                           Jaime%Monserrat-Villatoro%NULL%0,                           Manuel%Quintana%NULL%0,                           Juan Carlos%Figueira%NULL%0,                           Rosario M.%Torres Santos-Olmo%NULL%0,                           Julio%García-Rodríguez%NULL%0,                           Julio%García-Rodríguez%NULL%0,                           Alberto%Martín-Vega%NULL%0,                           Antonio%Buño%NULL%0,                           Elena%Ramírez%NULL%0,                           Gonzalo%Martínez-Alés%NULL%0,                           Gonzalo%Martínez-Alés%NULL%0,                           Nicolás%García-Arenzana%NULL%0,                           M. Concepción%Núñez%NULL%0,                           M. Concepción%Núñez%NULL%0,                           Milagros%Martí-de-Gracia%NULL%0,                           Francisco%Moreno Ramos%NULL%0,                           Francisco%Reinoso-Barbero%NULL%0,                           Alejandro%Martin-Quiros%NULL%0,                           Angélica%Rivera Núñez%NULL%0,                           Jesús%Mingorance%NULL%0,                           Carlos J.%Carpio Segura%NULL%0,                           Carlos J.%Carpio Segura%NULL%0,                           Daniel%Prieto Arribas%NULL%0,                           Esther%Rey Cuevas%NULL%0,                           Concepción%Prados Sánchez%NULL%0,                           Juan J.%Rios%NULL%0,                           Miguel A.%Hernán%NULL%0,                           Jesús%Frías%NULL%0,                           José R.%Arribas%NULL%0,                           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simon E.%Brill%simon.brill@nhs.net%0,                           Hannah C.%Jarvis%NULL%0,                           Hannah C.%Jarvis%NULL%0,                           Ezgi%Ozcan%NULL%0,                           Thomas L. P.%Burns%NULL%0,                           Rabia A.%Warraich%NULL%0,                           Lisa J.%Amani%NULL%0,                           Amina%Jaffer%NULL%0,                           Stephanie%Paget%NULL%0,                           Anand%Sivaramakrishnan%NULL%0,                           Dean D.%Creer%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                           Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                           Wenlin%Cheng%NULL%0,                           Lei%Yu%NULL%0,                           Ya-Kun%Liu%NULL%0,                           Xiaoyong%Hu%NULL%0,                           Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[B.%Carter%NULL%0,                           J.T.%Collins%NULL%0,                           F.%Barlow-Pay%NULL%0,                           F.%Rickard%NULL%0,                           E.%Bruce%NULL%0,                           A.%Verduri%NULL%0,                           T.J.%Quinn%NULL%0,                           E.%Mitchell%NULL%0,                           A.%Price%NULL%0,                           A.%Vilches-Moraga%NULL%0,                           M.J.%Stechman%NULL%0,                           R.%Short%NULL%0,                           A.%Einarsson%NULL%0,                           P.%Braude%NULL%0,                           S.%Moug%NULL%0,                           P.K.%Myint%NULL%0,                           J.%Hewitt%NULL%0,                           L.%Pearce%NULL%0,                           K.%McCarthy%NULL%0,                           C.%Davey%NULL%0,                           S.%Jones%NULL%0,                           K.%Lunstone%NULL%0,                           A.%Cavenagh%NULL%0,                           C.%Silver%NULL%0,                           T.%Telford%NULL%0,                           R.%Simmons%NULL%0,                           M.%Holloway%NULL%0,                           J.%Hesford%NULL%0,                           T.%El Jichi Mutasem%NULL%0,                           S.%Singh%NULL%0,                           D.%Paxton%NULL%0,                           W.%Harris%NULL%0,                           N.%Galbraith%NULL%0,                           E.%Bhatti%NULL%0,                           J.%Edwards%NULL%0,                           S.%Duffy%NULL%0,                           J.%Kelly%NULL%0,                           C.%Murphy%NULL%0,                           C.%Bisset%NULL%0,                           R.%Alexander%NULL%0,                           M.%Garcia%NULL%0,                           S.%Sangani%NULL%0,                           T.%Kneen%NULL%0,                           T.%Lee%NULL%0,                           A.%McGovern%NULL%0,                           G.%Guaraldi%NULL%0,                           E.%Clini%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fuyang%Chen%NULL%0,                           Wenwu%Sun%NULL%0,                           Shengrong%Sun%NULL%0,                           Zhiyu%Li%lizhiyu@whu.edu.cn%0,                           Zhong%Wang%zhongwangchn@whu.edu.cn%0,                           Li%Yu%yuliwhzxyy@163.com%0,                           Li%Yu%yuliwhzxyy@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,                           Ling%Sang%NULL%0,                           Mei%Jiang%NULL%0,                           Zhaowei%Yang%NULL%0,                           Nan%Jia%NULL%0,                           Wanyi%Fu%NULL%0,                           Jiaxing%Xie%NULL%0,                           Weijie%Guan%NULL%0,                           Wenhua%Liang%NULL%0,                           Zhengyi%Ni%NULL%0,                           Yu%Hu%NULL%0,                           Lei%Liu%NULL%0,                           Hong%Shan%NULL%0,                           Chunliang%Lei%NULL%0,                           Yixiang%Peng%NULL%0,                           Li%Wei%NULL%0,                           Yong%Liu%NULL%0,                           Yahua%Hu%NULL%0,                           Peng%Peng%NULL%0,                           Jianming%Wang%NULL%0,                           Jiyang%Liu%NULL%0,                           Zhong%Chen%NULL%0,                           Gang%Li%NULL%0,                           Zhijian%Zheng%NULL%0,                           Shaoqin%Qiu%NULL%0,                           Jie%Luo%NULL%0,                           Changjiang%Ye%NULL%0,                           Shaoyong%Zhu%NULL%0,                           Jinping%Zheng%NULL%0,                           Nuofu%Zhang%NULL%0,                           Yimin%Li%NULL%0,                           Jianxing%He%NULL%0,                           Jing%Li%NULL%0,                           Shiyue%Li%NULL%0,                           Nanshan%Zhong%NULL%0,                           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                           Di%Wu%NULL%0,                           Huilong%Chen%NULL%0,                           Weiming%Yan%NULL%0,                           Danlei%Yang%NULL%0,                           Guang%Chen%NULL%0,                           Ke%Ma%NULL%0,                           Dong%Xu%NULL%0,                           Haijing%Yu%NULL%0,                           Hongwu%Wang%NULL%0,                           Tao%Wang%NULL%0,                           Wei%Guo%NULL%0,                           Jia%Chen%NULL%0,                           Chen%Ding%NULL%0,                           Xiaoping%Zhang%NULL%0,                           Jiaquan%Huang%NULL%0,                           Meifang%Han%NULL%0,                           Shusheng%Li%NULL%0,                           Xiaoping%Luo%NULL%0,                           Jianping%Zhao%NULL%0,                           Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anying%Cheng%NULL%0,                           Liu%Hu%NULL%0,                           Yiru%Wang%NULL%0,                           Luyan%Huang%NULL%0,                           Lingxi%Zhao%NULL%0,                           Congcong%Zhang%NULL%0,                           Xiyue%Liu%NULL%0,                           Ranran%Xu%NULL%0,                           Feng%Liu%NULL%0,                           Jinping%Li%NULL%0,                           Dawei%Ye%NULL%0,                           Tao%Wang%NULL%0,                           Yongman%Lv%lvyongman@126.com%0,                           Qingquan%Liu%qqliutj@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fabio%Ciceri%ciceri.fabio@hsr.it%0,                           Antonella%Castagna%NULL%0,                           Patrizia%Rovere-Querini%NULL%0,                           Francesco%De Cobelli%NULL%0,                           Annalisa%Ruggeri%NULL%0,                           Laura%Galli%NULL%0,                           Caterina%Conte%NULL%0,                           Rebecca%De Lorenzo%NULL%0,                           Andrea%Poli%NULL%0,                           Alberto%Ambrosio%NULL%0,                           Carlo%Signorelli%NULL%0,                           Eleonora%Bossi%NULL%0,                           Maria%Fazio%NULL%0,                           Cristina%Tresoldi%NULL%0,                           Sergio%Colombo%NULL%0,                           Giacomo%Monti%NULL%0,                           Efgeny%Fominskiy%NULL%0,                           Stefano%Franchini%NULL%0,                           Marzia%Spessot%NULL%0,                           Carlo%Martinenghi%NULL%0,                           Michele%Carlucci%NULL%0,                           Luigi%Beretta%NULL%0,                           Anna Maria%Scandroglio%NULL%0,                           Massimo%Clementi%NULL%0,                           Massimo%Locatelli%NULL%0,                           Moreno%Tresoldi%NULL%0,                           Paolo%Scarpellini%NULL%0,                           Gianvito%Martino%NULL%0,                           Emanuele%Bosi%NULL%0,                           Lorenzo%Dagna%NULL%0,                           Adriano%Lazzarin%NULL%0,                           Giovanni%Landoni%NULL%0,                           Alberto%Zangrillo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,                           Wei%Liu%NULL%0,                           Kui%Liu%NULL%0,                           Yuan-Yuan%Fang%NULL%0,                           Jin%Shang%NULL%0,                           Ling%Zhou%NULL%0,                           Ke%Wang%NULL%0,                           Fan%Leng%NULL%0,                           Shuang%Wei%NULL%0,                           Lei%Chen%NULL%0,                           Hui-Guo%Liu%NULL%0,                           Pei-Fang%Wei%NULL%0,                           Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                           Li-Rong%Liang%NULL%0,                           Cheng-Qing%Yang%NULL%0,                           Wen%Wang%NULL%0,                           Tan-Ze%Cao%NULL%0,                           Ming%Li%NULL%0,                           Guang-Yun%Guo%NULL%0,                           Juan%Du%NULL%0,                           Chun-Lan%Zheng%NULL%0,                           Qi%Zhu%NULL%0,                           Ming%Hu%NULL%0,                           Xu-Yan%Li%NULL%0,                           Peng%Peng%NULL%0,                           Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shan%Gao%NULL%0,                           Fang%Jiang%NULL%0,                           Wei%Jin%NULL%0,                           Yuan%Shi%NULL%0,                           Leilei%Yang%NULL%0,                           Yanqiong%Xia%NULL%0,                           Linyan%Jia%NULL%0,                           Bo%Wang%NULL%0,                           Han%Lin%NULL%0,                           Yin%Cai%NULL%0,                           Zhengyuan%Xia%NULL%0,                           Jian%Peng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pedro David%Wendel Garcia%pedrodavid.wendelgarcia@usz.ch%0,                           Thierry%Fumeaux%thierry.fumeaux@ghol.ch%0,                           Philippe%Guerci%NULL%0,                           Dorothea Monika%Heuberger%dorotheamonika.heuberger@usz.ch%0,                           Jonathan%Montomoli%NULL%0,                           Ferran%Roche-Campo%NULL%0,                           Reto Andreas%Schuepbach%reto.schuepbach@usz.ch%0,                           Matthias Peter%Hilty%matthias.hilty@usz.ch%0,                           Mario%Alfaro Farias%NULL%0,                           Antoni%Margarit%NULL%0,                           Gerardo%Vizmanos-Lamotte%NULL%0,                           Thomas%Tschoellitsch%NULL%0,                           Jens%Meier%NULL%0,                           Francesco S.%Cardona%NULL%0,                           Josef%Skola%NULL%0,                           Lenka%Horakova%NULL%0,                           Hernan%Aguirre-Bermeo%NULL%0,                           Janina%Apolo%NULL%0,                           Emmanuel%Novy%NULL%0,                           Marie-Reine%Losser%NULL%0,                           Geoffrey%Jurkolow%NULL%0,                           Gauthier%Delahaye%NULL%0,                           Sascha%David%NULL%0,                           Tobias%Welte%NULL%0,                           Tobias%Wengenmayer%NULL%0,                           Dawid L.%Staudacher%NULL%0,                           Theodoros%Aslanidis%NULL%0,                           Barna%Babik%NULL%0,                           Anita%Korsos%NULL%0,                           Janos%Gal%NULL%0,                           Hermann%Csaba%NULL%0,                           Abele%Donati%NULL%0,                           Andrea%Carsetti%NULL%0,                           Fabrizio%Turrini%NULL%0,                           Maria Sole%Simonini%NULL%0,                           Roberto%Ceriani%NULL%0,                           Martina%Murrone%NULL%0,                           Emanuele%Rezoagli%NULL%0,                           Giovanni%Vitale%NULL%0,                           Alberto%Fogagnolo%NULL%0,                           Savino%Spadaro%NULL%0,                           Maddalena Alessandra%Wu%NULL%0,                           Chiara%Cogliati%NULL%0,                           Riccardo%Colombo%NULL%0,                           Emanuele%Catena%NULL%0,                           Francesca%Facondini%NULL%0,                           Antonella%Potalivo%NULL%0,                           Gianfilippo%Gangitano%NULL%0,                           Tiziana%Perin%NULL%0,                           Maria Grazia%Bocci%NULL%0,                           Massimo%Antonelli%NULL%0,                           Diederik%Gommers%NULL%0,                           Can%Ince%NULL%0,                           Eric%Mayor-Vázquez%NULL%0,                           Maria%Cruz%NULL%0,                           Martin%Delgado%NULL%0,                           Raquel Rodriguez%Garcia%NULL%0,                           Jorge%Gamez Zapata%NULL%0,                           Begoña%Zalba-Etayo%NULL%0,                           Herminia%Lozano-Gomez%NULL%0,                           Pedro%Castro%NULL%0,                           Adrian%Tellez%NULL%0,                           Adriana%Jacas%NULL%0,                           Guido%Muñoz%NULL%0,                           Rut%Andrea%NULL%0,                           Jose%Ortiz%NULL%0,                           Eduard%Quintana%NULL%0,                           Irene%Rovira%NULL%0,                           Enric%Reverter%NULL%0,                           Javier%Fernandez%NULL%0,                           Miquel%Ferrer%NULL%0,                           Joan R.%Badia%NULL%0,                           Arantxa%Lander Azcona%NULL%0,                           Jesus Escos%Orta%NULL%0,                           Philipp%Bühler%NULL%0,                           Silvio%Brugger%NULL%0,                           Daniel%Hofmaenner%NULL%0,                           Simone%Unseld%NULL%0,                           Frank%Ruschitzka%NULL%0,                           Mallory%Moret-Bochatay%NULL%0,                           Bernd%Yuen%NULL%0,                           Thomas%Hillermann%NULL%0,                           Hatem%Ksouri%NULL%0,                           Govind Oliver%Sridharan%NULL%0,                           Anette%Ristic%NULL%0,                           Michael%Sepulcri%NULL%0,                           Miodrag%Filipovic%NULL%0,                           Urs%Pietsch%NULL%0,                           Petra%Salomon%NULL%0,                           Iris%Drvaric%NULL%0,                           Peter%Schott%NULL%0,                           Severin%Urech%NULL%0,                           Adriana%Lambert%NULL%0,                           Lukas%Merki%NULL%0,                           Marcus%Laube%NULL%0,                           Frank%Hillgaertner%NULL%0,                           Marianne%Sieber%NULL%0,                           Alexander%Dullenkopf%NULL%0,                           Lina%Petersen%NULL%0,                           Serge%Grazioli%NULL%0,                           Peter C.%Rimensberger%NULL%0,                           Isabelle%Fleisch%NULL%0,                           Jerome%Lavanchy%NULL%0,                           Katharina%Marquardt%NULL%0,                           Karim%Shaikh%NULL%0,                           Hermann%Redecker%NULL%0,                           Michael%Stephan%NULL%0,                           Jan%Brem%NULL%0,                           Bjarte%Rogdo%NULL%0,                           Andre%Birkenmaier%NULL%0,                           Friederike%Meyer zu Bentrup%NULL%0,                           Patricia%Fodor%NULL%0,                           Pascal%Locher%NULL%0,                           Giovanni%Camen%NULL%0,                           Martin%Siegemund%NULL%0,                           Nuria%Zellweger%NULL%0,                           Marie-Madlen%Jeitziner%NULL%0,                           Beatrice%Jenni-Moser%NULL%0,                           Christian%Bürkle%NULL%0,                           Gian-Reto%Kleger%NULL%0,                           Marilene%Franchitti Laurent%NULL%0,                           Jean-Christophe%Laurent%NULL%0,                           Tomislav%Gaspert%NULL%0,                           Marija%Jovic%NULL%0,                           Michael%Studhalter%NULL%0,                           Christoph%Haberthuer%NULL%0,                           Roger F.%Lussman%NULL%0,                           Daniela%Selz%NULL%0,                           Didier%Naon%NULL%0,                           Romano%Mauri%NULL%0,                           Samuele%Ceruti%NULL%0,                           Julien%Marrel%NULL%0,                           Mirko%Brenni%NULL%0,                           Rolf%Ensner%NULL%0,                           Nadine%Gehring%NULL%0,                           Antje%Heise%NULL%0,                           Tobias%Huebner%NULL%0,                           Thomas A.%Neff%NULL%0,                           Sara%Cereghetti%NULL%0,                           Filippo%Boroli%NULL%0,                           Jerome%Pugin%NULL%0,                           Nandor%Marczin%NULL%0,                           Joyce%Wong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Warren%Gavin%NULL%0,                           Elliott%Campbell%NULL%0,                           Syed-Adeel%Zaidi%NULL%0,                           Neha%Gavin%NULL%0,                           Lana%Dbeibo%NULL%0,                           Cole%Beeler%NULL%0,                           Kari%Kuebler%NULL%0,                           Ahmed%Abdel-Rahman%NULL%0,                           Mark%Luetkemeyer%NULL%0,                           Areeba%Kara%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Vijay%Gayam%vgayam@interfaithmedical.com%0,                           Muchi Ditah%Chobufo%NULL%0,                           Muchi Ditah%Chobufo%NULL%0,                           Mohamed A.%Merghani%NULL%0,                           Mohamed A.%Merghani%NULL%0,                           Shristi%Lamichhane%NULL%0,                           Pavani Reddy%Garlapati%NULL%0,                           Mark K.%Adler%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Cao%Y%coreGivesNoEmail%0,                          Imam%Z%coreGivesNoEmail%0,                          Lippi%G%coreGivesNoEmail%0,                          Oran%DP%coreGivesNoEmail%0,                          Shi%S%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Hai%Hu%huhai@wchscu.cn%0,                           Ni%Yao%NULL%0,                           Ni%Yao%NULL%0,                           Yanru%Qiu%NULL%0,                           John H.%Burton%NULL%0,                           John H.%Burton%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jiaofeng%Huang%NULL%0,                           Aiguo%Cheng%NULL%0,                           Rahul%Kumar%NULL%0,                           Yingying%Fang%NULL%0,                           Yingying%Fang%NULL%0,                           Gongping%Chen%NULL%0,                           Yueyong%Zhu%NULL%0,                           Su%Lin%sumer5129@fjmu.edu.cn%0,                           Su%Lin%sumer5129@fjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%0,                           Ju-Hyun%Kim%NULL%0,                           Jin-Sung%Park%NULL%0,                           Min Cheol%Chang%wheel633@ynu.ac.kr%0,                           Donghwi%Park%bdome@hanmail.net%0]</t>
+  </si>
+  <si>
+    <t>[K.%Khalil%NULL%0,                           K.%Agbontaen%NULL%0,                           D.%McNally%NULL%0,                           A.%Love%NULL%0,                           S.%Mandalia%NULL%0,                           W.%Banya%NULL%0,                           E.%Starren%NULL%0,                           R.%Dhunnookchand%NULL%0,                           H.%Farne%NULL%0,                           R.%Morton%NULL%0,                           G.%Davies%NULL%0,                           O.%Orhan%NULL%0,                           D%Lai%NULL%0,                           M.%Nelson%NULL%0,                           P.L.%Shah%NULL%0,                           J.L.%Garner%Justin.garner@chelwest.nhs.uk%0]</t>
+  </si>
+  <si>
+    <t>[Eyal%Klang%NULL%0,                           Gassan%Kassim%NULL%0,                           Shelly%Soffer%soffer.shelly@gmail.com%0,                           Robert%Freeman%NULL%0,                           Robert%Freeman%NULL%0,                           Matthew A.%Levin%NULL%0,                           Matthew A.%Levin%NULL%0,                           David L.%Reich%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sandeep%Krishnan%NULL%0,                           Kinjal%Patel%NULL%0,                           Ronak%Desai%NULL%0,                           Anupam%Sule%NULL%0,                           Peter%Paik%NULL%0,                           Ashley%Miller%NULL%0,                           Alicia%Barclay%NULL%0,                           Adam%Cassella%NULL%0,                           Jon%Lucaj%NULL%0,                           Yvonne%Royster%NULL%0,                           Joffer%Hakim%NULL%0,                           Zulfiqar%Ahmed%NULL%0,                           Farhad%Ghoddoussi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Manisha%Bhutani%null%0,                 David M.%Foureau%null%0,                 Shebli%Atrash%null%0,                 Peter M.%Voorhees%null%0,                 Saad Z.%Usmani%null%0]</t>
+  </si>
+  <si>
+    <t>[Wil%Lieberman-Cribbin%NULL%0,                           Joseph%Rapp%NULL%0,                           Naomi%Alpert%NULL%0,                           Stephanie%Tuminello%NULL%0,                           Emanuela%Taioli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Q.%Liu%NULL%0,                           N. C.%Song%NULL%0,                           Z. K.%Zheng%NULL%0,                           J. S.%Li%NULL%0,                           S. K.%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Long%NULL%0,                           Lan%Nie%NULL%0,                           Xiaochen%Xiang%NULL%0,                           Huan%Li%NULL%0,                           Xiaoli%Zhang%NULL%0,                           Xiaozhi%Fu%NULL%0,                           Hongwei%Ren%NULL%0,                           Wanxin%Liu%NULL%0,                           Qiang%Wang%wangqiang@wust.edu.cn%0,                           Qingming%Wu%wuhe9224@sina.com%0,                           Qingming%Wu%wuhe9224@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaomin%Luo%luoxiaomin04@163.com%0,                           Wei%Zhou%NULL%0,                           Xiaojie%Yan%NULL%0,                           Tangxi%Guo%NULL%0,                           Benchao%Wang%NULL%0,                           Hongxia%Xia%NULL%0,                           Lu%Ye%NULL%0,                           Jun%Xiong%NULL%0,                           Zongping%Jiang%NULL%0,                           Yu%Liu%NULL%0,                           Bicheng%Zhang%NULL%0,                           Weize%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ying%Luo%NULL%0,                           Liyan%Mao%NULL%0,                           Xu%Yuan%NULL%0,                           Ying%Xue%NULL%0,                           Qun%Lin%NULL%0,                           Guoxing%Tang%NULL%0,                           Huijuan%Song%NULL%0,                           Feng%Wang%fengwang@tjh.tjmu.edu.cn%0,                           Ziyong%Sun%zysun@tjh.tjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ying%Luo%NULL%0,                           Ying%Xue%NULL%0,                           Liyan%Mao%NULL%0,                           Xu%Yuan%NULL%0,                           Qun%Lin%NULL%0,                           Guoxing%Tang%NULL%0,                           Huijuan%Song%NULL%0,                           Feng%Wang%NULL%0,                           Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chiara%Masetti%NULL%0,                           Elena%Generali%NULL%0,                           Francesca%Colapietro%NULL%0,                           Antonio%Voza%NULL%0,                           Maurizio%Cecconi%NULL%0,                           Antonio%Messina%NULL%0,                           Paolo%Omodei%NULL%0,                           Claudio%Angelini%NULL%0,                           Michele%Ciccarelli%NULL%0,                           Salvatore%Badalamenti%NULL%0,                           G. Walter%Canonica%NULL%0,                           Ana%Lleo%ana.lleo@humanitas.it%0,                           Alessio%Aghemo%NULL%0,                           Alessio%Aghemo%NULL%0,                           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Takahisa%Mikami%NULL%0,                           Hirotaka%Miyashita%NULL%0,                           Takayuki%Yamada%NULL%0,                           Matthew%Harrington%NULL%0,                           Daniel%Steinberg%NULL%0,                           Andrew%Dunn%NULL%0,                           Evan%Siau%Evan.Siau@mountsinai.org%0]</t>
+  </si>
+  <si>
+    <t>[Alexis K.%Okoh%alexis.okoh@rwjbh.org%0,                           Christoph%Sossou%NULL%0,                           Christoph%Sossou%NULL%0,                           Neha S.%Dangayach%NULL%0,                           Sherin%Meledathu%NULL%0,                           Oluwakemi%Phillips%NULL%0,                           Corinne%Raczek%NULL%0,                           Michael%Patti%NULL%0,                           Nathan%Kang%NULL%0,                           Sameer A.%Hirji%NULL%0,                           Charles%Cathcart%NULL%0,                           Christian%Engell%NULL%0,                           Marc%Cohen%NULL%0,                           Sandhya%Nagarakanti%NULL%0,                           Eliahu%Bishburg%NULL%0,                           Harpreet S.%Grewal%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%0,                            Lian%Yang%NULL%0,                            Yuncheng%Li%NULL%0,                            Bo%Liang%NULL%0,                            Lin%Li%NULL%0,                            Tianhe%Ye%NULL%0,                            Lingli%Li%NULL%0,                            Dehan%Liu%NULL%0,                            Shan%Gui%NULL%0,                            Yu%Hu%NULL%0,                            Chuansheng%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                           Becker%L.B.%coreGivesNoEmail%0,                           Chelico%J.D.%coreGivesNoEmail%0,                           Cohen%S.L.%coreGivesNoEmail%0,                           Cookingham%J.%coreGivesNoEmail%0,                           Coppa%K.%coreGivesNoEmail%0,                           Crawford%J.M.%coreGivesNoEmail%0,                           Davidson%K.W.%coreGivesNoEmail%0,                           Diefenbach%M.A.%coreGivesNoEmail%0,                           Dominello%A.J.%coreGivesNoEmail%0,                           Duer-Hefele%J.%coreGivesNoEmail%0,                           Falzon%L.%coreGivesNoEmail%0,                           Gitlin%J.%coreGivesNoEmail%0,                           Hajizadeh%N.%coreGivesNoEmail%0,                           Harvin%T.G.%coreGivesNoEmail%0,                           Hirsch%J.S.%coreGivesNoEmail%0,                           Hirschwerk%D.A.%coreGivesNoEmail%0,                           Kim%E.J.%coreGivesNoEmail%0,                           Kozel%Z.M.%coreGivesNoEmail%0,                           Marrast%L.M.%coreGivesNoEmail%0,                           McGinn%T.%coreGivesNoEmail%0,                           Mogavero%J.N.%coreGivesNoEmail%0,                           Narasimhan%M.%coreGivesNoEmail%0,                           Osorio%G.A.%coreGivesNoEmail%0,                           Qiu%M.%coreGivesNoEmail%0,                           Richardson%S.%coreGivesNoEmail%0,                           Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Mario%Rivera-Izquierdo%NULL%0,                            María%del Carmen Valero-Ubierna%NULL%0,                            María%del Carmen Valero-Ubierna%NULL%0,                            Juan Luis%R-delAmo%NULL%0,                            Miguel Ángel%Fernández-García%NULL%0,                            Silvia%Martínez-Diz%NULL%0,                            Arezu%Tahery-Mahmoud%NULL%0,                            Marta%Rodríguez-Camacho%NULL%0,                            Ana Belén%Gámiz-Molina%NULL%0,                            Nicolás%Barba-Gyengo%NULL%0,                            Pablo%Gámez-Baeza%NULL%0,                            Celia%Cabrero-Rodríguez%NULL%0,                            Pedro Antonio%Guirado-Ruiz%NULL%0,                            Divina Tatiana%Martín-Romero%NULL%0,                            Antonio Jesús%Láinez-Ramos-Bossini%NULL%0,                            María Rosa%Sánchez-Pérez%NULL%0,                            José%Mancera-Romero%NULL%0,                            Miguel%García-Martín%NULL%0,                            Luis Miguel%Martín-delosReyes%NULL%0,                            Virginia%Martínez-Ruiz%NULL%0,                            Virginia%Martínez-Ruiz%NULL%0,                            Pablo%Lardelli-Claret%NULL%0,                            Eladio%Jiménez-Mejías%NULL%0,                            Muhammad%Adrish%NULL%0,                            Muhammad%Adrish%NULL%0,                            NULL%NULL%NULL%0,                            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qiurong%Ruan%NULL%0,                            Kun%Yang%NULL%0,                            Kun%Yang%NULL%0,                            Wenxia%Wang%NULL%0,                            Wenxia%Wang%NULL%0,                            Lingyu%Jiang%NULL%0,                            Lingyu%Jiang%NULL%0,                            Jianxin%Song%songsingsjx@sina.com%0,                            Jianxin%Song%songsingsjx@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Grace%Salacup%salacupg@einstein.edu%0,                            Kevin Bryan%Lo%NULL%0,                            Kevin Bryan%Lo%NULL%0,                            Fahad%Gul%NULL%0,                            Eric%Peterson%NULL%0,                            Robert%De Joy%NULL%0,                            Ruchika%Bhargav%NULL%0,                            Jerald%Pelayo%NULL%0,                            Jeri%Albano%NULL%0,                            Zurab%Azmaiparashvili%NULL%0,                            Sadia%Benzaquen%NULL%0,                            Gabriel%Patarroyo‐Aponte%NULL%0,                            Janani%Rangaswami%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Priyank%Shah%xref no email%0,       Jack%Owens%xref no email%0,       James%Franklin%xref no email%0,       Akshat%Mehta%xref no email%0,       William%Heymann%xref no email%0,       William%Sewell%xref no email%0,       Jennifer%Hill%xref no email%0,       Krista%Barfield%xref no email%0,       Rajkumar%Doshi%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Yufeng%Shang%NULL%0,                            Tao%Liu%NULL%0,                            Yongchang%Wei%NULL%0,                            Jingfeng%Li%NULL%0,                            Liang%Shao%NULL%0,                            Minghui%Liu%NULL%0,                            Yongxi%Zhang%NULL%0,                            Zhigang%Zhao%NULL%0,                            Haibo%Xu%NULL%0,                            Zhiyong%Peng%NULL%0,                            Fuling%Zhou%zhoufuling@whu.edu.cn%0,                            Xinghuan%Wang%wangxinghuan@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,                            Mu%Qin%qinmuae@163.com%0,                            Yuli%Cai%NULL%0,                            Tao%Liu%NULL%0,                            Bo%Shen%NULL%0,                            Fan%Yang%NULL%0,                            Sheng%Cao%NULL%0,                            Xu%Liu%NULL%0,                            Xu%Liu%NULL%0,                            Yaozu%Xiang%NULL%0,                            Qinyan%Zhao%NULL%0,                            He%Huang%huanghe1977@whu.edu.cn%0,                            Bo%Yang%yybb112@whu.edu.cn%0,                            Congxin%Huang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rita de Cássia Menezes%Soares%NULL%0,                            Larissa Rodrigues%Mattos%NULL%0,                            Letícia Martins%Raposo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,                            Ruoqi%Ning%NULL%0,                            Yu%Tao%NULL%0,                            Chong%Yu%NULL%0,                            Xiaoyan%Deng%NULL%0,                            Caili%Zhao%NULL%0,                            Silu%Meng%NULL%0,                            Fangxu%Tang%89650793@qq.com%0,                            Dong%Xu%89650793@qq.com%0,                            Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Kun%Wang%NULL%0,                            Peiyuan%Zuo%NULL%0,                            Yuwei%Liu%NULL%0,                            Meng%Zhang%NULL%0,                            Xiaofang%Zhao%NULL%0,                            Songpu%Xie%NULL%0,                            Hao%Zhang%NULL%0,                            Xinglin%Chen%NULL%0,                            Chengyun%Liu%chengyunliu@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Bo%XU%NULL%0,                            Cun-yu%FAN%NULL%0,                            An-lu%WANG%NULL%0,                            Yi-long%ZOU%NULL%0,                            Yi-han%YU%NULL%0,                            Cong%HE%NULL%0,                            Wen-guang%XIA%NULL%0,                            Ji-xian%ZHANG%NULL%0,                            Qing%MIAO%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xisheng%Yan%NULL%0,                            Fen%Li%NULL%0,                            Xiao%Wang%NULL%0,                            Jie%Yan%NULL%0,                            Fen%Zhu%NULL%0,                            Shifan%Tang%NULL%0,                            Yingzhong%Deng%NULL%0,                            Hua%Wang%NULL%0,                            Rui%Chen%NULL%0,                            Zhili%Yu%NULL%0,                            Yaping%Li%NULL%0,                            Jingzhou%Shang%NULL%0,                            Lingjun%Zeng%NULL%0,                            Jie%Zhao%NULL%0,                            Chaokun%Guan%NULL%0,                            Qiaomei%Liu%NULL%0,                            Haifeng%Chen%NULL%0,                            Wei%Gong%NULL%0,                            Xin%Huang%NULL%0,                            Yu‐Jiao%Zhang%NULL%0,                            Jianguang%Liu%NULL%0,                            Xiaoyan%Dong%NULL%0,                            Wen%Zheng%zhengwen12@mails.jlu.edu.cn%0,                            Shaoping%Nie%spnie@126.com%0,                            Dongsheng%Li%dongshengli196809@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qing%Yang%NULL%0,                            Ying%Zhou%NULL%0,                            Xinrong%Wang%NULL%0,                            Shan%Gao%NULL%0,                            Yang%Xiao%NULL%0,                            Weiming%Zhang%NULL%0,                            Yi%Hu%huyizxyy@163.com%0,                            Yafei%Wang%wyf_527@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                            Qingyu%Yang%NULL%0,                            Yaxin%Wang%NULL%0,                            Yongran%Wu%NULL%0,                            Jiqian%Xu%NULL%0,                            Yuan%Yu%NULL%0,                            You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wenjing%Ye%yewenjing@xinhuamed.com.cn%0,                            Guoxi%Chen%4799082@qq.com%0,                            Xiaopan%Li%xiaopanli0224@126.com%0,                            Xing%Lan%474137452@qq.com%0,                            Chen%Ji%c.ji.3@warwick.ac.uk%0,                            Min%Hou%min-hou710@hotmail.com%0,                            Di%Zhang%zhangdizhangdi1234@163.com%0,                            Guangwang%Zeng%785663609@qq.com%0,                            Yaling%Wang%953822402@qq.com%0,                            Cheng%Xu%xucheng112358@126.com%0,                            Weiwei%Lu%luweiwei100@126.com%0,                            Ruolin%Cui%crlqwerty@163.com%0,                            Yuyang%Cai%caiyuyang@sjtu.edu.cn%0,                            Hai%Huang%1220775601@qq.com%0,                            Ling%Yang%yangling01@xinhuamed.com.cn%0]</t>
+  </si>
+  <si>
+    <t>[Caizheng%Yu%NULL%0,                            Qing%Lei%NULL%0,                            Wenkai%Li%NULL%0,                            Xiong%Wang%NULL%0,                            Wei%Liu%NULL%0,                            Xionglin%Fan%NULL%0,                            Wengang%Li%228907211@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                            Ting%Yu%NULL%0,                            Ronghui%Du%NULL%0,                            Guohui%Fan%NULL%0,                            Ying%Liu%NULL%0,                            Zhibo%Liu%NULL%0,                            Jie%Xiang%NULL%0,                            Yeming%Wang%NULL%0,                            Bin%Song%NULL%0,                            Xiaoying%Gu%NULL%0,                            Lulu%Guan%NULL%0,                            Yuan%Wei%NULL%0,                            Hui%Li%NULL%0,                            Xudong%Wu%NULL%0,                            Jiuyang%Xu%NULL%0,                            Shengjin%Tu%NULL%0,                            Yi%Zhang%NULL%0,                            Hua%Chen%NULL%0,                            Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Moran%Amit%NULL%0,                            Alex%Sorkin%NULL%0,                            Jacob%Chen%NULL%0,                            Barak%Cohen%NULL%0,                            Barak%Cohen%NULL%0,                            Dana%Karol%NULL%0,                            Dana%Karol%NULL%0,                            Avishai M%Tsur%NULL%0,                            Shaul%Lev%NULL%0,                            Shaul%Lev%NULL%0,                            Tal%Rozenblat%NULL%0,                            Ayana%Dvir%NULL%0,                            Ayana%Dvir%NULL%0,                            Geva%Landau%NULL%0,                            Lidar%Fridrich%NULL%0,                            Lidar%Fridrich%NULL%0,                            Elon%Glassberg%NULL%0,                            Shani%Kesari%NULL%0,                            Sigal%Sviri%NULL%0,                            Ram%Gelman%NULL%0,                            Asaf%Miller%NULL%0,                            Danny%Epstein%NULL%0,                            Ronny%Ben-Avi%NULL%0,                            Ronny%Ben-Avi%NULL%0,                            Moshe%Matan%NULL%0,                            Daniel J.%Jakobson%NULL%0,                            Daniel J.%Jakobson%NULL%0,                            Tarif%Bader%NULL%0,                            Tarif%Bader%NULL%0,                            David%Dahan%NULL%0,                            David%Dahan%NULL%0,                            Daniel A.%King%NULL%0,                            Anat%Ben-Ari%NULL%0,                            Arie%Soroksky%NULL%0,                            Alon%Bar%NULL%0,                            Alon%Bar%NULL%0,                            Noam%Fink%NULL%0,                            Pierre%Singer%NULL%0,                            Avi%Benov%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,                            John R%Adler%NULL%0,                            Muhammad Sohaib%Asghar%NULL%0,                            Muhammad Sohaib%Asghar%NULL%0,                            Syed Jawad%Haider Kazmi%NULL%0,                            Noman%Ahmed Khan%NULL%0,                            Mohammed%Akram%NULL%0,                            Salman%Ahmed Khan%NULL%0,                            Uzma%Rasheed%NULL%0,                            Maira%Hassan%NULL%0,                            Gul Muhammad%Memon%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pedro%Baqui%NULL%0,                            Ioana%Bica%NULL%0,                            Valerio%Marra%marra@cosmo-ufes.org%0,                            Ari%Ercole%NULL%0,                            Mihaela%van der Schaar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anesi%Adriano%coreGivesNoEmail%0,                           Bettinardi%Alessandra%coreGivesNoEmail%0,                           Bonetti%Graziella%coreGivesNoEmail%0,                           Borrelli%Gianluca%coreGivesNoEmail%0,                           Fiordalisi%Gianfranco%coreGivesNoEmail%0,                           Lippi%Giuseppe%coreGivesNoEmail%0,                           Manelli%Filippo%coreGivesNoEmail%0,                           Marino%Antonio%coreGivesNoEmail%0,                           Menolfi%Annamaria%coreGivesNoEmail%0,                           Patroni%Andrea%coreGivesNoEmail%0,                           Saggini%Sara%coreGivesNoEmail%0,                           Volpi%Roberta%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Andrea%Borghesi%NULL%0,                            Angelo%Zigliani%NULL%0,                            Salvatore%Golemi%NULL%0,                            Nicola%Carapella%NULL%0,                            Patrizia%Maculotti%NULL%0,                            Davide%Farina%NULL%0,                            Roberto%Maroldi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Alberto M.%Borobia%NULL%0,                            Antonio J.%Carcas%NULL%0,                            Antonio J.%Carcas%NULL%0,                            Francisco%Arnalich%NULL%0,                            Rodolfo%Álvarez-Sala%NULL%0,                            Rodolfo%Álvarez-Sala%NULL%0,                            Jaime%Monserrat-Villatoro%NULL%0,                            Manuel%Quintana%NULL%0,                            Juan Carlos%Figueira%NULL%0,                            Rosario M.%Torres Santos-Olmo%NULL%0,                            Julio%García-Rodríguez%NULL%0,                            Julio%García-Rodríguez%NULL%0,                            Alberto%Martín-Vega%NULL%0,                            Antonio%Buño%NULL%0,                            Elena%Ramírez%NULL%0,                            Gonzalo%Martínez-Alés%NULL%0,                            Gonzalo%Martínez-Alés%NULL%0,                            Nicolás%García-Arenzana%NULL%0,                            M. Concepción%Núñez%NULL%0,                            M. Concepción%Núñez%NULL%0,                            Milagros%Martí-de-Gracia%NULL%0,                            Francisco%Moreno Ramos%NULL%0,                            Francisco%Reinoso-Barbero%NULL%0,                            Alejandro%Martin-Quiros%NULL%0,                            Angélica%Rivera Núñez%NULL%0,                            Jesús%Mingorance%NULL%0,                            Carlos J.%Carpio Segura%NULL%0,                            Carlos J.%Carpio Segura%NULL%0,                            Daniel%Prieto Arribas%NULL%0,                            Esther%Rey Cuevas%NULL%0,                            Concepción%Prados Sánchez%NULL%0,                            Juan J.%Rios%NULL%0,                            Miguel A.%Hernán%NULL%0,                            Jesús%Frías%NULL%0,                            José R.%Arribas%NULL%0,                            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simon E.%Brill%simon.brill@nhs.net%0,                            Hannah C.%Jarvis%NULL%0,                            Hannah C.%Jarvis%NULL%0,                            Ezgi%Ozcan%NULL%0,                            Thomas L. P.%Burns%NULL%0,                            Rabia A.%Warraich%NULL%0,                            Lisa J.%Amani%NULL%0,                            Amina%Jaffer%NULL%0,                            Stephanie%Paget%NULL%0,                            Anand%Sivaramakrishnan%NULL%0,                            Dean D.%Creer%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                            Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                            Wenlin%Cheng%NULL%0,                            Lei%Yu%NULL%0,                            Ya-Kun%Liu%NULL%0,                            Xiaoyong%Hu%NULL%0,                            Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[B.%Carter%NULL%0,                            J.T.%Collins%NULL%0,                            F.%Barlow-Pay%NULL%0,                            F.%Rickard%NULL%0,                            E.%Bruce%NULL%0,                            A.%Verduri%NULL%0,                            T.J.%Quinn%NULL%0,                            E.%Mitchell%NULL%0,                            A.%Price%NULL%0,                            A.%Vilches-Moraga%NULL%0,                            M.J.%Stechman%NULL%0,                            R.%Short%NULL%0,                            A.%Einarsson%NULL%0,                            P.%Braude%NULL%0,                            S.%Moug%NULL%0,                            P.K.%Myint%NULL%0,                            J.%Hewitt%NULL%0,                            L.%Pearce%NULL%0,                            K.%McCarthy%NULL%0,                            C.%Davey%NULL%0,                            S.%Jones%NULL%0,                            K.%Lunstone%NULL%0,                            A.%Cavenagh%NULL%0,                            C.%Silver%NULL%0,                            T.%Telford%NULL%0,                            R.%Simmons%NULL%0,                            M.%Holloway%NULL%0,                            J.%Hesford%NULL%0,                            T.%El Jichi Mutasem%NULL%0,                            S.%Singh%NULL%0,                            D.%Paxton%NULL%0,                            W.%Harris%NULL%0,                            N.%Galbraith%NULL%0,                            E.%Bhatti%NULL%0,                            J.%Edwards%NULL%0,                            S.%Duffy%NULL%0,                            J.%Kelly%NULL%0,                            C.%Murphy%NULL%0,                            C.%Bisset%NULL%0,                            R.%Alexander%NULL%0,                            M.%Garcia%NULL%0,                            S.%Sangani%NULL%0,                            T.%Kneen%NULL%0,                            T.%Lee%NULL%0,                            A.%McGovern%NULL%0,                            G.%Guaraldi%NULL%0,                            E.%Clini%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fuyang%Chen%NULL%0,                            Wenwu%Sun%NULL%0,                            Shengrong%Sun%NULL%0,                            Zhiyu%Li%lizhiyu@whu.edu.cn%0,                            Zhong%Wang%zhongwangchn@whu.edu.cn%0,                            Li%Yu%yuliwhzxyy@163.com%0,                            Li%Yu%yuliwhzxyy@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0,                            Ling%Sang%NULL%0,                            Mei%Jiang%NULL%0,                            Zhaowei%Yang%NULL%0,                            Nan%Jia%NULL%0,                            Wanyi%Fu%NULL%0,                            Jiaxing%Xie%NULL%0,                            Weijie%Guan%NULL%0,                            Wenhua%Liang%NULL%0,                            Zhengyi%Ni%NULL%0,                            Yu%Hu%NULL%0,                            Lei%Liu%NULL%0,                            Hong%Shan%NULL%0,                            Chunliang%Lei%NULL%0,                            Yixiang%Peng%NULL%0,                            Li%Wei%NULL%0,                            Yong%Liu%NULL%0,                            Yahua%Hu%NULL%0,                            Peng%Peng%NULL%0,                            Jianming%Wang%NULL%0,                            Jiyang%Liu%NULL%0,                            Zhong%Chen%NULL%0,                            Gang%Li%NULL%0,                            Zhijian%Zheng%NULL%0,                            Shaoqin%Qiu%NULL%0,                            Jie%Luo%NULL%0,                            Changjiang%Ye%NULL%0,                            Shaoyong%Zhu%NULL%0,                            Jinping%Zheng%NULL%0,                            Nuofu%Zhang%NULL%0,                            Yimin%Li%NULL%0,                            Jianxing%He%NULL%0,                            Jing%Li%NULL%0,                            Shiyue%Li%NULL%0,                            Nanshan%Zhong%NULL%0,                            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                            Di%Wu%NULL%0,                            Huilong%Chen%NULL%0,                            Weiming%Yan%NULL%0,                            Danlei%Yang%NULL%0,                            Guang%Chen%NULL%0,                            Ke%Ma%NULL%0,                            Dong%Xu%NULL%0,                            Haijing%Yu%NULL%0,                            Hongwu%Wang%NULL%0,                            Tao%Wang%NULL%0,                            Wei%Guo%NULL%0,                            Jia%Chen%NULL%0,                            Chen%Ding%NULL%0,                            Xiaoping%Zhang%NULL%0,                            Jiaquan%Huang%NULL%0,                            Meifang%Han%NULL%0,                            Shusheng%Li%NULL%0,                            Xiaoping%Luo%NULL%0,                            Jianping%Zhao%NULL%0,                            Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anying%Cheng%NULL%0,                            Liu%Hu%NULL%0,                            Yiru%Wang%NULL%0,                            Luyan%Huang%NULL%0,                            Lingxi%Zhao%NULL%0,                            Congcong%Zhang%NULL%0,                            Xiyue%Liu%NULL%0,                            Ranran%Xu%NULL%0,                            Feng%Liu%NULL%0,                            Jinping%Li%NULL%0,                            Dawei%Ye%NULL%0,                            Tao%Wang%NULL%0,                            Yongman%Lv%lvyongman@126.com%0,                            Qingquan%Liu%qqliutj@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fabio%Ciceri%ciceri.fabio@hsr.it%0,                            Antonella%Castagna%NULL%0,                            Patrizia%Rovere-Querini%NULL%0,                            Francesco%De Cobelli%NULL%0,                            Annalisa%Ruggeri%NULL%0,                            Laura%Galli%NULL%0,                            Caterina%Conte%NULL%0,                            Rebecca%De Lorenzo%NULL%0,                            Andrea%Poli%NULL%0,                            Alberto%Ambrosio%NULL%0,                            Carlo%Signorelli%NULL%0,                            Eleonora%Bossi%NULL%0,                            Maria%Fazio%NULL%0,                            Cristina%Tresoldi%NULL%0,                            Sergio%Colombo%NULL%0,                            Giacomo%Monti%NULL%0,                            Efgeny%Fominskiy%NULL%0,                            Stefano%Franchini%NULL%0,                            Marzia%Spessot%NULL%0,                            Carlo%Martinenghi%NULL%0,                            Michele%Carlucci%NULL%0,                            Luigi%Beretta%NULL%0,                            Anna Maria%Scandroglio%NULL%0,                            Massimo%Clementi%NULL%0,                            Massimo%Locatelli%NULL%0,                            Moreno%Tresoldi%NULL%0,                            Paolo%Scarpellini%NULL%0,                            Gianvito%Martino%NULL%0,                            Emanuele%Bosi%NULL%0,                            Lorenzo%Dagna%NULL%0,                            Adriano%Lazzarin%NULL%0,                            Giovanni%Landoni%NULL%0,                            Alberto%Zangrillo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,                            Wei%Liu%NULL%0,                            Kui%Liu%NULL%0,                            Yuan-Yuan%Fang%NULL%0,                            Jin%Shang%NULL%0,                            Ling%Zhou%NULL%0,                            Ke%Wang%NULL%0,                            Fan%Leng%NULL%0,                            Shuang%Wei%NULL%0,                            Lei%Chen%NULL%0,                            Hui-Guo%Liu%NULL%0,                            Pei-Fang%Wei%NULL%0,                            Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                            Li-Rong%Liang%NULL%0,                            Cheng-Qing%Yang%NULL%0,                            Wen%Wang%NULL%0,                            Tan-Ze%Cao%NULL%0,                            Ming%Li%NULL%0,                            Guang-Yun%Guo%NULL%0,                            Juan%Du%NULL%0,                            Chun-Lan%Zheng%NULL%0,                            Qi%Zhu%NULL%0,                            Ming%Hu%NULL%0,                            Xu-Yan%Li%NULL%0,                            Peng%Peng%NULL%0,                            Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shan%Gao%NULL%0,                            Fang%Jiang%NULL%0,                            Wei%Jin%NULL%0,                            Yuan%Shi%NULL%0,                            Leilei%Yang%NULL%0,                            Yanqiong%Xia%NULL%0,                            Linyan%Jia%NULL%0,                            Bo%Wang%NULL%0,                            Han%Lin%NULL%0,                            Yin%Cai%NULL%0,                            Zhengyuan%Xia%NULL%0,                            Jian%Peng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pedro David%Wendel Garcia%pedrodavid.wendelgarcia@usz.ch%0,                            Thierry%Fumeaux%thierry.fumeaux@ghol.ch%0,                            Philippe%Guerci%NULL%0,                            Dorothea Monika%Heuberger%dorotheamonika.heuberger@usz.ch%0,                            Jonathan%Montomoli%NULL%0,                            Ferran%Roche-Campo%NULL%0,                            Reto Andreas%Schuepbach%reto.schuepbach@usz.ch%0,                            Matthias Peter%Hilty%matthias.hilty@usz.ch%0,                            Mario%Alfaro Farias%NULL%0,                            Antoni%Margarit%NULL%0,                            Gerardo%Vizmanos-Lamotte%NULL%0,                            Thomas%Tschoellitsch%NULL%0,                            Jens%Meier%NULL%0,                            Francesco S.%Cardona%NULL%0,                            Josef%Skola%NULL%0,                            Lenka%Horakova%NULL%0,                            Hernan%Aguirre-Bermeo%NULL%0,                            Janina%Apolo%NULL%0,                            Emmanuel%Novy%NULL%0,                            Marie-Reine%Losser%NULL%0,                            Geoffrey%Jurkolow%NULL%0,                            Gauthier%Delahaye%NULL%0,                            Sascha%David%NULL%0,                            Tobias%Welte%NULL%0,                            Tobias%Wengenmayer%NULL%0,                            Dawid L.%Staudacher%NULL%0,                            Theodoros%Aslanidis%NULL%0,                            Barna%Babik%NULL%0,                            Anita%Korsos%NULL%0,                            Janos%Gal%NULL%0,                            Hermann%Csaba%NULL%0,                            Abele%Donati%NULL%0,                            Andrea%Carsetti%NULL%0,                            Fabrizio%Turrini%NULL%0,                            Maria Sole%Simonini%NULL%0,                            Roberto%Ceriani%NULL%0,                            Martina%Murrone%NULL%0,                            Emanuele%Rezoagli%NULL%0,                            Giovanni%Vitale%NULL%0,                            Alberto%Fogagnolo%NULL%0,                            Savino%Spadaro%NULL%0,                            Maddalena Alessandra%Wu%NULL%0,                            Chiara%Cogliati%NULL%0,                            Riccardo%Colombo%NULL%0,                            Emanuele%Catena%NULL%0,                            Francesca%Facondini%NULL%0,                            Antonella%Potalivo%NULL%0,                            Gianfilippo%Gangitano%NULL%0,                            Tiziana%Perin%NULL%0,                            Maria Grazia%Bocci%NULL%0,                            Massimo%Antonelli%NULL%0,                            Diederik%Gommers%NULL%0,                            Can%Ince%NULL%0,                            Eric%Mayor-Vázquez%NULL%0,                            Maria%Cruz%NULL%0,                            Martin%Delgado%NULL%0,                            Raquel Rodriguez%Garcia%NULL%0,                            Jorge%Gamez Zapata%NULL%0,                            Begoña%Zalba-Etayo%NULL%0,                            Herminia%Lozano-Gomez%NULL%0,                            Pedro%Castro%NULL%0,                            Adrian%Tellez%NULL%0,                            Adriana%Jacas%NULL%0,                            Guido%Muñoz%NULL%0,                            Rut%Andrea%NULL%0,                            Jose%Ortiz%NULL%0,                            Eduard%Quintana%NULL%0,                            Irene%Rovira%NULL%0,                            Enric%Reverter%NULL%0,                            Javier%Fernandez%NULL%0,                            Miquel%Ferrer%NULL%0,                            Joan R.%Badia%NULL%0,                            Arantxa%Lander Azcona%NULL%0,                            Jesus Escos%Orta%NULL%0,                            Philipp%Bühler%NULL%0,                            Silvio%Brugger%NULL%0,                            Daniel%Hofmaenner%NULL%0,                            Simone%Unseld%NULL%0,                            Frank%Ruschitzka%NULL%0,                            Mallory%Moret-Bochatay%NULL%0,                            Bernd%Yuen%NULL%0,                            Thomas%Hillermann%NULL%0,                            Hatem%Ksouri%NULL%0,                            Govind Oliver%Sridharan%NULL%0,                            Anette%Ristic%NULL%0,                            Michael%Sepulcri%NULL%0,                            Miodrag%Filipovic%NULL%0,                            Urs%Pietsch%NULL%0,                            Petra%Salomon%NULL%0,                            Iris%Drvaric%NULL%0,                            Peter%Schott%NULL%0,                            Severin%Urech%NULL%0,                            Adriana%Lambert%NULL%0,                            Lukas%Merki%NULL%0,                            Marcus%Laube%NULL%0,                            Frank%Hillgaertner%NULL%0,                            Marianne%Sieber%NULL%0,                            Alexander%Dullenkopf%NULL%0,                            Lina%Petersen%NULL%0,                            Serge%Grazioli%NULL%0,                            Peter C.%Rimensberger%NULL%0,                            Isabelle%Fleisch%NULL%0,                            Jerome%Lavanchy%NULL%0,                            Katharina%Marquardt%NULL%0,                            Karim%Shaikh%NULL%0,                            Hermann%Redecker%NULL%0,                            Michael%Stephan%NULL%0,                            Jan%Brem%NULL%0,                            Bjarte%Rogdo%NULL%0,                            Andre%Birkenmaier%NULL%0,                            Friederike%Meyer zu Bentrup%NULL%0,                            Patricia%Fodor%NULL%0,                            Pascal%Locher%NULL%0,                            Giovanni%Camen%NULL%0,                            Martin%Siegemund%NULL%0,                            Nuria%Zellweger%NULL%0,                            Marie-Madlen%Jeitziner%NULL%0,                            Beatrice%Jenni-Moser%NULL%0,                            Christian%Bürkle%NULL%0,                            Gian-Reto%Kleger%NULL%0,                            Marilene%Franchitti Laurent%NULL%0,                            Jean-Christophe%Laurent%NULL%0,                            Tomislav%Gaspert%NULL%0,                            Marija%Jovic%NULL%0,                            Michael%Studhalter%NULL%0,                            Christoph%Haberthuer%NULL%0,                            Roger F.%Lussman%NULL%0,                            Daniela%Selz%NULL%0,                            Didier%Naon%NULL%0,                            Romano%Mauri%NULL%0,                            Samuele%Ceruti%NULL%0,                            Julien%Marrel%NULL%0,                            Mirko%Brenni%NULL%0,                            Rolf%Ensner%NULL%0,                            Nadine%Gehring%NULL%0,                            Antje%Heise%NULL%0,                            Tobias%Huebner%NULL%0,                            Thomas A.%Neff%NULL%0,                            Sara%Cereghetti%NULL%0,                            Filippo%Boroli%NULL%0,                            Jerome%Pugin%NULL%0,                            Nandor%Marczin%NULL%0,                            Joyce%Wong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Warren%Gavin%NULL%0,                            Elliott%Campbell%NULL%0,                            Syed-Adeel%Zaidi%NULL%0,                            Neha%Gavin%NULL%0,                            Lana%Dbeibo%NULL%0,                            Cole%Beeler%NULL%0,                            Kari%Kuebler%NULL%0,                            Ahmed%Abdel-Rahman%NULL%0,                            Mark%Luetkemeyer%NULL%0,                            Areeba%Kara%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Vijay%Gayam%vgayam@interfaithmedical.com%0,                            Muchi Ditah%Chobufo%NULL%0,                            Muchi Ditah%Chobufo%NULL%0,                            Mohamed A.%Merghani%NULL%0,                            Mohamed A.%Merghani%NULL%0,                            Shristi%Lamichhane%NULL%0,                            Pavani Reddy%Garlapati%NULL%0,                            Mark K.%Adler%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Cao%Y%coreGivesNoEmail%0,                           Imam%Z%coreGivesNoEmail%0,                           Lippi%G%coreGivesNoEmail%0,                           Oran%DP%coreGivesNoEmail%0,                           Shi%S%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Hai%Hu%huhai@wchscu.cn%0,                            Ni%Yao%NULL%0,                            Ni%Yao%NULL%0,                            Yanru%Qiu%NULL%0,                            John H.%Burton%NULL%0,                            John H.%Burton%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jiaofeng%Huang%NULL%0,                            Aiguo%Cheng%NULL%0,                            Rahul%Kumar%NULL%0,                            Yingying%Fang%NULL%0,                            Yingying%Fang%NULL%0,                            Gongping%Chen%NULL%0,                            Yueyong%Zhu%NULL%0,                            Su%Lin%sumer5129@fjmu.edu.cn%0,                            Su%Lin%sumer5129@fjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%0,                            Ju-Hyun%Kim%NULL%0,                            Jin-Sung%Park%NULL%0,                            Min Cheol%Chang%wheel633@ynu.ac.kr%0,                            Donghwi%Park%bdome@hanmail.net%0]</t>
+  </si>
+  <si>
+    <t>[K.%Khalil%NULL%0,                            K.%Agbontaen%NULL%0,                            D.%McNally%NULL%0,                            A.%Love%NULL%0,                            S.%Mandalia%NULL%0,                            W.%Banya%NULL%0,                            E.%Starren%NULL%0,                            R.%Dhunnookchand%NULL%0,                            H.%Farne%NULL%0,                            R.%Morton%NULL%0,                            G.%Davies%NULL%0,                            O.%Orhan%NULL%0,                            D%Lai%NULL%0,                            M.%Nelson%NULL%0,                            P.L.%Shah%NULL%0,                            J.L.%Garner%Justin.garner@chelwest.nhs.uk%0]</t>
+  </si>
+  <si>
+    <t>[Eyal%Klang%NULL%0,                            Gassan%Kassim%NULL%0,                            Shelly%Soffer%soffer.shelly@gmail.com%0,                            Robert%Freeman%NULL%0,                            Robert%Freeman%NULL%0,                            Matthew A.%Levin%NULL%0,                            Matthew A.%Levin%NULL%0,                            David L.%Reich%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sandeep%Krishnan%NULL%0,                            Kinjal%Patel%NULL%0,                            Ronak%Desai%NULL%0,                            Anupam%Sule%NULL%0,                            Peter%Paik%NULL%0,                            Ashley%Miller%NULL%0,                            Alicia%Barclay%NULL%0,                            Adam%Cassella%NULL%0,                            Jon%Lucaj%NULL%0,                            Yvonne%Royster%NULL%0,                            Joffer%Hakim%NULL%0,                            Zulfiqar%Ahmed%NULL%0,                            Farhad%Ghoddoussi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Manisha%Bhutani%null%0,                  David M.%Foureau%null%0,                  Shebli%Atrash%null%0,                  Peter M.%Voorhees%null%0,                  Saad Z.%Usmani%null%0]</t>
+  </si>
+  <si>
+    <t>[Wil%Lieberman-Cribbin%NULL%0,                            Joseph%Rapp%NULL%0,                            Naomi%Alpert%NULL%0,                            Stephanie%Tuminello%NULL%0,                            Emanuela%Taioli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Q.%Liu%NULL%0,                            N. C.%Song%NULL%0,                            Z. K.%Zheng%NULL%0,                            J. S.%Li%NULL%0,                            S. K.%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Long%NULL%0,                            Lan%Nie%NULL%0,                            Xiaochen%Xiang%NULL%0,                            Huan%Li%NULL%0,                            Xiaoli%Zhang%NULL%0,                            Xiaozhi%Fu%NULL%0,                            Hongwei%Ren%NULL%0,                            Wanxin%Liu%NULL%0,                            Qiang%Wang%wangqiang@wust.edu.cn%0,                            Qingming%Wu%wuhe9224@sina.com%0,                            Qingming%Wu%wuhe9224@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaomin%Luo%luoxiaomin04@163.com%0,                            Wei%Zhou%NULL%0,                            Xiaojie%Yan%NULL%0,                            Tangxi%Guo%NULL%0,                            Benchao%Wang%NULL%0,                            Hongxia%Xia%NULL%0,                            Lu%Ye%NULL%0,                            Jun%Xiong%NULL%0,                            Zongping%Jiang%NULL%0,                            Yu%Liu%NULL%0,                            Bicheng%Zhang%NULL%0,                            Weize%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ying%Luo%NULL%0,                            Liyan%Mao%NULL%0,                            Xu%Yuan%NULL%0,                            Ying%Xue%NULL%0,                            Qun%Lin%NULL%0,                            Guoxing%Tang%NULL%0,                            Huijuan%Song%NULL%0,                            Feng%Wang%fengwang@tjh.tjmu.edu.cn%0,                            Ziyong%Sun%zysun@tjh.tjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ying%Luo%NULL%0,                            Ying%Xue%NULL%0,                            Liyan%Mao%NULL%0,                            Xu%Yuan%NULL%0,                            Qun%Lin%NULL%0,                            Guoxing%Tang%NULL%0,                            Huijuan%Song%NULL%0,                            Feng%Wang%NULL%0,                            Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chiara%Masetti%NULL%0,                            Elena%Generali%NULL%0,                            Francesca%Colapietro%NULL%0,                            Antonio%Voza%NULL%0,                            Maurizio%Cecconi%NULL%0,                            Antonio%Messina%NULL%0,                            Paolo%Omodei%NULL%0,                            Claudio%Angelini%NULL%0,                            Michele%Ciccarelli%NULL%0,                            Salvatore%Badalamenti%NULL%0,                            G. Walter%Canonica%NULL%0,                            Ana%Lleo%ana.lleo@humanitas.it%0,                            Alessio%Aghemo%NULL%0,                            Alessio%Aghemo%NULL%0,                            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Takahisa%Mikami%NULL%0,                            Hirotaka%Miyashita%NULL%0,                            Takayuki%Yamada%NULL%0,                            Matthew%Harrington%NULL%0,                            Daniel%Steinberg%NULL%0,                            Andrew%Dunn%NULL%0,                            Evan%Siau%Evan.Siau@mountsinai.org%0]</t>
+  </si>
+  <si>
+    <t>[Alexis K.%Okoh%alexis.okoh@rwjbh.org%0,                            Christoph%Sossou%NULL%0,                            Christoph%Sossou%NULL%0,                            Neha S.%Dangayach%NULL%0,                            Sherin%Meledathu%NULL%0,                            Oluwakemi%Phillips%NULL%0,                            Corinne%Raczek%NULL%0,                            Michael%Patti%NULL%0,                            Nathan%Kang%NULL%0,                            Sameer A.%Hirji%NULL%0,                            Charles%Cathcart%NULL%0,                            Christian%Engell%NULL%0,                            Marc%Cohen%NULL%0,                            Sandhya%Nagarakanti%NULL%0,                            Eliahu%Bishburg%NULL%0,                            Harpreet S.%Grewal%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -5854,7 +6184,7 @@
         <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>1496</v>
+        <v>1606</v>
       </c>
       <c r="F2" t="s">
         <v>73</v>
@@ -5886,7 +6216,7 @@
         <v>260</v>
       </c>
       <c r="E3" t="s">
-        <v>1497</v>
+        <v>1607</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -5918,7 +6248,7 @@
         <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>1498</v>
+        <v>1608</v>
       </c>
       <c r="F4" t="s">
         <v>79</v>
@@ -5950,7 +6280,7 @@
         <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>1499</v>
+        <v>1609</v>
       </c>
       <c r="F5" t="s">
         <v>83</v>
@@ -5982,7 +6312,7 @@
         <v>86</v>
       </c>
       <c r="E6" t="s">
-        <v>1500</v>
+        <v>1610</v>
       </c>
       <c r="F6" t="s">
         <v>87</v>
@@ -6014,7 +6344,7 @@
         <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>1501</v>
+        <v>1611</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -6046,7 +6376,7 @@
         <v>90</v>
       </c>
       <c r="E8" t="s">
-        <v>1502</v>
+        <v>1612</v>
       </c>
       <c r="F8" t="s">
         <v>91</v>
@@ -6078,7 +6408,7 @@
         <v>94</v>
       </c>
       <c r="E9" t="s">
-        <v>1503</v>
+        <v>1613</v>
       </c>
       <c r="F9" t="s">
         <v>95</v>
@@ -6110,7 +6440,7 @@
         <v>98</v>
       </c>
       <c r="E10" t="s">
-        <v>1504</v>
+        <v>1614</v>
       </c>
       <c r="F10" t="s">
         <v>99</v>
@@ -6142,7 +6472,7 @@
         <v>102</v>
       </c>
       <c r="E11" t="s">
-        <v>1505</v>
+        <v>1615</v>
       </c>
       <c r="F11" t="s">
         <v>103</v>
@@ -6174,7 +6504,7 @@
         <v>106</v>
       </c>
       <c r="E12" t="s">
-        <v>1506</v>
+        <v>1616</v>
       </c>
       <c r="F12" t="s">
         <v>107</v>
@@ -6206,7 +6536,7 @@
         <v>109</v>
       </c>
       <c r="E13" t="s">
-        <v>1507</v>
+        <v>1617</v>
       </c>
       <c r="F13" t="s">
         <v>110</v>
@@ -6238,7 +6568,7 @@
         <v>113</v>
       </c>
       <c r="E14" t="s">
-        <v>1508</v>
+        <v>1618</v>
       </c>
       <c r="F14" t="s">
         <v>114</v>
@@ -6270,7 +6600,7 @@
         <v>776</v>
       </c>
       <c r="E15" t="s">
-        <v>1509</v>
+        <v>1619</v>
       </c>
       <c r="F15" t="s">
         <v>118</v>
@@ -6302,7 +6632,7 @@
         <v>121</v>
       </c>
       <c r="E16" t="s">
-        <v>1510</v>
+        <v>1620</v>
       </c>
       <c r="F16" t="s">
         <v>122</v>
@@ -6334,7 +6664,7 @@
         <v>779</v>
       </c>
       <c r="E17" t="s">
-        <v>1511</v>
+        <v>1621</v>
       </c>
       <c r="F17" t="s">
         <v>125</v>
@@ -6366,7 +6696,7 @@
         <v>128</v>
       </c>
       <c r="E18" t="s">
-        <v>1512</v>
+        <v>1622</v>
       </c>
       <c r="F18" t="s">
         <v>129</v>
@@ -6398,7 +6728,7 @@
         <v>131</v>
       </c>
       <c r="E19" t="s">
-        <v>1513</v>
+        <v>1623</v>
       </c>
       <c r="F19" t="s">
         <v>132</v>
@@ -6430,7 +6760,7 @@
         <v>134</v>
       </c>
       <c r="E20" t="s">
-        <v>1514</v>
+        <v>1624</v>
       </c>
       <c r="F20" t="s">
         <v>135</v>
@@ -6462,7 +6792,7 @@
         <v>137</v>
       </c>
       <c r="E21" t="s">
-        <v>1515</v>
+        <v>1625</v>
       </c>
       <c r="F21" t="s">
         <v>138</v>
@@ -6494,7 +6824,7 @@
         <v>141</v>
       </c>
       <c r="E22" t="s">
-        <v>1516</v>
+        <v>1626</v>
       </c>
       <c r="F22" t="s">
         <v>142</v>
@@ -6526,7 +6856,7 @@
         <v>263</v>
       </c>
       <c r="E23" t="s">
-        <v>1517</v>
+        <v>1627</v>
       </c>
       <c r="F23" t="s">
         <v>23</v>
@@ -6558,7 +6888,7 @@
         <v>144</v>
       </c>
       <c r="E24" t="s">
-        <v>1518</v>
+        <v>1628</v>
       </c>
       <c r="F24" t="s">
         <v>145</v>
@@ -6590,7 +6920,7 @@
         <v>147</v>
       </c>
       <c r="E25" t="s">
-        <v>1519</v>
+        <v>1629</v>
       </c>
       <c r="F25" t="s">
         <v>148</v>
@@ -6622,7 +6952,7 @@
         <v>789</v>
       </c>
       <c r="E26" t="s">
-        <v>1520</v>
+        <v>1630</v>
       </c>
       <c r="F26" t="s">
         <v>152</v>
@@ -6654,7 +6984,7 @@
         <v>155</v>
       </c>
       <c r="E27" t="s">
-        <v>1521</v>
+        <v>1631</v>
       </c>
       <c r="F27" t="s">
         <v>156</v>
@@ -6686,7 +7016,7 @@
         <v>158</v>
       </c>
       <c r="E28" t="s">
-        <v>1522</v>
+        <v>1632</v>
       </c>
       <c r="F28" t="s">
         <v>159</v>
@@ -6718,7 +7048,7 @@
         <v>82</v>
       </c>
       <c r="E29" t="s">
-        <v>1523</v>
+        <v>1633</v>
       </c>
       <c r="F29" t="s">
         <v>162</v>
@@ -6750,7 +7080,7 @@
         <v>165</v>
       </c>
       <c r="E30" t="s">
-        <v>1524</v>
+        <v>1634</v>
       </c>
       <c r="F30" t="s">
         <v>166</v>
@@ -6782,7 +7112,7 @@
         <v>168</v>
       </c>
       <c r="E31" t="s">
-        <v>1525</v>
+        <v>1635</v>
       </c>
       <c r="F31" t="s">
         <v>169</v>
@@ -6814,7 +7144,7 @@
         <v>172</v>
       </c>
       <c r="E32" t="s">
-        <v>1526</v>
+        <v>1636</v>
       </c>
       <c r="F32" t="s">
         <v>173</v>
@@ -6846,7 +7176,7 @@
         <v>176</v>
       </c>
       <c r="E33" t="s">
-        <v>1527</v>
+        <v>1637</v>
       </c>
       <c r="F33" t="s">
         <v>177</v>
@@ -6878,7 +7208,7 @@
         <v>180</v>
       </c>
       <c r="E34" t="s">
-        <v>1528</v>
+        <v>1638</v>
       </c>
       <c r="F34" t="s">
         <v>181</v>
@@ -6910,7 +7240,7 @@
         <v>183</v>
       </c>
       <c r="E35" t="s">
-        <v>1529</v>
+        <v>1639</v>
       </c>
       <c r="F35" t="s">
         <v>184</v>
@@ -6942,7 +7272,7 @@
         <v>187</v>
       </c>
       <c r="E36" t="s">
-        <v>1530</v>
+        <v>1640</v>
       </c>
       <c r="F36" t="s">
         <v>188</v>
@@ -6974,7 +7304,7 @@
         <v>191</v>
       </c>
       <c r="E37" t="s">
-        <v>1531</v>
+        <v>1641</v>
       </c>
       <c r="F37" t="s">
         <v>192</v>
@@ -7006,7 +7336,7 @@
         <v>194</v>
       </c>
       <c r="E38" t="s">
-        <v>1532</v>
+        <v>1642</v>
       </c>
       <c r="F38" t="s">
         <v>195</v>
@@ -7038,7 +7368,7 @@
         <v>197</v>
       </c>
       <c r="E39" t="s">
-        <v>1533</v>
+        <v>1643</v>
       </c>
       <c r="F39" t="s">
         <v>198</v>
@@ -7070,7 +7400,7 @@
         <v>64</v>
       </c>
       <c r="E40" t="s">
-        <v>1534</v>
+        <v>1644</v>
       </c>
       <c r="F40" t="s">
         <v>41</v>
@@ -7102,7 +7432,7 @@
         <v>201</v>
       </c>
       <c r="E41" t="s">
-        <v>1535</v>
+        <v>1645</v>
       </c>
       <c r="F41" t="s">
         <v>202</v>
@@ -7134,7 +7464,7 @@
         <v>204</v>
       </c>
       <c r="E42" t="s">
-        <v>1536</v>
+        <v>1646</v>
       </c>
       <c r="F42" t="s">
         <v>205</v>
@@ -7166,7 +7496,7 @@
         <v>807</v>
       </c>
       <c r="E43" t="s">
-        <v>1537</v>
+        <v>1647</v>
       </c>
       <c r="F43" t="s">
         <v>209</v>
@@ -7198,7 +7528,7 @@
         <v>82</v>
       </c>
       <c r="E44" t="s">
-        <v>1538</v>
+        <v>1648</v>
       </c>
       <c r="F44" t="s">
         <v>212</v>
@@ -7230,7 +7560,7 @@
         <v>215</v>
       </c>
       <c r="E45" t="s">
-        <v>1539</v>
+        <v>1649</v>
       </c>
       <c r="F45" t="s">
         <v>216</v>
@@ -7262,7 +7592,7 @@
         <v>82</v>
       </c>
       <c r="E46" t="s">
-        <v>1540</v>
+        <v>1650</v>
       </c>
       <c r="F46" t="s">
         <v>219</v>
@@ -7326,7 +7656,7 @@
         <v>752</v>
       </c>
       <c r="E48" t="s">
-        <v>1541</v>
+        <v>1651</v>
       </c>
       <c r="F48" t="s">
         <v>49</v>
@@ -7358,7 +7688,7 @@
         <v>82</v>
       </c>
       <c r="E49" t="s">
-        <v>1542</v>
+        <v>1652</v>
       </c>
       <c r="F49" t="s">
         <v>229</v>
@@ -7390,7 +7720,7 @@
         <v>231</v>
       </c>
       <c r="E50" t="s">
-        <v>1543</v>
+        <v>1653</v>
       </c>
       <c r="F50" t="s">
         <v>232</v>
@@ -7422,7 +7752,7 @@
         <v>235</v>
       </c>
       <c r="E51" t="s">
-        <v>1544</v>
+        <v>1654</v>
       </c>
       <c r="F51" t="s">
         <v>236</v>
@@ -7454,7 +7784,7 @@
         <v>64</v>
       </c>
       <c r="E52" t="s">
-        <v>816</v>
+        <v>929</v>
       </c>
       <c r="F52" t="s">
         <v>53</v>
@@ -7486,7 +7816,7 @@
         <v>239</v>
       </c>
       <c r="E53" t="s">
-        <v>1545</v>
+        <v>1655</v>
       </c>
       <c r="F53" t="s">
         <v>240</v>
@@ -7518,7 +7848,7 @@
         <v>818</v>
       </c>
       <c r="E54" t="s">
-        <v>1546</v>
+        <v>1656</v>
       </c>
       <c r="F54" t="s">
         <v>243</v>
@@ -7550,7 +7880,7 @@
         <v>246</v>
       </c>
       <c r="E55" t="s">
-        <v>1547</v>
+        <v>1657</v>
       </c>
       <c r="F55" t="s">
         <v>247</v>
@@ -7582,7 +7912,7 @@
         <v>249</v>
       </c>
       <c r="E56" t="s">
-        <v>1548</v>
+        <v>1658</v>
       </c>
       <c r="F56" t="s">
         <v>250</v>
@@ -7614,7 +7944,7 @@
         <v>822</v>
       </c>
       <c r="E57" t="s">
-        <v>1549</v>
+        <v>1659</v>
       </c>
       <c r="F57" t="s">
         <v>254</v>
@@ -7646,7 +7976,7 @@
         <v>824</v>
       </c>
       <c r="E58" t="s">
-        <v>1550</v>
+        <v>1660</v>
       </c>
       <c r="F58" t="s">
         <v>257</v>
